--- a/data/BMED.MI.xlsx
+++ b/data/BMED.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="1735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="1736">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32330417633057</t>
+    <t xml:space="preserve">4.32330465316772</t>
   </si>
   <si>
     <t xml:space="preserve">BMED.MI</t>
@@ -47,37 +47,37 @@
     <t xml:space="preserve">4.26425123214722</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99385023117065</t>
+    <t xml:space="preserve">3.99385046958923</t>
   </si>
   <si>
     <t xml:space="preserve">3.90060901641846</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8943920135498</t>
+    <t xml:space="preserve">3.89439272880554</t>
   </si>
   <si>
     <t xml:space="preserve">3.9223644733429</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03425455093384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04047155380249</t>
+    <t xml:space="preserve">4.03425407409668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04047060012817</t>
   </si>
   <si>
     <t xml:space="preserve">3.75453019142151</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72344899177551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76074647903442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5431821346283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66750526428223</t>
+    <t xml:space="preserve">3.72344970703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.760746717453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54318261146545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66750502586365</t>
   </si>
   <si>
     <t xml:space="preserve">3.90682458877563</t>
@@ -86,25 +86,25 @@
     <t xml:space="preserve">3.91614890098572</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91925644874573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82912349700928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84155631065369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6861526966095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58669519424438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6426408290863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77628707885742</t>
+    <t xml:space="preserve">3.91925764083862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8291232585907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84155535697937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68615317344666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58669567108154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64263987541199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77628588676453</t>
   </si>
   <si>
     <t xml:space="preserve">3.46237325668335</t>
@@ -113,34 +113,34 @@
     <t xml:space="preserve">3.30386233329773</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60534405708313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71723294258118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78561019897461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88817691802979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84466361999512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84777164459229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95966243743896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92547392845154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83844828605652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98763418197632</t>
+    <t xml:space="preserve">3.60534358024597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71723365783691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78561067581177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88817620277405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84466409683228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84777188301086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95966196060181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92547416687012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83844804763794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98763489723206</t>
   </si>
   <si>
     <t xml:space="preserve">4.07465982437134</t>
@@ -152,7 +152,7 @@
     <t xml:space="preserve">4.21763038635254</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23938655853271</t>
+    <t xml:space="preserve">4.23938703536987</t>
   </si>
   <si>
     <t xml:space="preserve">4.13371324539185</t>
@@ -161,7 +161,7 @@
     <t xml:space="preserve">4.21141481399536</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20830631256104</t>
+    <t xml:space="preserve">4.20830583572388</t>
   </si>
   <si>
     <t xml:space="preserve">4.27357482910156</t>
@@ -170,16 +170,16 @@
     <t xml:space="preserve">4.34816837310791</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33262777328491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30154800415039</t>
+    <t xml:space="preserve">4.33262825012207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30154752731323</t>
   </si>
   <si>
     <t xml:space="preserve">4.23006248474121</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28600692749023</t>
+    <t xml:space="preserve">4.28600740432739</t>
   </si>
   <si>
     <t xml:space="preserve">4.25181865692139</t>
@@ -188,85 +188,85 @@
     <t xml:space="preserve">4.22073841094971</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17411851882935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35749340057373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39168214797974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41654586791992</t>
+    <t xml:space="preserve">4.17411804199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35749292373657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39168119430542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41654539108276</t>
   </si>
   <si>
     <t xml:space="preserve">4.24249458312988</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15236043930054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04668760299683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27979183197021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31398057937622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27046775817871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43208599090576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47559881210327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40100526809692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50564050674438</t>
+    <t xml:space="preserve">4.15236139297485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04668712615967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27979135513306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3139796257019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27046728134155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43208694458008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47559928894043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40100574493408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50564002990723</t>
   </si>
   <si>
     <t xml:space="preserve">4.43905401229858</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51198244094849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54051876068115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53100681304932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43271350860596</t>
+    <t xml:space="preserve">4.51198196411133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54051923751831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53100633621216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4327130317688</t>
   </si>
   <si>
     <t xml:space="preserve">4.4834451675415</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44222545623779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57222604751587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55637264251709</t>
+    <t xml:space="preserve">4.44222450256348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57222652435303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55637311935425</t>
   </si>
   <si>
     <t xml:space="preserve">4.61661672592163</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48978662490845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65783643722534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56588459014893</t>
+    <t xml:space="preserve">4.48978710174561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65783596038818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56588506698608</t>
   </si>
   <si>
     <t xml:space="preserve">4.53417730331421</t>
@@ -275,124 +275,124 @@
     <t xml:space="preserve">4.63881158828735</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48661613464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49612855911255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48027515411377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51515293121338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47710275650024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50247049331665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66100740432739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90198469161987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83856964111328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75613021850586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78466653823853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81637525558472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77832508087158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72442197799683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74661779403687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60710477828979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62930011749268</t>
+    <t xml:space="preserve">4.4866156578064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49612808227539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48027420043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51515245437622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47710418701172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50246906280518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66100788116455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90198421478271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83857011795044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7561297416687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78466749191284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81637382507324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77832460403442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72442245483398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74661731719971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60710430145264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62930107116699</t>
   </si>
   <si>
     <t xml:space="preserve">4.68003225326538</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64198350906372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22027254104614</t>
+    <t xml:space="preserve">4.6419825553894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22027397155762</t>
   </si>
   <si>
     <t xml:space="preserve">4.03319883346558</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05856418609619</t>
+    <t xml:space="preserve">4.05856466293335</t>
   </si>
   <si>
     <t xml:space="preserve">3.98563671112061</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11563777923584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32490730285645</t>
+    <t xml:space="preserve">4.11563682556152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3249077796936</t>
   </si>
   <si>
     <t xml:space="preserve">4.36929798126221</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34710311889648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50881147384644</t>
+    <t xml:space="preserve">4.34710216522217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50881052017212</t>
   </si>
   <si>
     <t xml:space="preserve">3.83027005195618</t>
   </si>
   <si>
-    <t xml:space="preserve">3.5861222743988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73514699935913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69709801673889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8905143737793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90002727508545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75734281539917</t>
+    <t xml:space="preserve">3.58612275123596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73514795303345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69709825515747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89051556587219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90002655982971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75734162330627</t>
   </si>
   <si>
     <t xml:space="preserve">3.70661067962646</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64636611938477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67173194885254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87466073036194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97295308113098</t>
+    <t xml:space="preserve">3.6463668346405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6717324256897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87466049194336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9729540348053</t>
   </si>
   <si>
     <t xml:space="preserve">4.1092963218689</t>
@@ -401,25 +401,25 @@
     <t xml:space="preserve">3.9951491355896</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02051639556885</t>
+    <t xml:space="preserve">4.02051401138306</t>
   </si>
   <si>
     <t xml:space="preserve">4.04271030426025</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06490516662598</t>
+    <t xml:space="preserve">4.06490612030029</t>
   </si>
   <si>
     <t xml:space="preserve">4.0458812713623</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0141749382019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15368700027466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09027242660522</t>
+    <t xml:space="preserve">4.01417303085327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15368747711182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09027099609375</t>
   </si>
   <si>
     <t xml:space="preserve">4.1600284576416</t>
@@ -428,130 +428,130 @@
     <t xml:space="preserve">3.87783074378967</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82075786590576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90636801719666</t>
+    <t xml:space="preserve">3.82075834274292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90636777877808</t>
   </si>
   <si>
     <t xml:space="preserve">4.05222272872925</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07758855819702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9634416103363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89685559272766</t>
+    <t xml:space="preserve">4.07758903503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96344208717346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89685606956482</t>
   </si>
   <si>
     <t xml:space="preserve">3.94441723823547</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85246586799622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97612476348877</t>
+    <t xml:space="preserve">3.85246467590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97612500190735</t>
   </si>
   <si>
     <t xml:space="preserve">4.01734447479248</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94124627113342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96978330612183</t>
+    <t xml:space="preserve">3.94124555587769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96978306770325</t>
   </si>
   <si>
     <t xml:space="preserve">4.01100301742554</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07441759109497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09344148635864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0553936958313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08075904846191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17271137237549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11246681213379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98880767822266</t>
+    <t xml:space="preserve">4.07441806793213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0934419631958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05539321899414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08076000213623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17271184921265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11246776580811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98880672454834</t>
   </si>
   <si>
     <t xml:space="preserve">4.02368593215942</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00783157348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78587889671326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.858806848526</t>
+    <t xml:space="preserve">4.00783252716064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78587913513184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85880708694458</t>
   </si>
   <si>
     <t xml:space="preserve">3.77953767776489</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83978199958801</t>
+    <t xml:space="preserve">3.83978223800659</t>
   </si>
   <si>
     <t xml:space="preserve">3.87148976325989</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76685452461243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65270733833313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69075775146484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76051306724548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73197674751282</t>
+    <t xml:space="preserve">3.76685500144958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65270829200745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69075632095337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76051354408264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7319769859314</t>
   </si>
   <si>
     <t xml:space="preserve">3.74148941040039</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92222189903259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88100242614746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95710039138794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89368510246277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95393013954163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79539203643799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86831855773926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91905164718628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92539238929749</t>
+    <t xml:space="preserve">3.92222213745117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88100147247314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95710015296936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89368486404419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95392918586731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79539227485657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86831903457642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91905069351196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92539262771606</t>
   </si>
   <si>
     <t xml:space="preserve">4.00149011611938</t>
@@ -560,25 +560,25 @@
     <t xml:space="preserve">4.07124710083008</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84295320510864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81441617012024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.950758934021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04905271530151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90953826904297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86514806747437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77002573013306</t>
+    <t xml:space="preserve">3.84295248985291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81441569328308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95075869560242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04905223846436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90953874588013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86514782905579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7700252532959</t>
   </si>
   <si>
     <t xml:space="preserve">3.75047516822815</t>
@@ -587,43 +587,43 @@
     <t xml:space="preserve">3.85148692131042</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87429571151733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85800409317017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90036368370056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9492404460907</t>
+    <t xml:space="preserve">3.87429547309875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85800433158875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90036416053772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94923973083496</t>
   </si>
   <si>
     <t xml:space="preserve">3.98182487487793</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03395986557007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06980228424072</t>
+    <t xml:space="preserve">4.03396034240723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06980276107788</t>
   </si>
   <si>
     <t xml:space="preserve">4.26530933380127</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34025478363037</t>
+    <t xml:space="preserve">4.34025430679321</t>
   </si>
   <si>
     <t xml:space="preserve">4.67587471008301</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51295280456543</t>
+    <t xml:space="preserve">4.51295185089111</t>
   </si>
   <si>
     <t xml:space="preserve">4.44778299331665</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51621055603027</t>
+    <t xml:space="preserve">4.51621007919312</t>
   </si>
   <si>
     <t xml:space="preserve">4.49991846084595</t>
@@ -641,10 +641,10 @@
     <t xml:space="preserve">4.46081686019897</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49665927886963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50317621231079</t>
+    <t xml:space="preserve">4.49666023254395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50317668914795</t>
   </si>
   <si>
     <t xml:space="preserve">4.4803671836853</t>
@@ -653,25 +653,25 @@
     <t xml:space="preserve">4.45104122161865</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50643587112427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5292444229126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69216632843018</t>
+    <t xml:space="preserve">4.50643539428711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52924346923828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69216680526733</t>
   </si>
   <si>
     <t xml:space="preserve">4.71171712875366</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61722278594971</t>
+    <t xml:space="preserve">4.61722183227539</t>
   </si>
   <si>
     <t xml:space="preserve">4.65958213806152</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84857273101807</t>
+    <t xml:space="preserve">4.84857177734375</t>
   </si>
   <si>
     <t xml:space="preserve">4.74104356765747</t>
@@ -680,79 +680,79 @@
     <t xml:space="preserve">4.91374158859253</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8159875869751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80295372009277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8746395111084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81272983551025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80621290206909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68239164352417</t>
+    <t xml:space="preserve">4.81598806381226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80295419692993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87463903427124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8127293586731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80621242523193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68239212036133</t>
   </si>
   <si>
     <t xml:space="preserve">4.83879709243774</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77688550949097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76385259628296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77037000656128</t>
+    <t xml:space="preserve">4.77688598632812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76385307312012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7703685760498</t>
   </si>
   <si>
     <t xml:space="preserve">4.60744667053223</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61396360397339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66609907150269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6498064994812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53576135635376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56182861328125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54879522323608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63677358627319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69868326187134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6400318145752</t>
+    <t xml:space="preserve">4.61396408081055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66609954833984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64980745315552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5357608795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56182813644409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54879474639893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63677310943604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6986837387085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64003133773804</t>
   </si>
   <si>
     <t xml:space="preserve">4.62373924255371</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60092926025391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29137802124023</t>
+    <t xml:space="preserve">4.60093021392822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29137706756592</t>
   </si>
   <si>
     <t xml:space="preserve">4.15452241897583</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12519788742065</t>
+    <t xml:space="preserve">4.12519598007202</t>
   </si>
   <si>
     <t xml:space="preserve">4.02092599868774</t>
@@ -761,7 +761,7 @@
     <t xml:space="preserve">4.04047679901123</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01766729354858</t>
+    <t xml:space="preserve">4.01766777038574</t>
   </si>
   <si>
     <t xml:space="preserve">4.15126466751099</t>
@@ -773,52 +773,52 @@
     <t xml:space="preserve">4.16103982925415</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17081499099731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21643257141113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24901723861694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26205110549927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3598051071167</t>
+    <t xml:space="preserve">4.17081546783447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21643304824829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24901819229126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26205158233643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35980463027954</t>
   </si>
   <si>
     <t xml:space="preserve">4.32721996307373</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35328769683838</t>
+    <t xml:space="preserve">4.35328817367554</t>
   </si>
   <si>
     <t xml:space="preserve">4.39564800262451</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30441093444824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32070398330688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34351253509521</t>
+    <t xml:space="preserve">4.3044114112854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32070350646973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34351301193237</t>
   </si>
   <si>
     <t xml:space="preserve">4.37935543060303</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39890670776367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46407461166382</t>
+    <t xml:space="preserve">4.39890623092651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46407556533813</t>
   </si>
   <si>
     <t xml:space="preserve">4.4738507270813</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50969409942627</t>
+    <t xml:space="preserve">4.50969314575195</t>
   </si>
   <si>
     <t xml:space="preserve">4.54227781295776</t>
@@ -827,31 +827,31 @@
     <t xml:space="preserve">4.48688459396362</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44452428817749</t>
+    <t xml:space="preserve">4.44452476501465</t>
   </si>
   <si>
     <t xml:space="preserve">4.40216445922852</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36632108688354</t>
+    <t xml:space="preserve">4.36632204055786</t>
   </si>
   <si>
     <t xml:space="preserve">4.42497396469116</t>
   </si>
   <si>
-    <t xml:space="preserve">4.58973073959351</t>
+    <t xml:space="preserve">4.58973026275635</t>
   </si>
   <si>
     <t xml:space="preserve">4.59634399414062</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66578531265259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60295820236206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64594507217407</t>
+    <t xml:space="preserve">4.66578578948975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60295724868774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64594459533691</t>
   </si>
   <si>
     <t xml:space="preserve">4.61949110031128</t>
@@ -863,34 +863,34 @@
     <t xml:space="preserve">4.65917205810547</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73853302001953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74184036254883</t>
+    <t xml:space="preserve">4.73853349685669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74183940887451</t>
   </si>
   <si>
     <t xml:space="preserve">4.7087721824646</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86088180541992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86749649047852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88072204589844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87741470336914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92040348052979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79805374145508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81128072738647</t>
+    <t xml:space="preserve">4.86088228225708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86749601364136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8807225227356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87741565704346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92040300369263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79805469512939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81128168106079</t>
   </si>
   <si>
     <t xml:space="preserve">4.89064311981201</t>
@@ -899,34 +899,34 @@
     <t xml:space="preserve">4.99315118789673</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05597925186157</t>
+    <t xml:space="preserve">5.0559778213501</t>
   </si>
   <si>
     <t xml:space="preserve">4.99976444244385</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00637769699097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98323011398315</t>
+    <t xml:space="preserve">5.00637817382812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98323059082031</t>
   </si>
   <si>
     <t xml:space="preserve">4.88733577728271</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84765529632568</t>
+    <t xml:space="preserve">4.84765434265137</t>
   </si>
   <si>
     <t xml:space="preserve">4.93693685531616</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81789398193359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94354963302612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96008396148682</t>
+    <t xml:space="preserve">4.81789493560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94355058670044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96008348464966</t>
   </si>
   <si>
     <t xml:space="preserve">4.90717601776123</t>
@@ -938,37 +938,37 @@
     <t xml:space="preserve">4.7947473526001</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83112144470215</t>
+    <t xml:space="preserve">4.83112192153931</t>
   </si>
   <si>
     <t xml:space="preserve">4.91378927230835</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80466794967651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85096168518066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75837421417236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83773517608643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89394903182983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84104204177856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85426902770996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90056324005127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02621841430664</t>
+    <t xml:space="preserve">4.80466747283936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85096120834351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75837373733521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83773469924927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89394855499268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84104156494141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8542685508728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90056276321411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02621793746948</t>
   </si>
   <si>
     <t xml:space="preserve">4.89725589752197</t>
@@ -980,7 +980,7 @@
     <t xml:space="preserve">4.91048288345337</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82781410217285</t>
+    <t xml:space="preserve">4.82781505584717</t>
   </si>
   <si>
     <t xml:space="preserve">4.77821445465088</t>
@@ -992,7 +992,7 @@
     <t xml:space="preserve">4.85757493972778</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83442783355713</t>
+    <t xml:space="preserve">4.83442878723145</t>
   </si>
   <si>
     <t xml:space="preserve">4.76168012619019</t>
@@ -1001,25 +1001,25 @@
     <t xml:space="preserve">4.79144048690796</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75506687164307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73522615432739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.721999168396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65586471557617</t>
+    <t xml:space="preserve">4.75506734848022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73522663116455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72199964523315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6558666229248</t>
   </si>
   <si>
     <t xml:space="preserve">4.69554567337036</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74514770507812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67570495605469</t>
+    <t xml:space="preserve">4.74514675140381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67570543289185</t>
   </si>
   <si>
     <t xml:space="preserve">4.72530698776245</t>
@@ -1028,34 +1028,34 @@
     <t xml:space="preserve">4.77490711212158</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80136156082153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87080240249634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96338987350464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94685697555542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77160120010376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68562412261963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66909170150757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66247844696045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75175952911377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71869325637817</t>
+    <t xml:space="preserve">4.80136108398438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87080144882202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96339082717896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9468560218811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77160024642944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68562507629395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66909217834473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66247940063477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75176048278809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71869373321533</t>
   </si>
   <si>
     <t xml:space="preserve">4.78813314437866</t>
@@ -1064,52 +1064,52 @@
     <t xml:space="preserve">4.74174451828003</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6260929107666</t>
+    <t xml:space="preserve">4.62609434127808</t>
   </si>
   <si>
     <t xml:space="preserve">4.62949466705322</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6635103225708</t>
+    <t xml:space="preserve">4.66350984573364</t>
   </si>
   <si>
     <t xml:space="preserve">4.66010761260986</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75535106658936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7655553817749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77916240692139</t>
+    <t xml:space="preserve">4.75535154342651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76555633544922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77916145324707</t>
   </si>
   <si>
     <t xml:space="preserve">4.88460969924927</t>
   </si>
   <si>
-    <t xml:space="preserve">4.88801097869873</t>
+    <t xml:space="preserve">4.88801193237305</t>
   </si>
   <si>
     <t xml:space="preserve">4.86079978942871</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86760187149048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84379100799561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90161752700806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85059499740601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91862487792969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97304964065552</t>
+    <t xml:space="preserve">4.86760282516479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84379148483276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90161657333374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85059547424316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91862535476685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97305011749268</t>
   </si>
   <si>
     <t xml:space="preserve">5.03427743911743</t>
@@ -1118,79 +1118,79 @@
     <t xml:space="preserve">5.08530044555664</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96624612808228</t>
+    <t xml:space="preserve">4.96624755859375</t>
   </si>
   <si>
     <t xml:space="preserve">5.02067136764526</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0478835105896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9764518737793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99345970153809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90842151641846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81997919082642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8029727935791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89141321182251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99005746841431</t>
+    <t xml:space="preserve">5.04788398742676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97645092010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99345922470093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90842056274414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81998062133789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80297327041626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89141273498535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99005794525146</t>
   </si>
   <si>
     <t xml:space="preserve">4.98665618896484</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95264053344727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0955057144165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12271785736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17033958435059</t>
+    <t xml:space="preserve">4.95264148712158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09550476074219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12271738052368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17033910751343</t>
   </si>
   <si>
     <t xml:space="preserve">5.25877904891968</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28599119186401</t>
+    <t xml:space="preserve">5.28599214553833</t>
   </si>
   <si>
     <t xml:space="preserve">5.3029990196228</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29619598388672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33701467514038</t>
+    <t xml:space="preserve">5.29619646072388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33701419830322</t>
   </si>
   <si>
     <t xml:space="preserve">5.38803768157959</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39143848419189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33021116256714</t>
+    <t xml:space="preserve">5.39143943786621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3302116394043</t>
   </si>
   <si>
     <t xml:space="preserve">5.37443161010742</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40844678878784</t>
+    <t xml:space="preserve">5.40844631195068</t>
   </si>
   <si>
     <t xml:space="preserve">5.272385597229</t>
@@ -1199,91 +1199,91 @@
     <t xml:space="preserve">5.1635365486145</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24857521057129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17714214324951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07509613037109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76215410232544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80977535247803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92882966995239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91522455215454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95944404602051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94923877716064</t>
+    <t xml:space="preserve">5.24857473373413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17714262008667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07509565353394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76215505599976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80977582931519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92883014678955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91522359848022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95944356918335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94923973083496</t>
   </si>
   <si>
     <t xml:space="preserve">4.94583749771118</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95604181289673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06149053573608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03767919540405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82678413391113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78596496582031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83358716964722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90501880645752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93903493881226</t>
+    <t xml:space="preserve">4.95604228973389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06149005889893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03767824172974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82678318023682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78596544265747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8335862159729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90501928329468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93903398513794</t>
   </si>
   <si>
     <t xml:space="preserve">4.93223142623901</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87440490722656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84719371795654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77576112747192</t>
+    <t xml:space="preserve">4.87440538406372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84719276428223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77576065063477</t>
   </si>
   <si>
     <t xml:space="preserve">4.80637407302856</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81657934188843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73834371566772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79957151412964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7723593711853</t>
+    <t xml:space="preserve">4.81657886505127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73834419250488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7995719909668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77235841751099</t>
   </si>
   <si>
     <t xml:space="preserve">4.76895761489868</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72813892364502</t>
+    <t xml:space="preserve">4.72813987731934</t>
   </si>
   <si>
     <t xml:space="preserve">4.71793413162231</t>
@@ -1292,10 +1292,10 @@
     <t xml:space="preserve">4.79616975784302</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83698797225952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90708875656128</t>
+    <t xml:space="preserve">4.83698844909668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90708827972412</t>
   </si>
   <si>
     <t xml:space="preserve">4.84058666229248</t>
@@ -1307,31 +1307,31 @@
     <t xml:space="preserve">4.6025824546814</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63758325576782</t>
+    <t xml:space="preserve">4.63758373260498</t>
   </si>
   <si>
     <t xml:space="preserve">4.66208362579346</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74958515167236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73208522796631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76008462905884</t>
+    <t xml:space="preserve">4.74958562850952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73208475112915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76008653640747</t>
   </si>
   <si>
     <t xml:space="preserve">4.74608564376831</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65508317947388</t>
+    <t xml:space="preserve">4.65508413314819</t>
   </si>
   <si>
     <t xml:space="preserve">4.71458435058594</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67608404159546</t>
+    <t xml:space="preserve">4.67608451843262</t>
   </si>
   <si>
     <t xml:space="preserve">4.66558408737183</t>
@@ -1340,49 +1340,49 @@
     <t xml:space="preserve">4.57458209991455</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49758148193359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31207752227783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29107713699341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27707719802856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22457504272461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25957632064819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27007675170898</t>
+    <t xml:space="preserve">4.49758100509644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31207704544067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29107761383057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27707624435425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22457599639893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25957727432251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27007627487183</t>
   </si>
   <si>
     <t xml:space="preserve">4.24907636642456</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18257522583008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06707334518433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18607425689697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23157596588135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28057718276978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09507274627686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16857481002808</t>
+    <t xml:space="preserve">4.18257427215576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06707382202148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18607521057129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23157644271851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28057622909546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09507369995117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16857433319092</t>
   </si>
   <si>
     <t xml:space="preserve">4.18957567214966</t>
@@ -1394,13 +1394,13 @@
     <t xml:space="preserve">4.2175760269165</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15807390213013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15457439422607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19307565689087</t>
+    <t xml:space="preserve">4.1580753326416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15457487106323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19307470321655</t>
   </si>
   <si>
     <t xml:space="preserve">4.13707494735718</t>
@@ -1409,64 +1409,64 @@
     <t xml:space="preserve">4.11957359313965</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16507434844971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09857416152954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20707559585571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07407283782959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02857255935669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00407218933105</t>
+    <t xml:space="preserve">4.16507482528687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09857320785522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20707511901855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07407331466675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02857303619385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00407123565674</t>
   </si>
   <si>
     <t xml:space="preserve">4.06357336044312</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12657451629639</t>
+    <t xml:space="preserve">4.12657499313354</t>
   </si>
   <si>
     <t xml:space="preserve">4.11257410049438</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14407396316528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98657178878784</t>
+    <t xml:space="preserve">4.1440749168396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.986572265625</t>
   </si>
   <si>
     <t xml:space="preserve">4.06007289886475</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10207319259644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04957342147827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05657339096069</t>
+    <t xml:space="preserve">4.10207366943359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04957294464111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05657291412354</t>
   </si>
   <si>
     <t xml:space="preserve">4.30157709121704</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46958017349243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3470778465271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3750786781311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32957744598389</t>
+    <t xml:space="preserve">4.46958112716675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34707832336426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37507820129395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32957792282104</t>
   </si>
   <si>
     <t xml:space="preserve">4.38907861709595</t>
@@ -1478,199 +1478,199 @@
     <t xml:space="preserve">4.29807710647583</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23507595062256</t>
+    <t xml:space="preserve">4.23507642745972</t>
   </si>
   <si>
     <t xml:space="preserve">4.24557590484619</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22107601165771</t>
+    <t xml:space="preserve">4.22107648849487</t>
   </si>
   <si>
     <t xml:space="preserve">4.14757490158081</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21407508850098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25607681274414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2630763053894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25257587432861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20007610321045</t>
+    <t xml:space="preserve">4.21407604217529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25607633590698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26307678222656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25257682800293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20007562637329</t>
   </si>
   <si>
     <t xml:space="preserve">4.17557525634766</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12307405471802</t>
+    <t xml:space="preserve">4.12307357788086</t>
   </si>
   <si>
     <t xml:space="preserve">4.2735767364502</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2035756111145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26657629013062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22807645797729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32257795333862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33307790756226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35407876968384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46608066558838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44858026504517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46257972717285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47658061981201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85356950759888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88506960868835</t>
+    <t xml:space="preserve">4.20357465744019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26657581329346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22807550430298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32257843017578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33307838439941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35407781600952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46608018875122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44857931137085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46257925033569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47658014297485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85356903076172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88507032394409</t>
   </si>
   <si>
     <t xml:space="preserve">3.77306818962097</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77656745910645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79756855964661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86056971549988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80106830596924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70306658744812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68206572532654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62956500053406</t>
+    <t xml:space="preserve">3.77656769752502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79756832122803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86056923866272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80106925964355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70306634902954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6820662021637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62956571578979</t>
   </si>
   <si>
     <t xml:space="preserve">3.60506463050842</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53856325149536</t>
+    <t xml:space="preserve">3.53856348991394</t>
   </si>
   <si>
     <t xml:space="preserve">3.56306409835815</t>
   </si>
   <si>
-    <t xml:space="preserve">3.50706267356873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59106421470642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58756446838379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65056562423706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7100670337677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69956588745117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70656681060791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67506623268127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64006495475769</t>
+    <t xml:space="preserve">3.50706362724304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.591064453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58756422996521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65056586265564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71006679534912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69956660270691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70656633377075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6750659942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64006471633911</t>
   </si>
   <si>
     <t xml:space="preserve">3.63656497001648</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66754722595215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50365471839905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65297937393188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64569592475891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72217845916748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89699673652649</t>
+    <t xml:space="preserve">3.66754794120789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50365543365479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65297889709473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64569544792175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7221782207489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89699649810791</t>
   </si>
   <si>
     <t xml:space="preserve">3.86057686805725</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85693430900574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84964966773987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83143973350525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82415533065796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68211531639099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6602635383606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61728715896606</t>
+    <t xml:space="preserve">3.85693454742432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84965014457703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83144044876099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82415556907654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68211555480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66026425361633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61728763580322</t>
   </si>
   <si>
     <t xml:space="preserve">3.67847371101379</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74403095245361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81322932243347</t>
+    <t xml:space="preserve">3.74403047561646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81322956085205</t>
   </si>
   <si>
     <t xml:space="preserve">3.72946262359619</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70396780967712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75131440162659</t>
+    <t xml:space="preserve">3.7039680480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75131487846375</t>
   </si>
   <si>
     <t xml:space="preserve">3.70032572746277</t>
@@ -1679,130 +1679,130 @@
     <t xml:space="preserve">3.52987813949585</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71489405632019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70760989189148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67483162879944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82051372528076</t>
+    <t xml:space="preserve">3.71489453315735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70761036872864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67483186721802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82051301002502</t>
   </si>
   <si>
     <t xml:space="preserve">3.80594563484192</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76588296890259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85329246520996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87514424324036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92249178886414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90064001083374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87150192260742</t>
+    <t xml:space="preserve">3.76588320732117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8532919883728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87514472007751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9224910736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.900639295578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87150239944458</t>
   </si>
   <si>
     <t xml:space="preserve">3.90792274475098</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87878704071045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86786103248596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92613363265991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88242816925049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00625848770142</t>
+    <t xml:space="preserve">3.87878584861755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86786031723022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92613315582275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88242888450623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00625801086426</t>
   </si>
   <si>
     <t xml:space="preserve">4.15922498703003</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22478199005127</t>
+    <t xml:space="preserve">4.22478246688843</t>
   </si>
   <si>
     <t xml:space="preserve">4.14829874038696</t>
   </si>
   <si>
-    <t xml:space="preserve">4.286696434021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28305435180664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33040189743042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38867378234863</t>
+    <t xml:space="preserve">4.28669691085815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28305387496948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33040142059326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38867425918579</t>
   </si>
   <si>
     <t xml:space="preserve">4.3340425491333</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34132671356201</t>
+    <t xml:space="preserve">4.34132719039917</t>
   </si>
   <si>
     <t xml:space="preserve">4.34861087799072</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4651575088501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42873668670654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48336696624756</t>
+    <t xml:space="preserve">4.46515703201294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42873620986938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48336744308472</t>
   </si>
   <si>
     <t xml:space="preserve">4.47244119644165</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5452823638916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44330501556396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49429273605347</t>
+    <t xml:space="preserve">4.54528188705444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44330453872681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49429368972778</t>
   </si>
   <si>
     <t xml:space="preserve">4.54892444610596</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55256652832031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56713485717773</t>
+    <t xml:space="preserve">4.55256605148315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56713533401489</t>
   </si>
   <si>
     <t xml:space="preserve">4.61083889007568</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5780611038208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60355567932129</t>
+    <t xml:space="preserve">4.57806062698364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60355520248413</t>
   </si>
   <si>
     <t xml:space="preserve">4.61812353134155</t>
   </si>
   <si>
-    <t xml:space="preserve">4.58534574508667</t>
+    <t xml:space="preserve">4.58534526824951</t>
   </si>
   <si>
     <t xml:space="preserve">4.63269138336182</t>
@@ -1817,19 +1817,19 @@
     <t xml:space="preserve">4.65454387664795</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62176513671875</t>
+    <t xml:space="preserve">4.62176465988159</t>
   </si>
   <si>
     <t xml:space="preserve">4.76744794845581</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75288009643555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74923706054688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74559497833252</t>
+    <t xml:space="preserve">4.75287961959839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74923658370972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74559593200684</t>
   </si>
   <si>
     <t xml:space="preserve">4.73831081390381</t>
@@ -1838,55 +1838,55 @@
     <t xml:space="preserve">4.73466920852661</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83664608001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9022045135498</t>
+    <t xml:space="preserve">4.83664655685425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90220308303833</t>
   </si>
   <si>
     <t xml:space="preserve">4.92769813537598</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89856147766113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89127779006958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89503145217896</t>
+    <t xml:space="preserve">4.89856100082397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89127731323242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8950309753418</t>
   </si>
   <si>
     <t xml:space="preserve">4.79743099212646</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84247732162476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84623098373413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93632316589355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91380071640015</t>
+    <t xml:space="preserve">4.8424768447876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84623146057129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9363226890564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91380023956299</t>
   </si>
   <si>
     <t xml:space="preserve">4.8800163269043</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89127731323242</t>
+    <t xml:space="preserve">4.89127826690674</t>
   </si>
   <si>
     <t xml:space="preserve">4.72986173629761</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74112272262573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75613880157471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63976812362671</t>
+    <t xml:space="preserve">4.74112319946289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75613927841187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63976907730103</t>
   </si>
   <si>
     <t xml:space="preserve">4.59096813201904</t>
@@ -1895,61 +1895,61 @@
     <t xml:space="preserve">4.65478420257568</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59472227096558</t>
+    <t xml:space="preserve">4.59472179412842</t>
   </si>
   <si>
     <t xml:space="preserve">4.65853834152222</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6172456741333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61349201202393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54967594146729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56093740463257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5646915435791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52715396881104</t>
+    <t xml:space="preserve">4.61724615097046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61349153518677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54967546463013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56093788146973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56469106674194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52715349197388</t>
   </si>
   <si>
     <t xml:space="preserve">4.50463008880615</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48210620880127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51213836669922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57595252990723</t>
+    <t xml:space="preserve">4.48210668563843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51213788986206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57595348358154</t>
   </si>
   <si>
     <t xml:space="preserve">4.63601541519165</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62475347518921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66979932785034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65103054046631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59847688674927</t>
+    <t xml:space="preserve">4.62475395202637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6697998046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65103006362915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59847640991211</t>
   </si>
   <si>
     <t xml:space="preserve">4.62850713729858</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55718421936035</t>
+    <t xml:space="preserve">4.55718374252319</t>
   </si>
   <si>
     <t xml:space="preserve">4.6960768699646</t>
@@ -1970,49 +1970,49 @@
     <t xml:space="preserve">4.79367733001709</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8537392616272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86124658584595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86500120162964</t>
+    <t xml:space="preserve">4.85373878479004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86124706268311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86500024795532</t>
   </si>
   <si>
     <t xml:space="preserve">5.00389337539673</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04518604278564</t>
+    <t xml:space="preserve">5.04518556594849</t>
   </si>
   <si>
     <t xml:space="preserve">4.99263143539429</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9851245880127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94383192062378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02266216278076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01515531539917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05269336700439</t>
+    <t xml:space="preserve">4.98512363433838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94383096694946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0226616859436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01515483856201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05269289016724</t>
   </si>
   <si>
     <t xml:space="preserve">5.07521677017212</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02641630172729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97010803222656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95133876800537</t>
+    <t xml:space="preserve">5.02641582489014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97010850906372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95133829116821</t>
   </si>
   <si>
     <t xml:space="preserve">4.94758558273315</t>
@@ -2021,16 +2021,16 @@
     <t xml:space="preserve">4.97761678695679</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9550929069519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04143285751343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00013971328735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9325704574585</t>
+    <t xml:space="preserve">4.95509243011475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04143142700195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0001392364502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93256998062134</t>
   </si>
   <si>
     <t xml:space="preserve">4.91755485534668</t>
@@ -2042,31 +2042,31 @@
     <t xml:space="preserve">4.70358467102051</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71109199523926</t>
+    <t xml:space="preserve">4.71109247207642</t>
   </si>
   <si>
     <t xml:space="preserve">4.63226127624512</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84998559951782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95884704589844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90629243850708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99638557434082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94007778167725</t>
+    <t xml:space="preserve">4.84998512268066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9588475227356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90629291534424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99638605117798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94007682800293</t>
   </si>
   <si>
     <t xml:space="preserve">5.03767776489258</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06020069122314</t>
+    <t xml:space="preserve">5.0602011680603</t>
   </si>
   <si>
     <t xml:space="preserve">5.15404748916626</t>
@@ -2075,97 +2075,97 @@
     <t xml:space="preserve">5.16530895233154</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14278554916382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26290941238403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21035528182983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2328782081604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28543186187744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29294109344482</t>
+    <t xml:space="preserve">5.14278602600098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26290988922119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21035575866699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23287868499756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28543281555176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29294061660767</t>
   </si>
   <si>
     <t xml:space="preserve">5.25540161132812</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16155481338501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19158601760864</t>
+    <t xml:space="preserve">5.16155529022217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1915864944458</t>
   </si>
   <si>
     <t xml:space="preserve">5.15029335021973</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17657041549683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17281675338745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16906356811523</t>
+    <t xml:space="preserve">5.17657089233398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17281723022461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16906309127808</t>
   </si>
   <si>
     <t xml:space="preserve">5.10149431228638</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22161674499512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21786260604858</t>
+    <t xml:space="preserve">5.22161722183228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21786308288574</t>
   </si>
   <si>
     <t xml:space="preserve">5.21410942077637</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23663234710693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39804840087891</t>
+    <t xml:space="preserve">5.23663187026978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39804792404175</t>
   </si>
   <si>
     <t xml:space="preserve">5.4430947303772</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48438692092896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52943325042725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5744800567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64204835891724</t>
+    <t xml:space="preserve">5.48438739776611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52943277359009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57448053359985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64204931259155</t>
   </si>
   <si>
     <t xml:space="preserve">5.6758337020874</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69084978103638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7021107673645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72463464736938</t>
+    <t xml:space="preserve">5.69084930419922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70211029052734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72463369369507</t>
   </si>
   <si>
     <t xml:space="preserve">5.76217269897461</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77343416213989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76968050003052</t>
+    <t xml:space="preserve">5.77343320846558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76968002319336</t>
   </si>
   <si>
     <t xml:space="preserve">5.77718830108643</t>
@@ -2174,10 +2174,10 @@
     <t xml:space="preserve">5.78844928741455</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7809419631958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85601949691772</t>
+    <t xml:space="preserve">5.78094100952148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85601902008057</t>
   </si>
   <si>
     <t xml:space="preserve">6.20137405395508</t>
@@ -2192,145 +2192,145 @@
     <t xml:space="preserve">6.59177494049072</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45663642883301</t>
+    <t xml:space="preserve">6.45663738250732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47165203094482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56784152984619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74483060836792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90258264541626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91797304153442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01416301727295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95644807815552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07957077026367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10265684127808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16037034988403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09111404418945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02570581436157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00646686553955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08726739883423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14113283157349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08342027664185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95260095596313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.971839427948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00262117385864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97568559646606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0526385307312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02955341339111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02185726165771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9910774230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89873456954956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86410665512085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87564992904663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8140869140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84487009048462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75252485275269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.614013671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61786127090454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77176570892334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92566871643066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72174549102783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71789741516113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82947826385498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74867820739746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63325119018555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66403102874756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6101655960083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41009044647217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55245208740234</t>
   </si>
   <si>
     <t xml:space="preserve">6.47165155410767</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56784105300903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74483108520508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90258312225342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91797304153442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01416254043579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95644903182983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07957172393799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10265684127808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16037178039551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09111499786377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02570629119873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00646734237671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08726692199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14113235473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08341979980469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95260095596313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97183990478516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00262117385864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97568702697754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05263900756836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02955341339111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02185821533203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9910774230957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89873504638672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86410713195801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87565040588379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81408739089966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8448691368103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75252628326416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61401319503784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61786031723022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77176427841187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92566823959351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72174549102783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71789789199829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82947874069214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74867963790894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63325023651123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66403150558472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6101655960083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41009044647217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55245161056519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47165203094482</t>
-  </si>
-  <si>
     <t xml:space="preserve">6.27157688140869</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28311967849731</t>
+    <t xml:space="preserve">6.28312015533447</t>
   </si>
   <si>
     <t xml:space="preserve">6.379310131073</t>
@@ -2339,10 +2339,10 @@
     <t xml:space="preserve">6.34083366394043</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39470052719116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46395683288574</t>
+    <t xml:space="preserve">6.394700050354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46395587921143</t>
   </si>
   <si>
     <t xml:space="preserve">6.50243234634399</t>
@@ -2351,22 +2351,22 @@
     <t xml:space="preserve">6.49473714828491</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49858474731445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57553815841675</t>
+    <t xml:space="preserve">6.49858522415161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57553672790527</t>
   </si>
   <si>
     <t xml:space="preserve">6.6909646987915</t>
   </si>
   <si>
-    <t xml:space="preserve">6.72944021224976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56399393081665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38315773010254</t>
+    <t xml:space="preserve">6.72944116592407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56399440765381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38315725326538</t>
   </si>
   <si>
     <t xml:space="preserve">6.04456901550293</t>
@@ -2375,100 +2375,100 @@
     <t xml:space="preserve">5.99070310592651</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00994062423706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8675799369812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66365766525269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59824895858765</t>
+    <t xml:space="preserve">6.00994110107422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86757946014404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66365718841553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59824848175049</t>
   </si>
   <si>
     <t xml:space="preserve">5.57516241073608</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53668642044067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2558126449585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13268995285034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77101516723633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20157194137573</t>
+    <t xml:space="preserve">5.53668689727783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25581216812134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13268947601318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77101564407349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20157241821289</t>
   </si>
   <si>
     <t xml:space="preserve">4.15540075302124</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76448512077332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7675633430481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44898295402527</t>
+    <t xml:space="preserve">3.76448535919189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76756310462952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44898247718811</t>
   </si>
   <si>
     <t xml:space="preserve">3.1781120300293</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13809704780579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25660276412964</t>
+    <t xml:space="preserve">3.13809728622437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25660300254822</t>
   </si>
   <si>
     <t xml:space="preserve">3.24736857414246</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63982343673706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74909472465515</t>
+    <t xml:space="preserve">3.63982319831848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74909520149231</t>
   </si>
   <si>
     <t xml:space="preserve">3.95532608032227</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82142972946167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63366746902466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57826161384583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5674889087677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57980132102966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51670050621033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64444065093994</t>
+    <t xml:space="preserve">3.82143020629883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6336669921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57826209068298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56748867034912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5798008441925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51670002937317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64444041252136</t>
   </si>
   <si>
     <t xml:space="preserve">3.84759306907654</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02073526382446</t>
+    <t xml:space="preserve">4.0207347869873</t>
   </si>
   <si>
     <t xml:space="preserve">4.20926666259766</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8591365814209</t>
+    <t xml:space="preserve">3.859135389328</t>
   </si>
   <si>
     <t xml:space="preserve">3.90530705451965</t>
@@ -2477,31 +2477,31 @@
     <t xml:space="preserve">4.024582862854</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9476306438446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75986790657043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89761209487915</t>
+    <t xml:space="preserve">3.94763040542603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75986814498901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89761233329773</t>
   </si>
   <si>
     <t xml:space="preserve">3.98610687255859</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96686911582947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11692428588867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31315231323242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48629379272461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28622007369995</t>
+    <t xml:space="preserve">3.96686887741089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11692476272583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31315183639526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48629331588745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28621912002563</t>
   </si>
   <si>
     <t xml:space="preserve">4.09383964538574</t>
@@ -2510,7 +2510,7 @@
     <t xml:space="preserve">4.03227758407593</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07844972610474</t>
+    <t xml:space="preserve">4.07844924926758</t>
   </si>
   <si>
     <t xml:space="preserve">4.12461996078491</t>
@@ -2519,19 +2519,19 @@
     <t xml:space="preserve">4.12846755981445</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30545663833618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38240957260132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24004793167114</t>
+    <t xml:space="preserve">4.30545711517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38240909576416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24004745483398</t>
   </si>
   <si>
     <t xml:space="preserve">4.14385843276978</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25928544998169</t>
+    <t xml:space="preserve">4.25928497314453</t>
   </si>
   <si>
     <t xml:space="preserve">4.26698112487793</t>
@@ -2540,40 +2540,40 @@
     <t xml:space="preserve">4.38625621795654</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42473220825195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51322650909424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55555057525635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66328287124634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60941696166992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57094049453735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74023485183716</t>
+    <t xml:space="preserve">4.42473268508911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51322746276855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55555105209351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66328239440918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60941648483276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57094097137451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74023532867432</t>
   </si>
   <si>
     <t xml:space="preserve">4.79410123825073</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97493839263916</t>
+    <t xml:space="preserve">4.974937915802</t>
   </si>
   <si>
     <t xml:space="preserve">5.20579385757446</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32506942749023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12114667892456</t>
+    <t xml:space="preserve">5.32506895065308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12114715576172</t>
   </si>
   <si>
     <t xml:space="preserve">4.84412050247192</t>
@@ -2588,13 +2588,13 @@
     <t xml:space="preserve">4.97109079360962</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94800472259521</t>
+    <t xml:space="preserve">4.94800519943237</t>
   </si>
   <si>
     <t xml:space="preserve">4.99802398681641</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98263311386108</t>
+    <t xml:space="preserve">4.98263359069824</t>
   </si>
   <si>
     <t xml:space="preserve">5.02880430221558</t>
@@ -2606,34 +2606,34 @@
     <t xml:space="preserve">4.80179643630981</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85181474685669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89413833618164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91722393035889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83642435073853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0634331703186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94031000137329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05958461761475</t>
+    <t xml:space="preserve">4.85181522369385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8941388130188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91722440719604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83642482757568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06343221664429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94031047821045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05958414077759</t>
   </si>
   <si>
     <t xml:space="preserve">5.03649950027466</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82488203048706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94415760040283</t>
+    <t xml:space="preserve">4.82488250732422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94415807723999</t>
   </si>
   <si>
     <t xml:space="preserve">5.00187158584595</t>
@@ -2642,52 +2642,52 @@
     <t xml:space="preserve">5.07112836837769</t>
   </si>
   <si>
-    <t xml:space="preserve">5.07497501373291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09806156158447</t>
+    <t xml:space="preserve">5.07497453689575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09806060791016</t>
   </si>
   <si>
     <t xml:space="preserve">5.21733665466309</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15962362289429</t>
+    <t xml:space="preserve">5.15962266921997</t>
   </si>
   <si>
     <t xml:space="preserve">5.11345148086548</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0672812461853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98648166656494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93261432647705</t>
+    <t xml:space="preserve">5.06727981567383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98648071289062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93261480331421</t>
   </si>
   <si>
     <t xml:space="preserve">4.9133768081665</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95185279846191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7671685218811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95570039749146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96339559555054</t>
+    <t xml:space="preserve">4.95185327529907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76716756820679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9556999206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96339511871338</t>
   </si>
   <si>
     <t xml:space="preserve">5.10190916061401</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1865553855896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24042224884033</t>
+    <t xml:space="preserve">5.18655586242676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24042272567749</t>
   </si>
   <si>
     <t xml:space="preserve">5.15577507019043</t>
@@ -2699,22 +2699,22 @@
     <t xml:space="preserve">5.1057562828064</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97878551483154</t>
+    <t xml:space="preserve">4.9787859916687</t>
   </si>
   <si>
     <t xml:space="preserve">5.14038467407227</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05188989639282</t>
+    <t xml:space="preserve">5.05189037322998</t>
   </si>
   <si>
     <t xml:space="preserve">5.08651876449585</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92492008209229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78255891799927</t>
+    <t xml:space="preserve">4.92491960525513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78255844116211</t>
   </si>
   <si>
     <t xml:space="preserve">4.86720561981201</t>
@@ -2723,10 +2723,10 @@
     <t xml:space="preserve">4.87105274200439</t>
   </si>
   <si>
-    <t xml:space="preserve">5.09036588668823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84796714782715</t>
+    <t xml:space="preserve">5.09036540985107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84796762466431</t>
   </si>
   <si>
     <t xml:space="preserve">4.73254013061523</t>
@@ -2744,46 +2744,46 @@
     <t xml:space="preserve">5.04034757614136</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95954847335815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80949211120605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83257722854614</t>
+    <t xml:space="preserve">4.959547996521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80949115753174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8325777053833</t>
   </si>
   <si>
     <t xml:space="preserve">4.81718683242798</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65558815002441</t>
+    <t xml:space="preserve">4.65558767318726</t>
   </si>
   <si>
     <t xml:space="preserve">4.51707410812378</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46320867538452</t>
+    <t xml:space="preserve">4.46320915222168</t>
   </si>
   <si>
     <t xml:space="preserve">4.50937938690186</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75562477111816</t>
+    <t xml:space="preserve">4.75562524795532</t>
   </si>
   <si>
     <t xml:space="preserve">5.29428815841675</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38278245925903</t>
+    <t xml:space="preserve">5.38278341293335</t>
   </si>
   <si>
     <t xml:space="preserve">5.51744890213013</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38663101196289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55592441558838</t>
+    <t xml:space="preserve">5.38663053512573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55592393875122</t>
   </si>
   <si>
     <t xml:space="preserve">5.81756114959717</t>
@@ -2795,25 +2795,25 @@
     <t xml:space="preserve">5.73291397094727</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84449434280396</t>
+    <t xml:space="preserve">5.8444938659668</t>
   </si>
   <si>
     <t xml:space="preserve">5.86373233795166</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01763677597046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89066648483276</t>
+    <t xml:space="preserve">6.01763534545898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89066553115845</t>
   </si>
   <si>
     <t xml:space="preserve">5.97531223297119</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85218954086304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92529392242432</t>
+    <t xml:space="preserve">5.85218906402588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92529296875</t>
   </si>
   <si>
     <t xml:space="preserve">5.76754188537598</t>
@@ -2822,19 +2822,19 @@
     <t xml:space="preserve">5.71752405166626</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70982837677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64441919326782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60209560394287</t>
+    <t xml:space="preserve">5.70982933044434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64441967010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60209608078003</t>
   </si>
   <si>
     <t xml:space="preserve">5.59440040588379</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5020580291748</t>
+    <t xml:space="preserve">5.50205850601196</t>
   </si>
   <si>
     <t xml:space="preserve">5.46743011474609</t>
@@ -2846,7 +2846,7 @@
     <t xml:space="preserve">5.47897243499756</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46358251571655</t>
+    <t xml:space="preserve">5.46358203887939</t>
   </si>
   <si>
     <t xml:space="preserve">5.44434404373169</t>
@@ -2855,7 +2855,7 @@
     <t xml:space="preserve">5.33276462554932</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40971565246582</t>
+    <t xml:space="preserve">5.40971660614014</t>
   </si>
   <si>
     <t xml:space="preserve">5.42895412445068</t>
@@ -2864,10 +2864,10 @@
     <t xml:space="preserve">5.47127723693848</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49821138381958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43664836883545</t>
+    <t xml:space="preserve">5.49821090698242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43664932250977</t>
   </si>
   <si>
     <t xml:space="preserve">5.44819211959839</t>
@@ -2885,40 +2885,40 @@
     <t xml:space="preserve">5.2750506401062</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14423274993896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07882308959961</t>
+    <t xml:space="preserve">5.14423227310181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07882261276245</t>
   </si>
   <si>
     <t xml:space="preserve">5.16347026824951</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22503185272217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62518119812012</t>
+    <t xml:space="preserve">5.22503137588501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62518167495728</t>
   </si>
   <si>
     <t xml:space="preserve">5.73676109313965</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9483790397644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87912225723267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89836072921753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88297033309937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76369524002075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67904758453369</t>
+    <t xml:space="preserve">5.94837856292725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87912273406982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89836025238037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88296985626221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76369476318359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67904806137085</t>
   </si>
   <si>
     <t xml:space="preserve">5.69443845748901</t>
@@ -2936,7 +2936,7 @@
     <t xml:space="preserve">5.55977249145508</t>
   </si>
   <si>
-    <t xml:space="preserve">5.74445676803589</t>
+    <t xml:space="preserve">5.74445772171021</t>
   </si>
   <si>
     <t xml:space="preserve">5.77523756027222</t>
@@ -2945,16 +2945,16 @@
     <t xml:space="preserve">5.75215196609497</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85988473892212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92144680023193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95992279052734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97915983200073</t>
+    <t xml:space="preserve">5.85988426208496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92144632339478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95992183685303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97916030883789</t>
   </si>
   <si>
     <t xml:space="preserve">5.96376943588257</t>
@@ -2972,28 +2972,28 @@
     <t xml:space="preserve">6.15999698638916</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18308162689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09073972702026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13306379318237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14075803756714</t>
+    <t xml:space="preserve">6.18308258056641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09074068069458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13306331634521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14075899124146</t>
   </si>
   <si>
     <t xml:space="preserve">6.22540616989136</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19462490081787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17461729049683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21001482009888</t>
+    <t xml:space="preserve">6.19462585449219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17461824417114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21001529693604</t>
   </si>
   <si>
     <t xml:space="preserve">6.12844657897949</t>
@@ -3002,46 +3002,46 @@
     <t xml:space="preserve">6.04379940032959</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10689973831177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05457305908203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05765056610107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00224590301514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02225399017334</t>
+    <t xml:space="preserve">6.10690069198608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05457258224487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05765151977539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00224542617798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02225303649902</t>
   </si>
   <si>
     <t xml:space="preserve">6.08535385131836</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02994823455811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95761346817017</t>
+    <t xml:space="preserve">6.02994871139526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95761394500732</t>
   </si>
   <si>
     <t xml:space="preserve">6.01455783843994</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04072141647339</t>
+    <t xml:space="preserve">6.04072189331055</t>
   </si>
   <si>
     <t xml:space="preserve">6.01301908493042</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98069906234741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10843944549561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01147985458374</t>
+    <t xml:space="preserve">5.98069858551025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10843896865845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01147937774658</t>
   </si>
   <si>
     <t xml:space="preserve">6.082275390625</t>
@@ -3050,10 +3050,10 @@
     <t xml:space="preserve">6.16846132278442</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23925733566284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21463346481323</t>
+    <t xml:space="preserve">6.23925685882568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21463298797607</t>
   </si>
   <si>
     <t xml:space="preserve">6.06380748748779</t>
@@ -3062,25 +3062,25 @@
     <t xml:space="preserve">6.06688547134399</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0884313583374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03918313980103</t>
+    <t xml:space="preserve">6.08843183517456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03918170928955</t>
   </si>
   <si>
     <t xml:space="preserve">6.12463521957397</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07521867752075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07367467880249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08911657333374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25898790359497</t>
+    <t xml:space="preserve">6.07521820068359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07367372512817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08911752700806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25898838043213</t>
   </si>
   <si>
     <t xml:space="preserve">6.24354600906372</t>
@@ -3089,25 +3089,25 @@
     <t xml:space="preserve">6.22810220718384</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24045610427856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21729230880737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26516532897949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38562059402466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42422676086426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30686140060425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34546899795532</t>
+    <t xml:space="preserve">6.24045658111572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21729278564453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26516628265381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38561964035034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4242262840271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30686187744141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34546852111816</t>
   </si>
   <si>
     <t xml:space="preserve">6.37172079086304</t>
@@ -3116,67 +3116,67 @@
     <t xml:space="preserve">6.34237957000732</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44893598556519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46283340454102</t>
+    <t xml:space="preserve">6.44893550872803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46283388137817</t>
   </si>
   <si>
     <t xml:space="preserve">6.34855699539185</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32384729385376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27906370162964</t>
+    <t xml:space="preserve">6.32384824752808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2790641784668</t>
   </si>
   <si>
     <t xml:space="preserve">6.35318899154663</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53232622146606</t>
+    <t xml:space="preserve">6.53232669830322</t>
   </si>
   <si>
     <t xml:space="preserve">6.33311367034912</t>
   </si>
   <si>
-    <t xml:space="preserve">6.479820728302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33465814590454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33774662017822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35936641693115</t>
+    <t xml:space="preserve">6.47982120513916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3346586227417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33774757385254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35936689376831</t>
   </si>
   <si>
     <t xml:space="preserve">6.35782241821289</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36091089248657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32075881958008</t>
+    <t xml:space="preserve">6.36091041564941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32076025009155</t>
   </si>
   <si>
     <t xml:space="preserve">6.21265888214111</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30531740188599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40723943710327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34083557128906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36245489120483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26979827880859</t>
+    <t xml:space="preserve">6.30531692504883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40723991394043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3408350944519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36245536804199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26979780197144</t>
   </si>
   <si>
     <t xml:space="preserve">6.25744390487671</t>
@@ -3185,7 +3185,7 @@
     <t xml:space="preserve">5.99800443649292</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04587697982788</t>
+    <t xml:space="preserve">6.04587650299072</t>
   </si>
   <si>
     <t xml:space="preserve">6.24200057983398</t>
@@ -3194,25 +3194,25 @@
     <t xml:space="preserve">6.29141807556152</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34701251983643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50452947616577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51070690155029</t>
+    <t xml:space="preserve">6.34701204299927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50452899932861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51070737838745</t>
   </si>
   <si>
     <t xml:space="preserve">6.4875431060791</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48290920257568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41187191009521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4273157119751</t>
+    <t xml:space="preserve">6.48290967941284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41187286376953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42731523513794</t>
   </si>
   <si>
     <t xml:space="preserve">6.39334106445312</t>
@@ -3221,28 +3221,28 @@
     <t xml:space="preserve">6.43812561035156</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49680757522583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57865524291992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66204690933228</t>
+    <t xml:space="preserve">6.49680805206299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57865571975708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66204643249512</t>
   </si>
   <si>
     <t xml:space="preserve">6.67131233215332</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76705837249756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74698209762573</t>
+    <t xml:space="preserve">6.7670578956604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74698257446289</t>
   </si>
   <si>
     <t xml:space="preserve">6.79022216796875</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74852657318115</t>
+    <t xml:space="preserve">6.74852705001831</t>
   </si>
   <si>
     <t xml:space="preserve">6.79948806762695</t>
@@ -3251,181 +3251,181 @@
     <t xml:space="preserve">6.65278100967407</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62652826309204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69293212890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68212270736694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70991897583008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69602155685425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75315999984741</t>
+    <t xml:space="preserve">6.62652778625488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69293260574341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68212223052979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70991945266724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69602108001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7531590461731</t>
   </si>
   <si>
     <t xml:space="preserve">6.76860237121582</t>
   </si>
   <si>
-    <t xml:space="preserve">6.78713369369507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78558969497681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81029844284058</t>
+    <t xml:space="preserve">6.78713417053223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78558826446533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81029796600342</t>
   </si>
   <si>
     <t xml:space="preserve">6.8133864402771</t>
   </si>
   <si>
-    <t xml:space="preserve">6.77941226959229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75933599472046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75624799728394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72381830215454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88751316070557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93229675292969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88133430480957</t>
+    <t xml:space="preserve">6.77941179275513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75933694839478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75624752044678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72381782531738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88751220703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93229627609253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88133478164673</t>
   </si>
   <si>
     <t xml:space="preserve">6.93847417831421</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87515878677368</t>
+    <t xml:space="preserve">6.87515830993652</t>
   </si>
   <si>
     <t xml:space="preserve">6.66667938232422</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87824678421021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09907960891724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04811859130859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07591485977173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07282686233521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15776348114014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21953439712524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33535528182983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35234212875366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4990496635437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38940525054932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52530193328857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45735311508179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51294708251953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61178112030029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51758146286011</t>
+    <t xml:space="preserve">6.87824630737305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09908056259155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04811763763428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07591390609741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07282590866089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15776252746582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21953392028809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33535480499268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35234260559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49905014038086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38940477371216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52530241012573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45735359191895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51294755935669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61178159713745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51758098602295</t>
   </si>
   <si>
     <t xml:space="preserve">7.57626390457153</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61487007141113</t>
+    <t xml:space="preserve">7.61487102508545</t>
   </si>
   <si>
     <t xml:space="preserve">7.63771915435791</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49894332885742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50563097000122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41199827194214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39862203598022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34177398681641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45212507247925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39360523223877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34511804580688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27823829650879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36351108551025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26820659637451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33174228668213</t>
+    <t xml:space="preserve">7.49894237518311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50563049316406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4119987487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39862251281738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34177303314209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45212650299072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39360570907593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34511852264404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27823781967163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36350917816162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2682056427002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33174180984497</t>
   </si>
   <si>
     <t xml:space="preserve">7.47553539276123</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44878244400024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45547151565552</t>
+    <t xml:space="preserve">7.44878196716309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45547008514404</t>
   </si>
   <si>
     <t xml:space="preserve">7.53739833831787</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58087015151978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58923101425171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65778303146362</t>
+    <t xml:space="preserve">7.58087062835693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58922958374023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65778255462646</t>
   </si>
   <si>
     <t xml:space="preserve">7.64273500442505</t>
@@ -3434,10 +3434,10 @@
     <t xml:space="preserve">7.54408740997314</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45379877090454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34344673156738</t>
+    <t xml:space="preserve">7.4537992477417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34344625473022</t>
   </si>
   <si>
     <t xml:space="preserve">7.5048394203186</t>
@@ -3446,13 +3446,13 @@
     <t xml:space="preserve">7.36576652526855</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58038711547852</t>
+    <t xml:space="preserve">7.58038663864136</t>
   </si>
   <si>
     <t xml:space="preserve">7.48251914978027</t>
   </si>
   <si>
-    <t xml:space="preserve">7.14599514007568</t>
+    <t xml:space="preserve">7.14599561691284</t>
   </si>
   <si>
     <t xml:space="preserve">7.20265483856201</t>
@@ -3461,34 +3461,34 @@
     <t xml:space="preserve">7.08075046539307</t>
   </si>
   <si>
-    <t xml:space="preserve">7.26446628570557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20780563354492</t>
+    <t xml:space="preserve">7.26446580886841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20780611038208</t>
   </si>
   <si>
     <t xml:space="preserve">7.24557828903198</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32627630233765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47736883163452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40697383880615</t>
+    <t xml:space="preserve">7.32627725601196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47736930847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40697288513184</t>
   </si>
   <si>
     <t xml:space="preserve">7.340012550354</t>
   </si>
   <si>
-    <t xml:space="preserve">7.28850269317627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27820110321045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28335189819336</t>
+    <t xml:space="preserve">7.28850221633911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27820158004761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28335237503052</t>
   </si>
   <si>
     <t xml:space="preserve">7.29880428314209</t>
@@ -3500,16 +3500,16 @@
     <t xml:space="preserve">6.98631763458252</t>
   </si>
   <si>
-    <t xml:space="preserve">7.19235324859619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2524471282959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37091779708862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44302940368652</t>
+    <t xml:space="preserve">7.19235372543335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25244665145874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37091875076294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44302892684937</t>
   </si>
   <si>
     <t xml:space="preserve">7.43444395065308</t>
@@ -3521,7 +3521,7 @@
     <t xml:space="preserve">7.54432964324951</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60099029541016</t>
+    <t xml:space="preserve">7.60098934173584</t>
   </si>
   <si>
     <t xml:space="preserve">7.66623497009277</t>
@@ -3530,13 +3530,13 @@
     <t xml:space="preserve">7.45504808425903</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59240531921387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66280078887939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80359268188477</t>
+    <t xml:space="preserve">7.59240484237671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66280031204224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80359220504761</t>
   </si>
   <si>
     <t xml:space="preserve">7.94953346252441</t>
@@ -3548,13 +3548,13 @@
     <t xml:space="preserve">7.82247877120972</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78813791275024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60442304611206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59755659103394</t>
+    <t xml:space="preserve">7.78813886642456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60442399978638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59755706787109</t>
   </si>
   <si>
     <t xml:space="preserve">7.5014066696167</t>
@@ -3563,55 +3563,55 @@
     <t xml:space="preserve">7.16831636428833</t>
   </si>
   <si>
-    <t xml:space="preserve">7.17861795425415</t>
+    <t xml:space="preserve">7.17861843109131</t>
   </si>
   <si>
     <t xml:space="preserve">7.32799339294434</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29193782806396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23356056213379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35203123092651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46363306045532</t>
+    <t xml:space="preserve">7.29193735122681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23356008529663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35203170776367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46363353729248</t>
   </si>
   <si>
     <t xml:space="preserve">7.56665182113647</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49282121658325</t>
+    <t xml:space="preserve">7.49282217025757</t>
   </si>
   <si>
     <t xml:space="preserve">7.22497606277466</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32112503051758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49453735351562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60614156723022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34859752655029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09792041778564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29708766937256</t>
+    <t xml:space="preserve">7.32112455368042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49453830718994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60614061355591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34859704971313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09791994094849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29708862304688</t>
   </si>
   <si>
     <t xml:space="preserve">7.24042797088623</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1425609588623</t>
+    <t xml:space="preserve">7.14256048202515</t>
   </si>
   <si>
     <t xml:space="preserve">7.11852359771729</t>
@@ -3623,7 +3623,7 @@
     <t xml:space="preserve">6.97429895401001</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03095817565918</t>
+    <t xml:space="preserve">7.0309591293335</t>
   </si>
   <si>
     <t xml:space="preserve">6.43345642089844</t>
@@ -3632,13 +3632,13 @@
     <t xml:space="preserve">6.58626556396484</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32013607025146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08491277694702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11238384246826</t>
+    <t xml:space="preserve">6.32013654708862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08491325378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11238431930542</t>
   </si>
   <si>
     <t xml:space="preserve">5.96987628936768</t>
@@ -3647,34 +3647,34 @@
     <t xml:space="preserve">5.58012580871582</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51488161087036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67284154891968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29438161849976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92866945266724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06259202957153</t>
+    <t xml:space="preserve">5.5148811340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67284202575684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29438209533691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92866897583008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06259155273438</t>
   </si>
   <si>
     <t xml:space="preserve">6.16389322280884</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29609966278076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62403869628906</t>
+    <t xml:space="preserve">6.2960991859436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62403917312622</t>
   </si>
   <si>
     <t xml:space="preserve">6.57939767837524</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56051111221313</t>
+    <t xml:space="preserve">6.56051158905029</t>
   </si>
   <si>
     <t xml:space="preserve">6.5124363899231</t>
@@ -3683,16 +3683,16 @@
     <t xml:space="preserve">6.68069887161255</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61030244827271</t>
+    <t xml:space="preserve">6.61030292510986</t>
   </si>
   <si>
     <t xml:space="preserve">6.56909608840942</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62918996810913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66868019104004</t>
+    <t xml:space="preserve">6.62918949127197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66867971420288</t>
   </si>
   <si>
     <t xml:space="preserve">6.85239458084106</t>
@@ -3704,16 +3704,16 @@
     <t xml:space="preserve">6.65837812423706</t>
   </si>
   <si>
-    <t xml:space="preserve">6.77169752120972</t>
+    <t xml:space="preserve">6.77169799804688</t>
   </si>
   <si>
     <t xml:space="preserve">6.6995849609375</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6377739906311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40770149230957</t>
+    <t xml:space="preserve">6.63777446746826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40770196914673</t>
   </si>
   <si>
     <t xml:space="preserve">6.39396572113037</t>
@@ -3722,28 +3722,28 @@
     <t xml:space="preserve">6.551926612854</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51415348052979</t>
+    <t xml:space="preserve">6.51415300369263</t>
   </si>
   <si>
     <t xml:space="preserve">6.45577669143677</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50900220870972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55879402160645</t>
+    <t xml:space="preserve">6.50900173187256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5587944984436</t>
   </si>
   <si>
     <t xml:space="preserve">6.28841829299927</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39482355117798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36691474914551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26923084259033</t>
+    <t xml:space="preserve">6.39482402801514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36691522598267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26923036575317</t>
   </si>
   <si>
     <t xml:space="preserve">6.13665866851807</t>
@@ -3755,7 +3755,7 @@
     <t xml:space="preserve">6.07735013961792</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01978731155396</t>
+    <t xml:space="preserve">6.0197868347168</t>
   </si>
   <si>
     <t xml:space="preserve">6.08432817459106</t>
@@ -3764,19 +3764,19 @@
     <t xml:space="preserve">6.03374195098877</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06513977050781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02676391601562</t>
+    <t xml:space="preserve">6.06514024734497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02676439285278</t>
   </si>
   <si>
     <t xml:space="preserve">6.09653854370117</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05990743637085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96745586395264</t>
+    <t xml:space="preserve">6.05990695953369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96745634078979</t>
   </si>
   <si>
     <t xml:space="preserve">6.0302529335022</t>
@@ -3791,19 +3791,19 @@
     <t xml:space="preserve">6.19073390960693</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22562170028687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25004243850708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16980218887329</t>
+    <t xml:space="preserve">6.22562122344971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25004196166992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16980171203613</t>
   </si>
   <si>
     <t xml:space="preserve">6.20120048522949</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39307928085327</t>
+    <t xml:space="preserve">6.39307975769043</t>
   </si>
   <si>
     <t xml:space="preserve">6.24132061004639</t>
@@ -3812,13 +3812,13 @@
     <t xml:space="preserve">6.2552752494812</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45413255691528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44366598129272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41226816177368</t>
+    <t xml:space="preserve">6.45413303375244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44366645812988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41226768493652</t>
   </si>
   <si>
     <t xml:space="preserve">6.34074926376343</t>
@@ -3830,7 +3830,7 @@
     <t xml:space="preserve">6.38435840606689</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2953953742981</t>
+    <t xml:space="preserve">6.29539585113525</t>
   </si>
   <si>
     <t xml:space="preserve">6.20643329620361</t>
@@ -3851,16 +3851,16 @@
     <t xml:space="preserve">5.64823818206787</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43368148803711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4790358543396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55055379867554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5522985458374</t>
+    <t xml:space="preserve">5.43368196487427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47903537750244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5505542755127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55229806900024</t>
   </si>
   <si>
     <t xml:space="preserve">5.58718585968018</t>
@@ -3869,37 +3869,37 @@
     <t xml:space="preserve">5.74941110610962</t>
   </si>
   <si>
-    <t xml:space="preserve">5.6046290397644</t>
+    <t xml:space="preserve">5.60462951660156</t>
   </si>
   <si>
     <t xml:space="preserve">5.61683940887451</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5836968421936</t>
+    <t xml:space="preserve">5.58369636535645</t>
   </si>
   <si>
     <t xml:space="preserve">5.47554636001587</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49996757507324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48077964782715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20865964889526</t>
+    <t xml:space="preserve">5.4999680519104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48077917098999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20865917205811</t>
   </si>
   <si>
     <t xml:space="preserve">5.30111074447632</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45984697341919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61335134506226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45810270309448</t>
+    <t xml:space="preserve">5.45984745025635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6133508682251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45810317993164</t>
   </si>
   <si>
     <t xml:space="preserve">5.54008769989014</t>
@@ -3917,31 +3917,31 @@
     <t xml:space="preserve">5.40751600265503</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55404233932495</t>
+    <t xml:space="preserve">5.55404281616211</t>
   </si>
   <si>
     <t xml:space="preserve">5.35169696807861</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44240379333496</t>
+    <t xml:space="preserve">5.4424033164978</t>
   </si>
   <si>
     <t xml:space="preserve">5.43891525268555</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38309526443481</t>
+    <t xml:space="preserve">5.38309478759766</t>
   </si>
   <si>
     <t xml:space="preserve">5.41449451446533</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62556171417236</t>
+    <t xml:space="preserve">5.62556123733521</t>
   </si>
   <si>
     <t xml:space="preserve">5.65172672271729</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59416246414185</t>
+    <t xml:space="preserve">5.59416341781616</t>
   </si>
   <si>
     <t xml:space="preserve">5.91686916351318</t>
@@ -3965,19 +3965,19 @@
     <t xml:space="preserve">6.00408744812012</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03897428512573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97617769241333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85930585861206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90291500091553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78429794311523</t>
+    <t xml:space="preserve">6.03897476196289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97617816925049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8593053817749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90291452407837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78429889678955</t>
   </si>
   <si>
     <t xml:space="preserve">5.63079452514648</t>
@@ -3986,7 +3986,7 @@
     <t xml:space="preserve">5.73022317886353</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67091464996338</t>
+    <t xml:space="preserve">5.67091417312622</t>
   </si>
   <si>
     <t xml:space="preserve">5.59939622879028</t>
@@ -4004,7 +4004,7 @@
     <t xml:space="preserve">5.4319372177124</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69010257720947</t>
+    <t xml:space="preserve">5.69010305404663</t>
   </si>
   <si>
     <t xml:space="preserve">5.51043367385864</t>
@@ -4016,7 +4016,7 @@
     <t xml:space="preserve">5.62032842636108</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63777160644531</t>
+    <t xml:space="preserve">5.63777256011963</t>
   </si>
   <si>
     <t xml:space="preserve">5.76685476303101</t>
@@ -4037,16 +4037,16 @@
     <t xml:space="preserve">5.70056867599487</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78080940246582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51915597915649</t>
+    <t xml:space="preserve">5.78080892562866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51915550231934</t>
   </si>
   <si>
     <t xml:space="preserve">5.58544111251831</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62730598449707</t>
+    <t xml:space="preserve">5.62730550765991</t>
   </si>
   <si>
     <t xml:space="preserve">5.41798257827759</t>
@@ -4055,25 +4055,25 @@
     <t xml:space="preserve">5.59590721130371</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51566648483276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56974172592163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40926122665405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64300441741943</t>
+    <t xml:space="preserve">5.51566696166992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56974220275879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40926027297974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64300489425659</t>
   </si>
   <si>
     <t xml:space="preserve">5.92035865783691</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85407209396362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83314037322998</t>
+    <t xml:space="preserve">5.85407257080078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83314085006714</t>
   </si>
   <si>
     <t xml:space="preserve">5.77383184432983</t>
@@ -4094,34 +4094,34 @@
     <t xml:space="preserve">5.80871915817261</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93605756759644</t>
+    <t xml:space="preserve">5.93605804443359</t>
   </si>
   <si>
     <t xml:space="preserve">6.01106548309326</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08781671524048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12270402908325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15061330795288</t>
+    <t xml:space="preserve">6.08781719207764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12270450592041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15061378479004</t>
   </si>
   <si>
     <t xml:space="preserve">6.223876953125</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40180206298828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42447853088379</t>
+    <t xml:space="preserve">6.40180158615112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42447805404663</t>
   </si>
   <si>
     <t xml:space="preserve">6.55356073379517</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63380146026611</t>
+    <t xml:space="preserve">6.63380193710327</t>
   </si>
   <si>
     <t xml:space="preserve">6.61112451553345</t>
@@ -4151,43 +4151,43 @@
     <t xml:space="preserve">6.98092937469482</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89720010757446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00534963607788</t>
+    <t xml:space="preserve">6.8971996307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00535011291504</t>
   </si>
   <si>
     <t xml:space="preserve">7.04547071456909</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01058340072632</t>
+    <t xml:space="preserve">7.01058387756348</t>
   </si>
   <si>
     <t xml:space="preserve">7.00186157226562</t>
   </si>
   <si>
-    <t xml:space="preserve">7.05419206619263</t>
+    <t xml:space="preserve">7.05419254302979</t>
   </si>
   <si>
     <t xml:space="preserve">7.05958557128906</t>
   </si>
   <si>
-    <t xml:space="preserve">7.08475351333618</t>
+    <t xml:space="preserve">7.08475303649902</t>
   </si>
   <si>
     <t xml:space="preserve">7.11531448364258</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02542877197266</t>
+    <t xml:space="preserve">7.02542924880981</t>
   </si>
   <si>
     <t xml:space="preserve">7.04160833358765</t>
   </si>
   <si>
-    <t xml:space="preserve">7.08115720748901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07576465606689</t>
+    <t xml:space="preserve">7.08115768432617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07576513290405</t>
   </si>
   <si>
     <t xml:space="preserve">7.24295091629028</t>
@@ -4196,7 +4196,7 @@
     <t xml:space="preserve">7.08295583724976</t>
   </si>
   <si>
-    <t xml:space="preserve">7.17284059524536</t>
+    <t xml:space="preserve">7.17284107208252</t>
   </si>
   <si>
     <t xml:space="preserve">7.12969589233398</t>
@@ -4208,7 +4208,7 @@
     <t xml:space="preserve">7.0218334197998</t>
   </si>
   <si>
-    <t xml:space="preserve">7.07756280899048</t>
+    <t xml:space="preserve">7.07756233215332</t>
   </si>
   <si>
     <t xml:space="preserve">7.0146427154541</t>
@@ -4223,7 +4223,7 @@
     <t xml:space="preserve">6.98408174514771</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9319486618042</t>
+    <t xml:space="preserve">6.93194818496704</t>
   </si>
   <si>
     <t xml:space="preserve">7.11171865463257</t>
@@ -4232,34 +4232,34 @@
     <t xml:space="preserve">7.06497859954834</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03981065750122</t>
+    <t xml:space="preserve">7.03981018066406</t>
   </si>
   <si>
     <t xml:space="preserve">7.00924968719482</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09733724594116</t>
+    <t xml:space="preserve">7.097336769104</t>
   </si>
   <si>
     <t xml:space="preserve">7.117112159729</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24654722213745</t>
+    <t xml:space="preserve">7.24654674530029</t>
   </si>
   <si>
     <t xml:space="preserve">7.20879554748535</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30407381057739</t>
+    <t xml:space="preserve">7.30407333374023</t>
   </si>
   <si>
     <t xml:space="preserve">7.44609212875366</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46047353744507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59350395202637</t>
+    <t xml:space="preserve">7.46047401428223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59350347518921</t>
   </si>
   <si>
     <t xml:space="preserve">7.63485145568848</t>
@@ -4286,16 +4286,16 @@
     <t xml:space="preserve">7.7373194694519</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79844188690186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81641912460327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88113641738892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87933874130249</t>
+    <t xml:space="preserve">7.79844236373901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81641864776611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88113689422607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87933778762817</t>
   </si>
   <si>
     <t xml:space="preserve">7.96023559570312</t>
@@ -4313,7 +4313,7 @@
     <t xml:space="preserve">8.13101673126221</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17775726318359</t>
+    <t xml:space="preserve">8.17775630950928</t>
   </si>
   <si>
     <t xml:space="preserve">8.17955589294434</t>
@@ -4322,7 +4322,7 @@
     <t xml:space="preserve">8.10584926605225</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22989082336426</t>
+    <t xml:space="preserve">8.22989177703857</t>
   </si>
   <si>
     <t xml:space="preserve">8.26404762268066</t>
@@ -4334,7 +4334,7 @@
     <t xml:space="preserve">8.32337188720703</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3431453704834</t>
+    <t xml:space="preserve">8.34314632415771</t>
   </si>
   <si>
     <t xml:space="preserve">8.16157817840576</t>
@@ -4355,19 +4355,19 @@
     <t xml:space="preserve">8.2388801574707</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24427223205566</t>
+    <t xml:space="preserve">8.24427318572998</t>
   </si>
   <si>
     <t xml:space="preserve">8.3143835067749</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3701114654541</t>
+    <t xml:space="preserve">8.37011241912842</t>
   </si>
   <si>
     <t xml:space="preserve">8.37909984588623</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43482971191406</t>
+    <t xml:space="preserve">8.43482875823975</t>
   </si>
   <si>
     <t xml:space="preserve">8.08427810668945</t>
@@ -4379,10 +4379,10 @@
     <t xml:space="preserve">7.62945795059204</t>
   </si>
   <si>
-    <t xml:space="preserve">7.23216438293457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30227518081665</t>
+    <t xml:space="preserve">7.23216485977173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30227565765381</t>
   </si>
   <si>
     <t xml:space="preserve">7.06138324737549</t>
@@ -4391,7 +4391,7 @@
     <t xml:space="preserve">7.33283662796021</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59170532226562</t>
+    <t xml:space="preserve">7.59170579910278</t>
   </si>
   <si>
     <t xml:space="preserve">7.44968748092651</t>
@@ -4424,7 +4424,7 @@
     <t xml:space="preserve">7.47485542297363</t>
   </si>
   <si>
-    <t xml:space="preserve">7.64923238754272</t>
+    <t xml:space="preserve">7.64923286437988</t>
   </si>
   <si>
     <t xml:space="preserve">7.66720914840698</t>
@@ -4433,10 +4433,10 @@
     <t xml:space="preserve">7.67799520492554</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76428556442261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76788091659546</t>
+    <t xml:space="preserve">7.76428461074829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76788139343262</t>
   </si>
   <si>
     <t xml:space="preserve">7.78945398330688</t>
@@ -5217,6 +5217,9 @@
   </si>
   <si>
     <t xml:space="preserve">10.8299999237061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.539999961853</t>
   </si>
 </sst>
 </file>
@@ -61406,27 +61409,79 @@
     </row>
     <row r="2149">
       <c r="A2149" s="1" t="n">
-        <v>45455.6494791667</v>
+        <v>45454.2916666667</v>
       </c>
       <c r="B2149" t="n">
+        <v>1275207</v>
+      </c>
+      <c r="C2149" t="n">
+        <v>10.8299999237061</v>
+      </c>
+      <c r="D2149" t="n">
+        <v>10.5200004577637</v>
+      </c>
+      <c r="E2149" t="n">
+        <v>10.8199996948242</v>
+      </c>
+      <c r="F2149" t="n">
+        <v>10.539999961853</v>
+      </c>
+      <c r="G2149" t="s">
+        <v>1735</v>
+      </c>
+      <c r="H2149" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2150">
+      <c r="A2150" s="1" t="n">
+        <v>45455.2916666667</v>
+      </c>
+      <c r="B2150" t="n">
         <v>1230772</v>
       </c>
-      <c r="C2149" t="n">
+      <c r="C2150" t="n">
         <v>10.8699998855591</v>
       </c>
-      <c r="D2149" t="n">
+      <c r="D2150" t="n">
         <v>10.539999961853</v>
       </c>
-      <c r="E2149" t="n">
+      <c r="E2150" t="n">
         <v>10.6199998855591</v>
       </c>
-      <c r="F2149" t="n">
+      <c r="F2150" t="n">
         <v>10.8299999237061</v>
       </c>
-      <c r="G2149" t="s">
+      <c r="G2150" t="s">
         <v>1734</v>
       </c>
-      <c r="H2149" t="s">
+      <c r="H2150" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2151">
+      <c r="A2151" s="1" t="n">
+        <v>45456.6493981481</v>
+      </c>
+      <c r="B2151" t="n">
+        <v>1240238</v>
+      </c>
+      <c r="C2151" t="n">
+        <v>10.8199996948242</v>
+      </c>
+      <c r="D2151" t="n">
+        <v>10.539999961853</v>
+      </c>
+      <c r="E2151" t="n">
+        <v>10.8199996948242</v>
+      </c>
+      <c r="F2151" t="n">
+        <v>10.539999961853</v>
+      </c>
+      <c r="G2151" t="s">
+        <v>1735</v>
+      </c>
+      <c r="H2151" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BMED.MI.xlsx
+++ b/data/BMED.MI.xlsx
@@ -44,22 +44,22 @@
     <t xml:space="preserve">BMED.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26425123214722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99385070800781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90060925483704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8943932056427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92236495018005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03425455093384</t>
+    <t xml:space="preserve">4.26425170898438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99385023117065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90060901641846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89439296722412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92236471176147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03425550460815</t>
   </si>
   <si>
     <t xml:space="preserve">4.04047155380249</t>
@@ -68,19 +68,19 @@
     <t xml:space="preserve">3.75453019142151</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72344946861267</t>
+    <t xml:space="preserve">3.72344970703125</t>
   </si>
   <si>
     <t xml:space="preserve">3.76074624061584</t>
   </si>
   <si>
-    <t xml:space="preserve">3.54318308830261</t>
+    <t xml:space="preserve">3.54318237304688</t>
   </si>
   <si>
     <t xml:space="preserve">3.66750550270081</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90682482719421</t>
+    <t xml:space="preserve">3.90682435035706</t>
   </si>
   <si>
     <t xml:space="preserve">3.91614890098572</t>
@@ -89,136 +89,136 @@
     <t xml:space="preserve">3.91925764083862</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82912349700928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84155559539795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68615317344666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58669495582581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64263987541199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77628612518311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.46237349510193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30386233329773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60534429550171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71723294258118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78561115264893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88817691802979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84466361999512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84777188301086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95966124534607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92547369003296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83844757080078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9876344203949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07465934753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07155132293701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21763038635254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23938655853271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13371324539185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21141386032104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20830583572388</t>
+    <t xml:space="preserve">3.82912278175354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84155464172363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68615365028381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58669590950012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64264011383057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77628588676453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.46237301826477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30386281013489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60534381866455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71723365783691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78561091423035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88817596435547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84466338157654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8477725982666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95966196060181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92547273635864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8384473323822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98763370513916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0746603012085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07155179977417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21762990951538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23938751220703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13371276855469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2114143371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20830631256104</t>
   </si>
   <si>
     <t xml:space="preserve">4.27357530593872</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34816884994507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33262825012207</t>
+    <t xml:space="preserve">4.34816789627075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33262872695923</t>
   </si>
   <si>
     <t xml:space="preserve">4.30154800415039</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23006248474121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28600740432739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25182008743286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22073888778687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17411756515503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35749292373657</t>
+    <t xml:space="preserve">4.23006200790405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28600692749023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25181913375854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22073793411255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17411804199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35749340057373</t>
   </si>
   <si>
     <t xml:space="preserve">4.39168167114258</t>
   </si>
   <si>
-    <t xml:space="preserve">4.41654586791992</t>
+    <t xml:space="preserve">4.41654491424561</t>
   </si>
   <si>
     <t xml:space="preserve">4.24249410629272</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15236139297485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04668712615967</t>
+    <t xml:space="preserve">4.1523609161377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04668760299683</t>
   </si>
   <si>
     <t xml:space="preserve">4.2797908782959</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3139796257019</t>
+    <t xml:space="preserve">4.31398057937622</t>
   </si>
   <si>
     <t xml:space="preserve">4.27046680450439</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43208599090576</t>
+    <t xml:space="preserve">4.43208646774292</t>
   </si>
   <si>
     <t xml:space="preserve">4.47559881210327</t>
@@ -233,28 +233,28 @@
     <t xml:space="preserve">4.4390549659729</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51198244094849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54051828384399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53100633621216</t>
+    <t xml:space="preserve">4.51198291778564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54051876068115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.531005859375</t>
   </si>
   <si>
     <t xml:space="preserve">4.4327130317688</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48344564437866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44222545623779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57222652435303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55637168884277</t>
+    <t xml:space="preserve">4.4834451675415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44222593307495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57222700119019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55637216567993</t>
   </si>
   <si>
     <t xml:space="preserve">4.61661720275879</t>
@@ -263,7 +263,7 @@
     <t xml:space="preserve">4.48978662490845</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6578369140625</t>
+    <t xml:space="preserve">4.65783643722534</t>
   </si>
   <si>
     <t xml:space="preserve">4.56588506698608</t>
@@ -275,52 +275,52 @@
     <t xml:space="preserve">4.63881206512451</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48661613464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49612808227539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48027420043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51515293121338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47710371017456</t>
+    <t xml:space="preserve">4.4866156578064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49612855911255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48027467727661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51515245437622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47710418701172</t>
   </si>
   <si>
     <t xml:space="preserve">4.50246953964233</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66100740432739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90198421478271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83856964111328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75613021850586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78466749191284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8163743019104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77832555770874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72442245483398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74661827087402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60710477828979</t>
+    <t xml:space="preserve">4.66100692749023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90198516845703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83857011795044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7561297416687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78466701507568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81637382507324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77832460403442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72442150115967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74661731719971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60710382461548</t>
   </si>
   <si>
     <t xml:space="preserve">4.62930011749268</t>
@@ -329,70 +329,70 @@
     <t xml:space="preserve">4.68003177642822</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64198350906372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22027254104614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03319787979126</t>
+    <t xml:space="preserve">4.64198303222656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2202730178833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03319835662842</t>
   </si>
   <si>
     <t xml:space="preserve">4.05856466293335</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98563694953918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11563777923584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32490730285645</t>
+    <t xml:space="preserve">3.98563671112061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11563730239868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3249077796936</t>
   </si>
   <si>
     <t xml:space="preserve">4.36929798126221</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34710311889648</t>
+    <t xml:space="preserve">4.34710264205933</t>
   </si>
   <si>
     <t xml:space="preserve">4.50881099700928</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83027005195618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58612155914307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73514652252197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69709849357605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89051461219788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90002632141113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75734257698059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70661067962646</t>
+    <t xml:space="preserve">3.8302698135376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58612179756165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73514771461487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69709825515747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89051413536072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90002703666687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75734233856201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70661091804504</t>
   </si>
   <si>
     <t xml:space="preserve">3.64636635780334</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6717324256897</t>
+    <t xml:space="preserve">3.67173218727112</t>
   </si>
   <si>
     <t xml:space="preserve">3.87466049194336</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97295451164246</t>
+    <t xml:space="preserve">3.97295355796814</t>
   </si>
   <si>
     <t xml:space="preserve">4.10929679870605</t>
@@ -401,16 +401,16 @@
     <t xml:space="preserve">3.99514889717102</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02051591873169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04271078109741</t>
+    <t xml:space="preserve">4.02051544189453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0427098274231</t>
   </si>
   <si>
     <t xml:space="preserve">4.06490612030029</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04588174819946</t>
+    <t xml:space="preserve">4.0458812713623</t>
   </si>
   <si>
     <t xml:space="preserve">4.01417398452759</t>
@@ -419,49 +419,49 @@
     <t xml:space="preserve">4.1536865234375</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09027242660522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16002798080444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87783169746399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82075810432434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90636801719666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05222320556641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07758903503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96344184875488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8968563079834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94441676139832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8524649143219</t>
+    <t xml:space="preserve">4.09027147293091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1600284576416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87783074378967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8207573890686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90636825561523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05222177505493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07758808135986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96344113349915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89685606956482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94441628456116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85246539115906</t>
   </si>
   <si>
     <t xml:space="preserve">3.97612428665161</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01734447479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.941246509552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96978402137756</t>
+    <t xml:space="preserve">4.01734399795532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94124627113342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96978306770325</t>
   </si>
   <si>
     <t xml:space="preserve">4.0110034942627</t>
@@ -473,208 +473,208 @@
     <t xml:space="preserve">4.09344244003296</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0553936958313</t>
+    <t xml:space="preserve">4.05539321899414</t>
   </si>
   <si>
     <t xml:space="preserve">4.08075904846191</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17271184921265</t>
+    <t xml:space="preserve">4.17271089553833</t>
   </si>
   <si>
     <t xml:space="preserve">4.11246681213379</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98880767822266</t>
+    <t xml:space="preserve">3.98880743980408</t>
   </si>
   <si>
     <t xml:space="preserve">4.02368545532227</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00783252716064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78587937355042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85880613327026</t>
+    <t xml:space="preserve">4.00783205032349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78587865829468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85880661010742</t>
   </si>
   <si>
     <t xml:space="preserve">3.77953839302063</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83978199958801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87148952484131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76685500144958</t>
+    <t xml:space="preserve">3.83978223800659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87149000167847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76685523986816</t>
   </si>
   <si>
     <t xml:space="preserve">3.65270781517029</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69075798988342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76051354408264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73197746276855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74148964881897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92222213745117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88100218772888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95710015296936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89368510246277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95392894744873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79539179801941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86831974983215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91905093193054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92539262771606</t>
+    <t xml:space="preserve">3.69075751304626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76051378250122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73197722434998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74148941040039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92222142219543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8810019493103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95710039138794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89368367195129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95392942428589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79539203643799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86831903457642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91904997825623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92539286613464</t>
   </si>
   <si>
     <t xml:space="preserve">4.00149059295654</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07124710083008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84295272827148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81441640853882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95075941085815</t>
+    <t xml:space="preserve">4.07124662399292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84295296669006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81441617012024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95075845718384</t>
   </si>
   <si>
     <t xml:space="preserve">4.0490517616272</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90953993797302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86514782905579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77002573013306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75047516822815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85148644447327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87429666519165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85800385475159</t>
+    <t xml:space="preserve">3.90953826904297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86514759063721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77002596855164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75047564506531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85148668289185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87429642677307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85800337791443</t>
   </si>
   <si>
     <t xml:space="preserve">3.90036368370056</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94924020767212</t>
+    <t xml:space="preserve">3.94923973083496</t>
   </si>
   <si>
     <t xml:space="preserve">3.98182439804077</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03395986557007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06980323791504</t>
+    <t xml:space="preserve">4.03396129608154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06980228424072</t>
   </si>
   <si>
     <t xml:space="preserve">4.26530981063843</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34025430679321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67587375640869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51295185089111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44778299331665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51621055603027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49991846084595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49014186859131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40542364120483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48362636566162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46081638336182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49665975570679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50317621231079</t>
+    <t xml:space="preserve">4.34025382995605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67587471008301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51295280456543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44778347015381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51621007919312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49991798400879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49014377593994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40542316436768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48362588882446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46081686019897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49666023254395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50317668914795</t>
   </si>
   <si>
     <t xml:space="preserve">4.4803671836853</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45104169845581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50643634796143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5292444229126</t>
+    <t xml:space="preserve">4.45104074478149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50643491744995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52924394607544</t>
   </si>
   <si>
     <t xml:space="preserve">4.69216632843018</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71171760559082</t>
+    <t xml:space="preserve">4.7117166519165</t>
   </si>
   <si>
     <t xml:space="preserve">4.61722230911255</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65958213806152</t>
+    <t xml:space="preserve">4.659583568573</t>
   </si>
   <si>
     <t xml:space="preserve">4.84857225418091</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74104309082031</t>
+    <t xml:space="preserve">4.74104356765747</t>
   </si>
   <si>
     <t xml:space="preserve">4.91374063491821</t>
@@ -683,97 +683,97 @@
     <t xml:space="preserve">4.8159875869751</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80295372009277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87464094161987</t>
+    <t xml:space="preserve">4.80295419692993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87463998794556</t>
   </si>
   <si>
     <t xml:space="preserve">4.81272888183594</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80621194839478</t>
+    <t xml:space="preserve">4.80621337890625</t>
   </si>
   <si>
     <t xml:space="preserve">4.68239164352417</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83879661560059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77688550949097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7638521194458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77037000656128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6074481010437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61396360397339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66609907150269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64980602264404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53576183319092</t>
+    <t xml:space="preserve">4.8387975692749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77688598632812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76385307312012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77036905288696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60744667053223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61396455764771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66609811782837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64980745315552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5357608795166</t>
   </si>
   <si>
     <t xml:space="preserve">4.56182861328125</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54879570007324</t>
+    <t xml:space="preserve">4.54879522323608</t>
   </si>
   <si>
     <t xml:space="preserve">4.63677310943604</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6986837387085</t>
+    <t xml:space="preserve">4.69868326187134</t>
   </si>
   <si>
     <t xml:space="preserve">4.64003133773804</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62373971939087</t>
+    <t xml:space="preserve">4.62373924255371</t>
   </si>
   <si>
     <t xml:space="preserve">4.60093021392822</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29137802124023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15452241897583</t>
+    <t xml:space="preserve">4.29137754440308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15452289581299</t>
   </si>
   <si>
     <t xml:space="preserve">4.12519645690918</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02092552185059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04047727584839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0176682472229</t>
+    <t xml:space="preserve">4.02092695236206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04047632217407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01766777038574</t>
   </si>
   <si>
     <t xml:space="preserve">4.15126419067383</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20665788650513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16103982925415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17081499099731</t>
+    <t xml:space="preserve">4.20665693283081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16103935241699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17081451416016</t>
   </si>
   <si>
     <t xml:space="preserve">4.21643304824829</t>
@@ -782,7 +782,7 @@
     <t xml:space="preserve">4.2490177154541</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26205110549927</t>
+    <t xml:space="preserve">4.26205158233643</t>
   </si>
   <si>
     <t xml:space="preserve">4.35980463027954</t>
@@ -791,22 +791,22 @@
     <t xml:space="preserve">4.32722043991089</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3532886505127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39564800262451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3044114112854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32070398330688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34351348876953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37935590744019</t>
+    <t xml:space="preserve">4.35328817367554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39564847946167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30441188812256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32070302963257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34351253509521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37935543060303</t>
   </si>
   <si>
     <t xml:space="preserve">4.39890623092651</t>
@@ -821,16 +821,16 @@
     <t xml:space="preserve">4.50969362258911</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54227828979492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48688459396362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44452476501465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40216445922852</t>
+    <t xml:space="preserve">4.54227781295776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48688316345215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44452571868896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40216493606567</t>
   </si>
   <si>
     <t xml:space="preserve">4.36632204055786</t>
@@ -839,46 +839,46 @@
     <t xml:space="preserve">4.424973487854</t>
   </si>
   <si>
-    <t xml:space="preserve">4.58973073959351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59634351730347</t>
+    <t xml:space="preserve">4.58973169326782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59634399414062</t>
   </si>
   <si>
     <t xml:space="preserve">4.66578531265259</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60295820236206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64594507217407</t>
+    <t xml:space="preserve">4.60295724868774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64594554901123</t>
   </si>
   <si>
     <t xml:space="preserve">4.61949157714844</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5930380821228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65917110443115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73853302001953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74183988571167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70877170562744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86088180541992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86749649047852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8807225227356</t>
+    <t xml:space="preserve">4.59303760528564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65917205810547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73853349685669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74184036254883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70877265930176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86088132858276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86749505996704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88072204589844</t>
   </si>
   <si>
     <t xml:space="preserve">4.87741613388062</t>
@@ -887,73 +887,73 @@
     <t xml:space="preserve">4.92040300369263</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79805469512939</t>
+    <t xml:space="preserve">4.79805421829224</t>
   </si>
   <si>
     <t xml:space="preserve">4.81128120422363</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89064264297485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99315071105957</t>
+    <t xml:space="preserve">4.89064168930054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99315118789673</t>
   </si>
   <si>
     <t xml:space="preserve">5.05597829818726</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99976491928101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00637769699097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98323106765747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88733625411987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84765481948853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93693685531616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81789493560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94355058670044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96008348464966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90717697143555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82120132446289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7947473526001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83112096786499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91378927230835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8046669960022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85096120834351</t>
+    <t xml:space="preserve">4.99976396560669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00637817382812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98323011398315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88733530044556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84765529632568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93693733215332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81789445877075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94355010986328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96008443832397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90717601776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82120180130005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79474782943726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83112144470215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91379022598267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80466747283936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85096216201782</t>
   </si>
   <si>
     <t xml:space="preserve">4.75837373733521</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83773565292358</t>
+    <t xml:space="preserve">4.83773517608643</t>
   </si>
   <si>
     <t xml:space="preserve">4.89394903182983</t>
@@ -962,40 +962,40 @@
     <t xml:space="preserve">4.84104156494141</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8542685508728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90056133270264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02621793746948</t>
+    <t xml:space="preserve">4.85426902770996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90056276321411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0262188911438</t>
   </si>
   <si>
     <t xml:space="preserve">4.89725637435913</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93032312393188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91048288345337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82781457901001</t>
+    <t xml:space="preserve">4.93032360076904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91048336029053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82781553268433</t>
   </si>
   <si>
     <t xml:space="preserve">4.77821350097656</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71538639068604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85757493972778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83442783355713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76167964935303</t>
+    <t xml:space="preserve">4.71538591384888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8575758934021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83442878723145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76168060302734</t>
   </si>
   <si>
     <t xml:space="preserve">4.79144048690796</t>
@@ -1004,34 +1004,34 @@
     <t xml:space="preserve">4.75506687164307</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73522615432739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72199964523315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65586566925049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69554662704468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74514818191528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67570638656616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72530651092529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77490758895874</t>
+    <t xml:space="preserve">4.73522663116455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.721999168396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65586519241333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69554567337036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74514675140381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.675705909729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72530603408813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77490663528442</t>
   </si>
   <si>
     <t xml:space="preserve">4.80136060714722</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87080097198486</t>
+    <t xml:space="preserve">4.87080240249634</t>
   </si>
   <si>
     <t xml:space="preserve">4.96339082717896</t>
@@ -1043,7 +1043,7 @@
     <t xml:space="preserve">4.77160024642944</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68562602996826</t>
+    <t xml:space="preserve">4.6856255531311</t>
   </si>
   <si>
     <t xml:space="preserve">4.66909170150757</t>
@@ -1052,43 +1052,43 @@
     <t xml:space="preserve">4.66247844696045</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75176000595093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71869277954102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78813409805298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74174547195435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62609338760376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62949371337891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6635103225708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66010856628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75535154342651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76555633544922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77916240692139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88461017608643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88801193237305</t>
+    <t xml:space="preserve">4.75176048278809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71869325637817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78813457489014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74174499511719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62609243392944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62949419021606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66350984573364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66010808944702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75535202026367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76555585861206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77916193008423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88460922241211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88801145553589</t>
   </si>
   <si>
     <t xml:space="preserve">4.86079931259155</t>
@@ -1097,7 +1097,7 @@
     <t xml:space="preserve">4.86760282516479</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84379100799561</t>
+    <t xml:space="preserve">4.84379148483276</t>
   </si>
   <si>
     <t xml:space="preserve">4.90161800384521</t>
@@ -1115,16 +1115,16 @@
     <t xml:space="preserve">5.03427743911743</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08530044555664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96624660491943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02067184448242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04788398742676</t>
+    <t xml:space="preserve">5.0853009223938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96624755859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02067136764526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0478835105896</t>
   </si>
   <si>
     <t xml:space="preserve">4.9764518737793</t>
@@ -1136,22 +1136,22 @@
     <t xml:space="preserve">4.9084210395813</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81998109817505</t>
+    <t xml:space="preserve">4.81998062133789</t>
   </si>
   <si>
     <t xml:space="preserve">4.80297327041626</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89141321182251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99005746841431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98665571212769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95264101028442</t>
+    <t xml:space="preserve">4.89141416549683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99005794525146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98665618896484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95264053344727</t>
   </si>
   <si>
     <t xml:space="preserve">5.09550523757935</t>
@@ -1166,70 +1166,70 @@
     <t xml:space="preserve">5.25877952575684</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28599119186401</t>
+    <t xml:space="preserve">5.28599166870117</t>
   </si>
   <si>
     <t xml:space="preserve">5.30299854278564</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29619550704956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33701467514038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38803720474243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39143943786621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33021068572998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37443113327026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.408447265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27238512039185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16353607177734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24857473373413</t>
+    <t xml:space="preserve">5.29619693756104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33701419830322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38803768157959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39143991470337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33021116256714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37443065643311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40844774246216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.272385597229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1635365486145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24857568740845</t>
   </si>
   <si>
     <t xml:space="preserve">5.17714214324951</t>
   </si>
   <si>
-    <t xml:space="preserve">5.07509613037109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7621545791626</t>
+    <t xml:space="preserve">5.07509565353394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76215410232544</t>
   </si>
   <si>
     <t xml:space="preserve">4.80977582931519</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92882966995239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91522407531738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95944356918335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9492392539978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94583797454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95604181289673</t>
+    <t xml:space="preserve">4.92883014678955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91522359848022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95944452285767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94923877716064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94583749771118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95604276657104</t>
   </si>
   <si>
     <t xml:space="preserve">5.06149005889893</t>
@@ -1238,16 +1238,16 @@
     <t xml:space="preserve">5.03767919540405</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82678365707397</t>
+    <t xml:space="preserve">4.82678318023682</t>
   </si>
   <si>
     <t xml:space="preserve">4.78596496582031</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83358669281006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90501880645752</t>
+    <t xml:space="preserve">4.8335862159729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90501976013184</t>
   </si>
   <si>
     <t xml:space="preserve">4.93903493881226</t>
@@ -1256,16 +1256,16 @@
     <t xml:space="preserve">4.93223142623901</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87440586090088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84719324111938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77576112747192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80637502670288</t>
+    <t xml:space="preserve">4.87440538406372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84719276428223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77576065063477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80637454986572</t>
   </si>
   <si>
     <t xml:space="preserve">4.81657886505127</t>
@@ -1274,91 +1274,91 @@
     <t xml:space="preserve">4.73834371566772</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79957056045532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7723593711853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76895761489868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72813987731934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71793460845947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79617071151733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83698892593384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90708827972412</t>
+    <t xml:space="preserve">4.79957151412964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77235889434814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76895713806152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72813844680786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71793508529663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79616975784302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83698797225952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90708780288696</t>
   </si>
   <si>
     <t xml:space="preserve">4.84058713912964</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7040843963623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6025824546814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63758325576782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66208410263062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74958515167236</t>
+    <t xml:space="preserve">4.70408391952515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60258197784424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63758277893066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6620831489563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74958467483521</t>
   </si>
   <si>
     <t xml:space="preserve">4.73208475112915</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76008605957031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74608469009399</t>
+    <t xml:space="preserve">4.760085105896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74608564376831</t>
   </si>
   <si>
     <t xml:space="preserve">4.65508365631104</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7145848274231</t>
+    <t xml:space="preserve">4.71458578109741</t>
   </si>
   <si>
     <t xml:space="preserve">4.6760835647583</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66558361053467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57458162307739</t>
+    <t xml:space="preserve">4.66558313369751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57458209991455</t>
   </si>
   <si>
     <t xml:space="preserve">4.49758052825928</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31207799911499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29107713699341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27707767486572</t>
+    <t xml:space="preserve">4.31207704544067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29107761383057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27707719802856</t>
   </si>
   <si>
     <t xml:space="preserve">4.22457599639893</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25957679748535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27007579803467</t>
+    <t xml:space="preserve">4.25957727432251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27007722854614</t>
   </si>
   <si>
     <t xml:space="preserve">4.24907636642456</t>
@@ -1367,22 +1367,22 @@
     <t xml:space="preserve">4.18257522583008</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06707239151001</t>
+    <t xml:space="preserve">4.06707334518433</t>
   </si>
   <si>
     <t xml:space="preserve">4.18607568740845</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23157644271851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28057718276978</t>
+    <t xml:space="preserve">4.23157596588135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28057670593262</t>
   </si>
   <si>
     <t xml:space="preserve">4.09507369995117</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16857481002808</t>
+    <t xml:space="preserve">4.16857528686523</t>
   </si>
   <si>
     <t xml:space="preserve">4.18957567214966</t>
@@ -1397,76 +1397,76 @@
     <t xml:space="preserve">4.15807485580444</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15457487106323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19307518005371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13707399368286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11957359313965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16507530212402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09857368469238</t>
+    <t xml:space="preserve">4.15457439422607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19307470321655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13707447052002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11957454681396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16507482528687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09857416152954</t>
   </si>
   <si>
     <t xml:space="preserve">4.20707607269287</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07407379150391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02857208251953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0040717124939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06357288360596</t>
+    <t xml:space="preserve">4.07407331466675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02857303619385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00407266616821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06357336044312</t>
   </si>
   <si>
     <t xml:space="preserve">4.12657451629639</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11257362365723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14407444000244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98657131195068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0600733757019</t>
+    <t xml:space="preserve">4.11257410049438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1440749168396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9865710735321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06007432937622</t>
   </si>
   <si>
     <t xml:space="preserve">4.10207366943359</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04957294464111</t>
+    <t xml:space="preserve">4.04957342147827</t>
   </si>
   <si>
     <t xml:space="preserve">4.05657291412354</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30157709121704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46958017349243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34707832336426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37507915496826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32957792282104</t>
+    <t xml:space="preserve">4.3015775680542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46958065032959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3470778465271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3750786781311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3295783996582</t>
   </si>
   <si>
     <t xml:space="preserve">4.38907957077026</t>
@@ -1481,115 +1481,115 @@
     <t xml:space="preserve">4.23507642745972</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24557590484619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22107553482056</t>
+    <t xml:space="preserve">4.24557638168335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22107601165771</t>
   </si>
   <si>
     <t xml:space="preserve">4.14757442474365</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21407556533813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25607633590698</t>
+    <t xml:space="preserve">4.21407604217529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25607681274414</t>
   </si>
   <si>
     <t xml:space="preserve">4.2630763053894</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25257587432861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20007610321045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17557525634766</t>
+    <t xml:space="preserve">4.25257635116577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20007562637329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17557573318481</t>
   </si>
   <si>
     <t xml:space="preserve">4.12307405471802</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2735767364502</t>
+    <t xml:space="preserve">4.27357721328735</t>
   </si>
   <si>
     <t xml:space="preserve">4.2035756111145</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26657724380493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22807550430298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32257843017578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33307838439941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35407781600952</t>
+    <t xml:space="preserve">4.26657676696777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22807645797729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32257795333862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33307790756226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35407876968384</t>
   </si>
   <si>
     <t xml:space="preserve">4.46608018875122</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44857978820801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46258068084717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47658061981201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85356879234314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88507008552551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77306723594666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77656745910645</t>
+    <t xml:space="preserve">4.44858026504517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46258020401001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47658014297485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85356903076172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88507032394409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77306795120239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77656817436218</t>
   </si>
   <si>
     <t xml:space="preserve">3.79756832122803</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8605694770813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80106806755066</t>
+    <t xml:space="preserve">3.86056971549988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8010687828064</t>
   </si>
   <si>
     <t xml:space="preserve">3.7030668258667</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68206596374512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62956523895264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60506415367126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53856372833252</t>
+    <t xml:space="preserve">3.68206691741943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62956547737122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60506534576416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53856301307678</t>
   </si>
   <si>
     <t xml:space="preserve">3.56306409835815</t>
   </si>
   <si>
-    <t xml:space="preserve">3.50706338882446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59106492996216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58756422996521</t>
+    <t xml:space="preserve">3.50706315040588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.591064453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58756446838379</t>
   </si>
   <si>
     <t xml:space="preserve">3.65056586265564</t>
@@ -1598,97 +1598,97 @@
     <t xml:space="preserve">3.7100670337677</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69956588745117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70656633377075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67506623268127</t>
+    <t xml:space="preserve">3.69956660270691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70656657218933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67506670951843</t>
   </si>
   <si>
     <t xml:space="preserve">3.64006543159485</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63656520843506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66754698753357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50365519523621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65297865867615</t>
+    <t xml:space="preserve">3.6365659236908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66754746437073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50365471839905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65297937393188</t>
   </si>
   <si>
     <t xml:space="preserve">3.64569544792175</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72217893600464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89699673652649</t>
+    <t xml:space="preserve">3.72217869758606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89699721336365</t>
   </si>
   <si>
     <t xml:space="preserve">3.86057662963867</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85693407058716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84964966773987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83143973350525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8241560459137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68211579322815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66026401519775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61728811264038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67847394943237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74403119087219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81323027610779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72946238517761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70396780967712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75131416320801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70032525062561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52987742424011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71489357948303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70761013031006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67483186721802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82051372528076</t>
+    <t xml:space="preserve">3.85693430900574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84965014457703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83144068717957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82415676116943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68211531639099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66026329994202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61728715896606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67847371101379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74403023719788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81322979927063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72946262359619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70396852493286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7513153553009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70032620429993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52987813949585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71489429473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70761036872864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67483139038086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82051396369934</t>
   </si>
   <si>
     <t xml:space="preserve">3.80594515800476</t>
@@ -1700,52 +1700,52 @@
     <t xml:space="preserve">3.85329246520996</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87514448165894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92249131202698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90063905715942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87150287628174</t>
+    <t xml:space="preserve">3.87514495849609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92249155044556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90063858032227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87150239944458</t>
   </si>
   <si>
     <t xml:space="preserve">3.90792274475098</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87878656387329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8678605556488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9261326789856</t>
+    <t xml:space="preserve">3.87878632545471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86786007881165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92613339424133</t>
   </si>
   <si>
     <t xml:space="preserve">3.88242864608765</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00625801086426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15922451019287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22478199005127</t>
+    <t xml:space="preserve">4.00625896453857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15922498703003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22478294372559</t>
   </si>
   <si>
     <t xml:space="preserve">4.1482982635498</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28669595718384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28305530548096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3304009437561</t>
+    <t xml:space="preserve">4.28669738769531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28305435180664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33040142059326</t>
   </si>
   <si>
     <t xml:space="preserve">4.38867425918579</t>
@@ -1754,61 +1754,61 @@
     <t xml:space="preserve">4.33404350280762</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34132719039917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34861087799072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46515703201294</t>
+    <t xml:space="preserve">4.34132766723633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34861183166504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46515798568726</t>
   </si>
   <si>
     <t xml:space="preserve">4.42873668670654</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48336696624756</t>
+    <t xml:space="preserve">4.48336744308472</t>
   </si>
   <si>
     <t xml:space="preserve">4.47244167327881</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54528284072876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44330406188965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49429321289062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54892349243164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55256700515747</t>
+    <t xml:space="preserve">4.54528188705444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44330501556396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49429416656494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5489239692688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55256652832031</t>
   </si>
   <si>
     <t xml:space="preserve">4.56713533401489</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61083889007568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57806015014648</t>
+    <t xml:space="preserve">4.61083936691284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5780611038208</t>
   </si>
   <si>
     <t xml:space="preserve">4.60355520248413</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61812353134155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58534479141235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63269138336182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57077693939209</t>
+    <t xml:space="preserve">4.61812400817871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58534526824951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63269186019897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57077741622925</t>
   </si>
   <si>
     <t xml:space="preserve">4.59991359710693</t>
@@ -1817,49 +1817,49 @@
     <t xml:space="preserve">4.65454387664795</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62176513671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76744747161865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75287866592407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74923706054688</t>
+    <t xml:space="preserve">4.62176561355591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76744699478149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75287914276123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74923753738403</t>
   </si>
   <si>
     <t xml:space="preserve">4.74559497833252</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73831176757812</t>
+    <t xml:space="preserve">4.73831129074097</t>
   </si>
   <si>
     <t xml:space="preserve">4.73466920852661</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83664655685425</t>
+    <t xml:space="preserve">4.83664608001709</t>
   </si>
   <si>
     <t xml:space="preserve">4.90220308303833</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92769813537598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89856147766113</t>
+    <t xml:space="preserve">4.92769765853882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89856052398682</t>
   </si>
   <si>
     <t xml:space="preserve">4.89127683639526</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89503192901611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79743146896362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8424768447876</t>
+    <t xml:space="preserve">4.89503145217896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79743099212646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84247732162476</t>
   </si>
   <si>
     <t xml:space="preserve">4.84623098373413</t>
@@ -1868,112 +1868,115 @@
     <t xml:space="preserve">4.93632316589355</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91380071640015</t>
+    <t xml:space="preserve">4.91380023956299</t>
   </si>
   <si>
     <t xml:space="preserve">4.88001585006714</t>
   </si>
   <si>
+    <t xml:space="preserve">4.89127731323242</t>
+  </si>
+  <si>
     <t xml:space="preserve">4.72986173629761</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74112272262573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75613832473755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63976907730103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59096813201904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65478372573853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59472227096558</t>
+    <t xml:space="preserve">4.74112367630005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75613880157471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63976955413818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5909686088562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65478420257568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59472274780273</t>
   </si>
   <si>
     <t xml:space="preserve">4.65853834152222</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61724662780762</t>
+    <t xml:space="preserve">4.61724615097046</t>
   </si>
   <si>
     <t xml:space="preserve">4.61349201202393</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54967594146729</t>
+    <t xml:space="preserve">4.54967641830444</t>
   </si>
   <si>
     <t xml:space="preserve">4.56093788146973</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5646915435791</t>
+    <t xml:space="preserve">4.56469202041626</t>
   </si>
   <si>
     <t xml:space="preserve">4.52715349197388</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50463008880615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48210620880127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51213788986206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57595300674438</t>
+    <t xml:space="preserve">4.50463056564331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48210716247559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51213836669922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57595348358154</t>
   </si>
   <si>
     <t xml:space="preserve">4.63601541519165</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62475347518921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66979932785034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65103054046631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59847640991211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6285080909729</t>
+    <t xml:space="preserve">4.62475299835205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66980028152466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65103101730347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59847688674927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62850761413574</t>
   </si>
   <si>
     <t xml:space="preserve">4.55718421936035</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69607639312744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71859979629517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7486310005188</t>
+    <t xml:space="preserve">4.6960768699646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71860027313232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74863052368164</t>
   </si>
   <si>
     <t xml:space="preserve">4.85749244689941</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78992414474487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79367780685425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8537392616272</t>
+    <t xml:space="preserve">4.78992319107056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79367733001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85373878479004</t>
   </si>
   <si>
     <t xml:space="preserve">4.86124563217163</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86500072479248</t>
+    <t xml:space="preserve">4.86500024795532</t>
   </si>
   <si>
     <t xml:space="preserve">5.00389289855957</t>
@@ -1988,34 +1991,34 @@
     <t xml:space="preserve">4.98512363433838</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94383192062378</t>
+    <t xml:space="preserve">4.94383096694946</t>
   </si>
   <si>
     <t xml:space="preserve">5.02266263961792</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01515483856201</t>
+    <t xml:space="preserve">5.01515436172485</t>
   </si>
   <si>
     <t xml:space="preserve">5.05269289016724</t>
   </si>
   <si>
-    <t xml:space="preserve">5.07521677017212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02641582489014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97010850906372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95133876800537</t>
+    <t xml:space="preserve">5.07521629333496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02641630172729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97010803222656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95133924484253</t>
   </si>
   <si>
     <t xml:space="preserve">4.947585105896</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97761631011963</t>
+    <t xml:space="preserve">4.97761535644531</t>
   </si>
   <si>
     <t xml:space="preserve">4.9550929069519</t>
@@ -2024,22 +2027,22 @@
     <t xml:space="preserve">5.04143142700195</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00013971328735</t>
+    <t xml:space="preserve">5.00013875961304</t>
   </si>
   <si>
     <t xml:space="preserve">4.93256998062134</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91755533218384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69983053207397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70358467102051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71109199523926</t>
+    <t xml:space="preserve">4.91755485534668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69983100891113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70358562469482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71109294891357</t>
   </si>
   <si>
     <t xml:space="preserve">4.63226175308228</t>
@@ -2054,7 +2057,7 @@
     <t xml:space="preserve">4.90629291534424</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99638605117798</t>
+    <t xml:space="preserve">4.99638557434082</t>
   </si>
   <si>
     <t xml:space="preserve">4.94007730484009</t>
@@ -2063,64 +2066,64 @@
     <t xml:space="preserve">5.03767776489258</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0602011680603</t>
+    <t xml:space="preserve">5.06020069122314</t>
   </si>
   <si>
     <t xml:space="preserve">5.1540470123291</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1653094291687</t>
+    <t xml:space="preserve">5.16530895233154</t>
   </si>
   <si>
     <t xml:space="preserve">5.14278554916382</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26290988922119</t>
+    <t xml:space="preserve">5.26290941238403</t>
   </si>
   <si>
     <t xml:space="preserve">5.21035528182983</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23287868499756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28543281555176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29294061660767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25540161132812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16155529022217</t>
+    <t xml:space="preserve">5.2328782081604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28543186187744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29294013977051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25540113449097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16155481338501</t>
   </si>
   <si>
     <t xml:space="preserve">5.19158601760864</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15029382705688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17657089233398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17281675338745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16906356811523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10149335861206</t>
+    <t xml:space="preserve">5.15029335021973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17657041549683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17281723022461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16906309127808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1014928817749</t>
   </si>
   <si>
     <t xml:space="preserve">5.22161626815796</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21786308288574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21410894393921</t>
+    <t xml:space="preserve">5.21786260604858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21410942077637</t>
   </si>
   <si>
     <t xml:space="preserve">5.23663234710693</t>
@@ -2135,7 +2138,7 @@
     <t xml:space="preserve">5.48438692092896</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5294337272644</t>
+    <t xml:space="preserve">5.52943325042725</t>
   </si>
   <si>
     <t xml:space="preserve">5.57447957992554</t>
@@ -2144,19 +2147,19 @@
     <t xml:space="preserve">5.64204835891724</t>
   </si>
   <si>
-    <t xml:space="preserve">5.6758337020874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69084882736206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70211124420166</t>
+    <t xml:space="preserve">5.67583322525024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69084930419922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70211029052734</t>
   </si>
   <si>
     <t xml:space="preserve">5.72463417053223</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76217317581177</t>
+    <t xml:space="preserve">5.76217269897461</t>
   </si>
   <si>
     <t xml:space="preserve">5.77343416213989</t>
@@ -2165,19 +2168,19 @@
     <t xml:space="preserve">5.76968050003052</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77718782424927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78844928741455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78094244003296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85601997375488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20137500762939</t>
+    <t xml:space="preserve">5.77718830108643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78844976425171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78094148635864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85601902008057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20137357711792</t>
   </si>
   <si>
     <t xml:space="preserve">6.3027286529541</t>
@@ -2186,10 +2189,10 @@
     <t xml:space="preserve">6.47915935516357</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59177446365356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45663642883301</t>
+    <t xml:space="preserve">6.59177494049072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45663690567017</t>
   </si>
   <si>
     <t xml:space="preserve">6.47165155410767</t>
@@ -2198,7 +2201,7 @@
     <t xml:space="preserve">6.56784152984619</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74483108520508</t>
+    <t xml:space="preserve">6.74483203887939</t>
   </si>
   <si>
     <t xml:space="preserve">6.9025821685791</t>
@@ -2207,82 +2210,82 @@
     <t xml:space="preserve">6.91797256469727</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01416254043579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95644903182983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07957172393799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10265731811523</t>
+    <t xml:space="preserve">7.01416206359863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95644855499268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07957077026367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10265636444092</t>
   </si>
   <si>
     <t xml:space="preserve">7.16037130355835</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09111499786377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02570486068726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00646638870239</t>
+    <t xml:space="preserve">7.09111404418945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02570533752441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00646686553955</t>
   </si>
   <si>
     <t xml:space="preserve">7.08726739883423</t>
   </si>
   <si>
-    <t xml:space="preserve">7.14113330841064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08341932296753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95260047912598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97184038162231</t>
+    <t xml:space="preserve">7.1411337852478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08341884613037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95260095596313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97183895111084</t>
   </si>
   <si>
     <t xml:space="preserve">7.00262069702148</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97568607330322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0526385307312</t>
+    <t xml:space="preserve">6.9756875038147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05263996124268</t>
   </si>
   <si>
     <t xml:space="preserve">7.02955341339111</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02185726165771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9910774230957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89873504638672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86410570144653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87565088272095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81408786773682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84487009048462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75252532958984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61401271820068</t>
+    <t xml:space="preserve">7.02185869216919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99107694625854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89873552322388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86410522460938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87564992904663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81408739089966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84486961364746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.752525806427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61401319503784</t>
   </si>
   <si>
     <t xml:space="preserve">6.61786079406738</t>
@@ -2291,22 +2294,22 @@
     <t xml:space="preserve">6.77176475524902</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92566776275635</t>
+    <t xml:space="preserve">6.92566728591919</t>
   </si>
   <si>
     <t xml:space="preserve">6.72174596786499</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71789789199829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82947826385498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74867963790894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63325119018555</t>
+    <t xml:space="preserve">6.71789741516113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82947778701782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74867868423462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63325023651123</t>
   </si>
   <si>
     <t xml:space="preserve">6.66403102874756</t>
@@ -2315,16 +2318,13 @@
     <t xml:space="preserve">6.6101655960083</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41008996963501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55245208740234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47165107727051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27157735824585</t>
+    <t xml:space="preserve">6.41009044647217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55245161056519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27157688140869</t>
   </si>
   <si>
     <t xml:space="preserve">6.28311967849731</t>
@@ -2333,16 +2333,16 @@
     <t xml:space="preserve">6.37930965423584</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34083318710327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39470052719116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46395635604858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50243186950684</t>
+    <t xml:space="preserve">6.34083366394043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39469957351685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46395683288574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50243330001831</t>
   </si>
   <si>
     <t xml:space="preserve">6.49473714828491</t>
@@ -2354,151 +2354,151 @@
     <t xml:space="preserve">6.57553672790527</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69096517562866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72944068908691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56399440765381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38315725326538</t>
+    <t xml:space="preserve">6.6909646987915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72943925857544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56399393081665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38315629959106</t>
   </si>
   <si>
     <t xml:space="preserve">6.04456949234009</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9907021522522</t>
+    <t xml:space="preserve">5.99070262908936</t>
   </si>
   <si>
     <t xml:space="preserve">6.00994062423706</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8675799369812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66365766525269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59824800491333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57516288757324</t>
+    <t xml:space="preserve">5.86758041381836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66365671157837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59824848175049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57516241073608</t>
   </si>
   <si>
     <t xml:space="preserve">5.53668689727783</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25581312179565</t>
+    <t xml:space="preserve">5.25581169128418</t>
   </si>
   <si>
     <t xml:space="preserve">5.13268995285034</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77101516723633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20157194137573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15540027618408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76448512077332</t>
+    <t xml:space="preserve">4.77101564407349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20157146453857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15540075302124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76448535919189</t>
   </si>
   <si>
     <t xml:space="preserve">3.76756381988525</t>
   </si>
   <si>
-    <t xml:space="preserve">3.44898223876953</t>
+    <t xml:space="preserve">3.44898247718811</t>
   </si>
   <si>
     <t xml:space="preserve">3.17811226844788</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13809704780579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25660276412964</t>
+    <t xml:space="preserve">3.13809728622437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25660300254822</t>
   </si>
   <si>
     <t xml:space="preserve">3.24736857414246</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63982343673706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74909496307373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95532608032227</t>
+    <t xml:space="preserve">3.63982319831848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74909567832947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95532584190369</t>
   </si>
   <si>
     <t xml:space="preserve">3.82142949104309</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63366723060608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57826209068298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56748843193054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57980132102966</t>
+    <t xml:space="preserve">3.63366770744324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5782618522644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56748867034912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5798008441925</t>
   </si>
   <si>
     <t xml:space="preserve">3.51670026779175</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64444088935852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84759378433228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0207347869873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20926761627197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85913562774658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90530705451965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02458190917969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94763112068176</t>
+    <t xml:space="preserve">3.64444065093994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84759330749512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02073526382446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20926713943481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85913586616516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90530729293823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02458238601685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94763040542603</t>
   </si>
   <si>
     <t xml:space="preserve">3.75986814498901</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89761209487915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98610639572144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96686911582947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11692428588867</t>
+    <t xml:space="preserve">3.89761137962341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98610591888428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96686935424805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11692476272583</t>
   </si>
   <si>
     <t xml:space="preserve">4.31315183639526</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48629331588745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28621959686279</t>
+    <t xml:space="preserve">4.48629379272461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28621912002563</t>
   </si>
   <si>
     <t xml:space="preserve">4.09383964538574</t>
@@ -2507,10 +2507,10 @@
     <t xml:space="preserve">4.03227806091309</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07844924926758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12461996078491</t>
+    <t xml:space="preserve">4.07844877243042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12461948394775</t>
   </si>
   <si>
     <t xml:space="preserve">4.12846755981445</t>
@@ -2522,28 +2522,28 @@
     <t xml:space="preserve">4.38240909576416</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24004793167114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14385843276978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25928592681885</t>
+    <t xml:space="preserve">4.24004745483398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14385890960693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25928544998169</t>
   </si>
   <si>
     <t xml:space="preserve">4.26698064804077</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38625574111938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42473268508911</t>
+    <t xml:space="preserve">4.38625621795654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42473220825195</t>
   </si>
   <si>
     <t xml:space="preserve">4.51322650909424</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55555105209351</t>
+    <t xml:space="preserve">4.55555057525635</t>
   </si>
   <si>
     <t xml:space="preserve">4.66328287124634</t>
@@ -2558,19 +2558,19 @@
     <t xml:space="preserve">4.74023485183716</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79410171508789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97493839263916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20579433441162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32506895065308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12114715576172</t>
+    <t xml:space="preserve">4.79410123825073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.974937915802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2057933807373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32506942749023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12114667892456</t>
   </si>
   <si>
     <t xml:space="preserve">4.84412002563477</t>
@@ -2579,85 +2579,85 @@
     <t xml:space="preserve">4.86335802078247</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02495718002319</t>
+    <t xml:space="preserve">5.02495670318604</t>
   </si>
   <si>
     <t xml:space="preserve">4.97109031677246</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94800519943237</t>
+    <t xml:space="preserve">4.94800424575806</t>
   </si>
   <si>
     <t xml:space="preserve">4.99802350997925</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98263311386108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02880477905273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8133397102356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80179595947266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85181522369385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89413928985596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91722393035889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83642435073853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06343269348145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94030952453613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05958461761475</t>
+    <t xml:space="preserve">4.98263359069824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02880430221558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81333923339844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80179643630981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85181474685669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8941388130188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91722440719604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83642482757568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06343221664429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94031000137329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05958557128906</t>
   </si>
   <si>
     <t xml:space="preserve">5.03649997711182</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82488250732422</t>
+    <t xml:space="preserve">4.8248815536499</t>
   </si>
   <si>
     <t xml:space="preserve">4.94415760040283</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00187158584595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07112789154053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07497501373291</t>
+    <t xml:space="preserve">5.00187110900879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07112836837769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07497549057007</t>
   </si>
   <si>
     <t xml:space="preserve">5.09806108474731</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21733665466309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15962219238281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11345243453979</t>
+    <t xml:space="preserve">5.21733617782593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15962266921997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11345148086548</t>
   </si>
   <si>
     <t xml:space="preserve">5.06728029251099</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98648166656494</t>
+    <t xml:space="preserve">4.98648023605347</t>
   </si>
   <si>
     <t xml:space="preserve">4.93261432647705</t>
@@ -2669,85 +2669,85 @@
     <t xml:space="preserve">4.95185327529907</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76716756820679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9556999206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96339511871338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10190916061401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1865553855896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24042272567749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15577459335327</t>
+    <t xml:space="preserve">4.76716804504395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95570039749146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96339559555054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10190868377686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18655586242676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24042129516602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15577507019043</t>
   </si>
   <si>
     <t xml:space="preserve">5.02110958099365</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10575675964355</t>
+    <t xml:space="preserve">5.1057562828064</t>
   </si>
   <si>
     <t xml:space="preserve">4.97878551483154</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14038467407227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05188989639282</t>
+    <t xml:space="preserve">5.14038419723511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05188941955566</t>
   </si>
   <si>
     <t xml:space="preserve">5.08651828765869</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92491960525513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78255844116211</t>
+    <t xml:space="preserve">4.92492008209229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78255796432495</t>
   </si>
   <si>
     <t xml:space="preserve">4.86720514297485</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87105274200439</t>
+    <t xml:space="preserve">4.87105321884155</t>
   </si>
   <si>
     <t xml:space="preserve">5.09036540985107</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84796810150146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73254060745239</t>
+    <t xml:space="preserve">4.84796762466431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73253965377808</t>
   </si>
   <si>
     <t xml:space="preserve">4.84027242660522</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70560646057129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78640508651733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04034757614136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.959547996521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80949211120605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83257818222046</t>
+    <t xml:space="preserve">4.70560598373413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78640604019165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0403470993042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95954704284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8094916343689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8325777053833</t>
   </si>
   <si>
     <t xml:space="preserve">4.81718683242798</t>
@@ -2756,10 +2756,10 @@
     <t xml:space="preserve">4.65558862686157</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51707458496094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46320915222168</t>
+    <t xml:space="preserve">4.5170750617981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46320819854736</t>
   </si>
   <si>
     <t xml:space="preserve">4.50937938690186</t>
@@ -2771,16 +2771,16 @@
     <t xml:space="preserve">5.29428815841675</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38278341293335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51744890213013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38663053512573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55592489242554</t>
+    <t xml:space="preserve">5.38278293609619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51744937896729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38663101196289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55592441558838</t>
   </si>
   <si>
     <t xml:space="preserve">5.81756114959717</t>
@@ -2789,43 +2789,43 @@
     <t xml:space="preserve">5.80986642837524</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73291397094727</t>
+    <t xml:space="preserve">5.73291444778442</t>
   </si>
   <si>
     <t xml:space="preserve">5.8444938659668</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86373281478882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01763677597046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89066600799561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97531223297119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85218906402588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92529344558716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76754236221313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71752405166626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70982837677002</t>
+    <t xml:space="preserve">5.8637318611145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0176362991333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89066553115845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97531270980835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85218954086304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92529392242432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76754140853882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7175235748291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70982885360718</t>
   </si>
   <si>
     <t xml:space="preserve">5.64441919326782</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60209560394287</t>
+    <t xml:space="preserve">5.60209512710571</t>
   </si>
   <si>
     <t xml:space="preserve">5.59440088272095</t>
@@ -2834,37 +2834,37 @@
     <t xml:space="preserve">5.50205850601196</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46742963790894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47512483596802</t>
+    <t xml:space="preserve">5.46743011474609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47512531280518</t>
   </si>
   <si>
     <t xml:space="preserve">5.47897291183472</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46358203887939</t>
+    <t xml:space="preserve">5.46358299255371</t>
   </si>
   <si>
     <t xml:space="preserve">5.44434404373169</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33276462554932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40971708297729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42895412445068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47127771377563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49821138381958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43664932250977</t>
+    <t xml:space="preserve">5.332763671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40971612930298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42895460128784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47127723693848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49821043014526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43664979934692</t>
   </si>
   <si>
     <t xml:space="preserve">5.44819164276123</t>
@@ -2873,73 +2873,73 @@
     <t xml:space="preserve">5.65980958938599</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63672494888306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62902879714966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2750506401062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14423322677612</t>
+    <t xml:space="preserve">5.63672399520874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62902927398682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27505111694336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14423227310181</t>
   </si>
   <si>
     <t xml:space="preserve">5.07882308959961</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16347026824951</t>
+    <t xml:space="preserve">5.16346979141235</t>
   </si>
   <si>
     <t xml:space="preserve">5.22503185272217</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62518167495728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73676156997681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9483790397644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87912273406982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89836025238037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88297033309937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76369476318359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67904710769653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69443798065186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75984716415405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62133359909058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65211486816406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55977201461792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74445629119873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77523756027222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75215196609497</t>
+    <t xml:space="preserve">5.62518119812012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73676204681396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94837951660156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87912225723267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89836072921753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88296985626221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76369428634644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67904758453369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69443845748901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75984764099121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62133312225342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6521143913269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55977249145508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74445724487305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77523803710938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75215148925781</t>
   </si>
   <si>
     <t xml:space="preserve">5.85988473892212</t>
@@ -2948,85 +2948,85 @@
     <t xml:space="preserve">5.92144632339478</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95992183685303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97915983200073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96376943588257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97146511077881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09843635559082</t>
+    <t xml:space="preserve">5.95992136001587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97916030883789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96376991271973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97146463394165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09843587875366</t>
   </si>
   <si>
     <t xml:space="preserve">6.25233936309814</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15999746322632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18308305740356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09073972702026</t>
+    <t xml:space="preserve">6.159996509552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18308210372925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09074068069458</t>
   </si>
   <si>
     <t xml:space="preserve">6.13306331634521</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14075899124146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2254056930542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19462537765503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17461824417114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21001529693604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12844705581665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04379987716675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10690021514893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05457305908203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05765151977539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00224590301514</t>
+    <t xml:space="preserve">6.1407585144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22540616989136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19462585449219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17461776733398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21001577377319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12844610214233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04379940032959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10689973831177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05457258224487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05765104293823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00224542617798</t>
   </si>
   <si>
     <t xml:space="preserve">6.02225255966187</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08535385131836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02994871139526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95761394500732</t>
+    <t xml:space="preserve">6.0853533744812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02994823455811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95761346817017</t>
   </si>
   <si>
     <t xml:space="preserve">6.0145583152771</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04072141647339</t>
+    <t xml:space="preserve">6.04072093963623</t>
   </si>
   <si>
     <t xml:space="preserve">6.01301908493042</t>
@@ -3035,58 +3035,58 @@
     <t xml:space="preserve">5.98069906234741</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10843944549561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01147937774658</t>
+    <t xml:space="preserve">6.10843992233276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01147985458374</t>
   </si>
   <si>
     <t xml:space="preserve">6.08227491378784</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16846132278442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23925685882568</t>
+    <t xml:space="preserve">6.16846179962158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23925733566284</t>
   </si>
   <si>
     <t xml:space="preserve">6.21463298797607</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06380748748779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06688499450684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0884313583374</t>
+    <t xml:space="preserve">6.06380653381348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06688547134399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08843183517456</t>
   </si>
   <si>
     <t xml:space="preserve">6.03918218612671</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12463521957397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07521867752075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07367420196533</t>
+    <t xml:space="preserve">6.12463569641113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07521820068359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07367467880249</t>
   </si>
   <si>
     <t xml:space="preserve">6.08911657333374</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25898838043213</t>
+    <t xml:space="preserve">6.25898790359497</t>
   </si>
   <si>
     <t xml:space="preserve">6.24354553222656</t>
   </si>
   <si>
-    <t xml:space="preserve">6.228102684021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24045610427856</t>
+    <t xml:space="preserve">6.22810316085815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24045658111572</t>
   </si>
   <si>
     <t xml:space="preserve">6.21729278564453</t>
@@ -3095,10 +3095,10 @@
     <t xml:space="preserve">6.26516580581665</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3856201171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4242262840271</t>
+    <t xml:space="preserve">6.38561964035034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42422676086426</t>
   </si>
   <si>
     <t xml:space="preserve">6.30686140060425</t>
@@ -3110,13 +3110,13 @@
     <t xml:space="preserve">6.3717212677002</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34237957000732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44893550872803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46283388137817</t>
+    <t xml:space="preserve">6.34237909317017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44893598556519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46283340454102</t>
   </si>
   <si>
     <t xml:space="preserve">6.34855699539185</t>
@@ -3125,100 +3125,100 @@
     <t xml:space="preserve">6.32384777069092</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27906370162964</t>
+    <t xml:space="preserve">6.2790641784668</t>
   </si>
   <si>
     <t xml:space="preserve">6.35318946838379</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53232717514038</t>
+    <t xml:space="preserve">6.53232669830322</t>
   </si>
   <si>
     <t xml:space="preserve">6.33311319351196</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47982120513916</t>
+    <t xml:space="preserve">6.47982168197632</t>
   </si>
   <si>
     <t xml:space="preserve">6.3346586227417</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33774662017822</t>
+    <t xml:space="preserve">6.33774709701538</t>
   </si>
   <si>
     <t xml:space="preserve">6.35936689376831</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35782241821289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36091136932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32075881958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21265935897827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30531740188599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40723991394043</t>
+    <t xml:space="preserve">6.35782289505005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36091089248657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32075977325439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21265983581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30531692504883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40723943710327</t>
   </si>
   <si>
     <t xml:space="preserve">6.34083557128906</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36245441436768</t>
+    <t xml:space="preserve">6.36245489120483</t>
   </si>
   <si>
     <t xml:space="preserve">6.26979827880859</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25744390487671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99800443649292</t>
+    <t xml:space="preserve">6.25744342803955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99800395965576</t>
   </si>
   <si>
     <t xml:space="preserve">6.04587650299072</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24200105667114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29141807556152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34701299667358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50452947616577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51070690155029</t>
+    <t xml:space="preserve">6.24200057983398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29141759872437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34701251983643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50452995300293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51070642471313</t>
   </si>
   <si>
     <t xml:space="preserve">6.48754262924194</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48291015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41187238693237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42731618881226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39334106445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43812561035156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49680805206299</t>
+    <t xml:space="preserve">6.48290967941284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41187191009521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4273157119751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39334011077881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4381251335144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49680757522583</t>
   </si>
   <si>
     <t xml:space="preserve">6.57865571975708</t>
@@ -3230,82 +3230,82 @@
     <t xml:space="preserve">6.67131280899048</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76705741882324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74698257446289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79022216796875</t>
+    <t xml:space="preserve">6.7670578956604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74698209762573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79022169113159</t>
   </si>
   <si>
     <t xml:space="preserve">6.74852609634399</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79948806762695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65278100967407</t>
+    <t xml:space="preserve">6.79948759078979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65278148651123</t>
   </si>
   <si>
     <t xml:space="preserve">6.62652826309204</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69293260574341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68212223052979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70991945266724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69602155685425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7531590461731</t>
+    <t xml:space="preserve">6.69293212890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68212270736694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70991849899292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69602060317993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75316047668457</t>
   </si>
   <si>
     <t xml:space="preserve">6.76860189437866</t>
   </si>
   <si>
-    <t xml:space="preserve">6.78713369369507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78558921813965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81029844284058</t>
+    <t xml:space="preserve">6.78713321685791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78558969497681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81029748916626</t>
   </si>
   <si>
     <t xml:space="preserve">6.8133864402771</t>
   </si>
   <si>
-    <t xml:space="preserve">6.77941226959229</t>
+    <t xml:space="preserve">6.77941274642944</t>
   </si>
   <si>
     <t xml:space="preserve">6.75933647155762</t>
   </si>
   <si>
-    <t xml:space="preserve">6.75624704360962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72381830215454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88751220703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93229722976685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88133573532104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93847322463989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87515735626221</t>
+    <t xml:space="preserve">6.75624942779541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72381734848022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88751077651978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93229627609253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88133478164673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93847465515137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87515783309937</t>
   </si>
   <si>
     <t xml:space="preserve">6.66667890548706</t>
@@ -3314,10 +3314,10 @@
     <t xml:space="preserve">6.87824583053589</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09907913208008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04811811447144</t>
+    <t xml:space="preserve">7.09907960891724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04811763763428</t>
   </si>
   <si>
     <t xml:space="preserve">7.07591438293457</t>
@@ -3326,109 +3326,109 @@
     <t xml:space="preserve">7.07282590866089</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15776252746582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21953392028809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33535480499268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35234308242798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49905014038086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38940525054932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52530193328857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45735263824463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51294755935669</t>
+    <t xml:space="preserve">7.1577615737915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2195348739624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33535528182983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35234212875366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49904870986938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38940382003784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52530336380005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45735359191895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51294708251953</t>
   </si>
   <si>
     <t xml:space="preserve">7.61178207397461</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51758003234863</t>
+    <t xml:space="preserve">7.51758098602295</t>
   </si>
   <si>
     <t xml:space="preserve">7.57626390457153</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61487102508545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63771867752075</t>
+    <t xml:space="preserve">7.61487150192261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63771820068359</t>
   </si>
   <si>
     <t xml:space="preserve">7.49894237518311</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50563097000122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4119987487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39862298965454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34177303314209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45212554931641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39360523223877</t>
+    <t xml:space="preserve">7.50562953948975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41199779510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39862251281738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34177446365356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45212507247925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39360618591309</t>
   </si>
   <si>
     <t xml:space="preserve">7.34511852264404</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27823781967163</t>
+    <t xml:space="preserve">7.27823734283447</t>
   </si>
   <si>
     <t xml:space="preserve">7.36350917816162</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2682056427002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33174276351929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47553443908691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44878244400024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4554705619812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53739833831787</t>
+    <t xml:space="preserve">7.26820611953735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33174180984497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47553396224976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44878339767456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45547103881836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53739881515503</t>
   </si>
   <si>
     <t xml:space="preserve">7.58087015151978</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58923053741455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65778207778931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64273500442505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54408740997314</t>
+    <t xml:space="preserve">7.58923149108887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65778255462646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64273595809937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54408645629883</t>
   </si>
   <si>
     <t xml:space="preserve">7.4537992477417</t>
@@ -3437,31 +3437,31 @@
     <t xml:space="preserve">7.34344673156738</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50483989715576</t>
+    <t xml:space="preserve">7.50483894348145</t>
   </si>
   <si>
     <t xml:space="preserve">7.36576700210571</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58038663864136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48251867294312</t>
+    <t xml:space="preserve">7.5803861618042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48251962661743</t>
   </si>
   <si>
     <t xml:space="preserve">7.14599561691284</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20265531539917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08075046539307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26446628570557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20780611038208</t>
+    <t xml:space="preserve">7.20265579223633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08074998855591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26446580886841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20780563354492</t>
   </si>
   <si>
     <t xml:space="preserve">7.24557876586914</t>
@@ -3473,7 +3473,7 @@
     <t xml:space="preserve">7.47736883163452</t>
   </si>
   <si>
-    <t xml:space="preserve">7.40697336196899</t>
+    <t xml:space="preserve">7.40697383880615</t>
   </si>
   <si>
     <t xml:space="preserve">7.340012550354</t>
@@ -3482,13 +3482,13 @@
     <t xml:space="preserve">7.28850269317627</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27820158004761</t>
+    <t xml:space="preserve">7.27820062637329</t>
   </si>
   <si>
     <t xml:space="preserve">7.28335237503052</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29880428314209</t>
+    <t xml:space="preserve">7.29880475997925</t>
   </si>
   <si>
     <t xml:space="preserve">7.20952224731445</t>
@@ -3500,7 +3500,7 @@
     <t xml:space="preserve">7.19235277175903</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25244665145874</t>
+    <t xml:space="preserve">7.2524471282959</t>
   </si>
   <si>
     <t xml:space="preserve">7.37091779708862</t>
@@ -3512,7 +3512,7 @@
     <t xml:space="preserve">7.43444442749023</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45161437988281</t>
+    <t xml:space="preserve">7.45161533355713</t>
   </si>
   <si>
     <t xml:space="preserve">7.54433012008667</t>
@@ -3524,61 +3524,61 @@
     <t xml:space="preserve">7.66623497009277</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45504808425903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59240436553955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66279983520508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80359268188477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94953346252441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97872257232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82247877120972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78813886642456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60442352294922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59755659103394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50140714645386</t>
+    <t xml:space="preserve">7.45504856109619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59240579605103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66280031204224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80359125137329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94953393936157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97872161865234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82247972488403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78813791275024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60442399978638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59755754470825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5014066696167</t>
   </si>
   <si>
     <t xml:space="preserve">7.16831636428833</t>
   </si>
   <si>
-    <t xml:space="preserve">7.17861747741699</t>
+    <t xml:space="preserve">7.17861795425415</t>
   </si>
   <si>
     <t xml:space="preserve">7.32799291610718</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29193782806396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23356056213379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35203123092651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46363306045532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56665086746216</t>
+    <t xml:space="preserve">7.29193735122681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23355960845947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35203075408936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46363353729248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56665134429932</t>
   </si>
   <si>
     <t xml:space="preserve">7.49282121658325</t>
@@ -3587,28 +3587,28 @@
     <t xml:space="preserve">7.22497606277466</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32112455368042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49453735351562</t>
+    <t xml:space="preserve">7.32112550735474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49453783035278</t>
   </si>
   <si>
     <t xml:space="preserve">7.60614061355591</t>
   </si>
   <si>
-    <t xml:space="preserve">7.34859752655029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09792041778564</t>
+    <t xml:space="preserve">7.34859704971313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09791946411133</t>
   </si>
   <si>
     <t xml:space="preserve">7.29708766937256</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24042749404907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1425609588623</t>
+    <t xml:space="preserve">7.24042797088623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14256191253662</t>
   </si>
   <si>
     <t xml:space="preserve">7.11852359771729</t>
@@ -3617,19 +3617,19 @@
     <t xml:space="preserve">7.04297780990601</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97429943084717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03095865249634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43345642089844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58626556396484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32013654708862</t>
+    <t xml:space="preserve">6.97429895401001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0309591293335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43345546722412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.586266040802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32013607025146</t>
   </si>
   <si>
     <t xml:space="preserve">6.08491277694702</t>
@@ -3638,7 +3638,7 @@
     <t xml:space="preserve">6.11238431930542</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96987676620483</t>
+    <t xml:space="preserve">5.96987628936768</t>
   </si>
   <si>
     <t xml:space="preserve">5.58012580871582</t>
@@ -3647,19 +3647,19 @@
     <t xml:space="preserve">5.51488161087036</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67284154891968</t>
+    <t xml:space="preserve">5.67284202575684</t>
   </si>
   <si>
     <t xml:space="preserve">6.29438209533691</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92866897583008</t>
+    <t xml:space="preserve">5.92866945266724</t>
   </si>
   <si>
     <t xml:space="preserve">6.06259202957153</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16389274597168</t>
+    <t xml:space="preserve">6.16389226913452</t>
   </si>
   <si>
     <t xml:space="preserve">6.29609966278076</t>
@@ -3668,13 +3668,13 @@
     <t xml:space="preserve">6.62403917312622</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57939767837524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56051158905029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51243686676025</t>
+    <t xml:space="preserve">6.5793981552124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56051111221313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5124363899231</t>
   </si>
   <si>
     <t xml:space="preserve">6.68069887161255</t>
@@ -3683,7 +3683,7 @@
     <t xml:space="preserve">6.61030292510986</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56909656524658</t>
+    <t xml:space="preserve">6.56909608840942</t>
   </si>
   <si>
     <t xml:space="preserve">6.62918996810913</t>
@@ -3695,7 +3695,7 @@
     <t xml:space="preserve">6.85239458084106</t>
   </si>
   <si>
-    <t xml:space="preserve">6.78886747360229</t>
+    <t xml:space="preserve">6.78886699676514</t>
   </si>
   <si>
     <t xml:space="preserve">6.65837812423706</t>
@@ -3710,10 +3710,10 @@
     <t xml:space="preserve">6.63777446746826</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40770196914673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39396619796753</t>
+    <t xml:space="preserve">6.40770244598389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39396572113037</t>
   </si>
   <si>
     <t xml:space="preserve">6.551926612854</t>
@@ -3725,31 +3725,31 @@
     <t xml:space="preserve">6.45577669143677</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50900220870972</t>
+    <t xml:space="preserve">6.50900268554688</t>
   </si>
   <si>
     <t xml:space="preserve">6.55879402160645</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28841829299927</t>
+    <t xml:space="preserve">6.28841876983643</t>
   </si>
   <si>
     <t xml:space="preserve">6.39482402801514</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36691427230835</t>
+    <t xml:space="preserve">6.36691474914551</t>
   </si>
   <si>
     <t xml:space="preserve">6.26923036575317</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13665819168091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03548622131348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07735061645508</t>
+    <t xml:space="preserve">6.13665914535522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03548574447632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07735013961792</t>
   </si>
   <si>
     <t xml:space="preserve">6.01978731155396</t>
@@ -3758,7 +3758,7 @@
     <t xml:space="preserve">6.08432817459106</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03374242782593</t>
+    <t xml:space="preserve">6.03374195098877</t>
   </si>
   <si>
     <t xml:space="preserve">6.06514024734497</t>
@@ -3770,22 +3770,22 @@
     <t xml:space="preserve">6.09653854370117</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05990743637085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96745586395264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03025245666504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30237340927124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14189147949219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19073390960693</t>
+    <t xml:space="preserve">6.05990695953369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96745634078979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0302529335022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30237293243408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1418924331665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19073438644409</t>
   </si>
   <si>
     <t xml:space="preserve">6.22562122344971</t>
@@ -3800,19 +3800,19 @@
     <t xml:space="preserve">6.20120048522949</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39307928085327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24132061004639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25527477264404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45413303375244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44366645812988</t>
+    <t xml:space="preserve">6.39307975769043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24132108688354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25527572631836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45413208007812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44366598129272</t>
   </si>
   <si>
     <t xml:space="preserve">6.41226816177368</t>
@@ -3821,7 +3821,7 @@
     <t xml:space="preserve">6.34074926376343</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23608779907227</t>
+    <t xml:space="preserve">6.23608732223511</t>
   </si>
   <si>
     <t xml:space="preserve">6.38435840606689</t>
@@ -3830,7 +3830,7 @@
     <t xml:space="preserve">6.2953953742981</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20643281936646</t>
+    <t xml:space="preserve">6.20643377304077</t>
   </si>
   <si>
     <t xml:space="preserve">6.0215311050415</t>
@@ -3845,7 +3845,7 @@
     <t xml:space="preserve">5.56450891494751</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64823770523071</t>
+    <t xml:space="preserve">5.64823818206787</t>
   </si>
   <si>
     <t xml:space="preserve">5.43368196487427</t>
@@ -3860,7 +3860,7 @@
     <t xml:space="preserve">5.5522985458374</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58718585968018</t>
+    <t xml:space="preserve">5.58718490600586</t>
   </si>
   <si>
     <t xml:space="preserve">5.74941110610962</t>
@@ -3881,31 +3881,31 @@
     <t xml:space="preserve">5.49996757507324</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48077917098999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20865964889526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30111122131348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45984697341919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6133508682251</t>
+    <t xml:space="preserve">5.48077964782715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20865917205811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30111026763916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45984792709351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61335134506226</t>
   </si>
   <si>
     <t xml:space="preserve">5.45810270309448</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54008817672729</t>
+    <t xml:space="preserve">5.54008769989014</t>
   </si>
   <si>
     <t xml:space="preserve">5.46333599090576</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2697114944458</t>
+    <t xml:space="preserve">5.26971244812012</t>
   </si>
   <si>
     <t xml:space="preserve">5.32727575302124</t>
@@ -3920,7 +3920,7 @@
     <t xml:space="preserve">5.35169696807861</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4424033164978</t>
+    <t xml:space="preserve">5.44240379333496</t>
   </si>
   <si>
     <t xml:space="preserve">5.43891525268555</t>
@@ -3929,34 +3929,34 @@
     <t xml:space="preserve">5.38309526443481</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41449451446533</t>
+    <t xml:space="preserve">5.41449403762817</t>
   </si>
   <si>
     <t xml:space="preserve">5.62556123733521</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65172672271729</t>
+    <t xml:space="preserve">5.65172719955444</t>
   </si>
   <si>
     <t xml:space="preserve">5.594162940979</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91686916351318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06688404083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97268867492676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95350170135498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92384672164917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96920013427734</t>
+    <t xml:space="preserve">5.91686964035034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06688451766968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97268915176392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95350122451782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92384719848633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9692006111145</t>
   </si>
   <si>
     <t xml:space="preserve">6.00408744812012</t>
@@ -3968,43 +3968,43 @@
     <t xml:space="preserve">5.97617769241333</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85930585861206</t>
+    <t xml:space="preserve">5.8593053817749</t>
   </si>
   <si>
     <t xml:space="preserve">5.90291500091553</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78429841995239</t>
+    <t xml:space="preserve">5.78429794311523</t>
   </si>
   <si>
     <t xml:space="preserve">5.63079452514648</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73022270202637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67091512680054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59939622879028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46682453155518</t>
+    <t xml:space="preserve">5.73022317886353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67091464996338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59939575195312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46682500839233</t>
   </si>
   <si>
     <t xml:space="preserve">5.57846355438232</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56276416778564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4319372177124</t>
+    <t xml:space="preserve">5.5627646446228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43193769454956</t>
   </si>
   <si>
     <t xml:space="preserve">5.69010257720947</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51043367385864</t>
+    <t xml:space="preserve">5.51043319702148</t>
   </si>
   <si>
     <t xml:space="preserve">5.54880952835083</t>
@@ -4034,13 +4034,13 @@
     <t xml:space="preserve">5.70056867599487</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78080892562866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51915597915649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58544063568115</t>
+    <t xml:space="preserve">5.78080987930298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51915550231934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58544111251831</t>
   </si>
   <si>
     <t xml:space="preserve">5.62730598449707</t>
@@ -4055,7 +4055,7 @@
     <t xml:space="preserve">5.51566648483276</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56974172592163</t>
+    <t xml:space="preserve">5.56974220275879</t>
   </si>
   <si>
     <t xml:space="preserve">5.40926122665405</t>
@@ -4064,25 +4064,25 @@
     <t xml:space="preserve">5.64300489425659</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92035818099976</t>
+    <t xml:space="preserve">5.92035865783691</t>
   </si>
   <si>
     <t xml:space="preserve">5.85407209396362</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83314085006714</t>
+    <t xml:space="preserve">5.83314037322998</t>
   </si>
   <si>
     <t xml:space="preserve">5.77383184432983</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78778696060181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7337121963501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58020782470703</t>
+    <t xml:space="preserve">5.78778743743896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73371171951294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58020830154419</t>
   </si>
   <si>
     <t xml:space="preserve">5.75813293457031</t>
@@ -4094,7 +4094,7 @@
     <t xml:space="preserve">5.93605756759644</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0110650062561</t>
+    <t xml:space="preserve">6.01106548309326</t>
   </si>
   <si>
     <t xml:space="preserve">6.08781671524048</t>
@@ -4103,10 +4103,10 @@
     <t xml:space="preserve">6.12270402908325</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15061330795288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.223876953125</t>
+    <t xml:space="preserve">6.15061378479004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22387742996216</t>
   </si>
   <si>
     <t xml:space="preserve">6.40180206298828</t>
@@ -4118,7 +4118,7 @@
     <t xml:space="preserve">6.55356073379517</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63380193710327</t>
+    <t xml:space="preserve">6.63380146026611</t>
   </si>
   <si>
     <t xml:space="preserve">6.61112451553345</t>
@@ -4130,34 +4130,34 @@
     <t xml:space="preserve">6.57798194885254</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60065889358521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74020767211914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80125999450684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77683925628662</t>
+    <t xml:space="preserve">6.60065793991089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7402081489563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80126047134399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77683877944946</t>
   </si>
   <si>
     <t xml:space="preserve">6.78904962539673</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98092937469482</t>
+    <t xml:space="preserve">6.98092889785767</t>
   </si>
   <si>
     <t xml:space="preserve">6.89720010757446</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00534963607788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04547071456909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01058387756348</t>
+    <t xml:space="preserve">7.00535011291504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04547119140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01058340072632</t>
   </si>
   <si>
     <t xml:space="preserve">7.00186157226562</t>
@@ -4172,10 +4172,10 @@
     <t xml:space="preserve">7.08475303649902</t>
   </si>
   <si>
-    <t xml:space="preserve">7.11531448364258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02542924880981</t>
+    <t xml:space="preserve">7.11531400680542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02542877197266</t>
   </si>
   <si>
     <t xml:space="preserve">7.04160833358765</t>
@@ -4187,13 +4187,13 @@
     <t xml:space="preserve">7.07576513290405</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24295091629028</t>
+    <t xml:space="preserve">7.24295043945312</t>
   </si>
   <si>
     <t xml:space="preserve">7.08295583724976</t>
   </si>
   <si>
-    <t xml:space="preserve">7.17284107208252</t>
+    <t xml:space="preserve">7.17284059524536</t>
   </si>
   <si>
     <t xml:space="preserve">7.12969589233398</t>
@@ -4211,16 +4211,16 @@
     <t xml:space="preserve">7.0146427154541</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09913444519043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1027307510376</t>
+    <t xml:space="preserve">7.09913492202759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10273027420044</t>
   </si>
   <si>
     <t xml:space="preserve">6.98408174514771</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93194818496704</t>
+    <t xml:space="preserve">6.9319486618042</t>
   </si>
   <si>
     <t xml:space="preserve">7.11171865463257</t>
@@ -4229,31 +4229,31 @@
     <t xml:space="preserve">7.06497859954834</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03981018066406</t>
+    <t xml:space="preserve">7.03981065750122</t>
   </si>
   <si>
     <t xml:space="preserve">7.00924968719482</t>
   </si>
   <si>
-    <t xml:space="preserve">7.097336769104</t>
+    <t xml:space="preserve">7.09733724594116</t>
   </si>
   <si>
     <t xml:space="preserve">7.117112159729</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24654674530029</t>
+    <t xml:space="preserve">7.24654722213745</t>
   </si>
   <si>
     <t xml:space="preserve">7.20879554748535</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30407333374023</t>
+    <t xml:space="preserve">7.30407381057739</t>
   </si>
   <si>
     <t xml:space="preserve">7.44609212875366</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46047401428223</t>
+    <t xml:space="preserve">7.46047353744507</t>
   </si>
   <si>
     <t xml:space="preserve">7.59350347518921</t>
@@ -4268,7 +4268,7 @@
     <t xml:space="preserve">7.7193431854248</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70675897598267</t>
+    <t xml:space="preserve">7.70675992965698</t>
   </si>
   <si>
     <t xml:space="preserve">7.56114482879639</t>
@@ -4280,19 +4280,19 @@
     <t xml:space="preserve">7.67260265350342</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7373194694519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79844236373901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81641864776611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88113689422607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87933778762817</t>
+    <t xml:space="preserve">7.73731994628906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79844188690186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81641960144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88113594055176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87933826446533</t>
   </si>
   <si>
     <t xml:space="preserve">7.96023559570312</t>
@@ -4310,10 +4310,10 @@
     <t xml:space="preserve">8.13101673126221</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17775630950928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17955589294434</t>
+    <t xml:space="preserve">8.17775821685791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17955493927002</t>
   </si>
   <si>
     <t xml:space="preserve">8.10584926605225</t>
@@ -4325,28 +4325,28 @@
     <t xml:space="preserve">8.26404762268066</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28562068939209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32337188720703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34314632415771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16157817840576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09326553344727</t>
+    <t xml:space="preserve">8.28561973571777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32337093353271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3431453704834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16157722473145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09326457977295</t>
   </si>
   <si>
     <t xml:space="preserve">8.12742137908936</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19753265380859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24786853790283</t>
+    <t xml:space="preserve">8.19753170013428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24786758422852</t>
   </si>
   <si>
     <t xml:space="preserve">8.2388801574707</t>
@@ -4355,7 +4355,7 @@
     <t xml:space="preserve">8.24427318572998</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3143835067749</t>
+    <t xml:space="preserve">8.31438255310059</t>
   </si>
   <si>
     <t xml:space="preserve">8.37011241912842</t>
@@ -4364,22 +4364,22 @@
     <t xml:space="preserve">8.37909984588623</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43482875823975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08427810668945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45687770843506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62945795059204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23216485977173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30227565765381</t>
+    <t xml:space="preserve">8.43482971191406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08427715301514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45687818527222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62945747375488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23216438293457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30227470397949</t>
   </si>
   <si>
     <t xml:space="preserve">7.06138324737549</t>
@@ -4406,16 +4406,16 @@
     <t xml:space="preserve">7.41193580627441</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51979827880859</t>
+    <t xml:space="preserve">7.51979732513428</t>
   </si>
   <si>
     <t xml:space="preserve">7.51260662078857</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60608816146851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55754947662354</t>
+    <t xml:space="preserve">7.60608720779419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55754899978638</t>
   </si>
   <si>
     <t xml:space="preserve">7.47485542297363</t>
@@ -4427,16 +4427,16 @@
     <t xml:space="preserve">7.66720914840698</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67799520492554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76428461074829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76788139343262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78945398330688</t>
+    <t xml:space="preserve">7.67799615859985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76428508758545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76788091659546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78945350646973</t>
   </si>
   <si>
     <t xml:space="preserve">7.68518686294556</t>
@@ -4445,7 +4445,7 @@
     <t xml:space="preserve">7.74630832672119</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76855230331421</t>
+    <t xml:space="preserve">7.76855182647705</t>
   </si>
   <si>
     <t xml:space="preserve">7.65548133850098</t>
@@ -4466,19 +4466,19 @@
     <t xml:space="preserve">7.43304634094238</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29031610488892</t>
+    <t xml:space="preserve">7.29031658172607</t>
   </si>
   <si>
     <t xml:space="preserve">7.5090446472168</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51089811325073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50533628463745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34221744537354</t>
+    <t xml:space="preserve">7.51089763641357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50533676147461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34221792221069</t>
   </si>
   <si>
     <t xml:space="preserve">7.22173166275024</t>
@@ -4490,16 +4490,16 @@
     <t xml:space="preserve">7.27734136581421</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27919483184814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37372970581055</t>
+    <t xml:space="preserve">7.27919435501099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37372922897339</t>
   </si>
   <si>
     <t xml:space="preserve">7.35890054702759</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54240894317627</t>
+    <t xml:space="preserve">7.54240942001343</t>
   </si>
   <si>
     <t xml:space="preserve">7.57762813568115</t>
@@ -4514,7 +4514,7 @@
     <t xml:space="preserve">7.44787502288818</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44231367111206</t>
+    <t xml:space="preserve">7.4423131942749</t>
   </si>
   <si>
     <t xml:space="preserve">7.36446142196655</t>
@@ -4529,13 +4529,13 @@
     <t xml:space="preserve">7.62396907806396</t>
   </si>
   <si>
-    <t xml:space="preserve">7.55723857879639</t>
+    <t xml:space="preserve">7.55723905563354</t>
   </si>
   <si>
     <t xml:space="preserve">7.57392120361328</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59801864624023</t>
+    <t xml:space="preserve">7.59801816940308</t>
   </si>
   <si>
     <t xml:space="preserve">7.58504295349121</t>
@@ -4544,31 +4544,31 @@
     <t xml:space="preserve">7.58689641952515</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61655473709106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65918779373169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69626045227051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72777223587036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75001621246338</t>
+    <t xml:space="preserve">7.61655521392822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65918827056885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69626092910767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72777271270752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75001668930054</t>
   </si>
   <si>
     <t xml:space="preserve">7.76113700866699</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71108913421631</t>
+    <t xml:space="preserve">7.71108961105347</t>
   </si>
   <si>
     <t xml:space="preserve">7.72962617874146</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63694429397583</t>
+    <t xml:space="preserve">7.63694477081299</t>
   </si>
   <si>
     <t xml:space="preserve">7.57206773757935</t>
@@ -4589,16 +4589,16 @@
     <t xml:space="preserve">7.6907000541687</t>
   </si>
   <si>
-    <t xml:space="preserve">7.55167770385742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48865413665771</t>
+    <t xml:space="preserve">7.55167722702026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48865461349487</t>
   </si>
   <si>
     <t xml:space="preserve">7.29402351379395</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41821670532227</t>
+    <t xml:space="preserve">7.41821622848511</t>
   </si>
   <si>
     <t xml:space="preserve">7.47011852264404</t>
@@ -4610,19 +4610,19 @@
     <t xml:space="preserve">7.65733480453491</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73333311080933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73147964477539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75372362136841</t>
+    <t xml:space="preserve">7.73333358764648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73147916793823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75372314453125</t>
   </si>
   <si>
     <t xml:space="preserve">7.92240333557129</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96318292617798</t>
+    <t xml:space="preserve">7.96318340301514</t>
   </si>
   <si>
     <t xml:space="preserve">7.9705982208252</t>
@@ -4652,19 +4652,19 @@
     <t xml:space="preserve">7.88533163070679</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82786798477173</t>
+    <t xml:space="preserve">7.82786846160889</t>
   </si>
   <si>
     <t xml:space="preserve">7.81303930282593</t>
   </si>
   <si>
-    <t xml:space="preserve">7.8167462348938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80006456375122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33480310440063</t>
+    <t xml:space="preserve">7.81674671173096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80006408691406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33480358123779</t>
   </si>
   <si>
     <t xml:space="preserve">7.53128814697266</t>
@@ -4673,7 +4673,7 @@
     <t xml:space="preserve">7.6258225440979</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73889493942261</t>
+    <t xml:space="preserve">7.73889446258545</t>
   </si>
   <si>
     <t xml:space="preserve">7.56094598770142</t>
@@ -4688,10 +4688,10 @@
     <t xml:space="preserve">7.56279945373535</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54426383972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53684902191162</t>
+    <t xml:space="preserve">7.54426336288452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53684854507446</t>
   </si>
   <si>
     <t xml:space="preserve">7.61470079421997</t>
@@ -4715,7 +4715,7 @@
     <t xml:space="preserve">7.78523397445679</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79450225830078</t>
+    <t xml:space="preserve">7.7945032119751</t>
   </si>
   <si>
     <t xml:space="preserve">7.77411270141602</t>
@@ -4724,10 +4724,10 @@
     <t xml:space="preserve">7.83528327941895</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67957830429077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71665096282959</t>
+    <t xml:space="preserve">7.67957782745361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71665048599243</t>
   </si>
   <si>
     <t xml:space="preserve">7.8074779510498</t>
@@ -4751,10 +4751,10 @@
     <t xml:space="preserve">7.37743663787842</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47382545471191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34036445617676</t>
+    <t xml:space="preserve">7.47382593154907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3403639793396</t>
   </si>
   <si>
     <t xml:space="preserve">7.44046020507812</t>
@@ -4763,7 +4763,7 @@
     <t xml:space="preserve">7.46455717086792</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33665704727173</t>
+    <t xml:space="preserve">7.33665657043457</t>
   </si>
   <si>
     <t xml:space="preserve">7.36075401306152</t>
@@ -4790,7 +4790,7 @@
     <t xml:space="preserve">7.0382227897644</t>
   </si>
   <si>
-    <t xml:space="preserve">7.04749155044556</t>
+    <t xml:space="preserve">7.0474910736084</t>
   </si>
   <si>
     <t xml:space="preserve">7.04193019866943</t>
@@ -4802,7 +4802,7 @@
     <t xml:space="preserve">7.1420259475708</t>
   </si>
   <si>
-    <t xml:space="preserve">7.17724514007568</t>
+    <t xml:space="preserve">7.17724466323853</t>
   </si>
   <si>
     <t xml:space="preserve">7.31997394561768</t>
@@ -4811,7 +4811,7 @@
     <t xml:space="preserve">7.46641063690186</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37929010391235</t>
+    <t xml:space="preserve">7.37929058074951</t>
   </si>
   <si>
     <t xml:space="preserve">7.40524101257324</t>
@@ -4820,25 +4820,25 @@
     <t xml:space="preserve">7.42377758026123</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59987163543701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5813364982605</t>
+    <t xml:space="preserve">7.59987211227417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58133602142334</t>
   </si>
   <si>
     <t xml:space="preserve">7.77225923538208</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91498899459839</t>
+    <t xml:space="preserve">7.91498804092407</t>
   </si>
   <si>
     <t xml:space="preserve">7.89645290374756</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7778205871582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.801917552948</t>
+    <t xml:space="preserve">7.77782011032104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80191802978516</t>
   </si>
   <si>
     <t xml:space="preserve">7.91312694549561</t>
@@ -27601,7 +27601,7 @@
         <v>6.5149998664856</v>
       </c>
       <c r="G848" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -27627,7 +27627,7 @@
         <v>6.30000019073486</v>
       </c>
       <c r="G849" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -27653,7 +27653,7 @@
         <v>6.31500005722046</v>
       </c>
       <c r="G850" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -27679,7 +27679,7 @@
         <v>6.33500003814697</v>
       </c>
       <c r="G851" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -27705,7 +27705,7 @@
         <v>6.17999982833862</v>
       </c>
       <c r="G852" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -27731,7 +27731,7 @@
         <v>6.17999982833862</v>
       </c>
       <c r="G853" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -27757,7 +27757,7 @@
         <v>6.11499977111816</v>
       </c>
       <c r="G854" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -27783,7 +27783,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G855" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -27809,7 +27809,7 @@
         <v>6.11999988555908</v>
       </c>
       <c r="G856" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -27835,7 +27835,7 @@
         <v>6.20499992370605</v>
       </c>
       <c r="G857" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -27861,7 +27861,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G858" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -27887,7 +27887,7 @@
         <v>6.17999982833862</v>
       </c>
       <c r="G859" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -27913,7 +27913,7 @@
         <v>6.15000009536743</v>
       </c>
       <c r="G860" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -27939,7 +27939,7 @@
         <v>6.14499998092651</v>
       </c>
       <c r="G861" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -27965,7 +27965,7 @@
         <v>6.05999994277954</v>
       </c>
       <c r="G862" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -27991,7 +27991,7 @@
         <v>6.07499980926514</v>
       </c>
       <c r="G863" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -28017,7 +28017,7 @@
         <v>6.07999992370605</v>
       </c>
       <c r="G864" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -28043,7 +28043,7 @@
         <v>6.03000020980835</v>
       </c>
       <c r="G865" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -28069,7 +28069,7 @@
         <v>6</v>
       </c>
       <c r="G866" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -28095,7 +28095,7 @@
         <v>6.03000020980835</v>
       </c>
       <c r="G867" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -28121,7 +28121,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G868" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -28147,7 +28147,7 @@
         <v>6.01000022888184</v>
       </c>
       <c r="G869" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -28173,7 +28173,7 @@
         <v>6.09499979019165</v>
       </c>
       <c r="G870" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -28199,7 +28199,7 @@
         <v>6.17500019073486</v>
       </c>
       <c r="G871" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -28225,7 +28225,7 @@
         <v>6.15999984741211</v>
       </c>
       <c r="G872" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -28251,7 +28251,7 @@
         <v>6.21999979019165</v>
       </c>
       <c r="G873" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -28277,7 +28277,7 @@
         <v>6.19500017166138</v>
       </c>
       <c r="G874" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -28303,7 +28303,7 @@
         <v>6.20499992370605</v>
       </c>
       <c r="G875" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -28329,7 +28329,7 @@
         <v>6.125</v>
       </c>
       <c r="G876" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -28355,7 +28355,7 @@
         <v>6.16499996185303</v>
       </c>
       <c r="G877" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -28381,7 +28381,7 @@
         <v>6.07000017166138</v>
       </c>
       <c r="G878" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -28407,7 +28407,7 @@
         <v>6.07499980926514</v>
       </c>
       <c r="G879" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -28433,7 +28433,7 @@
         <v>6.20499992370605</v>
       </c>
       <c r="G880" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -28459,7 +28459,7 @@
         <v>6.25500011444092</v>
       </c>
       <c r="G881" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -28485,7 +28485,7 @@
         <v>6.28499984741211</v>
       </c>
       <c r="G882" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -28511,7 +28511,7 @@
         <v>6.32499980926514</v>
       </c>
       <c r="G883" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -28537,7 +28537,7 @@
         <v>6.46999979019165</v>
       </c>
       <c r="G884" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -28563,7 +28563,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G885" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -28589,7 +28589,7 @@
         <v>6.38500022888184</v>
       </c>
       <c r="G886" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -28615,7 +28615,7 @@
         <v>6.46500015258789</v>
       </c>
       <c r="G887" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -28641,7 +28641,7 @@
         <v>6.47499990463257</v>
       </c>
       <c r="G888" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -28667,7 +28667,7 @@
         <v>6.48000001907349</v>
       </c>
       <c r="G889" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -28693,7 +28693,7 @@
         <v>6.5149998664856</v>
       </c>
       <c r="G890" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -28719,7 +28719,7 @@
         <v>6.66499996185303</v>
       </c>
       <c r="G891" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -28745,7 +28745,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G892" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -28771,7 +28771,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G893" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -28797,7 +28797,7 @@
         <v>6.6399998664856</v>
       </c>
       <c r="G894" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -28823,7 +28823,7 @@
         <v>6.58500003814697</v>
       </c>
       <c r="G895" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -28849,7 +28849,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G896" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -28875,7 +28875,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G897" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -28901,7 +28901,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G898" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -28927,7 +28927,7 @@
         <v>6.73000001907349</v>
       </c>
       <c r="G899" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -28953,7 +28953,7 @@
         <v>6.76000022888184</v>
       </c>
       <c r="G900" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -28979,7 +28979,7 @@
         <v>6.69500017166138</v>
       </c>
       <c r="G901" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -29005,7 +29005,7 @@
         <v>6.69500017166138</v>
       </c>
       <c r="G902" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -29031,7 +29031,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G903" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -29057,7 +29057,7 @@
         <v>6.59499979019165</v>
       </c>
       <c r="G904" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -29083,7 +29083,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G905" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -29109,7 +29109,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G906" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -29135,7 +29135,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G907" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -29161,7 +29161,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G908" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -29187,7 +29187,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G909" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -29239,7 +29239,7 @@
         <v>6.46500015258789</v>
       </c>
       <c r="G911" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -29265,7 +29265,7 @@
         <v>6.71500015258789</v>
       </c>
       <c r="G912" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -29291,7 +29291,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G913" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -29317,7 +29317,7 @@
         <v>6.57000017166138</v>
       </c>
       <c r="G914" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -29343,7 +29343,7 @@
         <v>6.55000019073486</v>
       </c>
       <c r="G915" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -29369,7 +29369,7 @@
         <v>6.57000017166138</v>
       </c>
       <c r="G916" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -29395,7 +29395,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G917" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -29421,7 +29421,7 @@
         <v>6.26000022888184</v>
       </c>
       <c r="G918" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -29447,7 +29447,7 @@
         <v>6.2649998664856</v>
       </c>
       <c r="G919" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -29473,7 +29473,7 @@
         <v>6.27500009536743</v>
       </c>
       <c r="G920" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -29499,7 +29499,7 @@
         <v>6.17000007629395</v>
       </c>
       <c r="G921" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -29525,7 +29525,7 @@
         <v>6.30000019073486</v>
       </c>
       <c r="G922" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -29577,7 +29577,7 @@
         <v>6.46000003814697</v>
       </c>
       <c r="G924" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -29603,7 +29603,7 @@
         <v>6.60500001907349</v>
       </c>
       <c r="G925" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -29629,7 +29629,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G926" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -29655,7 +29655,7 @@
         <v>6.48000001907349</v>
       </c>
       <c r="G927" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -29681,7 +29681,7 @@
         <v>6.53499984741211</v>
       </c>
       <c r="G928" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -29707,7 +29707,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G929" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -29733,7 +29733,7 @@
         <v>6.59499979019165</v>
       </c>
       <c r="G930" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -29759,7 +29759,7 @@
         <v>6.65500020980835</v>
       </c>
       <c r="G931" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -29785,7 +29785,7 @@
         <v>6.57999992370605</v>
       </c>
       <c r="G932" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -29811,7 +29811,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G933" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -29837,7 +29837,7 @@
         <v>6.60500001907349</v>
       </c>
       <c r="G934" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -29863,7 +29863,7 @@
         <v>6.71000003814697</v>
       </c>
       <c r="G935" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -29889,7 +29889,7 @@
         <v>6.73999977111816</v>
       </c>
       <c r="G936" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -29915,7 +29915,7 @@
         <v>6.73999977111816</v>
       </c>
       <c r="G937" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -29941,7 +29941,7 @@
         <v>6.86499977111816</v>
       </c>
       <c r="G938" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -29967,7 +29967,7 @@
         <v>6.88000011444092</v>
       </c>
       <c r="G939" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -29993,7 +29993,7 @@
         <v>6.84999990463257</v>
       </c>
       <c r="G940" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -30019,7 +30019,7 @@
         <v>6.84999990463257</v>
       </c>
       <c r="G941" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -30045,7 +30045,7 @@
         <v>7.01000022888184</v>
       </c>
       <c r="G942" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -30071,7 +30071,7 @@
         <v>6.94000005722046</v>
       </c>
       <c r="G943" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -30097,7 +30097,7 @@
         <v>6.96999979019165</v>
       </c>
       <c r="G944" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -30123,7 +30123,7 @@
         <v>7.03999996185303</v>
       </c>
       <c r="G945" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -30149,7 +30149,7 @@
         <v>7.05000019073486</v>
       </c>
       <c r="G946" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -30175,7 +30175,7 @@
         <v>7</v>
       </c>
       <c r="G947" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -30201,7 +30201,7 @@
         <v>6.875</v>
       </c>
       <c r="G948" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -30227,7 +30227,7 @@
         <v>6.91499996185303</v>
       </c>
       <c r="G949" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -30253,7 +30253,7 @@
         <v>6.84999990463257</v>
       </c>
       <c r="G950" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -30279,7 +30279,7 @@
         <v>6.8600001335144</v>
       </c>
       <c r="G951" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -30305,7 +30305,7 @@
         <v>6.89499998092651</v>
       </c>
       <c r="G952" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -30331,7 +30331,7 @@
         <v>6.8899998664856</v>
       </c>
       <c r="G953" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -30357,7 +30357,7 @@
         <v>6.88500022888184</v>
       </c>
       <c r="G954" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -30383,7 +30383,7 @@
         <v>6.79500007629395</v>
       </c>
       <c r="G955" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -30409,7 +30409,7 @@
         <v>6.79500007629395</v>
       </c>
       <c r="G956" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -30435,7 +30435,7 @@
         <v>6.94000005722046</v>
       </c>
       <c r="G957" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -30461,7 +30461,7 @@
         <v>6.95499992370605</v>
       </c>
       <c r="G958" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -30487,7 +30487,7 @@
         <v>6.94999980926514</v>
       </c>
       <c r="G959" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -30513,7 +30513,7 @@
         <v>6.94500017166138</v>
       </c>
       <c r="G960" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -30539,7 +30539,7 @@
         <v>6.97499990463257</v>
       </c>
       <c r="G961" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -30565,7 +30565,7 @@
         <v>7.19000005722046</v>
       </c>
       <c r="G962" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -30591,7 +30591,7 @@
         <v>7.25</v>
       </c>
       <c r="G963" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -30617,7 +30617,7 @@
         <v>7.30499982833862</v>
       </c>
       <c r="G964" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -30643,7 +30643,7 @@
         <v>7.36499977111816</v>
       </c>
       <c r="G965" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -30669,7 +30669,7 @@
         <v>7.42500019073486</v>
       </c>
       <c r="G966" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -30695,7 +30695,7 @@
         <v>7.5149998664856</v>
       </c>
       <c r="G967" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -30721,7 +30721,7 @@
         <v>7.55999994277954</v>
       </c>
       <c r="G968" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -30747,7 +30747,7 @@
         <v>7.57999992370605</v>
       </c>
       <c r="G969" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -30773,7 +30773,7 @@
         <v>7.59499979019165</v>
       </c>
       <c r="G970" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -30799,7 +30799,7 @@
         <v>7.625</v>
       </c>
       <c r="G971" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -30825,7 +30825,7 @@
         <v>7.67500019073486</v>
       </c>
       <c r="G972" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -30851,7 +30851,7 @@
         <v>7.69000005722046</v>
       </c>
       <c r="G973" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -30877,7 +30877,7 @@
         <v>7.68499994277954</v>
       </c>
       <c r="G974" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -30903,7 +30903,7 @@
         <v>7.69500017166138</v>
       </c>
       <c r="G975" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -30929,7 +30929,7 @@
         <v>7.68499994277954</v>
       </c>
       <c r="G976" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -30955,7 +30955,7 @@
         <v>7.71000003814697</v>
       </c>
       <c r="G977" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -30981,7 +30981,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G978" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -31007,7 +31007,7 @@
         <v>7.71000003814697</v>
       </c>
       <c r="G979" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -31033,7 +31033,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G980" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -31059,7 +31059,7 @@
         <v>8.26000022888184</v>
       </c>
       <c r="G981" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -31085,7 +31085,7 @@
         <v>8.39500045776367</v>
       </c>
       <c r="G982" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -31111,7 +31111,7 @@
         <v>8.63000011444092</v>
       </c>
       <c r="G983" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -31137,7 +31137,7 @@
         <v>8.77999973297119</v>
       </c>
       <c r="G984" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -31163,7 +31163,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G985" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -31189,7 +31189,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G986" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -31215,7 +31215,7 @@
         <v>8.61999988555908</v>
       </c>
       <c r="G987" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -31241,7 +31241,7 @@
         <v>8.53499984741211</v>
       </c>
       <c r="G988" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -31267,7 +31267,7 @@
         <v>8.76500034332275</v>
       </c>
       <c r="G989" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -31293,7 +31293,7 @@
         <v>8.97000026702881</v>
       </c>
       <c r="G990" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -31319,7 +31319,7 @@
         <v>8.98999977111816</v>
       </c>
       <c r="G991" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -31345,7 +31345,7 @@
         <v>9.11499977111816</v>
       </c>
       <c r="G992" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -31371,7 +31371,7 @@
         <v>9.03999996185303</v>
       </c>
       <c r="G993" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -31397,7 +31397,7 @@
         <v>9.19999980926514</v>
       </c>
       <c r="G994" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -31423,7 +31423,7 @@
         <v>9.22999954223633</v>
       </c>
       <c r="G995" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -31449,7 +31449,7 @@
         <v>9.30500030517578</v>
       </c>
       <c r="G996" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -31475,7 +31475,7 @@
         <v>9.21500015258789</v>
       </c>
       <c r="G997" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -31501,7 +31501,7 @@
         <v>9.13000011444092</v>
       </c>
       <c r="G998" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -31527,7 +31527,7 @@
         <v>9.10499954223633</v>
       </c>
       <c r="G999" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -31553,7 +31553,7 @@
         <v>9.21000003814697</v>
       </c>
       <c r="G1000" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -31579,7 +31579,7 @@
         <v>9.27999973297119</v>
       </c>
       <c r="G1001" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -31605,7 +31605,7 @@
         <v>9.20499992370605</v>
       </c>
       <c r="G1002" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -31631,7 +31631,7 @@
         <v>9.03499984741211</v>
       </c>
       <c r="G1003" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -31657,7 +31657,7 @@
         <v>9.0600004196167</v>
       </c>
       <c r="G1004" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -31683,7 +31683,7 @@
         <v>9.10000038146973</v>
       </c>
       <c r="G1005" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -31709,7 +31709,7 @@
         <v>9.10499954223633</v>
       </c>
       <c r="G1006" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -31735,7 +31735,7 @@
         <v>9.0649995803833</v>
       </c>
       <c r="G1007" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -31761,7 +31761,7 @@
         <v>9.16499996185303</v>
       </c>
       <c r="G1008" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -31787,7 +31787,7 @@
         <v>9.13500022888184</v>
       </c>
       <c r="G1009" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -31813,7 +31813,7 @@
         <v>9.125</v>
       </c>
       <c r="G1010" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -31839,7 +31839,7 @@
         <v>9.08500003814697</v>
       </c>
       <c r="G1011" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -31865,7 +31865,7 @@
         <v>8.96500015258789</v>
       </c>
       <c r="G1012" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -31891,7 +31891,7 @@
         <v>8.92000007629395</v>
       </c>
       <c r="G1013" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -31917,7 +31917,7 @@
         <v>8.9350004196167</v>
       </c>
       <c r="G1014" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -31943,7 +31943,7 @@
         <v>8.85499954223633</v>
       </c>
       <c r="G1015" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -31969,7 +31969,7 @@
         <v>8.89500045776367</v>
       </c>
       <c r="G1016" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -31995,7 +31995,7 @@
         <v>8.77499961853027</v>
       </c>
       <c r="G1017" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -32021,7 +32021,7 @@
         <v>8.59500026702881</v>
       </c>
       <c r="G1018" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -32047,7 +32047,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G1019" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -32073,7 +32073,7 @@
         <v>8.80000019073486</v>
       </c>
       <c r="G1020" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -32099,7 +32099,7 @@
         <v>9.11499977111816</v>
       </c>
       <c r="G1021" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -32125,7 +32125,7 @@
         <v>9</v>
       </c>
       <c r="G1022" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -32151,7 +32151,7 @@
         <v>8.9350004196167</v>
       </c>
       <c r="G1023" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -32177,7 +32177,7 @@
         <v>8.85499954223633</v>
       </c>
       <c r="G1024" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -32203,7 +32203,7 @@
         <v>8.73499965667725</v>
       </c>
       <c r="G1025" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -32229,7 +32229,7 @@
         <v>8.72999954223633</v>
       </c>
       <c r="G1026" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -32255,7 +32255,7 @@
         <v>8.875</v>
       </c>
       <c r="G1027" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -32281,7 +32281,7 @@
         <v>8.77000045776367</v>
       </c>
       <c r="G1028" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -32307,7 +32307,7 @@
         <v>8.61999988555908</v>
       </c>
       <c r="G1029" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -32333,7 +32333,7 @@
         <v>8.65999984741211</v>
       </c>
       <c r="G1030" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -32359,7 +32359,7 @@
         <v>8.65999984741211</v>
       </c>
       <c r="G1031" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -32385,7 +32385,7 @@
         <v>8.59000015258789</v>
       </c>
       <c r="G1032" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -32411,7 +32411,7 @@
         <v>8.32999992370605</v>
       </c>
       <c r="G1033" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -32437,7 +32437,7 @@
         <v>8.51500034332275</v>
       </c>
       <c r="G1034" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -32463,7 +32463,7 @@
         <v>8.61999988555908</v>
       </c>
       <c r="G1035" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -32489,7 +32489,7 @@
         <v>8.40999984741211</v>
       </c>
       <c r="G1036" t="s">
-        <v>769</v>
+        <v>727</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -32593,7 +32593,7 @@
         <v>8.32999992370605</v>
       </c>
       <c r="G1040" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -32749,7 +32749,7 @@
         <v>8.40999984741211</v>
       </c>
       <c r="G1046" t="s">
-        <v>769</v>
+        <v>727</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -61487,7 +61487,7 @@
     </row>
     <row r="2152">
       <c r="A2152" s="1" t="n">
-        <v>45457.6502314815</v>
+        <v>45457.2916666667</v>
       </c>
       <c r="B2152" t="n">
         <v>1656248</v>
@@ -61508,6 +61508,32 @@
         <v>1735</v>
       </c>
       <c r="H2152" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2153">
+      <c r="A2153" s="1" t="n">
+        <v>45460.649525463</v>
+      </c>
+      <c r="B2153" t="n">
+        <v>1101722</v>
+      </c>
+      <c r="C2153" t="n">
+        <v>10.4399995803833</v>
+      </c>
+      <c r="D2153" t="n">
+        <v>10.2799997329712</v>
+      </c>
+      <c r="E2153" t="n">
+        <v>10.3299999237061</v>
+      </c>
+      <c r="F2153" t="n">
+        <v>10.4300003051758</v>
+      </c>
+      <c r="G2153" t="s">
+        <v>1727</v>
+      </c>
+      <c r="H2153" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BMED.MI.xlsx
+++ b/data/BMED.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="1737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1738" uniqueCount="1738">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,154 +38,154 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32330465316772</t>
+    <t xml:space="preserve">4.32330417633057</t>
   </si>
   <si>
     <t xml:space="preserve">BMED.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26425170898438</t>
+    <t xml:space="preserve">4.26425123214722</t>
   </si>
   <si>
     <t xml:space="preserve">3.99385023117065</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90060877799988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89439272880554</t>
+    <t xml:space="preserve">3.90060901641846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8943920135498</t>
   </si>
   <si>
     <t xml:space="preserve">3.9223644733429</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03425550460815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04047203063965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75453066825867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72344946861267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76074624061584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54318237304688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66750526428223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90682506561279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91614961624146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91925668716431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82912278175354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84155583381653</t>
+    <t xml:space="preserve">4.034255027771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04047060012817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75452995300293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72345042228699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76074647903442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54318261146545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66750502586365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90682458877563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91614937782288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91925692558289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82912302017212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84155535697937</t>
   </si>
   <si>
     <t xml:space="preserve">3.6861526966095</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58669519424438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64264011383057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77628636360168</t>
+    <t xml:space="preserve">3.58669543266296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64264059066772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77628564834595</t>
   </si>
   <si>
     <t xml:space="preserve">3.46237277984619</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30386137962341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60534405708313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71723389625549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78561162948608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88817644119263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8446638584137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84777164459229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95966172218323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92547345161438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83844876289368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98763489723206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07465982437134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07155179977417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21763038635254</t>
+    <t xml:space="preserve">3.30386281013489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60534453392029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71723318099976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78561091423035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88817691802979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84466433525085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84777140617371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95966148376465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92547369003296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83844804763794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98763418197632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0746603012085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07155227661133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21762990951538</t>
   </si>
   <si>
     <t xml:space="preserve">4.23938703536987</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13371324539185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2114143371582</t>
+    <t xml:space="preserve">4.13371276855469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21141386032104</t>
   </si>
   <si>
     <t xml:space="preserve">4.20830631256104</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27357578277588</t>
+    <t xml:space="preserve">4.2735743522644</t>
   </si>
   <si>
     <t xml:space="preserve">4.34816884994507</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33262777328491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30154752731323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23006248474121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28600788116455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2518196105957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22073841094971</t>
+    <t xml:space="preserve">4.33262920379639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30154800415039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23006296157837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28600835800171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25181865692139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22073888778687</t>
   </si>
   <si>
     <t xml:space="preserve">4.17411708831787</t>
@@ -200,55 +200,55 @@
     <t xml:space="preserve">4.41654586791992</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24249505996704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1523609161377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04668664932251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27979230880737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3139796257019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27046728134155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43208599090576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47559881210327</t>
+    <t xml:space="preserve">4.24249458312988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15236139297485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04668807983398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27979135513306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31398010253906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27046775817871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4320855140686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47559928894043</t>
   </si>
   <si>
     <t xml:space="preserve">4.40100526809692</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50564002990723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43905353546143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51198244094849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54051923751831</t>
+    <t xml:space="preserve">4.50564050674438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43905448913574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51198196411133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54051876068115</t>
   </si>
   <si>
     <t xml:space="preserve">4.53100633621216</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43271350860596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4834451675415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44222545623779</t>
+    <t xml:space="preserve">4.4327130317688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48344469070435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44222497940063</t>
   </si>
   <si>
     <t xml:space="preserve">4.57222652435303</t>
@@ -266,25 +266,25 @@
     <t xml:space="preserve">4.65783643722534</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56588459014893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53417682647705</t>
+    <t xml:space="preserve">4.56588506698608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53417730331421</t>
   </si>
   <si>
     <t xml:space="preserve">4.63881158828735</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4866156578064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49612855911255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48027467727661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51515293121338</t>
+    <t xml:space="preserve">4.48661518096924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49612903594971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48027420043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51515245437622</t>
   </si>
   <si>
     <t xml:space="preserve">4.47710418701172</t>
@@ -293,34 +293,34 @@
     <t xml:space="preserve">4.50246953964233</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66100740432739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90198516845703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83857011795044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75613069534302</t>
+    <t xml:space="preserve">4.66100788116455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90198469161987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83856916427612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75613021850586</t>
   </si>
   <si>
     <t xml:space="preserve">4.78466701507568</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81637382507324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77832555770874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72442293167114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74661779403687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60710430145264</t>
+    <t xml:space="preserve">4.8163743019104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7783260345459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72442245483398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74661827087402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60710382461548</t>
   </si>
   <si>
     <t xml:space="preserve">4.62929964065552</t>
@@ -329,37 +329,37 @@
     <t xml:space="preserve">4.68003177642822</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64198303222656</t>
+    <t xml:space="preserve">4.64198350906372</t>
   </si>
   <si>
     <t xml:space="preserve">4.2202730178833</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03319883346558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05856323242188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98563718795776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11563777923584</t>
+    <t xml:space="preserve">4.03319835662842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05856466293335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98563623428345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11563730239868</t>
   </si>
   <si>
     <t xml:space="preserve">4.32490825653076</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36929750442505</t>
+    <t xml:space="preserve">4.36929798126221</t>
   </si>
   <si>
     <t xml:space="preserve">4.34710264205933</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50881052017212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83027029037476</t>
+    <t xml:space="preserve">4.50881099700928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83027005195618</t>
   </si>
   <si>
     <t xml:space="preserve">3.5861222743988</t>
@@ -371,25 +371,25 @@
     <t xml:space="preserve">3.69709825515747</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89051461219788</t>
+    <t xml:space="preserve">3.8905143737793</t>
   </si>
   <si>
     <t xml:space="preserve">3.90002679824829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75734305381775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70661115646362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64636588096619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67173290252686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8746612071991</t>
+    <t xml:space="preserve">3.75734210014343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70661044120789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64636707305908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67173194885254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87466096878052</t>
   </si>
   <si>
     <t xml:space="preserve">3.9729540348053</t>
@@ -398,64 +398,64 @@
     <t xml:space="preserve">4.10929679870605</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99514961242676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02051544189453</t>
+    <t xml:space="preserve">3.9951491355896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02051496505737</t>
   </si>
   <si>
     <t xml:space="preserve">4.04271078109741</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06490612030029</t>
+    <t xml:space="preserve">4.06490516662598</t>
   </si>
   <si>
     <t xml:space="preserve">4.04588079452515</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01417350769043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15368747711182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09027099609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16002798080444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87783122062683</t>
+    <t xml:space="preserve">4.01417398452759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15368700027466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09027194976807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1600284576416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87783193588257</t>
   </si>
   <si>
     <t xml:space="preserve">3.82075786590576</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90636777877808</t>
+    <t xml:space="preserve">3.9063675403595</t>
   </si>
   <si>
     <t xml:space="preserve">4.05222272872925</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07758903503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96344113349915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89685606956482</t>
+    <t xml:space="preserve">4.07758951187134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9634416103363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8968551158905</t>
   </si>
   <si>
     <t xml:space="preserve">3.94441723823547</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85246562957764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97612452507019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01734495162964</t>
+    <t xml:space="preserve">3.85246467590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97612380981445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01734399795532</t>
   </si>
   <si>
     <t xml:space="preserve">3.94124674797058</t>
@@ -467,13 +467,13 @@
     <t xml:space="preserve">4.01100301742554</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07441854476929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09344244003296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05539321899414</t>
+    <t xml:space="preserve">4.07441806793213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0934419631958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05539226531982</t>
   </si>
   <si>
     <t xml:space="preserve">4.08075952529907</t>
@@ -482,28 +482,28 @@
     <t xml:space="preserve">4.17271137237549</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11246776580811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98880767822266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02368545532227</t>
+    <t xml:space="preserve">4.11246681213379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98880743980408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02368593215942</t>
   </si>
   <si>
     <t xml:space="preserve">4.00783205032349</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78587985038757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.858806848526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77953791618347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83978176116943</t>
+    <t xml:space="preserve">3.78587937355042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85880708694458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77953815460205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83978223800659</t>
   </si>
   <si>
     <t xml:space="preserve">3.87149000167847</t>
@@ -512,58 +512,58 @@
     <t xml:space="preserve">3.76685476303101</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65270733833313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69075679779053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76051306724548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73197674751282</t>
+    <t xml:space="preserve">3.65270805358887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69075655937195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7605128288269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7319769859314</t>
   </si>
   <si>
     <t xml:space="preserve">3.74148917198181</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92222213745117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8810019493103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9570996761322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89368438720703</t>
+    <t xml:space="preserve">3.92222237586975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88100099563599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95709991455078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89368557929993</t>
   </si>
   <si>
     <t xml:space="preserve">3.95392966270447</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79539227485657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86831879615784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91905164718628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92539215087891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00149011611938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07124710083008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84295248985291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81441688537598</t>
+    <t xml:space="preserve">3.79539203643799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86831855773926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91905117034912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92539191246033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0014910697937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07124757766724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84295415878296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8144166469574</t>
   </si>
   <si>
     <t xml:space="preserve">3.95075869560242</t>
@@ -572,37 +572,37 @@
     <t xml:space="preserve">4.0490517616272</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90953922271729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86514806747437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77002596855164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75047469139099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85148644447327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87429594993591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85800361633301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90036344528198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94924068450928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98182511329651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03395986557007</t>
+    <t xml:space="preserve">3.90953874588013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86514759063721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77002668380737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75047516822815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85148668289185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87429666519165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85800409317017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90036368370056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94924092292786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98182487487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03395938873291</t>
   </si>
   <si>
     <t xml:space="preserve">4.06980276107788</t>
@@ -611,7 +611,7 @@
     <t xml:space="preserve">4.26530933380127</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34025430679321</t>
+    <t xml:space="preserve">4.34025478363037</t>
   </si>
   <si>
     <t xml:space="preserve">4.67587471008301</t>
@@ -623,67 +623,67 @@
     <t xml:space="preserve">4.44778299331665</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51621055603027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49991703033447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49014282226562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40542364120483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4836254119873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46081638336182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49665927886963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50317668914795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48036766052246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45104074478149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50643539428711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52924394607544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69216632843018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71171855926514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61722230911255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65958213806152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84857177734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74104356765747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91374158859253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81598854064941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80295324325562</t>
+    <t xml:space="preserve">4.51621103286743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49991798400879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49014234542847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40542316436768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48362588882446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46081686019897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49665975570679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50317621231079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4803671836853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45104122161865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50643587112427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52924346923828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69216728210449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71171760559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61722278594971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65958261489868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84857225418091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74104404449463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91374111175537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8159875869751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80295419692993</t>
   </si>
   <si>
     <t xml:space="preserve">4.87463903427124</t>
@@ -695,7 +695,7 @@
     <t xml:space="preserve">4.80621194839478</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68239116668701</t>
+    <t xml:space="preserve">4.68239164352417</t>
   </si>
   <si>
     <t xml:space="preserve">4.83879661560059</t>
@@ -704,34 +704,34 @@
     <t xml:space="preserve">4.77688598632812</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76385259628296</t>
+    <t xml:space="preserve">4.76385307312012</t>
   </si>
   <si>
     <t xml:space="preserve">4.77036952972412</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60744762420654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61396360397339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66609954833984</t>
+    <t xml:space="preserve">4.60744619369507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61396408081055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66609907150269</t>
   </si>
   <si>
     <t xml:space="preserve">4.64980697631836</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53576183319092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56182956695557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54879522323608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63677263259888</t>
+    <t xml:space="preserve">4.53576135635376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56182861328125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54879331588745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63677358627319</t>
   </si>
   <si>
     <t xml:space="preserve">4.69868326187134</t>
@@ -740,178 +740,178 @@
     <t xml:space="preserve">4.6400318145752</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62373971939087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60092973709106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29137754440308</t>
+    <t xml:space="preserve">4.62373876571655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60093021392822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29137706756592</t>
   </si>
   <si>
     <t xml:space="preserve">4.15452241897583</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12519598007202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02092695236206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04047584533691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01766872406006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15126371383667</t>
+    <t xml:space="preserve">4.1251974105835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02092599868774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04047632217407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01766729354858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15126419067383</t>
   </si>
   <si>
     <t xml:space="preserve">4.20665788650513</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16103935241699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17081499099731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21643352508545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24901723861694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26205110549927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35980463027954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32722091674805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35328817367554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39564752578735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3044114112854</t>
+    <t xml:space="preserve">4.16103887557983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17081546783447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21643304824829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2490177154541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26205205917358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3598051071167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32721996307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35328769683838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39564800262451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30441188812256</t>
   </si>
   <si>
     <t xml:space="preserve">4.32070398330688</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34351205825806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37935495376587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39890718460083</t>
+    <t xml:space="preserve">4.34351301193237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37935590744019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39890623092651</t>
   </si>
   <si>
     <t xml:space="preserve">4.46407556533813</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47384977340698</t>
+    <t xml:space="preserve">4.47385025024414</t>
   </si>
   <si>
     <t xml:space="preserve">4.50969409942627</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54227828979492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48688459396362</t>
+    <t xml:space="preserve">4.54227876663208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48688411712646</t>
   </si>
   <si>
     <t xml:space="preserve">4.44452476501465</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40216541290283</t>
+    <t xml:space="preserve">4.40216588973999</t>
   </si>
   <si>
     <t xml:space="preserve">4.3663215637207</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42497539520264</t>
+    <t xml:space="preserve">4.42497396469116</t>
   </si>
   <si>
     <t xml:space="preserve">4.58973073959351</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59634447097778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66578483581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60295820236206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64594459533691</t>
+    <t xml:space="preserve">4.59634351730347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66578531265259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6029577255249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64594507217407</t>
   </si>
   <si>
     <t xml:space="preserve">4.61949157714844</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5930380821228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65917158126831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73853302001953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74183893203735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70877313613892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86088180541992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8674955368042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88072299957275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87741565704346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92040300369263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79805469512939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81128120422363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8906421661377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99315166473389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05597877502441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99976444244385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00637817382812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98323059082031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88733625411987</t>
+    <t xml:space="preserve">4.59303760528564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65917205810547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73853349685669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74183988571167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70877265930176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86088275909424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86749505996704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88072204589844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8774151802063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92040252685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79805421829224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81128168106079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89064264297485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99315071105957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0559778213501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99976491928101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00637769699097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98323106765747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88733577728271</t>
   </si>
   <si>
     <t xml:space="preserve">4.84765481948853</t>
@@ -920,7 +920,7 @@
     <t xml:space="preserve">4.936936378479</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81789445877075</t>
+    <t xml:space="preserve">4.81789398193359</t>
   </si>
   <si>
     <t xml:space="preserve">4.94355010986328</t>
@@ -929,106 +929,106 @@
     <t xml:space="preserve">4.96008396148682</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90717649459839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82120132446289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79474782943726</t>
+    <t xml:space="preserve">4.90717744827271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82120180130005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79474639892578</t>
   </si>
   <si>
     <t xml:space="preserve">4.83112096786499</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91378974914551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80466794967651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85096120834351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75837421417236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83773565292358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89394950866699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84104204177856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85426807403564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90056324005127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02621841430664</t>
+    <t xml:space="preserve">4.91378879547119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8046669960022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85096216201782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75837373733521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83773422241211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89394998550415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84104156494141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8542685508728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90056276321411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02621793746948</t>
   </si>
   <si>
     <t xml:space="preserve">4.89725589752197</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93032312393188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91048240661621</t>
+    <t xml:space="preserve">4.93032264709473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91048288345337</t>
   </si>
   <si>
     <t xml:space="preserve">4.82781457901001</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7782154083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71538686752319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85757541656494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83442783355713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76167964935303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79144144058228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75506687164307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73522615432739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72199869155884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65586471557617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69554615020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74514579772949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67570543289185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72530603408813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77490711212158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80136108398438</t>
+    <t xml:space="preserve">4.77821350097656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71538591384888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85757493972778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83442878723145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7616810798645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79144048690796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75506639480591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73522663116455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.721999168396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65586566925049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69554567337036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74514675140381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67570495605469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72530651092529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77490663528442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80136156082153</t>
   </si>
   <si>
     <t xml:space="preserve">4.87080192565918</t>
@@ -1037,13 +1037,13 @@
     <t xml:space="preserve">4.96338987350464</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94685697555542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77160024642944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6856255531311</t>
+    <t xml:space="preserve">4.9468560218811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7716007232666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68562650680542</t>
   </si>
   <si>
     <t xml:space="preserve">4.66909217834473</t>
@@ -1052,7 +1052,7 @@
     <t xml:space="preserve">4.66247844696045</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75176048278809</t>
+    <t xml:space="preserve">4.75176000595093</t>
   </si>
   <si>
     <t xml:space="preserve">4.71869325637817</t>
@@ -1061,97 +1061,97 @@
     <t xml:space="preserve">4.78813409805298</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74174499511719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62609338760376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62949419021606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6635103225708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66010808944702</t>
+    <t xml:space="preserve">4.7417459487915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62609243392944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62949514389038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66350984573364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66010856628418</t>
   </si>
   <si>
     <t xml:space="preserve">4.75535106658936</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76555633544922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77916145324707</t>
+    <t xml:space="preserve">4.76555585861206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77916240692139</t>
   </si>
   <si>
     <t xml:space="preserve">4.88460969924927</t>
   </si>
   <si>
-    <t xml:space="preserve">4.88801193237305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86079883575439</t>
+    <t xml:space="preserve">4.88801145553589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86079931259155</t>
   </si>
   <si>
     <t xml:space="preserve">4.86760234832764</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84379196166992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9016170501709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85059452056885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91862535476685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97304964065552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03427743911743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08530044555664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96624755859375</t>
+    <t xml:space="preserve">4.84379148483276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90161752700806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85059404373169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.918625831604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97305059432983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03427839279175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0853009223938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96624660491943</t>
   </si>
   <si>
     <t xml:space="preserve">5.02067136764526</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04788398742676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9764518737793</t>
+    <t xml:space="preserve">5.04788494110107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97645092010498</t>
   </si>
   <si>
     <t xml:space="preserve">4.99345922470093</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90842008590698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81998014450073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80297231674194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89141321182251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99005746841431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98665523529053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95264101028442</t>
+    <t xml:space="preserve">4.9084210395813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81998157501221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80297327041626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89141273498535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99005794525146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98665571212769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95264053344727</t>
   </si>
   <si>
     <t xml:space="preserve">5.09550523757935</t>
@@ -1160,91 +1160,91 @@
     <t xml:space="preserve">5.12271785736084</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17033815383911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25877952575684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28599071502686</t>
+    <t xml:space="preserve">5.17033910751343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25877904891968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28599166870117</t>
   </si>
   <si>
     <t xml:space="preserve">5.3029990196228</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29619550704956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33701372146606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38803720474243</t>
+    <t xml:space="preserve">5.29619646072388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33701419830322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38803815841675</t>
   </si>
   <si>
     <t xml:space="preserve">5.39143991470337</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33021116256714</t>
+    <t xml:space="preserve">5.3302116394043</t>
   </si>
   <si>
     <t xml:space="preserve">5.37443161010742</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40844678878784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.272385597229</t>
+    <t xml:space="preserve">5.40844774246216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27238512039185</t>
   </si>
   <si>
     <t xml:space="preserve">5.1635365486145</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24857473373413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17714262008667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07509613037109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76215505599976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80977630615234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92883014678955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91522407531738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95944356918335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94923877716064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9458384513855</t>
+    <t xml:space="preserve">5.24857521057129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17714214324951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07509660720825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76215410232544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80977535247803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92882966995239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91522312164307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95944404602051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94923973083496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94583749771118</t>
   </si>
   <si>
     <t xml:space="preserve">4.95604181289673</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06149005889893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03767871856689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82678365707397</t>
+    <t xml:space="preserve">5.06148958206177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03767919540405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82678318023682</t>
   </si>
   <si>
     <t xml:space="preserve">4.78596544265747</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83358716964722</t>
+    <t xml:space="preserve">4.83358669281006</t>
   </si>
   <si>
     <t xml:space="preserve">4.90501880645752</t>
@@ -1253,10 +1253,10 @@
     <t xml:space="preserve">4.93903493881226</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93223094940186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87440490722656</t>
+    <t xml:space="preserve">4.9322304725647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87440538406372</t>
   </si>
   <si>
     <t xml:space="preserve">4.84719276428223</t>
@@ -1265,7 +1265,7 @@
     <t xml:space="preserve">4.77576065063477</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80637407302856</t>
+    <t xml:space="preserve">4.80637454986572</t>
   </si>
   <si>
     <t xml:space="preserve">4.81657934188843</t>
@@ -1274,61 +1274,61 @@
     <t xml:space="preserve">4.73834371566772</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7995719909668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77235889434814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76895761489868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72813892364502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71793413162231</t>
+    <t xml:space="preserve">4.79957151412964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77235794067383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.768958568573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72813844680786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71793460845947</t>
   </si>
   <si>
     <t xml:space="preserve">4.79616975784302</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83698844909668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90708827972412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84058713912964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70408391952515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6025824546814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63758325576782</t>
+    <t xml:space="preserve">4.83698892593384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90708875656128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84058666229248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70408487319946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60258293151855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63758373260498</t>
   </si>
   <si>
     <t xml:space="preserve">4.66208362579346</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74958515167236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73208475112915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76008605957031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74608516693115</t>
+    <t xml:space="preserve">4.74958562850952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73208522796631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76008558273315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74608564376831</t>
   </si>
   <si>
     <t xml:space="preserve">4.65508365631104</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71458578109741</t>
+    <t xml:space="preserve">4.7145848274231</t>
   </si>
   <si>
     <t xml:space="preserve">4.6760835647583</t>
@@ -1340,22 +1340,22 @@
     <t xml:space="preserve">4.57458209991455</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49758052825928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31207847595215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29107666015625</t>
+    <t xml:space="preserve">4.49758100509644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31207752227783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29107761383057</t>
   </si>
   <si>
     <t xml:space="preserve">4.27707672119141</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22457695007324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25957632064819</t>
+    <t xml:space="preserve">4.22457599639893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25957679748535</t>
   </si>
   <si>
     <t xml:space="preserve">4.27007722854614</t>
@@ -1364,100 +1364,100 @@
     <t xml:space="preserve">4.24907636642456</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18257474899292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06707334518433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18607568740845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23157596588135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28057622909546</t>
+    <t xml:space="preserve">4.18257570266724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06707286834717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18607521057129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23157644271851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28057670593262</t>
   </si>
   <si>
     <t xml:space="preserve">4.09507322311401</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16857433319092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18957567214966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07057285308838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2175760269165</t>
+    <t xml:space="preserve">4.16857481002808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1895751953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07057237625122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21757555007935</t>
   </si>
   <si>
     <t xml:space="preserve">4.15807485580444</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15457439422607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19307518005371</t>
+    <t xml:space="preserve">4.15457487106323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19307565689087</t>
   </si>
   <si>
     <t xml:space="preserve">4.13707447052002</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11957406997681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16507482528687</t>
+    <t xml:space="preserve">4.11957359313965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16507530212402</t>
   </si>
   <si>
     <t xml:space="preserve">4.09857368469238</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20707511901855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07407283782959</t>
+    <t xml:space="preserve">4.20707607269287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07407379150391</t>
   </si>
   <si>
     <t xml:space="preserve">4.02857208251953</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00407218933105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06357288360596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12657451629639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1125750541687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14407444000244</t>
+    <t xml:space="preserve">4.0040717124939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06357336044312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12657403945923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11257457733154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14407396316528</t>
   </si>
   <si>
     <t xml:space="preserve">3.986572265625</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06007289886475</t>
+    <t xml:space="preserve">4.0600733757019</t>
   </si>
   <si>
     <t xml:space="preserve">4.10207366943359</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04957246780396</t>
+    <t xml:space="preserve">4.04957294464111</t>
   </si>
   <si>
     <t xml:space="preserve">4.05657243728638</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30157709121704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46958017349243</t>
+    <t xml:space="preserve">4.30157661437988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46958065032959</t>
   </si>
   <si>
     <t xml:space="preserve">4.34707832336426</t>
@@ -1466,13 +1466,13 @@
     <t xml:space="preserve">4.37507820129395</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32957696914673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38907814025879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34007692337036</t>
+    <t xml:space="preserve">4.3295783996582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38907861709595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34007787704468</t>
   </si>
   <si>
     <t xml:space="preserve">4.29807710647583</t>
@@ -1481,31 +1481,31 @@
     <t xml:space="preserve">4.23507595062256</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24557685852051</t>
+    <t xml:space="preserve">4.24557590484619</t>
   </si>
   <si>
     <t xml:space="preserve">4.22107601165771</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14757394790649</t>
+    <t xml:space="preserve">4.14757490158081</t>
   </si>
   <si>
     <t xml:space="preserve">4.21407556533813</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25607585906982</t>
+    <t xml:space="preserve">4.25607681274414</t>
   </si>
   <si>
     <t xml:space="preserve">4.2630763053894</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25257635116577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20007562637329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17557573318481</t>
+    <t xml:space="preserve">4.25257539749146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20007514953613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1755747795105</t>
   </si>
   <si>
     <t xml:space="preserve">4.12307357788086</t>
@@ -1514,25 +1514,25 @@
     <t xml:space="preserve">4.27357721328735</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20357513427734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26657676696777</t>
+    <t xml:space="preserve">4.2035756111145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26657629013062</t>
   </si>
   <si>
     <t xml:space="preserve">4.22807598114014</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32257843017578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33307790756226</t>
+    <t xml:space="preserve">4.32257699966431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3330774307251</t>
   </si>
   <si>
     <t xml:space="preserve">4.35407829284668</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46608066558838</t>
+    <t xml:space="preserve">4.46608018875122</t>
   </si>
   <si>
     <t xml:space="preserve">4.44858026504517</t>
@@ -1541,166 +1541,166 @@
     <t xml:space="preserve">4.46257972717285</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47658014297485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8535692691803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88506960868835</t>
+    <t xml:space="preserve">4.47658061981201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85356950759888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88507032394409</t>
   </si>
   <si>
     <t xml:space="preserve">3.77306795120239</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77656817436218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79756903648376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8605694770813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80106806755066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7030668258667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6820662021637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62956500053406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60506534576416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53856372833252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56306481361389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50706315040588</t>
+    <t xml:space="preserve">3.77656745910645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79756879806519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86056876182556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80106854438782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70306634902954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68206644058228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62956476211548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.605064868927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53856348991394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56306433677673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50706243515015</t>
   </si>
   <si>
     <t xml:space="preserve">3.59106492996216</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58756470680237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65056562423706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71006631851196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69956660270691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70656681060791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6750659942627</t>
+    <t xml:space="preserve">3.58756422996521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65056538581848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71006655693054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69956612586975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70656704902649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67506575584412</t>
   </si>
   <si>
     <t xml:space="preserve">3.64006543159485</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63656568527222</t>
+    <t xml:space="preserve">3.63656520843506</t>
   </si>
   <si>
     <t xml:space="preserve">3.66754746437073</t>
   </si>
   <si>
-    <t xml:space="preserve">3.50365519523621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65297937393188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64569473266602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72217798233032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89699649810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86057567596436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8569347858429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84965062141418</t>
+    <t xml:space="preserve">3.50365495681763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65297889709473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64569592475891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72217893600464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89699697494507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86057662963867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85693407058716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84964966773987</t>
   </si>
   <si>
     <t xml:space="preserve">3.83143973350525</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82415556907654</t>
+    <t xml:space="preserve">3.8241560459137</t>
   </si>
   <si>
     <t xml:space="preserve">3.68211579322815</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6602635383606</t>
+    <t xml:space="preserve">3.66026401519775</t>
   </si>
   <si>
     <t xml:space="preserve">3.61728763580322</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67847371101379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74403023719788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81323003768921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72946214675903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70396828651428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75131511688232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70032548904419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52987742424011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71489405632019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7076108455658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6748321056366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82051396369934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80594539642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76588273048401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85329270362854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87514424324036</t>
+    <t xml:space="preserve">3.67847347259521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74403095245361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81323027610779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72946238517761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70396780967712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75131487846375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70032525062561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52987790107727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71489381790161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70761036872864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67483186721802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82051372528076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80594515800476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76588320732117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8532919883728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87514472007751</t>
   </si>
   <si>
     <t xml:space="preserve">3.92249155044556</t>
@@ -1715,55 +1715,55 @@
     <t xml:space="preserve">3.90792298316956</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87878584861755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8678605556488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92613363265991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88242888450623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00625848770142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15922451019287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22478151321411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14829921722412</t>
+    <t xml:space="preserve">3.87878656387329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86786007881165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92613339424133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88242840766907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00625801086426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15922498703003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22478199005127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14829874038696</t>
   </si>
   <si>
     <t xml:space="preserve">4.286696434021</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28305435180664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33040142059326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38867378234863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3340425491333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34132671356201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34861183166504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46515703201294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42873620986938</t>
+    <t xml:space="preserve">4.2830548286438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3304009437561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38867425918579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33404350280762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34132719039917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34861087799072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46515655517578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42873668670654</t>
   </si>
   <si>
     <t xml:space="preserve">4.48336744308472</t>
@@ -1772,97 +1772,97 @@
     <t xml:space="preserve">4.47244119644165</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54528188705444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44330549240112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49429416656494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54892444610596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55256605148315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56713438034058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61083889007568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57806158065796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60355567932129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61812305450439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58534526824951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63269186019897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57077646255493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59991264343262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65454387664795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62176513671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76744747161865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75287961959839</t>
+    <t xml:space="preserve">4.54528284072876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44330406188965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49429368972778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5489239692688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55256652832031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56713485717773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61083936691284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5780611038208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60355520248413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61812353134155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58534479141235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63269090652466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57077693939209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59991312026978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65454339981079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62176465988159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76744794845581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75287866592407</t>
   </si>
   <si>
     <t xml:space="preserve">4.74923706054688</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74559593200684</t>
+    <t xml:space="preserve">4.74559545516968</t>
   </si>
   <si>
     <t xml:space="preserve">4.73831129074097</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73466920852661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83664703369141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90220403671265</t>
+    <t xml:space="preserve">4.73466968536377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83664655685425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90220308303833</t>
   </si>
   <si>
     <t xml:space="preserve">4.92769765853882</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89856100082397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89127731323242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8950309753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79743051528931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8424768447876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84623098373413</t>
+    <t xml:space="preserve">4.89856147766113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89127826690674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89503145217896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79743099212646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84247732162476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84623050689697</t>
   </si>
   <si>
     <t xml:space="preserve">4.93632316589355</t>
@@ -1871,7 +1871,7 @@
     <t xml:space="preserve">4.91380071640015</t>
   </si>
   <si>
-    <t xml:space="preserve">4.88001585006714</t>
+    <t xml:space="preserve">4.8800163269043</t>
   </si>
   <si>
     <t xml:space="preserve">4.72986221313477</t>
@@ -1880,10 +1880,10 @@
     <t xml:space="preserve">4.74112319946289</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75613880157471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63976860046387</t>
+    <t xml:space="preserve">4.75613832473755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63976955413818</t>
   </si>
   <si>
     <t xml:space="preserve">4.5909686088562</t>
@@ -1898,106 +1898,106 @@
     <t xml:space="preserve">4.65853786468506</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6172456741333</t>
+    <t xml:space="preserve">4.61724615097046</t>
   </si>
   <si>
     <t xml:space="preserve">4.61349201202393</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54967546463013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56093835830688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56469202041626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52715301513672</t>
+    <t xml:space="preserve">4.54967594146729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56093788146973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5646915435791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52715349197388</t>
   </si>
   <si>
     <t xml:space="preserve">4.50462961196899</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48210716247559</t>
+    <t xml:space="preserve">4.48210620880127</t>
   </si>
   <si>
     <t xml:space="preserve">4.51213788986206</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57595252990723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63601541519165</t>
+    <t xml:space="preserve">4.57595300674438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63601493835449</t>
   </si>
   <si>
     <t xml:space="preserve">4.62475347518921</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66979885101318</t>
+    <t xml:space="preserve">4.66979932785034</t>
   </si>
   <si>
     <t xml:space="preserve">4.65103054046631</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59847736358643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62850713729858</t>
+    <t xml:space="preserve">4.59847640991211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62850761413574</t>
   </si>
   <si>
     <t xml:space="preserve">4.55718374252319</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6960768699646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71859979629517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74863147735596</t>
+    <t xml:space="preserve">4.69607591629028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71860027313232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74863004684448</t>
   </si>
   <si>
     <t xml:space="preserve">4.85749244689941</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78992319107056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79367733001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85373878479004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86124658584595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86500072479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00389385223389</t>
+    <t xml:space="preserve">4.78992414474487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79367780685425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8537392616272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86124563217163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86500024795532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00389337539673</t>
   </si>
   <si>
     <t xml:space="preserve">5.04518508911133</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99263095855713</t>
+    <t xml:space="preserve">4.9926323890686</t>
   </si>
   <si>
     <t xml:space="preserve">4.98512363433838</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94383144378662</t>
+    <t xml:space="preserve">4.94383096694946</t>
   </si>
   <si>
     <t xml:space="preserve">5.02266263961792</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01515483856201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05269336700439</t>
+    <t xml:space="preserve">5.01515436172485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05269289016724</t>
   </si>
   <si>
     <t xml:space="preserve">5.07521677017212</t>
@@ -2009,130 +2009,130 @@
     <t xml:space="preserve">4.97010850906372</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95133924484253</t>
+    <t xml:space="preserve">4.95133876800537</t>
   </si>
   <si>
     <t xml:space="preserve">4.947585105896</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97761678695679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9550929069519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04143238067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0001392364502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9325704574585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91755485534668</t>
+    <t xml:space="preserve">4.97761583328247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95509338378906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04143142700195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00013971328735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93256998062134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91755533218384</t>
   </si>
   <si>
     <t xml:space="preserve">4.69983100891113</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70358419418335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71109247207642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63226175308228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84998559951782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9588475227356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9062933921814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99638509750366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9400782585144</t>
+    <t xml:space="preserve">4.70358467102051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71109199523926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63226127624512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84998464584351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95884704589844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90629243850708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99638557434082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94007730484009</t>
   </si>
   <si>
     <t xml:space="preserve">5.03767776489258</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0602011680603</t>
+    <t xml:space="preserve">5.06020069122314</t>
   </si>
   <si>
     <t xml:space="preserve">5.15404796600342</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16530895233154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14278650283813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26290941238403</t>
+    <t xml:space="preserve">5.1653094291687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14278554916382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26290988922119</t>
   </si>
   <si>
     <t xml:space="preserve">5.21035528182983</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23287773132324</t>
+    <t xml:space="preserve">5.23287868499756</t>
   </si>
   <si>
     <t xml:space="preserve">5.28543281555176</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29294013977051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25540256500244</t>
+    <t xml:space="preserve">5.29294061660767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25540113449097</t>
   </si>
   <si>
     <t xml:space="preserve">5.16155529022217</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1915864944458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15029287338257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17657041549683</t>
+    <t xml:space="preserve">5.19158601760864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15029430389404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17656993865967</t>
   </si>
   <si>
     <t xml:space="preserve">5.17281723022461</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16906309127808</t>
+    <t xml:space="preserve">5.16906356811523</t>
   </si>
   <si>
     <t xml:space="preserve">5.10149383544922</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22161722183228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2178635597229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21410846710205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23663234710693</t>
+    <t xml:space="preserve">5.22161626815796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21786308288574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21410894393921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23663282394409</t>
   </si>
   <si>
     <t xml:space="preserve">5.39804840087891</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44309520721436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48438787460327</t>
+    <t xml:space="preserve">5.4430947303772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4843864440918</t>
   </si>
   <si>
     <t xml:space="preserve">5.52943325042725</t>
@@ -2141,49 +2141,49 @@
     <t xml:space="preserve">5.57447957992554</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64204931259155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67583322525024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69084930419922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7021107673645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72463464736938</t>
+    <t xml:space="preserve">5.64204883575439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6758337020874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69084882736206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70211124420166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72463369369507</t>
   </si>
   <si>
     <t xml:space="preserve">5.76217317581177</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77343320846558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76968002319336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77718830108643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78844928741455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78094244003296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85601949691772</t>
+    <t xml:space="preserve">5.77343416213989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76968050003052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77718877792358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78844976425171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78094148635864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85601997375488</t>
   </si>
   <si>
     <t xml:space="preserve">6.20137453079224</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30272817611694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47915935516357</t>
+    <t xml:space="preserve">6.30272912979126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47915983200073</t>
   </si>
   <si>
     <t xml:space="preserve">6.59177446365356</t>
@@ -2192,190 +2192,190 @@
     <t xml:space="preserve">6.45663690567017</t>
   </si>
   <si>
+    <t xml:space="preserve">6.47165203094482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56784152984619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74483108520508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9025821685791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91797256469727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01416254043579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95644903182983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07957172393799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10265731811523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16037130355835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09111499786377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02570486068726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00646638870239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08726739883423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14113330841064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08341932296753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95260047912598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97183990478516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00262022018433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97568607330322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0526385307312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02955341339111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02185773849487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9910774230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89873504638672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86410570144653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87565088272095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81408786773682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84487009048462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75252532958984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61401271820068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61786079406738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77176475524902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92566776275635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72174596786499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71789789199829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82947826385498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74867963790894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63325119018555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66403102874756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6101655960083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41009044647217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55245161056519</t>
+  </si>
+  <si>
     <t xml:space="preserve">6.47165107727051</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56784105300903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74483108520508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90258264541626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91797161102295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01416206359863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95644950866699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07957124710083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10265636444092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16037130355835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09111499786377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02570629119873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00646829605103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08726692199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14113330841064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08342027664185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95260143280029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.971839427948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00261974334717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97568607330322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05263900756836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02955293655396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02185821533203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9910774230957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89873456954956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86410713195801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87564992904663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81408739089966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8448691368103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.752525806427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61401319503784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61786079406738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77176380157471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92566776275635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72174501419067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71789741516113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82947826385498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74868011474609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63325023651123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66403245925903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61016607284546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41008996963501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55245113372803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47165250778198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27157735824585</t>
+    <t xml:space="preserve">6.27157688140869</t>
   </si>
   <si>
     <t xml:space="preserve">6.28312015533447</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37930965423584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34083366394043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39469957351685</t>
+    <t xml:space="preserve">6.379310131073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34083318710327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39470100402832</t>
   </si>
   <si>
     <t xml:space="preserve">6.46395635604858</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50243282318115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49473667144775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49858427047729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57553720474243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69096422195435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72944116592407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56399345397949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3831582069397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04456853866577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99070310592651</t>
+    <t xml:space="preserve">6.50243186950684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49473714828491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49858474731445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57553672790527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69096517562866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72944068908691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56399393081665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38315725326538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04456949234009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9907021522522</t>
   </si>
   <si>
     <t xml:space="preserve">6.00994110107422</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86758041381836</t>
+    <t xml:space="preserve">5.8675799369812</t>
   </si>
   <si>
     <t xml:space="preserve">5.66365766525269</t>
@@ -2384,34 +2384,34 @@
     <t xml:space="preserve">5.59824800491333</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5751633644104</t>
+    <t xml:space="preserve">5.57516241073608</t>
   </si>
   <si>
     <t xml:space="preserve">5.53668689727783</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2558126449585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13268947601318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77101564407349</t>
+    <t xml:space="preserve">5.25581312179565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13268995285034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77101516723633</t>
   </si>
   <si>
     <t xml:space="preserve">4.20157194137573</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1554012298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76448559761047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76756286621094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44898223876953</t>
+    <t xml:space="preserve">4.15540075302124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76448512077332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76756381988525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44898247718811</t>
   </si>
   <si>
     <t xml:space="preserve">3.17811226844788</t>
@@ -2423,70 +2423,70 @@
     <t xml:space="preserve">3.25660300254822</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24736833572388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63982367515564</t>
+    <t xml:space="preserve">3.24736857414246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63982343673706</t>
   </si>
   <si>
     <t xml:space="preserve">3.74909520149231</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95532608032227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82143044471741</t>
+    <t xml:space="preserve">3.95532584190369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82142949104309</t>
   </si>
   <si>
     <t xml:space="preserve">3.63366723060608</t>
   </si>
   <si>
-    <t xml:space="preserve">3.5782618522644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56748867034912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57980108261108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51670050621033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6444399356842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84759330749512</t>
+    <t xml:space="preserve">3.57826209068298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56748843193054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57980132102966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51670026779175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64444088935852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84759402275085</t>
   </si>
   <si>
     <t xml:space="preserve">4.0207347869873</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20926666259766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85913586616516</t>
+    <t xml:space="preserve">4.20926713943481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85913562774658</t>
   </si>
   <si>
     <t xml:space="preserve">3.90530705451965</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02458238601685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94763112068176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75986814498901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89761257171631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98610687255859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96686911582947</t>
+    <t xml:space="preserve">4.02458190917969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94763088226318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75986838340759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89761233329773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98610615730286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96686887741089</t>
   </si>
   <si>
     <t xml:space="preserve">4.11692476272583</t>
@@ -2504,22 +2504,22 @@
     <t xml:space="preserve">4.09383916854858</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03227806091309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07844972610474</t>
+    <t xml:space="preserve">4.03227758407593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07844924926758</t>
   </si>
   <si>
     <t xml:space="preserve">4.12461996078491</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12846803665161</t>
+    <t xml:space="preserve">4.12846755981445</t>
   </si>
   <si>
     <t xml:space="preserve">4.30545663833618</t>
   </si>
   <si>
-    <t xml:space="preserve">4.382408618927</t>
+    <t xml:space="preserve">4.38240909576416</t>
   </si>
   <si>
     <t xml:space="preserve">4.24004793167114</t>
@@ -2528,31 +2528,31 @@
     <t xml:space="preserve">4.14385843276978</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25928640365601</t>
+    <t xml:space="preserve">4.25928544998169</t>
   </si>
   <si>
     <t xml:space="preserve">4.26698112487793</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3862566947937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42473220825195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5132269859314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55555105209351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66328239440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60941743850708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57094144821167</t>
+    <t xml:space="preserve">4.38625574111938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42473316192627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51322650909424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55555057525635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6632833480835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60941696166992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57094097137451</t>
   </si>
   <si>
     <t xml:space="preserve">4.74023485183716</t>
@@ -2561,7 +2561,7 @@
     <t xml:space="preserve">4.79410123825073</t>
   </si>
   <si>
-    <t xml:space="preserve">4.974937915802</t>
+    <t xml:space="preserve">4.97493839263916</t>
   </si>
   <si>
     <t xml:space="preserve">5.20579385757446</t>
@@ -2570,22 +2570,22 @@
     <t xml:space="preserve">5.32506895065308</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1211462020874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84411954879761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86335754394531</t>
+    <t xml:space="preserve">5.12114715576172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84412002563477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86335802078247</t>
   </si>
   <si>
     <t xml:space="preserve">5.02495718002319</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97109127044678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94800424575806</t>
+    <t xml:space="preserve">4.97109031677246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94800519943237</t>
   </si>
   <si>
     <t xml:space="preserve">4.99802350997925</t>
@@ -2597,13 +2597,13 @@
     <t xml:space="preserve">5.02880477905273</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81333923339844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80179643630981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85181474685669</t>
+    <t xml:space="preserve">4.8133397102356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80179595947266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85181522369385</t>
   </si>
   <si>
     <t xml:space="preserve">4.89413928985596</t>
@@ -2612,13 +2612,13 @@
     <t xml:space="preserve">4.91722393035889</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83642482757568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06343364715576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94031047821045</t>
+    <t xml:space="preserve">4.83642435073853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06343269348145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94030952453613</t>
   </si>
   <si>
     <t xml:space="preserve">5.05958461761475</t>
@@ -2627,19 +2627,19 @@
     <t xml:space="preserve">5.03649997711182</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82488203048706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94415712356567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00187110900879</t>
+    <t xml:space="preserve">4.82488250732422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94415760040283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00187158584595</t>
   </si>
   <si>
     <t xml:space="preserve">5.07112789154053</t>
   </si>
   <si>
-    <t xml:space="preserve">5.07497549057007</t>
+    <t xml:space="preserve">5.07497501373291</t>
   </si>
   <si>
     <t xml:space="preserve">5.09806108474731</t>
@@ -2648,16 +2648,16 @@
     <t xml:space="preserve">5.21733665466309</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15962362289429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11345195770264</t>
+    <t xml:space="preserve">5.15962219238281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11345243453979</t>
   </si>
   <si>
     <t xml:space="preserve">5.06728029251099</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98648118972778</t>
+    <t xml:space="preserve">4.98648166656494</t>
   </si>
   <si>
     <t xml:space="preserve">4.93261432647705</t>
@@ -2669,7 +2669,7 @@
     <t xml:space="preserve">4.95185327529907</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76716804504395</t>
+    <t xml:space="preserve">4.76716756820679</t>
   </si>
   <si>
     <t xml:space="preserve">4.9556999206543</t>
@@ -2681,19 +2681,19 @@
     <t xml:space="preserve">5.10190916061401</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18655586242676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24042177200317</t>
+    <t xml:space="preserve">5.1865553855896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24042272567749</t>
   </si>
   <si>
     <t xml:space="preserve">5.15577459335327</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02110910415649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1057562828064</t>
+    <t xml:space="preserve">5.02110958099365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10575675964355</t>
   </si>
   <si>
     <t xml:space="preserve">4.97878551483154</t>
@@ -2711,28 +2711,28 @@
     <t xml:space="preserve">4.92491960525513</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78255939483643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86720609664917</t>
+    <t xml:space="preserve">4.78255796432495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86720514297485</t>
   </si>
   <si>
     <t xml:space="preserve">4.87105274200439</t>
   </si>
   <si>
-    <t xml:space="preserve">5.09036588668823</t>
+    <t xml:space="preserve">5.09036540985107</t>
   </si>
   <si>
     <t xml:space="preserve">4.84796810150146</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73253965377808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84027290344238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70560646057129</t>
+    <t xml:space="preserve">4.73254013061523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84027242660522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70560598373413</t>
   </si>
   <si>
     <t xml:space="preserve">4.78640508651733</t>
@@ -2744,28 +2744,28 @@
     <t xml:space="preserve">4.959547996521</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8094916343689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83257722854614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81718730926514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65558767318726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51707410812378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46320819854736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5093789100647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75562477111816</t>
+    <t xml:space="preserve">4.80949211120605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8325777053833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81718683242798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65558815002441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51707458496094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46320867538452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50937938690186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75562524795532</t>
   </si>
   <si>
     <t xml:space="preserve">5.29428815841675</t>
@@ -2777,28 +2777,28 @@
     <t xml:space="preserve">5.51744937896729</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38663148880005</t>
+    <t xml:space="preserve">5.38663053512573</t>
   </si>
   <si>
     <t xml:space="preserve">5.55592489242554</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81756067276001</t>
+    <t xml:space="preserve">5.81756114959717</t>
   </si>
   <si>
     <t xml:space="preserve">5.80986642837524</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73291444778442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84449434280396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8637318611145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01763582229614</t>
+    <t xml:space="preserve">5.73291397094727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8444938659668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86373233795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0176362991333</t>
   </si>
   <si>
     <t xml:space="preserve">5.89066553115845</t>
@@ -2810,64 +2810,64 @@
     <t xml:space="preserve">5.85218906402588</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92529439926147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76754331588745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71752405166626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70982837677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64441919326782</t>
+    <t xml:space="preserve">5.92529344558716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76754188537598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7175235748291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70982885360718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64441967010498</t>
   </si>
   <si>
     <t xml:space="preserve">5.60209560394287</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59440088272095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5020580291748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46742963790894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47512531280518</t>
+    <t xml:space="preserve">5.59440135955811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50205850601196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46743011474609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47512435913086</t>
   </si>
   <si>
     <t xml:space="preserve">5.47897291183472</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46358251571655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44434499740601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33276462554932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40971565246582</t>
+    <t xml:space="preserve">5.46358203887939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44434356689453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33276414871216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40971708297729</t>
   </si>
   <si>
     <t xml:space="preserve">5.42895412445068</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47127723693848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49821090698242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43664884567261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44819211959839</t>
+    <t xml:space="preserve">5.47127771377563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49821138381958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43664932250977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44819164276123</t>
   </si>
   <si>
     <t xml:space="preserve">5.65980958938599</t>
@@ -2882,7 +2882,7 @@
     <t xml:space="preserve">5.2750506401062</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14423227310181</t>
+    <t xml:space="preserve">5.14423322677612</t>
   </si>
   <si>
     <t xml:space="preserve">5.07882308959961</t>
@@ -2894,43 +2894,43 @@
     <t xml:space="preserve">5.22503185272217</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62518072128296</t>
+    <t xml:space="preserve">5.62518167495728</t>
   </si>
   <si>
     <t xml:space="preserve">5.73676156997681</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9483790397644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87912273406982</t>
+    <t xml:space="preserve">5.94837951660156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87912225723267</t>
   </si>
   <si>
     <t xml:space="preserve">5.89836072921753</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88296985626221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76369524002075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67904806137085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6944375038147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75984668731689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62133455276489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65211486816406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55977249145508</t>
+    <t xml:space="preserve">5.88297080993652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76369428634644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67904710769653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69443845748901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75984764099121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62133359909058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6521143913269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55977201461792</t>
   </si>
   <si>
     <t xml:space="preserve">5.74445676803589</t>
@@ -2939,7 +2939,7 @@
     <t xml:space="preserve">5.77523756027222</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75215196609497</t>
+    <t xml:space="preserve">5.75215148925781</t>
   </si>
   <si>
     <t xml:space="preserve">5.85988473892212</t>
@@ -2960,28 +2960,28 @@
     <t xml:space="preserve">5.97146511077881</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09843587875366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25233888626099</t>
+    <t xml:space="preserve">6.09843635559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2523398399353</t>
   </si>
   <si>
     <t xml:space="preserve">6.15999698638916</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18308305740356</t>
+    <t xml:space="preserve">6.18308258056641</t>
   </si>
   <si>
     <t xml:space="preserve">6.09074020385742</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13306379318237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1407585144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22540616989136</t>
+    <t xml:space="preserve">6.13306283950806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14075946807861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2254056930542</t>
   </si>
   <si>
     <t xml:space="preserve">6.19462537765503</t>
@@ -2990,49 +2990,49 @@
     <t xml:space="preserve">6.17461824417114</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21001529693604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12844657897949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04379987716675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10689973831177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05457353591919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05765104293823</t>
+    <t xml:space="preserve">6.21001482009888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12844705581665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04379940032959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10690021514893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05457258224487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05765151977539</t>
   </si>
   <si>
     <t xml:space="preserve">6.00224590301514</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02225303649902</t>
+    <t xml:space="preserve">6.02225255966187</t>
   </si>
   <si>
     <t xml:space="preserve">6.08535385131836</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02994823455811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95761346817017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01455736160278</t>
+    <t xml:space="preserve">6.02994871139526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95761394500732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0145583152771</t>
   </si>
   <si>
     <t xml:space="preserve">6.04072141647339</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01301956176758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98069906234741</t>
+    <t xml:space="preserve">6.01301908493042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98069953918457</t>
   </si>
   <si>
     <t xml:space="preserve">6.10843944549561</t>
@@ -3044,10 +3044,10 @@
     <t xml:space="preserve">6.082275390625</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16846179962158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23925638198853</t>
+    <t xml:space="preserve">6.16846132278442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23925685882568</t>
   </si>
   <si>
     <t xml:space="preserve">6.21463298797607</t>
@@ -3059,28 +3059,28 @@
     <t xml:space="preserve">6.06688499450684</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08843183517456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03918266296387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12463474273682</t>
+    <t xml:space="preserve">6.0884313583374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03918218612671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12463521957397</t>
   </si>
   <si>
     <t xml:space="preserve">6.07521820068359</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07367467880249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08911657333374</t>
+    <t xml:space="preserve">6.07367420196533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0891170501709</t>
   </si>
   <si>
     <t xml:space="preserve">6.25898838043213</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2435450553894</t>
+    <t xml:space="preserve">6.24354600906372</t>
   </si>
   <si>
     <t xml:space="preserve">6.228102684021</t>
@@ -3089,40 +3089,40 @@
     <t xml:space="preserve">6.24045610427856</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21729230880737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26516628265381</t>
+    <t xml:space="preserve">6.21729278564453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26516532897949</t>
   </si>
   <si>
     <t xml:space="preserve">6.3856201171875</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42422676086426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30686140060425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34546804428101</t>
+    <t xml:space="preserve">6.42422580718994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30686092376709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34546852111816</t>
   </si>
   <si>
     <t xml:space="preserve">6.3717212677002</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34237957000732</t>
+    <t xml:space="preserve">6.34237909317017</t>
   </si>
   <si>
     <t xml:space="preserve">6.44893550872803</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46283435821533</t>
+    <t xml:space="preserve">6.46283388137817</t>
   </si>
   <si>
     <t xml:space="preserve">6.34855699539185</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32384824752808</t>
+    <t xml:space="preserve">6.32384777069092</t>
   </si>
   <si>
     <t xml:space="preserve">6.27906370162964</t>
@@ -3134,31 +3134,31 @@
     <t xml:space="preserve">6.53232717514038</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33311319351196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47982168197632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33465909957886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33774709701538</t>
+    <t xml:space="preserve">6.33311367034912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47982120513916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3346586227417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33774662017822</t>
   </si>
   <si>
     <t xml:space="preserve">6.35936689376831</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35782241821289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36091089248657</t>
+    <t xml:space="preserve">6.35782289505005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36091136932373</t>
   </si>
   <si>
     <t xml:space="preserve">6.32075929641724</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21265888214111</t>
+    <t xml:space="preserve">6.21265935897827</t>
   </si>
   <si>
     <t xml:space="preserve">6.30531740188599</t>
@@ -3167,13 +3167,13 @@
     <t xml:space="preserve">6.40723991394043</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3408350944519</t>
+    <t xml:space="preserve">6.34083557128906</t>
   </si>
   <si>
     <t xml:space="preserve">6.36245489120483</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26979827880859</t>
+    <t xml:space="preserve">6.26979780197144</t>
   </si>
   <si>
     <t xml:space="preserve">6.25744390487671</t>
@@ -3191,55 +3191,55 @@
     <t xml:space="preserve">6.29141807556152</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34701299667358</t>
+    <t xml:space="preserve">6.34701251983643</t>
   </si>
   <si>
     <t xml:space="preserve">6.50452947616577</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51070642471313</t>
+    <t xml:space="preserve">6.51070690155029</t>
   </si>
   <si>
     <t xml:space="preserve">6.4875431060791</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48290920257568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41187286376953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4273157119751</t>
+    <t xml:space="preserve">6.48291063308716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41187238693237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42731618881226</t>
   </si>
   <si>
     <t xml:space="preserve">6.39334106445312</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4381251335144</t>
+    <t xml:space="preserve">6.43812561035156</t>
   </si>
   <si>
     <t xml:space="preserve">6.49680757522583</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57865571975708</t>
+    <t xml:space="preserve">6.57865524291992</t>
   </si>
   <si>
     <t xml:space="preserve">6.66204690933228</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67131233215332</t>
+    <t xml:space="preserve">6.67131328582764</t>
   </si>
   <si>
     <t xml:space="preserve">6.7670578956604</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74698257446289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79022169113159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74852609634399</t>
+    <t xml:space="preserve">6.74698305130005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79022216796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74852657318115</t>
   </si>
   <si>
     <t xml:space="preserve">6.79948759078979</t>
@@ -3254,25 +3254,25 @@
     <t xml:space="preserve">6.69293212890625</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68212223052979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70991897583008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69602203369141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75315999984741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76860237121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78713417053223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78558969497681</t>
+    <t xml:space="preserve">6.68212270736694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70991945266724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69602155685425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75315952301025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76860189437866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78713369369507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78558921813965</t>
   </si>
   <si>
     <t xml:space="preserve">6.81029796600342</t>
@@ -3287,25 +3287,25 @@
     <t xml:space="preserve">6.75933694839478</t>
   </si>
   <si>
-    <t xml:space="preserve">6.75624799728394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72381830215454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88751316070557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93229675292969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88133525848389</t>
+    <t xml:space="preserve">6.75624704360962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7238187789917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88751220703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93229722976685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88133573532104</t>
   </si>
   <si>
     <t xml:space="preserve">6.93847322463989</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87515830993652</t>
+    <t xml:space="preserve">6.87515735626221</t>
   </si>
   <si>
     <t xml:space="preserve">6.66667938232422</t>
@@ -3317,82 +3317,82 @@
     <t xml:space="preserve">7.09907913208008</t>
   </si>
   <si>
-    <t xml:space="preserve">7.04811859130859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07591485977173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07282638549805</t>
+    <t xml:space="preserve">7.04811811447144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07591438293457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07282590866089</t>
   </si>
   <si>
     <t xml:space="preserve">7.15776300430298</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21953296661377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33535432815552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35234212875366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49905014038086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38940477371216</t>
+    <t xml:space="preserve">7.21953392028809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33535480499268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35234260559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4990496635437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38940572738647</t>
   </si>
   <si>
     <t xml:space="preserve">7.52530241012573</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45735359191895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51294803619385</t>
+    <t xml:space="preserve">7.45735263824463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51294755935669</t>
   </si>
   <si>
     <t xml:space="preserve">7.61178207397461</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51758146286011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57626342773438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61487054824829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63771820068359</t>
+    <t xml:space="preserve">7.51757955551147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57626390457153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61487102508545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63771867752075</t>
   </si>
   <si>
     <t xml:space="preserve">7.49894237518311</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5056300163269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41199779510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39862203598022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34177398681641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45212554931641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39360570907593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34511804580688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27823781967163</t>
+    <t xml:space="preserve">7.50563097000122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4119987487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39862298965454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34177303314209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45212602615356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39360523223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34511852264404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27823829650879</t>
   </si>
   <si>
     <t xml:space="preserve">7.36350917816162</t>
@@ -3413,55 +3413,55 @@
     <t xml:space="preserve">7.4554705619812</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53739976882935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58087062835693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58923006057739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65778303146362</t>
+    <t xml:space="preserve">7.53739833831787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58086967468262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58923053741455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65778207778931</t>
   </si>
   <si>
     <t xml:space="preserve">7.64273500442505</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54408740997314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45379829406738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34344625473022</t>
+    <t xml:space="preserve">7.54408693313599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45379972457886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34344720840454</t>
   </si>
   <si>
     <t xml:space="preserve">7.50483989715576</t>
   </si>
   <si>
-    <t xml:space="preserve">7.3657660484314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58038663864136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48251962661743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14599514007568</t>
+    <t xml:space="preserve">7.36576700210571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5803861618042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48251914978027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14599561691284</t>
   </si>
   <si>
     <t xml:space="preserve">7.20265531539917</t>
   </si>
   <si>
-    <t xml:space="preserve">7.08075094223022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26446580886841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20780563354492</t>
+    <t xml:space="preserve">7.08075046539307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26446628570557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20780658721924</t>
   </si>
   <si>
     <t xml:space="preserve">7.24557876586914</t>
@@ -3473,7 +3473,7 @@
     <t xml:space="preserve">7.47736883163452</t>
   </si>
   <si>
-    <t xml:space="preserve">7.40697288513184</t>
+    <t xml:space="preserve">7.40697383880615</t>
   </si>
   <si>
     <t xml:space="preserve">7.340012550354</t>
@@ -3485,7 +3485,7 @@
     <t xml:space="preserve">7.27820110321045</t>
   </si>
   <si>
-    <t xml:space="preserve">7.28335237503052</t>
+    <t xml:space="preserve">7.28335285186768</t>
   </si>
   <si>
     <t xml:space="preserve">7.29880475997925</t>
@@ -3494,7 +3494,7 @@
     <t xml:space="preserve">7.20952224731445</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98631763458252</t>
+    <t xml:space="preserve">6.98631715774536</t>
   </si>
   <si>
     <t xml:space="preserve">7.19235324859619</t>
@@ -3503,7 +3503,7 @@
     <t xml:space="preserve">7.25244665145874</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37091779708862</t>
+    <t xml:space="preserve">7.37091732025146</t>
   </si>
   <si>
     <t xml:space="preserve">7.44302940368652</t>
@@ -3512,22 +3512,22 @@
     <t xml:space="preserve">7.43444442749023</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45161533355713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54433107376099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60099077224731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66623497009277</t>
+    <t xml:space="preserve">7.45161437988281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54433012008667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.600989818573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66623449325562</t>
   </si>
   <si>
     <t xml:space="preserve">7.45504808425903</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59240531921387</t>
+    <t xml:space="preserve">7.59240436553955</t>
   </si>
   <si>
     <t xml:space="preserve">7.66279983520508</t>
@@ -3539,7 +3539,7 @@
     <t xml:space="preserve">7.94953346252441</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97872257232666</t>
+    <t xml:space="preserve">7.9787220954895</t>
   </si>
   <si>
     <t xml:space="preserve">7.82247877120972</t>
@@ -3551,94 +3551,94 @@
     <t xml:space="preserve">7.60442352294922</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59755611419678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50140714645386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16831588745117</t>
+    <t xml:space="preserve">7.59755706787109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5014066696167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16831636428833</t>
   </si>
   <si>
     <t xml:space="preserve">7.17861795425415</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32799291610718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29193782806396</t>
+    <t xml:space="preserve">7.32799339294434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29193735122681</t>
   </si>
   <si>
     <t xml:space="preserve">7.23356056213379</t>
   </si>
   <si>
-    <t xml:space="preserve">7.3520302772522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46363306045532</t>
+    <t xml:space="preserve">7.35203123092651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46363353729248</t>
   </si>
   <si>
     <t xml:space="preserve">7.56665086746216</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49282073974609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2249755859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32112503051758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49453830718994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60614061355591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34859752655029</t>
+    <t xml:space="preserve">7.49282121658325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22497606277466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32112455368042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49453735351562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60614109039307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34859704971313</t>
   </si>
   <si>
     <t xml:space="preserve">7.09792041778564</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29708766937256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24042797088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14256143569946</t>
+    <t xml:space="preserve">7.29708814620972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24042749404907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14256048202515</t>
   </si>
   <si>
     <t xml:space="preserve">7.11852359771729</t>
   </si>
   <si>
-    <t xml:space="preserve">7.04297780990601</t>
+    <t xml:space="preserve">7.04297828674316</t>
   </si>
   <si>
     <t xml:space="preserve">6.97429895401001</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03095817565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43345594406128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.586266040802</t>
+    <t xml:space="preserve">7.03095865249634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43345642089844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58626556396484</t>
   </si>
   <si>
     <t xml:space="preserve">6.32013654708862</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08491230010986</t>
+    <t xml:space="preserve">6.08491325378418</t>
   </si>
   <si>
     <t xml:space="preserve">6.11238431930542</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96987676620483</t>
+    <t xml:space="preserve">5.96987628936768</t>
   </si>
   <si>
     <t xml:space="preserve">5.58012580871582</t>
@@ -3647,19 +3647,19 @@
     <t xml:space="preserve">5.51488161087036</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67284154891968</t>
+    <t xml:space="preserve">5.67284202575684</t>
   </si>
   <si>
     <t xml:space="preserve">6.29438209533691</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92866945266724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06259202957153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16389274597168</t>
+    <t xml:space="preserve">5.92866897583008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06259250640869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16389322280884</t>
   </si>
   <si>
     <t xml:space="preserve">6.2960991859436</t>
@@ -3668,13 +3668,13 @@
     <t xml:space="preserve">6.62403917312622</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57939767837524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56051111221313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51243686676025</t>
+    <t xml:space="preserve">6.5793981552124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56051158905029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5124363899231</t>
   </si>
   <si>
     <t xml:space="preserve">6.68069887161255</t>
@@ -3686,7 +3686,7 @@
     <t xml:space="preserve">6.56909608840942</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62918996810913</t>
+    <t xml:space="preserve">6.62918949127197</t>
   </si>
   <si>
     <t xml:space="preserve">6.66867971420288</t>
@@ -3698,13 +3698,13 @@
     <t xml:space="preserve">6.78886747360229</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65837812423706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77169799804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6995849609375</t>
+    <t xml:space="preserve">6.65837860107422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77169752120972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69958543777466</t>
   </si>
   <si>
     <t xml:space="preserve">6.63777446746826</t>
@@ -3719,13 +3719,13 @@
     <t xml:space="preserve">6.551926612854</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51415252685547</t>
+    <t xml:space="preserve">6.51415348052979</t>
   </si>
   <si>
     <t xml:space="preserve">6.45577669143677</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50900220870972</t>
+    <t xml:space="preserve">6.50900173187256</t>
   </si>
   <si>
     <t xml:space="preserve">6.55879402160645</t>
@@ -3740,7 +3740,7 @@
     <t xml:space="preserve">6.36691427230835</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26923084259033</t>
+    <t xml:space="preserve">6.26923036575317</t>
   </si>
   <si>
     <t xml:space="preserve">6.13665819168091</t>
@@ -3749,7 +3749,7 @@
     <t xml:space="preserve">6.03548622131348</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07735109329224</t>
+    <t xml:space="preserve">6.07735061645508</t>
   </si>
   <si>
     <t xml:space="preserve">6.01978731155396</t>
@@ -3776,16 +3776,16 @@
     <t xml:space="preserve">5.96745586395264</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0302529335022</t>
+    <t xml:space="preserve">6.03025245666504</t>
   </si>
   <si>
     <t xml:space="preserve">6.30237340927124</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14189195632935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19073438644409</t>
+    <t xml:space="preserve">6.14189147949219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19073390960693</t>
   </si>
   <si>
     <t xml:space="preserve">6.22562122344971</t>
@@ -3794,25 +3794,25 @@
     <t xml:space="preserve">6.25004243850708</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16980218887329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20120000839233</t>
+    <t xml:space="preserve">6.16980171203613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20120048522949</t>
   </si>
   <si>
     <t xml:space="preserve">6.39307928085327</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24132108688354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2552752494812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45413255691528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44366598129272</t>
+    <t xml:space="preserve">6.24132061004639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25527477264404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45413303375244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44366645812988</t>
   </si>
   <si>
     <t xml:space="preserve">6.41226816177368</t>
@@ -3821,16 +3821,16 @@
     <t xml:space="preserve">6.34074926376343</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23608732223511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38435888290405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29539585113525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20643329620361</t>
+    <t xml:space="preserve">6.23608779907227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38435840606689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2953953742981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20643281936646</t>
   </si>
   <si>
     <t xml:space="preserve">6.0215311050415</t>
@@ -3839,7 +3839,7 @@
     <t xml:space="preserve">5.61160659790039</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34995222091675</t>
+    <t xml:space="preserve">5.34995269775391</t>
   </si>
   <si>
     <t xml:space="preserve">5.56450891494751</t>
@@ -3848,10 +3848,10 @@
     <t xml:space="preserve">5.64823770523071</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43368148803711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47903490066528</t>
+    <t xml:space="preserve">5.43368196487427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47903537750244</t>
   </si>
   <si>
     <t xml:space="preserve">5.55055379867554</t>
@@ -3860,7 +3860,7 @@
     <t xml:space="preserve">5.5522985458374</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58718538284302</t>
+    <t xml:space="preserve">5.58718585968018</t>
   </si>
   <si>
     <t xml:space="preserve">5.74941110610962</t>
@@ -3869,25 +3869,25 @@
     <t xml:space="preserve">5.6046290397644</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61683988571167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58369636535645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47554588317871</t>
+    <t xml:space="preserve">5.61683940887451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5836968421936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47554636001587</t>
   </si>
   <si>
     <t xml:space="preserve">5.49996757507324</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48077964782715</t>
+    <t xml:space="preserve">5.48077917098999</t>
   </si>
   <si>
     <t xml:space="preserve">5.20865964889526</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30111074447632</t>
+    <t xml:space="preserve">5.30111122131348</t>
   </si>
   <si>
     <t xml:space="preserve">5.45984697341919</t>
@@ -3902,13 +3902,13 @@
     <t xml:space="preserve">5.54008817672729</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46333646774292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26971197128296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3272762298584</t>
+    <t xml:space="preserve">5.46333599090576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2697114944458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32727575302124</t>
   </si>
   <si>
     <t xml:space="preserve">5.40751600265503</t>
@@ -3926,10 +3926,10 @@
     <t xml:space="preserve">5.43891525268555</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38309574127197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41449403762817</t>
+    <t xml:space="preserve">5.38309526443481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41449451446533</t>
   </si>
   <si>
     <t xml:space="preserve">5.62556123733521</t>
@@ -3953,16 +3953,16 @@
     <t xml:space="preserve">5.95350170135498</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92384719848633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9692006111145</t>
+    <t xml:space="preserve">5.92384672164917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96920013427734</t>
   </si>
   <si>
     <t xml:space="preserve">6.00408744812012</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03897476196289</t>
+    <t xml:space="preserve">6.03897428512573</t>
   </si>
   <si>
     <t xml:space="preserve">5.97617769241333</t>
@@ -3980,7 +3980,7 @@
     <t xml:space="preserve">5.63079452514648</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73022317886353</t>
+    <t xml:space="preserve">5.73022270202637</t>
   </si>
   <si>
     <t xml:space="preserve">5.67091512680054</t>
@@ -3989,28 +3989,28 @@
     <t xml:space="preserve">5.59939622879028</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46682500839233</t>
+    <t xml:space="preserve">5.46682453155518</t>
   </si>
   <si>
     <t xml:space="preserve">5.57846355438232</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5627646446228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43193769454956</t>
+    <t xml:space="preserve">5.56276416778564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4319372177124</t>
   </si>
   <si>
     <t xml:space="preserve">5.69010257720947</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51043319702148</t>
+    <t xml:space="preserve">5.51043367385864</t>
   </si>
   <si>
     <t xml:space="preserve">5.54880952835083</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62032842636108</t>
+    <t xml:space="preserve">5.62032794952393</t>
   </si>
   <si>
     <t xml:space="preserve">5.63777208328247</t>
@@ -4025,7 +4025,7 @@
     <t xml:space="preserve">5.87326097488403</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9587345123291</t>
+    <t xml:space="preserve">5.95873403549194</t>
   </si>
   <si>
     <t xml:space="preserve">5.7354564666748</t>
@@ -4034,16 +4034,16 @@
     <t xml:space="preserve">5.70056867599487</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78080940246582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51915550231934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58544111251831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62730646133423</t>
+    <t xml:space="preserve">5.78080892562866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51915597915649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58544063568115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62730598449707</t>
   </si>
   <si>
     <t xml:space="preserve">5.41798210144043</t>
@@ -4055,10 +4055,10 @@
     <t xml:space="preserve">5.51566648483276</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56974220275879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40926170349121</t>
+    <t xml:space="preserve">5.56974172592163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40926122665405</t>
   </si>
   <si>
     <t xml:space="preserve">5.64300489425659</t>
@@ -4070,13 +4070,13 @@
     <t xml:space="preserve">5.85407209396362</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83314037322998</t>
+    <t xml:space="preserve">5.83314085006714</t>
   </si>
   <si>
     <t xml:space="preserve">5.77383184432983</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78778743743896</t>
+    <t xml:space="preserve">5.78778696060181</t>
   </si>
   <si>
     <t xml:space="preserve">5.7337121963501</t>
@@ -4088,22 +4088,22 @@
     <t xml:space="preserve">5.75813293457031</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80871963500977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93605709075928</t>
+    <t xml:space="preserve">5.80871915817261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93605756759644</t>
   </si>
   <si>
     <t xml:space="preserve">6.0110650062561</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08781719207764</t>
+    <t xml:space="preserve">6.08781671524048</t>
   </si>
   <si>
     <t xml:space="preserve">6.12270402908325</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15061378479004</t>
+    <t xml:space="preserve">6.15061330795288</t>
   </si>
   <si>
     <t xml:space="preserve">6.223876953125</t>
@@ -4115,7 +4115,7 @@
     <t xml:space="preserve">6.42447853088379</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55356121063232</t>
+    <t xml:space="preserve">6.55356073379517</t>
   </si>
   <si>
     <t xml:space="preserve">6.63380193710327</t>
@@ -4130,10 +4130,10 @@
     <t xml:space="preserve">6.57798194885254</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60065841674805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7402081489563</t>
+    <t xml:space="preserve">6.60065889358521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74020767211914</t>
   </si>
   <si>
     <t xml:space="preserve">6.80125999450684</t>
@@ -4145,7 +4145,7 @@
     <t xml:space="preserve">6.78904962539673</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98092889785767</t>
+    <t xml:space="preserve">6.98092937469482</t>
   </si>
   <si>
     <t xml:space="preserve">6.89720010757446</t>
@@ -4154,10 +4154,10 @@
     <t xml:space="preserve">7.00534963607788</t>
   </si>
   <si>
-    <t xml:space="preserve">7.04547023773193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01058340072632</t>
+    <t xml:space="preserve">7.04547071456909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01058387756348</t>
   </si>
   <si>
     <t xml:space="preserve">7.00186157226562</t>
@@ -4166,13 +4166,13 @@
     <t xml:space="preserve">7.05419254302979</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0595850944519</t>
+    <t xml:space="preserve">7.05958557128906</t>
   </si>
   <si>
     <t xml:space="preserve">7.08475303649902</t>
   </si>
   <si>
-    <t xml:space="preserve">7.11531400680542</t>
+    <t xml:space="preserve">7.11531448364258</t>
   </si>
   <si>
     <t xml:space="preserve">7.02542924880981</t>
@@ -4214,13 +4214,13 @@
     <t xml:space="preserve">7.09913444519043</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10273027420044</t>
+    <t xml:space="preserve">7.1027307510376</t>
   </si>
   <si>
     <t xml:space="preserve">6.98408174514771</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9319486618042</t>
+    <t xml:space="preserve">6.93194818496704</t>
   </si>
   <si>
     <t xml:space="preserve">7.11171865463257</t>
@@ -4235,7 +4235,7 @@
     <t xml:space="preserve">7.00924968719482</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09733724594116</t>
+    <t xml:space="preserve">7.097336769104</t>
   </si>
   <si>
     <t xml:space="preserve">7.117112159729</t>
@@ -4253,7 +4253,7 @@
     <t xml:space="preserve">7.44609212875366</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46047353744507</t>
+    <t xml:space="preserve">7.46047401428223</t>
   </si>
   <si>
     <t xml:space="preserve">7.59350347518921</t>
@@ -4265,10 +4265,10 @@
     <t xml:space="preserve">7.71754550933838</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71934270858765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70675992965698</t>
+    <t xml:space="preserve">7.7193431854248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70675897598267</t>
   </si>
   <si>
     <t xml:space="preserve">7.56114482879639</t>
@@ -4280,19 +4280,19 @@
     <t xml:space="preserve">7.67260265350342</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73731994628906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7984414100647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81641960144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88113594055176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87933874130249</t>
+    <t xml:space="preserve">7.7373194694519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79844236373901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81641864776611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88113689422607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87933778762817</t>
   </si>
   <si>
     <t xml:space="preserve">7.96023559570312</t>
@@ -4304,13 +4304,13 @@
     <t xml:space="preserve">8.03034591674805</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08787155151367</t>
+    <t xml:space="preserve">8.08787250518799</t>
   </si>
   <si>
     <t xml:space="preserve">8.13101673126221</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17775726318359</t>
+    <t xml:space="preserve">8.17775630950928</t>
   </si>
   <si>
     <t xml:space="preserve">8.17955589294434</t>
@@ -4325,7 +4325,7 @@
     <t xml:space="preserve">8.26404762268066</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28561973571777</t>
+    <t xml:space="preserve">8.28562068939209</t>
   </si>
   <si>
     <t xml:space="preserve">8.32337188720703</t>
@@ -4334,7 +4334,7 @@
     <t xml:space="preserve">8.34314632415771</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16157722473145</t>
+    <t xml:space="preserve">8.16157817840576</t>
   </si>
   <si>
     <t xml:space="preserve">8.09326553344727</t>
@@ -4343,10 +4343,10 @@
     <t xml:space="preserve">8.12742137908936</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19753170013428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24786758422852</t>
+    <t xml:space="preserve">8.19753265380859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24786853790283</t>
   </si>
   <si>
     <t xml:space="preserve">8.2388801574707</t>
@@ -4364,22 +4364,22 @@
     <t xml:space="preserve">8.37909984588623</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43482971191406</t>
+    <t xml:space="preserve">8.43482875823975</t>
   </si>
   <si>
     <t xml:space="preserve">8.08427810668945</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45687818527222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62945747375488</t>
+    <t xml:space="preserve">7.45687770843506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62945795059204</t>
   </si>
   <si>
     <t xml:space="preserve">7.23216485977173</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30227518081665</t>
+    <t xml:space="preserve">7.30227565765381</t>
   </si>
   <si>
     <t xml:space="preserve">7.06138324737549</t>
@@ -4388,10 +4388,10 @@
     <t xml:space="preserve">7.33283662796021</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59170627593994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44968795776367</t>
+    <t xml:space="preserve">7.59170579910278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44968748092651</t>
   </si>
   <si>
     <t xml:space="preserve">7.33822917938232</t>
@@ -4406,19 +4406,19 @@
     <t xml:space="preserve">7.41193580627441</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51979780197144</t>
+    <t xml:space="preserve">7.51979827880859</t>
   </si>
   <si>
     <t xml:space="preserve">7.51260662078857</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60608768463135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55754899978638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47485494613647</t>
+    <t xml:space="preserve">7.60608816146851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55754947662354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47485542297363</t>
   </si>
   <si>
     <t xml:space="preserve">7.64923286437988</t>
@@ -4427,7 +4427,7 @@
     <t xml:space="preserve">7.66720914840698</t>
   </si>
   <si>
-    <t xml:space="preserve">7.6779956817627</t>
+    <t xml:space="preserve">7.67799520492554</t>
   </si>
   <si>
     <t xml:space="preserve">7.76428461074829</t>
@@ -4442,10 +4442,10 @@
     <t xml:space="preserve">7.68518686294556</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74630880355835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76855182647705</t>
+    <t xml:space="preserve">7.74630832672119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76855230331421</t>
   </si>
   <si>
     <t xml:space="preserve">7.65548133850098</t>
@@ -4466,19 +4466,19 @@
     <t xml:space="preserve">7.43304634094238</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29031658172607</t>
+    <t xml:space="preserve">7.29031610488892</t>
   </si>
   <si>
     <t xml:space="preserve">7.5090446472168</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51089763641357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50533676147461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34221792221069</t>
+    <t xml:space="preserve">7.51089811325073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50533628463745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34221744537354</t>
   </si>
   <si>
     <t xml:space="preserve">7.22173166275024</t>
@@ -4490,16 +4490,16 @@
     <t xml:space="preserve">7.27734136581421</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27919435501099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37372922897339</t>
+    <t xml:space="preserve">7.27919483184814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37372970581055</t>
   </si>
   <si>
     <t xml:space="preserve">7.35890054702759</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54240942001343</t>
+    <t xml:space="preserve">7.54240894317627</t>
   </si>
   <si>
     <t xml:space="preserve">7.57762813568115</t>
@@ -4514,7 +4514,7 @@
     <t xml:space="preserve">7.44787502288818</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4423131942749</t>
+    <t xml:space="preserve">7.44231367111206</t>
   </si>
   <si>
     <t xml:space="preserve">7.36446142196655</t>
@@ -4529,13 +4529,13 @@
     <t xml:space="preserve">7.62396907806396</t>
   </si>
   <si>
-    <t xml:space="preserve">7.55723905563354</t>
+    <t xml:space="preserve">7.55723857879639</t>
   </si>
   <si>
     <t xml:space="preserve">7.57392120361328</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59801816940308</t>
+    <t xml:space="preserve">7.59801864624023</t>
   </si>
   <si>
     <t xml:space="preserve">7.58504295349121</t>
@@ -4544,31 +4544,31 @@
     <t xml:space="preserve">7.58689641952515</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61655521392822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65918827056885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69626092910767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72777271270752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75001668930054</t>
+    <t xml:space="preserve">7.61655473709106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65918779373169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69626045227051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72777223587036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75001621246338</t>
   </si>
   <si>
     <t xml:space="preserve">7.76113700866699</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71108961105347</t>
+    <t xml:space="preserve">7.71108913421631</t>
   </si>
   <si>
     <t xml:space="preserve">7.72962617874146</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63694477081299</t>
+    <t xml:space="preserve">7.63694429397583</t>
   </si>
   <si>
     <t xml:space="preserve">7.57206773757935</t>
@@ -4589,16 +4589,16 @@
     <t xml:space="preserve">7.6907000541687</t>
   </si>
   <si>
-    <t xml:space="preserve">7.55167722702026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48865461349487</t>
+    <t xml:space="preserve">7.55167770385742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48865413665771</t>
   </si>
   <si>
     <t xml:space="preserve">7.29402351379395</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41821622848511</t>
+    <t xml:space="preserve">7.41821670532227</t>
   </si>
   <si>
     <t xml:space="preserve">7.47011852264404</t>
@@ -4610,19 +4610,19 @@
     <t xml:space="preserve">7.65733480453491</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73333358764648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73147916793823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75372314453125</t>
+    <t xml:space="preserve">7.73333311080933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73147964477539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75372362136841</t>
   </si>
   <si>
     <t xml:space="preserve">7.92240333557129</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96318340301514</t>
+    <t xml:space="preserve">7.96318292617798</t>
   </si>
   <si>
     <t xml:space="preserve">7.9705982208252</t>
@@ -4652,19 +4652,19 @@
     <t xml:space="preserve">7.88533163070679</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82786846160889</t>
+    <t xml:space="preserve">7.82786798477173</t>
   </si>
   <si>
     <t xml:space="preserve">7.81303930282593</t>
   </si>
   <si>
-    <t xml:space="preserve">7.81674671173096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80006408691406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33480358123779</t>
+    <t xml:space="preserve">7.8167462348938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80006456375122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33480310440063</t>
   </si>
   <si>
     <t xml:space="preserve">7.53128814697266</t>
@@ -4673,7 +4673,7 @@
     <t xml:space="preserve">7.6258225440979</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73889446258545</t>
+    <t xml:space="preserve">7.73889493942261</t>
   </si>
   <si>
     <t xml:space="preserve">7.56094598770142</t>
@@ -4688,10 +4688,10 @@
     <t xml:space="preserve">7.56279945373535</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54426336288452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53684854507446</t>
+    <t xml:space="preserve">7.54426383972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53684902191162</t>
   </si>
   <si>
     <t xml:space="preserve">7.61470079421997</t>
@@ -4715,7 +4715,7 @@
     <t xml:space="preserve">7.78523397445679</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7945032119751</t>
+    <t xml:space="preserve">7.79450225830078</t>
   </si>
   <si>
     <t xml:space="preserve">7.77411270141602</t>
@@ -4724,10 +4724,10 @@
     <t xml:space="preserve">7.83528327941895</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67957782745361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71665048599243</t>
+    <t xml:space="preserve">7.67957830429077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71665096282959</t>
   </si>
   <si>
     <t xml:space="preserve">7.8074779510498</t>
@@ -4751,10 +4751,10 @@
     <t xml:space="preserve">7.37743663787842</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47382593154907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3403639793396</t>
+    <t xml:space="preserve">7.47382545471191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34036445617676</t>
   </si>
   <si>
     <t xml:space="preserve">7.44046020507812</t>
@@ -4763,7 +4763,7 @@
     <t xml:space="preserve">7.46455717086792</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33665657043457</t>
+    <t xml:space="preserve">7.33665704727173</t>
   </si>
   <si>
     <t xml:space="preserve">7.36075401306152</t>
@@ -4790,7 +4790,7 @@
     <t xml:space="preserve">7.0382227897644</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0474910736084</t>
+    <t xml:space="preserve">7.04749155044556</t>
   </si>
   <si>
     <t xml:space="preserve">7.04193019866943</t>
@@ -4802,7 +4802,7 @@
     <t xml:space="preserve">7.1420259475708</t>
   </si>
   <si>
-    <t xml:space="preserve">7.17724466323853</t>
+    <t xml:space="preserve">7.17724514007568</t>
   </si>
   <si>
     <t xml:space="preserve">7.31997394561768</t>
@@ -4811,7 +4811,7 @@
     <t xml:space="preserve">7.46641063690186</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37929058074951</t>
+    <t xml:space="preserve">7.37929010391235</t>
   </si>
   <si>
     <t xml:space="preserve">7.40524101257324</t>
@@ -4820,25 +4820,25 @@
     <t xml:space="preserve">7.42377758026123</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59987211227417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58133602142334</t>
+    <t xml:space="preserve">7.59987163543701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5813364982605</t>
   </si>
   <si>
     <t xml:space="preserve">7.77225923538208</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91498804092407</t>
+    <t xml:space="preserve">7.91498899459839</t>
   </si>
   <si>
     <t xml:space="preserve">7.89645290374756</t>
   </si>
   <si>
-    <t xml:space="preserve">7.77782011032104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80191802978516</t>
+    <t xml:space="preserve">7.7778205871582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.801917552948</t>
   </si>
   <si>
     <t xml:space="preserve">7.91312694549561</t>
@@ -5223,6 +5223,9 @@
   </si>
   <si>
     <t xml:space="preserve">10.3599996566772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6199998855591</t>
   </si>
 </sst>
 </file>
@@ -61646,7 +61649,7 @@
     </row>
     <row r="2158">
       <c r="A2158" s="1" t="n">
-        <v>45467.6493171296</v>
+        <v>45467.2916666667</v>
       </c>
       <c r="B2158" t="n">
         <v>1298431</v>
@@ -61667,6 +61670,32 @@
         <v>1724</v>
       </c>
       <c r="H2158" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2159">
+      <c r="A2159" s="1" t="n">
+        <v>45468.6495717593</v>
+      </c>
+      <c r="B2159" t="n">
+        <v>673947</v>
+      </c>
+      <c r="C2159" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="D2159" t="n">
+        <v>10.5900001525879</v>
+      </c>
+      <c r="E2159" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="F2159" t="n">
+        <v>10.6199998855591</v>
+      </c>
+      <c r="G2159" t="s">
+        <v>1737</v>
+      </c>
+      <c r="H2159" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BMED.MI.xlsx
+++ b/data/BMED.MI.xlsx
@@ -38,145 +38,145 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32330417633057</t>
+    <t xml:space="preserve">4.32330465316772</t>
   </si>
   <si>
     <t xml:space="preserve">BMED.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26425075531006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99385070800781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9006085395813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89439272880554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92236495018005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.034255027771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04047155380249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75452995300293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72344970703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76074647903442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54318284988403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66750407218933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90682530403137</t>
+    <t xml:space="preserve">4.26425123214722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99385094642639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90060925483704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89439249038696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92236471176147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03425455093384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04047060012817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75453042984009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72344994544983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76074600219727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5431821346283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66750502586365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90682435035706</t>
   </si>
   <si>
     <t xml:space="preserve">3.91614890098572</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91925668716431</t>
+    <t xml:space="preserve">3.91925740242004</t>
   </si>
   <si>
     <t xml:space="preserve">3.82912349700928</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84155559539795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68615341186523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58669471740723</t>
+    <t xml:space="preserve">3.84155607223511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6861526966095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58669519424438</t>
   </si>
   <si>
     <t xml:space="preserve">3.64264059066772</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77628684043884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.46237301826477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30386304855347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60534429550171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71723389625549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78561043739319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88817572593689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84466409683228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84777164459229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95966196060181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92547249794006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83844685554504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98763418197632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0746603012085</t>
+    <t xml:space="preserve">3.77628588676453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.46237397193909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30386185646057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60534381866455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71723413467407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78561162948608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88817644119263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84466433525085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84777212142944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95966172218323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92547345161438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83844757080078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9876344203949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07465934753418</t>
   </si>
   <si>
     <t xml:space="preserve">4.07155227661133</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21763038635254</t>
+    <t xml:space="preserve">4.21762895584106</t>
   </si>
   <si>
     <t xml:space="preserve">4.23938655853271</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13371229171753</t>
+    <t xml:space="preserve">4.13371324539185</t>
   </si>
   <si>
     <t xml:space="preserve">4.21141386032104</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20830583572388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27357625961304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34816837310791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33262825012207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30154848098755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23006248474121</t>
+    <t xml:space="preserve">4.20830631256104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27357530593872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34816884994507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33262872695923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30154895782471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23006200790405</t>
   </si>
   <si>
     <t xml:space="preserve">4.28600692749023</t>
@@ -185,34 +185,34 @@
     <t xml:space="preserve">4.25181913375854</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22073793411255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17411804199219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35749292373657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39168071746826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41654539108276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24249505996704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1523609161377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04668807983398</t>
+    <t xml:space="preserve">4.22073841094971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17411756515503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35749340057373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39168167114258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41654586791992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24249362945557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15236139297485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04668760299683</t>
   </si>
   <si>
     <t xml:space="preserve">4.27979135513306</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3139796257019</t>
+    <t xml:space="preserve">4.31398010253906</t>
   </si>
   <si>
     <t xml:space="preserve">4.27046728134155</t>
@@ -221,22 +221,22 @@
     <t xml:space="preserve">4.43208646774292</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47559833526611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40100622177124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50564002990723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43905448913574</t>
+    <t xml:space="preserve">4.47559881210327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40100526809692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50564050674438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4390549659729</t>
   </si>
   <si>
     <t xml:space="preserve">4.51198148727417</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54051876068115</t>
+    <t xml:space="preserve">4.54051828384399</t>
   </si>
   <si>
     <t xml:space="preserve">4.53100681304932</t>
@@ -248,22 +248,22 @@
     <t xml:space="preserve">4.4834451675415</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44222545623779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57222604751587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55637264251709</t>
+    <t xml:space="preserve">4.44222497940063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57222700119019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55637168884277</t>
   </si>
   <si>
     <t xml:space="preserve">4.61661720275879</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48978662490845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6578369140625</t>
+    <t xml:space="preserve">4.48978710174561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65783596038818</t>
   </si>
   <si>
     <t xml:space="preserve">4.56588459014893</t>
@@ -278,22 +278,22 @@
     <t xml:space="preserve">4.4866156578064</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49612903594971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48027420043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51515197753906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4771032333374</t>
+    <t xml:space="preserve">4.49612808227539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48027515411377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51515245437622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47710371017456</t>
   </si>
   <si>
     <t xml:space="preserve">4.50247001647949</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66100740432739</t>
+    <t xml:space="preserve">4.66100692749023</t>
   </si>
   <si>
     <t xml:space="preserve">4.90198469161987</t>
@@ -302,22 +302,22 @@
     <t xml:space="preserve">4.83856964111328</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75613021850586</t>
+    <t xml:space="preserve">4.7561297416687</t>
   </si>
   <si>
     <t xml:space="preserve">4.78466701507568</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81637334823608</t>
+    <t xml:space="preserve">4.81637382507324</t>
   </si>
   <si>
     <t xml:space="preserve">4.77832508087158</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72442197799683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74661827087402</t>
+    <t xml:space="preserve">4.72442245483398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74661779403687</t>
   </si>
   <si>
     <t xml:space="preserve">4.60710430145264</t>
@@ -326,25 +326,25 @@
     <t xml:space="preserve">4.62930011749268</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68003177642822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6419825553894</t>
+    <t xml:space="preserve">4.68003129959106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64198350906372</t>
   </si>
   <si>
     <t xml:space="preserve">4.22027254104614</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03319883346558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05856466293335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98563671112061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11563730239868</t>
+    <t xml:space="preserve">4.03319835662842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05856418609619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98563623428345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11563777923584</t>
   </si>
   <si>
     <t xml:space="preserve">4.32490730285645</t>
@@ -359,40 +359,40 @@
     <t xml:space="preserve">4.50881099700928</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8302698135376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58612203598022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73514676094055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69709825515747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89051461219788</t>
+    <t xml:space="preserve">3.83027029037476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58612275123596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73514628410339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69709873199463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8905143737793</t>
   </si>
   <si>
     <t xml:space="preserve">3.90002655982971</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75734353065491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70661044120789</t>
+    <t xml:space="preserve">3.75734210014343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70661067962646</t>
   </si>
   <si>
     <t xml:space="preserve">3.64636659622192</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67173266410828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87466096878052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9729540348053</t>
+    <t xml:space="preserve">3.67173218727112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87466049194336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97295355796814</t>
   </si>
   <si>
     <t xml:space="preserve">4.1092963218689</t>
@@ -407,10 +407,10 @@
     <t xml:space="preserve">4.04271030426025</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06490468978882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04588174819946</t>
+    <t xml:space="preserve">4.06490516662598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04588079452515</t>
   </si>
   <si>
     <t xml:space="preserve">4.01417350769043</t>
@@ -419,19 +419,19 @@
     <t xml:space="preserve">4.15368700027466</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09027147293091</t>
+    <t xml:space="preserve">4.09027242660522</t>
   </si>
   <si>
     <t xml:space="preserve">4.1600284576416</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87783169746399</t>
+    <t xml:space="preserve">3.87783050537109</t>
   </si>
   <si>
     <t xml:space="preserve">3.82075786590576</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90636801719666</t>
+    <t xml:space="preserve">3.90636825561523</t>
   </si>
   <si>
     <t xml:space="preserve">4.05222225189209</t>
@@ -440,31 +440,31 @@
     <t xml:space="preserve">4.07758855819702</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96344208717346</t>
+    <t xml:space="preserve">3.96344184875488</t>
   </si>
   <si>
     <t xml:space="preserve">3.89685606956482</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94441628456116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85246562957764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97612476348877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01734447479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.941246509552</t>
+    <t xml:space="preserve">3.94441723823547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85246443748474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97612547874451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01734399795532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94124627113342</t>
   </si>
   <si>
     <t xml:space="preserve">3.96978306770325</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01100254058838</t>
+    <t xml:space="preserve">4.0110034942627</t>
   </si>
   <si>
     <t xml:space="preserve">4.07441854476929</t>
@@ -476,130 +476,130 @@
     <t xml:space="preserve">4.0553936958313</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08075904846191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17271137237549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11246681213379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98880743980408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02368593215942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00783252716064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78587937355042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85880565643311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77953720092773</t>
+    <t xml:space="preserve">4.08076000213623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17271184921265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11246728897095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98880767822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02368640899658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00783109664917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78587889671326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85880637168884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77953791618347</t>
   </si>
   <si>
     <t xml:space="preserve">3.83978199958801</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87148928642273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76685476303101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65270805358887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69075679779053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76051378250122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73197722434998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74148869514465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92222213745117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88100290298462</t>
+    <t xml:space="preserve">3.87148952484131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76685500144958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65270757675171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69075727462769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76051306724548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73197627067566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74148941040039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92222237586975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88100218772888</t>
   </si>
   <si>
     <t xml:space="preserve">3.95709991455078</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89368486404419</t>
+    <t xml:space="preserve">3.89368581771851</t>
   </si>
   <si>
     <t xml:space="preserve">3.95392918586731</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79539179801941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.868319272995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91905093193054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92539286613464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00149011611938</t>
+    <t xml:space="preserve">3.79539251327515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86831903457642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9190514087677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92539262771606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00149059295654</t>
   </si>
   <si>
     <t xml:space="preserve">4.07124710083008</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84295296669006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8144166469574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.950758934021</t>
+    <t xml:space="preserve">3.84295392036438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81441593170166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95075869560242</t>
   </si>
   <si>
     <t xml:space="preserve">4.04905223846436</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90953850746155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86514830589294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77002573013306</t>
+    <t xml:space="preserve">3.90953922271729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8651487827301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7700252532959</t>
   </si>
   <si>
     <t xml:space="preserve">3.75047564506531</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85148620605469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87429594993591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85800361633301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90036416053772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94924020767212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98182511329651</t>
+    <t xml:space="preserve">3.85148739814758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87429547309875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85800409317017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9003643989563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94924116134644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98182463645935</t>
   </si>
   <si>
     <t xml:space="preserve">4.03395986557007</t>
@@ -608,34 +608,34 @@
     <t xml:space="preserve">4.06980323791504</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26531028747559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3402533531189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67587375640869</t>
+    <t xml:space="preserve">4.26530933380127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34025430679321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67587471008301</t>
   </si>
   <si>
     <t xml:space="preserve">4.51295185089111</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44778347015381</t>
+    <t xml:space="preserve">4.44778203964233</t>
   </si>
   <si>
     <t xml:space="preserve">4.51621007919312</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49991798400879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49014282226562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40542268753052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4836254119873</t>
+    <t xml:space="preserve">4.49991846084595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49014329910278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40542364120483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48362636566162</t>
   </si>
   <si>
     <t xml:space="preserve">4.46081686019897</t>
@@ -644,13 +644,13 @@
     <t xml:space="preserve">4.49665975570679</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50317668914795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48036766052246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45104169845581</t>
+    <t xml:space="preserve">4.50317621231079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48036813735962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45104122161865</t>
   </si>
   <si>
     <t xml:space="preserve">4.50643539428711</t>
@@ -659,31 +659,31 @@
     <t xml:space="preserve">4.52924394607544</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69216585159302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7117166519165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61722183227539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65958213806152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84857225418091</t>
+    <t xml:space="preserve">4.69216680526733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71171760559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61722230911255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65958166122437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84857177734375</t>
   </si>
   <si>
     <t xml:space="preserve">4.74104261398315</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91374158859253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81598806381226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80295467376709</t>
+    <t xml:space="preserve">4.91374111175537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8159875869751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80295372009277</t>
   </si>
   <si>
     <t xml:space="preserve">4.87463998794556</t>
@@ -692,100 +692,100 @@
     <t xml:space="preserve">4.8127293586731</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80621242523193</t>
+    <t xml:space="preserve">4.80621194839478</t>
   </si>
   <si>
     <t xml:space="preserve">4.68239068984985</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83879709243774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77688598632812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76385259628296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77036952972412</t>
+    <t xml:space="preserve">4.8387975692749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77688694000244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76385307312012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77037000656128</t>
   </si>
   <si>
     <t xml:space="preserve">4.60744714736938</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61396455764771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66609907150269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64980697631836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53576183319092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56182861328125</t>
+    <t xml:space="preserve">4.61396312713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66609859466553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64980745315552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53576135635376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56182909011841</t>
   </si>
   <si>
     <t xml:space="preserve">4.54879522323608</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63677310943604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69868278503418</t>
+    <t xml:space="preserve">4.63677263259888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69868469238281</t>
   </si>
   <si>
     <t xml:space="preserve">4.64003133773804</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62373971939087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60092926025391</t>
+    <t xml:space="preserve">4.62373876571655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60093021392822</t>
   </si>
   <si>
     <t xml:space="preserve">4.29137754440308</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15452241897583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12519645690918</t>
+    <t xml:space="preserve">4.15452194213867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12519693374634</t>
   </si>
   <si>
     <t xml:space="preserve">4.0209264755249</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04047775268555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01766777038574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15126466751099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20665740966797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16103935241699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17081546783447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21643400192261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2490177154541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26205110549927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35980463027954</t>
+    <t xml:space="preserve">4.04047679901123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0176682472229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15126371383667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20665788650513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16103982925415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17081451416016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21643352508545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24901723861694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26205158233643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35980558395386</t>
   </si>
   <si>
     <t xml:space="preserve">4.32722043991089</t>
@@ -794,22 +794,22 @@
     <t xml:space="preserve">4.35328817367554</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39564800262451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3044114112854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32070302963257</t>
+    <t xml:space="preserve">4.39564752578735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30441093444824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32070350646973</t>
   </si>
   <si>
     <t xml:space="preserve">4.34351253509521</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37935638427734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39890575408936</t>
+    <t xml:space="preserve">4.37935543060303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39890623092651</t>
   </si>
   <si>
     <t xml:space="preserve">4.46407508850098</t>
@@ -818,40 +818,40 @@
     <t xml:space="preserve">4.4738507270813</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50969457626343</t>
+    <t xml:space="preserve">4.50969409942627</t>
   </si>
   <si>
     <t xml:space="preserve">4.54227828979492</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48688411712646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44452476501465</t>
+    <t xml:space="preserve">4.48688459396362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44452428817749</t>
   </si>
   <si>
     <t xml:space="preserve">4.40216493606567</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36632204055786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.424973487854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58973073959351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59634447097778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66578483581543</t>
+    <t xml:space="preserve">4.36632108688354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42497444152832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58973026275635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59634351730347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66578435897827</t>
   </si>
   <si>
     <t xml:space="preserve">4.60295724868774</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64594459533691</t>
+    <t xml:space="preserve">4.64594554901123</t>
   </si>
   <si>
     <t xml:space="preserve">4.61949157714844</t>
@@ -863,16 +863,16 @@
     <t xml:space="preserve">4.65917158126831</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73853349685669</t>
+    <t xml:space="preserve">4.73853254318237</t>
   </si>
   <si>
     <t xml:space="preserve">4.74183988571167</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70877265930176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86088132858276</t>
+    <t xml:space="preserve">4.70877313613892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86088180541992</t>
   </si>
   <si>
     <t xml:space="preserve">4.8674955368042</t>
@@ -881,91 +881,91 @@
     <t xml:space="preserve">4.88072156906128</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87741565704346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92040300369263</t>
+    <t xml:space="preserve">4.87741613388062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92040205001831</t>
   </si>
   <si>
     <t xml:space="preserve">4.79805469512939</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81128120422363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8906421661377</t>
+    <t xml:space="preserve">4.81128072738647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89064168930054</t>
   </si>
   <si>
     <t xml:space="preserve">4.99315071105957</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05597877502441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99976444244385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00637722015381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98323059082031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88733577728271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84765481948853</t>
+    <t xml:space="preserve">5.0559778213501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99976396560669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00637769699097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98323106765747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88733625411987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84765529632568</t>
   </si>
   <si>
     <t xml:space="preserve">4.93693733215332</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81789398193359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94355010986328</t>
+    <t xml:space="preserve">4.81789445877075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94354963302612</t>
   </si>
   <si>
     <t xml:space="preserve">4.96008396148682</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90717601776123</t>
+    <t xml:space="preserve">4.90717649459839</t>
   </si>
   <si>
     <t xml:space="preserve">4.82120132446289</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7947473526001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83112144470215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91378927230835</t>
+    <t xml:space="preserve">4.79474830627441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83112096786499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91378879547119</t>
   </si>
   <si>
     <t xml:space="preserve">4.80466794967651</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85096216201782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75837421417236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83773469924927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89394950866699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84104156494141</t>
+    <t xml:space="preserve">4.85096168518066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75837326049805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83773517608643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89394903182983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84104204177856</t>
   </si>
   <si>
     <t xml:space="preserve">4.8542685508728</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90056276321411</t>
+    <t xml:space="preserve">4.90056228637695</t>
   </si>
   <si>
     <t xml:space="preserve">5.02621793746948</t>
@@ -974,7 +974,7 @@
     <t xml:space="preserve">4.89725637435913</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93032312393188</t>
+    <t xml:space="preserve">4.93032264709473</t>
   </si>
   <si>
     <t xml:space="preserve">4.91048288345337</t>
@@ -986,136 +986,136 @@
     <t xml:space="preserve">4.77821350097656</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71538639068604</t>
+    <t xml:space="preserve">4.71538591384888</t>
   </si>
   <si>
     <t xml:space="preserve">4.85757541656494</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83442831039429</t>
+    <t xml:space="preserve">4.83442878723145</t>
   </si>
   <si>
     <t xml:space="preserve">4.76168060302734</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79144048690796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75506782531738</t>
+    <t xml:space="preserve">4.79144096374512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75506687164307</t>
   </si>
   <si>
     <t xml:space="preserve">4.73522615432739</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72199964523315</t>
+    <t xml:space="preserve">4.72200059890747</t>
   </si>
   <si>
     <t xml:space="preserve">4.65586566925049</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6955451965332</t>
+    <t xml:space="preserve">4.69554662704468</t>
   </si>
   <si>
     <t xml:space="preserve">4.74514722824097</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67570543289185</t>
+    <t xml:space="preserve">4.675705909729</t>
   </si>
   <si>
     <t xml:space="preserve">4.72530651092529</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77490663528442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80136156082153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87080097198486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96339082717896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94685745239258</t>
+    <t xml:space="preserve">4.77490758895874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80136108398438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8708028793335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9633903503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94685697555542</t>
   </si>
   <si>
     <t xml:space="preserve">4.7716007232666</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6856255531311</t>
+    <t xml:space="preserve">4.68562507629395</t>
   </si>
   <si>
     <t xml:space="preserve">4.66909217834473</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66247940063477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75176000595093</t>
+    <t xml:space="preserve">4.66247892379761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75176048278809</t>
   </si>
   <si>
     <t xml:space="preserve">4.71869277954102</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78813362121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74174499511719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6260929107666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62949466705322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6635103225708</t>
+    <t xml:space="preserve">4.78813409805298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74174451828003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62609338760376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62949371337891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66350984573364</t>
   </si>
   <si>
     <t xml:space="preserve">4.66010808944702</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75535106658936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7655553817749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77916240692139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88461017608643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88801193237305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86079978942871</t>
+    <t xml:space="preserve">4.75535202026367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76555585861206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77916288375854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88460969924927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88801145553589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86079931259155</t>
   </si>
   <si>
     <t xml:space="preserve">4.86760234832764</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84379100799561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9016170501709</t>
+    <t xml:space="preserve">4.84379148483276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90161800384521</t>
   </si>
   <si>
     <t xml:space="preserve">4.85059452056885</t>
   </si>
   <si>
-    <t xml:space="preserve">4.918625831604</t>
+    <t xml:space="preserve">4.91862535476685</t>
   </si>
   <si>
     <t xml:space="preserve">4.97305011749268</t>
   </si>
   <si>
-    <t xml:space="preserve">5.03427791595459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08530044555664</t>
+    <t xml:space="preserve">5.03427696228027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08530139923096</t>
   </si>
   <si>
     <t xml:space="preserve">4.96624660491943</t>
@@ -1124,25 +1124,25 @@
     <t xml:space="preserve">5.02067136764526</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04788398742676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97645139694214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99345874786377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90842008590698</t>
+    <t xml:space="preserve">5.0478835105896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97645092010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99345922470093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90842056274414</t>
   </si>
   <si>
     <t xml:space="preserve">4.81998014450073</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80297327041626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89141273498535</t>
+    <t xml:space="preserve">4.8029727935791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89141321182251</t>
   </si>
   <si>
     <t xml:space="preserve">4.99005746841431</t>
@@ -1151,19 +1151,19 @@
     <t xml:space="preserve">4.98665618896484</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95264101028442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09550619125366</t>
+    <t xml:space="preserve">4.95264053344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09550523757935</t>
   </si>
   <si>
     <t xml:space="preserve">5.12271785736084</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17033910751343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25877952575684</t>
+    <t xml:space="preserve">5.17033958435059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25877904891968</t>
   </si>
   <si>
     <t xml:space="preserve">5.28599166870117</t>
@@ -1172,19 +1172,19 @@
     <t xml:space="preserve">5.30299949645996</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29619598388672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33701467514038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38803768157959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39143943786621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3302116394043</t>
+    <t xml:space="preserve">5.29619646072388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33701419830322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38803815841675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39143991470337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33021259307861</t>
   </si>
   <si>
     <t xml:space="preserve">5.37443161010742</t>
@@ -1193,52 +1193,52 @@
     <t xml:space="preserve">5.40844678878784</t>
   </si>
   <si>
-    <t xml:space="preserve">5.27238512039185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16353607177734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24857425689697</t>
+    <t xml:space="preserve">5.27238607406616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16353559494019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24857521057129</t>
   </si>
   <si>
     <t xml:space="preserve">5.17714214324951</t>
   </si>
   <si>
-    <t xml:space="preserve">5.07509565353394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7621545791626</t>
+    <t xml:space="preserve">5.07509613037109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76215505599976</t>
   </si>
   <si>
     <t xml:space="preserve">4.80977582931519</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92882966995239</t>
+    <t xml:space="preserve">4.92883014678955</t>
   </si>
   <si>
     <t xml:space="preserve">4.91522359848022</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95944452285767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94923973083496</t>
+    <t xml:space="preserve">4.95944404602051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94923877716064</t>
   </si>
   <si>
     <t xml:space="preserve">4.94583797454834</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95604228973389</t>
+    <t xml:space="preserve">4.95604181289673</t>
   </si>
   <si>
     <t xml:space="preserve">5.06149005889893</t>
   </si>
   <si>
-    <t xml:space="preserve">5.03767967224121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82678365707397</t>
+    <t xml:space="preserve">5.03767919540405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82678318023682</t>
   </si>
   <si>
     <t xml:space="preserve">4.78596544265747</t>
@@ -1247,7 +1247,7 @@
     <t xml:space="preserve">4.83358669281006</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90501880645752</t>
+    <t xml:space="preserve">4.90501976013184</t>
   </si>
   <si>
     <t xml:space="preserve">4.93903493881226</t>
@@ -1256,10 +1256,10 @@
     <t xml:space="preserve">4.93223142623901</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87440538406372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84719324111938</t>
+    <t xml:space="preserve">4.87440490722656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84719228744507</t>
   </si>
   <si>
     <t xml:space="preserve">4.77576112747192</t>
@@ -1274,28 +1274,28 @@
     <t xml:space="preserve">4.73834419250488</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7995719909668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7723593711853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76895761489868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72813940048218</t>
+    <t xml:space="preserve">4.79957103729248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77235889434814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76895809173584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72813844680786</t>
   </si>
   <si>
     <t xml:space="preserve">4.71793460845947</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79617071151733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83698797225952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90708827972412</t>
+    <t xml:space="preserve">4.79616975784302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83698892593384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90708875656128</t>
   </si>
   <si>
     <t xml:space="preserve">4.84058666229248</t>
@@ -1304,22 +1304,22 @@
     <t xml:space="preserve">4.70408487319946</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60258197784424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63758373260498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6620831489563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74958562850952</t>
+    <t xml:space="preserve">4.6025824546814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63758325576782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66208362579346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74958515167236</t>
   </si>
   <si>
     <t xml:space="preserve">4.73208522796631</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76008605957031</t>
+    <t xml:space="preserve">4.76008558273315</t>
   </si>
   <si>
     <t xml:space="preserve">4.74608564376831</t>
@@ -1328,10 +1328,10 @@
     <t xml:space="preserve">4.65508365631104</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7145848274231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6760835647583</t>
+    <t xml:space="preserve">4.71458435058594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67608404159546</t>
   </si>
   <si>
     <t xml:space="preserve">4.66558408737183</t>
@@ -1343,10 +1343,10 @@
     <t xml:space="preserve">4.49758100509644</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31207704544067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29107666015625</t>
+    <t xml:space="preserve">4.31207752227783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29107761383057</t>
   </si>
   <si>
     <t xml:space="preserve">4.27707719802856</t>
@@ -1355,34 +1355,34 @@
     <t xml:space="preserve">4.22457551956177</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25957679748535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27007627487183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24907636642456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18257617950439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06707286834717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18607568740845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23157596588135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28057670593262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09507417678833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16857528686523</t>
+    <t xml:space="preserve">4.25957632064819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27007675170898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2490758895874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18257427215576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06707334518433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18607473373413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23157548904419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28057622909546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09507369995117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16857433319092</t>
   </si>
   <si>
     <t xml:space="preserve">4.1895751953125</t>
@@ -1391,7 +1391,7 @@
     <t xml:space="preserve">4.07057332992554</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21757555007935</t>
+    <t xml:space="preserve">4.21757507324219</t>
   </si>
   <si>
     <t xml:space="preserve">4.15807437896729</t>
@@ -1406,34 +1406,34 @@
     <t xml:space="preserve">4.13707399368286</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11957359313965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16507530212402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09857368469238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20707511901855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07407331466675</t>
+    <t xml:space="preserve">4.11957406997681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16507482528687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0985746383667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20707607269287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07407379150391</t>
   </si>
   <si>
     <t xml:space="preserve">4.02857255935669</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00407218933105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06357336044312</t>
+    <t xml:space="preserve">4.0040717124939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0635724067688</t>
   </si>
   <si>
     <t xml:space="preserve">4.12657403945923</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11257362365723</t>
+    <t xml:space="preserve">4.11257410049438</t>
   </si>
   <si>
     <t xml:space="preserve">4.14407444000244</t>
@@ -1445,10 +1445,10 @@
     <t xml:space="preserve">4.06007289886475</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10207319259644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04957294464111</t>
+    <t xml:space="preserve">4.10207414627075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04957246780396</t>
   </si>
   <si>
     <t xml:space="preserve">4.05657291412354</t>
@@ -1457,13 +1457,13 @@
     <t xml:space="preserve">4.3015775680542</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46958112716675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3470778465271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3750786781311</t>
+    <t xml:space="preserve">4.46958065032959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34707832336426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37507820129395</t>
   </si>
   <si>
     <t xml:space="preserve">4.32957792282104</t>
@@ -1472,16 +1472,16 @@
     <t xml:space="preserve">4.38907909393311</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34007787704468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29807662963867</t>
+    <t xml:space="preserve">4.34007835388184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29807758331299</t>
   </si>
   <si>
     <t xml:space="preserve">4.2350754737854</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24557590484619</t>
+    <t xml:space="preserve">4.24557638168335</t>
   </si>
   <si>
     <t xml:space="preserve">4.22107601165771</t>
@@ -1490,25 +1490,25 @@
     <t xml:space="preserve">4.14757442474365</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21407508850098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2560772895813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26307678222656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25257587432861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20007562637329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17557573318481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12307357788086</t>
+    <t xml:space="preserve">4.21407604217529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25607633590698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2630763053894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25257635116577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20007610321045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17557525634766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1230731010437</t>
   </si>
   <si>
     <t xml:space="preserve">4.2735767364502</t>
@@ -1520,10 +1520,10 @@
     <t xml:space="preserve">4.26657629013062</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22807645797729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32257795333862</t>
+    <t xml:space="preserve">4.22807598114014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32257747650146</t>
   </si>
   <si>
     <t xml:space="preserve">4.33307790756226</t>
@@ -1535,64 +1535,64 @@
     <t xml:space="preserve">4.46608018875122</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44857978820801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46258020401001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47658014297485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85356950759888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88506960868835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77306747436523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77656841278076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79756855964661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86056900024414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80106806755066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70306658744812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68206644058228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62956547737122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60506439208984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53856325149536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56306481361389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5070629119873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59106516838074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58756470680237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65056562423706</t>
+    <t xml:space="preserve">4.44857931137085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46257972717285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47658061981201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85356903076172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88507008552551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77306771278381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77656745910645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79756903648376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86056923866272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80106830596924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7030668258667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68206596374512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62956476211548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.605064868927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53856301307678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.563063621521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50706338882446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59106397628784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58756446838379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6505663394928</t>
   </si>
   <si>
     <t xml:space="preserve">3.71006679534912</t>
@@ -1604,28 +1604,28 @@
     <t xml:space="preserve">3.70656681060791</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67506575584412</t>
+    <t xml:space="preserve">3.67506623268127</t>
   </si>
   <si>
     <t xml:space="preserve">3.64006471633911</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63656568527222</t>
+    <t xml:space="preserve">3.63656544685364</t>
   </si>
   <si>
     <t xml:space="preserve">3.66754746437073</t>
   </si>
   <si>
-    <t xml:space="preserve">3.50365543365479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65297961235046</t>
+    <t xml:space="preserve">3.50365447998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65297937393188</t>
   </si>
   <si>
     <t xml:space="preserve">3.64569592475891</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7221782207489</t>
+    <t xml:space="preserve">3.72217845916748</t>
   </si>
   <si>
     <t xml:space="preserve">3.89699673652649</t>
@@ -1637,25 +1637,25 @@
     <t xml:space="preserve">3.85693430900574</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84965062141418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83144021034241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82415556907654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68211579322815</t>
+    <t xml:space="preserve">3.84965038299561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83143997192383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82415580749512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68211507797241</t>
   </si>
   <si>
     <t xml:space="preserve">3.66026401519775</t>
   </si>
   <si>
-    <t xml:space="preserve">3.61728739738464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67847394943237</t>
+    <t xml:space="preserve">3.61728692054749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67847371101379</t>
   </si>
   <si>
     <t xml:space="preserve">3.74403095245361</t>
@@ -1664,139 +1664,139 @@
     <t xml:space="preserve">3.81322979927063</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72946214675903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70396757125854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75131440162659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70032596588135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52987813949585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71489405632019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7076108455658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67483115196228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82051396369934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80594539642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76588320732117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8532919883728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87514424324036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92249083518982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90063858032227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87150192260742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90792274475098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87878656387329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86786031723022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9261326789856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8824291229248</t>
+    <t xml:space="preserve">3.72946190834045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70396828651428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75131487846375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70032572746277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52987790107727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71489381790161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70760989189148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67483162879944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82051372528076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80594563484192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76588249206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85329246520996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87514472007751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9224910736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.900639295578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87150263786316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90792298316956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87878680229187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86786007881165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92613315582275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88242864608765</t>
   </si>
   <si>
     <t xml:space="preserve">4.00625848770142</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15922498703003</t>
+    <t xml:space="preserve">4.15922451019287</t>
   </si>
   <si>
     <t xml:space="preserve">4.22478151321411</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14829921722412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28669691085815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28305435180664</t>
+    <t xml:space="preserve">4.14829874038696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.286696434021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2830548286438</t>
   </si>
   <si>
     <t xml:space="preserve">4.33040142059326</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38867425918579</t>
+    <t xml:space="preserve">4.38867330551147</t>
   </si>
   <si>
     <t xml:space="preserve">4.33404350280762</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34132671356201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34861135482788</t>
+    <t xml:space="preserve">4.34132719039917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34861087799072</t>
   </si>
   <si>
     <t xml:space="preserve">4.4651575088501</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4287371635437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48336791992188</t>
+    <t xml:space="preserve">4.42873668670654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48336744308472</t>
   </si>
   <si>
     <t xml:space="preserve">4.47244167327881</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54528188705444</t>
+    <t xml:space="preserve">4.5452823638916</t>
   </si>
   <si>
     <t xml:space="preserve">4.44330501556396</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49429416656494</t>
+    <t xml:space="preserve">4.49429368972778</t>
   </si>
   <si>
     <t xml:space="preserve">4.5489239692688</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55256605148315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56713438034058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61083889007568</t>
+    <t xml:space="preserve">4.55256652832031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56713485717773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61083936691284</t>
   </si>
   <si>
     <t xml:space="preserve">4.57806062698364</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60355567932129</t>
+    <t xml:space="preserve">4.60355424880981</t>
   </si>
   <si>
     <t xml:space="preserve">4.61812353134155</t>
@@ -1808,25 +1808,25 @@
     <t xml:space="preserve">4.63269138336182</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57077646255493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59991312026978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65454339981079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62176513671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76744747161865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75287866592407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74923753738403</t>
+    <t xml:space="preserve">4.57077693939209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59991264343262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65454387664795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62176561355591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76744699478149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75287914276123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74923706054688</t>
   </si>
   <si>
     <t xml:space="preserve">4.74559497833252</t>
@@ -1835,55 +1835,58 @@
     <t xml:space="preserve">4.73831129074097</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73466968536377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83664655685425</t>
+    <t xml:space="preserve">4.73466920852661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83664608001709</t>
   </si>
   <si>
     <t xml:space="preserve">4.90220355987549</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92769765853882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89856052398682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89127683639526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8950309753418</t>
+    <t xml:space="preserve">4.92769813537598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89856147766113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89127779006958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89503145217896</t>
   </si>
   <si>
     <t xml:space="preserve">4.79743051528931</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8424768447876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84623098373413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93632316589355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91380023956299</t>
+    <t xml:space="preserve">4.84247732162476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84623146057129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93632364273071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91380071640015</t>
   </si>
   <si>
     <t xml:space="preserve">4.88001585006714</t>
   </si>
   <si>
+    <t xml:space="preserve">4.89127731323242</t>
+  </si>
+  <si>
     <t xml:space="preserve">4.72986173629761</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74112272262573</t>
+    <t xml:space="preserve">4.74112319946289</t>
   </si>
   <si>
     <t xml:space="preserve">4.75613880157471</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63976860046387</t>
+    <t xml:space="preserve">4.63976955413818</t>
   </si>
   <si>
     <t xml:space="preserve">4.5909686088562</t>
@@ -1892,58 +1895,58 @@
     <t xml:space="preserve">4.65478372573853</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59472322463989</t>
+    <t xml:space="preserve">4.59472274780273</t>
   </si>
   <si>
     <t xml:space="preserve">4.65853786468506</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61724615097046</t>
+    <t xml:space="preserve">4.61724519729614</t>
   </si>
   <si>
     <t xml:space="preserve">4.61349248886108</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54967546463013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56093788146973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56469202041626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52715396881104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50462913513184</t>
+    <t xml:space="preserve">4.54967641830444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56093835830688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5646915435791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52715349197388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50462961196899</t>
   </si>
   <si>
     <t xml:space="preserve">4.48210668563843</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5121374130249</t>
+    <t xml:space="preserve">4.51213788986206</t>
   </si>
   <si>
     <t xml:space="preserve">4.57595300674438</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63601446151733</t>
+    <t xml:space="preserve">4.63601493835449</t>
   </si>
   <si>
     <t xml:space="preserve">4.62475347518921</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66979932785034</t>
+    <t xml:space="preserve">4.66980028152466</t>
   </si>
   <si>
     <t xml:space="preserve">4.65103054046631</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59847688674927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62850761413574</t>
+    <t xml:space="preserve">4.59847640991211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62850713729858</t>
   </si>
   <si>
     <t xml:space="preserve">4.55718421936035</t>
@@ -1952,7 +1955,7 @@
     <t xml:space="preserve">4.6960768699646</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71860027313232</t>
+    <t xml:space="preserve">4.71859931945801</t>
   </si>
   <si>
     <t xml:space="preserve">4.7486310005188</t>
@@ -1964,37 +1967,37 @@
     <t xml:space="preserve">4.78992319107056</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79367733001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8537392616272</t>
+    <t xml:space="preserve">4.79367780685425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85373878479004</t>
   </si>
   <si>
     <t xml:space="preserve">4.86124610900879</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86500024795532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00389337539673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04518556594849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99263191223145</t>
+    <t xml:space="preserve">4.86500120162964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00389289855957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04518508911133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9926323890686</t>
   </si>
   <si>
     <t xml:space="preserve">4.98512411117554</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94383096694946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02266311645508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01515436172485</t>
+    <t xml:space="preserve">4.94383144378662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02266263961792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01515483856201</t>
   </si>
   <si>
     <t xml:space="preserve">5.05269289016724</t>
@@ -2003,22 +2006,22 @@
     <t xml:space="preserve">5.07521677017212</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02641630172729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97010898590088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95133876800537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94758462905884</t>
+    <t xml:space="preserve">5.02641582489014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97010850906372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95133972167969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.947585105896</t>
   </si>
   <si>
     <t xml:space="preserve">4.97761631011963</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95509338378906</t>
+    <t xml:space="preserve">4.95509243011475</t>
   </si>
   <si>
     <t xml:space="preserve">5.04143190383911</t>
@@ -2027,10 +2030,10 @@
     <t xml:space="preserve">5.0001392364502</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93256950378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91755390167236</t>
+    <t xml:space="preserve">4.9325704574585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91755485534668</t>
   </si>
   <si>
     <t xml:space="preserve">4.69983100891113</t>
@@ -2039,7 +2042,7 @@
     <t xml:space="preserve">4.70358419418335</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7110915184021</t>
+    <t xml:space="preserve">4.71109247207642</t>
   </si>
   <si>
     <t xml:space="preserve">4.63226127624512</t>
@@ -2048,25 +2051,25 @@
     <t xml:space="preserve">4.84998512268066</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95884656906128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90629243850708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99638605117798</t>
+    <t xml:space="preserve">4.9588475227356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90629291534424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99638557434082</t>
   </si>
   <si>
     <t xml:space="preserve">4.94007730484009</t>
   </si>
   <si>
-    <t xml:space="preserve">5.03767776489258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0602011680603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15404796600342</t>
+    <t xml:space="preserve">5.03767824172974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06020069122314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15404748916626</t>
   </si>
   <si>
     <t xml:space="preserve">5.1653094291687</t>
@@ -2081,19 +2084,19 @@
     <t xml:space="preserve">5.21035528182983</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23287868499756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28543281555176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29294109344482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25540208816528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16155576705933</t>
+    <t xml:space="preserve">5.23287773132324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2854323387146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29293966293335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25540161132812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16155529022217</t>
   </si>
   <si>
     <t xml:space="preserve">5.19158601760864</t>
@@ -2102,16 +2105,16 @@
     <t xml:space="preserve">5.15029382705688</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17657089233398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17281627655029</t>
+    <t xml:space="preserve">5.17656993865967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17281675338745</t>
   </si>
   <si>
     <t xml:space="preserve">5.16906309127808</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10149383544922</t>
+    <t xml:space="preserve">5.10149335861206</t>
   </si>
   <si>
     <t xml:space="preserve">5.22161769866943</t>
@@ -2120,121 +2123,121 @@
     <t xml:space="preserve">5.21786308288574</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21410989761353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23663282394409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39804887771606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4430947303772</t>
+    <t xml:space="preserve">5.21410942077637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23663234710693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39804840087891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44309520721436</t>
   </si>
   <si>
     <t xml:space="preserve">5.48438692092896</t>
   </si>
   <si>
-    <t xml:space="preserve">5.52943325042725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5744800567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64204931259155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67583322525024</t>
+    <t xml:space="preserve">5.5294337272644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57447957992554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64204883575439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6758337020874</t>
   </si>
   <si>
     <t xml:space="preserve">5.69084882736206</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70211029052734</t>
+    <t xml:space="preserve">5.7021107673645</t>
   </si>
   <si>
     <t xml:space="preserve">5.72463417053223</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76217317581177</t>
+    <t xml:space="preserve">5.76217222213745</t>
   </si>
   <si>
     <t xml:space="preserve">5.77343416213989</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76968002319336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77718782424927</t>
+    <t xml:space="preserve">5.76968050003052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77718877792358</t>
   </si>
   <si>
     <t xml:space="preserve">5.78844976425171</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78094244003296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85601902008057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20137500762939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3027286529541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47915983200073</t>
+    <t xml:space="preserve">5.78094148635864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85601949691772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20137405395508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30272912979126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47915840148926</t>
   </si>
   <si>
     <t xml:space="preserve">6.59177541732788</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45663642883301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47165107727051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56784200668335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74483060836792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90258264541626</t>
+    <t xml:space="preserve">6.45663690567017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47165155410767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56784105300903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74483108520508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90258312225342</t>
   </si>
   <si>
     <t xml:space="preserve">6.91797208786011</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01416349411011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95644903182983</t>
+    <t xml:space="preserve">7.01416206359863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95644855499268</t>
   </si>
   <si>
     <t xml:space="preserve">7.07957124710083</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10265684127808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16037178039551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09111452102661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02570533752441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00646781921387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08726644515991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14113235473633</t>
+    <t xml:space="preserve">7.10265731811523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16037130355835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09111404418945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02570486068726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00646686553955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08726692199707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14113330841064</t>
   </si>
   <si>
     <t xml:space="preserve">7.08341884613037</t>
@@ -2243,10 +2246,10 @@
     <t xml:space="preserve">6.95260095596313</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97183895111084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00262022018433</t>
+    <t xml:space="preserve">6.971839427948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00262069702148</t>
   </si>
   <si>
     <t xml:space="preserve">6.97568655014038</t>
@@ -2255,49 +2258,49 @@
     <t xml:space="preserve">7.05263900756836</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02955341339111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02185773849487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9910774230957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8987340927124</t>
+    <t xml:space="preserve">7.02955389022827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02185821533203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99107694625854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89873504638672</t>
   </si>
   <si>
     <t xml:space="preserve">6.86410713195801</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87565088272095</t>
+    <t xml:space="preserve">6.87564992904663</t>
   </si>
   <si>
     <t xml:space="preserve">6.81408786773682</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84486961364746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75252485275269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61401224136353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61785984039307</t>
+    <t xml:space="preserve">6.84486865997314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75252676010132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61401319503784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61786079406738</t>
   </si>
   <si>
     <t xml:space="preserve">6.77176475524902</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92566776275635</t>
+    <t xml:space="preserve">6.92566823959351</t>
   </si>
   <si>
     <t xml:space="preserve">6.72174501419067</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71789836883545</t>
+    <t xml:space="preserve">6.71789789199829</t>
   </si>
   <si>
     <t xml:space="preserve">6.82947778701782</t>
@@ -2306,13 +2309,13 @@
     <t xml:space="preserve">6.74867963790894</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63324975967407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66403102874756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61016607284546</t>
+    <t xml:space="preserve">6.63325023651123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66403198242188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6101655960083</t>
   </si>
   <si>
     <t xml:space="preserve">6.41009044647217</t>
@@ -2321,25 +2324,22 @@
     <t xml:space="preserve">6.55245113372803</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47165203094482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27157688140869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28311967849731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.379310131073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34083366394043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39469957351685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46395587921143</t>
+    <t xml:space="preserve">6.27157592773438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28312063217163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37930965423584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34083414077759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39470100402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46395683288574</t>
   </si>
   <si>
     <t xml:space="preserve">6.50243234634399</t>
@@ -2348,19 +2348,19 @@
     <t xml:space="preserve">6.49473667144775</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49858522415161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57553720474243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69096422195435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72944021224976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56399345397949</t>
+    <t xml:space="preserve">6.49858427047729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57553815841675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6909646987915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72944068908691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56399393081665</t>
   </si>
   <si>
     <t xml:space="preserve">6.38315773010254</t>
@@ -2378,43 +2378,43 @@
     <t xml:space="preserve">5.8675799369812</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66365718841553</t>
+    <t xml:space="preserve">5.66365766525269</t>
   </si>
   <si>
     <t xml:space="preserve">5.59824848175049</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5751633644104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53668642044067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2558126449585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13268947601318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77101564407349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20157146453857</t>
+    <t xml:space="preserve">5.57516241073608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53668689727783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25581312179565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13268995285034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77101516723633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20157194137573</t>
   </si>
   <si>
     <t xml:space="preserve">4.1554012298584</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76448559761047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76756286621094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44898247718811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17811250686646</t>
+    <t xml:space="preserve">3.76448583602905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76756310462952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44898319244385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1781120300293</t>
   </si>
   <si>
     <t xml:space="preserve">3.13809704780579</t>
@@ -2429,64 +2429,64 @@
     <t xml:space="preserve">3.63982343673706</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74909567832947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95532608032227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82143020629883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63366675376892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57826161384583</t>
+    <t xml:space="preserve">3.74909448623657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95532584190369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82142972946167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63366723060608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5782618522644</t>
   </si>
   <si>
     <t xml:space="preserve">3.56748843193054</t>
   </si>
   <si>
-    <t xml:space="preserve">3.5798008441925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51670026779175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6444399356842</t>
+    <t xml:space="preserve">3.57980108261108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51669979095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64444065093994</t>
   </si>
   <si>
     <t xml:space="preserve">3.8475935459137</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0207347869873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20926761627197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85913610458374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90530705451965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02458238601685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94763112068176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75986814498901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89761209487915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98610687255859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96686863899231</t>
+    <t xml:space="preserve">4.02073526382446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20926666259766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85913562774658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90530729293823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02458333969116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94763088226318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75986766815186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89761185646057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98610663414001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96686887741089</t>
   </si>
   <si>
     <t xml:space="preserve">4.11692476272583</t>
@@ -2495,31 +2495,31 @@
     <t xml:space="preserve">4.31315183639526</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48629379272461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28621912002563</t>
+    <t xml:space="preserve">4.48629426956177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28621959686279</t>
   </si>
   <si>
     <t xml:space="preserve">4.09383916854858</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03227758407593</t>
+    <t xml:space="preserve">4.03227710723877</t>
   </si>
   <si>
     <t xml:space="preserve">4.07844924926758</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12461996078491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12846755981445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30545711517334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38240957260132</t>
+    <t xml:space="preserve">4.12462043762207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12846708297729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30545663833618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38240909576416</t>
   </si>
   <si>
     <t xml:space="preserve">4.24004793167114</t>
@@ -2531,7 +2531,7 @@
     <t xml:space="preserve">4.25928544998169</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26698064804077</t>
+    <t xml:space="preserve">4.26698112487793</t>
   </si>
   <si>
     <t xml:space="preserve">4.38625621795654</t>
@@ -2540,16 +2540,16 @@
     <t xml:space="preserve">4.42473220825195</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51322650909424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55555057525635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66328287124634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60941696166992</t>
+    <t xml:space="preserve">4.5132269859314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55555009841919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66328382492065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60941648483276</t>
   </si>
   <si>
     <t xml:space="preserve">4.57094097137451</t>
@@ -2558,31 +2558,31 @@
     <t xml:space="preserve">4.74023485183716</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79410123825073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97493839263916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20579385757446</t>
+    <t xml:space="preserve">4.79410076141357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.974937915802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2057933807373</t>
   </si>
   <si>
     <t xml:space="preserve">5.32506942749023</t>
   </si>
   <si>
-    <t xml:space="preserve">5.12114667892456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84412002563477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86335754394531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02495622634888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97109079360962</t>
+    <t xml:space="preserve">5.12114763259888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84412050247192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86335802078247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02495718002319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97109031677246</t>
   </si>
   <si>
     <t xml:space="preserve">4.94800424575806</t>
@@ -2591,16 +2591,16 @@
     <t xml:space="preserve">4.99802350997925</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98263359069824</t>
+    <t xml:space="preserve">4.98263311386108</t>
   </si>
   <si>
     <t xml:space="preserve">5.02880430221558</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8133397102356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80179643630981</t>
+    <t xml:space="preserve">4.81333875656128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80179595947266</t>
   </si>
   <si>
     <t xml:space="preserve">4.85181474685669</t>
@@ -2612,103 +2612,103 @@
     <t xml:space="preserve">4.91722393035889</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83642435073853</t>
+    <t xml:space="preserve">4.83642387390137</t>
   </si>
   <si>
     <t xml:space="preserve">5.0634331703186</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94031047821045</t>
+    <t xml:space="preserve">4.94031000137329</t>
   </si>
   <si>
     <t xml:space="preserve">5.0595850944519</t>
   </si>
   <si>
-    <t xml:space="preserve">5.03649950027466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8248815536499</t>
+    <t xml:space="preserve">5.03649997711182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82488203048706</t>
   </si>
   <si>
     <t xml:space="preserve">4.94415712356567</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00187158584595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07112789154053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07497549057007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09806108474731</t>
+    <t xml:space="preserve">5.00187206268311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07112836837769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07497501373291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09806156158447</t>
   </si>
   <si>
     <t xml:space="preserve">5.21733665466309</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15962314605713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11345148086548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06728029251099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98648166656494</t>
+    <t xml:space="preserve">5.15962266921997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11345195770264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06728076934814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98648118972778</t>
   </si>
   <si>
     <t xml:space="preserve">4.93261384963989</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91337728500366</t>
+    <t xml:space="preserve">4.91337633132935</t>
   </si>
   <si>
     <t xml:space="preserve">4.95185279846191</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76716899871826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95570087432861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96339511871338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10190868377686</t>
+    <t xml:space="preserve">4.7671685218811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95569944381714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96339464187622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10190916061401</t>
   </si>
   <si>
     <t xml:space="preserve">5.1865553855896</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24042129516602</t>
+    <t xml:space="preserve">5.24042272567749</t>
   </si>
   <si>
     <t xml:space="preserve">5.15577507019043</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02110910415649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1057562828064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97878503799438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14038419723511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05188989639282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08651781082153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92491960525513</t>
+    <t xml:space="preserve">5.02110958099365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10575675964355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97878551483154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14038467407227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05188941955566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08651876449585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92491912841797</t>
   </si>
   <si>
     <t xml:space="preserve">4.78255844116211</t>
@@ -2717,31 +2717,31 @@
     <t xml:space="preserve">4.86720514297485</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87105274200439</t>
+    <t xml:space="preserve">4.87105321884155</t>
   </si>
   <si>
     <t xml:space="preserve">5.09036588668823</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84796810150146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73253965377808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84027242660522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70560598373413</t>
+    <t xml:space="preserve">4.84796714782715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73254013061523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84027290344238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70560646057129</t>
   </si>
   <si>
     <t xml:space="preserve">4.78640604019165</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0403470993042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.959547996521</t>
+    <t xml:space="preserve">5.04034757614136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95954847335815</t>
   </si>
   <si>
     <t xml:space="preserve">4.8094916343689</t>
@@ -2753,7 +2753,7 @@
     <t xml:space="preserve">4.81718683242798</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65558767318726</t>
+    <t xml:space="preserve">4.65558862686157</t>
   </si>
   <si>
     <t xml:space="preserve">4.51707458496094</t>
@@ -2762,34 +2762,34 @@
     <t xml:space="preserve">4.46320819854736</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50937938690186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75562524795532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29428815841675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38278341293335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51744890213013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38663148880005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55592441558838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81756067276001</t>
+    <t xml:space="preserve">4.50937986373901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75562477111816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29428768157959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38278245925903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51744842529297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38663101196289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55592489242554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81756162643433</t>
   </si>
   <si>
     <t xml:space="preserve">5.80986595153809</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73291444778442</t>
+    <t xml:space="preserve">5.73291349411011</t>
   </si>
   <si>
     <t xml:space="preserve">5.8444938659668</t>
@@ -2801,25 +2801,25 @@
     <t xml:space="preserve">6.01763582229614</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89066600799561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97531270980835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85218906402588</t>
+    <t xml:space="preserve">5.89066505432129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97531175613403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85218954086304</t>
   </si>
   <si>
     <t xml:space="preserve">5.92529344558716</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76754283905029</t>
+    <t xml:space="preserve">5.76754188537598</t>
   </si>
   <si>
     <t xml:space="preserve">5.7175235748291</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70982837677002</t>
+    <t xml:space="preserve">5.70982885360718</t>
   </si>
   <si>
     <t xml:space="preserve">5.64441919326782</t>
@@ -2828,10 +2828,10 @@
     <t xml:space="preserve">5.60209608078003</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59440135955811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5020580291748</t>
+    <t xml:space="preserve">5.59440088272095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50205898284912</t>
   </si>
   <si>
     <t xml:space="preserve">5.46742963790894</t>
@@ -2840,19 +2840,19 @@
     <t xml:space="preserve">5.47512483596802</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47897291183472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46358299255371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44434452056885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33276462554932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40971612930298</t>
+    <t xml:space="preserve">5.47897243499756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46358251571655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44434404373169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33276414871216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40971565246582</t>
   </si>
   <si>
     <t xml:space="preserve">5.42895364761353</t>
@@ -2861,25 +2861,25 @@
     <t xml:space="preserve">5.47127771377563</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49821090698242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43664979934692</t>
+    <t xml:space="preserve">5.49821138381958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43664932250977</t>
   </si>
   <si>
     <t xml:space="preserve">5.44819211959839</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65980911254883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63672351837158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62902879714966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27505016326904</t>
+    <t xml:space="preserve">5.65981006622314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63672399520874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62902927398682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2750506401062</t>
   </si>
   <si>
     <t xml:space="preserve">5.14423274993896</t>
@@ -2894,10 +2894,10 @@
     <t xml:space="preserve">5.22503185272217</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62518119812012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73676109313965</t>
+    <t xml:space="preserve">5.62518167495728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73676204681396</t>
   </si>
   <si>
     <t xml:space="preserve">5.9483790397644</t>
@@ -2909,49 +2909,49 @@
     <t xml:space="preserve">5.89836025238037</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88296985626221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76369476318359</t>
+    <t xml:space="preserve">5.88297033309937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76369428634644</t>
   </si>
   <si>
     <t xml:space="preserve">5.67904758453369</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69443798065186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75984764099121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62133359909058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65211486816406</t>
+    <t xml:space="preserve">5.69443845748901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75984716415405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62133455276489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65211343765259</t>
   </si>
   <si>
     <t xml:space="preserve">5.55977249145508</t>
   </si>
   <si>
-    <t xml:space="preserve">5.74445676803589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77523756027222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75215244293213</t>
+    <t xml:space="preserve">5.74445724487305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77523803710938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75215196609497</t>
   </si>
   <si>
     <t xml:space="preserve">5.85988473892212</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92144632339478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95992279052734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97915983200073</t>
+    <t xml:space="preserve">5.92144584655762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95992183685303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97916078567505</t>
   </si>
   <si>
     <t xml:space="preserve">5.96376991271973</t>
@@ -2966,16 +2966,16 @@
     <t xml:space="preserve">6.25233888626099</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15999746322632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18308305740356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09073972702026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13306427001953</t>
+    <t xml:space="preserve">6.15999698638916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18308210372925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09074068069458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13306331634521</t>
   </si>
   <si>
     <t xml:space="preserve">6.14075899124146</t>
@@ -2987,73 +2987,73 @@
     <t xml:space="preserve">6.19462537765503</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17461776733398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21001577377319</t>
+    <t xml:space="preserve">6.17461824417114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21001529693604</t>
   </si>
   <si>
     <t xml:space="preserve">6.12844657897949</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04379987716675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10689973831177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05457305908203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05765151977539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00224494934082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02225303649902</t>
+    <t xml:space="preserve">6.04379892349243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10690021514893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05457258224487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05765104293823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00224542617798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02225351333618</t>
   </si>
   <si>
     <t xml:space="preserve">6.08535385131836</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02994871139526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95761299133301</t>
+    <t xml:space="preserve">6.02994823455811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95761394500732</t>
   </si>
   <si>
     <t xml:space="preserve">6.0145583152771</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04072141647339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01301908493042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98069906234741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10843896865845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01147937774658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.082275390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16846179962158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23925638198853</t>
+    <t xml:space="preserve">6.04072093963623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01301956176758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98069858551025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10843944549561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01147985458374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08227586746216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16846132278442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23925685882568</t>
   </si>
   <si>
     <t xml:space="preserve">6.21463298797607</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06380748748779</t>
+    <t xml:space="preserve">6.06380701065063</t>
   </si>
   <si>
     <t xml:space="preserve">6.06688547134399</t>
@@ -3062,43 +3062,43 @@
     <t xml:space="preserve">6.0884313583374</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03918266296387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12463474273682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07521915435791</t>
+    <t xml:space="preserve">6.03918313980103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12463569641113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07521820068359</t>
   </si>
   <si>
     <t xml:space="preserve">6.07367420196533</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0891170501709</t>
+    <t xml:space="preserve">6.08911752700806</t>
   </si>
   <si>
     <t xml:space="preserve">6.25898790359497</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24354553222656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.228102684021</t>
+    <t xml:space="preserve">6.24354600906372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22810316085815</t>
   </si>
   <si>
     <t xml:space="preserve">6.24045658111572</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21729230880737</t>
+    <t xml:space="preserve">6.21729278564453</t>
   </si>
   <si>
     <t xml:space="preserve">6.26516580581665</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38562059402466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42422723770142</t>
+    <t xml:space="preserve">6.38561964035034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4242262840271</t>
   </si>
   <si>
     <t xml:space="preserve">6.30686140060425</t>
@@ -3107,40 +3107,40 @@
     <t xml:space="preserve">6.34546852111816</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37172079086304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34237909317017</t>
+    <t xml:space="preserve">6.3717212677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34237957000732</t>
   </si>
   <si>
     <t xml:space="preserve">6.44893598556519</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46283388137817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34855699539185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32384729385376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27906370162964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35318994522095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53232717514038</t>
+    <t xml:space="preserve">6.46283340454102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.348557472229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32384777069092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2790641784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35318946838379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53232669830322</t>
   </si>
   <si>
     <t xml:space="preserve">6.33311319351196</t>
   </si>
   <si>
-    <t xml:space="preserve">6.479820728302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3346586227417</t>
+    <t xml:space="preserve">6.47982120513916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33465814590454</t>
   </si>
   <si>
     <t xml:space="preserve">6.33774662017822</t>
@@ -3149,52 +3149,52 @@
     <t xml:space="preserve">6.35936641693115</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35782241821289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36091041564941</t>
+    <t xml:space="preserve">6.35782194137573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36091136932373</t>
   </si>
   <si>
     <t xml:space="preserve">6.32075929641724</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21265888214111</t>
+    <t xml:space="preserve">6.21265935897827</t>
   </si>
   <si>
     <t xml:space="preserve">6.30531740188599</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40723943710327</t>
+    <t xml:space="preserve">6.40723991394043</t>
   </si>
   <si>
     <t xml:space="preserve">6.34083557128906</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36245489120483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26979827880859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25744342803955</t>
+    <t xml:space="preserve">6.36245536804199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26979780197144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25744390487671</t>
   </si>
   <si>
     <t xml:space="preserve">5.99800443649292</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04587602615356</t>
+    <t xml:space="preserve">6.04587650299072</t>
   </si>
   <si>
     <t xml:space="preserve">6.24200105667114</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29141759872437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34701299667358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50452899932861</t>
+    <t xml:space="preserve">6.29141807556152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34701251983643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50452995300293</t>
   </si>
   <si>
     <t xml:space="preserve">6.51070642471313</t>
@@ -3203,61 +3203,61 @@
     <t xml:space="preserve">6.4875431060791</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48290920257568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41187238693237</t>
+    <t xml:space="preserve">6.48290967941284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41187191009521</t>
   </si>
   <si>
     <t xml:space="preserve">6.4273157119751</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39334106445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4381251335144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49680805206299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57865571975708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66204643249512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67131328582764</t>
+    <t xml:space="preserve">6.39334058761597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43812561035156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49680757522583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57865524291992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66204738616943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67131233215332</t>
   </si>
   <si>
     <t xml:space="preserve">6.7670578956604</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74698209762573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79022264480591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74852609634399</t>
+    <t xml:space="preserve">6.74698305130005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79022216796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74852752685547</t>
   </si>
   <si>
     <t xml:space="preserve">6.79948806762695</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65278148651123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62652826309204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69293165206909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68212175369263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70991945266724</t>
+    <t xml:space="preserve">6.65278053283691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62652778625488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69293212890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6821231842041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70991897583008</t>
   </si>
   <si>
     <t xml:space="preserve">6.69602108001709</t>
@@ -3266,7 +3266,7 @@
     <t xml:space="preserve">6.75315999984741</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76860189437866</t>
+    <t xml:space="preserve">6.76860332489014</t>
   </si>
   <si>
     <t xml:space="preserve">6.78713369369507</t>
@@ -3275,133 +3275,133 @@
     <t xml:space="preserve">6.78558969497681</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81029844284058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81338739395142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7794132232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75933647155762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75624847412109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72381830215454</t>
+    <t xml:space="preserve">6.81029796600342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8133864402771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77941179275513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75933599472046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75624752044678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72381782531738</t>
   </si>
   <si>
     <t xml:space="preserve">6.88751268386841</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93229675292969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88133478164673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93847370147705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87515830993652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66667938232422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87824630737305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09907960891724</t>
+    <t xml:space="preserve">6.93229627609253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88133525848389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93847417831421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87515878677368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66667985916138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87824726104736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09908008575439</t>
   </si>
   <si>
     <t xml:space="preserve">7.04811859130859</t>
   </si>
   <si>
-    <t xml:space="preserve">7.07591485977173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07282638549805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15776300430298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21953296661377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33535528182983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35234260559082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4990496635437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38940525054932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52530193328857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45735263824463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51294708251953</t>
+    <t xml:space="preserve">7.07591533660889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07282686233521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15776252746582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21953392028809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33535480499268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35234308242798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49904870986938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.389404296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52530145645142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4573540687561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51294755935669</t>
   </si>
   <si>
     <t xml:space="preserve">7.61178207397461</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51758193969727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57626485824585</t>
+    <t xml:space="preserve">7.51758098602295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57626390457153</t>
   </si>
   <si>
     <t xml:space="preserve">7.61487102508545</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63771772384644</t>
+    <t xml:space="preserve">7.63771820068359</t>
   </si>
   <si>
     <t xml:space="preserve">7.49894285202026</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50563049316406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41199779510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39862203598022</t>
+    <t xml:space="preserve">7.5056300163269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41199827194214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39862251281738</t>
   </si>
   <si>
     <t xml:space="preserve">7.34177398681641</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45212554931641</t>
+    <t xml:space="preserve">7.45212602615356</t>
   </si>
   <si>
     <t xml:space="preserve">7.39360570907593</t>
   </si>
   <si>
-    <t xml:space="preserve">7.34511852264404</t>
+    <t xml:space="preserve">7.34511804580688</t>
   </si>
   <si>
     <t xml:space="preserve">7.27823781967163</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36350965499878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26820516586304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33174276351929</t>
+    <t xml:space="preserve">7.36351013183594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26820611953735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33174324035645</t>
   </si>
   <si>
     <t xml:space="preserve">7.47553539276123</t>
@@ -3410,43 +3410,43 @@
     <t xml:space="preserve">7.44878244400024</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4554705619812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53739976882935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58086967468262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58923006057739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65778255462646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64273452758789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54408740997314</t>
+    <t xml:space="preserve">7.45547103881836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53739786148071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58087015151978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58923149108887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65778303146362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64273500442505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54408693313599</t>
   </si>
   <si>
     <t xml:space="preserve">7.45379829406738</t>
   </si>
   <si>
-    <t xml:space="preserve">7.34344577789307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5048394203186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3657660484314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5803861618042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48251914978027</t>
+    <t xml:space="preserve">7.34344720840454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50483989715576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36576652526855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58038663864136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48251962661743</t>
   </si>
   <si>
     <t xml:space="preserve">7.14599514007568</t>
@@ -3455,37 +3455,37 @@
     <t xml:space="preserve">7.20265531539917</t>
   </si>
   <si>
-    <t xml:space="preserve">7.08075141906738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26446628570557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20780611038208</t>
+    <t xml:space="preserve">7.08075094223022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26446533203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20780563354492</t>
   </si>
   <si>
     <t xml:space="preserve">7.24557876586914</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32627630233765</t>
+    <t xml:space="preserve">7.3262767791748</t>
   </si>
   <si>
     <t xml:space="preserve">7.47736883163452</t>
   </si>
   <si>
-    <t xml:space="preserve">7.40697383880615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34001207351685</t>
+    <t xml:space="preserve">7.40697431564331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.340012550354</t>
   </si>
   <si>
     <t xml:space="preserve">7.28850269317627</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27820158004761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28335237503052</t>
+    <t xml:space="preserve">7.27820110321045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28335332870483</t>
   </si>
   <si>
     <t xml:space="preserve">7.29880523681641</t>
@@ -3494,28 +3494,28 @@
     <t xml:space="preserve">7.20952224731445</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98631763458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19235324859619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2524471282959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37091779708862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44302988052368</t>
+    <t xml:space="preserve">6.98631715774536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19235372543335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25244665145874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37091732025146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44302940368652</t>
   </si>
   <si>
     <t xml:space="preserve">7.43444442749023</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45161581039429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54433107376099</t>
+    <t xml:space="preserve">7.45161485671997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54433059692383</t>
   </si>
   <si>
     <t xml:space="preserve">7.60099029541016</t>
@@ -3527,49 +3527,49 @@
     <t xml:space="preserve">7.45504808425903</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59240531921387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66280126571655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80359268188477</t>
+    <t xml:space="preserve">7.59240579605103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66280078887939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80359172821045</t>
   </si>
   <si>
     <t xml:space="preserve">7.9495325088501</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97872257232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82247877120972</t>
+    <t xml:space="preserve">7.97872114181519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8224778175354</t>
   </si>
   <si>
     <t xml:space="preserve">7.78813886642456</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60442352294922</t>
+    <t xml:space="preserve">7.60442399978638</t>
   </si>
   <si>
     <t xml:space="preserve">7.59755611419678</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5014066696167</t>
+    <t xml:space="preserve">7.50140619277954</t>
   </si>
   <si>
     <t xml:space="preserve">7.16831588745117</t>
   </si>
   <si>
-    <t xml:space="preserve">7.17861795425415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32799291610718</t>
+    <t xml:space="preserve">7.17861843109131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32799339294434</t>
   </si>
   <si>
     <t xml:space="preserve">7.29193735122681</t>
   </si>
   <si>
-    <t xml:space="preserve">7.23356056213379</t>
+    <t xml:space="preserve">7.23356008529663</t>
   </si>
   <si>
     <t xml:space="preserve">7.35203075408936</t>
@@ -3578,7 +3578,7 @@
     <t xml:space="preserve">7.46363306045532</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56665134429932</t>
+    <t xml:space="preserve">7.56665086746216</t>
   </si>
   <si>
     <t xml:space="preserve">7.49282073974609</t>
@@ -3587,16 +3587,16 @@
     <t xml:space="preserve">7.22497510910034</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32112598419189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4945387840271</t>
+    <t xml:space="preserve">7.32112550735474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49453783035278</t>
   </si>
   <si>
     <t xml:space="preserve">7.60614109039307</t>
   </si>
   <si>
-    <t xml:space="preserve">7.34859704971313</t>
+    <t xml:space="preserve">7.34859657287598</t>
   </si>
   <si>
     <t xml:space="preserve">7.09792041778564</t>
@@ -3614,31 +3614,31 @@
     <t xml:space="preserve">7.11852359771729</t>
   </si>
   <si>
-    <t xml:space="preserve">7.04297780990601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97429847717285</t>
+    <t xml:space="preserve">7.04297828674316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97429800033569</t>
   </si>
   <si>
     <t xml:space="preserve">7.03095865249634</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43345594406128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.586266040802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32013607025146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08491277694702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11238431930542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96987676620483</t>
+    <t xml:space="preserve">6.43345642089844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58626556396484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32013654708862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08491325378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11238384246826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96987628936768</t>
   </si>
   <si>
     <t xml:space="preserve">5.58012580871582</t>
@@ -3647,19 +3647,19 @@
     <t xml:space="preserve">5.51488161087036</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67284154891968</t>
+    <t xml:space="preserve">5.67284202575684</t>
   </si>
   <si>
     <t xml:space="preserve">6.29438209533691</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92866897583008</t>
+    <t xml:space="preserve">5.92866945266724</t>
   </si>
   <si>
     <t xml:space="preserve">6.06259250640869</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16389322280884</t>
+    <t xml:space="preserve">6.163893699646</t>
   </si>
   <si>
     <t xml:space="preserve">6.2960991859436</t>
@@ -3668,31 +3668,31 @@
     <t xml:space="preserve">6.62403917312622</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57939767837524</t>
+    <t xml:space="preserve">6.5793981552124</t>
   </si>
   <si>
     <t xml:space="preserve">6.56051111221313</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5124363899231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68069839477539</t>
+    <t xml:space="preserve">6.51243591308594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68069887161255</t>
   </si>
   <si>
     <t xml:space="preserve">6.61030292510986</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56909656524658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62918996810913</t>
+    <t xml:space="preserve">6.56909561157227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62918949127197</t>
   </si>
   <si>
     <t xml:space="preserve">6.66867971420288</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85239458084106</t>
+    <t xml:space="preserve">6.85239505767822</t>
   </si>
   <si>
     <t xml:space="preserve">6.78886747360229</t>
@@ -3704,13 +3704,13 @@
     <t xml:space="preserve">6.77169752120972</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6995849609375</t>
+    <t xml:space="preserve">6.69958543777466</t>
   </si>
   <si>
     <t xml:space="preserve">6.63777446746826</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40770149230957</t>
+    <t xml:space="preserve">6.40770196914673</t>
   </si>
   <si>
     <t xml:space="preserve">6.39396572113037</t>
@@ -3725,7 +3725,7 @@
     <t xml:space="preserve">6.45577669143677</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50900220870972</t>
+    <t xml:space="preserve">6.50900173187256</t>
   </si>
   <si>
     <t xml:space="preserve">6.55879402160645</t>
@@ -27616,7 +27616,7 @@
         <v>6.5149998664856</v>
       </c>
       <c r="G848" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -27642,7 +27642,7 @@
         <v>6.30000019073486</v>
       </c>
       <c r="G849" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -27668,7 +27668,7 @@
         <v>6.31500005722046</v>
       </c>
       <c r="G850" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -27694,7 +27694,7 @@
         <v>6.33500003814697</v>
       </c>
       <c r="G851" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -27720,7 +27720,7 @@
         <v>6.17999982833862</v>
       </c>
       <c r="G852" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -27746,7 +27746,7 @@
         <v>6.17999982833862</v>
       </c>
       <c r="G853" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -27772,7 +27772,7 @@
         <v>6.11499977111816</v>
       </c>
       <c r="G854" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -27798,7 +27798,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G855" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -27824,7 +27824,7 @@
         <v>6.11999988555908</v>
       </c>
       <c r="G856" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -27850,7 +27850,7 @@
         <v>6.20499992370605</v>
       </c>
       <c r="G857" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -27876,7 +27876,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G858" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -27902,7 +27902,7 @@
         <v>6.17999982833862</v>
       </c>
       <c r="G859" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -27928,7 +27928,7 @@
         <v>6.15000009536743</v>
       </c>
       <c r="G860" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -27954,7 +27954,7 @@
         <v>6.14499998092651</v>
       </c>
       <c r="G861" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -27980,7 +27980,7 @@
         <v>6.05999994277954</v>
       </c>
       <c r="G862" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -28006,7 +28006,7 @@
         <v>6.07499980926514</v>
       </c>
       <c r="G863" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -28032,7 +28032,7 @@
         <v>6.07999992370605</v>
       </c>
       <c r="G864" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -28058,7 +28058,7 @@
         <v>6.03000020980835</v>
       </c>
       <c r="G865" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -28084,7 +28084,7 @@
         <v>6</v>
       </c>
       <c r="G866" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -28110,7 +28110,7 @@
         <v>6.03000020980835</v>
       </c>
       <c r="G867" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -28136,7 +28136,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G868" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -28162,7 +28162,7 @@
         <v>6.01000022888184</v>
       </c>
       <c r="G869" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -28188,7 +28188,7 @@
         <v>6.09499979019165</v>
       </c>
       <c r="G870" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -28214,7 +28214,7 @@
         <v>6.17500019073486</v>
       </c>
       <c r="G871" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -28240,7 +28240,7 @@
         <v>6.15999984741211</v>
       </c>
       <c r="G872" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -28266,7 +28266,7 @@
         <v>6.21999979019165</v>
       </c>
       <c r="G873" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -28292,7 +28292,7 @@
         <v>6.19500017166138</v>
       </c>
       <c r="G874" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -28318,7 +28318,7 @@
         <v>6.20499992370605</v>
       </c>
       <c r="G875" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -28344,7 +28344,7 @@
         <v>6.125</v>
       </c>
       <c r="G876" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -28370,7 +28370,7 @@
         <v>6.16499996185303</v>
       </c>
       <c r="G877" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -28396,7 +28396,7 @@
         <v>6.07000017166138</v>
       </c>
       <c r="G878" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -28422,7 +28422,7 @@
         <v>6.07499980926514</v>
       </c>
       <c r="G879" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -28448,7 +28448,7 @@
         <v>6.20499992370605</v>
       </c>
       <c r="G880" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -28474,7 +28474,7 @@
         <v>6.25500011444092</v>
       </c>
       <c r="G881" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -28500,7 +28500,7 @@
         <v>6.28499984741211</v>
       </c>
       <c r="G882" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -28526,7 +28526,7 @@
         <v>6.32499980926514</v>
       </c>
       <c r="G883" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -28552,7 +28552,7 @@
         <v>6.46999979019165</v>
       </c>
       <c r="G884" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -28578,7 +28578,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G885" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -28604,7 +28604,7 @@
         <v>6.38500022888184</v>
       </c>
       <c r="G886" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -28630,7 +28630,7 @@
         <v>6.46500015258789</v>
       </c>
       <c r="G887" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -28656,7 +28656,7 @@
         <v>6.47499990463257</v>
       </c>
       <c r="G888" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -28682,7 +28682,7 @@
         <v>6.48000001907349</v>
       </c>
       <c r="G889" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -28708,7 +28708,7 @@
         <v>6.5149998664856</v>
       </c>
       <c r="G890" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -28734,7 +28734,7 @@
         <v>6.66499996185303</v>
       </c>
       <c r="G891" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -28760,7 +28760,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G892" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -28786,7 +28786,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G893" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -28812,7 +28812,7 @@
         <v>6.6399998664856</v>
       </c>
       <c r="G894" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -28838,7 +28838,7 @@
         <v>6.58500003814697</v>
       </c>
       <c r="G895" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -28864,7 +28864,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G896" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -28890,7 +28890,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G897" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -28916,7 +28916,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G898" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -28942,7 +28942,7 @@
         <v>6.73000001907349</v>
       </c>
       <c r="G899" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -28968,7 +28968,7 @@
         <v>6.76000022888184</v>
       </c>
       <c r="G900" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -28994,7 +28994,7 @@
         <v>6.69500017166138</v>
       </c>
       <c r="G901" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -29020,7 +29020,7 @@
         <v>6.69500017166138</v>
       </c>
       <c r="G902" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -29046,7 +29046,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G903" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -29072,7 +29072,7 @@
         <v>6.59499979019165</v>
       </c>
       <c r="G904" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -29098,7 +29098,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G905" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -29124,7 +29124,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G906" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -29150,7 +29150,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G907" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -29176,7 +29176,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G908" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -29202,7 +29202,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G909" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -29254,7 +29254,7 @@
         <v>6.46500015258789</v>
       </c>
       <c r="G911" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -29280,7 +29280,7 @@
         <v>6.71500015258789</v>
       </c>
       <c r="G912" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -29306,7 +29306,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G913" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -29332,7 +29332,7 @@
         <v>6.57000017166138</v>
       </c>
       <c r="G914" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -29358,7 +29358,7 @@
         <v>6.55000019073486</v>
       </c>
       <c r="G915" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -29384,7 +29384,7 @@
         <v>6.57000017166138</v>
       </c>
       <c r="G916" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -29410,7 +29410,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G917" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -29436,7 +29436,7 @@
         <v>6.26000022888184</v>
       </c>
       <c r="G918" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -29462,7 +29462,7 @@
         <v>6.2649998664856</v>
       </c>
       <c r="G919" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -29488,7 +29488,7 @@
         <v>6.27500009536743</v>
       </c>
       <c r="G920" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -29514,7 +29514,7 @@
         <v>6.17000007629395</v>
       </c>
       <c r="G921" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -29540,7 +29540,7 @@
         <v>6.30000019073486</v>
       </c>
       <c r="G922" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -29592,7 +29592,7 @@
         <v>6.46000003814697</v>
       </c>
       <c r="G924" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -29618,7 +29618,7 @@
         <v>6.60500001907349</v>
       </c>
       <c r="G925" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -29644,7 +29644,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G926" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -29670,7 +29670,7 @@
         <v>6.48000001907349</v>
       </c>
       <c r="G927" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -29696,7 +29696,7 @@
         <v>6.53499984741211</v>
       </c>
       <c r="G928" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -29722,7 +29722,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G929" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -29748,7 +29748,7 @@
         <v>6.59499979019165</v>
       </c>
       <c r="G930" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -29774,7 +29774,7 @@
         <v>6.65500020980835</v>
       </c>
       <c r="G931" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -29800,7 +29800,7 @@
         <v>6.57999992370605</v>
       </c>
       <c r="G932" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -29826,7 +29826,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G933" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -29852,7 +29852,7 @@
         <v>6.60500001907349</v>
       </c>
       <c r="G934" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -29878,7 +29878,7 @@
         <v>6.71000003814697</v>
       </c>
       <c r="G935" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -29904,7 +29904,7 @@
         <v>6.73999977111816</v>
       </c>
       <c r="G936" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -29930,7 +29930,7 @@
         <v>6.73999977111816</v>
       </c>
       <c r="G937" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -29956,7 +29956,7 @@
         <v>6.86499977111816</v>
       </c>
       <c r="G938" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -29982,7 +29982,7 @@
         <v>6.88000011444092</v>
       </c>
       <c r="G939" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -30008,7 +30008,7 @@
         <v>6.84999990463257</v>
       </c>
       <c r="G940" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -30034,7 +30034,7 @@
         <v>6.84999990463257</v>
       </c>
       <c r="G941" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -30060,7 +30060,7 @@
         <v>7.01000022888184</v>
       </c>
       <c r="G942" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -30086,7 +30086,7 @@
         <v>6.94000005722046</v>
       </c>
       <c r="G943" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -30112,7 +30112,7 @@
         <v>6.96999979019165</v>
       </c>
       <c r="G944" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -30138,7 +30138,7 @@
         <v>7.03999996185303</v>
       </c>
       <c r="G945" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -30164,7 +30164,7 @@
         <v>7.05000019073486</v>
       </c>
       <c r="G946" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -30190,7 +30190,7 @@
         <v>7</v>
       </c>
       <c r="G947" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -30216,7 +30216,7 @@
         <v>6.875</v>
       </c>
       <c r="G948" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -30242,7 +30242,7 @@
         <v>6.91499996185303</v>
       </c>
       <c r="G949" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -30268,7 +30268,7 @@
         <v>6.84999990463257</v>
       </c>
       <c r="G950" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -30294,7 +30294,7 @@
         <v>6.8600001335144</v>
       </c>
       <c r="G951" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -30320,7 +30320,7 @@
         <v>6.89499998092651</v>
       </c>
       <c r="G952" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -30346,7 +30346,7 @@
         <v>6.8899998664856</v>
       </c>
       <c r="G953" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -30372,7 +30372,7 @@
         <v>6.88500022888184</v>
       </c>
       <c r="G954" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -30398,7 +30398,7 @@
         <v>6.79500007629395</v>
       </c>
       <c r="G955" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -30424,7 +30424,7 @@
         <v>6.79500007629395</v>
       </c>
       <c r="G956" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -30450,7 +30450,7 @@
         <v>6.94000005722046</v>
       </c>
       <c r="G957" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -30476,7 +30476,7 @@
         <v>6.95499992370605</v>
       </c>
       <c r="G958" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -30502,7 +30502,7 @@
         <v>6.94999980926514</v>
       </c>
       <c r="G959" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -30528,7 +30528,7 @@
         <v>6.94500017166138</v>
       </c>
       <c r="G960" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -30554,7 +30554,7 @@
         <v>6.97499990463257</v>
       </c>
       <c r="G961" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -30580,7 +30580,7 @@
         <v>7.19000005722046</v>
       </c>
       <c r="G962" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -30606,7 +30606,7 @@
         <v>7.25</v>
       </c>
       <c r="G963" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -30632,7 +30632,7 @@
         <v>7.30499982833862</v>
       </c>
       <c r="G964" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -30658,7 +30658,7 @@
         <v>7.36499977111816</v>
       </c>
       <c r="G965" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -30684,7 +30684,7 @@
         <v>7.42500019073486</v>
       </c>
       <c r="G966" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -30710,7 +30710,7 @@
         <v>7.5149998664856</v>
       </c>
       <c r="G967" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -30736,7 +30736,7 @@
         <v>7.55999994277954</v>
       </c>
       <c r="G968" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -30762,7 +30762,7 @@
         <v>7.57999992370605</v>
       </c>
       <c r="G969" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -30788,7 +30788,7 @@
         <v>7.59499979019165</v>
       </c>
       <c r="G970" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -30814,7 +30814,7 @@
         <v>7.625</v>
       </c>
       <c r="G971" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -30840,7 +30840,7 @@
         <v>7.67500019073486</v>
       </c>
       <c r="G972" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -30866,7 +30866,7 @@
         <v>7.69000005722046</v>
       </c>
       <c r="G973" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -30892,7 +30892,7 @@
         <v>7.68499994277954</v>
       </c>
       <c r="G974" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -30918,7 +30918,7 @@
         <v>7.69500017166138</v>
       </c>
       <c r="G975" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -30944,7 +30944,7 @@
         <v>7.68499994277954</v>
       </c>
       <c r="G976" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -30970,7 +30970,7 @@
         <v>7.71000003814697</v>
       </c>
       <c r="G977" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -30996,7 +30996,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G978" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -31022,7 +31022,7 @@
         <v>7.71000003814697</v>
       </c>
       <c r="G979" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -31048,7 +31048,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G980" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -31074,7 +31074,7 @@
         <v>8.26000022888184</v>
       </c>
       <c r="G981" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -31100,7 +31100,7 @@
         <v>8.39500045776367</v>
       </c>
       <c r="G982" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -31126,7 +31126,7 @@
         <v>8.63000011444092</v>
       </c>
       <c r="G983" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -31152,7 +31152,7 @@
         <v>8.77999973297119</v>
       </c>
       <c r="G984" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -31178,7 +31178,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G985" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -31204,7 +31204,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G986" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -31230,7 +31230,7 @@
         <v>8.61999988555908</v>
       </c>
       <c r="G987" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -31256,7 +31256,7 @@
         <v>8.53499984741211</v>
       </c>
       <c r="G988" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -31282,7 +31282,7 @@
         <v>8.76500034332275</v>
       </c>
       <c r="G989" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -31308,7 +31308,7 @@
         <v>8.97000026702881</v>
       </c>
       <c r="G990" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -31334,7 +31334,7 @@
         <v>8.98999977111816</v>
       </c>
       <c r="G991" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -31360,7 +31360,7 @@
         <v>9.11499977111816</v>
       </c>
       <c r="G992" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -31386,7 +31386,7 @@
         <v>9.03999996185303</v>
       </c>
       <c r="G993" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -31412,7 +31412,7 @@
         <v>9.19999980926514</v>
       </c>
       <c r="G994" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -31438,7 +31438,7 @@
         <v>9.22999954223633</v>
       </c>
       <c r="G995" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -31464,7 +31464,7 @@
         <v>9.30500030517578</v>
       </c>
       <c r="G996" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -31490,7 +31490,7 @@
         <v>9.21500015258789</v>
       </c>
       <c r="G997" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -31516,7 +31516,7 @@
         <v>9.13000011444092</v>
       </c>
       <c r="G998" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -31542,7 +31542,7 @@
         <v>9.10499954223633</v>
       </c>
       <c r="G999" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -31568,7 +31568,7 @@
         <v>9.21000003814697</v>
       </c>
       <c r="G1000" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -31594,7 +31594,7 @@
         <v>9.27999973297119</v>
       </c>
       <c r="G1001" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -31620,7 +31620,7 @@
         <v>9.20499992370605</v>
       </c>
       <c r="G1002" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -31646,7 +31646,7 @@
         <v>9.03499984741211</v>
       </c>
       <c r="G1003" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -31672,7 +31672,7 @@
         <v>9.0600004196167</v>
       </c>
       <c r="G1004" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -31698,7 +31698,7 @@
         <v>9.10000038146973</v>
       </c>
       <c r="G1005" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -31724,7 +31724,7 @@
         <v>9.10499954223633</v>
       </c>
       <c r="G1006" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -31750,7 +31750,7 @@
         <v>9.0649995803833</v>
       </c>
       <c r="G1007" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -31776,7 +31776,7 @@
         <v>9.16499996185303</v>
       </c>
       <c r="G1008" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -31802,7 +31802,7 @@
         <v>9.13500022888184</v>
       </c>
       <c r="G1009" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -31828,7 +31828,7 @@
         <v>9.125</v>
       </c>
       <c r="G1010" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -31854,7 +31854,7 @@
         <v>9.08500003814697</v>
       </c>
       <c r="G1011" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -31880,7 +31880,7 @@
         <v>8.96500015258789</v>
       </c>
       <c r="G1012" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -31906,7 +31906,7 @@
         <v>8.92000007629395</v>
       </c>
       <c r="G1013" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -31932,7 +31932,7 @@
         <v>8.9350004196167</v>
       </c>
       <c r="G1014" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -31958,7 +31958,7 @@
         <v>8.85499954223633</v>
       </c>
       <c r="G1015" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -31984,7 +31984,7 @@
         <v>8.89500045776367</v>
       </c>
       <c r="G1016" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -32010,7 +32010,7 @@
         <v>8.77499961853027</v>
       </c>
       <c r="G1017" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -32036,7 +32036,7 @@
         <v>8.59500026702881</v>
       </c>
       <c r="G1018" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -32062,7 +32062,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G1019" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -32088,7 +32088,7 @@
         <v>8.80000019073486</v>
       </c>
       <c r="G1020" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -32114,7 +32114,7 @@
         <v>9.11499977111816</v>
       </c>
       <c r="G1021" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -32140,7 +32140,7 @@
         <v>9</v>
       </c>
       <c r="G1022" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -32166,7 +32166,7 @@
         <v>8.9350004196167</v>
       </c>
       <c r="G1023" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -32192,7 +32192,7 @@
         <v>8.85499954223633</v>
       </c>
       <c r="G1024" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -32218,7 +32218,7 @@
         <v>8.73499965667725</v>
       </c>
       <c r="G1025" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -32244,7 +32244,7 @@
         <v>8.72999954223633</v>
       </c>
       <c r="G1026" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -32270,7 +32270,7 @@
         <v>8.875</v>
       </c>
       <c r="G1027" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -32296,7 +32296,7 @@
         <v>8.77000045776367</v>
       </c>
       <c r="G1028" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -32322,7 +32322,7 @@
         <v>8.61999988555908</v>
       </c>
       <c r="G1029" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -32348,7 +32348,7 @@
         <v>8.65999984741211</v>
       </c>
       <c r="G1030" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -32374,7 +32374,7 @@
         <v>8.65999984741211</v>
       </c>
       <c r="G1031" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -32400,7 +32400,7 @@
         <v>8.59000015258789</v>
       </c>
       <c r="G1032" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -32426,7 +32426,7 @@
         <v>8.32999992370605</v>
       </c>
       <c r="G1033" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -32452,7 +32452,7 @@
         <v>8.51500034332275</v>
       </c>
       <c r="G1034" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -32478,7 +32478,7 @@
         <v>8.61999988555908</v>
       </c>
       <c r="G1035" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -32504,7 +32504,7 @@
         <v>8.40999984741211</v>
       </c>
       <c r="G1036" t="s">
-        <v>769</v>
+        <v>727</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -32608,7 +32608,7 @@
         <v>8.32999992370605</v>
       </c>
       <c r="G1040" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -32764,7 +32764,7 @@
         <v>8.40999984741211</v>
       </c>
       <c r="G1046" t="s">
-        <v>769</v>
+        <v>727</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -61762,7 +61762,7 @@
     </row>
     <row r="2162">
       <c r="A2162" s="1" t="n">
-        <v>45471.6520023148</v>
+        <v>45471.2916666667</v>
       </c>
       <c r="B2162" t="n">
         <v>837411</v>
@@ -61783,6 +61783,32 @@
         <v>1740</v>
       </c>
       <c r="H2162" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2163">
+      <c r="A2163" s="1" t="n">
+        <v>45474.6493287037</v>
+      </c>
+      <c r="B2163" t="n">
+        <v>1001311</v>
+      </c>
+      <c r="C2163" t="n">
+        <v>10.6000003814697</v>
+      </c>
+      <c r="D2163" t="n">
+        <v>10.4799995422363</v>
+      </c>
+      <c r="E2163" t="n">
+        <v>10.4899997711182</v>
+      </c>
+      <c r="F2163" t="n">
+        <v>10.5900001525879</v>
+      </c>
+      <c r="G2163" t="s">
+        <v>1730</v>
+      </c>
+      <c r="H2163" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BMED.MI.xlsx
+++ b/data/BMED.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="1744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1745" uniqueCount="1745">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -47,148 +47,148 @@
     <t xml:space="preserve">4.26425123214722</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99385118484497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90060782432556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89439296722412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92236495018005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03425455093384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04047155380249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75452995300293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72344994544983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.760746717453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5431821346283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66750478744507</t>
+    <t xml:space="preserve">3.99385142326355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90060877799988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89439249038696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92236566543579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.034255027771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04047107696533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75453019142151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72344923019409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76074576377869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54318284988403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66750550270081</t>
   </si>
   <si>
     <t xml:space="preserve">3.90682506561279</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91614937782288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91925668716431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82912302017212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84155583381653</t>
+    <t xml:space="preserve">3.91614985466003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91925740242004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82912254333496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84155559539795</t>
   </si>
   <si>
     <t xml:space="preserve">3.68615293502808</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58669543266296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64264011383057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77628660202026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.46237277984619</t>
+    <t xml:space="preserve">3.58669495582581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64264035224915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77628636360168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.46237230300903</t>
   </si>
   <si>
     <t xml:space="preserve">3.30386209487915</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60534381866455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71723365783691</t>
+    <t xml:space="preserve">3.60534358024597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71723318099976</t>
   </si>
   <si>
     <t xml:space="preserve">3.78561091423035</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88817644119263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84466290473938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84777212142944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95966243743896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92547345161438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83844757080078</t>
+    <t xml:space="preserve">3.88817620277405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84466314315796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84777235984802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95966219902039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92547273635864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83844828605652</t>
   </si>
   <si>
     <t xml:space="preserve">3.98763465881348</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07465982437134</t>
+    <t xml:space="preserve">4.07465934753418</t>
   </si>
   <si>
     <t xml:space="preserve">4.07155179977417</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2176308631897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23938798904419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13371276855469</t>
+    <t xml:space="preserve">4.21763038635254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23938751220703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.133713722229</t>
   </si>
   <si>
     <t xml:space="preserve">4.2114143371582</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20830678939819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27357530593872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34816932678223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33262777328491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30154752731323</t>
+    <t xml:space="preserve">4.20830631256104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27357482910156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34816837310791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33262825012207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30154848098755</t>
   </si>
   <si>
     <t xml:space="preserve">4.23006200790405</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28600788116455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2518196105957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22073888778687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17411756515503</t>
+    <t xml:space="preserve">4.28600692749023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25181865692139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22073841094971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17411708831787</t>
   </si>
   <si>
     <t xml:space="preserve">4.35749244689941</t>
@@ -197,37 +197,37 @@
     <t xml:space="preserve">4.39168119430542</t>
   </si>
   <si>
-    <t xml:space="preserve">4.41654634475708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24249505996704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1523609161377</t>
+    <t xml:space="preserve">4.41654586791992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24249458312988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15236139297485</t>
   </si>
   <si>
     <t xml:space="preserve">4.04668712615967</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27979230880737</t>
+    <t xml:space="preserve">4.27979135513306</t>
   </si>
   <si>
     <t xml:space="preserve">4.3139796257019</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27046775817871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43208646774292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47559833526611</t>
+    <t xml:space="preserve">4.27046728134155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43208599090576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47559881210327</t>
   </si>
   <si>
     <t xml:space="preserve">4.40100479125977</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5056414604187</t>
+    <t xml:space="preserve">4.50564050674438</t>
   </si>
   <si>
     <t xml:space="preserve">4.4390549659729</t>
@@ -236,76 +236,76 @@
     <t xml:space="preserve">4.51198196411133</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54051828384399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53100633621216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43271207809448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4834451675415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44222593307495</t>
+    <t xml:space="preserve">4.54051876068115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53100681304932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4327130317688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48344564437866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44222545623779</t>
   </si>
   <si>
     <t xml:space="preserve">4.57222557067871</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55637311935425</t>
+    <t xml:space="preserve">4.55637216567993</t>
   </si>
   <si>
     <t xml:space="preserve">4.61661672592163</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48978710174561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65783739089966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56588411331177</t>
+    <t xml:space="preserve">4.48978614807129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6578369140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56588459014893</t>
   </si>
   <si>
     <t xml:space="preserve">4.53417730331421</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63881158828735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4866156578064</t>
+    <t xml:space="preserve">4.63881206512451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48661661148071</t>
   </si>
   <si>
     <t xml:space="preserve">4.49612808227539</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48027467727661</t>
+    <t xml:space="preserve">4.48027515411377</t>
   </si>
   <si>
     <t xml:space="preserve">4.51515293121338</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47710371017456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50247049331665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66100692749023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90198469161987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83857011795044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75613021850586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78466701507568</t>
+    <t xml:space="preserve">4.4771032333374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50246953964233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66100740432739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90198564529419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8385705947876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75613069534302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78466653823853</t>
   </si>
   <si>
     <t xml:space="preserve">4.8163743019104</t>
@@ -314,10 +314,10 @@
     <t xml:space="preserve">4.77832508087158</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72442197799683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74661779403687</t>
+    <t xml:space="preserve">4.72442245483398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74661731719971</t>
   </si>
   <si>
     <t xml:space="preserve">4.60710525512695</t>
@@ -332,16 +332,16 @@
     <t xml:space="preserve">4.64198303222656</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22027349472046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03319787979126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05856418609619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98563647270203</t>
+    <t xml:space="preserve">4.22027254104614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0331974029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05856370925903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98563694953918</t>
   </si>
   <si>
     <t xml:space="preserve">4.115638256073</t>
@@ -350,103 +350,103 @@
     <t xml:space="preserve">4.32490730285645</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36929845809937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34710264205933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50881099700928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8302698135376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58612203598022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73514795303345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69709777832031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89051413536072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90002679824829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75734257698059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70661044120789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64636635780334</t>
+    <t xml:space="preserve">4.36929798126221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34710359573364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50881147384644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83026957511902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5861222743988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73514699935913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69709825515747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89051461219788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90002703666687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75734305381775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70661020278931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64636540412903</t>
   </si>
   <si>
     <t xml:space="preserve">3.6717324256897</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8746612071991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97295379638672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1092963218689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9951491355896</t>
+    <t xml:space="preserve">3.87466096878052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97295331954956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10929679870605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99514937400818</t>
   </si>
   <si>
     <t xml:space="preserve">4.02051496505737</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04271030426025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06490612030029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0458812713623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01417350769043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15368843078613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09027194976807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1600284576416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87783169746399</t>
+    <t xml:space="preserve">4.04271078109741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06490516662598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04588174819946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01417398452759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1536865234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09027147293091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16002893447876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87783122062683</t>
   </si>
   <si>
     <t xml:space="preserve">3.8207573890686</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9063675403595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05222272872925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07758903503418</t>
+    <t xml:space="preserve">3.90636706352234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05222320556641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07758855819702</t>
   </si>
   <si>
     <t xml:space="preserve">3.96344208717346</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89685535430908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94441604614258</t>
+    <t xml:space="preserve">3.89685606956482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94441676139832</t>
   </si>
   <si>
     <t xml:space="preserve">3.85246515274048</t>
@@ -458,115 +458,115 @@
     <t xml:space="preserve">4.01734399795532</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94124627113342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96978354454041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01100206375122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07441806793213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09344244003296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05539321899414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08075952529907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17271089553833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11246824264526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98880815505981</t>
+    <t xml:space="preserve">3.941246509552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96978402137756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01100301742554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07441902160645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09344148635864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05539274215698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08075904846191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1727123260498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11246728897095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98880767822266</t>
   </si>
   <si>
     <t xml:space="preserve">4.02368593215942</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00783157348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78587961196899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85880661010742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77953767776489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83978247642517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87149047851562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76685523986816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65270781517029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69075679779053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7605140209198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73197674751282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74148917198181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92222213745117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88100147247314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9570996761322</t>
+    <t xml:space="preserve">4.00783252716064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78587889671326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85880780220032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77953720092773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83978199958801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87149000167847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76685547828674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65270829200745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69075703620911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76051330566406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7319769859314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74148964881897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92222142219543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88100123405457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95709943771362</t>
   </si>
   <si>
     <t xml:space="preserve">3.89368486404419</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95392942428589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79539132118225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86831879615784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91905093193054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92539286613464</t>
+    <t xml:space="preserve">3.95392966270447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7953929901123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86831951141357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91905117034912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92539310455322</t>
   </si>
   <si>
     <t xml:space="preserve">4.0014910697937</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07124662399292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84295248985291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81441569328308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.950758934021</t>
+    <t xml:space="preserve">4.07124757766724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84295272827148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81441617012024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95075845718384</t>
   </si>
   <si>
     <t xml:space="preserve">4.0490517616272</t>
@@ -581,25 +581,25 @@
     <t xml:space="preserve">3.77002573013306</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75047540664673</t>
+    <t xml:space="preserve">3.75047492980957</t>
   </si>
   <si>
     <t xml:space="preserve">3.85148692131042</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87429594993591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85800385475159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90036344528198</t>
+    <t xml:space="preserve">3.87429547309875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85800361633301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90036392211914</t>
   </si>
   <si>
     <t xml:space="preserve">3.94924092292786</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98182559013367</t>
+    <t xml:space="preserve">3.98182487487793</t>
   </si>
   <si>
     <t xml:space="preserve">4.03396034240723</t>
@@ -608,43 +608,43 @@
     <t xml:space="preserve">4.06980276107788</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26531076431274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34025382995605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67587423324585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51295280456543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44778347015381</t>
+    <t xml:space="preserve">4.26530933380127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34025478363037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67587375640869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51295232772827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44778251647949</t>
   </si>
   <si>
     <t xml:space="preserve">4.51621055603027</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49991846084595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49014329910278</t>
+    <t xml:space="preserve">4.49991798400879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49014282226562</t>
   </si>
   <si>
     <t xml:space="preserve">4.40542316436768</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48362636566162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46081638336182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49665975570679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50317621231079</t>
+    <t xml:space="preserve">4.48362588882446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46081733703613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49665927886963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50317716598511</t>
   </si>
   <si>
     <t xml:space="preserve">4.48036766052246</t>
@@ -653,7 +653,7 @@
     <t xml:space="preserve">4.45104074478149</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50643444061279</t>
+    <t xml:space="preserve">4.50643539428711</t>
   </si>
   <si>
     <t xml:space="preserve">4.52924394607544</t>
@@ -662,7 +662,7 @@
     <t xml:space="preserve">4.69216680526733</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71171760559082</t>
+    <t xml:space="preserve">4.7117166519165</t>
   </si>
   <si>
     <t xml:space="preserve">4.61722278594971</t>
@@ -671,169 +671,169 @@
     <t xml:space="preserve">4.65958213806152</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84857320785522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74104356765747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91374158859253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81598711013794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80295419692993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87463998794556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81272983551025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80621242523193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68239116668701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8387975692749</t>
+    <t xml:space="preserve">4.84857273101807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74104404449463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91374111175537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8159875869751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80295372009277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87464094161987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8127293586731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80621194839478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68239164352417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83879709243774</t>
   </si>
   <si>
     <t xml:space="preserve">4.77688646316528</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7638521194458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77036905288696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6074481010437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61396360397339</t>
+    <t xml:space="preserve">4.76385307312012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77036952972412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60744714736938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61396408081055</t>
   </si>
   <si>
     <t xml:space="preserve">4.66609907150269</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64980697631836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53576040267944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56182861328125</t>
+    <t xml:space="preserve">4.64980792999268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53576135635376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56182813644409</t>
   </si>
   <si>
     <t xml:space="preserve">4.54879474639893</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63677263259888</t>
+    <t xml:space="preserve">4.63677358627319</t>
   </si>
   <si>
     <t xml:space="preserve">4.69868326187134</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64003133773804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62373971939087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60092973709106</t>
+    <t xml:space="preserve">4.6400318145752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62373876571655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60093069076538</t>
   </si>
   <si>
     <t xml:space="preserve">4.29137754440308</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15452241897583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12519693374634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0209264755249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04047679901123</t>
+    <t xml:space="preserve">4.15452289581299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12519645690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02092695236206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04047632217407</t>
   </si>
   <si>
     <t xml:space="preserve">4.01766777038574</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15126419067383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20665740966797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16104030609131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17081451416016</t>
+    <t xml:space="preserve">4.15126466751099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20665693283081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16103982925415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17081546783447</t>
   </si>
   <si>
     <t xml:space="preserve">4.21643304824829</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2490177154541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26205062866211</t>
+    <t xml:space="preserve">4.24901723861694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26205110549927</t>
   </si>
   <si>
     <t xml:space="preserve">4.35980463027954</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32721996307373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35328817367554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39564800262451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30441045761108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32070446014404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34351253509521</t>
+    <t xml:space="preserve">4.32722091674805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35328722000122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39564847946167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3044114112854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32070350646973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34351301193237</t>
   </si>
   <si>
     <t xml:space="preserve">4.37935543060303</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39890623092651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46407508850098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47385025024414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50969362258911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54227733612061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48688364028931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44452476501465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40216445922852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3663215637207</t>
+    <t xml:space="preserve">4.39890670776367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46407413482666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4738507270813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50969409942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54227781295776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48688507080078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44452381134033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40216493606567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36632204055786</t>
   </si>
   <si>
     <t xml:space="preserve">4.42497396469116</t>
@@ -842,94 +842,94 @@
     <t xml:space="preserve">4.58973121643066</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59634399414062</t>
+    <t xml:space="preserve">4.59634351730347</t>
   </si>
   <si>
     <t xml:space="preserve">4.66578483581543</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60295724868774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64594554901123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61949157714844</t>
+    <t xml:space="preserve">4.60295820236206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64594459533691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61949110031128</t>
   </si>
   <si>
     <t xml:space="preserve">4.59303712844849</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65917253494263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73853397369385</t>
+    <t xml:space="preserve">4.65917205810547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73853349685669</t>
   </si>
   <si>
     <t xml:space="preserve">4.74184036254883</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70877265930176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86088180541992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8674955368042</t>
+    <t xml:space="preserve">4.7087721824646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86088228225708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86749601364136</t>
   </si>
   <si>
     <t xml:space="preserve">4.88072156906128</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87741565704346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92040348052979</t>
+    <t xml:space="preserve">4.8774151802063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92040300369263</t>
   </si>
   <si>
     <t xml:space="preserve">4.79805421829224</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81128168106079</t>
+    <t xml:space="preserve">4.81128120422363</t>
   </si>
   <si>
     <t xml:space="preserve">4.8906421661377</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99315166473389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05597877502441</t>
+    <t xml:space="preserve">4.99315118789673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05597829818726</t>
   </si>
   <si>
     <t xml:space="preserve">4.99976396560669</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00637769699097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98323059082031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88733530044556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84765529632568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93693733215332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81789541244507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94355010986328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96008348464966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90717601776123</t>
+    <t xml:space="preserve">5.00637817382812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98323106765747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88733625411987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84765481948853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.936936378479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81789493560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94354963302612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96008396148682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90717554092407</t>
   </si>
   <si>
     <t xml:space="preserve">4.82120132446289</t>
@@ -938,79 +938,79 @@
     <t xml:space="preserve">4.79474782943726</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83112144470215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91378927230835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80466794967651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85096216201782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75837421417236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83773517608643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89394903182983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84104108810425</t>
+    <t xml:space="preserve">4.83112096786499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91378974914551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80466747283936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85096120834351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75837326049805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83773469924927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89394950866699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84104204177856</t>
   </si>
   <si>
     <t xml:space="preserve">4.8542685508728</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90056180953979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02621841430664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89725637435913</t>
+    <t xml:space="preserve">4.90056276321411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02621793746948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89725589752197</t>
   </si>
   <si>
     <t xml:space="preserve">4.93032264709473</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91048288345337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82781505584717</t>
+    <t xml:space="preserve">4.91048240661621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82781457901001</t>
   </si>
   <si>
     <t xml:space="preserve">4.77821445465088</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71538686752319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85757541656494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83442831039429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76168012619019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79144048690796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75506687164307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73522710800171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.721999168396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65586519241333</t>
+    <t xml:space="preserve">4.71538543701172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85757493972778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83442735671997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76167964935303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79144096374512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75506639480591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73522663116455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72200012207031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65586471557617</t>
   </si>
   <si>
     <t xml:space="preserve">4.69554615020752</t>
@@ -1019,13 +1019,13 @@
     <t xml:space="preserve">4.74514675140381</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67570638656616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72530603408813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77490663528442</t>
+    <t xml:space="preserve">4.675705909729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72530651092529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77490711212158</t>
   </si>
   <si>
     <t xml:space="preserve">4.80136108398438</t>
@@ -1034,34 +1034,34 @@
     <t xml:space="preserve">4.87080240249634</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9633903503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94685697555542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7716007232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6856255531311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66909217834473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66247797012329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75176048278809</t>
+    <t xml:space="preserve">4.96339082717896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94685745239258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77160167694092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68562602996826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66909170150757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66247844696045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75176000595093</t>
   </si>
   <si>
     <t xml:space="preserve">4.71869325637817</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78813457489014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74174451828003</t>
+    <t xml:space="preserve">4.78813362121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74174499511719</t>
   </si>
   <si>
     <t xml:space="preserve">4.6260929107666</t>
@@ -1073,22 +1073,22 @@
     <t xml:space="preserve">4.66350936889648</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66010761260986</t>
+    <t xml:space="preserve">4.66010808944702</t>
   </si>
   <si>
     <t xml:space="preserve">4.75535106658936</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76555585861206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77916240692139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88461017608643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88801193237305</t>
+    <t xml:space="preserve">4.76555681228638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77916193008423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88460874557495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88801145553589</t>
   </si>
   <si>
     <t xml:space="preserve">4.86079883575439</t>
@@ -1106,106 +1106,106 @@
     <t xml:space="preserve">4.85059452056885</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91862440109253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97305059432983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03427743911743</t>
+    <t xml:space="preserve">4.918625831604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97304964065552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03427696228027</t>
   </si>
   <si>
     <t xml:space="preserve">5.0853009223938</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96624708175659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02067184448242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04788303375244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9764518737793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99345922470093</t>
+    <t xml:space="preserve">4.96624612808228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02067136764526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04788398742676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97645139694214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99345970153809</t>
   </si>
   <si>
     <t xml:space="preserve">4.90842056274414</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81998062133789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80297183990479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89141368865967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99005842208862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98665618896484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95264005661011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0955057144165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.122718334198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17033958435059</t>
+    <t xml:space="preserve">4.81998109817505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80297231674194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89141273498535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99005699157715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98665571212769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95264053344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09550523757935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12271738052368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17033910751343</t>
   </si>
   <si>
     <t xml:space="preserve">5.25877952575684</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28599166870117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30299949645996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29619598388672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33701419830322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38803768157959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39143943786621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33021068572998</t>
+    <t xml:space="preserve">5.28599119186401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3029990196228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29619550704956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33701467514038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38803720474243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39143991470337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33021116256714</t>
   </si>
   <si>
     <t xml:space="preserve">5.37443113327026</t>
   </si>
   <si>
-    <t xml:space="preserve">5.408447265625</t>
+    <t xml:space="preserve">5.40844631195068</t>
   </si>
   <si>
     <t xml:space="preserve">5.272385597229</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1635365486145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24857425689697</t>
+    <t xml:space="preserve">5.16353607177734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24857473373413</t>
   </si>
   <si>
     <t xml:space="preserve">5.17714262008667</t>
   </si>
   <si>
-    <t xml:space="preserve">5.07509660720825</t>
+    <t xml:space="preserve">5.07509565353394</t>
   </si>
   <si>
     <t xml:space="preserve">4.7621545791626</t>
@@ -1220,58 +1220,58 @@
     <t xml:space="preserve">4.91522359848022</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95944404602051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9492392539978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94583749771118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95604228973389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06149053573608</t>
+    <t xml:space="preserve">4.95944356918335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94923877716064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94583797454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95604181289673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06148910522461</t>
   </si>
   <si>
     <t xml:space="preserve">5.03767871856689</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82678413391113</t>
+    <t xml:space="preserve">4.82678365707397</t>
   </si>
   <si>
     <t xml:space="preserve">4.78596544265747</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83358716964722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90501832962036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93903493881226</t>
+    <t xml:space="preserve">4.83358669281006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90501880645752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93903398513794</t>
   </si>
   <si>
     <t xml:space="preserve">4.93223142623901</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87440538406372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84719228744507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77576065063477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80637454986572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81657886505127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73834371566772</t>
+    <t xml:space="preserve">4.87440586090088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84719276428223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77576017379761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80637359619141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81657934188843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73834323883057</t>
   </si>
   <si>
     <t xml:space="preserve">4.79957103729248</t>
@@ -1286,13 +1286,13 @@
     <t xml:space="preserve">4.72813892364502</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71793413162231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79616975784302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83698797225952</t>
+    <t xml:space="preserve">4.71793460845947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79617023468018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83698844909668</t>
   </si>
   <si>
     <t xml:space="preserve">4.90708827972412</t>
@@ -1304,7 +1304,7 @@
     <t xml:space="preserve">4.7040843963623</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60258293151855</t>
+    <t xml:space="preserve">4.6025824546814</t>
   </si>
   <si>
     <t xml:space="preserve">4.63758325576782</t>
@@ -1313,85 +1313,85 @@
     <t xml:space="preserve">4.66208362579346</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74958467483521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73208522796631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76008605957031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74608516693115</t>
+    <t xml:space="preserve">4.74958515167236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73208475112915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76008558273315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74608469009399</t>
   </si>
   <si>
     <t xml:space="preserve">4.65508317947388</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71458530426025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67608451843262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66558361053467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57458209991455</t>
+    <t xml:space="preserve">4.71458435058594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6760835647583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66558408737183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57458257675171</t>
   </si>
   <si>
     <t xml:space="preserve">4.49758100509644</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31207752227783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29107713699341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27707624435425</t>
+    <t xml:space="preserve">4.31207704544067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29107666015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27707672119141</t>
   </si>
   <si>
     <t xml:space="preserve">4.22457599639893</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25957584381104</t>
+    <t xml:space="preserve">4.25957632064819</t>
   </si>
   <si>
     <t xml:space="preserve">4.27007627487183</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24907636642456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18257522583008</t>
+    <t xml:space="preserve">4.24907684326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18257427215576</t>
   </si>
   <si>
     <t xml:space="preserve">4.06707286834717</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18607568740845</t>
+    <t xml:space="preserve">4.18607521057129</t>
   </si>
   <si>
     <t xml:space="preserve">4.23157596588135</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28057670593262</t>
+    <t xml:space="preserve">4.28057718276978</t>
   </si>
   <si>
     <t xml:space="preserve">4.09507369995117</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16857528686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1895751953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07057332992554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21757650375366</t>
+    <t xml:space="preserve">4.16857481002808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18957567214966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07057285308838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21757555007935</t>
   </si>
   <si>
     <t xml:space="preserve">4.15807485580444</t>
@@ -1400,13 +1400,13 @@
     <t xml:space="preserve">4.15457439422607</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19307470321655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13707494735718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11957406997681</t>
+    <t xml:space="preserve">4.19307518005371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13707399368286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11957454681396</t>
   </si>
   <si>
     <t xml:space="preserve">4.16507482528687</t>
@@ -1418,25 +1418,25 @@
     <t xml:space="preserve">4.20707559585571</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07407283782959</t>
+    <t xml:space="preserve">4.07407331466675</t>
   </si>
   <si>
     <t xml:space="preserve">4.02857208251953</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0040717124939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06357336044312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12657356262207</t>
+    <t xml:space="preserve">4.00407218933105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06357288360596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12657403945923</t>
   </si>
   <si>
     <t xml:space="preserve">4.11257410049438</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1440749168396</t>
+    <t xml:space="preserve">4.14407444000244</t>
   </si>
   <si>
     <t xml:space="preserve">3.98657178878784</t>
@@ -1469,31 +1469,31 @@
     <t xml:space="preserve">4.32957744598389</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38907909393311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34007787704468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29807710647583</t>
+    <t xml:space="preserve">4.38907861709595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34007835388184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29807615280151</t>
   </si>
   <si>
     <t xml:space="preserve">4.23507595062256</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24557685852051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22107648849487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14757537841797</t>
+    <t xml:space="preserve">4.24557590484619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22107601165771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14757442474365</t>
   </si>
   <si>
     <t xml:space="preserve">4.21407556533813</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2560772895813</t>
+    <t xml:space="preserve">4.25607633590698</t>
   </si>
   <si>
     <t xml:space="preserve">4.26307678222656</t>
@@ -1502,16 +1502,16 @@
     <t xml:space="preserve">4.25257635116577</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20007467269897</t>
+    <t xml:space="preserve">4.20007562637329</t>
   </si>
   <si>
     <t xml:space="preserve">4.17557525634766</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12307357788086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2735767364502</t>
+    <t xml:space="preserve">4.1230731010437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27357625961304</t>
   </si>
   <si>
     <t xml:space="preserve">4.20357513427734</t>
@@ -1520,52 +1520,52 @@
     <t xml:space="preserve">4.26657676696777</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22807645797729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32257795333862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3330774307251</t>
+    <t xml:space="preserve">4.22807598114014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32257747650146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33307790756226</t>
   </si>
   <si>
     <t xml:space="preserve">4.35407829284668</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46608066558838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44857978820801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46258068084717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47658061981201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85356998443604</t>
+    <t xml:space="preserve">4.46608018875122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44858026504517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46258020401001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47658014297485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85356903076172</t>
   </si>
   <si>
     <t xml:space="preserve">3.88507008552551</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77306747436523</t>
+    <t xml:space="preserve">3.77306699752808</t>
   </si>
   <si>
     <t xml:space="preserve">3.7765679359436</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79756808280945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86056900024414</t>
+    <t xml:space="preserve">3.79756855964661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8605694770813</t>
   </si>
   <si>
     <t xml:space="preserve">3.80106806755066</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70306658744812</t>
+    <t xml:space="preserve">3.7030668258667</t>
   </si>
   <si>
     <t xml:space="preserve">3.68206644058228</t>
@@ -1574,85 +1574,85 @@
     <t xml:space="preserve">3.62956547737122</t>
   </si>
   <si>
-    <t xml:space="preserve">3.605064868927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53856372833252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56306409835815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50706243515015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59106469154358</t>
+    <t xml:space="preserve">3.60506510734558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53856301307678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56306433677673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50706267356873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59106492996216</t>
   </si>
   <si>
     <t xml:space="preserve">3.58756446838379</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65056586265564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71006679534912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69956588745117</t>
+    <t xml:space="preserve">3.65056562423706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7100670337677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69956636428833</t>
   </si>
   <si>
     <t xml:space="preserve">3.70656633377075</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67506575584412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64006495475769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63656568527222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66754698753357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50365519523621</t>
+    <t xml:space="preserve">3.6750659942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64006567001343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63656544685364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66754746437073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50365495681763</t>
   </si>
   <si>
     <t xml:space="preserve">3.65297937393188</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64569544792175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72217845916748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89699697494507</t>
+    <t xml:space="preserve">3.64569520950317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72217798233032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89699649810791</t>
   </si>
   <si>
     <t xml:space="preserve">3.86057662963867</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85693407058716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84964966773987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83144021034241</t>
+    <t xml:space="preserve">3.85693454742432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84964990615845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83143997192383</t>
   </si>
   <si>
     <t xml:space="preserve">3.82415533065796</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68211579322815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6602635383606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61728763580322</t>
+    <t xml:space="preserve">3.68211531639099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66026306152344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61728739738464</t>
   </si>
   <si>
     <t xml:space="preserve">3.67847371101379</t>
@@ -1661,10 +1661,10 @@
     <t xml:space="preserve">3.74403071403503</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81322956085205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72946190834045</t>
+    <t xml:space="preserve">3.81323003768921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72946214675903</t>
   </si>
   <si>
     <t xml:space="preserve">3.7039680480957</t>
@@ -1676,58 +1676,58 @@
     <t xml:space="preserve">3.70032596588135</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52987790107727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71489429473877</t>
+    <t xml:space="preserve">3.52987766265869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71489357948303</t>
   </si>
   <si>
     <t xml:space="preserve">3.70761013031006</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67483115196228</t>
+    <t xml:space="preserve">3.67483162879944</t>
   </si>
   <si>
     <t xml:space="preserve">3.82051396369934</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80594515800476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76588320732117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8532919883728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87514448165894</t>
+    <t xml:space="preserve">3.80594563484192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76588273048401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85329246520996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87514400482178</t>
   </si>
   <si>
     <t xml:space="preserve">3.9224910736084</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90063858032227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87150287628174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90792369842529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87878656387329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86786031723022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92613315582275</t>
+    <t xml:space="preserve">3.90063953399658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87150239944458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90792322158813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87878608703613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86785984039307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92613363265991</t>
   </si>
   <si>
     <t xml:space="preserve">3.88242864608765</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00625848770142</t>
+    <t xml:space="preserve">4.00625801086426</t>
   </si>
   <si>
     <t xml:space="preserve">4.15922498703003</t>
@@ -1739,19 +1739,19 @@
     <t xml:space="preserve">4.14829874038696</t>
   </si>
   <si>
-    <t xml:space="preserve">4.286696434021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28305435180664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33040189743042</t>
+    <t xml:space="preserve">4.28669595718384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2830548286438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33040142059326</t>
   </si>
   <si>
     <t xml:space="preserve">4.38867425918579</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33404350280762</t>
+    <t xml:space="preserve">4.33404302597046</t>
   </si>
   <si>
     <t xml:space="preserve">4.34132766723633</t>
@@ -1760,10 +1760,10 @@
     <t xml:space="preserve">4.3486123085022</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46515703201294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42873764038086</t>
+    <t xml:space="preserve">4.4651575088501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42873620986938</t>
   </si>
   <si>
     <t xml:space="preserve">4.48336791992188</t>
@@ -1775,10 +1775,10 @@
     <t xml:space="preserve">4.5452823638916</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44330453872681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49429368972778</t>
+    <t xml:space="preserve">4.44330549240112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49429416656494</t>
   </si>
   <si>
     <t xml:space="preserve">4.54892492294312</t>
@@ -1790,7 +1790,7 @@
     <t xml:space="preserve">4.56713485717773</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61083936691284</t>
+    <t xml:space="preserve">4.61083841323853</t>
   </si>
   <si>
     <t xml:space="preserve">4.57806015014648</t>
@@ -1799,7 +1799,7 @@
     <t xml:space="preserve">4.60355472564697</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61812400817871</t>
+    <t xml:space="preserve">4.61812305450439</t>
   </si>
   <si>
     <t xml:space="preserve">4.58534479141235</t>
@@ -1808,25 +1808,25 @@
     <t xml:space="preserve">4.63269186019897</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57077693939209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59991359710693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65454339981079</t>
+    <t xml:space="preserve">4.57077646255493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59991312026978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65454435348511</t>
   </si>
   <si>
     <t xml:space="preserve">4.62176561355591</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76744747161865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75287961959839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74923753738403</t>
+    <t xml:space="preserve">4.76744794845581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75288009643555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74923706054688</t>
   </si>
   <si>
     <t xml:space="preserve">4.74559545516968</t>
@@ -1835,112 +1835,112 @@
     <t xml:space="preserve">4.73831176757812</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73466968536377</t>
+    <t xml:space="preserve">4.73466920852661</t>
   </si>
   <si>
     <t xml:space="preserve">4.83664703369141</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90220355987549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92769813537598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89856100082397</t>
+    <t xml:space="preserve">4.90220308303833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92769765853882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89856195449829</t>
   </si>
   <si>
     <t xml:space="preserve">4.89127779006958</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89503145217896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79743051528931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84247732162476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84623098373413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93632364273071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91380071640015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8800163269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72986173629761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74112367630005</t>
+    <t xml:space="preserve">4.89503192901611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79743146896362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84247636795044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84623050689697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93632316589355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91380023956299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88001537322998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72986221313477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74112319946289</t>
   </si>
   <si>
     <t xml:space="preserve">4.75613880157471</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63976860046387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5909686088562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65478467941284</t>
+    <t xml:space="preserve">4.63976955413818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59096765518188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65478372573853</t>
   </si>
   <si>
     <t xml:space="preserve">4.59472227096558</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65853881835938</t>
+    <t xml:space="preserve">4.65853786468506</t>
   </si>
   <si>
     <t xml:space="preserve">4.61724615097046</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61349248886108</t>
+    <t xml:space="preserve">4.61349201202393</t>
   </si>
   <si>
     <t xml:space="preserve">4.54967641830444</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56093788146973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56469202041626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52715349197388</t>
+    <t xml:space="preserve">4.56093740463257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56469106674194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52715301513672</t>
   </si>
   <si>
     <t xml:space="preserve">4.50462961196899</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48210716247559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51213836669922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57595348358154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63601493835449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62475347518921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6697998046875</t>
+    <t xml:space="preserve">4.48210668563843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51213788986206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57595300674438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63601541519165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62475299835205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66980028152466</t>
   </si>
   <si>
     <t xml:space="preserve">4.65103006362915</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59847593307495</t>
+    <t xml:space="preserve">4.59847640991211</t>
   </si>
   <si>
     <t xml:space="preserve">4.62850761413574</t>
@@ -1949,7 +1949,7 @@
     <t xml:space="preserve">4.55718374252319</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6960768699646</t>
+    <t xml:space="preserve">4.69607734680176</t>
   </si>
   <si>
     <t xml:space="preserve">4.71859931945801</t>
@@ -1958,13 +1958,13 @@
     <t xml:space="preserve">4.7486310005188</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85749292373657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78992414474487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79367780685425</t>
+    <t xml:space="preserve">4.85749340057373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78992366790771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79367685317993</t>
   </si>
   <si>
     <t xml:space="preserve">4.85373878479004</t>
@@ -1973,31 +1973,31 @@
     <t xml:space="preserve">4.86124658584595</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86500024795532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00389337539673</t>
+    <t xml:space="preserve">4.8650016784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00389289855957</t>
   </si>
   <si>
     <t xml:space="preserve">5.04518556594849</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99263143539429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98512506484985</t>
+    <t xml:space="preserve">4.99263191223145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98512411117554</t>
   </si>
   <si>
     <t xml:space="preserve">4.94383096694946</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02266263961792</t>
+    <t xml:space="preserve">5.02266311645508</t>
   </si>
   <si>
     <t xml:space="preserve">5.01515436172485</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05269336700439</t>
+    <t xml:space="preserve">5.05269384384155</t>
   </si>
   <si>
     <t xml:space="preserve">5.07521677017212</t>
@@ -2012,46 +2012,46 @@
     <t xml:space="preserve">4.95133924484253</t>
   </si>
   <si>
-    <t xml:space="preserve">4.947585105896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97761678695679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95509243011475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04143190383911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00013875961304</t>
+    <t xml:space="preserve">4.94758558273315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97761631011963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9550929069519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04143142700195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00013971328735</t>
   </si>
   <si>
     <t xml:space="preserve">4.9325704574585</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91755437850952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69983100891113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70358419418335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71109294891357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63226079940796</t>
+    <t xml:space="preserve">4.91755485534668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69983148574829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70358467102051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71109247207642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63226127624512</t>
   </si>
   <si>
     <t xml:space="preserve">4.84998512268066</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95884656906128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90629196166992</t>
+    <t xml:space="preserve">4.95884704589844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90629243850708</t>
   </si>
   <si>
     <t xml:space="preserve">4.99638509750366</t>
@@ -2063,7 +2063,7 @@
     <t xml:space="preserve">5.03767776489258</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06020069122314</t>
+    <t xml:space="preserve">5.0602011680603</t>
   </si>
   <si>
     <t xml:space="preserve">5.15404748916626</t>
@@ -2078,13 +2078,13 @@
     <t xml:space="preserve">5.26290941238403</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21035575866699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23287868499756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28543186187744</t>
+    <t xml:space="preserve">5.21035528182983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2328782081604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2854323387146</t>
   </si>
   <si>
     <t xml:space="preserve">5.29294061660767</t>
@@ -2093,46 +2093,46 @@
     <t xml:space="preserve">5.25540208816528</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16155576705933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19158601760864</t>
+    <t xml:space="preserve">5.16155481338501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19158554077148</t>
   </si>
   <si>
     <t xml:space="preserve">5.15029382705688</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17657041549683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17281675338745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16906309127808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10149240493774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22161626815796</t>
+    <t xml:space="preserve">5.17657089233398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17281723022461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16906356811523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10149335861206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22161674499512</t>
   </si>
   <si>
     <t xml:space="preserve">5.21786308288574</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21410989761353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23663282394409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39804840087891</t>
+    <t xml:space="preserve">5.21410942077637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23663187026978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39804887771606</t>
   </si>
   <si>
     <t xml:space="preserve">5.4430947303772</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4843864440918</t>
+    <t xml:space="preserve">5.48438692092896</t>
   </si>
   <si>
     <t xml:space="preserve">5.5294337272644</t>
@@ -2141,7 +2141,7 @@
     <t xml:space="preserve">5.57447910308838</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64204931259155</t>
+    <t xml:space="preserve">5.64204883575439</t>
   </si>
   <si>
     <t xml:space="preserve">5.6758337020874</t>
@@ -2153,10 +2153,10 @@
     <t xml:space="preserve">5.7021107673645</t>
   </si>
   <si>
-    <t xml:space="preserve">5.72463369369507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76217269897461</t>
+    <t xml:space="preserve">5.72463417053223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76217317581177</t>
   </si>
   <si>
     <t xml:space="preserve">5.77343416213989</t>
@@ -2180,7 +2180,7 @@
     <t xml:space="preserve">6.20137405395508</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30272912979126</t>
+    <t xml:space="preserve">6.3027286529541</t>
   </si>
   <si>
     <t xml:space="preserve">6.47915983200073</t>
@@ -2192,28 +2192,28 @@
     <t xml:space="preserve">6.45663642883301</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47165250778198</t>
+    <t xml:space="preserve">6.47165155410767</t>
   </si>
   <si>
     <t xml:space="preserve">6.56784152984619</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74483156204224</t>
+    <t xml:space="preserve">6.74483203887939</t>
   </si>
   <si>
     <t xml:space="preserve">6.90258264541626</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91797256469727</t>
+    <t xml:space="preserve">6.91797208786011</t>
   </si>
   <si>
     <t xml:space="preserve">7.01416206359863</t>
   </si>
   <si>
-    <t xml:space="preserve">6.95644903182983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07957220077515</t>
+    <t xml:space="preserve">6.95644998550415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07957077026367</t>
   </si>
   <si>
     <t xml:space="preserve">7.10265636444092</t>
@@ -2222,13 +2222,13 @@
     <t xml:space="preserve">7.16037178039551</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09111404418945</t>
+    <t xml:space="preserve">7.09111499786377</t>
   </si>
   <si>
     <t xml:space="preserve">7.02570581436157</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00646686553955</t>
+    <t xml:space="preserve">7.00646781921387</t>
   </si>
   <si>
     <t xml:space="preserve">7.08726692199707</t>
@@ -2237,7 +2237,7 @@
     <t xml:space="preserve">7.14113330841064</t>
   </si>
   <si>
-    <t xml:space="preserve">7.08341884613037</t>
+    <t xml:space="preserve">7.08341979980469</t>
   </si>
   <si>
     <t xml:space="preserve">6.95260095596313</t>
@@ -2246,31 +2246,31 @@
     <t xml:space="preserve">6.971839427948</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00261926651001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97568655014038</t>
+    <t xml:space="preserve">7.00261974334717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97568607330322</t>
   </si>
   <si>
     <t xml:space="preserve">7.05263805389404</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02955293655396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02185916900635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99107694625854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89873552322388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86410617828369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87564849853516</t>
+    <t xml:space="preserve">7.02955341339111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02185869216919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9910774230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89873504638672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86410665512085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87564897537231</t>
   </si>
   <si>
     <t xml:space="preserve">6.81408739089966</t>
@@ -2279,22 +2279,22 @@
     <t xml:space="preserve">6.84486961364746</t>
   </si>
   <si>
-    <t xml:space="preserve">6.75252676010132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61401414871216</t>
+    <t xml:space="preserve">6.75252532958984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.614013671875</t>
   </si>
   <si>
     <t xml:space="preserve">6.61786079406738</t>
   </si>
   <si>
-    <t xml:space="preserve">6.77176427841187</t>
+    <t xml:space="preserve">6.77176380157471</t>
   </si>
   <si>
     <t xml:space="preserve">6.92566776275635</t>
   </si>
   <si>
-    <t xml:space="preserve">6.72174501419067</t>
+    <t xml:space="preserve">6.72174453735352</t>
   </si>
   <si>
     <t xml:space="preserve">6.71789741516113</t>
@@ -2303,52 +2303,52 @@
     <t xml:space="preserve">6.82947778701782</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74867868423462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63325119018555</t>
+    <t xml:space="preserve">6.74867916107178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63324975967407</t>
   </si>
   <si>
     <t xml:space="preserve">6.66403150558472</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6101655960083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41009044647217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55245208740234</t>
+    <t xml:space="preserve">6.61016607284546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41008996963501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55245113372803</t>
   </si>
   <si>
     <t xml:space="preserve">6.47165203094482</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27157640457153</t>
+    <t xml:space="preserve">6.27157688140869</t>
   </si>
   <si>
     <t xml:space="preserve">6.28311967849731</t>
   </si>
   <si>
-    <t xml:space="preserve">6.379310131073</t>
+    <t xml:space="preserve">6.37930965423584</t>
   </si>
   <si>
     <t xml:space="preserve">6.34083414077759</t>
   </si>
   <si>
-    <t xml:space="preserve">6.394700050354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46395683288574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50243282318115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49473667144775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49858474731445</t>
+    <t xml:space="preserve">6.39469957351685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46395635604858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50243234634399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4947361946106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49858427047729</t>
   </si>
   <si>
     <t xml:space="preserve">6.57553720474243</t>
@@ -2357,28 +2357,28 @@
     <t xml:space="preserve">6.69096422195435</t>
   </si>
   <si>
-    <t xml:space="preserve">6.7294397354126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56399393081665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38315725326538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04456949234009</t>
+    <t xml:space="preserve">6.72944068908691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56399345397949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38315773010254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04456901550293</t>
   </si>
   <si>
     <t xml:space="preserve">5.99070262908936</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00994062423706</t>
+    <t xml:space="preserve">6.00994110107422</t>
   </si>
   <si>
     <t xml:space="preserve">5.86757946014404</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66365718841553</t>
+    <t xml:space="preserve">5.66365766525269</t>
   </si>
   <si>
     <t xml:space="preserve">5.59824800491333</t>
@@ -2387,76 +2387,76 @@
     <t xml:space="preserve">5.57516241073608</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53668642044067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25581216812134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13268899917603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77101612091064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20157194137573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15540075302124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76448512077332</t>
+    <t xml:space="preserve">5.53668689727783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2558126449585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13268947601318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77101564407349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20157146453857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1554012298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76448559761047</t>
   </si>
   <si>
     <t xml:space="preserve">3.76756358146667</t>
   </si>
   <si>
-    <t xml:space="preserve">3.44898271560669</t>
+    <t xml:space="preserve">3.44898223876953</t>
   </si>
   <si>
     <t xml:space="preserve">3.1781120300293</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13809704780579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25660300254822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24736833572388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63982319831848</t>
+    <t xml:space="preserve">3.13809752464294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25660276412964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2473680973053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6398229598999</t>
   </si>
   <si>
     <t xml:space="preserve">3.74909520149231</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95532584190369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82142996788025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63366675376892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57826137542725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5674889087677</t>
+    <t xml:space="preserve">3.95532536506653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82143044471741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63366723060608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57826113700867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56748867034912</t>
   </si>
   <si>
     <t xml:space="preserve">3.57980108261108</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51670050621033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64444041252136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84759283065796</t>
+    <t xml:space="preserve">3.51670074462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6444399356842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84759330749512</t>
   </si>
   <si>
     <t xml:space="preserve">4.0207347869873</t>
@@ -2465,7 +2465,7 @@
     <t xml:space="preserve">4.20926713943481</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85913610458374</t>
+    <t xml:space="preserve">3.85913586616516</t>
   </si>
   <si>
     <t xml:space="preserve">3.90530729293823</t>
@@ -2474,22 +2474,22 @@
     <t xml:space="preserve">4.02458238601685</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94763088226318</t>
+    <t xml:space="preserve">3.94763112068176</t>
   </si>
   <si>
     <t xml:space="preserve">3.75986814498901</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89761185646057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98610687255859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96686887741089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11692523956299</t>
+    <t xml:space="preserve">3.89761233329773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98610639572144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96686935424805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11692476272583</t>
   </si>
   <si>
     <t xml:space="preserve">4.31315231323242</t>
@@ -2501,7 +2501,7 @@
     <t xml:space="preserve">4.28621864318848</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09383916854858</t>
+    <t xml:space="preserve">4.09383964538574</t>
   </si>
   <si>
     <t xml:space="preserve">4.03227806091309</t>
@@ -2522,22 +2522,22 @@
     <t xml:space="preserve">4.382408618927</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24004793167114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14385795593262</t>
+    <t xml:space="preserve">4.24004745483398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14385843276978</t>
   </si>
   <si>
     <t xml:space="preserve">4.25928640365601</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26698160171509</t>
+    <t xml:space="preserve">4.26698112487793</t>
   </si>
   <si>
     <t xml:space="preserve">4.38625621795654</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42473173141479</t>
+    <t xml:space="preserve">4.42473220825195</t>
   </si>
   <si>
     <t xml:space="preserve">4.51322650909424</t>
@@ -2549,13 +2549,13 @@
     <t xml:space="preserve">4.6632833480835</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60941648483276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57094097137451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74023485183716</t>
+    <t xml:space="preserve">4.60941696166992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57094144821167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.740234375</t>
   </si>
   <si>
     <t xml:space="preserve">4.79410123825073</t>
@@ -2564,13 +2564,13 @@
     <t xml:space="preserve">4.97493839263916</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20579385757446</t>
+    <t xml:space="preserve">5.20579433441162</t>
   </si>
   <si>
     <t xml:space="preserve">5.32506895065308</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1211462020874</t>
+    <t xml:space="preserve">5.12114667892456</t>
   </si>
   <si>
     <t xml:space="preserve">4.84411954879761</t>
@@ -2579,7 +2579,7 @@
     <t xml:space="preserve">4.86335802078247</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02495622634888</t>
+    <t xml:space="preserve">5.02495718002319</t>
   </si>
   <si>
     <t xml:space="preserve">4.97109079360962</t>
@@ -2594,22 +2594,22 @@
     <t xml:space="preserve">4.98263311386108</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02880430221558</t>
+    <t xml:space="preserve">5.02880477905273</t>
   </si>
   <si>
     <t xml:space="preserve">4.8133397102356</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80179595947266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85181570053101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89413833618164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91722393035889</t>
+    <t xml:space="preserve">4.80179643630981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85181522369385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8941388130188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91722440719604</t>
   </si>
   <si>
     <t xml:space="preserve">4.83642435073853</t>
@@ -2621,19 +2621,19 @@
     <t xml:space="preserve">4.94030952453613</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0595850944519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03649997711182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82488203048706</t>
+    <t xml:space="preserve">5.05958461761475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03649950027466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82488250732422</t>
   </si>
   <si>
     <t xml:space="preserve">4.94415712356567</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00187206268311</t>
+    <t xml:space="preserve">5.00187158584595</t>
   </si>
   <si>
     <t xml:space="preserve">5.07112741470337</t>
@@ -2648,37 +2648,37 @@
     <t xml:space="preserve">5.21733665466309</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15962219238281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11345148086548</t>
+    <t xml:space="preserve">5.15962266921997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11345195770264</t>
   </si>
   <si>
     <t xml:space="preserve">5.06728029251099</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98648071289062</t>
+    <t xml:space="preserve">4.98648118972778</t>
   </si>
   <si>
     <t xml:space="preserve">4.93261432647705</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91337728500366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95185232162476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76716804504395</t>
+    <t xml:space="preserve">4.91337633132935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95185327529907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7671685218811</t>
   </si>
   <si>
     <t xml:space="preserve">4.95570039749146</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96339559555054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10190963745117</t>
+    <t xml:space="preserve">4.96339511871338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10190916061401</t>
   </si>
   <si>
     <t xml:space="preserve">5.1865553855896</t>
@@ -2690,10 +2690,10 @@
     <t xml:space="preserve">5.15577507019043</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02110910415649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10575675964355</t>
+    <t xml:space="preserve">5.02110958099365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1057562828064</t>
   </si>
   <si>
     <t xml:space="preserve">4.97878551483154</t>
@@ -2705,46 +2705,46 @@
     <t xml:space="preserve">5.05189037322998</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08651828765869</t>
+    <t xml:space="preserve">5.08651781082153</t>
   </si>
   <si>
     <t xml:space="preserve">4.92492008209229</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78255891799927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86720514297485</t>
+    <t xml:space="preserve">4.78255844116211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86720561981201</t>
   </si>
   <si>
     <t xml:space="preserve">4.87105321884155</t>
   </si>
   <si>
-    <t xml:space="preserve">5.09036540985107</t>
+    <t xml:space="preserve">5.09036588668823</t>
   </si>
   <si>
     <t xml:space="preserve">4.84796762466431</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73254013061523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84027290344238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70560646057129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78640651702881</t>
+    <t xml:space="preserve">4.73253965377808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84027242660522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70560598373413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78640556335449</t>
   </si>
   <si>
     <t xml:space="preserve">5.0403470993042</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95954751968384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80949115753174</t>
+    <t xml:space="preserve">4.959547996521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80949068069458</t>
   </si>
   <si>
     <t xml:space="preserve">4.8325777053833</t>
@@ -2756,37 +2756,37 @@
     <t xml:space="preserve">4.65558767318726</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51707458496094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46320867538452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50937986373901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75562477111816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29428863525391</t>
+    <t xml:space="preserve">4.51707410812378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46320772171021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50937938690186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75562524795532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29428815841675</t>
   </si>
   <si>
     <t xml:space="preserve">5.38278341293335</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51744937896729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38663101196289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55592393875122</t>
+    <t xml:space="preserve">5.51744890213013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38663053512573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55592441558838</t>
   </si>
   <si>
     <t xml:space="preserve">5.81756114959717</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80986595153809</t>
+    <t xml:space="preserve">5.8098669052124</t>
   </si>
   <si>
     <t xml:space="preserve">5.73291397094727</t>
@@ -2801,7 +2801,7 @@
     <t xml:space="preserve">6.01763582229614</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89066553115845</t>
+    <t xml:space="preserve">5.89066505432129</t>
   </si>
   <si>
     <t xml:space="preserve">5.97531223297119</t>
@@ -2810,22 +2810,22 @@
     <t xml:space="preserve">5.85218906402588</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92529392242432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76754188537598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7175235748291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70982885360718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64441967010498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60209608078003</t>
+    <t xml:space="preserve">5.92529344558716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76754236221313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71752405166626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70982837677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64441871643066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60209560394287</t>
   </si>
   <si>
     <t xml:space="preserve">5.59440088272095</t>
@@ -2837,13 +2837,13 @@
     <t xml:space="preserve">5.46743011474609</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47512578964233</t>
+    <t xml:space="preserve">5.47512531280518</t>
   </si>
   <si>
     <t xml:space="preserve">5.47897291183472</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46358251571655</t>
+    <t xml:space="preserve">5.46358203887939</t>
   </si>
   <si>
     <t xml:space="preserve">5.44434404373169</t>
@@ -2864,13 +2864,13 @@
     <t xml:space="preserve">5.49821043014526</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43664932250977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44819211959839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65981006622314</t>
+    <t xml:space="preserve">5.43664979934692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44819164276123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6598105430603</t>
   </si>
   <si>
     <t xml:space="preserve">5.63672399520874</t>
@@ -2879,13 +2879,13 @@
     <t xml:space="preserve">5.62902927398682</t>
   </si>
   <si>
-    <t xml:space="preserve">5.27504968643188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14423179626465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07882261276245</t>
+    <t xml:space="preserve">5.27505016326904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14423227310181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07882356643677</t>
   </si>
   <si>
     <t xml:space="preserve">5.16346979141235</t>
@@ -2906,7 +2906,7 @@
     <t xml:space="preserve">5.87912225723267</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89836072921753</t>
+    <t xml:space="preserve">5.89836025238037</t>
   </si>
   <si>
     <t xml:space="preserve">5.88297033309937</t>
@@ -2915,16 +2915,16 @@
     <t xml:space="preserve">5.76369476318359</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67904806137085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69443845748901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75984716415405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62133359909058</t>
+    <t xml:space="preserve">5.67904758453369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6944375038147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75984764099121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62133407592773</t>
   </si>
   <si>
     <t xml:space="preserve">5.6521143913269</t>
@@ -2936,7 +2936,7 @@
     <t xml:space="preserve">5.74445676803589</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77523803710938</t>
+    <t xml:space="preserve">5.77523756027222</t>
   </si>
   <si>
     <t xml:space="preserve">5.75215196609497</t>
@@ -2951,10 +2951,10 @@
     <t xml:space="preserve">5.95992231369019</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97916030883789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96376991271973</t>
+    <t xml:space="preserve">5.97915983200073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96376943588257</t>
   </si>
   <si>
     <t xml:space="preserve">5.97146511077881</t>
@@ -2966,7 +2966,7 @@
     <t xml:space="preserve">6.25233888626099</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15999746322632</t>
+    <t xml:space="preserve">6.15999698638916</t>
   </si>
   <si>
     <t xml:space="preserve">6.18308258056641</t>
@@ -2975,7 +2975,7 @@
     <t xml:space="preserve">6.09074020385742</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13306331634521</t>
+    <t xml:space="preserve">6.13306379318237</t>
   </si>
   <si>
     <t xml:space="preserve">6.14075899124146</t>
@@ -2996,76 +2996,76 @@
     <t xml:space="preserve">6.12844657897949</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04379940032959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10690021514893</t>
+    <t xml:space="preserve">6.04379892349243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10689973831177</t>
   </si>
   <si>
     <t xml:space="preserve">6.05457305908203</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05765104293823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00224494934082</t>
+    <t xml:space="preserve">6.05765151977539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00224542617798</t>
   </si>
   <si>
     <t xml:space="preserve">6.02225351333618</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08535289764404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02994918823242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95761346817017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01455736160278</t>
+    <t xml:space="preserve">6.0853533744812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02994823455811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95761394500732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01455783843994</t>
   </si>
   <si>
     <t xml:space="preserve">6.04072141647339</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01301956176758</t>
+    <t xml:space="preserve">6.01301908493042</t>
   </si>
   <si>
     <t xml:space="preserve">5.98069906234741</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10843896865845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01147890090942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08227491378784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16846179962158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23925733566284</t>
+    <t xml:space="preserve">6.10843944549561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01147985458374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.082275390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16846132278442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23925685882568</t>
   </si>
   <si>
     <t xml:space="preserve">6.21463298797607</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06380748748779</t>
+    <t xml:space="preserve">6.06380796432495</t>
   </si>
   <si>
     <t xml:space="preserve">6.06688547134399</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08843183517456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03918218612671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12463617324829</t>
+    <t xml:space="preserve">6.0884313583374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03918313980103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12463521957397</t>
   </si>
   <si>
     <t xml:space="preserve">6.07521820068359</t>
@@ -3077,7 +3077,7 @@
     <t xml:space="preserve">6.08911657333374</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25898790359497</t>
+    <t xml:space="preserve">6.25898838043213</t>
   </si>
   <si>
     <t xml:space="preserve">6.24354553222656</t>
@@ -3095,19 +3095,19 @@
     <t xml:space="preserve">6.26516532897949</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3856201171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4242262840271</t>
+    <t xml:space="preserve">6.38561964035034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42422676086426</t>
   </si>
   <si>
     <t xml:space="preserve">6.30686140060425</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34546899795532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37172079086304</t>
+    <t xml:space="preserve">6.34546852111816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3717212677002</t>
   </si>
   <si>
     <t xml:space="preserve">6.34237957000732</t>
@@ -3125,16 +3125,16 @@
     <t xml:space="preserve">6.32384824752808</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2790641784668</t>
+    <t xml:space="preserve">6.27906370162964</t>
   </si>
   <si>
     <t xml:space="preserve">6.35318946838379</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53232669830322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33311414718628</t>
+    <t xml:space="preserve">6.53232717514038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33311367034912</t>
   </si>
   <si>
     <t xml:space="preserve">6.47982168197632</t>
@@ -3146,16 +3146,16 @@
     <t xml:space="preserve">6.33774709701538</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35936689376831</t>
+    <t xml:space="preserve">6.35936737060547</t>
   </si>
   <si>
     <t xml:space="preserve">6.35782289505005</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36091089248657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32075977325439</t>
+    <t xml:space="preserve">6.36091041564941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32075929641724</t>
   </si>
   <si>
     <t xml:space="preserve">6.21265935897827</t>
@@ -3170,13 +3170,13 @@
     <t xml:space="preserve">6.34083557128906</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36245536804199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26979827880859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25744390487671</t>
+    <t xml:space="preserve">6.36245489120483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26979780197144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25744342803955</t>
   </si>
   <si>
     <t xml:space="preserve">5.99800395965576</t>
@@ -3188,10 +3188,10 @@
     <t xml:space="preserve">6.24200105667114</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29141807556152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34701251983643</t>
+    <t xml:space="preserve">6.29141759872437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34701299667358</t>
   </si>
   <si>
     <t xml:space="preserve">6.50452899932861</t>
@@ -3200,7 +3200,7 @@
     <t xml:space="preserve">6.51070690155029</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48754262924194</t>
+    <t xml:space="preserve">6.4875431060791</t>
   </si>
   <si>
     <t xml:space="preserve">6.48290920257568</t>
@@ -3212,19 +3212,19 @@
     <t xml:space="preserve">6.4273157119751</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39334058761597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4381251335144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49680757522583</t>
+    <t xml:space="preserve">6.39334106445312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43812561035156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49680805206299</t>
   </si>
   <si>
     <t xml:space="preserve">6.57865571975708</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66204738616943</t>
+    <t xml:space="preserve">6.66204690933228</t>
   </si>
   <si>
     <t xml:space="preserve">6.67131280899048</t>
@@ -3233,13 +3233,13 @@
     <t xml:space="preserve">6.7670578956604</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74698257446289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79022216796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74852561950684</t>
+    <t xml:space="preserve">6.74698305130005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79022264480591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74852609634399</t>
   </si>
   <si>
     <t xml:space="preserve">6.79948759078979</t>
@@ -3254,16 +3254,16 @@
     <t xml:space="preserve">6.69293212890625</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68212270736694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70991992950439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69602108001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75315952301025</t>
+    <t xml:space="preserve">6.68212223052979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70991897583008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69602060317993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75316047668457</t>
   </si>
   <si>
     <t xml:space="preserve">6.76860189437866</t>
@@ -3272,7 +3272,7 @@
     <t xml:space="preserve">6.78713321685791</t>
   </si>
   <si>
-    <t xml:space="preserve">6.78558921813965</t>
+    <t xml:space="preserve">6.78558969497681</t>
   </si>
   <si>
     <t xml:space="preserve">6.81029796600342</t>
@@ -3284,10 +3284,10 @@
     <t xml:space="preserve">6.77941226959229</t>
   </si>
   <si>
-    <t xml:space="preserve">6.75933647155762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75624799728394</t>
+    <t xml:space="preserve">6.75933694839478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75624752044678</t>
   </si>
   <si>
     <t xml:space="preserve">6.72381830215454</t>
@@ -3299,10 +3299,10 @@
     <t xml:space="preserve">6.93229675292969</t>
   </si>
   <si>
-    <t xml:space="preserve">6.88133478164673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93847417831421</t>
+    <t xml:space="preserve">6.88133525848389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93847370147705</t>
   </si>
   <si>
     <t xml:space="preserve">6.87515783309937</t>
@@ -3311,16 +3311,16 @@
     <t xml:space="preserve">6.66667938232422</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87824630737305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09908056259155</t>
+    <t xml:space="preserve">6.87824583053589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09907960891724</t>
   </si>
   <si>
     <t xml:space="preserve">7.04811763763428</t>
   </si>
   <si>
-    <t xml:space="preserve">7.07591438293457</t>
+    <t xml:space="preserve">7.07591485977173</t>
   </si>
   <si>
     <t xml:space="preserve">7.07282638549805</t>
@@ -3329,22 +3329,22 @@
     <t xml:space="preserve">7.15776252746582</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21953392028809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33535623550415</t>
+    <t xml:space="preserve">7.21953296661377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33535528182983</t>
   </si>
   <si>
     <t xml:space="preserve">7.3523416519165</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49904918670654</t>
+    <t xml:space="preserve">7.49905014038086</t>
   </si>
   <si>
     <t xml:space="preserve">7.38940477371216</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52530145645142</t>
+    <t xml:space="preserve">7.52530241012573</t>
   </si>
   <si>
     <t xml:space="preserve">7.45735359191895</t>
@@ -3353,7 +3353,7 @@
     <t xml:space="preserve">7.51294708251953</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61178159713745</t>
+    <t xml:space="preserve">7.61178255081177</t>
   </si>
   <si>
     <t xml:space="preserve">7.51758098602295</t>
@@ -3362,7 +3362,7 @@
     <t xml:space="preserve">7.57626342773438</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61487102508545</t>
+    <t xml:space="preserve">7.61487007141113</t>
   </si>
   <si>
     <t xml:space="preserve">7.63771820068359</t>
@@ -3371,7 +3371,7 @@
     <t xml:space="preserve">7.49894237518311</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5056300163269</t>
+    <t xml:space="preserve">7.50562953948975</t>
   </si>
   <si>
     <t xml:space="preserve">7.41199827194214</t>
@@ -3401,16 +3401,16 @@
     <t xml:space="preserve">7.2682056427002</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33174180984497</t>
+    <t xml:space="preserve">7.33174276351929</t>
   </si>
   <si>
     <t xml:space="preserve">7.47553491592407</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44878149032593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4554705619812</t>
+    <t xml:space="preserve">7.44878244400024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45547151565552</t>
   </si>
   <si>
     <t xml:space="preserve">7.53739786148071</t>
@@ -3425,43 +3425,43 @@
     <t xml:space="preserve">7.65778207778931</t>
   </si>
   <si>
-    <t xml:space="preserve">7.64273500442505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54408645629883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4537992477417</t>
+    <t xml:space="preserve">7.64273452758789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54408740997314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45379829406738</t>
   </si>
   <si>
     <t xml:space="preserve">7.34344625473022</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50484085083008</t>
+    <t xml:space="preserve">7.50483989715576</t>
   </si>
   <si>
     <t xml:space="preserve">7.3657660484314</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58038759231567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48252010345459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14599561691284</t>
+    <t xml:space="preserve">7.58038663864136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48251914978027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14599514007568</t>
   </si>
   <si>
     <t xml:space="preserve">7.20265531539917</t>
   </si>
   <si>
-    <t xml:space="preserve">7.08074998855591</t>
+    <t xml:space="preserve">7.08075046539307</t>
   </si>
   <si>
     <t xml:space="preserve">7.26446533203125</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20780515670776</t>
+    <t xml:space="preserve">7.20780563354492</t>
   </si>
   <si>
     <t xml:space="preserve">7.24557876586914</t>
@@ -3473,22 +3473,22 @@
     <t xml:space="preserve">7.47736883163452</t>
   </si>
   <si>
-    <t xml:space="preserve">7.40697431564331</t>
+    <t xml:space="preserve">7.40697336196899</t>
   </si>
   <si>
     <t xml:space="preserve">7.340012550354</t>
   </si>
   <si>
-    <t xml:space="preserve">7.28850269317627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27820062637329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28335189819336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29880475997925</t>
+    <t xml:space="preserve">7.28850221633911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27820110321045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28335285186768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29880523681641</t>
   </si>
   <si>
     <t xml:space="preserve">7.20952177047729</t>
@@ -3515,7 +3515,7 @@
     <t xml:space="preserve">7.45161533355713</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54433012008667</t>
+    <t xml:space="preserve">7.54433107376099</t>
   </si>
   <si>
     <t xml:space="preserve">7.60099029541016</t>
@@ -3530,7 +3530,7 @@
     <t xml:space="preserve">7.59240579605103</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66280126571655</t>
+    <t xml:space="preserve">7.66280031204224</t>
   </si>
   <si>
     <t xml:space="preserve">7.80359125137329</t>
@@ -3539,7 +3539,7 @@
     <t xml:space="preserve">7.94953393936157</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97872161865234</t>
+    <t xml:space="preserve">7.97872257232666</t>
   </si>
   <si>
     <t xml:space="preserve">7.82247972488403</t>
@@ -3554,25 +3554,25 @@
     <t xml:space="preserve">7.59755706787109</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50140619277954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16831636428833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17861747741699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32799291610718</t>
+    <t xml:space="preserve">7.50140714645386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16831588745117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17861795425415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32799386978149</t>
   </si>
   <si>
     <t xml:space="preserve">7.29193735122681</t>
   </si>
   <si>
-    <t xml:space="preserve">7.23356008529663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35203075408936</t>
+    <t xml:space="preserve">7.23356056213379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35202980041504</t>
   </si>
   <si>
     <t xml:space="preserve">7.46363306045532</t>
@@ -3581,34 +3581,34 @@
     <t xml:space="preserve">7.56665086746216</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49282121658325</t>
+    <t xml:space="preserve">7.49282073974609</t>
   </si>
   <si>
     <t xml:space="preserve">7.2249755859375</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32112503051758</t>
+    <t xml:space="preserve">7.32112550735474</t>
   </si>
   <si>
     <t xml:space="preserve">7.49453783035278</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60614061355591</t>
+    <t xml:space="preserve">7.60614156723022</t>
   </si>
   <si>
     <t xml:space="preserve">7.34859752655029</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09791946411133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29708766937256</t>
+    <t xml:space="preserve">7.09791994094849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29708862304688</t>
   </si>
   <si>
     <t xml:space="preserve">7.24042844772339</t>
   </si>
   <si>
-    <t xml:space="preserve">7.14256143569946</t>
+    <t xml:space="preserve">7.14256191253662</t>
   </si>
   <si>
     <t xml:space="preserve">7.11852359771729</t>
@@ -3617,7 +3617,7 @@
     <t xml:space="preserve">7.04297780990601</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97429847717285</t>
+    <t xml:space="preserve">6.97429800033569</t>
   </si>
   <si>
     <t xml:space="preserve">7.03095817565918</t>
@@ -3626,13 +3626,13 @@
     <t xml:space="preserve">6.43345546722412</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58626556396484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32013654708862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08491277694702</t>
+    <t xml:space="preserve">6.586266040802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32013607025146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08491230010986</t>
   </si>
   <si>
     <t xml:space="preserve">6.11238431930542</t>
@@ -3641,10 +3641,10 @@
     <t xml:space="preserve">5.96987628936768</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58012580871582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5148811340332</t>
+    <t xml:space="preserve">5.58012533187866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51488161087036</t>
   </si>
   <si>
     <t xml:space="preserve">5.67284202575684</t>
@@ -3665,7 +3665,7 @@
     <t xml:space="preserve">6.2960991859436</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62403869628906</t>
+    <t xml:space="preserve">6.62403917312622</t>
   </si>
   <si>
     <t xml:space="preserve">6.5793981552124</t>
@@ -3695,10 +3695,10 @@
     <t xml:space="preserve">6.85239458084106</t>
   </si>
   <si>
-    <t xml:space="preserve">6.78886699676514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65837812423706</t>
+    <t xml:space="preserve">6.78886747360229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6583776473999</t>
   </si>
   <si>
     <t xml:space="preserve">6.77169752120972</t>
@@ -3716,13 +3716,13 @@
     <t xml:space="preserve">6.39396619796753</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55192708969116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51415300369263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45577621459961</t>
+    <t xml:space="preserve">6.551926612854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51415252685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45577669143677</t>
   </si>
   <si>
     <t xml:space="preserve">6.50900220870972</t>
@@ -3773,7 +3773,7 @@
     <t xml:space="preserve">6.05990695953369</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96745586395264</t>
+    <t xml:space="preserve">5.96745634078979</t>
   </si>
   <si>
     <t xml:space="preserve">6.0302529335022</t>
@@ -3782,10 +3782,10 @@
     <t xml:space="preserve">6.30237293243408</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14189195632935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19073390960693</t>
+    <t xml:space="preserve">6.1418924331665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19073438644409</t>
   </si>
   <si>
     <t xml:space="preserve">6.22562122344971</t>
@@ -3800,19 +3800,19 @@
     <t xml:space="preserve">6.20120048522949</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39308023452759</t>
+    <t xml:space="preserve">6.39307975769043</t>
   </si>
   <si>
     <t xml:space="preserve">6.24132108688354</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2552752494812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45413255691528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44366645812988</t>
+    <t xml:space="preserve">6.25527572631836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45413208007812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44366598129272</t>
   </si>
   <si>
     <t xml:space="preserve">6.41226816177368</t>
@@ -3824,13 +3824,13 @@
     <t xml:space="preserve">6.23608732223511</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38435792922974</t>
+    <t xml:space="preserve">6.38435840606689</t>
   </si>
   <si>
     <t xml:space="preserve">6.2953953742981</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20643329620361</t>
+    <t xml:space="preserve">6.20643377304077</t>
   </si>
   <si>
     <t xml:space="preserve">6.0215311050415</t>
@@ -3860,7 +3860,7 @@
     <t xml:space="preserve">5.5522985458374</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58718538284302</t>
+    <t xml:space="preserve">5.58718490600586</t>
   </si>
   <si>
     <t xml:space="preserve">5.74941110610962</t>
@@ -3890,13 +3890,13 @@
     <t xml:space="preserve">5.30111026763916</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45984745025635</t>
+    <t xml:space="preserve">5.45984792709351</t>
   </si>
   <si>
     <t xml:space="preserve">5.61335134506226</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45810317993164</t>
+    <t xml:space="preserve">5.45810270309448</t>
   </si>
   <si>
     <t xml:space="preserve">5.54008769989014</t>
@@ -3905,13 +3905,13 @@
     <t xml:space="preserve">5.46333599090576</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26971197128296</t>
+    <t xml:space="preserve">5.26971244812012</t>
   </si>
   <si>
     <t xml:space="preserve">5.32727575302124</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40751647949219</t>
+    <t xml:space="preserve">5.40751600265503</t>
   </si>
   <si>
     <t xml:space="preserve">5.55404233932495</t>
@@ -3932,13 +3932,13 @@
     <t xml:space="preserve">5.41449403762817</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62556171417236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65172672271729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59416341781616</t>
+    <t xml:space="preserve">5.62556123733521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65172719955444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.594162940979</t>
   </si>
   <si>
     <t xml:space="preserve">5.91686964035034</t>
@@ -3995,7 +3995,7 @@
     <t xml:space="preserve">5.57846355438232</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56276416778564</t>
+    <t xml:space="preserve">5.5627646446228</t>
   </si>
   <si>
     <t xml:space="preserve">5.43193769454956</t>
@@ -4004,7 +4004,7 @@
     <t xml:space="preserve">5.69010257720947</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51043367385864</t>
+    <t xml:space="preserve">5.51043319702148</t>
   </si>
   <si>
     <t xml:space="preserve">5.54880952835083</t>
@@ -4013,7 +4013,7 @@
     <t xml:space="preserve">5.62032794952393</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63777160644531</t>
+    <t xml:space="preserve">5.63777208328247</t>
   </si>
   <si>
     <t xml:space="preserve">5.76685428619385</t>
@@ -4022,13 +4022,13 @@
     <t xml:space="preserve">6.00757646560669</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87326049804688</t>
+    <t xml:space="preserve">5.87326097488403</t>
   </si>
   <si>
     <t xml:space="preserve">5.95873403549194</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73545694351196</t>
+    <t xml:space="preserve">5.7354564666748</t>
   </si>
   <si>
     <t xml:space="preserve">5.70056867599487</t>
@@ -4037,7 +4037,7 @@
     <t xml:space="preserve">5.78080987930298</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51915597915649</t>
+    <t xml:space="preserve">5.51915550231934</t>
   </si>
   <si>
     <t xml:space="preserve">5.58544111251831</t>
@@ -4049,13 +4049,13 @@
     <t xml:space="preserve">5.41798210144043</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59590673446655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51566600799561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56974172592163</t>
+    <t xml:space="preserve">5.59590721130371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51566648483276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56974220275879</t>
   </si>
   <si>
     <t xml:space="preserve">5.40926122665405</t>
@@ -4070,7 +4070,7 @@
     <t xml:space="preserve">5.85407209396362</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83314085006714</t>
+    <t xml:space="preserve">5.83314037322998</t>
   </si>
   <si>
     <t xml:space="preserve">5.77383184432983</t>
@@ -4082,25 +4082,25 @@
     <t xml:space="preserve">5.73371171951294</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58020782470703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75813341140747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80871868133545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93605804443359</t>
+    <t xml:space="preserve">5.58020830154419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75813293457031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80871915817261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93605756759644</t>
   </si>
   <si>
     <t xml:space="preserve">6.01106548309326</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08781719207764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12270355224609</t>
+    <t xml:space="preserve">6.08781671524048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12270402908325</t>
   </si>
   <si>
     <t xml:space="preserve">6.15061378479004</t>
@@ -4121,13 +4121,13 @@
     <t xml:space="preserve">6.63380146026611</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61112499237061</t>
+    <t xml:space="preserve">6.61112451553345</t>
   </si>
   <si>
     <t xml:space="preserve">6.53437376022339</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57798147201538</t>
+    <t xml:space="preserve">6.57798194885254</t>
   </si>
   <si>
     <t xml:space="preserve">6.60065793991089</t>
@@ -4136,7 +4136,7 @@
     <t xml:space="preserve">6.7402081489563</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80125999450684</t>
+    <t xml:space="preserve">6.80126047134399</t>
   </si>
   <si>
     <t xml:space="preserve">6.77683877944946</t>
@@ -4145,10 +4145,10 @@
     <t xml:space="preserve">6.78904962539673</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98092842102051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8971996307373</t>
+    <t xml:space="preserve">6.98092889785767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89720010757446</t>
   </si>
   <si>
     <t xml:space="preserve">7.00535011291504</t>
@@ -4163,7 +4163,7 @@
     <t xml:space="preserve">7.00186157226562</t>
   </si>
   <si>
-    <t xml:space="preserve">7.05419301986694</t>
+    <t xml:space="preserve">7.05419254302979</t>
   </si>
   <si>
     <t xml:space="preserve">7.05958557128906</t>
@@ -5244,6 +5244,9 @@
   </si>
   <si>
     <t xml:space="preserve">10.6499996185303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6999998092651</t>
   </si>
 </sst>
 </file>
@@ -61953,7 +61956,7 @@
     </row>
     <row r="2169">
       <c r="A2169" s="1" t="n">
-        <v>45482.6495023148</v>
+        <v>45482.2916666667</v>
       </c>
       <c r="B2169" t="n">
         <v>684194</v>
@@ -61974,6 +61977,32 @@
         <v>1742</v>
       </c>
       <c r="H2169" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2170">
+      <c r="A2170" s="1" t="n">
+        <v>45483.6493981481</v>
+      </c>
+      <c r="B2170" t="n">
+        <v>673620</v>
+      </c>
+      <c r="C2170" t="n">
+        <v>10.6999998092651</v>
+      </c>
+      <c r="D2170" t="n">
+        <v>10.5299997329712</v>
+      </c>
+      <c r="E2170" t="n">
+        <v>10.6099996566772</v>
+      </c>
+      <c r="F2170" t="n">
+        <v>10.6999998092651</v>
+      </c>
+      <c r="G2170" t="s">
+        <v>1744</v>
+      </c>
+      <c r="H2170" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BMED.MI.xlsx
+++ b/data/BMED.MI.xlsx
@@ -38,130 +38,130 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32330465316772</t>
+    <t xml:space="preserve">4.32330417633057</t>
   </si>
   <si>
     <t xml:space="preserve">BMED.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26425123214722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99385118484497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9006085395813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89439272880554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92236495018005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.034255027771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04047107696533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75453066825867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72345018386841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76074695587158</t>
+    <t xml:space="preserve">4.26425170898438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99385046958923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90060925483704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89439225196838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92236614227295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03425550460815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04047155380249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75453019142151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72344994544983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76074647903442</t>
   </si>
   <si>
     <t xml:space="preserve">3.54318237304688</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66750383377075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90682482719421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91614961624146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91925668716431</t>
+    <t xml:space="preserve">3.66750478744507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90682458877563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91614985466003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91925764083862</t>
   </si>
   <si>
     <t xml:space="preserve">3.82912302017212</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84155535697937</t>
+    <t xml:space="preserve">3.84155583381653</t>
   </si>
   <si>
     <t xml:space="preserve">3.68615293502808</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58669567108154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64264011383057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77628588676453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.46237254142761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30386209487915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60534381866455</t>
+    <t xml:space="preserve">3.58669519424438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64263963699341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77628660202026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.46237301826477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30386233329773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60534310340881</t>
   </si>
   <si>
     <t xml:space="preserve">3.71723389625549</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78561115264893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88817667961121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84466314315796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84777164459229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95966172218323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92547297477722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83844828605652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98763394355774</t>
+    <t xml:space="preserve">3.78561067581177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88817715644836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8446638584137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84777212142944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95966243743896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92547392845154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83844804763794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98763418197632</t>
   </si>
   <si>
     <t xml:space="preserve">4.07465982437134</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07155227661133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21762990951538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23938655853271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13371276855469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21141481399536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20830535888672</t>
+    <t xml:space="preserve">4.07155275344849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21763038635254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23938703536987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13371229171753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2114143371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20830583572388</t>
   </si>
   <si>
     <t xml:space="preserve">4.27357530593872</t>
@@ -179,46 +179,46 @@
     <t xml:space="preserve">4.23006248474121</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28600645065308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25181865692139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22073841094971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17411756515503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35749244689941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39168167114258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41654586791992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24249362945557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15236139297485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04668712615967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27979183197021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31398010253906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27046680450439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4320855140686</t>
+    <t xml:space="preserve">4.28600692749023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2518196105957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22073888778687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17411804199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35749292373657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39168214797974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41654634475708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24249458312988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1523609161377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04668760299683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27979135513306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3139796257019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27046775817871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43208646774292</t>
   </si>
   <si>
     <t xml:space="preserve">4.47559881210327</t>
@@ -227,46 +227,46 @@
     <t xml:space="preserve">4.40100574493408</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50564002990723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43905448913574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51198101043701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54051876068115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.531005859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4327130317688</t>
+    <t xml:space="preserve">4.50564098358154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43905544281006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51198148727417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54051828384399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53100538253784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43271255493164</t>
   </si>
   <si>
     <t xml:space="preserve">4.4834451675415</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44222593307495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57222652435303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55637216567993</t>
+    <t xml:space="preserve">4.44222497940063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57222700119019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55637264251709</t>
   </si>
   <si>
     <t xml:space="preserve">4.61661672592163</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48978757858276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65783548355103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56588554382324</t>
+    <t xml:space="preserve">4.48978710174561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65783596038818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56588411331177</t>
   </si>
   <si>
     <t xml:space="preserve">4.53417730331421</t>
@@ -278,10 +278,10 @@
     <t xml:space="preserve">4.48661613464355</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49612808227539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48027420043945</t>
+    <t xml:space="preserve">4.49612903594971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48027515411377</t>
   </si>
   <si>
     <t xml:space="preserve">4.51515197753906</t>
@@ -293,43 +293,43 @@
     <t xml:space="preserve">4.50246953964233</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66100788116455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90198516845703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8385705947876</t>
+    <t xml:space="preserve">4.66100740432739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90198469161987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83856868743896</t>
   </si>
   <si>
     <t xml:space="preserve">4.75613021850586</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78466653823853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8163743019104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77832460403442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72442293167114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74661779403687</t>
+    <t xml:space="preserve">4.78466701507568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81637525558472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77832508087158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72442197799683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74661874771118</t>
   </si>
   <si>
     <t xml:space="preserve">4.60710477828979</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62930011749268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68003177642822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6419825553894</t>
+    <t xml:space="preserve">4.62929964065552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68003225326538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64198303222656</t>
   </si>
   <si>
     <t xml:space="preserve">4.2202730178833</t>
@@ -338,10 +338,10 @@
     <t xml:space="preserve">4.03319883346558</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05856466293335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98563766479492</t>
+    <t xml:space="preserve">4.05856418609619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98563647270203</t>
   </si>
   <si>
     <t xml:space="preserve">4.11563777923584</t>
@@ -350,226 +350,226 @@
     <t xml:space="preserve">4.32490730285645</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36929798126221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34710311889648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50881052017212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8302698135376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58612179756165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73514747619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69709849357605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8905143737793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90002608299255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75734233856201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70661067962646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64636588096619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6717324256897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87466073036194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97295355796814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10929679870605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99514865875244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02051448822021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04271078109741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06490516662598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0458812713623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01417398452759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1536865234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09027194976807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1600284576416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87783098220825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82075786590576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90636730194092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05222272872925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07758903503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96344208717346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89685583114624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94441723823547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8524649143219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97612500190735</t>
+    <t xml:space="preserve">4.36929845809937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34710264205933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50881099700928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83027052879333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58612275123596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73514652252197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69709777832031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89051461219788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90002679824829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75734281539917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70661044120789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64636611938477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67173218727112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87466049194336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97295236587524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1092963218689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99515008926392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02051544189453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0427098274231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06490564346313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04588222503662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01417350769043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15368700027466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09027147293091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16002893447876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87783122062683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82075715065002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90636801719666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05222177505493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07758855819702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9634416103363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89685606956482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94441699981689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85246515274048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97612452507019</t>
   </si>
   <si>
     <t xml:space="preserve">4.01734495162964</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94124674797058</t>
+    <t xml:space="preserve">3.94124579429626</t>
   </si>
   <si>
     <t xml:space="preserve">3.96978306770325</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01100254058838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07441854476929</t>
+    <t xml:space="preserve">4.01100301742554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07441806793213</t>
   </si>
   <si>
     <t xml:space="preserve">4.09344244003296</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0553936958313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08076047897339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17271184921265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11246728897095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9888072013855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02368593215942</t>
+    <t xml:space="preserve">4.05539321899414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08075952529907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17271137237549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11246776580811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98880767822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02368545532227</t>
   </si>
   <si>
     <t xml:space="preserve">4.00783205032349</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78587985038757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85880732536316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77953720092773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83978199958801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87149000167847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76685476303101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65270829200745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69075703620911</t>
+    <t xml:space="preserve">3.78587937355042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85880661010742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77953815460205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83978152275085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87148976325989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76685571670532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65270757675171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69075679779053</t>
   </si>
   <si>
     <t xml:space="preserve">3.76051330566406</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73197650909424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74148893356323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92222213745117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88100171089172</t>
+    <t xml:space="preserve">3.73197722434998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74148917198181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92222166061401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8810019493103</t>
   </si>
   <si>
     <t xml:space="preserve">3.95710015296936</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89368462562561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95392966270447</t>
+    <t xml:space="preserve">3.89368534088135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95392942428589</t>
   </si>
   <si>
     <t xml:space="preserve">3.79539203643799</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86831879615784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91905164718628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92539310455322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00149154663086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07124662399292</t>
+    <t xml:space="preserve">3.86831831932068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9190514087677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92539286613464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00149059295654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07124614715576</t>
   </si>
   <si>
     <t xml:space="preserve">3.84295320510864</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81441640853882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95075821876526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04905223846436</t>
+    <t xml:space="preserve">3.81441617012024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95075845718384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0490517616272</t>
   </si>
   <si>
     <t xml:space="preserve">3.90953874588013</t>
@@ -578,109 +578,109 @@
     <t xml:space="preserve">3.86514806747437</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7700252532959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75047469139099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.851487159729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87429594993591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85800409317017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90036368370056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94924020767212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98182487487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03396034240723</t>
+    <t xml:space="preserve">3.77002549171448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75047492980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85148692131042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87429642677307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85800385475159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90036344528198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9492404460907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98182463645935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03395986557007</t>
   </si>
   <si>
     <t xml:space="preserve">4.06980323791504</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26531028747559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34025430679321</t>
+    <t xml:space="preserve">4.26531076431274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34025526046753</t>
   </si>
   <si>
     <t xml:space="preserve">4.67587471008301</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51295328140259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44778299331665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51621103286743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49991846084595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49014329910278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40542316436768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48362636566162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46081686019897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4966607093811</t>
+    <t xml:space="preserve">4.51295185089111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44778347015381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51621007919312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49991941452026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49014282226562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40542268753052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48362684249878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46081590652466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49666118621826</t>
   </si>
   <si>
     <t xml:space="preserve">4.50317621231079</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48036813735962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45104169845581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50643491744995</t>
+    <t xml:space="preserve">4.48036766052246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45104074478149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50643539428711</t>
   </si>
   <si>
     <t xml:space="preserve">4.5292444229126</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69216680526733</t>
+    <t xml:space="preserve">4.69216585159302</t>
   </si>
   <si>
     <t xml:space="preserve">4.71171760559082</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61722278594971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65958213806152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84857225418091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74104356765747</t>
+    <t xml:space="preserve">4.61722230911255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65958261489868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84857320785522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74104404449463</t>
   </si>
   <si>
     <t xml:space="preserve">4.91374111175537</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8159875869751</t>
+    <t xml:space="preserve">4.81598806381226</t>
   </si>
   <si>
     <t xml:space="preserve">4.80295372009277</t>
@@ -692,16 +692,16 @@
     <t xml:space="preserve">4.8127293586731</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80621194839478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68239068984985</t>
+    <t xml:space="preserve">4.80621290206909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68239116668701</t>
   </si>
   <si>
     <t xml:space="preserve">4.83879709243774</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77688646316528</t>
+    <t xml:space="preserve">4.77688598632812</t>
   </si>
   <si>
     <t xml:space="preserve">4.76385307312012</t>
@@ -710,43 +710,43 @@
     <t xml:space="preserve">4.77036905288696</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60744667053223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61396455764771</t>
+    <t xml:space="preserve">4.60744714736938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61396408081055</t>
   </si>
   <si>
     <t xml:space="preserve">4.66609907150269</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64980697631836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53576183319092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56182861328125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54879522323608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63677215576172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69868326187134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64003133773804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62373876571655</t>
+    <t xml:space="preserve">4.6498064994812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53576040267944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56182813644409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54879474639893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63677263259888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6986837387085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64003086090088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62373924255371</t>
   </si>
   <si>
     <t xml:space="preserve">4.60092973709106</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29137849807739</t>
+    <t xml:space="preserve">4.29137659072876</t>
   </si>
   <si>
     <t xml:space="preserve">4.15452241897583</t>
@@ -755,82 +755,82 @@
     <t xml:space="preserve">4.12519693374634</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02092599868774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04047679901123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01766729354858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15126371383667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20665693283081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16103935241699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17081499099731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21643257141113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2490177154541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26205158233643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35980463027954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32721996307373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3532886505127</t>
+    <t xml:space="preserve">4.0209264755249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04047632217407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01766777038574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15126419067383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20665740966797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16103982925415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17081451416016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21643304824829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24901723861694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26205205917358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3598051071167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32722043991089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35328769683838</t>
   </si>
   <si>
     <t xml:space="preserve">4.39564800262451</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30441093444824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32070398330688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34351253509521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37935495376587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39890623092651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46407556533813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4738507270813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50969362258911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54227828979492</t>
+    <t xml:space="preserve">4.3044114112854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32070350646973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3435115814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37935590744019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39890575408936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46407508850098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47385025024414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50969409942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54227876663208</t>
   </si>
   <si>
     <t xml:space="preserve">4.48688459396362</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44452381134033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40216445922852</t>
+    <t xml:space="preserve">4.44452524185181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40216493606567</t>
   </si>
   <si>
     <t xml:space="preserve">4.3663215637207</t>
@@ -842,94 +842,94 @@
     <t xml:space="preserve">4.58973073959351</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59634351730347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66578578948975</t>
+    <t xml:space="preserve">4.59634399414062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66578531265259</t>
   </si>
   <si>
     <t xml:space="preserve">4.6029577255249</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64594554901123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61949157714844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5930380821228</t>
+    <t xml:space="preserve">4.64594459533691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61949110031128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59303712844849</t>
   </si>
   <si>
     <t xml:space="preserve">4.65917205810547</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73853349685669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74183988571167</t>
+    <t xml:space="preserve">4.73853397369385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74184036254883</t>
   </si>
   <si>
     <t xml:space="preserve">4.70877265930176</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86088228225708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86749601364136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8807225227356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8774151802063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92040300369263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79805374145508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81128168106079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89064311981201</t>
+    <t xml:space="preserve">4.86088275909424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86749505996704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88072204589844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87741565704346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92040348052979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79805469512939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81128120422363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89064168930054</t>
   </si>
   <si>
     <t xml:space="preserve">4.99315118789673</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0559778213501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99976444244385</t>
+    <t xml:space="preserve">5.05597877502441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99976348876953</t>
   </si>
   <si>
     <t xml:space="preserve">5.00637817382812</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98323106765747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8873348236084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84765481948853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.936936378479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81789493560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9435510635376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96008348464966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90717601776123</t>
+    <t xml:space="preserve">4.98323059082031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88733625411987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84765529632568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93693685531616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81789445877075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94354963302612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96008396148682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90717649459839</t>
   </si>
   <si>
     <t xml:space="preserve">4.82120084762573</t>
@@ -938,64 +938,64 @@
     <t xml:space="preserve">4.7947473526001</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83112144470215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91378974914551</t>
+    <t xml:space="preserve">4.83112096786499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91378927230835</t>
   </si>
   <si>
     <t xml:space="preserve">4.80466747283936</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85096168518066</t>
+    <t xml:space="preserve">4.85096263885498</t>
   </si>
   <si>
     <t xml:space="preserve">4.75837373733521</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83773565292358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89394950866699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84104204177856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85426902770996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90056276321411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02621841430664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89725589752197</t>
+    <t xml:space="preserve">4.83773469924927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89394903182983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84104156494141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8542685508728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90056228637695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02621793746948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89725685119629</t>
   </si>
   <si>
     <t xml:space="preserve">4.93032312393188</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91048240661621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82781457901001</t>
+    <t xml:space="preserve">4.91048288345337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82781553268433</t>
   </si>
   <si>
     <t xml:space="preserve">4.77821445465088</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71538639068604</t>
+    <t xml:space="preserve">4.71538686752319</t>
   </si>
   <si>
     <t xml:space="preserve">4.85757493972778</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83442783355713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76167964935303</t>
+    <t xml:space="preserve">4.83442831039429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76168012619019</t>
   </si>
   <si>
     <t xml:space="preserve">4.79144096374512</t>
@@ -1004,10 +1004,10 @@
     <t xml:space="preserve">4.75506734848022</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73522663116455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72199964523315</t>
+    <t xml:space="preserve">4.73522710800171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.721999168396</t>
   </si>
   <si>
     <t xml:space="preserve">4.65586519241333</t>
@@ -1016,28 +1016,28 @@
     <t xml:space="preserve">4.69554567337036</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74514627456665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67570638656616</t>
+    <t xml:space="preserve">4.74514675140381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67570543289185</t>
   </si>
   <si>
     <t xml:space="preserve">4.72530651092529</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77490663528442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80136156082153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87080192565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96338987350464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94685649871826</t>
+    <t xml:space="preserve">4.77490758895874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80136108398438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87080240249634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96339082717896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94685697555542</t>
   </si>
   <si>
     <t xml:space="preserve">4.7716007232666</t>
@@ -1046,25 +1046,25 @@
     <t xml:space="preserve">4.6856255531311</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66909217834473</t>
+    <t xml:space="preserve">4.66909170150757</t>
   </si>
   <si>
     <t xml:space="preserve">4.66247844696045</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75176000595093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71869277954102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78813362121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74174499511719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62609338760376</t>
+    <t xml:space="preserve">4.75176048278809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71869325637817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78813409805298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74174451828003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62609243392944</t>
   </si>
   <si>
     <t xml:space="preserve">4.62949466705322</t>
@@ -1073,49 +1073,49 @@
     <t xml:space="preserve">4.6635103225708</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66010761260986</t>
+    <t xml:space="preserve">4.66010713577271</t>
   </si>
   <si>
     <t xml:space="preserve">4.75535106658936</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76555633544922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77916193008423</t>
+    <t xml:space="preserve">4.76555585861206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77916240692139</t>
   </si>
   <si>
     <t xml:space="preserve">4.88460969924927</t>
   </si>
   <si>
-    <t xml:space="preserve">4.88801145553589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86079978942871</t>
+    <t xml:space="preserve">4.88801097869873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86079931259155</t>
   </si>
   <si>
     <t xml:space="preserve">4.86760234832764</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84379196166992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9016170501709</t>
+    <t xml:space="preserve">4.84379148483276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90161800384521</t>
   </si>
   <si>
     <t xml:space="preserve">4.85059452056885</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91862535476685</t>
+    <t xml:space="preserve">4.918625831604</t>
   </si>
   <si>
     <t xml:space="preserve">4.97305059432983</t>
   </si>
   <si>
-    <t xml:space="preserve">5.03427791595459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08530139923096</t>
+    <t xml:space="preserve">5.03427743911743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08529996871948</t>
   </si>
   <si>
     <t xml:space="preserve">4.96624708175659</t>
@@ -1124,13 +1124,13 @@
     <t xml:space="preserve">5.02067136764526</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04788446426392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97645139694214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99345970153809</t>
+    <t xml:space="preserve">5.04788398742676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97645092010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99345922470093</t>
   </si>
   <si>
     <t xml:space="preserve">4.90842056274414</t>
@@ -1148,13 +1148,13 @@
     <t xml:space="preserve">4.99005794525146</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98665618896484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95264053344727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0955057144165</t>
+    <t xml:space="preserve">4.98665571212769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95264005661011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09550476074219</t>
   </si>
   <si>
     <t xml:space="preserve">5.12271738052368</t>
@@ -1163,16 +1163,16 @@
     <t xml:space="preserve">5.17033910751343</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25877952575684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28599214553833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30299949645996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29619646072388</t>
+    <t xml:space="preserve">5.25877904891968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28599119186401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30299854278564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29619550704956</t>
   </si>
   <si>
     <t xml:space="preserve">5.33701419830322</t>
@@ -1181,7 +1181,7 @@
     <t xml:space="preserve">5.38803768157959</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39143848419189</t>
+    <t xml:space="preserve">5.39144039154053</t>
   </si>
   <si>
     <t xml:space="preserve">5.33021116256714</t>
@@ -1193,37 +1193,37 @@
     <t xml:space="preserve">5.40844678878784</t>
   </si>
   <si>
-    <t xml:space="preserve">5.272385597229</t>
+    <t xml:space="preserve">5.27238512039185</t>
   </si>
   <si>
     <t xml:space="preserve">5.16353702545166</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24857473373413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17714214324951</t>
+    <t xml:space="preserve">5.24857521057129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17714166641235</t>
   </si>
   <si>
     <t xml:space="preserve">5.07509613037109</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76215362548828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80977630615234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92882966995239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91522455215454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95944309234619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94923973083496</t>
+    <t xml:space="preserve">4.76215505599976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80977582931519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92883014678955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91522407531738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95944356918335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94924020767212</t>
   </si>
   <si>
     <t xml:space="preserve">4.94583797454834</t>
@@ -1232,25 +1232,25 @@
     <t xml:space="preserve">4.95604181289673</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06149053573608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03767919540405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82678365707397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78596496582031</t>
+    <t xml:space="preserve">5.06149005889893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03767967224121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82678413391113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78596544265747</t>
   </si>
   <si>
     <t xml:space="preserve">4.83358669281006</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90501832962036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9390344619751</t>
+    <t xml:space="preserve">4.90501928329468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93903493881226</t>
   </si>
   <si>
     <t xml:space="preserve">4.93223190307617</t>
@@ -1259,37 +1259,37 @@
     <t xml:space="preserve">4.87440538406372</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84719228744507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77576017379761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80637407302856</t>
+    <t xml:space="preserve">4.84719371795654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77576065063477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80637454986572</t>
   </si>
   <si>
     <t xml:space="preserve">4.81657934188843</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73834371566772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79957151412964</t>
+    <t xml:space="preserve">4.73834419250488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79957103729248</t>
   </si>
   <si>
     <t xml:space="preserve">4.77235889434814</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76895761489868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72813844680786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71793365478516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79616928100586</t>
+    <t xml:space="preserve">4.76895713806152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72813940048218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71793413162231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79617071151733</t>
   </si>
   <si>
     <t xml:space="preserve">4.83698844909668</t>
@@ -1301,10 +1301,10 @@
     <t xml:space="preserve">4.84058666229248</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70408487319946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60258293151855</t>
+    <t xml:space="preserve">4.70408391952515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6025824546814</t>
   </si>
   <si>
     <t xml:space="preserve">4.63758325576782</t>
@@ -1313,31 +1313,31 @@
     <t xml:space="preserve">4.66208362579346</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74958562850952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73208522796631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76008558273315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74608564376831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65508413314819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7145848274231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67608451843262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66558361053467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57458209991455</t>
+    <t xml:space="preserve">4.74958515167236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73208570480347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76008605957031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74608516693115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65508365631104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71458435058594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67608404159546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66558313369751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57458162307739</t>
   </si>
   <si>
     <t xml:space="preserve">4.49758100509644</t>
@@ -1349,7 +1349,7 @@
     <t xml:space="preserve">4.29107666015625</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27707719802856</t>
+    <t xml:space="preserve">4.27707624435425</t>
   </si>
   <si>
     <t xml:space="preserve">4.22457551956177</t>
@@ -1358,58 +1358,58 @@
     <t xml:space="preserve">4.25957632064819</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27007675170898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24907684326172</t>
+    <t xml:space="preserve">4.27007627487183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24907636642456</t>
   </si>
   <si>
     <t xml:space="preserve">4.18257474899292</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06707334518433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18607568740845</t>
+    <t xml:space="preserve">4.06707286834717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18607616424561</t>
   </si>
   <si>
     <t xml:space="preserve">4.23157596588135</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28057718276978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09507274627686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16857481002808</t>
+    <t xml:space="preserve">4.28057670593262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09507322311401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16857528686523</t>
   </si>
   <si>
     <t xml:space="preserve">4.1895751953125</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07057285308838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2175760269165</t>
+    <t xml:space="preserve">4.0705738067627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21757555007935</t>
   </si>
   <si>
     <t xml:space="preserve">4.15807485580444</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15457439422607</t>
+    <t xml:space="preserve">4.15457487106323</t>
   </si>
   <si>
     <t xml:space="preserve">4.19307518005371</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13707494735718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11957406997681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16507530212402</t>
+    <t xml:space="preserve">4.13707399368286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11957454681396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16507482528687</t>
   </si>
   <si>
     <t xml:space="preserve">4.09857368469238</t>
@@ -1418,19 +1418,19 @@
     <t xml:space="preserve">4.20707607269287</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07407331466675</t>
+    <t xml:space="preserve">4.07407379150391</t>
   </si>
   <si>
     <t xml:space="preserve">4.02857255935669</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0040717124939</t>
+    <t xml:space="preserve">4.00407218933105</t>
   </si>
   <si>
     <t xml:space="preserve">4.06357336044312</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12657403945923</t>
+    <t xml:space="preserve">4.12657356262207</t>
   </si>
   <si>
     <t xml:space="preserve">4.11257362365723</t>
@@ -1439,22 +1439,22 @@
     <t xml:space="preserve">4.14407396316528</t>
   </si>
   <si>
-    <t xml:space="preserve">3.986572265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06007242202759</t>
+    <t xml:space="preserve">3.98657131195068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06007289886475</t>
   </si>
   <si>
     <t xml:space="preserve">4.10207414627075</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04957294464111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05657291412354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30157709121704</t>
+    <t xml:space="preserve">4.04957246780396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05657243728638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30157804489136</t>
   </si>
   <si>
     <t xml:space="preserve">4.46958065032959</t>
@@ -1466,22 +1466,22 @@
     <t xml:space="preserve">4.3750786781311</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32957792282104</t>
+    <t xml:space="preserve">4.32957744598389</t>
   </si>
   <si>
     <t xml:space="preserve">4.38907909393311</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34007787704468</t>
+    <t xml:space="preserve">4.34007835388184</t>
   </si>
   <si>
     <t xml:space="preserve">4.29807710647583</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23507690429688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24557590484619</t>
+    <t xml:space="preserve">4.2350754737854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24557685852051</t>
   </si>
   <si>
     <t xml:space="preserve">4.22107601165771</t>
@@ -1502,64 +1502,64 @@
     <t xml:space="preserve">4.25257587432861</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20007610321045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1755747795105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12307405471802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27357721328735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2035756111145</t>
+    <t xml:space="preserve">4.20007562637329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17557525634766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12307357788086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2735767364502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20357656478882</t>
   </si>
   <si>
     <t xml:space="preserve">4.26657676696777</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22807550430298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32257843017578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33307838439941</t>
+    <t xml:space="preserve">4.22807598114014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32257747650146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3330774307251</t>
   </si>
   <si>
     <t xml:space="preserve">4.35407829284668</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46608018875122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44857978820801</t>
+    <t xml:space="preserve">4.46608066558838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44858026504517</t>
   </si>
   <si>
     <t xml:space="preserve">4.46257972717285</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4765796661377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85356950759888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88506984710693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77306747436523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77656769752502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79756832122803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86056900024414</t>
+    <t xml:space="preserve">4.47658014297485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85356855392456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88507008552551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77306771278381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77656817436218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79756879806519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86056971549988</t>
   </si>
   <si>
     <t xml:space="preserve">3.80106806755066</t>
@@ -1571,73 +1571,73 @@
     <t xml:space="preserve">3.6820662021637</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62956547737122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60506439208984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53856348991394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56306433677673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50706267356873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59106469154358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58756422996521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6505651473999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7100670337677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69956588745117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70656657218933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67506575584412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64006590843201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63656520843506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66754651069641</t>
+    <t xml:space="preserve">3.62956571578979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.605064868927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53856372833252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56306457519531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5070629119873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59106421470642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58756446838379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65056562423706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71006608009338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69956684112549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70656633377075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6750659942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64006495475769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63656568527222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66754722595215</t>
   </si>
   <si>
     <t xml:space="preserve">3.50365495681763</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65297937393188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64569520950317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72217869758606</t>
+    <t xml:space="preserve">3.65297889709473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64569544792175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72217798233032</t>
   </si>
   <si>
     <t xml:space="preserve">3.89699649810791</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86057639122009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85693454742432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84965014457703</t>
+    <t xml:space="preserve">3.86057615280151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85693407058716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84965038299561</t>
   </si>
   <si>
     <t xml:space="preserve">3.83144021034241</t>
@@ -1646,85 +1646,85 @@
     <t xml:space="preserve">3.82415580749512</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68211531639099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6602635383606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61728715896606</t>
+    <t xml:space="preserve">3.68211579322815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66026377677917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61728739738464</t>
   </si>
   <si>
     <t xml:space="preserve">3.67847418785095</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74403047561646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81323003768921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72946262359619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70396780967712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75131440162659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70032548904419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52987861633301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71489477157593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7076096534729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6748321056366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82051348686218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80594539642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76588320732117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85329246520996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87514424324036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92249202728271</t>
+    <t xml:space="preserve">3.74403071403503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81322979927063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72946286201477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70396757125854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75131464004517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70032596588135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52987742424011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71489429473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70761013031006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67483115196228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82051372528076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80594563484192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76588273048401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85329151153564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87514495849609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92249155044556</t>
   </si>
   <si>
     <t xml:space="preserve">3.90063905715942</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87150263786316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90792298316956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87878632545471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8678605556488</t>
+    <t xml:space="preserve">3.87150287628174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90792274475098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87878656387329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86786079406738</t>
   </si>
   <si>
     <t xml:space="preserve">3.92613315582275</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88242793083191</t>
+    <t xml:space="preserve">3.88242864608765</t>
   </si>
   <si>
     <t xml:space="preserve">4.00625801086426</t>
@@ -1733,25 +1733,25 @@
     <t xml:space="preserve">4.15922498703003</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22478151321411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14829921722412</t>
+    <t xml:space="preserve">4.22478199005127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1482982635498</t>
   </si>
   <si>
     <t xml:space="preserve">4.286696434021</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28305435180664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33040189743042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38867425918579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3340425491333</t>
+    <t xml:space="preserve">4.28305387496948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33040142059326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38867378234863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33404350280762</t>
   </si>
   <si>
     <t xml:space="preserve">4.34132719039917</t>
@@ -1763,10 +1763,10 @@
     <t xml:space="preserve">4.46515703201294</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42873668670654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48336744308472</t>
+    <t xml:space="preserve">4.4287371635437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48336791992188</t>
   </si>
   <si>
     <t xml:space="preserve">4.47244119644165</t>
@@ -1775,19 +1775,19 @@
     <t xml:space="preserve">4.5452823638916</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44330501556396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49429416656494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54892444610596</t>
+    <t xml:space="preserve">4.44330453872681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49429368972778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54892492294312</t>
   </si>
   <si>
     <t xml:space="preserve">4.55256652832031</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56713390350342</t>
+    <t xml:space="preserve">4.56713485717773</t>
   </si>
   <si>
     <t xml:space="preserve">4.61083889007568</t>
@@ -1796,82 +1796,82 @@
     <t xml:space="preserve">4.5780611038208</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60355472564697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61812353134155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58534526824951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63269186019897</t>
+    <t xml:space="preserve">4.60355520248413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61812305450439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58534479141235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63269138336182</t>
   </si>
   <si>
     <t xml:space="preserve">4.57077646255493</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59991359710693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65454387664795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62176465988159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76744794845581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75287961959839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74923753738403</t>
+    <t xml:space="preserve">4.59991312026978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65454339981079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62176513671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76744747161865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75288009643555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74923706054688</t>
   </si>
   <si>
     <t xml:space="preserve">4.74559545516968</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73831081390381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73466920852661</t>
+    <t xml:space="preserve">4.73831129074097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73466968536377</t>
   </si>
   <si>
     <t xml:space="preserve">4.83664655685425</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90220403671265</t>
+    <t xml:space="preserve">4.90220308303833</t>
   </si>
   <si>
     <t xml:space="preserve">4.92769765853882</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89856147766113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89127779006958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89503145217896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79743051528931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8424768447876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84623146057129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93632364273071</t>
+    <t xml:space="preserve">4.89856195449829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89127731323242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89503192901611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79743099212646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84247732162476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84623098373413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93632316589355</t>
   </si>
   <si>
     <t xml:space="preserve">4.91380071640015</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8800163269043</t>
+    <t xml:space="preserve">4.88001585006714</t>
   </si>
   <si>
     <t xml:space="preserve">4.72986173629761</t>
@@ -1880,19 +1880,19 @@
     <t xml:space="preserve">4.74112367630005</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75613880157471</t>
+    <t xml:space="preserve">4.75613832473755</t>
   </si>
   <si>
     <t xml:space="preserve">4.63976907730103</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5909686088562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65478372573853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59472227096558</t>
+    <t xml:space="preserve">4.59096813201904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65478420257568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59472274780273</t>
   </si>
   <si>
     <t xml:space="preserve">4.65853834152222</t>
@@ -1910,82 +1910,82 @@
     <t xml:space="preserve">4.56093835830688</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5646915435791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52715301513672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50463056564331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48210668563843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51213788986206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57595252990723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63601493835449</t>
+    <t xml:space="preserve">4.56469106674194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52715349197388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50462961196899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48210716247559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51213836669922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5759539604187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63601589202881</t>
   </si>
   <si>
     <t xml:space="preserve">4.62475347518921</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66980028152466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65103101730347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59847688674927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62850713729858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55718421936035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6960768699646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71860027313232</t>
+    <t xml:space="preserve">4.6697998046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65103054046631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59847640991211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62850761413574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55718374252319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69607734680176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71859931945801</t>
   </si>
   <si>
     <t xml:space="preserve">4.74863052368164</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85749292373657</t>
+    <t xml:space="preserve">4.85749244689941</t>
   </si>
   <si>
     <t xml:space="preserve">4.78992319107056</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79367733001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8537392616272</t>
+    <t xml:space="preserve">4.79367685317993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85373878479004</t>
   </si>
   <si>
     <t xml:space="preserve">4.86124658584595</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86500072479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00389337539673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04518508911133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99263191223145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98512411117554</t>
+    <t xml:space="preserve">4.86500120162964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00389242172241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04518556594849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99263143539429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9851245880127</t>
   </si>
   <si>
     <t xml:space="preserve">4.94383192062378</t>
@@ -1997,91 +1997,91 @@
     <t xml:space="preserve">5.01515531539917</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05269384384155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07521724700928</t>
+    <t xml:space="preserve">5.05269336700439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07521677017212</t>
   </si>
   <si>
     <t xml:space="preserve">5.02641677856445</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97010850906372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95133924484253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94758558273315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97761678695679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9550929069519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04143238067627</t>
+    <t xml:space="preserve">4.97010803222656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95133876800537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.947585105896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97761631011963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95509338378906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04143190383911</t>
   </si>
   <si>
     <t xml:space="preserve">5.0001392364502</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9325704574585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91755485534668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69983100891113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70358467102051</t>
+    <t xml:space="preserve">4.93256950378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91755437850952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69983148574829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70358419418335</t>
   </si>
   <si>
     <t xml:space="preserve">4.71109247207642</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63226175308228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84998559951782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95884656906128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90629291534424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99638605117798</t>
+    <t xml:space="preserve">4.63226079940796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84998512268066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95884799957275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90629243850708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99638557434082</t>
   </si>
   <si>
     <t xml:space="preserve">4.94007778167725</t>
   </si>
   <si>
-    <t xml:space="preserve">5.03767728805542</t>
+    <t xml:space="preserve">5.03767776489258</t>
   </si>
   <si>
     <t xml:space="preserve">5.06020069122314</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15404796600342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16530895233154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14278554916382</t>
+    <t xml:space="preserve">5.15404748916626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16530847549438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14278602600098</t>
   </si>
   <si>
     <t xml:space="preserve">5.26290988922119</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21035575866699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2328782081604</t>
+    <t xml:space="preserve">5.21035528182983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23287868499756</t>
   </si>
   <si>
     <t xml:space="preserve">5.28543186187744</t>
@@ -2090,58 +2090,58 @@
     <t xml:space="preserve">5.29294061660767</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25540161132812</t>
+    <t xml:space="preserve">5.25540208816528</t>
   </si>
   <si>
     <t xml:space="preserve">5.16155529022217</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19158601760864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15029382705688</t>
+    <t xml:space="preserve">5.19158554077148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15029335021973</t>
   </si>
   <si>
     <t xml:space="preserve">5.17657041549683</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17281723022461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16906309127808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10149431228638</t>
+    <t xml:space="preserve">5.17281675338745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16906356811523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10149335861206</t>
   </si>
   <si>
     <t xml:space="preserve">5.22161674499512</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21786260604858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21410942077637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23663234710693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39804840087891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44309425354004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48438739776611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52943325042725</t>
+    <t xml:space="preserve">5.21786308288574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21411037445068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23663187026978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39804887771606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44309520721436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48438692092896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52943277359009</t>
   </si>
   <si>
     <t xml:space="preserve">5.57447957992554</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64204883575439</t>
+    <t xml:space="preserve">5.64204931259155</t>
   </si>
   <si>
     <t xml:space="preserve">5.6758337020874</t>
@@ -2153,292 +2153,292 @@
     <t xml:space="preserve">5.7021107673645</t>
   </si>
   <si>
-    <t xml:space="preserve">5.72463464736938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76217317581177</t>
+    <t xml:space="preserve">5.72463321685791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76217269897461</t>
   </si>
   <si>
     <t xml:space="preserve">5.77343416213989</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7696795463562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77718877792358</t>
+    <t xml:space="preserve">5.76968002319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77718830108643</t>
   </si>
   <si>
     <t xml:space="preserve">5.78844881057739</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7809419631958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85601949691772</t>
+    <t xml:space="preserve">5.78094244003296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85601997375488</t>
   </si>
   <si>
     <t xml:space="preserve">6.20137357711792</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30272769927979</t>
+    <t xml:space="preserve">6.30272817611694</t>
   </si>
   <si>
     <t xml:space="preserve">6.47915935516357</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59177494049072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45663690567017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47165107727051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56784152984619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74483108520508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90258264541626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91797351837158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01416301727295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95644903182983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07957220077515</t>
+    <t xml:space="preserve">6.59177589416504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45663642883301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47165298461914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56784200668335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74483156204224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9025821685791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91797304153442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01416206359863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95644807815552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07957077026367</t>
   </si>
   <si>
     <t xml:space="preserve">7.10265731811523</t>
   </si>
   <si>
-    <t xml:space="preserve">7.16037273406982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09111499786377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02570581436157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00646686553955</t>
+    <t xml:space="preserve">7.16037178039551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09111452102661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02570533752441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00646781921387</t>
   </si>
   <si>
     <t xml:space="preserve">7.08726692199707</t>
   </si>
   <si>
-    <t xml:space="preserve">7.14113283157349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08341932296753</t>
+    <t xml:space="preserve">7.1411337852478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08341836929321</t>
   </si>
   <si>
     <t xml:space="preserve">6.95260095596313</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97183990478516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00262022018433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9756875038147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0526385307312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02955389022827</t>
+    <t xml:space="preserve">6.971839427948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00261926651001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97568702697754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05263805389404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02955341339111</t>
   </si>
   <si>
     <t xml:space="preserve">7.02185821533203</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99107694625854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89873552322388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86410713195801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87565040588379</t>
+    <t xml:space="preserve">6.99107646942139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89873504638672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86410617828369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87564992904663</t>
   </si>
   <si>
     <t xml:space="preserve">6.81408739089966</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8448691368103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75252676010132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.614013671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61786079406738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77176475524902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92566776275635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72174501419067</t>
+    <t xml:space="preserve">6.84486961364746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75252628326416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61401319503784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61786031723022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77176380157471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92566728591919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72174549102783</t>
   </si>
   <si>
     <t xml:space="preserve">6.71789789199829</t>
   </si>
   <si>
-    <t xml:space="preserve">6.82947826385498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74867963790894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63325023651123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66403150558472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6101655960083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41009092330933</t>
+    <t xml:space="preserve">6.82947778701782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74867916107178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63325119018555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66403198242188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61016511917114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41009044647217</t>
   </si>
   <si>
     <t xml:space="preserve">6.55245113372803</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47165250778198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27157640457153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28312015533447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.379310131073</t>
+    <t xml:space="preserve">6.47165203094482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27157688140869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28311967849731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37931060791016</t>
   </si>
   <si>
     <t xml:space="preserve">6.34083414077759</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39470100402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46395683288574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50243234634399</t>
+    <t xml:space="preserve">6.39470052719116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46395635604858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50243282318115</t>
   </si>
   <si>
     <t xml:space="preserve">6.49473667144775</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49858427047729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57553815841675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6909646987915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72944021224976</t>
+    <t xml:space="preserve">6.49858570098877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57553768157959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69096517562866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72944068908691</t>
   </si>
   <si>
     <t xml:space="preserve">6.56399393081665</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38315773010254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04456901550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99070310592651</t>
+    <t xml:space="preserve">6.38315677642822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04456853866577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99070262908936</t>
   </si>
   <si>
     <t xml:space="preserve">6.00994110107422</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86758041381836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66365814208984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59824848175049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57516193389893</t>
+    <t xml:space="preserve">5.8675799369812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66365766525269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59824895858765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57516241073608</t>
   </si>
   <si>
     <t xml:space="preserve">5.53668689727783</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25581216812134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13268947601318</t>
+    <t xml:space="preserve">5.2558126449585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13268995285034</t>
   </si>
   <si>
     <t xml:space="preserve">4.77101516723633</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20157241821289</t>
+    <t xml:space="preserve">4.20157146453857</t>
   </si>
   <si>
     <t xml:space="preserve">4.15540075302124</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76448535919189</t>
+    <t xml:space="preserve">3.76448583602905</t>
   </si>
   <si>
     <t xml:space="preserve">3.76756358146667</t>
   </si>
   <si>
-    <t xml:space="preserve">3.44898295402527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17811179161072</t>
+    <t xml:space="preserve">3.44898247718811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1781120300293</t>
   </si>
   <si>
     <t xml:space="preserve">3.13809728622437</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25660252571106</t>
+    <t xml:space="preserve">3.25660300254822</t>
   </si>
   <si>
     <t xml:space="preserve">3.24736833572388</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63982319831848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74909496307373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95532608032227</t>
+    <t xml:space="preserve">3.6398229598999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74909520149231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95532584190369</t>
   </si>
   <si>
     <t xml:space="preserve">3.82142949104309</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63366723060608</t>
+    <t xml:space="preserve">3.63366746902466</t>
   </si>
   <si>
     <t xml:space="preserve">3.57826161384583</t>
@@ -2447,61 +2447,61 @@
     <t xml:space="preserve">3.5674889087677</t>
   </si>
   <si>
-    <t xml:space="preserve">3.57980132102966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51670050621033</t>
+    <t xml:space="preserve">3.57980060577393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51670002937317</t>
   </si>
   <si>
     <t xml:space="preserve">3.64444065093994</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84759330749512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0207347869873</t>
+    <t xml:space="preserve">3.84759378433228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02073526382446</t>
   </si>
   <si>
     <t xml:space="preserve">4.20926713943481</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85913634300232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90530729293823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02458333969116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94763088226318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75986814498901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89761209487915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98610687255859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96686887741089</t>
+    <t xml:space="preserve">3.85913586616516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9053065776825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02458238601685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94763040542603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75986790657043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89761185646057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98610639572144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96686840057373</t>
   </si>
   <si>
     <t xml:space="preserve">4.11692476272583</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31315279006958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48629379272461</t>
+    <t xml:space="preserve">4.31315183639526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48629426956177</t>
   </si>
   <si>
     <t xml:space="preserve">4.28621959686279</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09383869171143</t>
+    <t xml:space="preserve">4.09383964538574</t>
   </si>
   <si>
     <t xml:space="preserve">4.03227710723877</t>
@@ -2516,10 +2516,10 @@
     <t xml:space="preserve">4.12846803665161</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30545711517334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38240909576416</t>
+    <t xml:space="preserve">4.30545663833618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38240814208984</t>
   </si>
   <si>
     <t xml:space="preserve">4.24004793167114</t>
@@ -2531,22 +2531,22 @@
     <t xml:space="preserve">4.25928544998169</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26698064804077</t>
+    <t xml:space="preserve">4.26698112487793</t>
   </si>
   <si>
     <t xml:space="preserve">4.3862566947937</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42473220825195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5132269859314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55555009841919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6632833480835</t>
+    <t xml:space="preserve">4.42473268508911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51322650909424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55555057525635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66328287124634</t>
   </si>
   <si>
     <t xml:space="preserve">4.60941696166992</t>
@@ -2555,7 +2555,7 @@
     <t xml:space="preserve">4.57094097137451</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74023485183716</t>
+    <t xml:space="preserve">4.74023532867432</t>
   </si>
   <si>
     <t xml:space="preserve">4.79410123825073</t>
@@ -2564,22 +2564,22 @@
     <t xml:space="preserve">4.97493839263916</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2057933807373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32506895065308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12114715576172</t>
+    <t xml:space="preserve">5.20579385757446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32506942749023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12114763259888</t>
   </si>
   <si>
     <t xml:space="preserve">4.84412002563477</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86335754394531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02495718002319</t>
+    <t xml:space="preserve">4.86335849761963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02495622634888</t>
   </si>
   <si>
     <t xml:space="preserve">4.97109127044678</t>
@@ -2588,7 +2588,7 @@
     <t xml:space="preserve">4.94800472259521</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99802350997925</t>
+    <t xml:space="preserve">4.99802398681641</t>
   </si>
   <si>
     <t xml:space="preserve">4.98263311386108</t>
@@ -2597,37 +2597,37 @@
     <t xml:space="preserve">5.02880430221558</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81333923339844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80179643630981</t>
+    <t xml:space="preserve">4.8133397102356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80179691314697</t>
   </si>
   <si>
     <t xml:space="preserve">4.85181474685669</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8941388130188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91722393035889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83642530441284</t>
+    <t xml:space="preserve">4.89413928985596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91722440719604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83642387390137</t>
   </si>
   <si>
     <t xml:space="preserve">5.0634331703186</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94031000137329</t>
+    <t xml:space="preserve">4.94030952453613</t>
   </si>
   <si>
     <t xml:space="preserve">5.0595850944519</t>
   </si>
   <si>
-    <t xml:space="preserve">5.03649997711182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82488107681274</t>
+    <t xml:space="preserve">5.03650045394897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82488203048706</t>
   </si>
   <si>
     <t xml:space="preserve">4.94415760040283</t>
@@ -2636,31 +2636,31 @@
     <t xml:space="preserve">5.00187158584595</t>
   </si>
   <si>
-    <t xml:space="preserve">5.07112836837769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07497549057007</t>
+    <t xml:space="preserve">5.07112789154053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07497501373291</t>
   </si>
   <si>
     <t xml:space="preserve">5.09806108474731</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21733713150024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15962362289429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11345100402832</t>
+    <t xml:space="preserve">5.21733665466309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15962314605713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11345148086548</t>
   </si>
   <si>
     <t xml:space="preserve">5.06728076934814</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98648118972778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93261480331421</t>
+    <t xml:space="preserve">4.98648071289062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93261432647705</t>
   </si>
   <si>
     <t xml:space="preserve">4.9133768081665</t>
@@ -2672,7 +2672,7 @@
     <t xml:space="preserve">4.7671685218811</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95570039749146</t>
+    <t xml:space="preserve">4.95570087432861</t>
   </si>
   <si>
     <t xml:space="preserve">4.96339511871338</t>
@@ -2681,88 +2681,88 @@
     <t xml:space="preserve">5.10190916061401</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1865553855896</t>
+    <t xml:space="preserve">5.18655633926392</t>
   </si>
   <si>
     <t xml:space="preserve">5.24042224884033</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15577554702759</t>
+    <t xml:space="preserve">5.15577459335327</t>
   </si>
   <si>
     <t xml:space="preserve">5.02110958099365</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10575675964355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9787859916687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14038515090942</t>
+    <t xml:space="preserve">5.1057562828064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97878503799438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14038467407227</t>
   </si>
   <si>
     <t xml:space="preserve">5.05188989639282</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08651876449585</t>
+    <t xml:space="preserve">5.08651828765869</t>
   </si>
   <si>
     <t xml:space="preserve">4.92491960525513</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78255844116211</t>
+    <t xml:space="preserve">4.78255891799927</t>
   </si>
   <si>
     <t xml:space="preserve">4.86720514297485</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87105321884155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09036540985107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84796762466431</t>
+    <t xml:space="preserve">4.87105274200439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09036493301392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84796810150146</t>
   </si>
   <si>
     <t xml:space="preserve">4.73253965377808</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84027242660522</t>
+    <t xml:space="preserve">4.84027290344238</t>
   </si>
   <si>
     <t xml:space="preserve">4.70560646057129</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78640651702881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04034757614136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.959547996521</t>
+    <t xml:space="preserve">4.78640604019165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0403470993042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95954704284668</t>
   </si>
   <si>
     <t xml:space="preserve">4.8094916343689</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83257722854614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81718730926514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65558862686157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51707410812378</t>
+    <t xml:space="preserve">4.8325777053833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81718683242798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65558815002441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5170750617981</t>
   </si>
   <si>
     <t xml:space="preserve">4.46320819854736</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5093789100647</t>
+    <t xml:space="preserve">4.50937938690186</t>
   </si>
   <si>
     <t xml:space="preserve">4.75562524795532</t>
@@ -2771,13 +2771,13 @@
     <t xml:space="preserve">5.29428815841675</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38278293609619</t>
+    <t xml:space="preserve">5.38278245925903</t>
   </si>
   <si>
     <t xml:space="preserve">5.51744937896729</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38663053512573</t>
+    <t xml:space="preserve">5.38663101196289</t>
   </si>
   <si>
     <t xml:space="preserve">5.55592441558838</t>
@@ -2792,22 +2792,22 @@
     <t xml:space="preserve">5.73291349411011</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84449434280396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8637318611145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0176362991333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89066600799561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97531223297119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85218954086304</t>
+    <t xml:space="preserve">5.8444938659668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86373233795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01763677597046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89066553115845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97531175613403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85218906402588</t>
   </si>
   <si>
     <t xml:space="preserve">5.92529392242432</t>
@@ -2819,28 +2819,28 @@
     <t xml:space="preserve">5.7175235748291</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70982837677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64441919326782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60209608078003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59439992904663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5020580291748</t>
+    <t xml:space="preserve">5.70982885360718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64442014694214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60209560394287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59440088272095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50205898284912</t>
   </si>
   <si>
     <t xml:space="preserve">5.46743011474609</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47512578964233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47897291183472</t>
+    <t xml:space="preserve">5.47512531280518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47897243499756</t>
   </si>
   <si>
     <t xml:space="preserve">5.46358251571655</t>
@@ -2849,28 +2849,28 @@
     <t xml:space="preserve">5.44434404373169</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33276462554932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40971565246582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42895364761353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47127723693848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49821138381958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43664884567261</t>
+    <t xml:space="preserve">5.332763671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40971660614014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42895412445068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47127771377563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49821043014526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43664932250977</t>
   </si>
   <si>
     <t xml:space="preserve">5.44819164276123</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65981006622314</t>
+    <t xml:space="preserve">5.6598105430603</t>
   </si>
   <si>
     <t xml:space="preserve">5.63672351837158</t>
@@ -2879,10 +2879,10 @@
     <t xml:space="preserve">5.62902927398682</t>
   </si>
   <si>
-    <t xml:space="preserve">5.27505016326904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14423179626465</t>
+    <t xml:space="preserve">5.2750506401062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14423227310181</t>
   </si>
   <si>
     <t xml:space="preserve">5.07882308959961</t>
@@ -2891,25 +2891,25 @@
     <t xml:space="preserve">5.16346979141235</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22503089904785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62518119812012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73676109313965</t>
+    <t xml:space="preserve">5.22503185272217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62518167495728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73676204681396</t>
   </si>
   <si>
     <t xml:space="preserve">5.94837951660156</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87912225723267</t>
+    <t xml:space="preserve">5.87912273406982</t>
   </si>
   <si>
     <t xml:space="preserve">5.89836025238037</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88297080993652</t>
+    <t xml:space="preserve">5.88297033309937</t>
   </si>
   <si>
     <t xml:space="preserve">5.76369476318359</t>
@@ -2918,16 +2918,16 @@
     <t xml:space="preserve">5.67904758453369</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69443845748901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75984764099121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62133407592773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6521143913269</t>
+    <t xml:space="preserve">5.69443798065186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75984668731689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62133359909058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65211391448975</t>
   </si>
   <si>
     <t xml:space="preserve">5.55977249145508</t>
@@ -2942,43 +2942,43 @@
     <t xml:space="preserve">5.75215196609497</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85988426208496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92144680023193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95992231369019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97916030883789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96376943588257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97146511077881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09843492507935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25233888626099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.159996509552</t>
+    <t xml:space="preserve">5.85988473892212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92144632339478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95992136001587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97915935516357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96376895904541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97146558761597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09843587875366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25233936309814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15999746322632</t>
   </si>
   <si>
     <t xml:space="preserve">6.18308210372925</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09074020385742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13306427001953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14075803756714</t>
+    <t xml:space="preserve">6.09073972702026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13306283950806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14075946807861</t>
   </si>
   <si>
     <t xml:space="preserve">6.22540616989136</t>
@@ -2987,7 +2987,7 @@
     <t xml:space="preserve">6.19462490081787</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17461729049683</t>
+    <t xml:space="preserve">6.17461776733398</t>
   </si>
   <si>
     <t xml:space="preserve">6.21001529693604</t>
@@ -2996,79 +2996,79 @@
     <t xml:space="preserve">6.12844657897949</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04379987716675</t>
+    <t xml:space="preserve">6.04379940032959</t>
   </si>
   <si>
     <t xml:space="preserve">6.10690021514893</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05457305908203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05765104293823</t>
+    <t xml:space="preserve">6.05457210540771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05765056610107</t>
   </si>
   <si>
     <t xml:space="preserve">6.00224590301514</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02225351333618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08535385131836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02994823455811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95761394500732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0145583152771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04072189331055</t>
+    <t xml:space="preserve">6.02225255966187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08535289764404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02994871139526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95761299133301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01455783843994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04072093963623</t>
   </si>
   <si>
     <t xml:space="preserve">6.01301908493042</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98069953918457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10843896865845</t>
+    <t xml:space="preserve">5.98069858551025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10843944549561</t>
   </si>
   <si>
     <t xml:space="preserve">6.01147985458374</t>
   </si>
   <si>
-    <t xml:space="preserve">6.082275390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16846132278442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23925685882568</t>
+    <t xml:space="preserve">6.08227491378784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16846227645874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23925733566284</t>
   </si>
   <si>
     <t xml:space="preserve">6.21463298797607</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06380748748779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06688547134399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08843183517456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03918313980103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12463521957397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07521867752075</t>
+    <t xml:space="preserve">6.06380701065063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06688499450684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0884313583374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03918218612671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12463569641113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07521820068359</t>
   </si>
   <si>
     <t xml:space="preserve">6.07367420196533</t>
@@ -3086,7 +3086,7 @@
     <t xml:space="preserve">6.228102684021</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24045610427856</t>
+    <t xml:space="preserve">6.24045658111572</t>
   </si>
   <si>
     <t xml:space="preserve">6.21729230880737</t>
@@ -3101,16 +3101,16 @@
     <t xml:space="preserve">6.4242262840271</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30686092376709</t>
+    <t xml:space="preserve">6.30686187744141</t>
   </si>
   <si>
     <t xml:space="preserve">6.34546852111816</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37172079086304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34237957000732</t>
+    <t xml:space="preserve">6.3717212677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34237909317017</t>
   </si>
   <si>
     <t xml:space="preserve">6.44893598556519</t>
@@ -3122,28 +3122,28 @@
     <t xml:space="preserve">6.34855699539185</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32384777069092</t>
+    <t xml:space="preserve">6.32384824752808</t>
   </si>
   <si>
     <t xml:space="preserve">6.27906370162964</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35318899154663</t>
+    <t xml:space="preserve">6.35318946838379</t>
   </si>
   <si>
     <t xml:space="preserve">6.53232669830322</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33311367034912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.479820728302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33465814590454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33774662017822</t>
+    <t xml:space="preserve">6.33311319351196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47982120513916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3346586227417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33774709701538</t>
   </si>
   <si>
     <t xml:space="preserve">6.35936689376831</t>
@@ -3155,34 +3155,34 @@
     <t xml:space="preserve">6.36091089248657</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32075881958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21265888214111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30531787872314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40723896026611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34083557128906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36245584487915</t>
+    <t xml:space="preserve">6.32075977325439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21265935897827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30531692504883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40723991394043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3408350944519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36245536804199</t>
   </si>
   <si>
     <t xml:space="preserve">6.26979827880859</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25744390487671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99800443649292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04587745666504</t>
+    <t xml:space="preserve">6.25744342803955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99800395965576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04587650299072</t>
   </si>
   <si>
     <t xml:space="preserve">6.24200010299683</t>
@@ -3191,19 +3191,19 @@
     <t xml:space="preserve">6.29141807556152</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34701204299927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50452947616577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51070737838745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4875431060791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48290920257568</t>
+    <t xml:space="preserve">6.34701251983643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50453042984009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51070690155029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48754262924194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48290967941284</t>
   </si>
   <si>
     <t xml:space="preserve">6.41187191009521</t>
@@ -3212,40 +3212,40 @@
     <t xml:space="preserve">6.4273157119751</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39334058761597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43812608718872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49680709838867</t>
+    <t xml:space="preserve">6.39334011077881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43812465667725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49680852890015</t>
   </si>
   <si>
     <t xml:space="preserve">6.57865571975708</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66204738616943</t>
+    <t xml:space="preserve">6.66204690933228</t>
   </si>
   <si>
     <t xml:space="preserve">6.67131233215332</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76705837249756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74698257446289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79022216796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74852705001831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79948759078979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65278100967407</t>
+    <t xml:space="preserve">6.7670578956604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74698209762573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79022169113159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74852609634399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79948711395264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65278148651123</t>
   </si>
   <si>
     <t xml:space="preserve">6.62652826309204</t>
@@ -3254,184 +3254,184 @@
     <t xml:space="preserve">6.69293212890625</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6821231842041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70991897583008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69602155685425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75315999984741</t>
+    <t xml:space="preserve">6.68212270736694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70991945266724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69602060317993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75316095352173</t>
   </si>
   <si>
     <t xml:space="preserve">6.76860237121582</t>
   </si>
   <si>
-    <t xml:space="preserve">6.78713417053223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78558969497681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81029796600342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81338691711426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77941179275513</t>
+    <t xml:space="preserve">6.78713321685791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78559017181396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81029844284058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81338739395142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77941274642944</t>
   </si>
   <si>
     <t xml:space="preserve">6.75933647155762</t>
   </si>
   <si>
-    <t xml:space="preserve">6.75624799728394</t>
+    <t xml:space="preserve">6.75624847412109</t>
   </si>
   <si>
     <t xml:space="preserve">6.72381782531738</t>
   </si>
   <si>
-    <t xml:space="preserve">6.88751316070557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93229627609253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88133478164673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93847465515137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87515830993652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66667938232422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87824678421021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09907960891724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04811811447144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07591485977173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07282638549805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15776300430298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2195348739624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33535528182983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35234212875366</t>
+    <t xml:space="preserve">6.88751173019409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93229722976685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88133430480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93847417831421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87515783309937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66667890548706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87824630737305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09908008575439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04811763763428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07591438293457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07282590866089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15776252746582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21953439712524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33535432815552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35234117507935</t>
   </si>
   <si>
     <t xml:space="preserve">7.4990496635437</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38940525054932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52530241012573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45735311508179</t>
+    <t xml:space="preserve">7.38940334320068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52530336380005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45735359191895</t>
   </si>
   <si>
     <t xml:space="preserve">7.51294708251953</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61178112030029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51758050918579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57626390457153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61486959457397</t>
+    <t xml:space="preserve">7.61178207397461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51758098602295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57626295089722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61487150192261</t>
   </si>
   <si>
     <t xml:space="preserve">7.63771915435791</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49894285202026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50563097000122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41199779510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39862155914307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34177350997925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45212554931641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39360523223877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34511804580688</t>
+    <t xml:space="preserve">7.49894237518311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50563049316406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4119987487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39862251281738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34177446365356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45212507247925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39360570907593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34511852264404</t>
   </si>
   <si>
     <t xml:space="preserve">7.27823829650879</t>
   </si>
   <si>
-    <t xml:space="preserve">7.3635106086731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26820659637451</t>
+    <t xml:space="preserve">7.36350917816162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26820611953735</t>
   </si>
   <si>
     <t xml:space="preserve">7.33174180984497</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47553586959839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44878196716309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45547103881836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53739786148071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58086967468262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58923149108887</t>
+    <t xml:space="preserve">7.47553396224976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44878339767456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45547008514404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53739881515503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58087015151978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58923053741455</t>
   </si>
   <si>
     <t xml:space="preserve">7.65778255462646</t>
   </si>
   <si>
-    <t xml:space="preserve">7.64273452758789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54408693313599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45379829406738</t>
+    <t xml:space="preserve">7.64273595809937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54408740997314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45379877090454</t>
   </si>
   <si>
     <t xml:space="preserve">7.34344673156738</t>
@@ -3440,49 +3440,49 @@
     <t xml:space="preserve">7.50483894348145</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36576652526855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58038711547852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48251914978027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14599514007568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20265531539917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08075094223022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26446628570557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20780611038208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24557828903198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32627725601196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47736835479736</t>
+    <t xml:space="preserve">7.36576700210571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5803861618042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48251962661743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14599561691284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20265579223633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08074998855591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26446580886841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20780563354492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24557876586914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3262767791748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47736883163452</t>
   </si>
   <si>
     <t xml:space="preserve">7.40697383880615</t>
   </si>
   <si>
-    <t xml:space="preserve">7.34001207351685</t>
+    <t xml:space="preserve">7.340012550354</t>
   </si>
   <si>
     <t xml:space="preserve">7.28850269317627</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27820110321045</t>
+    <t xml:space="preserve">7.27820062637329</t>
   </si>
   <si>
     <t xml:space="preserve">7.28335237503052</t>
@@ -3491,67 +3491,67 @@
     <t xml:space="preserve">7.29880475997925</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20952272415161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98631763458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19235372543335</t>
+    <t xml:space="preserve">7.20952224731445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98631715774536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19235277175903</t>
   </si>
   <si>
     <t xml:space="preserve">7.2524471282959</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37091732025146</t>
+    <t xml:space="preserve">7.37091779708862</t>
   </si>
   <si>
     <t xml:space="preserve">7.44302940368652</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43444395065308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45161485671997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54432964324951</t>
+    <t xml:space="preserve">7.43444442749023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45161533355713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54433012008667</t>
   </si>
   <si>
     <t xml:space="preserve">7.600989818573</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66623544692993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45504808425903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59240484237671</t>
+    <t xml:space="preserve">7.66623497009277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45504856109619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59240579605103</t>
   </si>
   <si>
     <t xml:space="preserve">7.66280031204224</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80359220504761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94953346252441</t>
+    <t xml:space="preserve">7.80359125137329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94953393936157</t>
   </si>
   <si>
     <t xml:space="preserve">7.97872161865234</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82247829437256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78813934326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60442352294922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59755706787109</t>
+    <t xml:space="preserve">7.82247972488403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78813791275024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60442399978638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59755754470825</t>
   </si>
   <si>
     <t xml:space="preserve">7.5014066696167</t>
@@ -3563,22 +3563,22 @@
     <t xml:space="preserve">7.17861795425415</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32799339294434</t>
+    <t xml:space="preserve">7.32799291610718</t>
   </si>
   <si>
     <t xml:space="preserve">7.29193735122681</t>
   </si>
   <si>
-    <t xml:space="preserve">7.23356056213379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35203123092651</t>
+    <t xml:space="preserve">7.23355960845947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35203075408936</t>
   </si>
   <si>
     <t xml:space="preserve">7.46363353729248</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56665182113647</t>
+    <t xml:space="preserve">7.56665134429932</t>
   </si>
   <si>
     <t xml:space="preserve">7.49282121658325</t>
@@ -3587,28 +3587,28 @@
     <t xml:space="preserve">7.22497606277466</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32112455368042</t>
+    <t xml:space="preserve">7.32112550735474</t>
   </si>
   <si>
     <t xml:space="preserve">7.49453783035278</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60614156723022</t>
+    <t xml:space="preserve">7.60614061355591</t>
   </si>
   <si>
     <t xml:space="preserve">7.34859704971313</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09792041778564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29708814620972</t>
+    <t xml:space="preserve">7.09791946411133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29708766937256</t>
   </si>
   <si>
     <t xml:space="preserve">7.24042797088623</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1425609588623</t>
+    <t xml:space="preserve">7.14256191253662</t>
   </si>
   <si>
     <t xml:space="preserve">7.11852359771729</t>
@@ -3620,22 +3620,22 @@
     <t xml:space="preserve">6.97429895401001</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03095817565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43345642089844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58626556396484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32013654708862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08491230010986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11238384246826</t>
+    <t xml:space="preserve">7.0309591293335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43345546722412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.586266040802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32013607025146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08491277694702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11238431930542</t>
   </si>
   <si>
     <t xml:space="preserve">5.96987628936768</t>
@@ -3647,7 +3647,7 @@
     <t xml:space="preserve">5.51488161087036</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67284154891968</t>
+    <t xml:space="preserve">5.67284202575684</t>
   </si>
   <si>
     <t xml:space="preserve">6.29438209533691</t>
@@ -3656,10 +3656,10 @@
     <t xml:space="preserve">5.92866945266724</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06259250640869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16389274597168</t>
+    <t xml:space="preserve">6.06259202957153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16389226913452</t>
   </si>
   <si>
     <t xml:space="preserve">6.29609966278076</t>
@@ -3668,10 +3668,10 @@
     <t xml:space="preserve">6.62403917312622</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57939767837524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56051158905029</t>
+    <t xml:space="preserve">6.5793981552124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56051111221313</t>
   </si>
   <si>
     <t xml:space="preserve">6.5124363899231</t>
@@ -3680,22 +3680,22 @@
     <t xml:space="preserve">6.68069887161255</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61030244827271</t>
+    <t xml:space="preserve">6.61030292510986</t>
   </si>
   <si>
     <t xml:space="preserve">6.56909608840942</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62918949127197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66868019104004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85239505767822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78886747360229</t>
+    <t xml:space="preserve">6.62918996810913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66867971420288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85239458084106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78886699676514</t>
   </si>
   <si>
     <t xml:space="preserve">6.65837812423706</t>
@@ -3710,16 +3710,16 @@
     <t xml:space="preserve">6.63777446746826</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40770149230957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39396619796753</t>
+    <t xml:space="preserve">6.40770244598389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39396572113037</t>
   </si>
   <si>
     <t xml:space="preserve">6.551926612854</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51415348052979</t>
+    <t xml:space="preserve">6.51415300369263</t>
   </si>
   <si>
     <t xml:space="preserve">6.45577669143677</t>
@@ -3728,10 +3728,10 @@
     <t xml:space="preserve">6.50900268554688</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5587944984436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28841829299927</t>
+    <t xml:space="preserve">6.55879402160645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28841876983643</t>
   </si>
   <si>
     <t xml:space="preserve">6.39482402801514</t>
@@ -3743,16 +3743,16 @@
     <t xml:space="preserve">6.26923036575317</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13665866851807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03548622131348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07735061645508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0197868347168</t>
+    <t xml:space="preserve">6.13665914535522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03548574447632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07735013961792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01978731155396</t>
   </si>
   <si>
     <t xml:space="preserve">6.08432817459106</t>
@@ -3773,25 +3773,25 @@
     <t xml:space="preserve">6.05990695953369</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96745586395264</t>
+    <t xml:space="preserve">5.96745634078979</t>
   </si>
   <si>
     <t xml:space="preserve">6.0302529335022</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30237340927124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14189195632935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19073390960693</t>
+    <t xml:space="preserve">6.30237293243408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1418924331665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19073438644409</t>
   </si>
   <si>
     <t xml:space="preserve">6.22562122344971</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25004196166992</t>
+    <t xml:space="preserve">6.25004243850708</t>
   </si>
   <si>
     <t xml:space="preserve">6.16980171203613</t>
@@ -3800,40 +3800,40 @@
     <t xml:space="preserve">6.20120048522949</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39307928085327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24132061004639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25527477264404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45413255691528</t>
+    <t xml:space="preserve">6.39307975769043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24132108688354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25527572631836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45413208007812</t>
   </si>
   <si>
     <t xml:space="preserve">6.44366598129272</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41226768493652</t>
+    <t xml:space="preserve">6.41226816177368</t>
   </si>
   <si>
     <t xml:space="preserve">6.34074926376343</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23608779907227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38435792922974</t>
+    <t xml:space="preserve">6.23608732223511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38435840606689</t>
   </si>
   <si>
     <t xml:space="preserve">6.2953953742981</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20643329620361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02153062820435</t>
+    <t xml:space="preserve">6.20643377304077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0215311050415</t>
   </si>
   <si>
     <t xml:space="preserve">5.61160659790039</t>
@@ -3845,25 +3845,25 @@
     <t xml:space="preserve">5.56450891494751</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64823865890503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43368148803711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4790358543396</t>
+    <t xml:space="preserve">5.64823818206787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43368196487427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47903537750244</t>
   </si>
   <si>
     <t xml:space="preserve">5.55055379867554</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55229806900024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58718585968018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74941062927246</t>
+    <t xml:space="preserve">5.5522985458374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58718490600586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74941110610962</t>
   </si>
   <si>
     <t xml:space="preserve">5.6046290397644</t>
@@ -3884,16 +3884,16 @@
     <t xml:space="preserve">5.48077964782715</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20865964889526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30111074447632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45984745025635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6133508682251</t>
+    <t xml:space="preserve">5.20865917205811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30111026763916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45984792709351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61335134506226</t>
   </si>
   <si>
     <t xml:space="preserve">5.45810270309448</t>
@@ -3902,13 +3902,13 @@
     <t xml:space="preserve">5.54008769989014</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4633355140686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2697114944458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32727527618408</t>
+    <t xml:space="preserve">5.46333599090576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26971244812012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32727575302124</t>
   </si>
   <si>
     <t xml:space="preserve">5.40751600265503</t>
@@ -3923,25 +3923,25 @@
     <t xml:space="preserve">5.44240379333496</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43891477584839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38309478759766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41449451446533</t>
+    <t xml:space="preserve">5.43891525268555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38309526443481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41449403762817</t>
   </si>
   <si>
     <t xml:space="preserve">5.62556123733521</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65172672271729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59416246414185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91686916351318</t>
+    <t xml:space="preserve">5.65172719955444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.594162940979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91686964035034</t>
   </si>
   <si>
     <t xml:space="preserve">6.06688451766968</t>
@@ -3950,31 +3950,31 @@
     <t xml:space="preserve">5.97268915176392</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95350170135498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92384672164917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96920013427734</t>
+    <t xml:space="preserve">5.95350122451782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92384719848633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9692006111145</t>
   </si>
   <si>
     <t xml:space="preserve">6.00408744812012</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03897476196289</t>
+    <t xml:space="preserve">6.03897428512573</t>
   </si>
   <si>
     <t xml:space="preserve">5.97617769241333</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85930585861206</t>
+    <t xml:space="preserve">5.8593053817749</t>
   </si>
   <si>
     <t xml:space="preserve">5.90291500091553</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78429841995239</t>
+    <t xml:space="preserve">5.78429794311523</t>
   </si>
   <si>
     <t xml:space="preserve">5.63079452514648</t>
@@ -3986,7 +3986,7 @@
     <t xml:space="preserve">5.67091464996338</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59939622879028</t>
+    <t xml:space="preserve">5.59939575195312</t>
   </si>
   <si>
     <t xml:space="preserve">5.46682500839233</t>
@@ -3995,16 +3995,16 @@
     <t xml:space="preserve">5.57846355438232</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56276416778564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4319372177124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69010305404663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51043367385864</t>
+    <t xml:space="preserve">5.5627646446228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43193769454956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69010257720947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51043319702148</t>
   </si>
   <si>
     <t xml:space="preserve">5.54880952835083</t>
@@ -4016,16 +4016,16 @@
     <t xml:space="preserve">5.63777208328247</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76685476303101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00757598876953</t>
+    <t xml:space="preserve">5.76685428619385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00757646560669</t>
   </si>
   <si>
     <t xml:space="preserve">5.87326097488403</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9587345123291</t>
+    <t xml:space="preserve">5.95873403549194</t>
   </si>
   <si>
     <t xml:space="preserve">5.7354564666748</t>
@@ -4034,19 +4034,19 @@
     <t xml:space="preserve">5.70056867599487</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78080940246582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51915597915649</t>
+    <t xml:space="preserve">5.78080987930298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51915550231934</t>
   </si>
   <si>
     <t xml:space="preserve">5.58544111251831</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62730550765991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41798257827759</t>
+    <t xml:space="preserve">5.62730598449707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41798210144043</t>
   </si>
   <si>
     <t xml:space="preserve">5.59590721130371</t>
@@ -4061,7 +4061,7 @@
     <t xml:space="preserve">5.40926122665405</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64300441741943</t>
+    <t xml:space="preserve">5.64300489425659</t>
   </si>
   <si>
     <t xml:space="preserve">5.92035865783691</t>
@@ -4076,22 +4076,22 @@
     <t xml:space="preserve">5.77383184432983</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78778648376465</t>
+    <t xml:space="preserve">5.78778743743896</t>
   </si>
   <si>
     <t xml:space="preserve">5.73371171951294</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58020782470703</t>
+    <t xml:space="preserve">5.58020830154419</t>
   </si>
   <si>
     <t xml:space="preserve">5.75813293457031</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80871963500977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93605804443359</t>
+    <t xml:space="preserve">5.80871915817261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93605756759644</t>
   </si>
   <si>
     <t xml:space="preserve">6.01106548309326</t>
@@ -4103,49 +4103,49 @@
     <t xml:space="preserve">6.12270402908325</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15061330795288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.223876953125</t>
+    <t xml:space="preserve">6.15061378479004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22387742996216</t>
   </si>
   <si>
     <t xml:space="preserve">6.40180206298828</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42447805404663</t>
+    <t xml:space="preserve">6.42447853088379</t>
   </si>
   <si>
     <t xml:space="preserve">6.55356073379517</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63380193710327</t>
+    <t xml:space="preserve">6.63380146026611</t>
   </si>
   <si>
     <t xml:space="preserve">6.61112451553345</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53437328338623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57798147201538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60065889358521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74020767211914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80125999450684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77683925628662</t>
+    <t xml:space="preserve">6.53437376022339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57798194885254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60065793991089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7402081489563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80126047134399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77683877944946</t>
   </si>
   <si>
     <t xml:space="preserve">6.78904962539673</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98092937469482</t>
+    <t xml:space="preserve">6.98092889785767</t>
   </si>
   <si>
     <t xml:space="preserve">6.89720010757446</t>
@@ -4154,7 +4154,7 @@
     <t xml:space="preserve">7.00535011291504</t>
   </si>
   <si>
-    <t xml:space="preserve">7.04547071456909</t>
+    <t xml:space="preserve">7.04547119140625</t>
   </si>
   <si>
     <t xml:space="preserve">7.01058340072632</t>
@@ -4163,16 +4163,16 @@
     <t xml:space="preserve">7.00186157226562</t>
   </si>
   <si>
-    <t xml:space="preserve">7.05419206619263</t>
+    <t xml:space="preserve">7.05419254302979</t>
   </si>
   <si>
     <t xml:space="preserve">7.05958557128906</t>
   </si>
   <si>
-    <t xml:space="preserve">7.08475351333618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11531448364258</t>
+    <t xml:space="preserve">7.08475303649902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11531400680542</t>
   </si>
   <si>
     <t xml:space="preserve">7.02542877197266</t>
@@ -4181,13 +4181,13 @@
     <t xml:space="preserve">7.04160833358765</t>
   </si>
   <si>
-    <t xml:space="preserve">7.08115720748901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07576465606689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24295091629028</t>
+    <t xml:space="preserve">7.08115768432617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07576513290405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24295043945312</t>
   </si>
   <si>
     <t xml:space="preserve">7.08295583724976</t>
@@ -4205,16 +4205,16 @@
     <t xml:space="preserve">7.0218334197998</t>
   </si>
   <si>
-    <t xml:space="preserve">7.07756280899048</t>
+    <t xml:space="preserve">7.07756233215332</t>
   </si>
   <si>
     <t xml:space="preserve">7.0146427154541</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09913444519043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1027307510376</t>
+    <t xml:space="preserve">7.09913492202759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10273027420044</t>
   </si>
   <si>
     <t xml:space="preserve">6.98408174514771</t>
@@ -4256,7 +4256,7 @@
     <t xml:space="preserve">7.46047353744507</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59350395202637</t>
+    <t xml:space="preserve">7.59350347518921</t>
   </si>
   <si>
     <t xml:space="preserve">7.63485145568848</t>
@@ -4268,7 +4268,7 @@
     <t xml:space="preserve">7.7193431854248</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70675897598267</t>
+    <t xml:space="preserve">7.70675992965698</t>
   </si>
   <si>
     <t xml:space="preserve">7.56114482879639</t>
@@ -4280,19 +4280,19 @@
     <t xml:space="preserve">7.67260265350342</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7373194694519</t>
+    <t xml:space="preserve">7.73731994628906</t>
   </si>
   <si>
     <t xml:space="preserve">7.79844188690186</t>
   </si>
   <si>
-    <t xml:space="preserve">7.81641912460327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88113641738892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87933874130249</t>
+    <t xml:space="preserve">7.81641960144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88113594055176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87933826446533</t>
   </si>
   <si>
     <t xml:space="preserve">7.96023559570312</t>
@@ -4310,55 +4310,55 @@
     <t xml:space="preserve">8.13101673126221</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17775726318359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17955589294434</t>
+    <t xml:space="preserve">8.17775821685791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17955493927002</t>
   </si>
   <si>
     <t xml:space="preserve">8.10584926605225</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22989082336426</t>
+    <t xml:space="preserve">8.22989177703857</t>
   </si>
   <si>
     <t xml:space="preserve">8.26404762268066</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28562068939209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32337188720703</t>
+    <t xml:space="preserve">8.28561973571777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32337093353271</t>
   </si>
   <si>
     <t xml:space="preserve">8.3431453704834</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16157817840576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09326553344727</t>
+    <t xml:space="preserve">8.16157722473145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09326457977295</t>
   </si>
   <si>
     <t xml:space="preserve">8.12742137908936</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19753265380859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24786853790283</t>
+    <t xml:space="preserve">8.19753170013428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24786758422852</t>
   </si>
   <si>
     <t xml:space="preserve">8.2388801574707</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24427223205566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3143835067749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3701114654541</t>
+    <t xml:space="preserve">8.24427318572998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31438255310059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37011241912842</t>
   </si>
   <si>
     <t xml:space="preserve">8.37909984588623</t>
@@ -4367,19 +4367,19 @@
     <t xml:space="preserve">8.43482971191406</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08427810668945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45687770843506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62945795059204</t>
+    <t xml:space="preserve">8.08427715301514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45687818527222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62945747375488</t>
   </si>
   <si>
     <t xml:space="preserve">7.23216438293457</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30227518081665</t>
+    <t xml:space="preserve">7.30227470397949</t>
   </si>
   <si>
     <t xml:space="preserve">7.06138324737549</t>
@@ -4388,7 +4388,7 @@
     <t xml:space="preserve">7.33283662796021</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59170532226562</t>
+    <t xml:space="preserve">7.59170579910278</t>
   </si>
   <si>
     <t xml:space="preserve">7.44968748092651</t>
@@ -4406,37 +4406,37 @@
     <t xml:space="preserve">7.41193580627441</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51979827880859</t>
+    <t xml:space="preserve">7.51979732513428</t>
   </si>
   <si>
     <t xml:space="preserve">7.51260662078857</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60608816146851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55754947662354</t>
+    <t xml:space="preserve">7.60608720779419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55754899978638</t>
   </si>
   <si>
     <t xml:space="preserve">7.47485542297363</t>
   </si>
   <si>
-    <t xml:space="preserve">7.64923238754272</t>
+    <t xml:space="preserve">7.64923286437988</t>
   </si>
   <si>
     <t xml:space="preserve">7.66720914840698</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67799520492554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76428556442261</t>
+    <t xml:space="preserve">7.67799615859985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76428508758545</t>
   </si>
   <si>
     <t xml:space="preserve">7.76788091659546</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78945398330688</t>
+    <t xml:space="preserve">7.78945350646973</t>
   </si>
   <si>
     <t xml:space="preserve">7.68518686294556</t>
@@ -4445,7 +4445,7 @@
     <t xml:space="preserve">7.74630832672119</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76855230331421</t>
+    <t xml:space="preserve">7.76855182647705</t>
   </si>
   <si>
     <t xml:space="preserve">7.65548133850098</t>
@@ -4466,19 +4466,19 @@
     <t xml:space="preserve">7.43304634094238</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29031610488892</t>
+    <t xml:space="preserve">7.29031658172607</t>
   </si>
   <si>
     <t xml:space="preserve">7.5090446472168</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51089811325073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50533628463745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34221744537354</t>
+    <t xml:space="preserve">7.51089763641357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50533676147461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34221792221069</t>
   </si>
   <si>
     <t xml:space="preserve">7.22173166275024</t>
@@ -4490,16 +4490,16 @@
     <t xml:space="preserve">7.27734136581421</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27919483184814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37372970581055</t>
+    <t xml:space="preserve">7.27919435501099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37372922897339</t>
   </si>
   <si>
     <t xml:space="preserve">7.35890054702759</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54240894317627</t>
+    <t xml:space="preserve">7.54240942001343</t>
   </si>
   <si>
     <t xml:space="preserve">7.57762813568115</t>
@@ -4514,7 +4514,7 @@
     <t xml:space="preserve">7.44787502288818</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44231367111206</t>
+    <t xml:space="preserve">7.4423131942749</t>
   </si>
   <si>
     <t xml:space="preserve">7.36446142196655</t>
@@ -4529,13 +4529,13 @@
     <t xml:space="preserve">7.62396907806396</t>
   </si>
   <si>
-    <t xml:space="preserve">7.55723857879639</t>
+    <t xml:space="preserve">7.55723905563354</t>
   </si>
   <si>
     <t xml:space="preserve">7.57392120361328</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59801864624023</t>
+    <t xml:space="preserve">7.59801816940308</t>
   </si>
   <si>
     <t xml:space="preserve">7.58504295349121</t>
@@ -4544,31 +4544,31 @@
     <t xml:space="preserve">7.58689641952515</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61655473709106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65918779373169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69626045227051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72777223587036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75001621246338</t>
+    <t xml:space="preserve">7.61655521392822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65918827056885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69626092910767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72777271270752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75001668930054</t>
   </si>
   <si>
     <t xml:space="preserve">7.76113700866699</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71108913421631</t>
+    <t xml:space="preserve">7.71108961105347</t>
   </si>
   <si>
     <t xml:space="preserve">7.72962617874146</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63694429397583</t>
+    <t xml:space="preserve">7.63694477081299</t>
   </si>
   <si>
     <t xml:space="preserve">7.57206773757935</t>
@@ -4589,16 +4589,16 @@
     <t xml:space="preserve">7.6907000541687</t>
   </si>
   <si>
-    <t xml:space="preserve">7.55167770385742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48865413665771</t>
+    <t xml:space="preserve">7.55167722702026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48865461349487</t>
   </si>
   <si>
     <t xml:space="preserve">7.29402351379395</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41821670532227</t>
+    <t xml:space="preserve">7.41821622848511</t>
   </si>
   <si>
     <t xml:space="preserve">7.47011852264404</t>
@@ -4610,19 +4610,19 @@
     <t xml:space="preserve">7.65733480453491</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73333311080933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73147964477539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75372362136841</t>
+    <t xml:space="preserve">7.73333358764648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73147916793823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75372314453125</t>
   </si>
   <si>
     <t xml:space="preserve">7.92240333557129</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96318292617798</t>
+    <t xml:space="preserve">7.96318340301514</t>
   </si>
   <si>
     <t xml:space="preserve">7.9705982208252</t>
@@ -4652,19 +4652,19 @@
     <t xml:space="preserve">7.88533163070679</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82786798477173</t>
+    <t xml:space="preserve">7.82786846160889</t>
   </si>
   <si>
     <t xml:space="preserve">7.81303930282593</t>
   </si>
   <si>
-    <t xml:space="preserve">7.8167462348938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80006456375122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33480310440063</t>
+    <t xml:space="preserve">7.81674671173096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80006408691406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33480358123779</t>
   </si>
   <si>
     <t xml:space="preserve">7.53128814697266</t>
@@ -4673,7 +4673,7 @@
     <t xml:space="preserve">7.6258225440979</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73889493942261</t>
+    <t xml:space="preserve">7.73889446258545</t>
   </si>
   <si>
     <t xml:space="preserve">7.56094598770142</t>
@@ -4688,10 +4688,10 @@
     <t xml:space="preserve">7.56279945373535</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54426383972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53684902191162</t>
+    <t xml:space="preserve">7.54426336288452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53684854507446</t>
   </si>
   <si>
     <t xml:space="preserve">7.61470079421997</t>
@@ -4715,7 +4715,7 @@
     <t xml:space="preserve">7.78523397445679</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79450225830078</t>
+    <t xml:space="preserve">7.7945032119751</t>
   </si>
   <si>
     <t xml:space="preserve">7.77411270141602</t>
@@ -4724,10 +4724,10 @@
     <t xml:space="preserve">7.83528327941895</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67957830429077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71665096282959</t>
+    <t xml:space="preserve">7.67957782745361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71665048599243</t>
   </si>
   <si>
     <t xml:space="preserve">7.8074779510498</t>
@@ -4751,10 +4751,10 @@
     <t xml:space="preserve">7.37743663787842</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47382545471191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34036445617676</t>
+    <t xml:space="preserve">7.47382593154907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3403639793396</t>
   </si>
   <si>
     <t xml:space="preserve">7.44046020507812</t>
@@ -4763,7 +4763,7 @@
     <t xml:space="preserve">7.46455717086792</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33665704727173</t>
+    <t xml:space="preserve">7.33665657043457</t>
   </si>
   <si>
     <t xml:space="preserve">7.36075401306152</t>
@@ -4790,7 +4790,7 @@
     <t xml:space="preserve">7.0382227897644</t>
   </si>
   <si>
-    <t xml:space="preserve">7.04749155044556</t>
+    <t xml:space="preserve">7.0474910736084</t>
   </si>
   <si>
     <t xml:space="preserve">7.04193019866943</t>
@@ -4802,7 +4802,7 @@
     <t xml:space="preserve">7.1420259475708</t>
   </si>
   <si>
-    <t xml:space="preserve">7.17724514007568</t>
+    <t xml:space="preserve">7.17724466323853</t>
   </si>
   <si>
     <t xml:space="preserve">7.31997394561768</t>
@@ -4811,7 +4811,7 @@
     <t xml:space="preserve">7.46641063690186</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37929010391235</t>
+    <t xml:space="preserve">7.37929058074951</t>
   </si>
   <si>
     <t xml:space="preserve">7.40524101257324</t>
@@ -4820,25 +4820,25 @@
     <t xml:space="preserve">7.42377758026123</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59987163543701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5813364982605</t>
+    <t xml:space="preserve">7.59987211227417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58133602142334</t>
   </si>
   <si>
     <t xml:space="preserve">7.77225923538208</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91498899459839</t>
+    <t xml:space="preserve">7.91498804092407</t>
   </si>
   <si>
     <t xml:space="preserve">7.89645290374756</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7778205871582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.801917552948</t>
+    <t xml:space="preserve">7.77782011032104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80191802978516</t>
   </si>
   <si>
     <t xml:space="preserve">7.91312694549561</t>
@@ -62260,7 +62260,7 @@
     </row>
     <row r="2180">
       <c r="A2180" s="1" t="n">
-        <v>45497.6494560185</v>
+        <v>45497.2916666667</v>
       </c>
       <c r="B2180" t="n">
         <v>854370</v>
@@ -62281,6 +62281,32 @@
         <v>1750</v>
       </c>
       <c r="H2180" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2181">
+      <c r="A2181" s="1" t="n">
+        <v>45498.6494560185</v>
+      </c>
+      <c r="B2181" t="n">
+        <v>1020436</v>
+      </c>
+      <c r="C2181" t="n">
+        <v>10.8199996948242</v>
+      </c>
+      <c r="D2181" t="n">
+        <v>10.6000003814697</v>
+      </c>
+      <c r="E2181" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="F2181" t="n">
+        <v>10.8199996948242</v>
+      </c>
+      <c r="G2181" t="s">
+        <v>1731</v>
+      </c>
+      <c r="H2181" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BMED.MI.xlsx
+++ b/data/BMED.MI.xlsx
@@ -47,46 +47,46 @@
     <t xml:space="preserve">4.26425170898438</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99385046958923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90060925483704</t>
+    <t xml:space="preserve">3.9938497543335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9006085395813</t>
   </si>
   <si>
     <t xml:space="preserve">3.89439225196838</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92236614227295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03425550460815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04047155380249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75453019142151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72344994544983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76074647903442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54318237304688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66750478744507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90682458877563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91614985466003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91925764083862</t>
+    <t xml:space="preserve">3.92236590385437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.034255027771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04047107696533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75452947616577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72344923019409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.760746717453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54318261146545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66750454902649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90682578086853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91614890098572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91925716400146</t>
   </si>
   <si>
     <t xml:space="preserve">3.82912302017212</t>
@@ -98,43 +98,43 @@
     <t xml:space="preserve">3.68615293502808</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58669519424438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64263963699341</t>
+    <t xml:space="preserve">3.58669471740723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64264011383057</t>
   </si>
   <si>
     <t xml:space="preserve">3.77628660202026</t>
   </si>
   <si>
-    <t xml:space="preserve">3.46237301826477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30386233329773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60534310340881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71723389625549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78561067581177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88817715644836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8446638584137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84777212142944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95966243743896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92547392845154</t>
+    <t xml:space="preserve">3.46237349510193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30386209487915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60534358024597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71723413467407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7856113910675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88817667961121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84466457366943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84777235984802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95966196060181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92547297477722</t>
   </si>
   <si>
     <t xml:space="preserve">3.83844804763794</t>
@@ -146,10 +146,10 @@
     <t xml:space="preserve">4.07465982437134</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07155275344849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21763038635254</t>
+    <t xml:space="preserve">4.07155179977417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21762990951538</t>
   </si>
   <si>
     <t xml:space="preserve">4.23938703536987</t>
@@ -158,19 +158,19 @@
     <t xml:space="preserve">4.13371229171753</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2114143371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20830583572388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27357530593872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34816884994507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33262777328491</t>
+    <t xml:space="preserve">4.21141481399536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20830631256104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27357578277588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34816932678223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33262872695923</t>
   </si>
   <si>
     <t xml:space="preserve">4.30154800415039</t>
@@ -179,115 +179,115 @@
     <t xml:space="preserve">4.23006248474121</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28600692749023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2518196105957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22073888778687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17411804199219</t>
+    <t xml:space="preserve">4.28600740432739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25181865692139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22073841094971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17411756515503</t>
   </si>
   <si>
     <t xml:space="preserve">4.35749292373657</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39168214797974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41654634475708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24249458312988</t>
+    <t xml:space="preserve">4.39168167114258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41654586791992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24249505996704</t>
   </si>
   <si>
     <t xml:space="preserve">4.1523609161377</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04668760299683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27979135513306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3139796257019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27046775817871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43208646774292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47559881210327</t>
+    <t xml:space="preserve">4.04668807983398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27979183197021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31398010253906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27046632766724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43208599090576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47559785842896</t>
   </si>
   <si>
     <t xml:space="preserve">4.40100574493408</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50564098358154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43905544281006</t>
+    <t xml:space="preserve">4.50564050674438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43905448913574</t>
   </si>
   <si>
     <t xml:space="preserve">4.51198148727417</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54051828384399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53100538253784</t>
+    <t xml:space="preserve">4.54051876068115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53100633621216</t>
   </si>
   <si>
     <t xml:space="preserve">4.43271255493164</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4834451675415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44222497940063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57222700119019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55637264251709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61661672592163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48978710174561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65783596038818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56588411331177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53417730331421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63881206512451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48661613464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49612903594971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48027515411377</t>
+    <t xml:space="preserve">4.48344469070435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44222545623779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57222652435303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55637311935425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61661720275879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48978567123413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65783739089966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56588459014893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53417682647705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6388111114502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4866156578064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49612808227539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48027467727661</t>
   </si>
   <si>
     <t xml:space="preserve">4.51515197753906</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47710371017456</t>
+    <t xml:space="preserve">4.4771032333374</t>
   </si>
   <si>
     <t xml:space="preserve">4.50246953964233</t>
@@ -299,175 +299,175 @@
     <t xml:space="preserve">4.90198469161987</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83856868743896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75613021850586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78466701507568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81637525558472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77832508087158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72442197799683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74661874771118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60710477828979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62929964065552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68003225326538</t>
+    <t xml:space="preserve">4.83856964111328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7561297416687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78466606140137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8163743019104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77832460403442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72442245483398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74661731719971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60710430145264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62929916381836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68003177642822</t>
   </si>
   <si>
     <t xml:space="preserve">4.64198303222656</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2202730178833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03319883346558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05856418609619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98563647270203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11563777923584</t>
+    <t xml:space="preserve">4.22027349472046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03319835662842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05856466293335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98563671112061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.115638256073</t>
   </si>
   <si>
     <t xml:space="preserve">4.32490730285645</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36929845809937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34710264205933</t>
+    <t xml:space="preserve">4.36929798126221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34710359573364</t>
   </si>
   <si>
     <t xml:space="preserve">4.50881099700928</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83027052879333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58612275123596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73514652252197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69709777832031</t>
+    <t xml:space="preserve">3.83026909828186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5861222743988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73514604568481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69709873199463</t>
   </si>
   <si>
     <t xml:space="preserve">3.89051461219788</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90002679824829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75734281539917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70661044120789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64636611938477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67173218727112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87466049194336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97295236587524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1092963218689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99515008926392</t>
+    <t xml:space="preserve">3.90002655982971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75734305381775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70660996437073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64636635780334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67173194885254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87466073036194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97295451164246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10929536819458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9951491355896</t>
   </si>
   <si>
     <t xml:space="preserve">4.02051544189453</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0427098274231</t>
+    <t xml:space="preserve">4.04271030426025</t>
   </si>
   <si>
     <t xml:space="preserve">4.06490564346313</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04588222503662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01417350769043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15368700027466</t>
+    <t xml:space="preserve">4.04588079452515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01417398452759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15368604660034</t>
   </si>
   <si>
     <t xml:space="preserve">4.09027147293091</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16002893447876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87783122062683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82075715065002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90636801719666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05222177505493</t>
+    <t xml:space="preserve">4.1600284576416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87783074378967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82075834274292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90636849403381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05222320556641</t>
   </si>
   <si>
     <t xml:space="preserve">4.07758855819702</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9634416103363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89685606956482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94441699981689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85246515274048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97612452507019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01734495162964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94124579429626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96978306770325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01100301742554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07441806793213</t>
+    <t xml:space="preserve">3.96344208717346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89685559272766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94441723823547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85246539115906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97612476348877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01734399795532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94124698638916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96978354454041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01100206375122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07441759109497</t>
   </si>
   <si>
     <t xml:space="preserve">4.09344244003296</t>
@@ -482,13 +482,13 @@
     <t xml:space="preserve">4.17271137237549</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11246776580811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98880767822266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02368545532227</t>
+    <t xml:space="preserve">4.11246728897095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98880791664124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02368593215942</t>
   </si>
   <si>
     <t xml:space="preserve">4.00783205032349</t>
@@ -497,31 +497,31 @@
     <t xml:space="preserve">3.78587937355042</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85880661010742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77953815460205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83978152275085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87148976325989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76685571670532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65270757675171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69075679779053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76051330566406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73197722434998</t>
+    <t xml:space="preserve">3.85880637168884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77953743934631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83978176116943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87148952484131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76685380935669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65270805358887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69075751304626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76051306724548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73197650909424</t>
   </si>
   <si>
     <t xml:space="preserve">3.74148917198181</t>
@@ -530,124 +530,124 @@
     <t xml:space="preserve">3.92222166061401</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8810019493103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95710015296936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89368534088135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95392942428589</t>
+    <t xml:space="preserve">3.88100218772888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95709991455078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89368486404419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95392918586731</t>
   </si>
   <si>
     <t xml:space="preserve">3.79539203643799</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86831831932068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9190514087677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92539286613464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00149059295654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07124614715576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84295320510864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81441617012024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95075845718384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0490517616272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90953874588013</t>
+    <t xml:space="preserve">3.86831903457642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91905093193054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92539238929749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0014910697937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07124710083008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84295272827148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8144166469574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95075917243958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04905223846436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90953946113586</t>
   </si>
   <si>
     <t xml:space="preserve">3.86514806747437</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77002549171448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75047492980957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85148692131042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87429642677307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85800385475159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90036344528198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9492404460907</t>
+    <t xml:space="preserve">3.77002620697021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75047469139099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85148668289185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87429618835449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85800433158875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90036368370056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94924068450928</t>
   </si>
   <si>
     <t xml:space="preserve">3.98182463645935</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03395986557007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06980323791504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26531076431274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34025526046753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67587471008301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51295185089111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44778347015381</t>
+    <t xml:space="preserve">4.03395938873291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06980276107788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26530981063843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34025430679321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67587423324585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51295232772827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44778251647949</t>
   </si>
   <si>
     <t xml:space="preserve">4.51621007919312</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49991941452026</t>
+    <t xml:space="preserve">4.49991846084595</t>
   </si>
   <si>
     <t xml:space="preserve">4.49014282226562</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40542268753052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48362684249878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46081590652466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49666118621826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50317621231079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48036766052246</t>
+    <t xml:space="preserve">4.40542459487915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4836254119873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46081638336182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49665927886963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50317668914795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48036670684814</t>
   </si>
   <si>
     <t xml:space="preserve">4.45104074478149</t>
@@ -659,43 +659,43 @@
     <t xml:space="preserve">4.5292444229126</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69216585159302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71171760559082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61722230911255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65958261489868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84857320785522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74104404449463</t>
+    <t xml:space="preserve">4.69216632843018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7117166519165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61722278594971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65958166122437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84857177734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74104309082031</t>
   </si>
   <si>
     <t xml:space="preserve">4.91374111175537</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81598806381226</t>
+    <t xml:space="preserve">4.8159875869751</t>
   </si>
   <si>
     <t xml:space="preserve">4.80295372009277</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8746395111084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8127293586731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80621290206909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68239116668701</t>
+    <t xml:space="preserve">4.87463903427124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81272983551025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80621242523193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68239164352417</t>
   </si>
   <si>
     <t xml:space="preserve">4.83879709243774</t>
@@ -704,61 +704,61 @@
     <t xml:space="preserve">4.77688598632812</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76385307312012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77036905288696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60744714736938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61396408081055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66609907150269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6498064994812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53576040267944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56182813644409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54879474639893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63677263259888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6986837387085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64003086090088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62373924255371</t>
+    <t xml:space="preserve">4.76385259628296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77036952972412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60744619369507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61396360397339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66609859466553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64980697631836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5357608795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56182909011841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54879426956177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63677310943604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69868326187134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6400318145752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62373876571655</t>
   </si>
   <si>
     <t xml:space="preserve">4.60092973709106</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29137659072876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15452241897583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12519693374634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0209264755249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04047632217407</t>
+    <t xml:space="preserve">4.29137706756592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15452289581299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12519645690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02092695236206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04047584533691</t>
   </si>
   <si>
     <t xml:space="preserve">4.01766777038574</t>
@@ -770,28 +770,28 @@
     <t xml:space="preserve">4.20665740966797</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16103982925415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17081451416016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21643304824829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24901723861694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26205205917358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3598051071167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32722043991089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35328769683838</t>
+    <t xml:space="preserve">4.16103935241699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17081499099731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21643257141113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2490177154541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26205110549927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35980415344238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32721996307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3532886505127</t>
   </si>
   <si>
     <t xml:space="preserve">4.39564800262451</t>
@@ -800,34 +800,34 @@
     <t xml:space="preserve">4.3044114112854</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32070350646973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3435115814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37935590744019</t>
+    <t xml:space="preserve">4.32070302963257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34351253509521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37935495376587</t>
   </si>
   <si>
     <t xml:space="preserve">4.39890575408936</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46407508850098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47385025024414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50969409942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54227876663208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48688459396362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44452524185181</t>
+    <t xml:space="preserve">4.46407461166382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47384977340698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50969314575195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54227685928345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48688411712646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44452476501465</t>
   </si>
   <si>
     <t xml:space="preserve">4.40216493606567</t>
@@ -848,10 +848,10 @@
     <t xml:space="preserve">4.66578531265259</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6029577255249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64594459533691</t>
+    <t xml:space="preserve">4.60295724868774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64594507217407</t>
   </si>
   <si>
     <t xml:space="preserve">4.61949110031128</t>
@@ -860,10 +860,10 @@
     <t xml:space="preserve">4.59303712844849</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65917205810547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73853397369385</t>
+    <t xml:space="preserve">4.65917158126831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73853302001953</t>
   </si>
   <si>
     <t xml:space="preserve">4.74184036254883</t>
@@ -872,106 +872,106 @@
     <t xml:space="preserve">4.70877265930176</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86088275909424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86749505996704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88072204589844</t>
+    <t xml:space="preserve">4.86088132858276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8674955368042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8807225227356</t>
   </si>
   <si>
     <t xml:space="preserve">4.87741565704346</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92040348052979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79805469512939</t>
+    <t xml:space="preserve">4.92040300369263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79805517196655</t>
   </si>
   <si>
     <t xml:space="preserve">4.81128120422363</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89064168930054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99315118789673</t>
+    <t xml:space="preserve">4.89064264297485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99315166473389</t>
   </si>
   <si>
     <t xml:space="preserve">5.05597877502441</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99976348876953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00637817382812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98323059082031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88733625411987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84765529632568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93693685531616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81789445877075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94354963302612</t>
+    <t xml:space="preserve">4.99976444244385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00637769699097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98323106765747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88733577728271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84765481948853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.936936378479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81789493560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94355010986328</t>
   </si>
   <si>
     <t xml:space="preserve">4.96008396148682</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90717649459839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82120084762573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7947473526001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83112096786499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91378927230835</t>
+    <t xml:space="preserve">4.90717697143555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82120180130005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79474782943726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83112049102783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91378974914551</t>
   </si>
   <si>
     <t xml:space="preserve">4.80466747283936</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85096263885498</t>
+    <t xml:space="preserve">4.85096168518066</t>
   </si>
   <si>
     <t xml:space="preserve">4.75837373733521</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83773469924927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89394903182983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84104156494141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8542685508728</t>
+    <t xml:space="preserve">4.83773422241211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89394807815552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84104108810425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85426950454712</t>
   </si>
   <si>
     <t xml:space="preserve">4.90056228637695</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02621793746948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89725685119629</t>
+    <t xml:space="preserve">5.02621841430664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89725637435913</t>
   </si>
   <si>
     <t xml:space="preserve">4.93032312393188</t>
@@ -980,19 +980,19 @@
     <t xml:space="preserve">4.91048288345337</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82781553268433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77821445465088</t>
+    <t xml:space="preserve">4.82781505584717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77821350097656</t>
   </si>
   <si>
     <t xml:space="preserve">4.71538686752319</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85757493972778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83442831039429</t>
+    <t xml:space="preserve">4.8575758934021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83442783355713</t>
   </si>
   <si>
     <t xml:space="preserve">4.76168012619019</t>
@@ -1001,13 +1001,13 @@
     <t xml:space="preserve">4.79144096374512</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75506734848022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73522710800171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.721999168396</t>
+    <t xml:space="preserve">4.75506687164307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73522615432739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72199964523315</t>
   </si>
   <si>
     <t xml:space="preserve">4.65586519241333</t>
@@ -1019,61 +1019,61 @@
     <t xml:space="preserve">4.74514675140381</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67570543289185</t>
+    <t xml:space="preserve">4.67570495605469</t>
   </si>
   <si>
     <t xml:space="preserve">4.72530651092529</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77490758895874</t>
+    <t xml:space="preserve">4.77490711212158</t>
   </si>
   <si>
     <t xml:space="preserve">4.80136108398438</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87080240249634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96339082717896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94685697555542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7716007232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6856255531311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66909170150757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66247844696045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75176048278809</t>
+    <t xml:space="preserve">4.87080192565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9633903503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94685649871826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77160120010376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68562602996826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66909265518188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66247892379761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75176000595093</t>
   </si>
   <si>
     <t xml:space="preserve">4.71869325637817</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78813409805298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74174451828003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62609243392944</t>
+    <t xml:space="preserve">4.78813362121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74174404144287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62609338760376</t>
   </si>
   <si>
     <t xml:space="preserve">4.62949466705322</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6635103225708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66010713577271</t>
+    <t xml:space="preserve">4.66351079940796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66010808944702</t>
   </si>
   <si>
     <t xml:space="preserve">4.75535106658936</t>
@@ -1082,13 +1082,13 @@
     <t xml:space="preserve">4.76555585861206</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77916240692139</t>
+    <t xml:space="preserve">4.77916288375854</t>
   </si>
   <si>
     <t xml:space="preserve">4.88460969924927</t>
   </si>
   <si>
-    <t xml:space="preserve">4.88801097869873</t>
+    <t xml:space="preserve">4.88801193237305</t>
   </si>
   <si>
     <t xml:space="preserve">4.86079931259155</t>
@@ -1100,94 +1100,94 @@
     <t xml:space="preserve">4.84379148483276</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90161800384521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85059452056885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.918625831604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97305059432983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03427743911743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08529996871948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96624708175659</t>
+    <t xml:space="preserve">4.90161752700806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85059499740601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91862535476685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97305011749268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03427648544312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0853009223938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96624660491943</t>
   </si>
   <si>
     <t xml:space="preserve">5.02067136764526</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04788398742676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97645092010498</t>
+    <t xml:space="preserve">5.04788446426392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97645139694214</t>
   </si>
   <si>
     <t xml:space="preserve">4.99345922470093</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90842056274414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81998062133789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8029727935791</t>
+    <t xml:space="preserve">4.9084210395813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81998109817505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80297327041626</t>
   </si>
   <si>
     <t xml:space="preserve">4.89141321182251</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99005794525146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98665571212769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95264005661011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09550476074219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12271738052368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17033910751343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25877904891968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28599119186401</t>
+    <t xml:space="preserve">4.99005746841431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98665618896484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95264101028442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09550523757935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12271785736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17033958435059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25877857208252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28599214553833</t>
   </si>
   <si>
     <t xml:space="preserve">5.30299854278564</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29619550704956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33701419830322</t>
+    <t xml:space="preserve">5.29619646072388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33701467514038</t>
   </si>
   <si>
     <t xml:space="preserve">5.38803768157959</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39144039154053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33021116256714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37443161010742</t>
+    <t xml:space="preserve">5.39143943786621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33021068572998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37443208694458</t>
   </si>
   <si>
     <t xml:space="preserve">5.40844678878784</t>
@@ -1196,40 +1196,40 @@
     <t xml:space="preserve">5.27238512039185</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16353702545166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24857521057129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17714166641235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07509613037109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76215505599976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80977582931519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92883014678955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91522407531738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95944356918335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94924020767212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94583797454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95604181289673</t>
+    <t xml:space="preserve">5.16353607177734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24857425689697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17714309692383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07509517669678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76215410232544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80977535247803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92882966995239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91522359848022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95944404602051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9492392539978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94583749771118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95604228973389</t>
   </si>
   <si>
     <t xml:space="preserve">5.06149005889893</t>
@@ -1238,37 +1238,37 @@
     <t xml:space="preserve">5.03767967224121</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82678413391113</t>
+    <t xml:space="preserve">4.82678365707397</t>
   </si>
   <si>
     <t xml:space="preserve">4.78596544265747</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83358669281006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90501928329468</t>
+    <t xml:space="preserve">4.83358716964722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90501880645752</t>
   </si>
   <si>
     <t xml:space="preserve">4.93903493881226</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93223190307617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87440538406372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84719371795654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77576065063477</t>
+    <t xml:space="preserve">4.93223142623901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87440490722656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84719276428223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77576017379761</t>
   </si>
   <si>
     <t xml:space="preserve">4.80637454986572</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81657934188843</t>
+    <t xml:space="preserve">4.81657886505127</t>
   </si>
   <si>
     <t xml:space="preserve">4.73834419250488</t>
@@ -1277,85 +1277,85 @@
     <t xml:space="preserve">4.79957103729248</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77235889434814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76895713806152</t>
+    <t xml:space="preserve">4.77235984802246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76895809173584</t>
   </si>
   <si>
     <t xml:space="preserve">4.72813940048218</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71793413162231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79617071151733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83698844909668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90708827972412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84058666229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70408391952515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6025824546814</t>
+    <t xml:space="preserve">4.71793460845947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79617023468018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83698892593384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90708875656128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8405876159668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7040843963623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60258293151855</t>
   </si>
   <si>
     <t xml:space="preserve">4.63758325576782</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66208362579346</t>
+    <t xml:space="preserve">4.66208410263062</t>
   </si>
   <si>
     <t xml:space="preserve">4.74958515167236</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73208570480347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76008605957031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74608516693115</t>
+    <t xml:space="preserve">4.73208618164062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76008558273315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74608564376831</t>
   </si>
   <si>
     <t xml:space="preserve">4.65508365631104</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71458435058594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67608404159546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66558313369751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57458162307739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49758100509644</t>
+    <t xml:space="preserve">4.7145848274231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67608451843262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66558408737183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57458209991455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49758195877075</t>
   </si>
   <si>
     <t xml:space="preserve">4.31207752227783</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29107666015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27707624435425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22457551956177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25957632064819</t>
+    <t xml:space="preserve">4.29107713699341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27707672119141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22457599639893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25957679748535</t>
   </si>
   <si>
     <t xml:space="preserve">4.27007627487183</t>
@@ -1364,16 +1364,16 @@
     <t xml:space="preserve">4.24907636642456</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18257474899292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06707286834717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18607616424561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23157596588135</t>
+    <t xml:space="preserve">4.18257427215576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06707334518433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18607521057129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23157644271851</t>
   </si>
   <si>
     <t xml:space="preserve">4.28057670593262</t>
@@ -1382,16 +1382,16 @@
     <t xml:space="preserve">4.09507322311401</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16857528686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1895751953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0705738067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21757555007935</t>
+    <t xml:space="preserve">4.16857433319092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18957614898682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07057332992554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2175760269165</t>
   </si>
   <si>
     <t xml:space="preserve">4.15807485580444</t>
@@ -1403,61 +1403,61 @@
     <t xml:space="preserve">4.19307518005371</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13707399368286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11957454681396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16507482528687</t>
+    <t xml:space="preserve">4.13707447052002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11957406997681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16507434844971</t>
   </si>
   <si>
     <t xml:space="preserve">4.09857368469238</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20707607269287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07407379150391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02857255935669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00407218933105</t>
+    <t xml:space="preserve">4.20707511901855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07407283782959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02857208251953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00407123565674</t>
   </si>
   <si>
     <t xml:space="preserve">4.06357336044312</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12657356262207</t>
+    <t xml:space="preserve">4.12657451629639</t>
   </si>
   <si>
     <t xml:space="preserve">4.11257362365723</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14407396316528</t>
+    <t xml:space="preserve">4.1440749168396</t>
   </si>
   <si>
     <t xml:space="preserve">3.98657131195068</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06007289886475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10207414627075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04957246780396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05657243728638</t>
+    <t xml:space="preserve">4.0600733757019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10207366943359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04957294464111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05657291412354</t>
   </si>
   <si>
     <t xml:space="preserve">4.30157804489136</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46958065032959</t>
+    <t xml:space="preserve">4.46957969665527</t>
   </si>
   <si>
     <t xml:space="preserve">4.3470778465271</t>
@@ -1466,22 +1466,22 @@
     <t xml:space="preserve">4.3750786781311</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32957744598389</t>
+    <t xml:space="preserve">4.3295783996582</t>
   </si>
   <si>
     <t xml:space="preserve">4.38907909393311</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34007835388184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29807710647583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2350754737854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24557685852051</t>
+    <t xml:space="preserve">4.34007740020752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29807662963867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23507595062256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24557638168335</t>
   </si>
   <si>
     <t xml:space="preserve">4.22107601165771</t>
@@ -1490,7 +1490,7 @@
     <t xml:space="preserve">4.14757442474365</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21407556533813</t>
+    <t xml:space="preserve">4.21407604217529</t>
   </si>
   <si>
     <t xml:space="preserve">4.25607681274414</t>
@@ -1499,7 +1499,7 @@
     <t xml:space="preserve">4.2630763053894</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25257587432861</t>
+    <t xml:space="preserve">4.25257635116577</t>
   </si>
   <si>
     <t xml:space="preserve">4.20007562637329</t>
@@ -1508,118 +1508,118 @@
     <t xml:space="preserve">4.17557525634766</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12307357788086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2735767364502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20357656478882</t>
+    <t xml:space="preserve">4.12307405471802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27357625961304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20357608795166</t>
   </si>
   <si>
     <t xml:space="preserve">4.26657676696777</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22807598114014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32257747650146</t>
+    <t xml:space="preserve">4.22807645797729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32257795333862</t>
   </si>
   <si>
     <t xml:space="preserve">4.3330774307251</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35407829284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46608066558838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44858026504517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46257972717285</t>
+    <t xml:space="preserve">4.35407876968384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46608018875122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44857931137085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46258020401001</t>
   </si>
   <si>
     <t xml:space="preserve">4.47658014297485</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85356855392456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88507008552551</t>
+    <t xml:space="preserve">3.85356950759888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8850691318512</t>
   </si>
   <si>
     <t xml:space="preserve">3.77306771278381</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77656817436218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79756879806519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86056971549988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80106806755066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70306611061096</t>
+    <t xml:space="preserve">3.77656698226929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79756855964661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86056876182556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80106830596924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70306658744812</t>
   </si>
   <si>
     <t xml:space="preserve">3.6820662021637</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62956571578979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.605064868927</t>
+    <t xml:space="preserve">3.62956500053406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60506463050842</t>
   </si>
   <si>
     <t xml:space="preserve">3.53856372833252</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56306457519531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5070629119873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59106421470642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58756446838379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65056562423706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71006608009338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69956684112549</t>
+    <t xml:space="preserve">3.56306385993958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50706315040588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59106540679932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58756422996521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6505651473999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71006655693054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69956588745117</t>
   </si>
   <si>
     <t xml:space="preserve">3.70656633377075</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6750659942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64006495475769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63656568527222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66754722595215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50365495681763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65297889709473</t>
+    <t xml:space="preserve">3.67506647109985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64006447792053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63656544685364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66754746437073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50365519523621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65297937393188</t>
   </si>
   <si>
     <t xml:space="preserve">3.64569544792175</t>
@@ -1628,16 +1628,16 @@
     <t xml:space="preserve">3.72217798233032</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89699649810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86057615280151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85693407058716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84965038299561</t>
+    <t xml:space="preserve">3.89699673652649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86057686805725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85693430900574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84965014457703</t>
   </si>
   <si>
     <t xml:space="preserve">3.83144021034241</t>
@@ -1646,46 +1646,46 @@
     <t xml:space="preserve">3.82415580749512</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68211579322815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66026377677917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61728739738464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67847418785095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74403071403503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81322979927063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72946286201477</t>
+    <t xml:space="preserve">3.68211555480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66026329994202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61728763580322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67847394943237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74403047561646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81322932243347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72946214675903</t>
   </si>
   <si>
     <t xml:space="preserve">3.70396757125854</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75131464004517</t>
+    <t xml:space="preserve">3.75131440162659</t>
   </si>
   <si>
     <t xml:space="preserve">3.70032596588135</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52987742424011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71489429473877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70761013031006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67483115196228</t>
+    <t xml:space="preserve">3.52987790107727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71489381790161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7076096534729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67483139038086</t>
   </si>
   <si>
     <t xml:space="preserve">3.82051372528076</t>
@@ -1694,31 +1694,31 @@
     <t xml:space="preserve">3.80594563484192</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76588273048401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85329151153564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87514495849609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92249155044556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90063905715942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87150287628174</t>
+    <t xml:space="preserve">3.76588344573975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8532919883728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87514519691467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92249178886414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90063953399658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87150239944458</t>
   </si>
   <si>
     <t xml:space="preserve">3.90792274475098</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87878656387329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86786079406738</t>
+    <t xml:space="preserve">3.87878608703613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86786007881165</t>
   </si>
   <si>
     <t xml:space="preserve">3.92613315582275</t>
@@ -1727,7 +1727,7 @@
     <t xml:space="preserve">3.88242864608765</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00625801086426</t>
+    <t xml:space="preserve">4.00625848770142</t>
   </si>
   <si>
     <t xml:space="preserve">4.15922498703003</t>
@@ -1736,22 +1736,22 @@
     <t xml:space="preserve">4.22478199005127</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1482982635498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.286696434021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28305387496948</t>
+    <t xml:space="preserve">4.14829874038696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28669691085815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28305435180664</t>
   </si>
   <si>
     <t xml:space="preserve">4.33040142059326</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38867378234863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33404350280762</t>
+    <t xml:space="preserve">4.38867425918579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3340425491333</t>
   </si>
   <si>
     <t xml:space="preserve">4.34132719039917</t>
@@ -1760,10 +1760,10 @@
     <t xml:space="preserve">4.34861087799072</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46515703201294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4287371635437</t>
+    <t xml:space="preserve">4.4651575088501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42873668670654</t>
   </si>
   <si>
     <t xml:space="preserve">4.48336791992188</t>
@@ -1772,7 +1772,7 @@
     <t xml:space="preserve">4.47244119644165</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5452823638916</t>
+    <t xml:space="preserve">4.54528188705444</t>
   </si>
   <si>
     <t xml:space="preserve">4.44330453872681</t>
@@ -1781,7 +1781,7 @@
     <t xml:space="preserve">4.49429368972778</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54892492294312</t>
+    <t xml:space="preserve">4.54892444610596</t>
   </si>
   <si>
     <t xml:space="preserve">4.55256652832031</t>
@@ -1790,13 +1790,13 @@
     <t xml:space="preserve">4.56713485717773</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61083889007568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5780611038208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60355520248413</t>
+    <t xml:space="preserve">4.61083936691284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57806015014648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60355472564697</t>
   </si>
   <si>
     <t xml:space="preserve">4.61812305450439</t>
@@ -1808,67 +1808,67 @@
     <t xml:space="preserve">4.63269138336182</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57077646255493</t>
+    <t xml:space="preserve">4.57077741622925</t>
   </si>
   <si>
     <t xml:space="preserve">4.59991312026978</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65454339981079</t>
+    <t xml:space="preserve">4.65454387664795</t>
   </si>
   <si>
     <t xml:space="preserve">4.62176513671875</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76744747161865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75288009643555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74923706054688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74559545516968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73831129074097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73466968536377</t>
+    <t xml:space="preserve">4.76744794845581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75287961959839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74923801422119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74559497833252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73831176757812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73466920852661</t>
   </si>
   <si>
     <t xml:space="preserve">4.83664655685425</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90220308303833</t>
+    <t xml:space="preserve">4.90220355987549</t>
   </si>
   <si>
     <t xml:space="preserve">4.92769765853882</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89856195449829</t>
+    <t xml:space="preserve">4.89856100082397</t>
   </si>
   <si>
     <t xml:space="preserve">4.89127731323242</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89503192901611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79743099212646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84247732162476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84623098373413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93632316589355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91380071640015</t>
+    <t xml:space="preserve">4.89503145217896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79743051528931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84247636795044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84623050689697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93632411956787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9138011932373</t>
   </si>
   <si>
     <t xml:space="preserve">4.88001585006714</t>
@@ -1877,7 +1877,7 @@
     <t xml:space="preserve">4.72986173629761</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74112367630005</t>
+    <t xml:space="preserve">4.74112319946289</t>
   </si>
   <si>
     <t xml:space="preserve">4.75613832473755</t>
@@ -1886,19 +1886,19 @@
     <t xml:space="preserve">4.63976907730103</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59096813201904</t>
+    <t xml:space="preserve">4.5909686088562</t>
   </si>
   <si>
     <t xml:space="preserve">4.65478420257568</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59472274780273</t>
+    <t xml:space="preserve">4.59472227096558</t>
   </si>
   <si>
     <t xml:space="preserve">4.65853834152222</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6172456741333</t>
+    <t xml:space="preserve">4.61724615097046</t>
   </si>
   <si>
     <t xml:space="preserve">4.61349201202393</t>
@@ -1907,40 +1907,40 @@
     <t xml:space="preserve">4.54967641830444</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56093835830688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56469106674194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52715349197388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50462961196899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48210716247559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51213836669922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5759539604187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63601589202881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62475347518921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6697998046875</t>
+    <t xml:space="preserve">4.56093740463257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5646915435791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52715444564819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50463008880615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48210620880127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5121374130249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57595300674438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63601493835449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62475299835205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66979932785034</t>
   </si>
   <si>
     <t xml:space="preserve">4.65103054046631</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59847640991211</t>
+    <t xml:space="preserve">4.59847688674927</t>
   </si>
   <si>
     <t xml:space="preserve">4.62850761413574</t>
@@ -1949,10 +1949,10 @@
     <t xml:space="preserve">4.55718374252319</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69607734680176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71859931945801</t>
+    <t xml:space="preserve">4.6960768699646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71859979629517</t>
   </si>
   <si>
     <t xml:space="preserve">4.74863052368164</t>
@@ -1961,52 +1961,52 @@
     <t xml:space="preserve">4.85749244689941</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78992319107056</t>
+    <t xml:space="preserve">4.78992366790771</t>
   </si>
   <si>
     <t xml:space="preserve">4.79367685317993</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85373878479004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86124658584595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86500120162964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00389242172241</t>
+    <t xml:space="preserve">4.8537392616272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86124610900879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86500072479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00389289855957</t>
   </si>
   <si>
     <t xml:space="preserve">5.04518556594849</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99263143539429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9851245880127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94383192062378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02266216278076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01515531539917</t>
+    <t xml:space="preserve">4.99263191223145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98512411117554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94383096694946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0226616859436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01515483856201</t>
   </si>
   <si>
     <t xml:space="preserve">5.05269336700439</t>
   </si>
   <si>
-    <t xml:space="preserve">5.07521677017212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02641677856445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97010803222656</t>
+    <t xml:space="preserve">5.07521724700928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02641630172729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97010850906372</t>
   </si>
   <si>
     <t xml:space="preserve">4.95133876800537</t>
@@ -2015,13 +2015,13 @@
     <t xml:space="preserve">4.947585105896</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97761631011963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95509338378906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04143190383911</t>
+    <t xml:space="preserve">4.97761583328247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95509243011475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04143285751343</t>
   </si>
   <si>
     <t xml:space="preserve">5.0001392364502</t>
@@ -2033,22 +2033,22 @@
     <t xml:space="preserve">4.91755437850952</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69983148574829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70358419418335</t>
+    <t xml:space="preserve">4.69983053207397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70358467102051</t>
   </si>
   <si>
     <t xml:space="preserve">4.71109247207642</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63226079940796</t>
+    <t xml:space="preserve">4.63226175308228</t>
   </si>
   <si>
     <t xml:space="preserve">4.84998512268066</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95884799957275</t>
+    <t xml:space="preserve">4.9588475227356</t>
   </si>
   <si>
     <t xml:space="preserve">4.90629243850708</t>
@@ -2057,19 +2057,19 @@
     <t xml:space="preserve">4.99638557434082</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94007778167725</t>
+    <t xml:space="preserve">4.9400782585144</t>
   </si>
   <si>
     <t xml:space="preserve">5.03767776489258</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06020069122314</t>
+    <t xml:space="preserve">5.06020021438599</t>
   </si>
   <si>
     <t xml:space="preserve">5.15404748916626</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16530847549438</t>
+    <t xml:space="preserve">5.16530895233154</t>
   </si>
   <si>
     <t xml:space="preserve">5.14278602600098</t>
@@ -2078,70 +2078,70 @@
     <t xml:space="preserve">5.26290988922119</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21035528182983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23287868499756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28543186187744</t>
+    <t xml:space="preserve">5.21035575866699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2328782081604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28543281555176</t>
   </si>
   <si>
     <t xml:space="preserve">5.29294061660767</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25540208816528</t>
+    <t xml:space="preserve">5.25540113449097</t>
   </si>
   <si>
     <t xml:space="preserve">5.16155529022217</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19158554077148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15029335021973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17657041549683</t>
+    <t xml:space="preserve">5.19158697128296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15029382705688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17657089233398</t>
   </si>
   <si>
     <t xml:space="preserve">5.17281675338745</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16906356811523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10149335861206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22161674499512</t>
+    <t xml:space="preserve">5.16906309127808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10149431228638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22161722183228</t>
   </si>
   <si>
     <t xml:space="preserve">5.21786308288574</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21411037445068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23663187026978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39804887771606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44309520721436</t>
+    <t xml:space="preserve">5.21410989761353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23663234710693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39804840087891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4430947303772</t>
   </si>
   <si>
     <t xml:space="preserve">5.48438692092896</t>
   </si>
   <si>
-    <t xml:space="preserve">5.52943277359009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57447957992554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64204931259155</t>
+    <t xml:space="preserve">5.52943325042725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5744800567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64204883575439</t>
   </si>
   <si>
     <t xml:space="preserve">5.6758337020874</t>
@@ -2153,91 +2153,91 @@
     <t xml:space="preserve">5.7021107673645</t>
   </si>
   <si>
-    <t xml:space="preserve">5.72463321685791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76217269897461</t>
+    <t xml:space="preserve">5.72463369369507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76217317581177</t>
   </si>
   <si>
     <t xml:space="preserve">5.77343416213989</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76968002319336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77718830108643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78844881057739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78094244003296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85601997375488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20137357711792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30272817611694</t>
+    <t xml:space="preserve">5.76968050003052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77718782424927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78844928741455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78094148635864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85601902008057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20137453079224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30272912979126</t>
   </si>
   <si>
     <t xml:space="preserve">6.47915935516357</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59177589416504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45663642883301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47165298461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56784200668335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74483156204224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9025821685791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91797304153442</t>
+    <t xml:space="preserve">6.59177446365356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45663690567017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47165203094482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56784105300903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74483060836792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90258169174194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91797256469727</t>
   </si>
   <si>
     <t xml:space="preserve">7.01416206359863</t>
   </si>
   <si>
-    <t xml:space="preserve">6.95644807815552</t>
+    <t xml:space="preserve">6.95644903182983</t>
   </si>
   <si>
     <t xml:space="preserve">7.07957077026367</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10265731811523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16037178039551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09111452102661</t>
+    <t xml:space="preserve">7.10265636444092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16037130355835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09111547470093</t>
   </si>
   <si>
     <t xml:space="preserve">7.02570533752441</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00646781921387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08726692199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1411337852478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08341836929321</t>
+    <t xml:space="preserve">7.00646734237671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08726739883423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14113330841064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08341932296753</t>
   </si>
   <si>
     <t xml:space="preserve">6.95260095596313</t>
@@ -2246,25 +2246,25 @@
     <t xml:space="preserve">6.971839427948</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00261926651001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97568702697754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05263805389404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02955341339111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02185821533203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99107646942139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89873504638672</t>
+    <t xml:space="preserve">7.00262022018433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97568607330322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05263900756836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02955293655396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02185773849487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9910774230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89873456954956</t>
   </si>
   <si>
     <t xml:space="preserve">6.86410617828369</t>
@@ -2279,19 +2279,19 @@
     <t xml:space="preserve">6.84486961364746</t>
   </si>
   <si>
-    <t xml:space="preserve">6.75252628326416</t>
+    <t xml:space="preserve">6.75252532958984</t>
   </si>
   <si>
     <t xml:space="preserve">6.61401319503784</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61786031723022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77176380157471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92566728591919</t>
+    <t xml:space="preserve">6.61786127090454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77176475524902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92566823959351</t>
   </si>
   <si>
     <t xml:space="preserve">6.72174549102783</t>
@@ -2300,7 +2300,7 @@
     <t xml:space="preserve">6.71789789199829</t>
   </si>
   <si>
-    <t xml:space="preserve">6.82947778701782</t>
+    <t xml:space="preserve">6.82947826385498</t>
   </si>
   <si>
     <t xml:space="preserve">6.74867916107178</t>
@@ -2309,61 +2309,61 @@
     <t xml:space="preserve">6.63325119018555</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66403198242188</t>
+    <t xml:space="preserve">6.66403102874756</t>
   </si>
   <si>
     <t xml:space="preserve">6.61016511917114</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41009044647217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55245113372803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47165203094482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27157688140869</t>
+    <t xml:space="preserve">6.41008996963501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55245208740234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47165107727051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27157735824585</t>
   </si>
   <si>
     <t xml:space="preserve">6.28311967849731</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37931060791016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34083414077759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39470052719116</t>
+    <t xml:space="preserve">6.37930917739868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34083366394043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.394700050354</t>
   </si>
   <si>
     <t xml:space="preserve">6.46395635604858</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50243282318115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49473667144775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49858570098877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57553768157959</t>
+    <t xml:space="preserve">6.50243234634399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49473762512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49858474731445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57553720474243</t>
   </si>
   <si>
     <t xml:space="preserve">6.69096517562866</t>
   </si>
   <si>
-    <t xml:space="preserve">6.72944068908691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56399393081665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38315677642822</t>
+    <t xml:space="preserve">6.72944116592407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56399440765381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38315773010254</t>
   </si>
   <si>
     <t xml:space="preserve">6.04456853866577</t>
@@ -2375,22 +2375,22 @@
     <t xml:space="preserve">6.00994110107422</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8675799369812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66365766525269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59824895858765</t>
+    <t xml:space="preserve">5.86757946014404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66365718841553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59824848175049</t>
   </si>
   <si>
     <t xml:space="preserve">5.57516241073608</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53668689727783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2558126449585</t>
+    <t xml:space="preserve">5.53668642044067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25581216812134</t>
   </si>
   <si>
     <t xml:space="preserve">5.13268995285034</t>
@@ -2399,94 +2399,94 @@
     <t xml:space="preserve">4.77101516723633</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20157146453857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15540075302124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76448583602905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76756358146667</t>
+    <t xml:space="preserve">4.20157194137573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15540027618408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76448559761047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7675633430481</t>
   </si>
   <si>
     <t xml:space="preserve">3.44898247718811</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1781120300293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13809728622437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25660300254822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24736833572388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6398229598999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74909520149231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95532584190369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82142949104309</t>
+    <t xml:space="preserve">3.17811226844788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13809704780579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25660276412964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24736881256104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63982343673706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74909496307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95532560348511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82142972946167</t>
   </si>
   <si>
     <t xml:space="preserve">3.63366746902466</t>
   </si>
   <si>
-    <t xml:space="preserve">3.57826161384583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5674889087677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57980060577393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51670002937317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64444065093994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84759378433228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02073526382446</t>
+    <t xml:space="preserve">3.57826209068298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56748843193054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57980155944824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51670026779175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64444088935852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84759306907654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0207347869873</t>
   </si>
   <si>
     <t xml:space="preserve">4.20926713943481</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85913586616516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9053065776825</t>
+    <t xml:space="preserve">3.85913610458374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90530705451965</t>
   </si>
   <si>
     <t xml:space="preserve">4.02458238601685</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94763040542603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75986790657043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89761185646057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98610639572144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96686840057373</t>
+    <t xml:space="preserve">3.94763159751892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75986838340759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89761209487915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98610687255859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96686863899231</t>
   </si>
   <si>
     <t xml:space="preserve">4.11692476272583</t>
@@ -2495,31 +2495,31 @@
     <t xml:space="preserve">4.31315183639526</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48629426956177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28621959686279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09383964538574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03227710723877</t>
+    <t xml:space="preserve">4.48629331588745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28621864318848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09383916854858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03227758407593</t>
   </si>
   <si>
     <t xml:space="preserve">4.07844924926758</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12461996078491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12846803665161</t>
+    <t xml:space="preserve">4.12462043762207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12846755981445</t>
   </si>
   <si>
     <t xml:space="preserve">4.30545663833618</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38240814208984</t>
+    <t xml:space="preserve">4.382408618927</t>
   </si>
   <si>
     <t xml:space="preserve">4.24004793167114</t>
@@ -2528,16 +2528,16 @@
     <t xml:space="preserve">4.14385843276978</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25928544998169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26698112487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3862566947937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42473268508911</t>
+    <t xml:space="preserve">4.25928592681885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26698160171509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38625621795654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42473220825195</t>
   </si>
   <si>
     <t xml:space="preserve">4.51322650909424</t>
@@ -2546,7 +2546,7 @@
     <t xml:space="preserve">4.55555057525635</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66328287124634</t>
+    <t xml:space="preserve">4.6632833480835</t>
   </si>
   <si>
     <t xml:space="preserve">4.60941696166992</t>
@@ -2555,13 +2555,13 @@
     <t xml:space="preserve">4.57094097137451</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74023532867432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79410123825073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97493839263916</t>
+    <t xml:space="preserve">4.74023485183716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79410171508789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.974937915802</t>
   </si>
   <si>
     <t xml:space="preserve">5.20579385757446</t>
@@ -2570,49 +2570,49 @@
     <t xml:space="preserve">5.32506942749023</t>
   </si>
   <si>
-    <t xml:space="preserve">5.12114763259888</t>
+    <t xml:space="preserve">5.12114715576172</t>
   </si>
   <si>
     <t xml:space="preserve">4.84412002563477</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86335849761963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02495622634888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97109127044678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94800472259521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99802398681641</t>
+    <t xml:space="preserve">4.86335802078247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02495718002319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97109079360962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94800519943237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99802350997925</t>
   </si>
   <si>
     <t xml:space="preserve">4.98263311386108</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02880430221558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8133397102356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80179691314697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85181474685669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89413928985596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91722440719604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83642387390137</t>
+    <t xml:space="preserve">5.02880382537842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81333923339844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80179643630981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85181522369385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89413833618164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91722393035889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83642435073853</t>
   </si>
   <si>
     <t xml:space="preserve">5.0634331703186</t>
@@ -2624,19 +2624,19 @@
     <t xml:space="preserve">5.0595850944519</t>
   </si>
   <si>
-    <t xml:space="preserve">5.03650045394897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82488203048706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94415760040283</t>
+    <t xml:space="preserve">5.03649950027466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82488298416138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94415807723999</t>
   </si>
   <si>
     <t xml:space="preserve">5.00187158584595</t>
   </si>
   <si>
-    <t xml:space="preserve">5.07112789154053</t>
+    <t xml:space="preserve">5.07112741470337</t>
   </si>
   <si>
     <t xml:space="preserve">5.07497501373291</t>
@@ -2660,79 +2660,79 @@
     <t xml:space="preserve">4.98648071289062</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93261432647705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9133768081665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95185279846191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7671685218811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95570087432861</t>
+    <t xml:space="preserve">4.93261480331421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91337633132935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95185327529907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76716804504395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95570039749146</t>
   </si>
   <si>
     <t xml:space="preserve">4.96339511871338</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10190916061401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18655633926392</t>
+    <t xml:space="preserve">5.10190868377686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1865553855896</t>
   </si>
   <si>
     <t xml:space="preserve">5.24042224884033</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15577459335327</t>
+    <t xml:space="preserve">5.15577554702759</t>
   </si>
   <si>
     <t xml:space="preserve">5.02110958099365</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1057562828064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97878503799438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14038467407227</t>
+    <t xml:space="preserve">5.10575580596924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97878551483154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14038419723511</t>
   </si>
   <si>
     <t xml:space="preserve">5.05188989639282</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08651828765869</t>
+    <t xml:space="preserve">5.08651876449585</t>
   </si>
   <si>
     <t xml:space="preserve">4.92491960525513</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78255891799927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86720514297485</t>
+    <t xml:space="preserve">4.78255796432495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86720561981201</t>
   </si>
   <si>
     <t xml:space="preserve">4.87105274200439</t>
   </si>
   <si>
-    <t xml:space="preserve">5.09036493301392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84796810150146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73253965377808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84027290344238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70560646057129</t>
+    <t xml:space="preserve">5.09036588668823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84796762466431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73254060745239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84027242660522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70560598373413</t>
   </si>
   <si>
     <t xml:space="preserve">4.78640604019165</t>
@@ -2741,7 +2741,7 @@
     <t xml:space="preserve">5.0403470993042</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95954704284668</t>
+    <t xml:space="preserve">4.95954751968384</t>
   </si>
   <si>
     <t xml:space="preserve">4.8094916343689</t>
@@ -2756,61 +2756,61 @@
     <t xml:space="preserve">4.65558815002441</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5170750617981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46320819854736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50937938690186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75562524795532</t>
+    <t xml:space="preserve">4.51707458496094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46320867538452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5093789100647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75562572479248</t>
   </si>
   <si>
     <t xml:space="preserve">5.29428815841675</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38278245925903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51744937896729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38663101196289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55592441558838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81756114959717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80986595153809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73291349411011</t>
+    <t xml:space="preserve">5.38278293609619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51744842529297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38663053512573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55592489242554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81756162643433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80986642837524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73291397094727</t>
   </si>
   <si>
     <t xml:space="preserve">5.8444938659668</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86373233795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01763677597046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89066553115845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97531175613403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85218906402588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92529392242432</t>
+    <t xml:space="preserve">5.86373281478882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0176362991333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89066648483276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97531223297119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85218858718872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92529296875</t>
   </si>
   <si>
     <t xml:space="preserve">5.76754188537598</t>
@@ -2819,64 +2819,64 @@
     <t xml:space="preserve">5.7175235748291</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70982885360718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64442014694214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60209560394287</t>
+    <t xml:space="preserve">5.70982837677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64441871643066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60209608078003</t>
   </si>
   <si>
     <t xml:space="preserve">5.59440088272095</t>
   </si>
   <si>
-    <t xml:space="preserve">5.50205898284912</t>
+    <t xml:space="preserve">5.5020580291748</t>
   </si>
   <si>
     <t xml:space="preserve">5.46743011474609</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47512531280518</t>
+    <t xml:space="preserve">5.47512483596802</t>
   </si>
   <si>
     <t xml:space="preserve">5.47897243499756</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46358251571655</t>
+    <t xml:space="preserve">5.46358299255371</t>
   </si>
   <si>
     <t xml:space="preserve">5.44434404373169</t>
   </si>
   <si>
-    <t xml:space="preserve">5.332763671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40971660614014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42895412445068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47127771377563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49821043014526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43664932250977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44819164276123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6598105430603</t>
+    <t xml:space="preserve">5.33276462554932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40971612930298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42895460128784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47127723693848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49821138381958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43664884567261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44819211959839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65980958938599</t>
   </si>
   <si>
     <t xml:space="preserve">5.63672351837158</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62902927398682</t>
+    <t xml:space="preserve">5.62902879714966</t>
   </si>
   <si>
     <t xml:space="preserve">5.2750506401062</t>
@@ -2888,25 +2888,25 @@
     <t xml:space="preserve">5.07882308959961</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16346979141235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22503185272217</t>
+    <t xml:space="preserve">5.16347026824951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22503232955933</t>
   </si>
   <si>
     <t xml:space="preserve">5.62518167495728</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73676204681396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94837951660156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87912273406982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89836025238037</t>
+    <t xml:space="preserve">5.73676109313965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9483790397644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87912225723267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89836120605469</t>
   </si>
   <si>
     <t xml:space="preserve">5.88297033309937</t>
@@ -2915,94 +2915,94 @@
     <t xml:space="preserve">5.76369476318359</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67904758453369</t>
+    <t xml:space="preserve">5.67904806137085</t>
   </si>
   <si>
     <t xml:space="preserve">5.69443798065186</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75984668731689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62133359909058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65211391448975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55977249145508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74445724487305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77523756027222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75215196609497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85988473892212</t>
+    <t xml:space="preserve">5.75984716415405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62133407592773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6521143913269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55977296829224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74445676803589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77523708343506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75215244293213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85988426208496</t>
   </si>
   <si>
     <t xml:space="preserve">5.92144632339478</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95992136001587</t>
+    <t xml:space="preserve">5.95992231369019</t>
   </si>
   <si>
     <t xml:space="preserve">5.97915935516357</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96376895904541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97146558761597</t>
+    <t xml:space="preserve">5.96376943588257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97146511077881</t>
   </si>
   <si>
     <t xml:space="preserve">6.09843587875366</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25233936309814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15999746322632</t>
+    <t xml:space="preserve">6.25233888626099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15999794006348</t>
   </si>
   <si>
     <t xml:space="preserve">6.18308210372925</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09073972702026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13306283950806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14075946807861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22540616989136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19462490081787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17461776733398</t>
+    <t xml:space="preserve">6.09074020385742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13306331634521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1407585144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22540712356567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19462537765503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17461824417114</t>
   </si>
   <si>
     <t xml:space="preserve">6.21001529693604</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12844657897949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04379940032959</t>
+    <t xml:space="preserve">6.12844705581665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04379987716675</t>
   </si>
   <si>
     <t xml:space="preserve">6.10690021514893</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05457210540771</t>
+    <t xml:space="preserve">6.05457258224487</t>
   </si>
   <si>
     <t xml:space="preserve">6.05765056610107</t>
@@ -3011,85 +3011,85 @@
     <t xml:space="preserve">6.00224590301514</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02225255966187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08535289764404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02994871139526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95761299133301</t>
+    <t xml:space="preserve">6.02225303649902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0853533744812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02994823455811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95761346817017</t>
   </si>
   <si>
     <t xml:space="preserve">6.01455783843994</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04072093963623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01301908493042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98069858551025</t>
+    <t xml:space="preserve">6.04072141647339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01301860809326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98069906234741</t>
   </si>
   <si>
     <t xml:space="preserve">6.10843944549561</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01147985458374</t>
+    <t xml:space="preserve">6.01147937774658</t>
   </si>
   <si>
     <t xml:space="preserve">6.08227491378784</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16846227645874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23925733566284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21463298797607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06380701065063</t>
+    <t xml:space="preserve">6.16846084594727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23925685882568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21463346481323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06380748748779</t>
   </si>
   <si>
     <t xml:space="preserve">6.06688499450684</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0884313583374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03918218612671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12463569641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07521820068359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07367420196533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0891170501709</t>
+    <t xml:space="preserve">6.08843183517456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03918266296387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12463521957397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07521867752075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07367372512817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08911657333374</t>
   </si>
   <si>
     <t xml:space="preserve">6.25898790359497</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24354600906372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.228102684021</t>
+    <t xml:space="preserve">6.24354553222656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22810220718384</t>
   </si>
   <si>
     <t xml:space="preserve">6.24045658111572</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21729230880737</t>
+    <t xml:space="preserve">6.21729278564453</t>
   </si>
   <si>
     <t xml:space="preserve">6.26516580581665</t>
@@ -3098,10 +3098,10 @@
     <t xml:space="preserve">6.3856201171875</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4242262840271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30686187744141</t>
+    <t xml:space="preserve">6.42422580718994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30686140060425</t>
   </si>
   <si>
     <t xml:space="preserve">6.34546852111816</t>
@@ -3110,43 +3110,43 @@
     <t xml:space="preserve">6.3717212677002</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34237909317017</t>
+    <t xml:space="preserve">6.34237957000732</t>
   </si>
   <si>
     <t xml:space="preserve">6.44893598556519</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46283340454102</t>
+    <t xml:space="preserve">6.46283388137817</t>
   </si>
   <si>
     <t xml:space="preserve">6.34855699539185</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32384824752808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27906370162964</t>
+    <t xml:space="preserve">6.32384777069092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2790641784668</t>
   </si>
   <si>
     <t xml:space="preserve">6.35318946838379</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53232669830322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33311319351196</t>
+    <t xml:space="preserve">6.53232622146606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33311367034912</t>
   </si>
   <si>
     <t xml:space="preserve">6.47982120513916</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3346586227417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33774709701538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35936689376831</t>
+    <t xml:space="preserve">6.33465814590454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33774757385254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35936641693115</t>
   </si>
   <si>
     <t xml:space="preserve">6.35782241821289</t>
@@ -3155,13 +3155,13 @@
     <t xml:space="preserve">6.36091089248657</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32075977325439</t>
+    <t xml:space="preserve">6.32075929641724</t>
   </si>
   <si>
     <t xml:space="preserve">6.21265935897827</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30531692504883</t>
+    <t xml:space="preserve">6.30531740188599</t>
   </si>
   <si>
     <t xml:space="preserve">6.40723991394043</t>
@@ -3170,7 +3170,7 @@
     <t xml:space="preserve">6.3408350944519</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36245536804199</t>
+    <t xml:space="preserve">6.36245489120483</t>
   </si>
   <si>
     <t xml:space="preserve">6.26979827880859</t>
@@ -3179,13 +3179,13 @@
     <t xml:space="preserve">6.25744342803955</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99800395965576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04587650299072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24200010299683</t>
+    <t xml:space="preserve">5.99800443649292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04587602615356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24200057983398</t>
   </si>
   <si>
     <t xml:space="preserve">6.29141807556152</t>
@@ -3194,28 +3194,28 @@
     <t xml:space="preserve">6.34701251983643</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50453042984009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51070690155029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48754262924194</t>
+    <t xml:space="preserve">6.50452947616577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51070642471313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4875431060791</t>
   </si>
   <si>
     <t xml:space="preserve">6.48290967941284</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41187191009521</t>
+    <t xml:space="preserve">6.41187286376953</t>
   </si>
   <si>
     <t xml:space="preserve">6.4273157119751</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39334011077881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43812465667725</t>
+    <t xml:space="preserve">6.39334106445312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4381251335144</t>
   </si>
   <si>
     <t xml:space="preserve">6.49680852890015</t>
@@ -3227,88 +3227,88 @@
     <t xml:space="preserve">6.66204690933228</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67131233215332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7670578956604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74698209762573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79022169113159</t>
+    <t xml:space="preserve">6.67131185531616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76705837249756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74698257446289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79022216796875</t>
   </si>
   <si>
     <t xml:space="preserve">6.74852609634399</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79948711395264</t>
+    <t xml:space="preserve">6.79948806762695</t>
   </si>
   <si>
     <t xml:space="preserve">6.65278148651123</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62652826309204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69293212890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68212270736694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70991945266724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69602060317993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75316095352173</t>
+    <t xml:space="preserve">6.62652778625488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69293260574341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68212223052979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70991897583008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69602155685425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7531590461731</t>
   </si>
   <si>
     <t xml:space="preserve">6.76860237121582</t>
   </si>
   <si>
-    <t xml:space="preserve">6.78713321685791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78559017181396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81029844284058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81338739395142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77941274642944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75933647155762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75624847412109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72381782531738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88751173019409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93229722976685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88133430480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93847417831421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87515783309937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66667890548706</t>
+    <t xml:space="preserve">6.78713369369507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78558874130249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81029796600342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81338691711426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77941226959229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75933694839478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75624752044678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72381830215454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88751220703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93229675292969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88133478164673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93847322463989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87515878677368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66667985916138</t>
   </si>
   <si>
     <t xml:space="preserve">6.87824630737305</t>
@@ -3317,82 +3317,82 @@
     <t xml:space="preserve">7.09908008575439</t>
   </si>
   <si>
-    <t xml:space="preserve">7.04811763763428</t>
+    <t xml:space="preserve">7.04811859130859</t>
   </si>
   <si>
     <t xml:space="preserve">7.07591438293457</t>
   </si>
   <si>
-    <t xml:space="preserve">7.07282590866089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15776252746582</t>
+    <t xml:space="preserve">7.07282638549805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15776300430298</t>
   </si>
   <si>
     <t xml:space="preserve">7.21953439712524</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33535432815552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35234117507935</t>
+    <t xml:space="preserve">7.33535480499268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3523416519165</t>
   </si>
   <si>
     <t xml:space="preserve">7.4990496635437</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38940334320068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52530336380005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45735359191895</t>
+    <t xml:space="preserve">7.38940525054932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52530193328857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45735311508179</t>
   </si>
   <si>
     <t xml:space="preserve">7.51294708251953</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61178207397461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51758098602295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57626295089722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61487150192261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63771915435791</t>
+    <t xml:space="preserve">7.61178112030029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51758146286011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57626390457153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61487102508545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63771820068359</t>
   </si>
   <si>
     <t xml:space="preserve">7.49894237518311</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50563049316406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4119987487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39862251281738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34177446365356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45212507247925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39360570907593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34511852264404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27823829650879</t>
+    <t xml:space="preserve">7.5056300163269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41199922561646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39862298965454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34177350997925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45212602615356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39360618591309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34511804580688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27823781967163</t>
   </si>
   <si>
     <t xml:space="preserve">7.36350917816162</t>
@@ -3401,28 +3401,28 @@
     <t xml:space="preserve">7.26820611953735</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33174180984497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47553396224976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44878339767456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45547008514404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53739881515503</t>
+    <t xml:space="preserve">7.33174228668213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47553586959839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44878244400024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45546960830688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53739833831787</t>
   </si>
   <si>
     <t xml:space="preserve">7.58087015151978</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58923053741455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65778255462646</t>
+    <t xml:space="preserve">7.58923006057739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65778207778931</t>
   </si>
   <si>
     <t xml:space="preserve">7.64273595809937</t>
@@ -3434,37 +3434,37 @@
     <t xml:space="preserve">7.45379877090454</t>
   </si>
   <si>
-    <t xml:space="preserve">7.34344673156738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50483894348145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36576700210571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5803861618042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48251962661743</t>
+    <t xml:space="preserve">7.34344625473022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5048394203186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36576652526855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58038711547852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48251914978027</t>
   </si>
   <si>
     <t xml:space="preserve">7.14599561691284</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20265579223633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08074998855591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26446580886841</t>
+    <t xml:space="preserve">7.20265483856201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08075046539307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26446628570557</t>
   </si>
   <si>
     <t xml:space="preserve">7.20780563354492</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24557876586914</t>
+    <t xml:space="preserve">7.24557828903198</t>
   </si>
   <si>
     <t xml:space="preserve">7.3262767791748</t>
@@ -3473,31 +3473,31 @@
     <t xml:space="preserve">7.47736883163452</t>
   </si>
   <si>
-    <t xml:space="preserve">7.40697383880615</t>
+    <t xml:space="preserve">7.40697336196899</t>
   </si>
   <si>
     <t xml:space="preserve">7.340012550354</t>
   </si>
   <si>
-    <t xml:space="preserve">7.28850269317627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27820062637329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28335237503052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29880475997925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20952224731445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98631715774536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19235277175903</t>
+    <t xml:space="preserve">7.28850221633911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27820110321045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28335189819336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29880428314209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20952272415161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98631763458252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19235324859619</t>
   </si>
   <si>
     <t xml:space="preserve">7.2524471282959</t>
@@ -3506,88 +3506,88 @@
     <t xml:space="preserve">7.37091779708862</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44302940368652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43444442749023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45161533355713</t>
+    <t xml:space="preserve">7.44302892684937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43444395065308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45161390304565</t>
   </si>
   <si>
     <t xml:space="preserve">7.54433012008667</t>
   </si>
   <si>
-    <t xml:space="preserve">7.600989818573</t>
+    <t xml:space="preserve">7.60098934173584</t>
   </si>
   <si>
     <t xml:space="preserve">7.66623497009277</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45504856109619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59240579605103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66280031204224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80359125137329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94953393936157</t>
+    <t xml:space="preserve">7.45504808425903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59240531921387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66280078887939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80359268188477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9495325088501</t>
   </si>
   <si>
     <t xml:space="preserve">7.97872161865234</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82247972488403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78813791275024</t>
+    <t xml:space="preserve">7.8224778175354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78813886642456</t>
   </si>
   <si>
     <t xml:space="preserve">7.60442399978638</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59755754470825</t>
+    <t xml:space="preserve">7.59755659103394</t>
   </si>
   <si>
     <t xml:space="preserve">7.5014066696167</t>
   </si>
   <si>
-    <t xml:space="preserve">7.16831636428833</t>
+    <t xml:space="preserve">7.16831684112549</t>
   </si>
   <si>
     <t xml:space="preserve">7.17861795425415</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32799291610718</t>
+    <t xml:space="preserve">7.32799339294434</t>
   </si>
   <si>
     <t xml:space="preserve">7.29193735122681</t>
   </si>
   <si>
-    <t xml:space="preserve">7.23355960845947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35203075408936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46363353729248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56665134429932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49282121658325</t>
+    <t xml:space="preserve">7.23356056213379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35203123092651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46363258361816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56665182113647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49282169342041</t>
   </si>
   <si>
     <t xml:space="preserve">7.22497606277466</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32112550735474</t>
+    <t xml:space="preserve">7.32112455368042</t>
   </si>
   <si>
     <t xml:space="preserve">7.49453783035278</t>
@@ -3596,37 +3596,37 @@
     <t xml:space="preserve">7.60614061355591</t>
   </si>
   <si>
-    <t xml:space="preserve">7.34859704971313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09791946411133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29708766937256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24042797088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14256191253662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11852359771729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04297780990601</t>
+    <t xml:space="preserve">7.34859752655029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09791994094849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29708814620972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24042749404907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1425609588623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11852312088013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04297733306885</t>
   </si>
   <si>
     <t xml:space="preserve">6.97429895401001</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0309591293335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43345546722412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.586266040802</t>
+    <t xml:space="preserve">7.03095865249634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43345642089844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58626556396484</t>
   </si>
   <si>
     <t xml:space="preserve">6.32013607025146</t>
@@ -3635,19 +3635,19 @@
     <t xml:space="preserve">6.08491277694702</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11238431930542</t>
+    <t xml:space="preserve">6.11238384246826</t>
   </si>
   <si>
     <t xml:space="preserve">5.96987628936768</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58012580871582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51488161087036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67284202575684</t>
+    <t xml:space="preserve">5.58012533187866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5148811340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67284154891968</t>
   </si>
   <si>
     <t xml:space="preserve">6.29438209533691</t>
@@ -3659,16 +3659,16 @@
     <t xml:space="preserve">6.06259202957153</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16389226913452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29609966278076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62403917312622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5793981552124</t>
+    <t xml:space="preserve">6.163893699646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2960991859436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62403869628906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57939767837524</t>
   </si>
   <si>
     <t xml:space="preserve">6.56051111221313</t>
@@ -3680,7 +3680,7 @@
     <t xml:space="preserve">6.68069887161255</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61030292510986</t>
+    <t xml:space="preserve">6.61030244827271</t>
   </si>
   <si>
     <t xml:space="preserve">6.56909608840942</t>
@@ -3710,7 +3710,7 @@
     <t xml:space="preserve">6.63777446746826</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40770244598389</t>
+    <t xml:space="preserve">6.40770196914673</t>
   </si>
   <si>
     <t xml:space="preserve">6.39396572113037</t>
@@ -3725,28 +3725,28 @@
     <t xml:space="preserve">6.45577669143677</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50900268554688</t>
+    <t xml:space="preserve">6.50900220870972</t>
   </si>
   <si>
     <t xml:space="preserve">6.55879402160645</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28841876983643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39482402801514</t>
+    <t xml:space="preserve">6.28841829299927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39482355117798</t>
   </si>
   <si>
     <t xml:space="preserve">6.36691474914551</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26923036575317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13665914535522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03548574447632</t>
+    <t xml:space="preserve">6.26923084259033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13665866851807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03548669815063</t>
   </si>
   <si>
     <t xml:space="preserve">6.07735013961792</t>
@@ -3761,55 +3761,55 @@
     <t xml:space="preserve">6.03374195098877</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06514024734497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02676439285278</t>
+    <t xml:space="preserve">6.06513977050781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02676391601562</t>
   </si>
   <si>
     <t xml:space="preserve">6.09653854370117</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05990695953369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96745634078979</t>
+    <t xml:space="preserve">6.05990743637085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96745586395264</t>
   </si>
   <si>
     <t xml:space="preserve">6.0302529335022</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30237293243408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1418924331665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19073438644409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22562122344971</t>
+    <t xml:space="preserve">6.30237340927124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14189195632935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19073390960693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22562170028687</t>
   </si>
   <si>
     <t xml:space="preserve">6.25004243850708</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16980171203613</t>
+    <t xml:space="preserve">6.16980218887329</t>
   </si>
   <si>
     <t xml:space="preserve">6.20120048522949</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39307975769043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24132108688354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25527572631836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45413208007812</t>
+    <t xml:space="preserve">6.39307928085327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24132061004639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2552752494812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45413255691528</t>
   </si>
   <si>
     <t xml:space="preserve">6.44366598129272</t>
@@ -3821,7 +3821,7 @@
     <t xml:space="preserve">6.34074926376343</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23608732223511</t>
+    <t xml:space="preserve">6.23608779907227</t>
   </si>
   <si>
     <t xml:space="preserve">6.38435840606689</t>
@@ -3830,16 +3830,16 @@
     <t xml:space="preserve">6.2953953742981</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20643377304077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0215311050415</t>
+    <t xml:space="preserve">6.20643329620361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02153062820435</t>
   </si>
   <si>
     <t xml:space="preserve">5.61160659790039</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34995269775391</t>
+    <t xml:space="preserve">5.34995222091675</t>
   </si>
   <si>
     <t xml:space="preserve">5.56450891494751</t>
@@ -3848,10 +3848,10 @@
     <t xml:space="preserve">5.64823818206787</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43368196487427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47903537750244</t>
+    <t xml:space="preserve">5.43368148803711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4790358543396</t>
   </si>
   <si>
     <t xml:space="preserve">5.55055379867554</t>
@@ -3860,7 +3860,7 @@
     <t xml:space="preserve">5.5522985458374</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58718490600586</t>
+    <t xml:space="preserve">5.58718585968018</t>
   </si>
   <si>
     <t xml:space="preserve">5.74941110610962</t>
@@ -3884,13 +3884,13 @@
     <t xml:space="preserve">5.48077964782715</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20865917205811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30111026763916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45984792709351</t>
+    <t xml:space="preserve">5.20865964889526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30111074447632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45984697341919</t>
   </si>
   <si>
     <t xml:space="preserve">5.61335134506226</t>
@@ -3905,7 +3905,7 @@
     <t xml:space="preserve">5.46333599090576</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26971244812012</t>
+    <t xml:space="preserve">5.2697114944458</t>
   </si>
   <si>
     <t xml:space="preserve">5.32727575302124</t>
@@ -3929,31 +3929,31 @@
     <t xml:space="preserve">5.38309526443481</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41449403762817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62556123733521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65172719955444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.594162940979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91686964035034</t>
+    <t xml:space="preserve">5.41449451446533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62556171417236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65172672271729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59416246414185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91686916351318</t>
   </si>
   <si>
     <t xml:space="preserve">6.06688451766968</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97268915176392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95350122451782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92384719848633</t>
+    <t xml:space="preserve">5.97268867492676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95350170135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92384672164917</t>
   </si>
   <si>
     <t xml:space="preserve">5.9692006111145</t>
@@ -3968,7 +3968,7 @@
     <t xml:space="preserve">5.97617769241333</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8593053817749</t>
+    <t xml:space="preserve">5.85930585861206</t>
   </si>
   <si>
     <t xml:space="preserve">5.90291500091553</t>
@@ -3986,7 +3986,7 @@
     <t xml:space="preserve">5.67091464996338</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59939575195312</t>
+    <t xml:space="preserve">5.59939622879028</t>
   </si>
   <si>
     <t xml:space="preserve">5.46682500839233</t>
@@ -3995,28 +3995,28 @@
     <t xml:space="preserve">5.57846355438232</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5627646446228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43193769454956</t>
+    <t xml:space="preserve">5.56276416778564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4319372177124</t>
   </si>
   <si>
     <t xml:space="preserve">5.69010257720947</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51043319702148</t>
+    <t xml:space="preserve">5.51043367385864</t>
   </si>
   <si>
     <t xml:space="preserve">5.54880952835083</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62032794952393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63777208328247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76685428619385</t>
+    <t xml:space="preserve">5.62032842636108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63777160644531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76685476303101</t>
   </si>
   <si>
     <t xml:space="preserve">6.00757646560669</t>
@@ -4034,10 +4034,10 @@
     <t xml:space="preserve">5.70056867599487</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78080987930298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51915550231934</t>
+    <t xml:space="preserve">5.78080940246582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51915597915649</t>
   </si>
   <si>
     <t xml:space="preserve">5.58544111251831</t>
@@ -4046,7 +4046,7 @@
     <t xml:space="preserve">5.62730598449707</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41798210144043</t>
+    <t xml:space="preserve">5.41798257827759</t>
   </si>
   <si>
     <t xml:space="preserve">5.59590721130371</t>
@@ -4055,13 +4055,13 @@
     <t xml:space="preserve">5.51566648483276</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56974220275879</t>
+    <t xml:space="preserve">5.56974172592163</t>
   </si>
   <si>
     <t xml:space="preserve">5.40926122665405</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64300489425659</t>
+    <t xml:space="preserve">5.64300441741943</t>
   </si>
   <si>
     <t xml:space="preserve">5.92035865783691</t>
@@ -4076,13 +4076,13 @@
     <t xml:space="preserve">5.77383184432983</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78778743743896</t>
+    <t xml:space="preserve">5.78778696060181</t>
   </si>
   <si>
     <t xml:space="preserve">5.73371171951294</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58020830154419</t>
+    <t xml:space="preserve">5.58020782470703</t>
   </si>
   <si>
     <t xml:space="preserve">5.75813293457031</t>
@@ -4103,10 +4103,10 @@
     <t xml:space="preserve">6.12270402908325</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15061378479004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22387742996216</t>
+    <t xml:space="preserve">6.15061330795288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.223876953125</t>
   </si>
   <si>
     <t xml:space="preserve">6.40180206298828</t>
@@ -4124,37 +4124,37 @@
     <t xml:space="preserve">6.61112451553345</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53437376022339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57798194885254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60065793991089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7402081489563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80126047134399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77683877944946</t>
+    <t xml:space="preserve">6.53437328338623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57798147201538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60065889358521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74020767211914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80125999450684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77683925628662</t>
   </si>
   <si>
     <t xml:space="preserve">6.78904962539673</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98092889785767</t>
+    <t xml:space="preserve">6.98092937469482</t>
   </si>
   <si>
     <t xml:space="preserve">6.89720010757446</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00535011291504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04547119140625</t>
+    <t xml:space="preserve">7.00534963607788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04547071456909</t>
   </si>
   <si>
     <t xml:space="preserve">7.01058340072632</t>
@@ -4163,16 +4163,16 @@
     <t xml:space="preserve">7.00186157226562</t>
   </si>
   <si>
-    <t xml:space="preserve">7.05419254302979</t>
+    <t xml:space="preserve">7.05419206619263</t>
   </si>
   <si>
     <t xml:space="preserve">7.05958557128906</t>
   </si>
   <si>
-    <t xml:space="preserve">7.08475303649902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11531400680542</t>
+    <t xml:space="preserve">7.08475351333618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11531448364258</t>
   </si>
   <si>
     <t xml:space="preserve">7.02542877197266</t>
@@ -4181,13 +4181,13 @@
     <t xml:space="preserve">7.04160833358765</t>
   </si>
   <si>
-    <t xml:space="preserve">7.08115768432617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07576513290405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24295043945312</t>
+    <t xml:space="preserve">7.08115720748901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07576465606689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24295091629028</t>
   </si>
   <si>
     <t xml:space="preserve">7.08295583724976</t>
@@ -4205,16 +4205,16 @@
     <t xml:space="preserve">7.0218334197998</t>
   </si>
   <si>
-    <t xml:space="preserve">7.07756233215332</t>
+    <t xml:space="preserve">7.07756280899048</t>
   </si>
   <si>
     <t xml:space="preserve">7.0146427154541</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09913492202759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10273027420044</t>
+    <t xml:space="preserve">7.09913444519043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1027307510376</t>
   </si>
   <si>
     <t xml:space="preserve">6.98408174514771</t>
@@ -4256,7 +4256,7 @@
     <t xml:space="preserve">7.46047353744507</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59350347518921</t>
+    <t xml:space="preserve">7.59350395202637</t>
   </si>
   <si>
     <t xml:space="preserve">7.63485145568848</t>
@@ -4268,7 +4268,7 @@
     <t xml:space="preserve">7.7193431854248</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70675992965698</t>
+    <t xml:space="preserve">7.70675897598267</t>
   </si>
   <si>
     <t xml:space="preserve">7.56114482879639</t>
@@ -4280,19 +4280,19 @@
     <t xml:space="preserve">7.67260265350342</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73731994628906</t>
+    <t xml:space="preserve">7.7373194694519</t>
   </si>
   <si>
     <t xml:space="preserve">7.79844188690186</t>
   </si>
   <si>
-    <t xml:space="preserve">7.81641960144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88113594055176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87933826446533</t>
+    <t xml:space="preserve">7.81641912460327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88113641738892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87933874130249</t>
   </si>
   <si>
     <t xml:space="preserve">7.96023559570312</t>
@@ -4310,55 +4310,55 @@
     <t xml:space="preserve">8.13101673126221</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17775821685791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17955493927002</t>
+    <t xml:space="preserve">8.17775726318359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17955589294434</t>
   </si>
   <si>
     <t xml:space="preserve">8.10584926605225</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22989177703857</t>
+    <t xml:space="preserve">8.22989082336426</t>
   </si>
   <si>
     <t xml:space="preserve">8.26404762268066</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28561973571777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32337093353271</t>
+    <t xml:space="preserve">8.28562068939209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32337188720703</t>
   </si>
   <si>
     <t xml:space="preserve">8.3431453704834</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16157722473145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09326457977295</t>
+    <t xml:space="preserve">8.16157817840576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09326553344727</t>
   </si>
   <si>
     <t xml:space="preserve">8.12742137908936</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19753170013428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24786758422852</t>
+    <t xml:space="preserve">8.19753265380859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24786853790283</t>
   </si>
   <si>
     <t xml:space="preserve">8.2388801574707</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24427318572998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31438255310059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37011241912842</t>
+    <t xml:space="preserve">8.24427223205566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3143835067749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3701114654541</t>
   </si>
   <si>
     <t xml:space="preserve">8.37909984588623</t>
@@ -4367,19 +4367,19 @@
     <t xml:space="preserve">8.43482971191406</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08427715301514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45687818527222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62945747375488</t>
+    <t xml:space="preserve">8.08427810668945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45687770843506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62945795059204</t>
   </si>
   <si>
     <t xml:space="preserve">7.23216438293457</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30227470397949</t>
+    <t xml:space="preserve">7.30227518081665</t>
   </si>
   <si>
     <t xml:space="preserve">7.06138324737549</t>
@@ -4388,7 +4388,7 @@
     <t xml:space="preserve">7.33283662796021</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59170579910278</t>
+    <t xml:space="preserve">7.59170532226562</t>
   </si>
   <si>
     <t xml:space="preserve">7.44968748092651</t>
@@ -4406,37 +4406,37 @@
     <t xml:space="preserve">7.41193580627441</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51979732513428</t>
+    <t xml:space="preserve">7.51979827880859</t>
   </si>
   <si>
     <t xml:space="preserve">7.51260662078857</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60608720779419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55754899978638</t>
+    <t xml:space="preserve">7.60608816146851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55754947662354</t>
   </si>
   <si>
     <t xml:space="preserve">7.47485542297363</t>
   </si>
   <si>
-    <t xml:space="preserve">7.64923286437988</t>
+    <t xml:space="preserve">7.64923238754272</t>
   </si>
   <si>
     <t xml:space="preserve">7.66720914840698</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67799615859985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76428508758545</t>
+    <t xml:space="preserve">7.67799520492554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76428556442261</t>
   </si>
   <si>
     <t xml:space="preserve">7.76788091659546</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78945350646973</t>
+    <t xml:space="preserve">7.78945398330688</t>
   </si>
   <si>
     <t xml:space="preserve">7.68518686294556</t>
@@ -4445,7 +4445,7 @@
     <t xml:space="preserve">7.74630832672119</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76855182647705</t>
+    <t xml:space="preserve">7.76855230331421</t>
   </si>
   <si>
     <t xml:space="preserve">7.65548133850098</t>
@@ -4466,19 +4466,19 @@
     <t xml:space="preserve">7.43304634094238</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29031658172607</t>
+    <t xml:space="preserve">7.29031610488892</t>
   </si>
   <si>
     <t xml:space="preserve">7.5090446472168</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51089763641357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50533676147461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34221792221069</t>
+    <t xml:space="preserve">7.51089811325073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50533628463745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34221744537354</t>
   </si>
   <si>
     <t xml:space="preserve">7.22173166275024</t>
@@ -4490,16 +4490,16 @@
     <t xml:space="preserve">7.27734136581421</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27919435501099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37372922897339</t>
+    <t xml:space="preserve">7.27919483184814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37372970581055</t>
   </si>
   <si>
     <t xml:space="preserve">7.35890054702759</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54240942001343</t>
+    <t xml:space="preserve">7.54240894317627</t>
   </si>
   <si>
     <t xml:space="preserve">7.57762813568115</t>
@@ -4514,7 +4514,7 @@
     <t xml:space="preserve">7.44787502288818</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4423131942749</t>
+    <t xml:space="preserve">7.44231367111206</t>
   </si>
   <si>
     <t xml:space="preserve">7.36446142196655</t>
@@ -4529,13 +4529,13 @@
     <t xml:space="preserve">7.62396907806396</t>
   </si>
   <si>
-    <t xml:space="preserve">7.55723905563354</t>
+    <t xml:space="preserve">7.55723857879639</t>
   </si>
   <si>
     <t xml:space="preserve">7.57392120361328</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59801816940308</t>
+    <t xml:space="preserve">7.59801864624023</t>
   </si>
   <si>
     <t xml:space="preserve">7.58504295349121</t>
@@ -4544,31 +4544,31 @@
     <t xml:space="preserve">7.58689641952515</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61655521392822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65918827056885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69626092910767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72777271270752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75001668930054</t>
+    <t xml:space="preserve">7.61655473709106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65918779373169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69626045227051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72777223587036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75001621246338</t>
   </si>
   <si>
     <t xml:space="preserve">7.76113700866699</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71108961105347</t>
+    <t xml:space="preserve">7.71108913421631</t>
   </si>
   <si>
     <t xml:space="preserve">7.72962617874146</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63694477081299</t>
+    <t xml:space="preserve">7.63694429397583</t>
   </si>
   <si>
     <t xml:space="preserve">7.57206773757935</t>
@@ -4589,16 +4589,16 @@
     <t xml:space="preserve">7.6907000541687</t>
   </si>
   <si>
-    <t xml:space="preserve">7.55167722702026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48865461349487</t>
+    <t xml:space="preserve">7.55167770385742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48865413665771</t>
   </si>
   <si>
     <t xml:space="preserve">7.29402351379395</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41821622848511</t>
+    <t xml:space="preserve">7.41821670532227</t>
   </si>
   <si>
     <t xml:space="preserve">7.47011852264404</t>
@@ -4610,19 +4610,19 @@
     <t xml:space="preserve">7.65733480453491</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73333358764648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73147916793823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75372314453125</t>
+    <t xml:space="preserve">7.73333311080933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73147964477539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75372362136841</t>
   </si>
   <si>
     <t xml:space="preserve">7.92240333557129</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96318340301514</t>
+    <t xml:space="preserve">7.96318292617798</t>
   </si>
   <si>
     <t xml:space="preserve">7.9705982208252</t>
@@ -4652,19 +4652,19 @@
     <t xml:space="preserve">7.88533163070679</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82786846160889</t>
+    <t xml:space="preserve">7.82786798477173</t>
   </si>
   <si>
     <t xml:space="preserve">7.81303930282593</t>
   </si>
   <si>
-    <t xml:space="preserve">7.81674671173096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80006408691406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33480358123779</t>
+    <t xml:space="preserve">7.8167462348938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80006456375122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33480310440063</t>
   </si>
   <si>
     <t xml:space="preserve">7.53128814697266</t>
@@ -4673,7 +4673,7 @@
     <t xml:space="preserve">7.6258225440979</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73889446258545</t>
+    <t xml:space="preserve">7.73889493942261</t>
   </si>
   <si>
     <t xml:space="preserve">7.56094598770142</t>
@@ -4688,10 +4688,10 @@
     <t xml:space="preserve">7.56279945373535</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54426336288452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53684854507446</t>
+    <t xml:space="preserve">7.54426383972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53684902191162</t>
   </si>
   <si>
     <t xml:space="preserve">7.61470079421997</t>
@@ -4715,7 +4715,7 @@
     <t xml:space="preserve">7.78523397445679</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7945032119751</t>
+    <t xml:space="preserve">7.79450225830078</t>
   </si>
   <si>
     <t xml:space="preserve">7.77411270141602</t>
@@ -4724,10 +4724,10 @@
     <t xml:space="preserve">7.83528327941895</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67957782745361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71665048599243</t>
+    <t xml:space="preserve">7.67957830429077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71665096282959</t>
   </si>
   <si>
     <t xml:space="preserve">7.8074779510498</t>
@@ -4751,10 +4751,10 @@
     <t xml:space="preserve">7.37743663787842</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47382593154907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3403639793396</t>
+    <t xml:space="preserve">7.47382545471191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34036445617676</t>
   </si>
   <si>
     <t xml:space="preserve">7.44046020507812</t>
@@ -4763,7 +4763,7 @@
     <t xml:space="preserve">7.46455717086792</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33665657043457</t>
+    <t xml:space="preserve">7.33665704727173</t>
   </si>
   <si>
     <t xml:space="preserve">7.36075401306152</t>
@@ -4790,7 +4790,7 @@
     <t xml:space="preserve">7.0382227897644</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0474910736084</t>
+    <t xml:space="preserve">7.04749155044556</t>
   </si>
   <si>
     <t xml:space="preserve">7.04193019866943</t>
@@ -4802,7 +4802,7 @@
     <t xml:space="preserve">7.1420259475708</t>
   </si>
   <si>
-    <t xml:space="preserve">7.17724466323853</t>
+    <t xml:space="preserve">7.17724514007568</t>
   </si>
   <si>
     <t xml:space="preserve">7.31997394561768</t>
@@ -4811,7 +4811,7 @@
     <t xml:space="preserve">7.46641063690186</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37929058074951</t>
+    <t xml:space="preserve">7.37929010391235</t>
   </si>
   <si>
     <t xml:space="preserve">7.40524101257324</t>
@@ -4820,25 +4820,25 @@
     <t xml:space="preserve">7.42377758026123</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59987211227417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58133602142334</t>
+    <t xml:space="preserve">7.59987163543701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5813364982605</t>
   </si>
   <si>
     <t xml:space="preserve">7.77225923538208</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91498804092407</t>
+    <t xml:space="preserve">7.91498899459839</t>
   </si>
   <si>
     <t xml:space="preserve">7.89645290374756</t>
   </si>
   <si>
-    <t xml:space="preserve">7.77782011032104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80191802978516</t>
+    <t xml:space="preserve">7.7778205871582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.801917552948</t>
   </si>
   <si>
     <t xml:space="preserve">7.91312694549561</t>
@@ -62286,7 +62286,7 @@
     </row>
     <row r="2181">
       <c r="A2181" s="1" t="n">
-        <v>45498.6494560185</v>
+        <v>45498.2916666667</v>
       </c>
       <c r="B2181" t="n">
         <v>1020436</v>
@@ -62307,6 +62307,32 @@
         <v>1731</v>
       </c>
       <c r="H2181" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2182">
+      <c r="A2182" s="1" t="n">
+        <v>45499.6506828704</v>
+      </c>
+      <c r="B2182" t="n">
+        <v>654205</v>
+      </c>
+      <c r="C2182" t="n">
+        <v>10.9099998474121</v>
+      </c>
+      <c r="D2182" t="n">
+        <v>10.7600002288818</v>
+      </c>
+      <c r="E2182" t="n">
+        <v>10.7600002288818</v>
+      </c>
+      <c r="F2182" t="n">
+        <v>10.8900003433228</v>
+      </c>
+      <c r="G2182" t="s">
+        <v>1750</v>
+      </c>
+      <c r="H2182" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BMED.MI.xlsx
+++ b/data/BMED.MI.xlsx
@@ -38,76 +38,76 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32330369949341</t>
+    <t xml:space="preserve">4.32330417633057</t>
   </si>
   <si>
     <t xml:space="preserve">BMED.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26425123214722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99385118484497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9006085395813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89439225196838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92236518859863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03425455093384</t>
+    <t xml:space="preserve">4.26425075531006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99385023117065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90060949325562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89439249038696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92236542701721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03425550460815</t>
   </si>
   <si>
     <t xml:space="preserve">4.04047107696533</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75453042984009</t>
+    <t xml:space="preserve">3.75452995300293</t>
   </si>
   <si>
     <t xml:space="preserve">3.72344946861267</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76074624061584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54318284988403</t>
+    <t xml:space="preserve">3.760746717453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5431821346283</t>
   </si>
   <si>
     <t xml:space="preserve">3.66750454902649</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90682482719421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91614842414856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91925692558289</t>
+    <t xml:space="preserve">3.90682411193848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91614937782288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91925740242004</t>
   </si>
   <si>
     <t xml:space="preserve">3.82912302017212</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84155583381653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6861526966095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58669519424438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64264059066772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77628636360168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.46237325668335</t>
+    <t xml:space="preserve">3.84155607223511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68615341186523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58669471740723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6426408290863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77628684043884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.46237373352051</t>
   </si>
   <si>
     <t xml:space="preserve">3.30386233329773</t>
@@ -116,37 +116,37 @@
     <t xml:space="preserve">3.60534381866455</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71723413467407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78561043739319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88817596435547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84466409683228</t>
+    <t xml:space="preserve">3.7172327041626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78561091423035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88817691802979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84466314315796</t>
   </si>
   <si>
     <t xml:space="preserve">3.84777188301086</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95966148376465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92547369003296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83844804763794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9876344203949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07465934753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07155132293701</t>
+    <t xml:space="preserve">3.95966243743896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92547273635864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8384473323822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98763465881348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0746603012085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07155179977417</t>
   </si>
   <si>
     <t xml:space="preserve">4.21763038635254</t>
@@ -155,28 +155,28 @@
     <t xml:space="preserve">4.23938703536987</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13371229171753</t>
+    <t xml:space="preserve">4.13371276855469</t>
   </si>
   <si>
     <t xml:space="preserve">4.2114143371582</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20830583572388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27357578277588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34816884994507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33262777328491</t>
+    <t xml:space="preserve">4.20830631256104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27357482910156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34816789627075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33262825012207</t>
   </si>
   <si>
     <t xml:space="preserve">4.30154800415039</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23006248474121</t>
+    <t xml:space="preserve">4.23006153106689</t>
   </si>
   <si>
     <t xml:space="preserve">4.28600788116455</t>
@@ -185,166 +185,166 @@
     <t xml:space="preserve">4.25181865692139</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22073841094971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1741189956665</t>
+    <t xml:space="preserve">4.22073793411255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17411804199219</t>
   </si>
   <si>
     <t xml:space="preserve">4.35749292373657</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39168214797974</t>
+    <t xml:space="preserve">4.39168071746826</t>
   </si>
   <si>
     <t xml:space="preserve">4.41654586791992</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24249505996704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15236139297485</t>
+    <t xml:space="preserve">4.24249410629272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15236043930054</t>
   </si>
   <si>
     <t xml:space="preserve">4.04668760299683</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27979230880737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31398057937622</t>
+    <t xml:space="preserve">4.2797908782959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31398010253906</t>
   </si>
   <si>
     <t xml:space="preserve">4.27046728134155</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43208599090576</t>
+    <t xml:space="preserve">4.43208646774292</t>
   </si>
   <si>
     <t xml:space="preserve">4.47559881210327</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40100622177124</t>
+    <t xml:space="preserve">4.40100574493408</t>
   </si>
   <si>
     <t xml:space="preserve">4.50564050674438</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43905401229858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51198244094849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54051876068115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53100633621216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43271350860596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4834451675415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44222593307495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57222700119019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55637264251709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61661624908447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48978614807129</t>
+    <t xml:space="preserve">4.4390549659729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51198148727417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54051923751831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53100728988647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4327130317688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48344469070435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44222497940063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57222604751587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55637311935425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61661672592163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48978710174561</t>
   </si>
   <si>
     <t xml:space="preserve">4.6578369140625</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56588506698608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53417730331421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63881206512451</t>
+    <t xml:space="preserve">4.56588459014893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53417682647705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63881301879883</t>
   </si>
   <si>
     <t xml:space="preserve">4.4866156578064</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49612808227539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48027467727661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51515293121338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47710371017456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50247001647949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66100692749023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90198421478271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83856964111328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75612926483154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78466653823853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81637477874756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77832508087158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72442197799683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74661874771118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60710334777832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62930011749268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68003177642822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64198398590088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22027254104614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03319787979126</t>
+    <t xml:space="preserve">4.49612855911255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48027420043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51515197753906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4771032333374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50246953964233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66100740432739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90198516845703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83857011795044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75613021850586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78466701507568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81637382507324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77832460403442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72442150115967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74661827087402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60710430145264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62930059432983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68003225326538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6419825553894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22027349472046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0331974029541</t>
   </si>
   <si>
     <t xml:space="preserve">4.05856418609619</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98563694953918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11563730239868</t>
+    <t xml:space="preserve">3.98563671112061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.115638256073</t>
   </si>
   <si>
     <t xml:space="preserve">4.3249077796936</t>
@@ -353,166 +353,166 @@
     <t xml:space="preserve">4.36929798126221</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34710311889648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50881147384644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83027005195618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58612275123596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73514747619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69709849357605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89051461219788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90002679824829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75734329223633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70661020278931</t>
+    <t xml:space="preserve">4.34710264205933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50881195068359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83027029037476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58612298965454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73514699935913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69709777832031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8905143737793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90002584457397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75734281539917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70661044120789</t>
   </si>
   <si>
     <t xml:space="preserve">3.64636659622192</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67173218727112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87466073036194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97295427322388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10929679870605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99514889717102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02051544189453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04271078109741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06490612030029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04588174819946</t>
+    <t xml:space="preserve">3.67173266410828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87466096878052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97295451164246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1092963218689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99514961242676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02051591873169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04271030426025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06490516662598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04588222503662</t>
   </si>
   <si>
     <t xml:space="preserve">4.01417398452759</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15368747711182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09027290344238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16002798080444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87783074378967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82075834274292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90636706352234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05222177505493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07758903503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96344137191772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89685583114624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94441747665405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85246539115906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97612380981445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01734447479248</t>
+    <t xml:space="preserve">4.1536865234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09027099609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1600284576416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87783098220825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8207573890686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9063675403595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05222272872925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07758855819702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9634416103363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89685606956482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94441723823547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85246515274048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97612476348877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01734495162964</t>
   </si>
   <si>
     <t xml:space="preserve">3.94124627113342</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96978354454041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01100301742554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07441854476929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0934419631958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05539321899414</t>
+    <t xml:space="preserve">3.96978306770325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0110034942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07441806793213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09344291687012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0553936958313</t>
   </si>
   <si>
     <t xml:space="preserve">4.08076000213623</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17271089553833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11246728897095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98880767822266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02368497848511</t>
+    <t xml:space="preserve">4.17271137237549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11246776580811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98880743980408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02368545532227</t>
   </si>
   <si>
     <t xml:space="preserve">4.00783252716064</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78587937355042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85880613327026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77953791618347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83978176116943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87148904800415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76685452461243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65270805358887</t>
+    <t xml:space="preserve">3.78587889671326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85880708694458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77953696250916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83978128433228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87149000167847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7668559551239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65270757675171</t>
   </si>
   <si>
     <t xml:space="preserve">3.69075727462769</t>
@@ -521,34 +521,34 @@
     <t xml:space="preserve">3.76051306724548</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7319769859314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74148869514465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92222237586975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8810031414032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95710062980652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89368414878845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95392966270447</t>
+    <t xml:space="preserve">3.73197674751282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74148941040039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92222142219543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8810019493103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95709943771362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89368510246277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95392918586731</t>
   </si>
   <si>
     <t xml:space="preserve">3.79539132118225</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86831855773926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91905093193054</t>
+    <t xml:space="preserve">3.86831903457642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91905212402344</t>
   </si>
   <si>
     <t xml:space="preserve">3.92539238929749</t>
@@ -557,46 +557,46 @@
     <t xml:space="preserve">4.0014910697937</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07124757766724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84295272827148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81441593170166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95075821876526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04905271530151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90953898429871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86514854431152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77002596855164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75047469139099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85148668289185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87429594993591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85800457000732</t>
+    <t xml:space="preserve">4.07124710083008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8429536819458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81441569328308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95075869560242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04905223846436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90953922271729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86514806747437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77002692222595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75047564506531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85148692131042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87429642677307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85800409317017</t>
   </si>
   <si>
     <t xml:space="preserve">3.90036273002625</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94924020767212</t>
+    <t xml:space="preserve">3.9492404460907</t>
   </si>
   <si>
     <t xml:space="preserve">3.98182487487793</t>
@@ -611,19 +611,19 @@
     <t xml:space="preserve">4.26530981063843</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34025382995605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67587471008301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51295232772827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44778251647949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51621103286743</t>
+    <t xml:space="preserve">4.34025478363037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67587423324585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51295328140259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44778299331665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51621055603027</t>
   </si>
   <si>
     <t xml:space="preserve">4.49991846084595</t>
@@ -632,22 +632,22 @@
     <t xml:space="preserve">4.49014282226562</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40542268753052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48362588882446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46081590652466</t>
+    <t xml:space="preserve">4.40542364120483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48362636566162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46081638336182</t>
   </si>
   <si>
     <t xml:space="preserve">4.49665975570679</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50317668914795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4803671836853</t>
+    <t xml:space="preserve">4.50317621231079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48036766052246</t>
   </si>
   <si>
     <t xml:space="preserve">4.45104122161865</t>
@@ -656,7 +656,7 @@
     <t xml:space="preserve">4.50643491744995</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52924346923828</t>
+    <t xml:space="preserve">4.52924394607544</t>
   </si>
   <si>
     <t xml:space="preserve">4.69216680526733</t>
@@ -665,55 +665,55 @@
     <t xml:space="preserve">4.71171712875366</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61722183227539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65958261489868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84857177734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74104356765747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91374158859253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81598711013794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80295324325562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87463903427124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8127293586731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80621242523193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68239116668701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83879613876343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77688646316528</t>
+    <t xml:space="preserve">4.61722230911255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65958118438721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84857273101807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74104404449463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91374111175537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8159875869751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80295419692993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8746395111084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81272983551025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80621290206909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68239164352417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83879709243774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77688598632812</t>
   </si>
   <si>
     <t xml:space="preserve">4.76385259628296</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77037048339844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60744714736938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61396408081055</t>
+    <t xml:space="preserve">4.77036952972412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60744667053223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61396360397339</t>
   </si>
   <si>
     <t xml:space="preserve">4.66609907150269</t>
@@ -722,31 +722,31 @@
     <t xml:space="preserve">4.64980697631836</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53576135635376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56182813644409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54879570007324</t>
+    <t xml:space="preserve">4.53576040267944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56182909011841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54879474639893</t>
   </si>
   <si>
     <t xml:space="preserve">4.63677358627319</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6986837387085</t>
+    <t xml:space="preserve">4.69868421554565</t>
   </si>
   <si>
     <t xml:space="preserve">4.64003133773804</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62373924255371</t>
+    <t xml:space="preserve">4.62373971939087</t>
   </si>
   <si>
     <t xml:space="preserve">4.60093069076538</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29137706756592</t>
+    <t xml:space="preserve">4.29137802124023</t>
   </si>
   <si>
     <t xml:space="preserve">4.15452241897583</t>
@@ -758,31 +758,31 @@
     <t xml:space="preserve">4.0209264755249</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04047727584839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01766777038574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15126371383667</t>
+    <t xml:space="preserve">4.04047679901123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01766729354858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15126419067383</t>
   </si>
   <si>
     <t xml:space="preserve">4.20665740966797</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16104030609131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17081499099731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21643209457397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2490177154541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26205158233643</t>
+    <t xml:space="preserve">4.16103982925415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17081546783447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21643304824829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24901723861694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26205110549927</t>
   </si>
   <si>
     <t xml:space="preserve">4.35980558395386</t>
@@ -791,40 +791,40 @@
     <t xml:space="preserve">4.32722043991089</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35328817367554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39564800262451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30441093444824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32070350646973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34351205825806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37935543060303</t>
+    <t xml:space="preserve">4.35328769683838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39564847946167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30441188812256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32070255279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34351253509521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37935590744019</t>
   </si>
   <si>
     <t xml:space="preserve">4.39890670776367</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46407556533813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47385120391846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50969362258911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54227781295776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48688554763794</t>
+    <t xml:space="preserve">4.46407508850098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47384977340698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50969457626343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54227733612061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48688459396362</t>
   </si>
   <si>
     <t xml:space="preserve">4.44452476501465</t>
@@ -833,46 +833,46 @@
     <t xml:space="preserve">4.40216445922852</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36632108688354</t>
+    <t xml:space="preserve">4.3663215637207</t>
   </si>
   <si>
     <t xml:space="preserve">4.42497396469116</t>
   </si>
   <si>
-    <t xml:space="preserve">4.58973169326782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59634351730347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66578531265259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6029577255249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64594554901123</t>
+    <t xml:space="preserve">4.58973073959351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59634399414062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66578483581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60295724868774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64594507217407</t>
   </si>
   <si>
     <t xml:space="preserve">4.61949110031128</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59303712844849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65917158126831</t>
+    <t xml:space="preserve">4.5930380821228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65917253494263</t>
   </si>
   <si>
     <t xml:space="preserve">4.73853349685669</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74183940887451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70877265930176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86088228225708</t>
+    <t xml:space="preserve">4.74183988571167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70877313613892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86088180541992</t>
   </si>
   <si>
     <t xml:space="preserve">4.8674955368042</t>
@@ -881,31 +881,31 @@
     <t xml:space="preserve">4.8807225227356</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87741565704346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92040300369263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79805469512939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81128168106079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89064264297485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99315166473389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05597829818726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99976444244385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00637817382812</t>
+    <t xml:space="preserve">4.8774151802063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92040348052979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79805421829224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81128025054932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8906421661377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99315118789673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05597877502441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99976491928101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00637674331665</t>
   </si>
   <si>
     <t xml:space="preserve">4.98323059082031</t>
@@ -914,25 +914,25 @@
     <t xml:space="preserve">4.88733530044556</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84765529632568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93693685531616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81789493560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94355010986328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9600830078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90717649459839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82120180130005</t>
+    <t xml:space="preserve">4.84765577316284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93693733215332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81789398193359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94354915618896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96008348464966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90717697143555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82120084762573</t>
   </si>
   <si>
     <t xml:space="preserve">4.79474782943726</t>
@@ -941,52 +941,52 @@
     <t xml:space="preserve">4.83112144470215</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91378974914551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80466747283936</t>
+    <t xml:space="preserve">4.91378879547119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80466794967651</t>
   </si>
   <si>
     <t xml:space="preserve">4.85096120834351</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75837326049805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83773565292358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89394903182983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84104251861572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85426807403564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90056276321411</t>
+    <t xml:space="preserve">4.75837230682373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83773422241211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89394950866699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84104204177856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85426950454712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90056228637695</t>
   </si>
   <si>
     <t xml:space="preserve">5.02621793746948</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89725637435913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93032312393188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91048240661621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82781505584717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77821445465088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71538591384888</t>
+    <t xml:space="preserve">4.89725589752197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93032264709473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91048336029053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82781553268433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77821397781372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71538639068604</t>
   </si>
   <si>
     <t xml:space="preserve">4.85757493972778</t>
@@ -1001,55 +1001,55 @@
     <t xml:space="preserve">4.79144048690796</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75506734848022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73522663116455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.721999168396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65586471557617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69554615020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74514722824097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67570543289185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72530603408813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77490711212158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80136108398438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87080192565918</t>
+    <t xml:space="preserve">4.75506687164307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73522615432739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72200012207031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65586519241333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69554662704468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74514579772949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.675705909729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72530698776245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77490663528442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80136251449585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87080144882202</t>
   </si>
   <si>
     <t xml:space="preserve">4.9633903503418</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9468560218811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77159976959229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6856255531311</t>
+    <t xml:space="preserve">4.94685697555542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77160024642944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68562602996826</t>
   </si>
   <si>
     <t xml:space="preserve">4.66909217834473</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66247892379761</t>
+    <t xml:space="preserve">4.66247844696045</t>
   </si>
   <si>
     <t xml:space="preserve">4.75176048278809</t>
@@ -1058,34 +1058,34 @@
     <t xml:space="preserve">4.71869325637817</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78813314437866</t>
+    <t xml:space="preserve">4.78813409805298</t>
   </si>
   <si>
     <t xml:space="preserve">4.74174451828003</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6260929107666</t>
+    <t xml:space="preserve">4.62609338760376</t>
   </si>
   <si>
     <t xml:space="preserve">4.62949466705322</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6635103225708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66010808944702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7553505897522</t>
+    <t xml:space="preserve">4.66350936889648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66010856628418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75535106658936</t>
   </si>
   <si>
     <t xml:space="preserve">4.76555633544922</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77916145324707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88460969924927</t>
+    <t xml:space="preserve">4.77916240692139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88461017608643</t>
   </si>
   <si>
     <t xml:space="preserve">4.88801193237305</t>
@@ -1094,103 +1094,103 @@
     <t xml:space="preserve">4.86079978942871</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86760234832764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84379100799561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90161752700806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85059499740601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91862535476685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97305059432983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03427743911743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08530139923096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96624660491943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02067041397095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04788398742676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9764518737793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99345922470093</t>
+    <t xml:space="preserve">4.86760187149048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84379196166992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9016170501709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85059452056885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91862487792969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97305011749268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03427791595459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08529996871948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96624755859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02067184448242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04788446426392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97645092010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99346017837524</t>
   </si>
   <si>
     <t xml:space="preserve">4.90842056274414</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81998062133789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80297231674194</t>
+    <t xml:space="preserve">4.81998109817505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80297327041626</t>
   </si>
   <si>
     <t xml:space="preserve">4.89141321182251</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99005746841431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98665571212769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95264101028442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09550523757935</t>
+    <t xml:space="preserve">4.99005699157715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.986656665802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95264148712158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09550476074219</t>
   </si>
   <si>
     <t xml:space="preserve">5.12271785736084</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17034006118774</t>
+    <t xml:space="preserve">5.17033910751343</t>
   </si>
   <si>
     <t xml:space="preserve">5.25877952575684</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28599166870117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30299949645996</t>
+    <t xml:space="preserve">5.28599214553833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3029990196228</t>
   </si>
   <si>
     <t xml:space="preserve">5.29619550704956</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33701515197754</t>
+    <t xml:space="preserve">5.33701419830322</t>
   </si>
   <si>
     <t xml:space="preserve">5.38803768157959</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39143991470337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3302116394043</t>
+    <t xml:space="preserve">5.39143943786621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33021116256714</t>
   </si>
   <si>
     <t xml:space="preserve">5.37443161010742</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40844583511353</t>
+    <t xml:space="preserve">5.40844631195068</t>
   </si>
   <si>
     <t xml:space="preserve">5.27238512039185</t>
@@ -1199,13 +1199,13 @@
     <t xml:space="preserve">5.16353607177734</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24857568740845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17714262008667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07509517669678</t>
+    <t xml:space="preserve">5.24857425689697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17714214324951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07509660720825</t>
   </si>
   <si>
     <t xml:space="preserve">4.76215505599976</t>
@@ -1217,16 +1217,16 @@
     <t xml:space="preserve">4.92882966995239</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91522407531738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95944404602051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9492392539978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94583702087402</t>
+    <t xml:space="preserve">4.91522359848022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95944309234619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94923830032349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94583749771118</t>
   </si>
   <si>
     <t xml:space="preserve">4.95604181289673</t>
@@ -1235,79 +1235,79 @@
     <t xml:space="preserve">5.06149053573608</t>
   </si>
   <si>
-    <t xml:space="preserve">5.03767967224121</t>
+    <t xml:space="preserve">5.03767919540405</t>
   </si>
   <si>
     <t xml:space="preserve">4.82678318023682</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78596544265747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83358669281006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90501880645752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93903541564941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93223094940186</t>
+    <t xml:space="preserve">4.78596448898315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83358716964722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90501928329468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93903589248657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93223190307617</t>
   </si>
   <si>
     <t xml:space="preserve">4.87440538406372</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84719324111938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77576065063477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80637454986572</t>
+    <t xml:space="preserve">4.84719276428223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77576112747192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80637502670288</t>
   </si>
   <si>
     <t xml:space="preserve">4.81657886505127</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73834419250488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79957151412964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77235889434814</t>
+    <t xml:space="preserve">4.73834371566772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79957103729248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77235841751099</t>
   </si>
   <si>
     <t xml:space="preserve">4.76895761489868</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72813844680786</t>
+    <t xml:space="preserve">4.72813892364502</t>
   </si>
   <si>
     <t xml:space="preserve">4.71793413162231</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79617023468018</t>
+    <t xml:space="preserve">4.79616975784302</t>
   </si>
   <si>
     <t xml:space="preserve">4.83698892593384</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90708827972412</t>
+    <t xml:space="preserve">4.90708875656128</t>
   </si>
   <si>
     <t xml:space="preserve">4.84058666229248</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70408391952515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60258293151855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63758277893066</t>
+    <t xml:space="preserve">4.70408487319946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6025824546814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63758325576782</t>
   </si>
   <si>
     <t xml:space="preserve">4.66208410263062</t>
@@ -1316,115 +1316,115 @@
     <t xml:space="preserve">4.74958515167236</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73208475112915</t>
+    <t xml:space="preserve">4.73208522796631</t>
   </si>
   <si>
     <t xml:space="preserve">4.76008558273315</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74608469009399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65508317947388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71458435058594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67608404159546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66558408737183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57458209991455</t>
+    <t xml:space="preserve">4.74608612060547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65508365631104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7145848274231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6760835647583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66558456420898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57458257675171</t>
   </si>
   <si>
     <t xml:space="preserve">4.49758052825928</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31207704544067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29107666015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27707672119141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22457551956177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25957679748535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27007722854614</t>
+    <t xml:space="preserve">4.31207752227783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29107761383057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27707719802856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22457599639893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25957584381104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27007675170898</t>
   </si>
   <si>
     <t xml:space="preserve">4.24907684326172</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18257474899292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06707286834717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18607473373413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23157644271851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2805757522583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09507274627686</t>
+    <t xml:space="preserve">4.18257522583008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06707334518433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18607568740845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23157596588135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28057670593262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09507322311401</t>
   </si>
   <si>
     <t xml:space="preserve">4.16857481002808</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18957471847534</t>
+    <t xml:space="preserve">4.1895751953125</t>
   </si>
   <si>
     <t xml:space="preserve">4.07057332992554</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21757650375366</t>
+    <t xml:space="preserve">4.21757555007935</t>
   </si>
   <si>
     <t xml:space="preserve">4.15807437896729</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15457487106323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19307470321655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13707447052002</t>
+    <t xml:space="preserve">4.15457344055176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19307518005371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13707494735718</t>
   </si>
   <si>
     <t xml:space="preserve">4.11957406997681</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16507482528687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09857368469238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20707559585571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07407331466675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02857255935669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00407218933105</t>
+    <t xml:space="preserve">4.16507387161255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09857416152954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20707654953003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07407379150391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02857351303101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0040717124939</t>
   </si>
   <si>
     <t xml:space="preserve">4.06357288360596</t>
@@ -1439,25 +1439,25 @@
     <t xml:space="preserve">4.14407444000244</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9865710735321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0600733757019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10207366943359</t>
+    <t xml:space="preserve">3.986572265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06007289886475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10207271575928</t>
   </si>
   <si>
     <t xml:space="preserve">4.04957294464111</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05657291412354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3015775680542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46958065032959</t>
+    <t xml:space="preserve">4.05657196044922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30157661437988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46958112716675</t>
   </si>
   <si>
     <t xml:space="preserve">4.34707832336426</t>
@@ -1466,7 +1466,7 @@
     <t xml:space="preserve">4.3750786781311</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32957744598389</t>
+    <t xml:space="preserve">4.32957792282104</t>
   </si>
   <si>
     <t xml:space="preserve">4.38907861709595</t>
@@ -1475,10 +1475,10 @@
     <t xml:space="preserve">4.34007787704468</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29807615280151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23507595062256</t>
+    <t xml:space="preserve">4.29807710647583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23507642745972</t>
   </si>
   <si>
     <t xml:space="preserve">4.24557685852051</t>
@@ -1487,16 +1487,16 @@
     <t xml:space="preserve">4.22107553482056</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14757490158081</t>
+    <t xml:space="preserve">4.14757442474365</t>
   </si>
   <si>
     <t xml:space="preserve">4.21407556533813</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25607633590698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26307678222656</t>
+    <t xml:space="preserve">4.25607585906982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2630763053894</t>
   </si>
   <si>
     <t xml:space="preserve">4.25257635116577</t>
@@ -1505,22 +1505,22 @@
     <t xml:space="preserve">4.20007562637329</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1755747795105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12307405471802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27357769012451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2035756111145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26657581329346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22807550430298</t>
+    <t xml:space="preserve">4.17557525634766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12307357788086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27357721328735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20357465744019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26657629013062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22807693481445</t>
   </si>
   <si>
     <t xml:space="preserve">4.32257747650146</t>
@@ -1529,88 +1529,88 @@
     <t xml:space="preserve">4.33307790756226</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35407781600952</t>
+    <t xml:space="preserve">4.35407829284668</t>
   </si>
   <si>
     <t xml:space="preserve">4.46608018875122</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44858074188232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46258068084717</t>
+    <t xml:space="preserve">4.44858026504517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46258020401001</t>
   </si>
   <si>
     <t xml:space="preserve">4.47658014297485</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85356950759888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88506984710693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77306771278381</t>
+    <t xml:space="preserve">3.8535692691803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88506937026978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77306795120239</t>
   </si>
   <si>
     <t xml:space="preserve">3.77656745910645</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79756879806519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86056876182556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80106830596924</t>
+    <t xml:space="preserve">3.79756832122803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86056923866272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80106806755066</t>
   </si>
   <si>
     <t xml:space="preserve">3.70306634902954</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68206667900085</t>
+    <t xml:space="preserve">3.68206596374512</t>
   </si>
   <si>
     <t xml:space="preserve">3.62956500053406</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60506439208984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53856325149536</t>
+    <t xml:space="preserve">3.60506510734558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53856301307678</t>
   </si>
   <si>
     <t xml:space="preserve">3.56306433677673</t>
   </si>
   <si>
-    <t xml:space="preserve">3.50706362724304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59106469154358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58756494522095</t>
+    <t xml:space="preserve">3.50706315040588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.591064453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58756422996521</t>
   </si>
   <si>
     <t xml:space="preserve">3.65056586265564</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71006727218628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69956707954407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70656704902649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67506647109985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64006567001343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63656544685364</t>
+    <t xml:space="preserve">3.71006679534912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69956612586975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70656657218933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67506623268127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64006519317627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63656520843506</t>
   </si>
   <si>
     <t xml:space="preserve">3.66754746437073</t>
@@ -1619,82 +1619,82 @@
     <t xml:space="preserve">3.50365471839905</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65297937393188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64569497108459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7221782207489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89699721336365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86057734489441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85693502426147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84965062141418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83144044876099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82415580749512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68211603164673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66026329994202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61728715896606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67847394943237</t>
+    <t xml:space="preserve">3.65297961235046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64569592475891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72217798233032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89699625968933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86057639122009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85693430900574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84964966773987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83143997192383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8241560459137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68211531639099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6602635383606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61728692054749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67847371101379</t>
   </si>
   <si>
     <t xml:space="preserve">3.74403071403503</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81323003768921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72946238517761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70396852493286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75131487846375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70032572746277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52987813949585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71489405632019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70761036872864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67483186721802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82051372528076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80594491958618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76588344573975</t>
+    <t xml:space="preserve">3.81322908401489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72946190834045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70396876335144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7513153553009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70032596588135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52987837791443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71489429473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70761060714722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67483162879944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82051396369934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8059458732605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76588296890259</t>
   </si>
   <si>
     <t xml:space="preserve">3.85329222679138</t>
@@ -1703,103 +1703,103 @@
     <t xml:space="preserve">3.87514472007751</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9224910736084</t>
+    <t xml:space="preserve">3.92249155044556</t>
   </si>
   <si>
     <t xml:space="preserve">3.90063905715942</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87150287628174</t>
+    <t xml:space="preserve">3.87150239944458</t>
   </si>
   <si>
     <t xml:space="preserve">3.90792274475098</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87878632545471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86786031723022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92613244056702</t>
+    <t xml:space="preserve">3.87878680229187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86786079406738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92613363265991</t>
   </si>
   <si>
     <t xml:space="preserve">3.88242864608765</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00625848770142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15922403335571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22478103637695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14829874038696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28669691085815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28305530548096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33040189743042</t>
+    <t xml:space="preserve">4.00625896453857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15922451019287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22478199005127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14829921722412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.286696434021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28305387496948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33040046691895</t>
   </si>
   <si>
     <t xml:space="preserve">4.38867378234863</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33404350280762</t>
+    <t xml:space="preserve">4.33404207229614</t>
   </si>
   <si>
     <t xml:space="preserve">4.34132766723633</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34861087799072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46515703201294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4287371635437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48336791992188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47244071960449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5452823638916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44330501556396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49429321289062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5489239692688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55256700515747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56713390350342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61083889007568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57806062698364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60355520248413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61812305450439</t>
+    <t xml:space="preserve">4.34861135482788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46515798568726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42873620986938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48336744308472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47244167327881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54528188705444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44330453872681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49429368972778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54892444610596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55256652832031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56713438034058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61083936691284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57806015014648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60355472564697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61812353134155</t>
   </si>
   <si>
     <t xml:space="preserve">4.58534479141235</t>
@@ -1814,13 +1814,13 @@
     <t xml:space="preserve">4.59991312026978</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65454339981079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62176465988159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76744747161865</t>
+    <t xml:space="preserve">4.65454387664795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62176513671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76744699478149</t>
   </si>
   <si>
     <t xml:space="preserve">4.75287961959839</t>
@@ -1829,40 +1829,40 @@
     <t xml:space="preserve">4.74923753738403</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74559497833252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73831129074097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73467016220093</t>
+    <t xml:space="preserve">4.74559545516968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73831176757812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73466968536377</t>
   </si>
   <si>
     <t xml:space="preserve">4.83664655685425</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90220308303833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92769813537598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89856195449829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89127731323242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8950309753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79743051528931</t>
+    <t xml:space="preserve">4.90220355987549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92769765853882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89856243133545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89127779006958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89503145217896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79743099212646</t>
   </si>
   <si>
     <t xml:space="preserve">4.84247732162476</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84623050689697</t>
+    <t xml:space="preserve">4.84623146057129</t>
   </si>
   <si>
     <t xml:space="preserve">4.93632364273071</t>
@@ -1871,28 +1871,28 @@
     <t xml:space="preserve">4.91380071640015</t>
   </si>
   <si>
-    <t xml:space="preserve">4.88001537322998</t>
+    <t xml:space="preserve">4.8800163269043</t>
   </si>
   <si>
     <t xml:space="preserve">4.72986173629761</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74112272262573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75613927841187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63976907730103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59096908569336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65478467941284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59472274780273</t>
+    <t xml:space="preserve">4.74112367630005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75613880157471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63976860046387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5909686088562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65478420257568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59472322463989</t>
   </si>
   <si>
     <t xml:space="preserve">4.65853834152222</t>
@@ -1901,7 +1901,7 @@
     <t xml:space="preserve">4.61724615097046</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61349201202393</t>
+    <t xml:space="preserve">4.61349153518677</t>
   </si>
   <si>
     <t xml:space="preserve">4.54967641830444</t>
@@ -1910,7 +1910,7 @@
     <t xml:space="preserve">4.56093740463257</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56469106674194</t>
+    <t xml:space="preserve">4.5646915435791</t>
   </si>
   <si>
     <t xml:space="preserve">4.52715349197388</t>
@@ -1919,34 +1919,34 @@
     <t xml:space="preserve">4.50462961196899</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48210668563843</t>
+    <t xml:space="preserve">4.48210620880127</t>
   </si>
   <si>
     <t xml:space="preserve">4.51213836669922</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57595300674438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63601493835449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62475395202637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66979932785034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65103149414062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59847593307495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62850713729858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55718421936035</t>
+    <t xml:space="preserve">4.57595348358154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63601589202881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62475347518921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66980028152466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65103101730347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59847640991211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6285080909729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55718374252319</t>
   </si>
   <si>
     <t xml:space="preserve">4.69607639312744</t>
@@ -1961,40 +1961,40 @@
     <t xml:space="preserve">4.85749244689941</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78992366790771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79367733001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8537392616272</t>
+    <t xml:space="preserve">4.78992319107056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79367780685425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85373878479004</t>
   </si>
   <si>
     <t xml:space="preserve">4.86124658584595</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86500072479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00389289855957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04518508911133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99263191223145</t>
+    <t xml:space="preserve">4.86500024795532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00389385223389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04518556594849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99263143539429</t>
   </si>
   <si>
     <t xml:space="preserve">4.98512363433838</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94383144378662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0226616859436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01515436172485</t>
+    <t xml:space="preserve">4.94383192062378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02266263961792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01515483856201</t>
   </si>
   <si>
     <t xml:space="preserve">5.05269336700439</t>
@@ -2006,31 +2006,31 @@
     <t xml:space="preserve">5.02641677856445</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97010803222656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95133924484253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94758605957031</t>
+    <t xml:space="preserve">4.97010850906372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95133972167969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94758558273315</t>
   </si>
   <si>
     <t xml:space="preserve">4.97761678695679</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9550929069519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04143238067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00013875961304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93256998062134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91755437850952</t>
+    <t xml:space="preserve">4.95509338378906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04143190383911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0001392364502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93256950378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91755485534668</t>
   </si>
   <si>
     <t xml:space="preserve">4.69983100891113</t>
@@ -2039,22 +2039,22 @@
     <t xml:space="preserve">4.70358467102051</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71109247207642</t>
+    <t xml:space="preserve">4.71109294891357</t>
   </si>
   <si>
     <t xml:space="preserve">4.63226127624512</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84998512268066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95884704589844</t>
+    <t xml:space="preserve">4.84998464584351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95884656906128</t>
   </si>
   <si>
     <t xml:space="preserve">4.90629243850708</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99638509750366</t>
+    <t xml:space="preserve">4.99638557434082</t>
   </si>
   <si>
     <t xml:space="preserve">4.94007730484009</t>
@@ -2063,31 +2063,31 @@
     <t xml:space="preserve">5.03767824172974</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0602011680603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1540470123291</t>
+    <t xml:space="preserve">5.06020069122314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15404748916626</t>
   </si>
   <si>
     <t xml:space="preserve">5.1653094291687</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14278554916382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26291036605835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21035480499268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23287773132324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28543281555176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29294061660767</t>
+    <t xml:space="preserve">5.14278602600098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26290941238403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21035528182983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2328782081604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2854323387146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29294013977051</t>
   </si>
   <si>
     <t xml:space="preserve">5.25540208816528</t>
@@ -2096,7 +2096,7 @@
     <t xml:space="preserve">5.16155529022217</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1915864944458</t>
+    <t xml:space="preserve">5.19158601760864</t>
   </si>
   <si>
     <t xml:space="preserve">5.15029382705688</t>
@@ -2105,7 +2105,7 @@
     <t xml:space="preserve">5.17657041549683</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17281627655029</t>
+    <t xml:space="preserve">5.17281675338745</t>
   </si>
   <si>
     <t xml:space="preserve">5.16906309127808</t>
@@ -2114,25 +2114,25 @@
     <t xml:space="preserve">5.10149383544922</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22161626815796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21786260604858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21410942077637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23663234710693</t>
+    <t xml:space="preserve">5.22161769866943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2178635597229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21410989761353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23663282394409</t>
   </si>
   <si>
     <t xml:space="preserve">5.39804792404175</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44309425354004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48438692092896</t>
+    <t xml:space="preserve">5.4430947303772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4843864440918</t>
   </si>
   <si>
     <t xml:space="preserve">5.52943325042725</t>
@@ -2141,31 +2141,31 @@
     <t xml:space="preserve">5.5744800567627</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64204835891724</t>
+    <t xml:space="preserve">5.64204883575439</t>
   </si>
   <si>
     <t xml:space="preserve">5.6758337020874</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69084930419922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7021107673645</t>
+    <t xml:space="preserve">5.69084882736206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70211029052734</t>
   </si>
   <si>
     <t xml:space="preserve">5.72463369369507</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76217317581177</t>
+    <t xml:space="preserve">5.76217269897461</t>
   </si>
   <si>
     <t xml:space="preserve">5.77343463897705</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76968002319336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77718830108643</t>
+    <t xml:space="preserve">5.76968050003052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77718877792358</t>
   </si>
   <si>
     <t xml:space="preserve">5.78844976425171</t>
@@ -2177,76 +2177,76 @@
     <t xml:space="preserve">5.85601949691772</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20137453079224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3027286529541</t>
+    <t xml:space="preserve">6.20137405395508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30272817611694</t>
   </si>
   <si>
     <t xml:space="preserve">6.47916030883789</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59177494049072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45663642883301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47165250778198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56784152984619</t>
+    <t xml:space="preserve">6.59177541732788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45663690567017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47165203094482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56784200668335</t>
   </si>
   <si>
     <t xml:space="preserve">6.74483108520508</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9025821685791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91797256469727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01416206359863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95644807815552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07957172393799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10265684127808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16037130355835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09111547470093</t>
+    <t xml:space="preserve">6.90258264541626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91797304153442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01416254043579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95644855499268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07957315444946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10265731811523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16037273406982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09111452102661</t>
   </si>
   <si>
     <t xml:space="preserve">7.02570533752441</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00646734237671</t>
+    <t xml:space="preserve">7.00646686553955</t>
   </si>
   <si>
     <t xml:space="preserve">7.08726692199707</t>
   </si>
   <si>
-    <t xml:space="preserve">7.14113330841064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08341932296753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95260095596313</t>
+    <t xml:space="preserve">7.14113283157349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08341884613037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95260047912598</t>
   </si>
   <si>
     <t xml:space="preserve">6.971839427948</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00261974334717</t>
+    <t xml:space="preserve">7.00262022018433</t>
   </si>
   <si>
     <t xml:space="preserve">6.97568702697754</t>
@@ -2255,16 +2255,16 @@
     <t xml:space="preserve">7.05263805389404</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02955293655396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02185773849487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99107694625854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89873456954956</t>
+    <t xml:space="preserve">7.02955341339111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02185821533203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9910774230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89873600006104</t>
   </si>
   <si>
     <t xml:space="preserve">6.86410665512085</t>
@@ -2273,16 +2273,16 @@
     <t xml:space="preserve">6.87564992904663</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8140869140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84486865997314</t>
+    <t xml:space="preserve">6.81408739089966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84486818313599</t>
   </si>
   <si>
     <t xml:space="preserve">6.75252532958984</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61401319503784</t>
+    <t xml:space="preserve">6.61401271820068</t>
   </si>
   <si>
     <t xml:space="preserve">6.61786127090454</t>
@@ -2306,10 +2306,10 @@
     <t xml:space="preserve">6.74867916107178</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63325119018555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66403102874756</t>
+    <t xml:space="preserve">6.63325023651123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6640305519104</t>
   </si>
   <si>
     <t xml:space="preserve">6.61016511917114</t>
@@ -2324,43 +2324,43 @@
     <t xml:space="preserve">6.27157688140869</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28311920166016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37930917739868</t>
+    <t xml:space="preserve">6.28311967849731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37930965423584</t>
   </si>
   <si>
     <t xml:space="preserve">6.34083366394043</t>
   </si>
   <si>
-    <t xml:space="preserve">6.394700050354</t>
+    <t xml:space="preserve">6.39470148086548</t>
   </si>
   <si>
     <t xml:space="preserve">6.46395683288574</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50243234634399</t>
+    <t xml:space="preserve">6.50243282318115</t>
   </si>
   <si>
     <t xml:space="preserve">6.49473762512207</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49858427047729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57553720474243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6909646987915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72944068908691</t>
+    <t xml:space="preserve">6.49858474731445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57553768157959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69096422195435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72944021224976</t>
   </si>
   <si>
     <t xml:space="preserve">6.56399393081665</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38315677642822</t>
+    <t xml:space="preserve">6.38315725326538</t>
   </si>
   <si>
     <t xml:space="preserve">6.04456853866577</t>
@@ -2372,58 +2372,58 @@
     <t xml:space="preserve">6.00994062423706</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86757946014404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66365718841553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59824800491333</t>
+    <t xml:space="preserve">5.8675799369812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66365766525269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59824895858765</t>
   </si>
   <si>
     <t xml:space="preserve">5.57516288757324</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53668737411499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2558126449585</t>
+    <t xml:space="preserve">5.53668689727783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25581216812134</t>
   </si>
   <si>
     <t xml:space="preserve">5.13268899917603</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77101564407349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20157194137573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15540027618408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76448559761047</t>
+    <t xml:space="preserve">4.77101612091064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20157241821289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15540075302124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76448607444763</t>
   </si>
   <si>
     <t xml:space="preserve">3.76756358146667</t>
   </si>
   <si>
-    <t xml:space="preserve">3.44898295402527</t>
+    <t xml:space="preserve">3.44898223876953</t>
   </si>
   <si>
     <t xml:space="preserve">3.1781120300293</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13809728622437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25660276412964</t>
+    <t xml:space="preserve">3.13809704780579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25660300254822</t>
   </si>
   <si>
     <t xml:space="preserve">3.24736881256104</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63982367515564</t>
+    <t xml:space="preserve">3.6398229598999</t>
   </si>
   <si>
     <t xml:space="preserve">3.74909496307373</t>
@@ -2435,7 +2435,7 @@
     <t xml:space="preserve">3.82142949104309</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63366723060608</t>
+    <t xml:space="preserve">3.63366746902466</t>
   </si>
   <si>
     <t xml:space="preserve">3.57826161384583</t>
@@ -2444,16 +2444,16 @@
     <t xml:space="preserve">3.56748867034912</t>
   </si>
   <si>
-    <t xml:space="preserve">3.57980155944824</t>
+    <t xml:space="preserve">3.57980132102966</t>
   </si>
   <si>
     <t xml:space="preserve">3.51670026779175</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64444017410278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84759306907654</t>
+    <t xml:space="preserve">3.6444399356842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84759378433228</t>
   </si>
   <si>
     <t xml:space="preserve">4.02073526382446</t>
@@ -2462,31 +2462,31 @@
     <t xml:space="preserve">4.20926713943481</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85913634300232</t>
+    <t xml:space="preserve">3.85913586616516</t>
   </si>
   <si>
     <t xml:space="preserve">3.90530681610107</t>
   </si>
   <si>
-    <t xml:space="preserve">4.024582862854</t>
+    <t xml:space="preserve">4.02458333969116</t>
   </si>
   <si>
     <t xml:space="preserve">3.94763088226318</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75986862182617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89761209487915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98610639572144</t>
+    <t xml:space="preserve">3.75986814498901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89761161804199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98610687255859</t>
   </si>
   <si>
     <t xml:space="preserve">3.96686887741089</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11692476272583</t>
+    <t xml:space="preserve">4.11692523956299</t>
   </si>
   <si>
     <t xml:space="preserve">4.31315231323242</t>
@@ -2495,19 +2495,19 @@
     <t xml:space="preserve">4.48629379272461</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28621864318848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09383964538574</t>
+    <t xml:space="preserve">4.28621912002563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09383916854858</t>
   </si>
   <si>
     <t xml:space="preserve">4.03227758407593</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07844877243042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12461948394775</t>
+    <t xml:space="preserve">4.07844924926758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12461996078491</t>
   </si>
   <si>
     <t xml:space="preserve">4.12846755981445</t>
@@ -2516,7 +2516,7 @@
     <t xml:space="preserve">4.30545663833618</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38240909576416</t>
+    <t xml:space="preserve">4.382408618927</t>
   </si>
   <si>
     <t xml:space="preserve">4.24004793167114</t>
@@ -2525,7 +2525,7 @@
     <t xml:space="preserve">4.14385795593262</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25928592681885</t>
+    <t xml:space="preserve">4.25928544998169</t>
   </si>
   <si>
     <t xml:space="preserve">4.26698112487793</t>
@@ -2540,79 +2540,79 @@
     <t xml:space="preserve">4.51322650909424</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55555057525635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6632833480835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60941600799561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57094144821167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.740234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79410123825073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.974937915802</t>
+    <t xml:space="preserve">4.55555009841919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66328287124634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60941648483276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57094097137451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74023485183716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79410171508789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97493839263916</t>
   </si>
   <si>
     <t xml:space="preserve">5.20579290390015</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32506942749023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12114667892456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84412002563477</t>
+    <t xml:space="preserve">5.32506895065308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12114715576172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84411954879761</t>
   </si>
   <si>
     <t xml:space="preserve">4.86335802078247</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02495670318604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97109079360962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94800472259521</t>
+    <t xml:space="preserve">5.02495718002319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97109127044678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94800424575806</t>
   </si>
   <si>
     <t xml:space="preserve">4.99802350997925</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98263311386108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02880430221558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81333923339844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80179691314697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85181474685669</t>
+    <t xml:space="preserve">4.98263359069824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02880382537842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8133397102356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80179595947266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85181522369385</t>
   </si>
   <si>
     <t xml:space="preserve">4.8941388130188</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91722440719604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83642435073853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0634331703186</t>
+    <t xml:space="preserve">4.9172248840332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83642482757568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06343269348145</t>
   </si>
   <si>
     <t xml:space="preserve">4.94031047821045</t>
@@ -2621,10 +2621,10 @@
     <t xml:space="preserve">5.0595850944519</t>
   </si>
   <si>
-    <t xml:space="preserve">5.03649950027466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8248815536499</t>
+    <t xml:space="preserve">5.03649997711182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82488203048706</t>
   </si>
   <si>
     <t xml:space="preserve">4.94415760040283</t>
@@ -2633,10 +2633,10 @@
     <t xml:space="preserve">5.00187158584595</t>
   </si>
   <si>
-    <t xml:space="preserve">5.07112836837769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07497596740723</t>
+    <t xml:space="preserve">5.07112789154053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07497549057007</t>
   </si>
   <si>
     <t xml:space="preserve">5.09806108474731</t>
@@ -2648,52 +2648,52 @@
     <t xml:space="preserve">5.15962266921997</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11345195770264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06727981567383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98648118972778</t>
+    <t xml:space="preserve">5.11345148086548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06728029251099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98648071289062</t>
   </si>
   <si>
     <t xml:space="preserve">4.93261480331421</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91337728500366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95185327529907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7671685218811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95570039749146</t>
+    <t xml:space="preserve">4.9133768081665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95185232162476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76716804504395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95570087432861</t>
   </si>
   <si>
     <t xml:space="preserve">4.96339511871338</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10190868377686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18655586242676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24042224884033</t>
+    <t xml:space="preserve">5.10190916061401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1865553855896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24042177200317</t>
   </si>
   <si>
     <t xml:space="preserve">5.15577507019043</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02110910415649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10575675964355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97878503799438</t>
+    <t xml:space="preserve">5.02110958099365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1057562828064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9787859916687</t>
   </si>
   <si>
     <t xml:space="preserve">5.14038419723511</t>
@@ -2702,7 +2702,7 @@
     <t xml:space="preserve">5.05188989639282</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08651876449585</t>
+    <t xml:space="preserve">5.08651828765869</t>
   </si>
   <si>
     <t xml:space="preserve">4.92491960525513</t>
@@ -2714,13 +2714,13 @@
     <t xml:space="preserve">4.86720561981201</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87105321884155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09036588668823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84796810150146</t>
+    <t xml:space="preserve">4.87105369567871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09036540985107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84796762466431</t>
   </si>
   <si>
     <t xml:space="preserve">4.73253965377808</t>
@@ -2729,37 +2729,37 @@
     <t xml:space="preserve">4.84027194976807</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70560693740845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78640651702881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04034662246704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.959547996521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8094916343689</t>
+    <t xml:space="preserve">4.70560646057129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78640604019165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04034757614136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95954847335815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80949115753174</t>
   </si>
   <si>
     <t xml:space="preserve">4.8325777053833</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81718683242798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65558767318726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51707410812378</t>
+    <t xml:space="preserve">4.81718778610229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65558815002441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51707363128662</t>
   </si>
   <si>
     <t xml:space="preserve">4.46320819854736</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5093789100647</t>
+    <t xml:space="preserve">4.50937986373901</t>
   </si>
   <si>
     <t xml:space="preserve">4.75562572479248</t>
@@ -2768,52 +2768,52 @@
     <t xml:space="preserve">5.29428863525391</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38278245925903</t>
+    <t xml:space="preserve">5.38278341293335</t>
   </si>
   <si>
     <t xml:space="preserve">5.51744890213013</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38663148880005</t>
+    <t xml:space="preserve">5.38663053512573</t>
   </si>
   <si>
     <t xml:space="preserve">5.55592489242554</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81756114959717</t>
+    <t xml:space="preserve">5.81756162643433</t>
   </si>
   <si>
     <t xml:space="preserve">5.80986595153809</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73291444778442</t>
+    <t xml:space="preserve">5.73291349411011</t>
   </si>
   <si>
     <t xml:space="preserve">5.84449434280396</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86373233795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01763677597046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89066505432129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97531223297119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85218954086304</t>
+    <t xml:space="preserve">5.8637318611145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01763582229614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89066553115845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97531127929688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85218906402588</t>
   </si>
   <si>
     <t xml:space="preserve">5.92529344558716</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76754236221313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71752309799194</t>
+    <t xml:space="preserve">5.76754283905029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7175235748291</t>
   </si>
   <si>
     <t xml:space="preserve">5.70982837677002</t>
@@ -2822,10 +2822,10 @@
     <t xml:space="preserve">5.64441919326782</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60209655761719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59440040588379</t>
+    <t xml:space="preserve">5.60209608078003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59440088272095</t>
   </si>
   <si>
     <t xml:space="preserve">5.5020580291748</t>
@@ -2840,28 +2840,28 @@
     <t xml:space="preserve">5.47897291183472</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46358299255371</t>
+    <t xml:space="preserve">5.46358251571655</t>
   </si>
   <si>
     <t xml:space="preserve">5.44434499740601</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33276462554932</t>
+    <t xml:space="preserve">5.33276414871216</t>
   </si>
   <si>
     <t xml:space="preserve">5.40971660614014</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42895412445068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47127771377563</t>
+    <t xml:space="preserve">5.42895364761353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47127723693848</t>
   </si>
   <si>
     <t xml:space="preserve">5.49821090698242</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43664884567261</t>
+    <t xml:space="preserve">5.43664932250977</t>
   </si>
   <si>
     <t xml:space="preserve">5.44819211959839</t>
@@ -2870,10 +2870,10 @@
     <t xml:space="preserve">5.65981006622314</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63672399520874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62902975082397</t>
+    <t xml:space="preserve">5.6367244720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62902927398682</t>
   </si>
   <si>
     <t xml:space="preserve">5.27505016326904</t>
@@ -2891,25 +2891,25 @@
     <t xml:space="preserve">5.22503137588501</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62518119812012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73676156997681</t>
+    <t xml:space="preserve">5.62518167495728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73676204681396</t>
   </si>
   <si>
     <t xml:space="preserve">5.94837951660156</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87912273406982</t>
+    <t xml:space="preserve">5.87912225723267</t>
   </si>
   <si>
     <t xml:space="preserve">5.89836025238037</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88296937942505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76369428634644</t>
+    <t xml:space="preserve">5.88297033309937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76369524002075</t>
   </si>
   <si>
     <t xml:space="preserve">5.67904758453369</t>
@@ -2921,7 +2921,7 @@
     <t xml:space="preserve">5.75984716415405</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62133359909058</t>
+    <t xml:space="preserve">5.62133455276489</t>
   </si>
   <si>
     <t xml:space="preserve">5.6521143913269</t>
@@ -2933,13 +2933,13 @@
     <t xml:space="preserve">5.74445724487305</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77523756027222</t>
+    <t xml:space="preserve">5.77523803710938</t>
   </si>
   <si>
     <t xml:space="preserve">5.75215196609497</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85988473892212</t>
+    <t xml:space="preserve">5.85988426208496</t>
   </si>
   <si>
     <t xml:space="preserve">5.92144632339478</t>
@@ -2948,10 +2948,10 @@
     <t xml:space="preserve">5.95992183685303</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97915983200073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96376943588257</t>
+    <t xml:space="preserve">5.97915935516357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96376991271973</t>
   </si>
   <si>
     <t xml:space="preserve">5.97146511077881</t>
@@ -2960,22 +2960,22 @@
     <t xml:space="preserve">6.0984354019165</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25233888626099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15999698638916</t>
+    <t xml:space="preserve">6.25233936309814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.159996509552</t>
   </si>
   <si>
     <t xml:space="preserve">6.18308258056641</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09074068069458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13306331634521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14075899124146</t>
+    <t xml:space="preserve">6.09074020385742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13306379318237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1407585144043</t>
   </si>
   <si>
     <t xml:space="preserve">6.22540616989136</t>
@@ -2984,16 +2984,16 @@
     <t xml:space="preserve">6.19462537765503</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17461729049683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21001482009888</t>
+    <t xml:space="preserve">6.17461824417114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21001577377319</t>
   </si>
   <si>
     <t xml:space="preserve">6.12844705581665</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04380035400391</t>
+    <t xml:space="preserve">6.04379987716675</t>
   </si>
   <si>
     <t xml:space="preserve">6.10690021514893</t>
@@ -3002,40 +3002,40 @@
     <t xml:space="preserve">6.05457258224487</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05765056610107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00224590301514</t>
+    <t xml:space="preserve">6.05765104293823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00224637985229</t>
   </si>
   <si>
     <t xml:space="preserve">6.02225303649902</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0853533744812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02994775772095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95761299133301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01455783843994</t>
+    <t xml:space="preserve">6.08535289764404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02994871139526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95761394500732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0145583152771</t>
   </si>
   <si>
     <t xml:space="preserve">6.04072093963623</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01301908493042</t>
+    <t xml:space="preserve">6.01301860809326</t>
   </si>
   <si>
     <t xml:space="preserve">5.98069906234741</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10843896865845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01147985458374</t>
+    <t xml:space="preserve">6.10843944549561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01147937774658</t>
   </si>
   <si>
     <t xml:space="preserve">6.082275390625</t>
@@ -3044,25 +3044,25 @@
     <t xml:space="preserve">6.16846132278442</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23925733566284</t>
+    <t xml:space="preserve">6.23925685882568</t>
   </si>
   <si>
     <t xml:space="preserve">6.21463298797607</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06380701065063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06688547134399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08843183517456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03918266296387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12463521957397</t>
+    <t xml:space="preserve">6.06380748748779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06688451766968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08843231201172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03918218612671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12463569641113</t>
   </si>
   <si>
     <t xml:space="preserve">6.07521867752075</t>
@@ -3080,10 +3080,10 @@
     <t xml:space="preserve">6.24354600906372</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22810220718384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24045705795288</t>
+    <t xml:space="preserve">6.228102684021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24045658111572</t>
   </si>
   <si>
     <t xml:space="preserve">6.21729230880737</t>
@@ -3095,25 +3095,25 @@
     <t xml:space="preserve">6.38561964035034</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4242262840271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30686140060425</t>
+    <t xml:space="preserve">6.42422580718994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30686092376709</t>
   </si>
   <si>
     <t xml:space="preserve">6.34546804428101</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37172079086304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34237861633301</t>
+    <t xml:space="preserve">6.3717212677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34237957000732</t>
   </si>
   <si>
     <t xml:space="preserve">6.44893550872803</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46283435821533</t>
+    <t xml:space="preserve">6.46283388137817</t>
   </si>
   <si>
     <t xml:space="preserve">6.34855699539185</t>
@@ -3128,13 +3128,13 @@
     <t xml:space="preserve">6.35318946838379</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53232669830322</t>
+    <t xml:space="preserve">6.53232622146606</t>
   </si>
   <si>
     <t xml:space="preserve">6.33311367034912</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47982025146484</t>
+    <t xml:space="preserve">6.47982168197632</t>
   </si>
   <si>
     <t xml:space="preserve">6.33465814590454</t>
@@ -3152,22 +3152,22 @@
     <t xml:space="preserve">6.36091089248657</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32075977325439</t>
+    <t xml:space="preserve">6.32075929641724</t>
   </si>
   <si>
     <t xml:space="preserve">6.21265888214111</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30531692504883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40723991394043</t>
+    <t xml:space="preserve">6.30531787872314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40723943710327</t>
   </si>
   <si>
     <t xml:space="preserve">6.3408350944519</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36245489120483</t>
+    <t xml:space="preserve">6.36245536804199</t>
   </si>
   <si>
     <t xml:space="preserve">6.26979827880859</t>
@@ -3179,7 +3179,7 @@
     <t xml:space="preserve">5.99800443649292</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04587650299072</t>
+    <t xml:space="preserve">6.04587745666504</t>
   </si>
   <si>
     <t xml:space="preserve">6.24200057983398</t>
@@ -3188,13 +3188,13 @@
     <t xml:space="preserve">6.29141807556152</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34701347351074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50452899932861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51070737838745</t>
+    <t xml:space="preserve">6.34701251983643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50452852249146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51070642471313</t>
   </si>
   <si>
     <t xml:space="preserve">6.48754262924194</t>
@@ -3203,46 +3203,46 @@
     <t xml:space="preserve">6.48290967941284</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41187238693237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4273157119751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39334058761597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43812561035156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49680805206299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57865524291992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66204690933228</t>
+    <t xml:space="preserve">6.41187191009521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42731618881226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39334106445312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4381251335144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49680757522583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57865619659424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66204738616943</t>
   </si>
   <si>
     <t xml:space="preserve">6.67131280899048</t>
   </si>
   <si>
-    <t xml:space="preserve">6.7670578956604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74698209762573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79022216796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74852705001831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79948711395264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65278148651123</t>
+    <t xml:space="preserve">6.76705741882324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74698257446289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79022169113159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74852657318115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79948759078979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65278100967407</t>
   </si>
   <si>
     <t xml:space="preserve">6.62652778625488</t>
@@ -3254,13 +3254,13 @@
     <t xml:space="preserve">6.68212223052979</t>
   </si>
   <si>
-    <t xml:space="preserve">6.70991945266724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69602060317993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75315952301025</t>
+    <t xml:space="preserve">6.70991897583008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69602108001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75315999984741</t>
   </si>
   <si>
     <t xml:space="preserve">6.76860189437866</t>
@@ -3275,16 +3275,16 @@
     <t xml:space="preserve">6.81029796600342</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8133864402771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77941274642944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75933647155762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75624799728394</t>
+    <t xml:space="preserve">6.81338691711426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77941179275513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75933694839478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75624752044678</t>
   </si>
   <si>
     <t xml:space="preserve">6.72381830215454</t>
@@ -3293,13 +3293,13 @@
     <t xml:space="preserve">6.88751220703125</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93229627609253</t>
+    <t xml:space="preserve">6.93229675292969</t>
   </si>
   <si>
     <t xml:space="preserve">6.88133478164673</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93847417831421</t>
+    <t xml:space="preserve">6.93847322463989</t>
   </si>
   <si>
     <t xml:space="preserve">6.87515830993652</t>
@@ -3311,202 +3311,202 @@
     <t xml:space="preserve">6.87824630737305</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09907865524292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04811859130859</t>
+    <t xml:space="preserve">7.09907913208008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04811763763428</t>
   </si>
   <si>
     <t xml:space="preserve">7.07591485977173</t>
   </si>
   <si>
-    <t xml:space="preserve">7.07282638549805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15776300430298</t>
+    <t xml:space="preserve">7.07282686233521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15776252746582</t>
   </si>
   <si>
     <t xml:space="preserve">7.21953344345093</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33535528182983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35234212875366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49905014038086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38940525054932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52530241012573</t>
+    <t xml:space="preserve">7.33535480499268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3523416519165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49904870986938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38940477371216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52530288696289</t>
   </si>
   <si>
     <t xml:space="preserve">7.45735454559326</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51294803619385</t>
+    <t xml:space="preserve">7.51294755935669</t>
   </si>
   <si>
     <t xml:space="preserve">7.61178207397461</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51758146286011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57626295089722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61487102508545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63771867752075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49894285202026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50562953948975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41199779510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39862155914307</t>
+    <t xml:space="preserve">7.51758003234863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57626485824585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61487150192261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63771915435791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49894332885742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50563049316406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41199827194214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39862203598022</t>
   </si>
   <si>
     <t xml:space="preserve">7.34177350997925</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45212554931641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39360523223877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3451189994812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27823829650879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36351013183594</t>
+    <t xml:space="preserve">7.45212650299072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39360618591309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34511756896973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27823781967163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36350917816162</t>
   </si>
   <si>
     <t xml:space="preserve">7.26820611953735</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33174133300781</t>
+    <t xml:space="preserve">7.33174228668213</t>
   </si>
   <si>
     <t xml:space="preserve">7.47553491592407</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44878101348877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45547103881836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53739929199219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58086967468262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58923149108887</t>
+    <t xml:space="preserve">7.44878244400024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4554705619812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53739833831787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58087015151978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58923053741455</t>
   </si>
   <si>
     <t xml:space="preserve">7.65778255462646</t>
   </si>
   <si>
-    <t xml:space="preserve">7.64273500442505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54408645629883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45379877090454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34344673156738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50483989715576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3657660484314</t>
+    <t xml:space="preserve">7.64273357391357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54408597946167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45379829406738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34344720840454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5048394203186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36576652526855</t>
   </si>
   <si>
     <t xml:space="preserve">7.58038663864136</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48251962661743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14599609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20265531539917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08075046539307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26446533203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20780515670776</t>
+    <t xml:space="preserve">7.48252010345459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14599561691284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20265579223633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08075094223022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26446580886841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20780611038208</t>
   </si>
   <si>
     <t xml:space="preserve">7.24557828903198</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32627725601196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47736835479736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40697431564331</t>
+    <t xml:space="preserve">7.3262767791748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47736930847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40697383880615</t>
   </si>
   <si>
     <t xml:space="preserve">7.34001207351685</t>
   </si>
   <si>
-    <t xml:space="preserve">7.28850317001343</t>
+    <t xml:space="preserve">7.28850269317627</t>
   </si>
   <si>
     <t xml:space="preserve">7.27820110321045</t>
   </si>
   <si>
-    <t xml:space="preserve">7.28335237503052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29880428314209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20952224731445</t>
+    <t xml:space="preserve">7.28335189819336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29880475997925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20952272415161</t>
   </si>
   <si>
     <t xml:space="preserve">6.98631763458252</t>
   </si>
   <si>
-    <t xml:space="preserve">7.19235420227051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25244617462158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37091827392578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44302892684937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43444490432739</t>
+    <t xml:space="preserve">7.19235324859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2524471282959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37091684341431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44302988052368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43444395065308</t>
   </si>
   <si>
     <t xml:space="preserve">7.45161533355713</t>
@@ -3515,10 +3515,10 @@
     <t xml:space="preserve">7.54433059692383</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60099029541016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66623497009277</t>
+    <t xml:space="preserve">7.600989818573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66623544692993</t>
   </si>
   <si>
     <t xml:space="preserve">7.45504808425903</t>
@@ -3527,7 +3527,7 @@
     <t xml:space="preserve">7.59240579605103</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66280031204224</t>
+    <t xml:space="preserve">7.66280126571655</t>
   </si>
   <si>
     <t xml:space="preserve">7.80359125137329</t>
@@ -3536,7 +3536,7 @@
     <t xml:space="preserve">7.94953346252441</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97872066497803</t>
+    <t xml:space="preserve">7.97872161865234</t>
   </si>
   <si>
     <t xml:space="preserve">7.82247829437256</t>
@@ -3545,7 +3545,7 @@
     <t xml:space="preserve">7.78813934326172</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60442399978638</t>
+    <t xml:space="preserve">7.60442447662354</t>
   </si>
   <si>
     <t xml:space="preserve">7.59755659103394</t>
@@ -3554,34 +3554,34 @@
     <t xml:space="preserve">7.5014066696167</t>
   </si>
   <si>
-    <t xml:space="preserve">7.16831636428833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17861795425415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32799339294434</t>
+    <t xml:space="preserve">7.16831588745117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17861843109131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32799291610718</t>
   </si>
   <si>
     <t xml:space="preserve">7.29193687438965</t>
   </si>
   <si>
-    <t xml:space="preserve">7.23356056213379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3520302772522</t>
+    <t xml:space="preserve">7.23356008529663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35202980041504</t>
   </si>
   <si>
     <t xml:space="preserve">7.46363353729248</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56665086746216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49282121658325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22497606277466</t>
+    <t xml:space="preserve">7.56665134429932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49282026290894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2249755859375</t>
   </si>
   <si>
     <t xml:space="preserve">7.32112503051758</t>
@@ -3602,10 +3602,10 @@
     <t xml:space="preserve">7.29708766937256</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24042797088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14256143569946</t>
+    <t xml:space="preserve">7.24042844772339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1425609588623</t>
   </si>
   <si>
     <t xml:space="preserve">7.11852359771729</t>
@@ -3620,25 +3620,25 @@
     <t xml:space="preserve">7.03095817565918</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43345594406128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58626556396484</t>
+    <t xml:space="preserve">6.43345642089844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.586266040802</t>
   </si>
   <si>
     <t xml:space="preserve">6.32013654708862</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08491277694702</t>
+    <t xml:space="preserve">6.08491230010986</t>
   </si>
   <si>
     <t xml:space="preserve">6.11238384246826</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96987724304199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58012628555298</t>
+    <t xml:space="preserve">5.96987628936768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58012580871582</t>
   </si>
   <si>
     <t xml:space="preserve">5.5148811340332</t>
@@ -3653,43 +3653,43 @@
     <t xml:space="preserve">5.92866945266724</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06259250640869</t>
+    <t xml:space="preserve">6.06259202957153</t>
   </si>
   <si>
     <t xml:space="preserve">6.16389274597168</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2960991859436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62403869628906</t>
+    <t xml:space="preserve">6.29609966278076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62403964996338</t>
   </si>
   <si>
     <t xml:space="preserve">6.5793981552124</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56051158905029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5124363899231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68069887161255</t>
+    <t xml:space="preserve">6.56051206588745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51243686676025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68069839477539</t>
   </si>
   <si>
     <t xml:space="preserve">6.61030292510986</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56909561157227</t>
+    <t xml:space="preserve">6.56909608840942</t>
   </si>
   <si>
     <t xml:space="preserve">6.62918949127197</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66868019104004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85239458084106</t>
+    <t xml:space="preserve">6.66867971420288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85239505767822</t>
   </si>
   <si>
     <t xml:space="preserve">6.78886747360229</t>
@@ -3698,7 +3698,7 @@
     <t xml:space="preserve">6.65837812423706</t>
   </si>
   <si>
-    <t xml:space="preserve">6.77169799804688</t>
+    <t xml:space="preserve">6.77169752120972</t>
   </si>
   <si>
     <t xml:space="preserve">6.6995849609375</t>
@@ -3710,25 +3710,25 @@
     <t xml:space="preserve">6.40770149230957</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39396619796753</t>
+    <t xml:space="preserve">6.39396572113037</t>
   </si>
   <si>
     <t xml:space="preserve">6.55192613601685</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51415300369263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45577621459961</t>
+    <t xml:space="preserve">6.51415348052979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45577669143677</t>
   </si>
   <si>
     <t xml:space="preserve">6.50900268554688</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5587944984436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28841876983643</t>
+    <t xml:space="preserve">6.55879402160645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28841829299927</t>
   </si>
   <si>
     <t xml:space="preserve">6.39482402801514</t>
@@ -3740,13 +3740,13 @@
     <t xml:space="preserve">6.26923036575317</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13665866851807</t>
+    <t xml:space="preserve">6.13665819168091</t>
   </si>
   <si>
     <t xml:space="preserve">6.03548574447632</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07735061645508</t>
+    <t xml:space="preserve">6.07735109329224</t>
   </si>
   <si>
     <t xml:space="preserve">6.0197868347168</t>
@@ -3758,19 +3758,19 @@
     <t xml:space="preserve">6.03374195098877</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06514072418213</t>
+    <t xml:space="preserve">6.06514024734497</t>
   </si>
   <si>
     <t xml:space="preserve">6.02676439285278</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09653806686401</t>
+    <t xml:space="preserve">6.09653854370117</t>
   </si>
   <si>
     <t xml:space="preserve">6.05990695953369</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96745586395264</t>
+    <t xml:space="preserve">5.96745634078979</t>
   </si>
   <si>
     <t xml:space="preserve">6.0302529335022</t>
@@ -3788,16 +3788,16 @@
     <t xml:space="preserve">6.22562122344971</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25004196166992</t>
+    <t xml:space="preserve">6.25004243850708</t>
   </si>
   <si>
     <t xml:space="preserve">6.16980171203613</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20120048522949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39307975769043</t>
+    <t xml:space="preserve">6.20120000839233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39308023452759</t>
   </si>
   <si>
     <t xml:space="preserve">6.24132061004639</t>
@@ -3806,10 +3806,10 @@
     <t xml:space="preserve">6.25527477264404</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45413303375244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44366645812988</t>
+    <t xml:space="preserve">6.45413255691528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44366598129272</t>
   </si>
   <si>
     <t xml:space="preserve">6.41226768493652</t>
@@ -3821,19 +3821,19 @@
     <t xml:space="preserve">6.23608732223511</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38435792922974</t>
+    <t xml:space="preserve">6.38435840606689</t>
   </si>
   <si>
     <t xml:space="preserve">6.2953953742981</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20643329620361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02153062820435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61160659790039</t>
+    <t xml:space="preserve">6.20643377304077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0215311050415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61160707473755</t>
   </si>
   <si>
     <t xml:space="preserve">5.34995269775391</t>
@@ -3842,7 +3842,7 @@
     <t xml:space="preserve">5.56450891494751</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64823865890503</t>
+    <t xml:space="preserve">5.64823818206787</t>
   </si>
   <si>
     <t xml:space="preserve">5.43368196487427</t>
@@ -3860,19 +3860,19 @@
     <t xml:space="preserve">5.58718585968018</t>
   </si>
   <si>
-    <t xml:space="preserve">5.74941062927246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60462951660156</t>
+    <t xml:space="preserve">5.74941110610962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6046290397644</t>
   </si>
   <si>
     <t xml:space="preserve">5.61683988571167</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58369731903076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47554588317871</t>
+    <t xml:space="preserve">5.5836968421936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47554636001587</t>
   </si>
   <si>
     <t xml:space="preserve">5.49996757507324</t>
@@ -3893,22 +3893,22 @@
     <t xml:space="preserve">5.6133508682251</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45810317993164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54008769989014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4633355140686</t>
+    <t xml:space="preserve">5.45810270309448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54008817672729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46333599090576</t>
   </si>
   <si>
     <t xml:space="preserve">5.2697114944458</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32727575302124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40751600265503</t>
+    <t xml:space="preserve">5.3272762298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40751647949219</t>
   </si>
   <si>
     <t xml:space="preserve">5.55404233932495</t>
@@ -3917,31 +3917,31 @@
     <t xml:space="preserve">5.35169744491577</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44240379333496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43891477584839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38309478759766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41449403762817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62556171417236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65172719955444</t>
+    <t xml:space="preserve">5.4424033164978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43891429901123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38309526443481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41449451446533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62556123733521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65172672271729</t>
   </si>
   <si>
     <t xml:space="preserve">5.594162940979</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91686964035034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06688404083252</t>
+    <t xml:space="preserve">5.91686916351318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06688499450684</t>
   </si>
   <si>
     <t xml:space="preserve">5.97268962860107</t>
@@ -3950,7 +3950,7 @@
     <t xml:space="preserve">5.95350122451782</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92384719848633</t>
+    <t xml:space="preserve">5.92384672164917</t>
   </si>
   <si>
     <t xml:space="preserve">5.96920013427734</t>
@@ -3962,7 +3962,7 @@
     <t xml:space="preserve">6.03897476196289</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97617769241333</t>
+    <t xml:space="preserve">5.97617816925049</t>
   </si>
   <si>
     <t xml:space="preserve">5.85930585861206</t>
@@ -3971,13 +3971,13 @@
     <t xml:space="preserve">5.90291452407837</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78429841995239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63079404830933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73022317886353</t>
+    <t xml:space="preserve">5.78429794311523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63079452514648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73022365570068</t>
   </si>
   <si>
     <t xml:space="preserve">5.67091464996338</t>
@@ -3986,7 +3986,7 @@
     <t xml:space="preserve">5.59939622879028</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46682500839233</t>
+    <t xml:space="preserve">5.46682453155518</t>
   </si>
   <si>
     <t xml:space="preserve">5.57846355438232</t>
@@ -3995,7 +3995,7 @@
     <t xml:space="preserve">5.56276416778564</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43193769454956</t>
+    <t xml:space="preserve">5.4319372177124</t>
   </si>
   <si>
     <t xml:space="preserve">5.69010305404663</t>
@@ -4010,7 +4010,7 @@
     <t xml:space="preserve">5.62032794952393</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63777208328247</t>
+    <t xml:space="preserve">5.63777256011963</t>
   </si>
   <si>
     <t xml:space="preserve">5.76685476303101</t>
@@ -4022,40 +4022,40 @@
     <t xml:space="preserve">5.87326097488403</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9587345123291</t>
+    <t xml:space="preserve">5.95873403549194</t>
   </si>
   <si>
     <t xml:space="preserve">5.7354564666748</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70056867599487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78080940246582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51915597915649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58544063568115</t>
+    <t xml:space="preserve">5.70056915283203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78080892562866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51915550231934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58544111251831</t>
   </si>
   <si>
     <t xml:space="preserve">5.62730598449707</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41798257827759</t>
+    <t xml:space="preserve">5.41798305511475</t>
   </si>
   <si>
     <t xml:space="preserve">5.59590721130371</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51566648483276</t>
+    <t xml:space="preserve">5.51566600799561</t>
   </si>
   <si>
     <t xml:space="preserve">5.56974220275879</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40926122665405</t>
+    <t xml:space="preserve">5.40926074981689</t>
   </si>
   <si>
     <t xml:space="preserve">5.64300489425659</t>
@@ -4064,73 +4064,73 @@
     <t xml:space="preserve">5.92035865783691</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85407209396362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83314085006714</t>
+    <t xml:space="preserve">5.85407257080078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83314037322998</t>
   </si>
   <si>
     <t xml:space="preserve">5.77383136749268</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78778743743896</t>
+    <t xml:space="preserve">5.78778648376465</t>
   </si>
   <si>
     <t xml:space="preserve">5.73371171951294</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58020782470703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75813341140747</t>
+    <t xml:space="preserve">5.58020734786987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75813293457031</t>
   </si>
   <si>
     <t xml:space="preserve">5.80871915817261</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93605804443359</t>
+    <t xml:space="preserve">5.93605756759644</t>
   </si>
   <si>
     <t xml:space="preserve">6.01106548309326</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08781719207764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12270402908325</t>
+    <t xml:space="preserve">6.08781671524048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12270355224609</t>
   </si>
   <si>
     <t xml:space="preserve">6.15061378479004</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22387742996216</t>
+    <t xml:space="preserve">6.223876953125</t>
   </si>
   <si>
     <t xml:space="preserve">6.40180206298828</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42447853088379</t>
+    <t xml:space="preserve">6.42447805404663</t>
   </si>
   <si>
     <t xml:space="preserve">6.55356073379517</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63380193710327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61112546920776</t>
+    <t xml:space="preserve">6.63380146026611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61112499237061</t>
   </si>
   <si>
     <t xml:space="preserve">6.53437328338623</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57798147201538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60065841674805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7402081489563</t>
+    <t xml:space="preserve">6.57798194885254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60065889358521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74020767211914</t>
   </si>
   <si>
     <t xml:space="preserve">6.80125999450684</t>
@@ -4139,28 +4139,28 @@
     <t xml:space="preserve">6.77683925628662</t>
   </si>
   <si>
-    <t xml:space="preserve">6.78905010223389</t>
+    <t xml:space="preserve">6.78904962539673</t>
   </si>
   <si>
     <t xml:space="preserve">6.98092889785767</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8971996307373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00535011291504</t>
+    <t xml:space="preserve">6.89720010757446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00534963607788</t>
   </si>
   <si>
     <t xml:space="preserve">7.04547071456909</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01058340072632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00186204910278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05419254302979</t>
+    <t xml:space="preserve">7.01058387756348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00186157226562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05419301986694</t>
   </si>
   <si>
     <t xml:space="preserve">7.05958557128906</t>
@@ -4178,10 +4178,10 @@
     <t xml:space="preserve">7.04160833358765</t>
   </si>
   <si>
-    <t xml:space="preserve">7.08115720748901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07576465606689</t>
+    <t xml:space="preserve">7.08115768432617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07576513290405</t>
   </si>
   <si>
     <t xml:space="preserve">7.24295091629028</t>
@@ -4208,10 +4208,10 @@
     <t xml:space="preserve">7.0146427154541</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09913444519043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1027307510376</t>
+    <t xml:space="preserve">7.09913492202759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10273027420044</t>
   </si>
   <si>
     <t xml:space="preserve">6.98408174514771</t>
@@ -4220,10 +4220,10 @@
     <t xml:space="preserve">6.9319486618042</t>
   </si>
   <si>
-    <t xml:space="preserve">7.11171865463257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06497859954834</t>
+    <t xml:space="preserve">7.11171913146973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0649790763855</t>
   </si>
   <si>
     <t xml:space="preserve">7.03981065750122</t>
@@ -4259,13 +4259,13 @@
     <t xml:space="preserve">7.63485145568848</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71754550933838</t>
+    <t xml:space="preserve">7.71754503250122</t>
   </si>
   <si>
     <t xml:space="preserve">7.7193431854248</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70675897598267</t>
+    <t xml:space="preserve">7.70675945281982</t>
   </si>
   <si>
     <t xml:space="preserve">7.56114482879639</t>
@@ -4280,7 +4280,7 @@
     <t xml:space="preserve">7.7373194694519</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79844188690186</t>
+    <t xml:space="preserve">7.79844093322754</t>
   </si>
   <si>
     <t xml:space="preserve">7.81641912460327</t>
@@ -4307,10 +4307,10 @@
     <t xml:space="preserve">8.13101673126221</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17775726318359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17955589294434</t>
+    <t xml:space="preserve">8.17775630950928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17955493927002</t>
   </si>
   <si>
     <t xml:space="preserve">8.10584926605225</t>
@@ -4328,7 +4328,7 @@
     <t xml:space="preserve">8.32337188720703</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3431453704834</t>
+    <t xml:space="preserve">8.34314632415771</t>
   </si>
   <si>
     <t xml:space="preserve">8.16157817840576</t>
@@ -4340,7 +4340,7 @@
     <t xml:space="preserve">8.12742137908936</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19753265380859</t>
+    <t xml:space="preserve">8.19753170013428</t>
   </si>
   <si>
     <t xml:space="preserve">8.24786853790283</t>
@@ -4364,16 +4364,16 @@
     <t xml:space="preserve">8.43482971191406</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08427810668945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45687770843506</t>
+    <t xml:space="preserve">8.08427715301514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45687818527222</t>
   </si>
   <si>
     <t xml:space="preserve">7.62945795059204</t>
   </si>
   <si>
-    <t xml:space="preserve">7.23216438293457</t>
+    <t xml:space="preserve">7.23216485977173</t>
   </si>
   <si>
     <t xml:space="preserve">7.30227518081665</t>
@@ -4382,13 +4382,13 @@
     <t xml:space="preserve">7.06138324737549</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33283662796021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59170532226562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44968748092651</t>
+    <t xml:space="preserve">7.33283615112305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59170579910278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44968795776367</t>
   </si>
   <si>
     <t xml:space="preserve">7.33822917938232</t>
@@ -4403,22 +4403,22 @@
     <t xml:space="preserve">7.41193580627441</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51979827880859</t>
+    <t xml:space="preserve">7.51979780197144</t>
   </si>
   <si>
     <t xml:space="preserve">7.51260662078857</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60608816146851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55754947662354</t>
+    <t xml:space="preserve">7.60608768463135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55754899978638</t>
   </si>
   <si>
     <t xml:space="preserve">7.47485542297363</t>
   </si>
   <si>
-    <t xml:space="preserve">7.64923238754272</t>
+    <t xml:space="preserve">7.64923286437988</t>
   </si>
   <si>
     <t xml:space="preserve">7.66720914840698</t>
@@ -4427,7 +4427,7 @@
     <t xml:space="preserve">7.67799520492554</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76428556442261</t>
+    <t xml:space="preserve">7.76428461074829</t>
   </si>
   <si>
     <t xml:space="preserve">7.76788091659546</t>
@@ -4436,7 +4436,7 @@
     <t xml:space="preserve">7.78945398330688</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68518686294556</t>
+    <t xml:space="preserve">7.6851863861084</t>
   </si>
   <si>
     <t xml:space="preserve">7.74630832672119</t>
@@ -62367,7 +62367,7 @@
     </row>
     <row r="2184">
       <c r="A2184" s="1" t="n">
-        <v>45503.6495138889</v>
+        <v>45503.2916666667</v>
       </c>
       <c r="B2184" t="n">
         <v>1336738</v>
@@ -62388,6 +62388,32 @@
         <v>1751</v>
       </c>
       <c r="H2184" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2185">
+      <c r="A2185" s="1" t="n">
+        <v>45504.6493055556</v>
+      </c>
+      <c r="B2185" t="n">
+        <v>994734</v>
+      </c>
+      <c r="C2185" t="n">
+        <v>11.039999961853</v>
+      </c>
+      <c r="D2185" t="n">
+        <v>10.8800001144409</v>
+      </c>
+      <c r="E2185" t="n">
+        <v>11.0200004577637</v>
+      </c>
+      <c r="F2185" t="n">
+        <v>10.9099998474121</v>
+      </c>
+      <c r="G2185" t="s">
+        <v>1717</v>
+      </c>
+      <c r="H2185" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BMED.MI.xlsx
+++ b/data/BMED.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="1754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="1755">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,79 +38,79 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32330465316772</t>
+    <t xml:space="preserve">4.32330369949341</t>
   </si>
   <si>
     <t xml:space="preserve">BMED.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26425123214722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99385070800781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90060901641846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89439296722412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92236495018005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.034255027771</t>
+    <t xml:space="preserve">4.26425075531006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99385094642639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90060925483704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8943920135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92236518859863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03425550460815</t>
   </si>
   <si>
     <t xml:space="preserve">4.04047155380249</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75452947616577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72344994544983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76074719429016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54318284988403</t>
+    <t xml:space="preserve">3.75452995300293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72344970703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76074576377869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54318189620972</t>
   </si>
   <si>
     <t xml:space="preserve">3.66750478744507</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90682411193848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91615033149719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91925692558289</t>
+    <t xml:space="preserve">3.90682506561279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91614890098572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91925668716431</t>
   </si>
   <si>
     <t xml:space="preserve">3.82912397384644</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84155535697937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68615317344666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5866961479187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6426408290863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77628588676453</t>
+    <t xml:space="preserve">3.84155559539795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6861526966095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58669567108154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64263987541199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77628636360168</t>
   </si>
   <si>
     <t xml:space="preserve">3.46237349510193</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30386257171631</t>
+    <t xml:space="preserve">3.30386233329773</t>
   </si>
   <si>
     <t xml:space="preserve">3.60534358024597</t>
@@ -119,13 +119,13 @@
     <t xml:space="preserve">3.71723341941833</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78561067581177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88817667961121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8446638584137</t>
+    <t xml:space="preserve">3.78560996055603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88817691802979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84466409683228</t>
   </si>
   <si>
     <t xml:space="preserve">3.84777188301086</t>
@@ -134,13 +134,13 @@
     <t xml:space="preserve">3.95966172218323</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92547345161438</t>
+    <t xml:space="preserve">3.92547297477722</t>
   </si>
   <si>
     <t xml:space="preserve">3.83844780921936</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98763465881348</t>
+    <t xml:space="preserve">3.9876344203949</t>
   </si>
   <si>
     <t xml:space="preserve">4.0746603012085</t>
@@ -149,7 +149,7 @@
     <t xml:space="preserve">4.07155227661133</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21763038635254</t>
+    <t xml:space="preserve">4.21762943267822</t>
   </si>
   <si>
     <t xml:space="preserve">4.23938703536987</t>
@@ -158,61 +158,61 @@
     <t xml:space="preserve">4.13371324539185</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2114143371582</t>
+    <t xml:space="preserve">4.21141386032104</t>
   </si>
   <si>
     <t xml:space="preserve">4.20830631256104</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27357482910156</t>
+    <t xml:space="preserve">4.27357530593872</t>
   </si>
   <si>
     <t xml:space="preserve">4.34816789627075</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33262825012207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30154800415039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23006248474121</t>
+    <t xml:space="preserve">4.33262777328491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30154848098755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23006153106689</t>
   </si>
   <si>
     <t xml:space="preserve">4.28600788116455</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25181865692139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22073841094971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17411708831787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35749292373657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39168119430542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41654539108276</t>
+    <t xml:space="preserve">4.25181913375854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22073793411255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17411804199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35749244689941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39168214797974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41654586791992</t>
   </si>
   <si>
     <t xml:space="preserve">4.24249505996704</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15236186981201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04668807983398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27979183197021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3139796257019</t>
+    <t xml:space="preserve">4.15236139297485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04668760299683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27979135513306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31398010253906</t>
   </si>
   <si>
     <t xml:space="preserve">4.27046680450439</t>
@@ -221,19 +221,19 @@
     <t xml:space="preserve">4.4320855140686</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47559928894043</t>
+    <t xml:space="preserve">4.47559881210327</t>
   </si>
   <si>
     <t xml:space="preserve">4.40100574493408</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50564002990723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43905544281006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51198244094849</t>
+    <t xml:space="preserve">4.50563955307007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4390549659729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51198148727417</t>
   </si>
   <si>
     <t xml:space="preserve">4.54051876068115</t>
@@ -242,19 +242,19 @@
     <t xml:space="preserve">4.53100681304932</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4327130317688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48344469070435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44222497940063</t>
+    <t xml:space="preserve">4.43271255493164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48344564437866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44222545623779</t>
   </si>
   <si>
     <t xml:space="preserve">4.57222604751587</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55637311935425</t>
+    <t xml:space="preserve">4.55637264251709</t>
   </si>
   <si>
     <t xml:space="preserve">4.61661720275879</t>
@@ -272,19 +272,19 @@
     <t xml:space="preserve">4.53417682647705</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63881158828735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4866156578064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49612855911255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48027467727661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51515245437622</t>
+    <t xml:space="preserve">4.63881254196167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48661518096924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49612808227539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48027515411377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51515293121338</t>
   </si>
   <si>
     <t xml:space="preserve">4.4771032333374</t>
@@ -293,94 +293,94 @@
     <t xml:space="preserve">4.50247001647949</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66100597381592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90198421478271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83856964111328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75613021850586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78466653823853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81637334823608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77832508087158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72442245483398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74661827087402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60710477828979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62930059432983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68003225326538</t>
+    <t xml:space="preserve">4.66100692749023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90198469161987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83857011795044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75613069534302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78466701507568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8163743019104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7783260345459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72442197799683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74661779403687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60710430145264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62930107116699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68003273010254</t>
   </si>
   <si>
     <t xml:space="preserve">4.6419825553894</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22027206420898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0331974029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05856513977051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98563647270203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11563730239868</t>
+    <t xml:space="preserve">4.2202730178833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03319787979126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05856418609619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98563718795776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11563777923584</t>
   </si>
   <si>
     <t xml:space="preserve">4.32490730285645</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36929750442505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34710216522217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50881052017212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83027029037476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58612322807312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73514676094055</t>
+    <t xml:space="preserve">4.36929798126221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34710311889648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50881147384644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8302698135376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58612251281738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73514771461487</t>
   </si>
   <si>
     <t xml:space="preserve">3.69709825515747</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8905143737793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90002679824829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75734233856201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70661020278931</t>
+    <t xml:space="preserve">3.89051485061646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90002727508545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75734305381775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70661067962646</t>
   </si>
   <si>
     <t xml:space="preserve">3.64636659622192</t>
@@ -389,22 +389,22 @@
     <t xml:space="preserve">3.6717324256897</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8746600151062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97295427322388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1092963218689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9951503276825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02051544189453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0427098274231</t>
+    <t xml:space="preserve">3.87466049194336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97295355796814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10929584503174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99515008926392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02051496505737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04271078109741</t>
   </si>
   <si>
     <t xml:space="preserve">4.06490564346313</t>
@@ -416,64 +416,64 @@
     <t xml:space="preserve">4.01417350769043</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15368747711182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09027147293091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16002798080444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87783145904541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82075786590576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90636825561523</t>
+    <t xml:space="preserve">4.15368700027466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09027194976807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1600284576416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87783169746399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82075762748718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90636897087097</t>
   </si>
   <si>
     <t xml:space="preserve">4.05222272872925</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07758903503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96344137191772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89685583114624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94441771507263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85246443748474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97612452507019</t>
+    <t xml:space="preserve">4.07758951187134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9634428024292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8968551158905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94441676139832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85246515274048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97612404823303</t>
   </si>
   <si>
     <t xml:space="preserve">4.01734447479248</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94124603271484</t>
+    <t xml:space="preserve">3.94124627113342</t>
   </si>
   <si>
     <t xml:space="preserve">3.96978306770325</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01100254058838</t>
+    <t xml:space="preserve">4.01100158691406</t>
   </si>
   <si>
     <t xml:space="preserve">4.07441806793213</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09344244003296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0553936958313</t>
+    <t xml:space="preserve">4.09344100952148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05539464950562</t>
   </si>
   <si>
     <t xml:space="preserve">4.08076000213623</t>
@@ -482,130 +482,130 @@
     <t xml:space="preserve">4.17271137237549</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11246728897095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98880791664124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02368545532227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00783252716064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78587985038757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85880637168884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77953767776489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83978271484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87149024009705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76685571670532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65270829200745</t>
+    <t xml:space="preserve">4.11246776580811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98880767822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02368593215942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00783157348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78587937355042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85880661010742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77953815460205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83978295326233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87148976325989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76685452461243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6527087688446</t>
   </si>
   <si>
     <t xml:space="preserve">3.69075655937195</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76051378250122</t>
+    <t xml:space="preserve">3.7605140209198</t>
   </si>
   <si>
     <t xml:space="preserve">3.73197722434998</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74148917198181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92222237586975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8810019493103</t>
+    <t xml:space="preserve">3.74148893356323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92222189903259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88100242614746</t>
   </si>
   <si>
     <t xml:space="preserve">3.95709991455078</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89368534088135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95392990112305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79539179801941</t>
+    <t xml:space="preserve">3.89368438720703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95392942428589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79539203643799</t>
   </si>
   <si>
     <t xml:space="preserve">3.86831879615784</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91905045509338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92539286613464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00149059295654</t>
+    <t xml:space="preserve">3.91905117034912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92539238929749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0014910697937</t>
   </si>
   <si>
     <t xml:space="preserve">4.07124757766724</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84295272827148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81441617012024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95075845718384</t>
+    <t xml:space="preserve">3.84295344352722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81441640853882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95075869560242</t>
   </si>
   <si>
     <t xml:space="preserve">4.04905223846436</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90953898429871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86514830589294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77002620697021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75047636032104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.851487159729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87429666519165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8580048084259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90036416053772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94924068450928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98182439804077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03395986557007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06980276107788</t>
+    <t xml:space="preserve">3.90953874588013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86514782905579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77002573013306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75047421455383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85148668289185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87429547309875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85800433158875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90036273002625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94924020767212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98182463645935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03396081924438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06980323791504</t>
   </si>
   <si>
     <t xml:space="preserve">4.26530981063843</t>
@@ -614,22 +614,22 @@
     <t xml:space="preserve">4.34025382995605</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67587518692017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51295280456543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44778347015381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51621055603027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49991798400879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49014234542847</t>
+    <t xml:space="preserve">4.67587566375732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51295185089111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44778251647949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51621007919312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49991846084595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49014282226562</t>
   </si>
   <si>
     <t xml:space="preserve">4.40542316436768</t>
@@ -638,22 +638,22 @@
     <t xml:space="preserve">4.48362636566162</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46081686019897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49665975570679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50317621231079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48036670684814</t>
+    <t xml:space="preserve">4.46081638336182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4966607093811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50317668914795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48036766052246</t>
   </si>
   <si>
     <t xml:space="preserve">4.45104122161865</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50643491744995</t>
+    <t xml:space="preserve">4.50643539428711</t>
   </si>
   <si>
     <t xml:space="preserve">4.52924394607544</t>
@@ -671,13 +671,13 @@
     <t xml:space="preserve">4.65958166122437</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84857177734375</t>
+    <t xml:space="preserve">4.84857130050659</t>
   </si>
   <si>
     <t xml:space="preserve">4.74104356765747</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91374111175537</t>
+    <t xml:space="preserve">4.91374206542969</t>
   </si>
   <si>
     <t xml:space="preserve">4.8159875869751</t>
@@ -689,16 +689,16 @@
     <t xml:space="preserve">4.87463998794556</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81272983551025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80621147155762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68239164352417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8387975692749</t>
+    <t xml:space="preserve">4.8127293586731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80621194839478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68239116668701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83879709243774</t>
   </si>
   <si>
     <t xml:space="preserve">4.77688598632812</t>
@@ -710,61 +710,61 @@
     <t xml:space="preserve">4.77036952972412</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60744667053223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61396408081055</t>
+    <t xml:space="preserve">4.60744714736938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61396360397339</t>
   </si>
   <si>
     <t xml:space="preserve">4.66609907150269</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64980745315552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53576040267944</t>
+    <t xml:space="preserve">4.64980697631836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5357608795166</t>
   </si>
   <si>
     <t xml:space="preserve">4.56182909011841</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54879474639893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63677310943604</t>
+    <t xml:space="preserve">4.54879522323608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63677263259888</t>
   </si>
   <si>
     <t xml:space="preserve">4.69868326187134</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64003086090088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62373828887939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60093021392822</t>
+    <t xml:space="preserve">4.64003133773804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62373876571655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60092973709106</t>
   </si>
   <si>
     <t xml:space="preserve">4.29137754440308</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15452241897583</t>
+    <t xml:space="preserve">4.15452289581299</t>
   </si>
   <si>
     <t xml:space="preserve">4.12519645690918</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0209264755249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04047679901123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0176682472229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15126419067383</t>
+    <t xml:space="preserve">4.02092599868774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04047536849976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01766729354858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15126371383667</t>
   </si>
   <si>
     <t xml:space="preserve">4.20665740966797</t>
@@ -779,7 +779,7 @@
     <t xml:space="preserve">4.21643257141113</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24901819229126</t>
+    <t xml:space="preserve">4.24901723861694</t>
   </si>
   <si>
     <t xml:space="preserve">4.26205205917358</t>
@@ -788,55 +788,55 @@
     <t xml:space="preserve">4.35980463027954</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32721996307373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35328817367554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39564800262451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30441045761108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32070398330688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34351253509521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37935495376587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39890575408936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46407508850098</t>
+    <t xml:space="preserve">4.32722043991089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3532886505127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39564847946167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30441093444824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32070350646973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34351301193237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37935543060303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39890670776367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46407604217529</t>
   </si>
   <si>
     <t xml:space="preserve">4.4738507270813</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50969457626343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54227781295776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48688507080078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44452476501465</t>
+    <t xml:space="preserve">4.50969362258911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54227733612061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48688411712646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44452381134033</t>
   </si>
   <si>
     <t xml:space="preserve">4.40216493606567</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36632204055786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42497444152832</t>
+    <t xml:space="preserve">4.36632108688354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42497396469116</t>
   </si>
   <si>
     <t xml:space="preserve">4.58973073959351</t>
@@ -845,37 +845,37 @@
     <t xml:space="preserve">4.59634399414062</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66578531265259</t>
+    <t xml:space="preserve">4.66578435897827</t>
   </si>
   <si>
     <t xml:space="preserve">4.60295677185059</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64594507217407</t>
+    <t xml:space="preserve">4.64594459533691</t>
   </si>
   <si>
     <t xml:space="preserve">4.6194920539856</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59303760528564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65917253494263</t>
+    <t xml:space="preserve">4.59303712844849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65917158126831</t>
   </si>
   <si>
     <t xml:space="preserve">4.73853302001953</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74184083938599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70877265930176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86088085174561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86749601364136</t>
+    <t xml:space="preserve">4.74184036254883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7087721824646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86088180541992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86749649047852</t>
   </si>
   <si>
     <t xml:space="preserve">4.88072299957275</t>
@@ -884,19 +884,19 @@
     <t xml:space="preserve">4.8774151802063</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92040300369263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79805374145508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81128168106079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89064168930054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99315118789673</t>
+    <t xml:space="preserve">4.92040205001831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79805469512939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81128072738647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89064264297485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99315214157104</t>
   </si>
   <si>
     <t xml:space="preserve">5.05597829818726</t>
@@ -908,13 +908,13 @@
     <t xml:space="preserve">5.00637769699097</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98323059082031</t>
+    <t xml:space="preserve">4.98323106765747</t>
   </si>
   <si>
     <t xml:space="preserve">4.88733577728271</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84765434265137</t>
+    <t xml:space="preserve">4.84765529632568</t>
   </si>
   <si>
     <t xml:space="preserve">4.93693685531616</t>
@@ -923,55 +923,55 @@
     <t xml:space="preserve">4.81789493560791</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94355010986328</t>
+    <t xml:space="preserve">4.94354963302612</t>
   </si>
   <si>
     <t xml:space="preserve">4.96008396148682</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90717601776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82120132446289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79474782943726</t>
+    <t xml:space="preserve">4.90717697143555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82120084762573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7947473526001</t>
   </si>
   <si>
     <t xml:space="preserve">4.83112144470215</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91379022598267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80466794967651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85096216201782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75837421417236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83773422241211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89394950866699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84104156494141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85426807403564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90056228637695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02621793746948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89725589752197</t>
+    <t xml:space="preserve">4.91378974914551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8046669960022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85096168518066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75837326049805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83773517608643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89394903182983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84104108810425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8542685508728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90056324005127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02621841430664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89725637435913</t>
   </si>
   <si>
     <t xml:space="preserve">4.93032217025757</t>
@@ -980,7 +980,7 @@
     <t xml:space="preserve">4.91048336029053</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82781505584717</t>
+    <t xml:space="preserve">4.82781457901001</t>
   </si>
   <si>
     <t xml:space="preserve">4.77821350097656</t>
@@ -989,7 +989,7 @@
     <t xml:space="preserve">4.71538639068604</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85757541656494</t>
+    <t xml:space="preserve">4.85757493972778</t>
   </si>
   <si>
     <t xml:space="preserve">4.83442831039429</t>
@@ -1001,13 +1001,13 @@
     <t xml:space="preserve">4.79144096374512</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75506639480591</t>
+    <t xml:space="preserve">4.75506687164307</t>
   </si>
   <si>
     <t xml:space="preserve">4.73522663116455</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72200012207031</t>
+    <t xml:space="preserve">4.721999168396</t>
   </si>
   <si>
     <t xml:space="preserve">4.65586519241333</t>
@@ -1016,7 +1016,7 @@
     <t xml:space="preserve">4.69554615020752</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74514722824097</t>
+    <t xml:space="preserve">4.74514770507812</t>
   </si>
   <si>
     <t xml:space="preserve">4.67570543289185</t>
@@ -1025,22 +1025,22 @@
     <t xml:space="preserve">4.72530651092529</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77490758895874</t>
+    <t xml:space="preserve">4.77490711212158</t>
   </si>
   <si>
     <t xml:space="preserve">4.80136108398438</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87080240249634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96339082717896</t>
+    <t xml:space="preserve">4.8708028793335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9633903503418</t>
   </si>
   <si>
     <t xml:space="preserve">4.94685649871826</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7716007232666</t>
+    <t xml:space="preserve">4.77159976959229</t>
   </si>
   <si>
     <t xml:space="preserve">4.6856255531311</t>
@@ -1049,43 +1049,43 @@
     <t xml:space="preserve">4.66909217834473</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66247844696045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75176095962524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71869325637817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78813362121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74174547195435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62609338760376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62949419021606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66350936889648</t>
+    <t xml:space="preserve">4.66247892379761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75176000595093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71869277954102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78813409805298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74174451828003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62609386444092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62949514389038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66350984573364</t>
   </si>
   <si>
     <t xml:space="preserve">4.66010856628418</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75535106658936</t>
+    <t xml:space="preserve">4.75535154342651</t>
   </si>
   <si>
     <t xml:space="preserve">4.7655553817749</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77916193008423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88460969924927</t>
+    <t xml:space="preserve">4.77916240692139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88461065292358</t>
   </si>
   <si>
     <t xml:space="preserve">4.88801193237305</t>
@@ -1094,28 +1094,28 @@
     <t xml:space="preserve">4.86079883575439</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86760234832764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84379100799561</t>
+    <t xml:space="preserve">4.86760187149048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84379196166992</t>
   </si>
   <si>
     <t xml:space="preserve">4.90161800384521</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85059404373169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.918625831604</t>
+    <t xml:space="preserve">4.85059499740601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91862535476685</t>
   </si>
   <si>
     <t xml:space="preserve">4.97305011749268</t>
   </si>
   <si>
-    <t xml:space="preserve">5.03427839279175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08530044555664</t>
+    <t xml:space="preserve">5.03427743911743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0853009223938</t>
   </si>
   <si>
     <t xml:space="preserve">4.96624755859375</t>
@@ -1124,25 +1124,25 @@
     <t xml:space="preserve">5.02067184448242</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04788398742676</t>
+    <t xml:space="preserve">5.0478835105896</t>
   </si>
   <si>
     <t xml:space="preserve">4.97645092010498</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99345922470093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9084210395813</t>
+    <t xml:space="preserve">4.99345874786377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90842056274414</t>
   </si>
   <si>
     <t xml:space="preserve">4.81998062133789</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8029727935791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89141273498535</t>
+    <t xml:space="preserve">4.80297327041626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89141321182251</t>
   </si>
   <si>
     <t xml:space="preserve">4.99005746841431</t>
@@ -1151,22 +1151,22 @@
     <t xml:space="preserve">4.98665571212769</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95264053344727</t>
+    <t xml:space="preserve">4.95264005661011</t>
   </si>
   <si>
     <t xml:space="preserve">5.09550523757935</t>
   </si>
   <si>
-    <t xml:space="preserve">5.12271738052368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17033910751343</t>
+    <t xml:space="preserve">5.12271881103516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17033958435059</t>
   </si>
   <si>
     <t xml:space="preserve">5.25877904891968</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28599166870117</t>
+    <t xml:space="preserve">5.28599119186401</t>
   </si>
   <si>
     <t xml:space="preserve">5.3029990196228</t>
@@ -1175,52 +1175,52 @@
     <t xml:space="preserve">5.29619598388672</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33701419830322</t>
+    <t xml:space="preserve">5.33701467514038</t>
   </si>
   <si>
     <t xml:space="preserve">5.38803768157959</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39143991470337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3302116394043</t>
+    <t xml:space="preserve">5.39143943786621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33021211624146</t>
   </si>
   <si>
     <t xml:space="preserve">5.37443161010742</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40844631195068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27238607406616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16353607177734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24857473373413</t>
+    <t xml:space="preserve">5.40844678878784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.272385597229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16353702545166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24857425689697</t>
   </si>
   <si>
     <t xml:space="preserve">5.17714214324951</t>
   </si>
   <si>
-    <t xml:space="preserve">5.07509660720825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76215505599976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80977630615234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92883062362671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91522359848022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95944356918335</t>
+    <t xml:space="preserve">5.07509613037109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7621545791626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80977535247803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92882966995239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91522312164307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95944404602051</t>
   </si>
   <si>
     <t xml:space="preserve">4.9492392539978</t>
@@ -1229,73 +1229,73 @@
     <t xml:space="preserve">4.94583749771118</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95604276657104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06148958206177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03767967224121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82678318023682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78596591949463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8335862159729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90501928329468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9390344619751</t>
+    <t xml:space="preserve">4.95604181289673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06149005889893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03767824172974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82678413391113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78596496582031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83358669281006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90501880645752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93903493881226</t>
   </si>
   <si>
     <t xml:space="preserve">4.93223142623901</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87440490722656</t>
+    <t xml:space="preserve">4.87440586090088</t>
   </si>
   <si>
     <t xml:space="preserve">4.84719276428223</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77576112747192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80637454986572</t>
+    <t xml:space="preserve">4.77576017379761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80637407302856</t>
   </si>
   <si>
     <t xml:space="preserve">4.81657934188843</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73834371566772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79957103729248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7723593711853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76895809173584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72813844680786</t>
+    <t xml:space="preserve">4.73834419250488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7995719909668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77235889434814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76895761489868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72813892364502</t>
   </si>
   <si>
     <t xml:space="preserve">4.71793460845947</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79616975784302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83698797225952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90708827972412</t>
+    <t xml:space="preserve">4.79617071151733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83698844909668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90708875656128</t>
   </si>
   <si>
     <t xml:space="preserve">4.84058666229248</t>
@@ -1304,22 +1304,22 @@
     <t xml:space="preserve">4.70408391952515</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60258293151855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63758325576782</t>
+    <t xml:space="preserve">4.60258197784424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63758277893066</t>
   </si>
   <si>
     <t xml:space="preserve">4.66208362579346</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74958562850952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73208475112915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76008605957031</t>
+    <t xml:space="preserve">4.74958515167236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73208522796631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76008558273315</t>
   </si>
   <si>
     <t xml:space="preserve">4.74608564376831</t>
@@ -1328,28 +1328,28 @@
     <t xml:space="preserve">4.65508413314819</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7145848274231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67608404159546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66558361053467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57458257675171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49758100509644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31207704544067</t>
+    <t xml:space="preserve">4.71458530426025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6760835647583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66558408737183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57458209991455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49758148193359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31207752227783</t>
   </si>
   <si>
     <t xml:space="preserve">4.29107761383057</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27707719802856</t>
+    <t xml:space="preserve">4.27707672119141</t>
   </si>
   <si>
     <t xml:space="preserve">4.22457599639893</t>
@@ -1358,76 +1358,76 @@
     <t xml:space="preserve">4.25957632064819</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27007675170898</t>
+    <t xml:space="preserve">4.27007627487183</t>
   </si>
   <si>
     <t xml:space="preserve">4.24907636642456</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18257522583008</t>
+    <t xml:space="preserve">4.18257474899292</t>
   </si>
   <si>
     <t xml:space="preserve">4.06707334518433</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18607521057129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23157644271851</t>
+    <t xml:space="preserve">4.18607425689697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23157548904419</t>
   </si>
   <si>
     <t xml:space="preserve">4.28057670593262</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09507369995117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16857528686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18957567214966</t>
+    <t xml:space="preserve">4.09507322311401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16857481002808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18957471847534</t>
   </si>
   <si>
     <t xml:space="preserve">4.07057285308838</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21757555007935</t>
+    <t xml:space="preserve">4.2175760269165</t>
   </si>
   <si>
     <t xml:space="preserve">4.15807437896729</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15457439422607</t>
+    <t xml:space="preserve">4.15457534790039</t>
   </si>
   <si>
     <t xml:space="preserve">4.19307518005371</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13707447052002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11957406997681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16507434844971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09857368469238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20707559585571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07407379150391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02857303619385</t>
+    <t xml:space="preserve">4.1370735168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11957454681396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16507387161255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09857273101807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20707607269287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07407331466675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02857255935669</t>
   </si>
   <si>
     <t xml:space="preserve">4.00407123565674</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06357336044312</t>
+    <t xml:space="preserve">4.0635724067688</t>
   </si>
   <si>
     <t xml:space="preserve">4.12657451629639</t>
@@ -1439,34 +1439,34 @@
     <t xml:space="preserve">4.1440749168396</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98657155036926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06007289886475</t>
+    <t xml:space="preserve">3.98657178878784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0600733757019</t>
   </si>
   <si>
     <t xml:space="preserve">4.10207366943359</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04957294464111</t>
+    <t xml:space="preserve">4.04957246780396</t>
   </si>
   <si>
     <t xml:space="preserve">4.05657291412354</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30157709121704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46958112716675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34707832336426</t>
+    <t xml:space="preserve">4.3015775680542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46958065032959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3470778465271</t>
   </si>
   <si>
     <t xml:space="preserve">4.37507820129395</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3295783996582</t>
+    <t xml:space="preserve">4.32957792282104</t>
   </si>
   <si>
     <t xml:space="preserve">4.38907909393311</t>
@@ -1475,13 +1475,13 @@
     <t xml:space="preserve">4.34007835388184</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29807710647583</t>
+    <t xml:space="preserve">4.29807758331299</t>
   </si>
   <si>
     <t xml:space="preserve">4.23507642745972</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24557590484619</t>
+    <t xml:space="preserve">4.24557638168335</t>
   </si>
   <si>
     <t xml:space="preserve">4.22107601165771</t>
@@ -1490,16 +1490,16 @@
     <t xml:space="preserve">4.14757442474365</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21407604217529</t>
+    <t xml:space="preserve">4.21407556533813</t>
   </si>
   <si>
     <t xml:space="preserve">4.25607585906982</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2630763053894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25257539749146</t>
+    <t xml:space="preserve">4.26307678222656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25257587432861</t>
   </si>
   <si>
     <t xml:space="preserve">4.20007514953613</t>
@@ -1508,142 +1508,142 @@
     <t xml:space="preserve">4.17557525634766</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12307357788086</t>
+    <t xml:space="preserve">4.12307405471802</t>
   </si>
   <si>
     <t xml:space="preserve">4.27357625961304</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2035756111145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26657676696777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22807598114014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32257795333862</t>
+    <t xml:space="preserve">4.20357608795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26657629013062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22807550430298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32257747650146</t>
   </si>
   <si>
     <t xml:space="preserve">4.3330774307251</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35407829284668</t>
+    <t xml:space="preserve">4.35407733917236</t>
   </si>
   <si>
     <t xml:space="preserve">4.46608018875122</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44858026504517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46257972717285</t>
+    <t xml:space="preserve">4.44857978820801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46258068084717</t>
   </si>
   <si>
     <t xml:space="preserve">4.47658014297485</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85356903076172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88507032394409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77306723594666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77656769752502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79756784439087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86056971549988</t>
+    <t xml:space="preserve">3.85356998443604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88507056236267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77306842803955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77656745910645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79756832122803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86056995391846</t>
   </si>
   <si>
     <t xml:space="preserve">3.80106830596924</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70306634902954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68206596374512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62956595420837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.605064868927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53856348991394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56306338310242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50706267356873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59106516838074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58756470680237</t>
+    <t xml:space="preserve">3.70306658744812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68206644058228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62956476211548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60506510734558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53856372833252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56306409835815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50706315040588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.591064453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58756494522095</t>
   </si>
   <si>
     <t xml:space="preserve">3.65056562423706</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7100670337677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69956636428833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70656752586365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67506575584412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64006471633911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63656497001648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66754794120789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50365471839905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65297913551331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64569568634033</t>
+    <t xml:space="preserve">3.71006679534912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69956684112549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70656657218933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6750659942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64006495475769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6365659236908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66754770278931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50365543365479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65297937393188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64569520950317</t>
   </si>
   <si>
     <t xml:space="preserve">3.72217845916748</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89699721336365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86057686805725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85693502426147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84965014457703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83143997192383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82415556907654</t>
+    <t xml:space="preserve">3.89699625968933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86057662963867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85693430900574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84964966773987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83143949508667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82415628433228</t>
   </si>
   <si>
     <t xml:space="preserve">3.68211531639099</t>
@@ -1652,79 +1652,79 @@
     <t xml:space="preserve">3.66026329994202</t>
   </si>
   <si>
-    <t xml:space="preserve">3.61728715896606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67847466468811</t>
+    <t xml:space="preserve">3.6172878742218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67847442626953</t>
   </si>
   <si>
     <t xml:space="preserve">3.74403071403503</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81322979927063</t>
+    <t xml:space="preserve">3.81322956085205</t>
   </si>
   <si>
     <t xml:space="preserve">3.72946286201477</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70396828651428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7513153553009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70032596588135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52987813949585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71489357948303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7076096534729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67483139038086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8205132484436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80594491958618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76588320732117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8532919883728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87514448165894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92249131202698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90063905715942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.871502161026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90792298316956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87878608703613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86786127090454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92613315582275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88242888450623</t>
+    <t xml:space="preserve">3.70396780967712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75131511688232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70032572746277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52987766265869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71489381790161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70761060714722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6748321056366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82051396369934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80594515800476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76588296890259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85329246520996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87514495849609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92249155044556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90063858032227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87150239944458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90792322158813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87878656387329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86786007881165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92613339424133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88242840766907</t>
   </si>
   <si>
     <t xml:space="preserve">4.00625801086426</t>
@@ -1733,7 +1733,7 @@
     <t xml:space="preserve">4.15922498703003</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22478151321411</t>
+    <t xml:space="preserve">4.22478199005127</t>
   </si>
   <si>
     <t xml:space="preserve">4.14829874038696</t>
@@ -1742,10 +1742,10 @@
     <t xml:space="preserve">4.28669691085815</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28305435180664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33040189743042</t>
+    <t xml:space="preserve">4.2830548286438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3304009437561</t>
   </si>
   <si>
     <t xml:space="preserve">4.38867425918579</t>
@@ -1754,10 +1754,10 @@
     <t xml:space="preserve">4.3340425491333</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34132671356201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34861135482788</t>
+    <t xml:space="preserve">4.34132766723633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34861087799072</t>
   </si>
   <si>
     <t xml:space="preserve">4.46515703201294</t>
@@ -1766,28 +1766,28 @@
     <t xml:space="preserve">4.42873668670654</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48336791992188</t>
+    <t xml:space="preserve">4.48336839675903</t>
   </si>
   <si>
     <t xml:space="preserve">4.47244119644165</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54528188705444</t>
+    <t xml:space="preserve">4.5452823638916</t>
   </si>
   <si>
     <t xml:space="preserve">4.44330453872681</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49429416656494</t>
+    <t xml:space="preserve">4.49429321289062</t>
   </si>
   <si>
     <t xml:space="preserve">4.54892444610596</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55256652832031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56713438034058</t>
+    <t xml:space="preserve">4.552565574646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56713485717773</t>
   </si>
   <si>
     <t xml:space="preserve">4.61083889007568</t>
@@ -1796,10 +1796,10 @@
     <t xml:space="preserve">4.5780611038208</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60355520248413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61812305450439</t>
+    <t xml:space="preserve">4.60355472564697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61812353134155</t>
   </si>
   <si>
     <t xml:space="preserve">4.58534479141235</t>
@@ -1811,55 +1811,55 @@
     <t xml:space="preserve">4.57077693939209</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59991359710693</t>
+    <t xml:space="preserve">4.59991312026978</t>
   </si>
   <si>
     <t xml:space="preserve">4.65454387664795</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62176561355591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76744747161865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75287914276123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74923753738403</t>
+    <t xml:space="preserve">4.62176465988159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76744794845581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75287961959839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74923706054688</t>
   </si>
   <si>
     <t xml:space="preserve">4.74559497833252</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73831033706665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73466920852661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83664608001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90220355987549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92769718170166</t>
+    <t xml:space="preserve">4.73831129074097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73466968536377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83664655685425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90220308303833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92769765853882</t>
   </si>
   <si>
     <t xml:space="preserve">4.89856100082397</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89127683639526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89503192901611</t>
+    <t xml:space="preserve">4.89127779006958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89503145217896</t>
   </si>
   <si>
     <t xml:space="preserve">4.79743051528931</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8424768447876</t>
+    <t xml:space="preserve">4.84247732162476</t>
   </si>
   <si>
     <t xml:space="preserve">4.84623098373413</t>
@@ -1868,13 +1868,13 @@
     <t xml:space="preserve">4.93632364273071</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91380071640015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88001537322998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72986221313477</t>
+    <t xml:space="preserve">4.91380023956299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8800163269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72986173629761</t>
   </si>
   <si>
     <t xml:space="preserve">4.74112367630005</t>
@@ -1883,73 +1883,73 @@
     <t xml:space="preserve">4.75613832473755</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63976955413818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59096813201904</t>
+    <t xml:space="preserve">4.63976860046387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59096908569336</t>
   </si>
   <si>
     <t xml:space="preserve">4.65478420257568</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59472227096558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65853834152222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61724615097046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61349201202393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54967594146729</t>
+    <t xml:space="preserve">4.59472274780273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65853786468506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61724519729614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61349153518677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54967641830444</t>
   </si>
   <si>
     <t xml:space="preserve">4.56093740463257</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56469202041626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52715349197388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50463008880615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48210716247559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51213788986206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57595300674438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63601493835449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62475299835205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6697998046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65103054046631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59847640991211</t>
+    <t xml:space="preserve">4.5646915435791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52715301513672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50462961196899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48210668563843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51213884353638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57595252990723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63601541519165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62475347518921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66980028152466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65103101730347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59847593307495</t>
   </si>
   <si>
     <t xml:space="preserve">4.62850761413574</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55718469619751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69607639312744</t>
+    <t xml:space="preserve">4.55718421936035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6960768699646</t>
   </si>
   <si>
     <t xml:space="preserve">4.71859931945801</t>
@@ -1967,67 +1967,67 @@
     <t xml:space="preserve">4.79367733001709</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8537392616272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86124610900879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86500072479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00389385223389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04518556594849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99263191223145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98512363433838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94383144378662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0226616859436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01515483856201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05269336700439</t>
+    <t xml:space="preserve">4.85373878479004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86124658584595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86500024795532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00389337539673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04518604278564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9926323890686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98512315750122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94383096694946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02266216278076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01515436172485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05269289016724</t>
   </si>
   <si>
     <t xml:space="preserve">5.07521629333496</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02641630172729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97010898590088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95133876800537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.947585105896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97761631011963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95509338378906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04143238067627</t>
+    <t xml:space="preserve">5.02641677856445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97010850906372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95133924484253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94758558273315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97761583328247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9550929069519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04143190383911</t>
   </si>
   <si>
     <t xml:space="preserve">5.00013971328735</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93256998062134</t>
+    <t xml:space="preserve">4.93256950378418</t>
   </si>
   <si>
     <t xml:space="preserve">4.91755485534668</t>
@@ -2036,28 +2036,28 @@
     <t xml:space="preserve">4.69983100891113</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70358419418335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71109294891357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63226127624512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84998416900635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9588475227356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90629386901855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99638557434082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94007682800293</t>
+    <t xml:space="preserve">4.70358467102051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71109247207642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63226175308228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84998512268066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95884656906128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90629243850708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99638509750366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94007778167725</t>
   </si>
   <si>
     <t xml:space="preserve">5.03767728805542</t>
@@ -2066,37 +2066,37 @@
     <t xml:space="preserve">5.06020069122314</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15404796600342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16530990600586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14278602600098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26290988922119</t>
+    <t xml:space="preserve">5.15404653549194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16530895233154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14278650283813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26290941238403</t>
   </si>
   <si>
     <t xml:space="preserve">5.21035480499268</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23287773132324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28543281555176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29294061660767</t>
+    <t xml:space="preserve">5.2328782081604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2854323387146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29294109344482</t>
   </si>
   <si>
     <t xml:space="preserve">5.25540208816528</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16155481338501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19158601760864</t>
+    <t xml:space="preserve">5.16155576705933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19158554077148</t>
   </si>
   <si>
     <t xml:space="preserve">5.15029382705688</t>
@@ -2111,34 +2111,34 @@
     <t xml:space="preserve">5.16906309127808</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10149383544922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22161674499512</t>
+    <t xml:space="preserve">5.10149335861206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22161722183228</t>
   </si>
   <si>
     <t xml:space="preserve">5.21786260604858</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21410942077637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23663234710693</t>
+    <t xml:space="preserve">5.21410989761353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23663187026978</t>
   </si>
   <si>
     <t xml:space="preserve">5.39804840087891</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44309520721436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48438739776611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52943325042725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5744800567627</t>
+    <t xml:space="preserve">5.44309425354004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48438692092896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5294337272644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57447910308838</t>
   </si>
   <si>
     <t xml:space="preserve">5.64204931259155</t>
@@ -2150,34 +2150,34 @@
     <t xml:space="preserve">5.69084882736206</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7021107673645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72463417053223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76217222213745</t>
+    <t xml:space="preserve">5.70211029052734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72463369369507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76217269897461</t>
   </si>
   <si>
     <t xml:space="preserve">5.77343416213989</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76968097686768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77718830108643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78844928741455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7809419631958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85601902008057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20137453079224</t>
+    <t xml:space="preserve">5.76968050003052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77718877792358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78844976425171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78094148635864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85601949691772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20137405395508</t>
   </si>
   <si>
     <t xml:space="preserve">6.3027286529541</t>
@@ -2192,28 +2192,28 @@
     <t xml:space="preserve">6.45663690567017</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47165155410767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56784200668335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74483156204224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90258264541626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91797304153442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01416301727295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95644903182983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0795726776123</t>
+    <t xml:space="preserve">6.47165107727051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56784152984619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74483060836792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90258359909058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91797256469727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01416206359863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95644855499268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07957077026367</t>
   </si>
   <si>
     <t xml:space="preserve">7.10265684127808</t>
@@ -2225,25 +2225,25 @@
     <t xml:space="preserve">7.09111499786377</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02570581436157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00646686553955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08726644515991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14113187789917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08341884613037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95260047912598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97184038162231</t>
+    <t xml:space="preserve">7.02570486068726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00646734237671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08726692199707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14113283157349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08341932296753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95260000228882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.971839427948</t>
   </si>
   <si>
     <t xml:space="preserve">7.00262022018433</t>
@@ -2252,7 +2252,7 @@
     <t xml:space="preserve">6.97568607330322</t>
   </si>
   <si>
-    <t xml:space="preserve">7.05263948440552</t>
+    <t xml:space="preserve">7.05263900756836</t>
   </si>
   <si>
     <t xml:space="preserve">7.0295524597168</t>
@@ -2261,7 +2261,7 @@
     <t xml:space="preserve">7.02185821533203</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99107694625854</t>
+    <t xml:space="preserve">6.9910774230957</t>
   </si>
   <si>
     <t xml:space="preserve">6.89873504638672</t>
@@ -2270,13 +2270,13 @@
     <t xml:space="preserve">6.86410665512085</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87564992904663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8140869140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84486865997314</t>
+    <t xml:space="preserve">6.87564945220947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81408739089966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8448691368103</t>
   </si>
   <si>
     <t xml:space="preserve">6.752525806427</t>
@@ -2285,31 +2285,31 @@
     <t xml:space="preserve">6.61401319503784</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61786127090454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77176475524902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92566728591919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72174596786499</t>
+    <t xml:space="preserve">6.61786079406738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77176427841187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92566776275635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72174549102783</t>
   </si>
   <si>
     <t xml:space="preserve">6.71789789199829</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8294792175293</t>
+    <t xml:space="preserve">6.82947874069214</t>
   </si>
   <si>
     <t xml:space="preserve">6.74867963790894</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63325119018555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66403102874756</t>
+    <t xml:space="preserve">6.63325023651123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66403150558472</t>
   </si>
   <si>
     <t xml:space="preserve">6.6101655960083</t>
@@ -2321,7 +2321,7 @@
     <t xml:space="preserve">6.55245113372803</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47165107727051</t>
+    <t xml:space="preserve">6.47165060043335</t>
   </si>
   <si>
     <t xml:space="preserve">6.27157688140869</t>
@@ -2333,7 +2333,7 @@
     <t xml:space="preserve">6.37930965423584</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34083318710327</t>
+    <t xml:space="preserve">6.34083366394043</t>
   </si>
   <si>
     <t xml:space="preserve">6.394700050354</t>
@@ -2342,10 +2342,10 @@
     <t xml:space="preserve">6.46395635604858</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50243234634399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49473714828491</t>
+    <t xml:space="preserve">6.50243186950684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49473762512207</t>
   </si>
   <si>
     <t xml:space="preserve">6.49858474731445</t>
@@ -2354,16 +2354,16 @@
     <t xml:space="preserve">6.57553672790527</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6909646987915</t>
+    <t xml:space="preserve">6.69096517562866</t>
   </si>
   <si>
     <t xml:space="preserve">6.72944116592407</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56399393081665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38315773010254</t>
+    <t xml:space="preserve">6.56399440765381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38315725326538</t>
   </si>
   <si>
     <t xml:space="preserve">6.04456901550293</t>
@@ -2372,28 +2372,28 @@
     <t xml:space="preserve">5.99070310592651</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00994062423706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86757946014404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66365718841553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59824800491333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57516288757324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53668689727783</t>
+    <t xml:space="preserve">6.00994110107422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8675799369812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66365766525269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59824848175049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57516241073608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53668737411499</t>
   </si>
   <si>
     <t xml:space="preserve">5.25581216812134</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13268947601318</t>
+    <t xml:space="preserve">5.13268995285034</t>
   </si>
   <si>
     <t xml:space="preserve">4.77101564407349</t>
@@ -2402,97 +2402,97 @@
     <t xml:space="preserve">4.20157194137573</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1554012298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76448535919189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76756381988525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44898271560669</t>
+    <t xml:space="preserve">4.15540075302124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76448583602905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76756358146667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44898247718811</t>
   </si>
   <si>
     <t xml:space="preserve">3.17811226844788</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13809728622437</t>
+    <t xml:space="preserve">3.13809680938721</t>
   </si>
   <si>
     <t xml:space="preserve">3.25660300254822</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24736857414246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63982343673706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74909520149231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95532560348511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82142996788025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63366675376892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57826232910156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5674889087677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57980132102966</t>
+    <t xml:space="preserve">3.24736881256104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63982367515564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74909472465515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95532536506653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82142972946167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63366746902466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57826209068298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56748843193054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5798008441925</t>
   </si>
   <si>
     <t xml:space="preserve">3.51670026779175</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64444041252136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8475935459137</t>
+    <t xml:space="preserve">3.64444065093994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84759330749512</t>
   </si>
   <si>
     <t xml:space="preserve">4.0207347869873</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20926713943481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85913634300232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9053065776825</t>
+    <t xml:space="preserve">4.20926666259766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85913610458374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90530753135681</t>
   </si>
   <si>
     <t xml:space="preserve">4.024582862854</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94763112068176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75986814498901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89761209487915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98610639572144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96686911582947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11692476272583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31315231323242</t>
+    <t xml:space="preserve">3.94763135910034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75986838340759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89761185646057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98610663414001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96686887741089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11692523956299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31315183639526</t>
   </si>
   <si>
     <t xml:space="preserve">4.48629331588745</t>
@@ -2504,52 +2504,52 @@
     <t xml:space="preserve">4.09383916854858</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03227758407593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07844972610474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12461996078491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12846755981445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30545663833618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38240909576416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24004793167114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14385843276978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25928640365601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26698112487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38625574111938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42473220825195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5132269859314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55555009841919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66328287124634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60941600799561</t>
+    <t xml:space="preserve">4.03227710723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07844924926758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12461948394775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12846708297729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30545616149902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.382408618927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24004745483398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14385795593262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25928544998169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26698160171509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38625621795654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42473268508911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51322650909424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55555105209351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66328382492065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60941648483276</t>
   </si>
   <si>
     <t xml:space="preserve">4.57094049453735</t>
@@ -2558,19 +2558,19 @@
     <t xml:space="preserve">4.74023485183716</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79410123825073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.974937915802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2057933807373</t>
+    <t xml:space="preserve">4.79410171508789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97493743896484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20579385757446</t>
   </si>
   <si>
     <t xml:space="preserve">5.32506942749023</t>
   </si>
   <si>
-    <t xml:space="preserve">5.12114715576172</t>
+    <t xml:space="preserve">5.12114667892456</t>
   </si>
   <si>
     <t xml:space="preserve">4.84412002563477</t>
@@ -2579,10 +2579,10 @@
     <t xml:space="preserve">4.86335802078247</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02495670318604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9710898399353</t>
+    <t xml:space="preserve">5.02495718002319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97109031677246</t>
   </si>
   <si>
     <t xml:space="preserve">4.94800472259521</t>
@@ -2597,43 +2597,43 @@
     <t xml:space="preserve">5.02880430221558</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81333875656128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80179595947266</t>
+    <t xml:space="preserve">4.81333923339844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8017954826355</t>
   </si>
   <si>
     <t xml:space="preserve">4.85181522369385</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89413833618164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91722345352173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83642482757568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0634331703186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94031047821045</t>
+    <t xml:space="preserve">4.8941388130188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91722440719604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83642435073853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06343269348145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94031000137329</t>
   </si>
   <si>
     <t xml:space="preserve">5.05958461761475</t>
   </si>
   <si>
-    <t xml:space="preserve">5.03649997711182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82488203048706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94415712356567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00187063217163</t>
+    <t xml:space="preserve">5.03650045394897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82488250732422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94415760040283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00187158584595</t>
   </si>
   <si>
     <t xml:space="preserve">5.07112789154053</t>
@@ -2642,31 +2642,31 @@
     <t xml:space="preserve">5.07497501373291</t>
   </si>
   <si>
-    <t xml:space="preserve">5.09806108474731</t>
+    <t xml:space="preserve">5.09806156158447</t>
   </si>
   <si>
     <t xml:space="preserve">5.21733665466309</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15962219238281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11345100402832</t>
+    <t xml:space="preserve">5.15962266921997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11345195770264</t>
   </si>
   <si>
     <t xml:space="preserve">5.06728029251099</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98648118972778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93261432647705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91337728500366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95185327529907</t>
+    <t xml:space="preserve">4.98648071289062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93261480331421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9133768081665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95185279846191</t>
   </si>
   <si>
     <t xml:space="preserve">4.76716804504395</t>
@@ -2678,40 +2678,40 @@
     <t xml:space="preserve">4.96339511871338</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10190868377686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1865553855896</t>
+    <t xml:space="preserve">5.10190916061401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18655490875244</t>
   </si>
   <si>
     <t xml:space="preserve">5.24042224884033</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15577507019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02110910415649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10575675964355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9787859916687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14038467407227</t>
+    <t xml:space="preserve">5.15577459335327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02111005783081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1057562828064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97878551483154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14038419723511</t>
   </si>
   <si>
     <t xml:space="preserve">5.05188989639282</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08651828765869</t>
+    <t xml:space="preserve">5.08651876449585</t>
   </si>
   <si>
     <t xml:space="preserve">4.92491960525513</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78255844116211</t>
+    <t xml:space="preserve">4.78255891799927</t>
   </si>
   <si>
     <t xml:space="preserve">4.86720514297485</t>
@@ -2720,49 +2720,49 @@
     <t xml:space="preserve">4.87105274200439</t>
   </si>
   <si>
-    <t xml:space="preserve">5.09036636352539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84796857833862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73254013061523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84027242660522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70560693740845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78640604019165</t>
+    <t xml:space="preserve">5.09036588668823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84796810150146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73253965377808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84027290344238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70560646057129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78640556335449</t>
   </si>
   <si>
     <t xml:space="preserve">5.04034757614136</t>
   </si>
   <si>
-    <t xml:space="preserve">4.959547996521</t>
+    <t xml:space="preserve">4.95954751968384</t>
   </si>
   <si>
     <t xml:space="preserve">4.8094916343689</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83257722854614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81718730926514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65558815002441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51707458496094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46320819854736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50937938690186</t>
+    <t xml:space="preserve">4.8325777053833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81718683242798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65558767318726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5170750617981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46320867538452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50937986373901</t>
   </si>
   <si>
     <t xml:space="preserve">4.75562572479248</t>
@@ -2774,34 +2774,34 @@
     <t xml:space="preserve">5.38278245925903</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51744937896729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38663101196289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55592489242554</t>
+    <t xml:space="preserve">5.51744890213013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38663053512573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55592393875122</t>
   </si>
   <si>
     <t xml:space="preserve">5.81756162643433</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80986595153809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73291397094727</t>
+    <t xml:space="preserve">5.80986642837524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73291349411011</t>
   </si>
   <si>
     <t xml:space="preserve">5.84449434280396</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8637318611145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0176362991333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89066553115845</t>
+    <t xml:space="preserve">5.86373138427734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01763582229614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89066505432129</t>
   </si>
   <si>
     <t xml:space="preserve">5.97531223297119</t>
@@ -2810,22 +2810,22 @@
     <t xml:space="preserve">5.85218906402588</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92529392242432</t>
+    <t xml:space="preserve">5.92529296875</t>
   </si>
   <si>
     <t xml:space="preserve">5.76754236221313</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7175235748291</t>
+    <t xml:space="preserve">5.71752309799194</t>
   </si>
   <si>
     <t xml:space="preserve">5.70982885360718</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64441919326782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60209655761719</t>
+    <t xml:space="preserve">5.64441967010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60209608078003</t>
   </si>
   <si>
     <t xml:space="preserve">5.59440088272095</t>
@@ -2834,13 +2834,13 @@
     <t xml:space="preserve">5.50205898284912</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46742963790894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47512483596802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47897338867188</t>
+    <t xml:space="preserve">5.46743011474609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47512531280518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47897243499756</t>
   </si>
   <si>
     <t xml:space="preserve">5.46358251571655</t>
@@ -2849,31 +2849,31 @@
     <t xml:space="preserve">5.44434404373169</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33276462554932</t>
+    <t xml:space="preserve">5.33276414871216</t>
   </si>
   <si>
     <t xml:space="preserve">5.40971660614014</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42895412445068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47127723693848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49821090698242</t>
+    <t xml:space="preserve">5.42895364761353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47127771377563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49821138381958</t>
   </si>
   <si>
     <t xml:space="preserve">5.43664932250977</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44819164276123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65980958938599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63672399520874</t>
+    <t xml:space="preserve">5.44819211959839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65981006622314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63672351837158</t>
   </si>
   <si>
     <t xml:space="preserve">5.62902927398682</t>
@@ -2882,19 +2882,19 @@
     <t xml:space="preserve">5.2750506401062</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14423274993896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07882261276245</t>
+    <t xml:space="preserve">5.14423227310181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07882356643677</t>
   </si>
   <si>
     <t xml:space="preserve">5.16347026824951</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22503137588501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62518167495728</t>
+    <t xml:space="preserve">5.22503185272217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62518119812012</t>
   </si>
   <si>
     <t xml:space="preserve">5.73676156997681</t>
@@ -2906,13 +2906,13 @@
     <t xml:space="preserve">5.87912225723267</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89836072921753</t>
+    <t xml:space="preserve">5.89836025238037</t>
   </si>
   <si>
     <t xml:space="preserve">5.88297033309937</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76369476318359</t>
+    <t xml:space="preserve">5.76369524002075</t>
   </si>
   <si>
     <t xml:space="preserve">5.67904806137085</t>
@@ -2921,13 +2921,13 @@
     <t xml:space="preserve">5.69443798065186</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75984764099121</t>
+    <t xml:space="preserve">5.75984668731689</t>
   </si>
   <si>
     <t xml:space="preserve">5.62133359909058</t>
   </si>
   <si>
-    <t xml:space="preserve">5.6521143913269</t>
+    <t xml:space="preserve">5.65211391448975</t>
   </si>
   <si>
     <t xml:space="preserve">5.55977201461792</t>
@@ -2936,46 +2936,46 @@
     <t xml:space="preserve">5.74445676803589</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77523708343506</t>
+    <t xml:space="preserve">5.77523803710938</t>
   </si>
   <si>
     <t xml:space="preserve">5.75215148925781</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85988473892212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92144584655762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95992183685303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97915983200073</t>
+    <t xml:space="preserve">5.85988426208496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92144632339478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95992136001587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97916030883789</t>
   </si>
   <si>
     <t xml:space="preserve">5.96376991271973</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97146511077881</t>
+    <t xml:space="preserve">5.97146463394165</t>
   </si>
   <si>
     <t xml:space="preserve">6.09843587875366</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25233888626099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.159996509552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18308305740356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09073972702026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13306379318237</t>
+    <t xml:space="preserve">6.2523398399353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15999746322632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18308258056641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09074020385742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13306331634521</t>
   </si>
   <si>
     <t xml:space="preserve">6.14075899124146</t>
@@ -2984,16 +2984,16 @@
     <t xml:space="preserve">6.2254056930542</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19462585449219</t>
+    <t xml:space="preserve">6.19462537765503</t>
   </si>
   <si>
     <t xml:space="preserve">6.17461776733398</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21001577377319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12844657897949</t>
+    <t xml:space="preserve">6.21001482009888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12844753265381</t>
   </si>
   <si>
     <t xml:space="preserve">6.04379987716675</t>
@@ -3002,52 +3002,52 @@
     <t xml:space="preserve">6.10689973831177</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05457305908203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05765056610107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00224637985229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02225399017334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08535289764404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02994871139526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95761394500732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01455736160278</t>
+    <t xml:space="preserve">6.05457258224487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05765104293823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00224590301514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02225303649902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08535385131836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02994823455811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95761346817017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01455783843994</t>
   </si>
   <si>
     <t xml:space="preserve">6.04072141647339</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01301908493042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98069906234741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10843992233276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01147937774658</t>
+    <t xml:space="preserve">6.01301860809326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98069858551025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10843944549561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0114803314209</t>
   </si>
   <si>
     <t xml:space="preserve">6.082275390625</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16846179962158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23925733566284</t>
+    <t xml:space="preserve">6.16846132278442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23925638198853</t>
   </si>
   <si>
     <t xml:space="preserve">6.21463298797607</t>
@@ -3059,19 +3059,19 @@
     <t xml:space="preserve">6.06688499450684</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08843183517456</t>
+    <t xml:space="preserve">6.08843231201172</t>
   </si>
   <si>
     <t xml:space="preserve">6.03918218612671</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12463569641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07521820068359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07367372512817</t>
+    <t xml:space="preserve">6.12463521957397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07521772384644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07367420196533</t>
   </si>
   <si>
     <t xml:space="preserve">6.0891170501709</t>
@@ -3083,31 +3083,31 @@
     <t xml:space="preserve">6.24354600906372</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22810220718384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24045705795288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21729230880737</t>
+    <t xml:space="preserve">6.228102684021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24045610427856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21729278564453</t>
   </si>
   <si>
     <t xml:space="preserve">6.26516580581665</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3856201171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4242262840271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30686140060425</t>
+    <t xml:space="preserve">6.38561964035034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42422580718994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30686092376709</t>
   </si>
   <si>
     <t xml:space="preserve">6.34546852111816</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37172079086304</t>
+    <t xml:space="preserve">6.3717212677002</t>
   </si>
   <si>
     <t xml:space="preserve">6.34237957000732</t>
@@ -3119,67 +3119,67 @@
     <t xml:space="preserve">6.46283388137817</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34855651855469</t>
+    <t xml:space="preserve">6.34855699539185</t>
   </si>
   <si>
     <t xml:space="preserve">6.32384777069092</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2790641784668</t>
+    <t xml:space="preserve">6.27906322479248</t>
   </si>
   <si>
     <t xml:space="preserve">6.35318946838379</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53232622146606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33311319351196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47982168197632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33465909957886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33774614334106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35936641693115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35782241821289</t>
+    <t xml:space="preserve">6.53232669830322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33311367034912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47982120513916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3346586227417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33774662017822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35936689376831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35782337188721</t>
   </si>
   <si>
     <t xml:space="preserve">6.36091089248657</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32075929641724</t>
+    <t xml:space="preserve">6.32075977325439</t>
   </si>
   <si>
     <t xml:space="preserve">6.21265935897827</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30531692504883</t>
+    <t xml:space="preserve">6.30531740188599</t>
   </si>
   <si>
     <t xml:space="preserve">6.40723991394043</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3408350944519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36245489120483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26979827880859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25744390487671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99800395965576</t>
+    <t xml:space="preserve">6.34083557128906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36245536804199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26979780197144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25744438171387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9980034828186</t>
   </si>
   <si>
     <t xml:space="preserve">6.04587650299072</t>
@@ -3188,7 +3188,7 @@
     <t xml:space="preserve">6.24200057983398</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29141855239868</t>
+    <t xml:space="preserve">6.29141807556152</t>
   </si>
   <si>
     <t xml:space="preserve">6.34701251983643</t>
@@ -3200,67 +3200,67 @@
     <t xml:space="preserve">6.51070690155029</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48754262924194</t>
+    <t xml:space="preserve">6.4875431060791</t>
   </si>
   <si>
     <t xml:space="preserve">6.48290967941284</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41187191009521</t>
+    <t xml:space="preserve">6.41187238693237</t>
   </si>
   <si>
     <t xml:space="preserve">6.4273157119751</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39334106445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4381251335144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49680805206299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57865619659424</t>
+    <t xml:space="preserve">6.39334154129028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43812561035156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49680757522583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57865524291992</t>
   </si>
   <si>
     <t xml:space="preserve">6.66204690933228</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67131280899048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76705837249756</t>
+    <t xml:space="preserve">6.67131233215332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7670578956604</t>
   </si>
   <si>
     <t xml:space="preserve">6.74698257446289</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79022264480591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74852705001831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79948854446411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65278196334839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62652826309204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69293212890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68212223052979</t>
+    <t xml:space="preserve">6.79022216796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74852657318115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79948759078979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65278148651123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62652778625488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69293308258057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68212270736694</t>
   </si>
   <si>
     <t xml:space="preserve">6.70991897583008</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69602060317993</t>
+    <t xml:space="preserve">6.69602108001709</t>
   </si>
   <si>
     <t xml:space="preserve">6.75315952301025</t>
@@ -3275,37 +3275,37 @@
     <t xml:space="preserve">6.78558921813965</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81029748916626</t>
+    <t xml:space="preserve">6.81029796600342</t>
   </si>
   <si>
     <t xml:space="preserve">6.8133864402771</t>
   </si>
   <si>
-    <t xml:space="preserve">6.77941179275513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75933599472046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75624752044678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72381830215454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88751173019409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93229675292969</t>
+    <t xml:space="preserve">6.77941274642944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75933694839478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75624847412109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7238187789917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88751268386841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93229722976685</t>
   </si>
   <si>
     <t xml:space="preserve">6.88133525848389</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93847322463989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87515830993652</t>
+    <t xml:space="preserve">6.93847370147705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87515878677368</t>
   </si>
   <si>
     <t xml:space="preserve">6.66667938232422</t>
@@ -3314,13 +3314,13 @@
     <t xml:space="preserve">6.87824678421021</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09907960891724</t>
+    <t xml:space="preserve">7.09907913208008</t>
   </si>
   <si>
     <t xml:space="preserve">7.04811811447144</t>
   </si>
   <si>
-    <t xml:space="preserve">7.07591438293457</t>
+    <t xml:space="preserve">7.07591533660889</t>
   </si>
   <si>
     <t xml:space="preserve">7.07282638549805</t>
@@ -3329,16 +3329,16 @@
     <t xml:space="preserve">7.15776348114014</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21953392028809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33535480499268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35234260559082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49905014038086</t>
+    <t xml:space="preserve">7.2195348739624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33535432815552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3523416519165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4990496635437</t>
   </si>
   <si>
     <t xml:space="preserve">7.38940477371216</t>
@@ -3350,10 +3350,10 @@
     <t xml:space="preserve">7.45735359191895</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51294660568237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61178255081177</t>
+    <t xml:space="preserve">7.51294803619385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61178207397461</t>
   </si>
   <si>
     <t xml:space="preserve">7.51758098602295</t>
@@ -3362,10 +3362,10 @@
     <t xml:space="preserve">7.57626390457153</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61487054824829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63771915435791</t>
+    <t xml:space="preserve">7.61487102508545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63771820068359</t>
   </si>
   <si>
     <t xml:space="preserve">7.49894285202026</t>
@@ -3377,28 +3377,28 @@
     <t xml:space="preserve">7.41199827194214</t>
   </si>
   <si>
-    <t xml:space="preserve">7.39862203598022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34177303314209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45212554931641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39360523223877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34511756896973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27823781967163</t>
+    <t xml:space="preserve">7.39862251281738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34177350997925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45212602615356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39360570907593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34511804580688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27823829650879</t>
   </si>
   <si>
     <t xml:space="preserve">7.36350917816162</t>
   </si>
   <si>
-    <t xml:space="preserve">7.26820659637451</t>
+    <t xml:space="preserve">7.2682056427002</t>
   </si>
   <si>
     <t xml:space="preserve">7.33174228668213</t>
@@ -3407,67 +3407,67 @@
     <t xml:space="preserve">7.47553491592407</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44878244400024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45547008514404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53739833831787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58086919784546</t>
+    <t xml:space="preserve">7.44878196716309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4554705619812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53739881515503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58087015151978</t>
   </si>
   <si>
     <t xml:space="preserve">7.58923053741455</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65778255462646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64273452758789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54408693313599</t>
+    <t xml:space="preserve">7.65778207778931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64273500442505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54408645629883</t>
   </si>
   <si>
     <t xml:space="preserve">7.4537992477417</t>
   </si>
   <si>
-    <t xml:space="preserve">7.34344673156738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5048394203186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36576652526855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58038663864136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48251962661743</t>
+    <t xml:space="preserve">7.34344625473022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50483989715576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36576700210571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5803861618042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48251914978027</t>
   </si>
   <si>
     <t xml:space="preserve">7.14599561691284</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20265483856201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08075094223022</t>
+    <t xml:space="preserve">7.20265531539917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08075046539307</t>
   </si>
   <si>
     <t xml:space="preserve">7.26446628570557</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20780611038208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24557828903198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32627725601196</t>
+    <t xml:space="preserve">7.20780658721924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24557876586914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3262767791748</t>
   </si>
   <si>
     <t xml:space="preserve">7.47736883163452</t>
@@ -3476,7 +3476,7 @@
     <t xml:space="preserve">7.40697383880615</t>
   </si>
   <si>
-    <t xml:space="preserve">7.34001207351685</t>
+    <t xml:space="preserve">7.340012550354</t>
   </si>
   <si>
     <t xml:space="preserve">7.28850269317627</t>
@@ -3485,22 +3485,22 @@
     <t xml:space="preserve">7.27820110321045</t>
   </si>
   <si>
-    <t xml:space="preserve">7.28335237503052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29880428314209</t>
+    <t xml:space="preserve">7.28335285186768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29880475997925</t>
   </si>
   <si>
     <t xml:space="preserve">7.20952224731445</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98631763458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19235372543335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2524471282959</t>
+    <t xml:space="preserve">6.98631715774536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19235324859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25244665145874</t>
   </si>
   <si>
     <t xml:space="preserve">7.37091732025146</t>
@@ -3530,34 +3530,34 @@
     <t xml:space="preserve">7.59240436553955</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66280031204224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80359220504761</t>
+    <t xml:space="preserve">7.66279983520508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80359268188477</t>
   </si>
   <si>
     <t xml:space="preserve">7.94953346252441</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97872161865234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82247829437256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7881383895874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60442399978638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59755659103394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50140619277954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16831684112549</t>
+    <t xml:space="preserve">7.9787220954895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82247877120972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78813886642456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60442352294922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59755706787109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5014066696167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16831636428833</t>
   </si>
   <si>
     <t xml:space="preserve">7.17861795425415</t>
@@ -3572,16 +3572,16 @@
     <t xml:space="preserve">7.23356056213379</t>
   </si>
   <si>
-    <t xml:space="preserve">7.35203075408936</t>
+    <t xml:space="preserve">7.35203123092651</t>
   </si>
   <si>
     <t xml:space="preserve">7.46363353729248</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56665134429932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49282169342041</t>
+    <t xml:space="preserve">7.56665086746216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49282121658325</t>
   </si>
   <si>
     <t xml:space="preserve">7.22497606277466</t>
@@ -3590,13 +3590,13 @@
     <t xml:space="preserve">7.32112455368042</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49453830718994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60614156723022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34859752655029</t>
+    <t xml:space="preserve">7.49453735351562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60614109039307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34859704971313</t>
   </si>
   <si>
     <t xml:space="preserve">7.09792041778564</t>
@@ -3605,22 +3605,22 @@
     <t xml:space="preserve">7.29708814620972</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24042797088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1425609588623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11852312088013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04297780990601</t>
+    <t xml:space="preserve">7.24042749404907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14256048202515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11852359771729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04297828674316</t>
   </si>
   <si>
     <t xml:space="preserve">6.97429895401001</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03095817565918</t>
+    <t xml:space="preserve">7.03095865249634</t>
   </si>
   <si>
     <t xml:space="preserve">6.43345642089844</t>
@@ -3632,7 +3632,7 @@
     <t xml:space="preserve">6.32013654708862</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08491277694702</t>
+    <t xml:space="preserve">6.08491325378418</t>
   </si>
   <si>
     <t xml:space="preserve">6.11238431930542</t>
@@ -3644,7 +3644,7 @@
     <t xml:space="preserve">5.58012580871582</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5148811340332</t>
+    <t xml:space="preserve">5.51488161087036</t>
   </si>
   <si>
     <t xml:space="preserve">5.67284202575684</t>
@@ -3653,13 +3653,13 @@
     <t xml:space="preserve">6.29438209533691</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92866945266724</t>
+    <t xml:space="preserve">5.92866897583008</t>
   </si>
   <si>
     <t xml:space="preserve">6.06259250640869</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16389274597168</t>
+    <t xml:space="preserve">6.16389322280884</t>
   </si>
   <si>
     <t xml:space="preserve">6.2960991859436</t>
@@ -3692,19 +3692,19 @@
     <t xml:space="preserve">6.66867971420288</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85239505767822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78886699676514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65837812423706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77169799804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6995849609375</t>
+    <t xml:space="preserve">6.85239458084106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78886747360229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65837860107422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77169752120972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69958543777466</t>
   </si>
   <si>
     <t xml:space="preserve">6.63777446746826</t>
@@ -3725,7 +3725,7 @@
     <t xml:space="preserve">6.45577669143677</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50900268554688</t>
+    <t xml:space="preserve">6.50900173187256</t>
   </si>
   <si>
     <t xml:space="preserve">6.55879402160645</t>
@@ -3737,13 +3737,13 @@
     <t xml:space="preserve">6.39482402801514</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36691474914551</t>
+    <t xml:space="preserve">6.36691427230835</t>
   </si>
   <si>
     <t xml:space="preserve">6.26923036575317</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13665866851807</t>
+    <t xml:space="preserve">6.13665819168091</t>
   </si>
   <si>
     <t xml:space="preserve">6.03548622131348</t>
@@ -3752,13 +3752,13 @@
     <t xml:space="preserve">6.07735061645508</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0197868347168</t>
+    <t xml:space="preserve">6.01978731155396</t>
   </si>
   <si>
     <t xml:space="preserve">6.08432817459106</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03374195098877</t>
+    <t xml:space="preserve">6.03374242782593</t>
   </si>
   <si>
     <t xml:space="preserve">6.06514024734497</t>
@@ -3767,22 +3767,22 @@
     <t xml:space="preserve">6.02676439285278</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09653806686401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05990695953369</t>
+    <t xml:space="preserve">6.09653854370117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05990743637085</t>
   </si>
   <si>
     <t xml:space="preserve">5.96745586395264</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0302529335022</t>
+    <t xml:space="preserve">6.03025245666504</t>
   </si>
   <si>
     <t xml:space="preserve">6.30237340927124</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14189195632935</t>
+    <t xml:space="preserve">6.14189147949219</t>
   </si>
   <si>
     <t xml:space="preserve">6.19073390960693</t>
@@ -3791,16 +3791,16 @@
     <t xml:space="preserve">6.22562122344971</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25004196166992</t>
+    <t xml:space="preserve">6.25004243850708</t>
   </si>
   <si>
     <t xml:space="preserve">6.16980171203613</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20120000839233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39307975769043</t>
+    <t xml:space="preserve">6.20120048522949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39307928085327</t>
   </si>
   <si>
     <t xml:space="preserve">6.24132061004639</t>
@@ -3815,7 +3815,7 @@
     <t xml:space="preserve">6.44366645812988</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41226768493652</t>
+    <t xml:space="preserve">6.41226816177368</t>
   </si>
   <si>
     <t xml:space="preserve">6.34074926376343</t>
@@ -3824,16 +3824,16 @@
     <t xml:space="preserve">6.23608779907227</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38435792922974</t>
+    <t xml:space="preserve">6.38435840606689</t>
   </si>
   <si>
     <t xml:space="preserve">6.2953953742981</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20643329620361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02153062820435</t>
+    <t xml:space="preserve">6.20643281936646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0215311050415</t>
   </si>
   <si>
     <t xml:space="preserve">5.61160659790039</t>
@@ -3845,28 +3845,28 @@
     <t xml:space="preserve">5.56450891494751</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64823865890503</t>
+    <t xml:space="preserve">5.64823770523071</t>
   </si>
   <si>
     <t xml:space="preserve">5.43368196487427</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4790358543396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5505542755127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55229806900024</t>
+    <t xml:space="preserve">5.47903537750244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55055379867554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5522985458374</t>
   </si>
   <si>
     <t xml:space="preserve">5.58718585968018</t>
   </si>
   <si>
-    <t xml:space="preserve">5.74941062927246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60462951660156</t>
+    <t xml:space="preserve">5.74941110610962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6046290397644</t>
   </si>
   <si>
     <t xml:space="preserve">5.61683940887451</t>
@@ -3875,7 +3875,7 @@
     <t xml:space="preserve">5.5836968421936</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47554588317871</t>
+    <t xml:space="preserve">5.47554636001587</t>
   </si>
   <si>
     <t xml:space="preserve">5.49996757507324</t>
@@ -3887,22 +3887,22 @@
     <t xml:space="preserve">5.20865964889526</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30111074447632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45984745025635</t>
+    <t xml:space="preserve">5.30111122131348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45984697341919</t>
   </si>
   <si>
     <t xml:space="preserve">5.6133508682251</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45810317993164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54008769989014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4633355140686</t>
+    <t xml:space="preserve">5.45810270309448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54008817672729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46333599090576</t>
   </si>
   <si>
     <t xml:space="preserve">5.2697114944458</t>
@@ -3923,10 +3923,10 @@
     <t xml:space="preserve">5.4424033164978</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43891477584839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38309478759766</t>
+    <t xml:space="preserve">5.43891525268555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38309526443481</t>
   </si>
   <si>
     <t xml:space="preserve">5.41449451446533</t>
@@ -3944,10 +3944,10 @@
     <t xml:space="preserve">5.91686916351318</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06688451766968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97268915176392</t>
+    <t xml:space="preserve">6.06688404083252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97268867492676</t>
   </si>
   <si>
     <t xml:space="preserve">5.95350170135498</t>
@@ -3962,16 +3962,16 @@
     <t xml:space="preserve">6.00408744812012</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03897476196289</t>
+    <t xml:space="preserve">6.03897428512573</t>
   </si>
   <si>
     <t xml:space="preserve">5.97617769241333</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8593053817749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90291452407837</t>
+    <t xml:space="preserve">5.85930585861206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90291500091553</t>
   </si>
   <si>
     <t xml:space="preserve">5.78429841995239</t>
@@ -3980,19 +3980,19 @@
     <t xml:space="preserve">5.63079452514648</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73022317886353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67091417312622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59939670562744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46682500839233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57846307754517</t>
+    <t xml:space="preserve">5.73022270202637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67091512680054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59939622879028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46682453155518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57846355438232</t>
   </si>
   <si>
     <t xml:space="preserve">5.56276416778564</t>
@@ -4001,7 +4001,7 @@
     <t xml:space="preserve">5.4319372177124</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69010305404663</t>
+    <t xml:space="preserve">5.69010257720947</t>
   </si>
   <si>
     <t xml:space="preserve">5.51043367385864</t>
@@ -4013,10 +4013,10 @@
     <t xml:space="preserve">5.62032794952393</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63777256011963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76685476303101</t>
+    <t xml:space="preserve">5.63777208328247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76685428619385</t>
   </si>
   <si>
     <t xml:space="preserve">6.00757646560669</t>
@@ -4025,7 +4025,7 @@
     <t xml:space="preserve">5.87326097488403</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9587345123291</t>
+    <t xml:space="preserve">5.95873403549194</t>
   </si>
   <si>
     <t xml:space="preserve">5.7354564666748</t>
@@ -4043,10 +4043,10 @@
     <t xml:space="preserve">5.58544063568115</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62730550765991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41798257827759</t>
+    <t xml:space="preserve">5.62730598449707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41798210144043</t>
   </si>
   <si>
     <t xml:space="preserve">5.59590721130371</t>
@@ -4055,16 +4055,16 @@
     <t xml:space="preserve">5.51566648483276</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56974220275879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40926074981689</t>
+    <t xml:space="preserve">5.56974172592163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40926122665405</t>
   </si>
   <si>
     <t xml:space="preserve">5.64300489425659</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92035865783691</t>
+    <t xml:space="preserve">5.92035818099976</t>
   </si>
   <si>
     <t xml:space="preserve">5.85407209396362</t>
@@ -4079,7 +4079,7 @@
     <t xml:space="preserve">5.78778696060181</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73371171951294</t>
+    <t xml:space="preserve">5.7337121963501</t>
   </si>
   <si>
     <t xml:space="preserve">5.58020782470703</t>
@@ -4091,10 +4091,10 @@
     <t xml:space="preserve">5.80871915817261</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93605804443359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01106548309326</t>
+    <t xml:space="preserve">5.93605756759644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0110650062561</t>
   </si>
   <si>
     <t xml:space="preserve">6.08781671524048</t>
@@ -4109,10 +4109,10 @@
     <t xml:space="preserve">6.223876953125</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40180158615112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42447805404663</t>
+    <t xml:space="preserve">6.40180206298828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42447853088379</t>
   </si>
   <si>
     <t xml:space="preserve">6.55356073379517</t>
@@ -4121,13 +4121,13 @@
     <t xml:space="preserve">6.63380193710327</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61112499237061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53437328338623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57798147201538</t>
+    <t xml:space="preserve">6.61112451553345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53437376022339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57798194885254</t>
   </si>
   <si>
     <t xml:space="preserve">6.60065889358521</t>
@@ -4139,19 +4139,19 @@
     <t xml:space="preserve">6.80125999450684</t>
   </si>
   <si>
-    <t xml:space="preserve">6.77683973312378</t>
+    <t xml:space="preserve">6.77683925628662</t>
   </si>
   <si>
     <t xml:space="preserve">6.78904962539673</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98092889785767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8971996307373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00535011291504</t>
+    <t xml:space="preserve">6.98092937469482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89720010757446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00534963607788</t>
   </si>
   <si>
     <t xml:space="preserve">7.04547071456909</t>
@@ -4169,22 +4169,22 @@
     <t xml:space="preserve">7.05958557128906</t>
   </si>
   <si>
-    <t xml:space="preserve">7.08475351333618</t>
+    <t xml:space="preserve">7.08475303649902</t>
   </si>
   <si>
     <t xml:space="preserve">7.11531448364258</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02542877197266</t>
+    <t xml:space="preserve">7.02542924880981</t>
   </si>
   <si>
     <t xml:space="preserve">7.04160833358765</t>
   </si>
   <si>
-    <t xml:space="preserve">7.08115720748901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07576465606689</t>
+    <t xml:space="preserve">7.08115768432617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07576513290405</t>
   </si>
   <si>
     <t xml:space="preserve">7.24295091629028</t>
@@ -4193,7 +4193,7 @@
     <t xml:space="preserve">7.08295583724976</t>
   </si>
   <si>
-    <t xml:space="preserve">7.17284059524536</t>
+    <t xml:space="preserve">7.17284107208252</t>
   </si>
   <si>
     <t xml:space="preserve">7.12969589233398</t>
@@ -4205,7 +4205,7 @@
     <t xml:space="preserve">7.0218334197998</t>
   </si>
   <si>
-    <t xml:space="preserve">7.07756280899048</t>
+    <t xml:space="preserve">7.07756233215332</t>
   </si>
   <si>
     <t xml:space="preserve">7.0146427154541</t>
@@ -4220,7 +4220,7 @@
     <t xml:space="preserve">6.98408174514771</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9319486618042</t>
+    <t xml:space="preserve">6.93194818496704</t>
   </si>
   <si>
     <t xml:space="preserve">7.11171865463257</t>
@@ -4229,34 +4229,34 @@
     <t xml:space="preserve">7.06497859954834</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03981065750122</t>
+    <t xml:space="preserve">7.03981018066406</t>
   </si>
   <si>
     <t xml:space="preserve">7.00924968719482</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09733724594116</t>
+    <t xml:space="preserve">7.097336769104</t>
   </si>
   <si>
     <t xml:space="preserve">7.117112159729</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24654722213745</t>
+    <t xml:space="preserve">7.24654674530029</t>
   </si>
   <si>
     <t xml:space="preserve">7.20879554748535</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30407381057739</t>
+    <t xml:space="preserve">7.30407333374023</t>
   </si>
   <si>
     <t xml:space="preserve">7.44609212875366</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46047353744507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59350395202637</t>
+    <t xml:space="preserve">7.46047401428223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59350347518921</t>
   </si>
   <si>
     <t xml:space="preserve">7.63485145568848</t>
@@ -4283,16 +4283,16 @@
     <t xml:space="preserve">7.7373194694519</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79844188690186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81641912460327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88113641738892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87933874130249</t>
+    <t xml:space="preserve">7.79844236373901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81641864776611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88113689422607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87933778762817</t>
   </si>
   <si>
     <t xml:space="preserve">7.96023559570312</t>
@@ -4310,7 +4310,7 @@
     <t xml:space="preserve">8.13101673126221</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17775726318359</t>
+    <t xml:space="preserve">8.17775630950928</t>
   </si>
   <si>
     <t xml:space="preserve">8.17955589294434</t>
@@ -4319,7 +4319,7 @@
     <t xml:space="preserve">8.10584926605225</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22989082336426</t>
+    <t xml:space="preserve">8.22989177703857</t>
   </si>
   <si>
     <t xml:space="preserve">8.26404762268066</t>
@@ -4331,7 +4331,7 @@
     <t xml:space="preserve">8.32337188720703</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3431453704834</t>
+    <t xml:space="preserve">8.34314632415771</t>
   </si>
   <si>
     <t xml:space="preserve">8.16157817840576</t>
@@ -4352,19 +4352,19 @@
     <t xml:space="preserve">8.2388801574707</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24427223205566</t>
+    <t xml:space="preserve">8.24427318572998</t>
   </si>
   <si>
     <t xml:space="preserve">8.3143835067749</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3701114654541</t>
+    <t xml:space="preserve">8.37011241912842</t>
   </si>
   <si>
     <t xml:space="preserve">8.37909984588623</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43482971191406</t>
+    <t xml:space="preserve">8.43482875823975</t>
   </si>
   <si>
     <t xml:space="preserve">8.08427810668945</t>
@@ -4376,10 +4376,10 @@
     <t xml:space="preserve">7.62945795059204</t>
   </si>
   <si>
-    <t xml:space="preserve">7.23216438293457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30227518081665</t>
+    <t xml:space="preserve">7.23216485977173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30227565765381</t>
   </si>
   <si>
     <t xml:space="preserve">7.06138324737549</t>
@@ -4388,7 +4388,7 @@
     <t xml:space="preserve">7.33283662796021</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59170532226562</t>
+    <t xml:space="preserve">7.59170579910278</t>
   </si>
   <si>
     <t xml:space="preserve">7.44968748092651</t>
@@ -4421,7 +4421,7 @@
     <t xml:space="preserve">7.47485542297363</t>
   </si>
   <si>
-    <t xml:space="preserve">7.64923238754272</t>
+    <t xml:space="preserve">7.64923286437988</t>
   </si>
   <si>
     <t xml:space="preserve">7.66720914840698</t>
@@ -4430,10 +4430,10 @@
     <t xml:space="preserve">7.67799520492554</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76428556442261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76788091659546</t>
+    <t xml:space="preserve">7.76428461074829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76788139343262</t>
   </si>
   <si>
     <t xml:space="preserve">7.78945398330688</t>
@@ -5274,6 +5274,9 @@
   </si>
   <si>
     <t xml:space="preserve">10.289999961853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.039999961853</t>
   </si>
 </sst>
 </file>
@@ -62425,7 +62428,7 @@
     </row>
     <row r="2186">
       <c r="A2186" s="1" t="n">
-        <v>45505.6507291667</v>
+        <v>45505.2916666667</v>
       </c>
       <c r="B2186" t="n">
         <v>2073102</v>
@@ -62434,7 +62437,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="D2186" t="n">
-        <v>10.3299999237061</v>
+        <v>10.289999961853</v>
       </c>
       <c r="E2186" t="n">
         <v>10.8999996185303</v>
@@ -62446,6 +62449,32 @@
         <v>1753</v>
       </c>
       <c r="H2186" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2187">
+      <c r="A2187" s="1" t="n">
+        <v>45506.6494212963</v>
+      </c>
+      <c r="B2187" t="n">
+        <v>1974933</v>
+      </c>
+      <c r="C2187" t="n">
+        <v>10.1700000762939</v>
+      </c>
+      <c r="D2187" t="n">
+        <v>9.98499965667725</v>
+      </c>
+      <c r="E2187" t="n">
+        <v>10.1000003814697</v>
+      </c>
+      <c r="F2187" t="n">
+        <v>10.039999961853</v>
+      </c>
+      <c r="G2187" t="s">
+        <v>1754</v>
+      </c>
+      <c r="H2187" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BMED.MI.xlsx
+++ b/data/BMED.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="1756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="1757">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,181 +38,181 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32330369949341</t>
+    <t xml:space="preserve">4.32330417633057</t>
   </si>
   <si>
     <t xml:space="preserve">BMED.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26425123214722</t>
+    <t xml:space="preserve">4.26425075531006</t>
   </si>
   <si>
     <t xml:space="preserve">3.99385023117065</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90060901641846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89439296722412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92236471176147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.034255027771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04047107696533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75453090667725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72344946861267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76074576377869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5431821346283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66750454902649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90682530403137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91614890098572</t>
+    <t xml:space="preserve">3.90060877799988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89439225196838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92236495018005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03425550460815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04047155380249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75453042984009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72344923019409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76074647903442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54318284988403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66750502586365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90682458877563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91614961624146</t>
   </si>
   <si>
     <t xml:space="preserve">3.91925692558289</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82912278175354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84155511856079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6861526966095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58669567108154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64263987541199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77628684043884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.46237301826477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30386185646057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60534381866455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71723318099976</t>
+    <t xml:space="preserve">3.82912349700928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84155583381653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68615245819092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58669519424438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64264011383057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77628660202026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.46237349510193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30386233329773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60534405708313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71723341941833</t>
   </si>
   <si>
     <t xml:space="preserve">3.78561067581177</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88817596435547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84466361999512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84777116775513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95966148376465</t>
+    <t xml:space="preserve">3.88817691802979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84466409683228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84777235984802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95966172218323</t>
   </si>
   <si>
     <t xml:space="preserve">3.92547273635864</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83844780921936</t>
+    <t xml:space="preserve">3.83844709396362</t>
   </si>
   <si>
     <t xml:space="preserve">3.98763418197632</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0746603012085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07155227661133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21763038635254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23938751220703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13371324539185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21141481399536</t>
+    <t xml:space="preserve">4.07465934753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07155132293701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21762990951538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23938703536987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13371276855469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2114143371582</t>
   </si>
   <si>
     <t xml:space="preserve">4.20830631256104</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27357578277588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34816837310791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33262825012207</t>
+    <t xml:space="preserve">4.27357530593872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34816884994507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33262872695923</t>
   </si>
   <si>
     <t xml:space="preserve">4.30154800415039</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23006153106689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28600740432739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25181818008423</t>
+    <t xml:space="preserve">4.23006296157837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28600788116455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25181913375854</t>
   </si>
   <si>
     <t xml:space="preserve">4.22073841094971</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17411708831787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35749292373657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39168214797974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41654539108276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24249410629272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15236139297485</t>
+    <t xml:space="preserve">4.17411804199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35749244689941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39168119430542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41654443740845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24249505996704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15236043930054</t>
   </si>
   <si>
     <t xml:space="preserve">4.04668807983398</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27979135513306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31397914886475</t>
+    <t xml:space="preserve">4.27979183197021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31398057937622</t>
   </si>
   <si>
     <t xml:space="preserve">4.27046728134155</t>
@@ -221,43 +221,43 @@
     <t xml:space="preserve">4.43208599090576</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47559785842896</t>
+    <t xml:space="preserve">4.47559881210327</t>
   </si>
   <si>
     <t xml:space="preserve">4.40100574493408</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50564002990723</t>
+    <t xml:space="preserve">4.50563955307007</t>
   </si>
   <si>
     <t xml:space="preserve">4.43905448913574</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51198244094849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54051828384399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53100681304932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4327130317688</t>
+    <t xml:space="preserve">4.51198196411133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54051876068115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53100728988647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43271255493164</t>
   </si>
   <si>
     <t xml:space="preserve">4.4834451675415</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44222545623779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57222700119019</t>
+    <t xml:space="preserve">4.44222497940063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57222652435303</t>
   </si>
   <si>
     <t xml:space="preserve">4.55637264251709</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61661672592163</t>
+    <t xml:space="preserve">4.61661624908447</t>
   </si>
   <si>
     <t xml:space="preserve">4.48978710174561</t>
@@ -266,13 +266,13 @@
     <t xml:space="preserve">4.65783643722534</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56588411331177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53417730331421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63881206512451</t>
+    <t xml:space="preserve">4.56588506698608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53417778015137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63881158828735</t>
   </si>
   <si>
     <t xml:space="preserve">4.4866156578064</t>
@@ -281,13 +281,13 @@
     <t xml:space="preserve">4.49612855911255</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48027467727661</t>
+    <t xml:space="preserve">4.48027420043945</t>
   </si>
   <si>
     <t xml:space="preserve">4.51515293121338</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47710371017456</t>
+    <t xml:space="preserve">4.47710418701172</t>
   </si>
   <si>
     <t xml:space="preserve">4.50246953964233</t>
@@ -302,82 +302,82 @@
     <t xml:space="preserve">4.83856964111328</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75613021850586</t>
+    <t xml:space="preserve">4.75613069534302</t>
   </si>
   <si>
     <t xml:space="preserve">4.78466701507568</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81637382507324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77832460403442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72442245483398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74661827087402</t>
+    <t xml:space="preserve">4.8163743019104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7783260345459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72442197799683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74661779403687</t>
   </si>
   <si>
     <t xml:space="preserve">4.60710430145264</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62929964065552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68003225326538</t>
+    <t xml:space="preserve">4.62930011749268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68003177642822</t>
   </si>
   <si>
     <t xml:space="preserve">4.64198303222656</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22027158737183</t>
+    <t xml:space="preserve">4.22027349472046</t>
   </si>
   <si>
     <t xml:space="preserve">4.03319835662842</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05856466293335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98563671112061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11563682556152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32490730285645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36929750442505</t>
+    <t xml:space="preserve">4.05856418609619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98563647270203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11563777923584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3249077796936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36929845809937</t>
   </si>
   <si>
     <t xml:space="preserve">4.34710264205933</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50881099700928</t>
+    <t xml:space="preserve">4.50881147384644</t>
   </si>
   <si>
     <t xml:space="preserve">3.83027029037476</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58612179756165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73514676094055</t>
+    <t xml:space="preserve">3.58612203598022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73514747619629</t>
   </si>
   <si>
     <t xml:space="preserve">3.69709825515747</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89051461219788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90002655982971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75734210014343</t>
+    <t xml:space="preserve">3.8905143737793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90002584457397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75734305381775</t>
   </si>
   <si>
     <t xml:space="preserve">3.70661044120789</t>
@@ -386,19 +386,19 @@
     <t xml:space="preserve">3.64636635780334</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6717324256897</t>
+    <t xml:space="preserve">3.67173266410828</t>
   </si>
   <si>
     <t xml:space="preserve">3.87466096878052</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97295451164246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10929727554321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99514889717102</t>
+    <t xml:space="preserve">3.97295355796814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10929584503174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99514985084534</t>
   </si>
   <si>
     <t xml:space="preserve">4.02051544189453</t>
@@ -413,7 +413,7 @@
     <t xml:space="preserve">4.0458812713623</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01417398452759</t>
+    <t xml:space="preserve">4.01417350769043</t>
   </si>
   <si>
     <t xml:space="preserve">4.15368700027466</t>
@@ -425,7 +425,7 @@
     <t xml:space="preserve">4.16002893447876</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87783193588257</t>
+    <t xml:space="preserve">3.87783145904541</t>
   </si>
   <si>
     <t xml:space="preserve">3.82075786590576</t>
@@ -437,10 +437,10 @@
     <t xml:space="preserve">4.05222272872925</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07758855819702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9634416103363</t>
+    <t xml:space="preserve">4.07758903503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96344184875488</t>
   </si>
   <si>
     <t xml:space="preserve">3.89685606956482</t>
@@ -449,151 +449,151 @@
     <t xml:space="preserve">3.94441771507263</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85246515274048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97612524032593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01734399795532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94124627113342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96978354454041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01100301742554</t>
+    <t xml:space="preserve">3.85246539115906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97612404823303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01734495162964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94124674797058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96978330612183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0110034942627</t>
   </si>
   <si>
     <t xml:space="preserve">4.07441806793213</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09344291687012</t>
+    <t xml:space="preserve">4.09344244003296</t>
   </si>
   <si>
     <t xml:space="preserve">4.0553936958313</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08076047897339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17271041870117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11246728897095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98880791664124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02368545532227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00783205032349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78587889671326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.858806848526</t>
+    <t xml:space="preserve">4.08075952529907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17271089553833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11246776580811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98880863189697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02368593215942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00783157348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78587985038757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85880661010742</t>
   </si>
   <si>
     <t xml:space="preserve">3.77953839302063</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83978295326233</t>
+    <t xml:space="preserve">3.83978199958801</t>
   </si>
   <si>
     <t xml:space="preserve">3.87148952484131</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76685452461243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65270805358887</t>
+    <t xml:space="preserve">3.76685476303101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65270829200745</t>
   </si>
   <si>
     <t xml:space="preserve">3.69075679779053</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76051330566406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73197627067566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74148964881897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92222142219543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88100099563599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95710039138794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89368462562561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95392942428589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79539179801941</t>
+    <t xml:space="preserve">3.76051306724548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7319769859314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74148917198181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92222213745117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8810019493103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95710062980652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89368486404419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95392966270447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79539251327515</t>
   </si>
   <si>
     <t xml:space="preserve">3.868319272995</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91905093193054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92539286613464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00148963928223</t>
+    <t xml:space="preserve">3.91905117034912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92539310455322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00149011611938</t>
   </si>
   <si>
     <t xml:space="preserve">4.07124710083008</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84295320510864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81441593170166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.950758934021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04905128479004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90953969955444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86514759063721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7700252532959</t>
+    <t xml:space="preserve">3.84295296669006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81441640853882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95075845718384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0490517616272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90953850746155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86514806747437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77002573013306</t>
   </si>
   <si>
     <t xml:space="preserve">3.75047540664673</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85148644447327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87429618835449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85800361633301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9003632068634</t>
+    <t xml:space="preserve">3.851487159729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87429571151733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85800313949585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9003643989563</t>
   </si>
   <si>
     <t xml:space="preserve">3.94924020767212</t>
@@ -602,55 +602,55 @@
     <t xml:space="preserve">3.98182535171509</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03395986557007</t>
+    <t xml:space="preserve">4.03396034240723</t>
   </si>
   <si>
     <t xml:space="preserve">4.06980276107788</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26530981063843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34025430679321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67587471008301</t>
+    <t xml:space="preserve">4.26531028747559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34025478363037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67587518692017</t>
   </si>
   <si>
     <t xml:space="preserve">4.51295232772827</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44778251647949</t>
+    <t xml:space="preserve">4.44778299331665</t>
   </si>
   <si>
     <t xml:space="preserve">4.51620960235596</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49991893768311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49014282226562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40542268753052</t>
+    <t xml:space="preserve">4.49991846084595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49014329910278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40542316436768</t>
   </si>
   <si>
     <t xml:space="preserve">4.4836254119873</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46081686019897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49665975570679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50317573547363</t>
+    <t xml:space="preserve">4.46081638336182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49666023254395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50317668914795</t>
   </si>
   <si>
     <t xml:space="preserve">4.48036766052246</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45104169845581</t>
+    <t xml:space="preserve">4.45104122161865</t>
   </si>
   <si>
     <t xml:space="preserve">4.50643491744995</t>
@@ -659,31 +659,31 @@
     <t xml:space="preserve">4.52924394607544</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69216632843018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71171760559082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61722326278687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65958213806152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84857320785522</t>
+    <t xml:space="preserve">4.69216680526733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71171808242798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61722278594971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65958261489868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84857273101807</t>
   </si>
   <si>
     <t xml:space="preserve">4.74104309082031</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91374063491821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8159875869751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80295419692993</t>
+    <t xml:space="preserve">4.91374111175537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81598806381226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80295372009277</t>
   </si>
   <si>
     <t xml:space="preserve">4.8746395111084</t>
@@ -692,22 +692,22 @@
     <t xml:space="preserve">4.81272983551025</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80621194839478</t>
+    <t xml:space="preserve">4.80621242523193</t>
   </si>
   <si>
     <t xml:space="preserve">4.68239164352417</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83879804611206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77688646316528</t>
+    <t xml:space="preserve">4.83879709243774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77688550949097</t>
   </si>
   <si>
     <t xml:space="preserve">4.7638521194458</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77036905288696</t>
+    <t xml:space="preserve">4.77036952972412</t>
   </si>
   <si>
     <t xml:space="preserve">4.60744667053223</t>
@@ -719,82 +719,82 @@
     <t xml:space="preserve">4.66609859466553</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64980697631836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53576135635376</t>
+    <t xml:space="preserve">4.64980745315552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53576183319092</t>
   </si>
   <si>
     <t xml:space="preserve">4.56182861328125</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54879522323608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63677310943604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6986837387085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64003133773804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62373876571655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60093021392822</t>
+    <t xml:space="preserve">4.54879426956177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63677263259888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69868326187134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6400318145752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62373924255371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60093069076538</t>
   </si>
   <si>
     <t xml:space="preserve">4.29137706756592</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15452194213867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12519598007202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02092599868774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04047679901123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0176682472229</t>
+    <t xml:space="preserve">4.15452289581299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12519693374634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0209264755249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04047632217407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01766729354858</t>
   </si>
   <si>
     <t xml:space="preserve">4.15126371383667</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20665836334229</t>
+    <t xml:space="preserve">4.20665740966797</t>
   </si>
   <si>
     <t xml:space="preserve">4.16103935241699</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17081499099731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21643352508545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24901819229126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26205110549927</t>
+    <t xml:space="preserve">4.17081451416016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21643257141113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2490177154541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26205158233643</t>
   </si>
   <si>
     <t xml:space="preserve">4.3598051071167</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32721996307373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35328817367554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39564847946167</t>
+    <t xml:space="preserve">4.32722043991089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35328722000122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39564752578735</t>
   </si>
   <si>
     <t xml:space="preserve">4.3044114112854</t>
@@ -803,37 +803,37 @@
     <t xml:space="preserve">4.32070350646973</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34351253509521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37935590744019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39890575408936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46407461166382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47384977340698</t>
+    <t xml:space="preserve">4.3435115814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37935543060303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39890623092651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46407508850098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4738507270813</t>
   </si>
   <si>
     <t xml:space="preserve">4.50969362258911</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54227781295776</t>
+    <t xml:space="preserve">4.54227828979492</t>
   </si>
   <si>
     <t xml:space="preserve">4.48688459396362</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44452428817749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40216541290283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3663215637207</t>
+    <t xml:space="preserve">4.44452524185181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40216493606567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36632108688354</t>
   </si>
   <si>
     <t xml:space="preserve">4.42497396469116</t>
@@ -845,13 +845,13 @@
     <t xml:space="preserve">4.59634399414062</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66578578948975</t>
+    <t xml:space="preserve">4.66578531265259</t>
   </si>
   <si>
     <t xml:space="preserve">4.6029577255249</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64594602584839</t>
+    <t xml:space="preserve">4.64594554901123</t>
   </si>
   <si>
     <t xml:space="preserve">4.6194920539856</t>
@@ -860,34 +860,34 @@
     <t xml:space="preserve">4.59303760528564</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65917253494263</t>
+    <t xml:space="preserve">4.65917205810547</t>
   </si>
   <si>
     <t xml:space="preserve">4.73853349685669</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74183988571167</t>
+    <t xml:space="preserve">4.74184036254883</t>
   </si>
   <si>
     <t xml:space="preserve">4.70877313613892</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86088132858276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86749505996704</t>
+    <t xml:space="preserve">4.86088180541992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86749601364136</t>
   </si>
   <si>
     <t xml:space="preserve">4.8807225227356</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87741565704346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92040252685547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79805326461792</t>
+    <t xml:space="preserve">4.8774151802063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92040300369263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79805517196655</t>
   </si>
   <si>
     <t xml:space="preserve">4.81128120422363</t>
@@ -896,94 +896,94 @@
     <t xml:space="preserve">4.89064264297485</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99315118789673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0559778213501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99976396560669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00637769699097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98323011398315</t>
+    <t xml:space="preserve">4.99315166473389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05597829818726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99976348876953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00637817382812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98323059082031</t>
   </si>
   <si>
     <t xml:space="preserve">4.88733530044556</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84765481948853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.936936378479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81789493560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94355058670044</t>
+    <t xml:space="preserve">4.84765434265137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93693685531616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81789445877075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94354963302612</t>
   </si>
   <si>
     <t xml:space="preserve">4.96008348464966</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90717601776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82120227813721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79474782943726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83112192153931</t>
+    <t xml:space="preserve">4.90717649459839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82120132446289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7947473526001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83112049102783</t>
   </si>
   <si>
     <t xml:space="preserve">4.91378879547119</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80466651916504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85096120834351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75837421417236</t>
+    <t xml:space="preserve">4.80466747283936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85096216201782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75837373733521</t>
   </si>
   <si>
     <t xml:space="preserve">4.83773517608643</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89394903182983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84104156494141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85426807403564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90056276321411</t>
+    <t xml:space="preserve">4.89394950866699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84104251861572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85426902770996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90056228637695</t>
   </si>
   <si>
     <t xml:space="preserve">5.02621746063232</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89725542068481</t>
+    <t xml:space="preserve">4.89725637435913</t>
   </si>
   <si>
     <t xml:space="preserve">4.93032360076904</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91048288345337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82781457901001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77821350097656</t>
+    <t xml:space="preserve">4.91048336029053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82781505584717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77821397781372</t>
   </si>
   <si>
     <t xml:space="preserve">4.71538639068604</t>
@@ -992,133 +992,133 @@
     <t xml:space="preserve">4.85757493972778</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83442783355713</t>
+    <t xml:space="preserve">4.83442831039429</t>
   </si>
   <si>
     <t xml:space="preserve">4.76168060302734</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79144096374512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75506639480591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73522615432739</t>
+    <t xml:space="preserve">4.79144048690796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75506687164307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73522663116455</t>
   </si>
   <si>
     <t xml:space="preserve">4.721999168396</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65586566925049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6955451965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74514722824097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67570543289185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72530603408813</t>
+    <t xml:space="preserve">4.65586519241333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69554615020752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74514627456665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.675705909729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72530651092529</t>
   </si>
   <si>
     <t xml:space="preserve">4.77490711212158</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80136156082153</t>
+    <t xml:space="preserve">4.80136013031006</t>
   </si>
   <si>
     <t xml:space="preserve">4.87080192565918</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96338987350464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94685745239258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77160024642944</t>
+    <t xml:space="preserve">4.9633903503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94685697555542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7716007232666</t>
   </si>
   <si>
     <t xml:space="preserve">4.6856255531311</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66909170150757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66247892379761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75175905227661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71869325637817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78813362121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74174547195435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6260929107666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62949466705322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66350936889648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66010856628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75535106658936</t>
+    <t xml:space="preserve">4.66909122467041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66247844696045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75176048278809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71869277954102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78813409805298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7417459487915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62609386444092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62949419021606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6635103225708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66010808944702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7553505897522</t>
   </si>
   <si>
     <t xml:space="preserve">4.76555585861206</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77916288375854</t>
+    <t xml:space="preserve">4.7791633605957</t>
   </si>
   <si>
     <t xml:space="preserve">4.88461017608643</t>
   </si>
   <si>
-    <t xml:space="preserve">4.88801193237305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86079883575439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86760282516479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84379148483276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9016170501709</t>
+    <t xml:space="preserve">4.88801145553589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86079931259155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86760234832764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84379196166992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90161752700806</t>
   </si>
   <si>
     <t xml:space="preserve">4.85059452056885</t>
   </si>
   <si>
-    <t xml:space="preserve">4.918625831604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97304964065552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03427743911743</t>
+    <t xml:space="preserve">4.91862535476685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97305011749268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03427839279175</t>
   </si>
   <si>
     <t xml:space="preserve">5.0853009223938</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96624708175659</t>
+    <t xml:space="preserve">4.96624660491943</t>
   </si>
   <si>
     <t xml:space="preserve">5.02067136764526</t>
@@ -1127,7 +1127,7 @@
     <t xml:space="preserve">5.0478835105896</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97645235061646</t>
+    <t xml:space="preserve">4.97645139694214</t>
   </si>
   <si>
     <t xml:space="preserve">4.99345970153809</t>
@@ -1136,19 +1136,19 @@
     <t xml:space="preserve">4.9084210395813</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81998014450073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80297231674194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89141273498535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99005746841431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.986656665802</t>
+    <t xml:space="preserve">4.81998062133789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8029727935791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89141321182251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99005794525146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98665571212769</t>
   </si>
   <si>
     <t xml:space="preserve">4.95264053344727</t>
@@ -1157,7 +1157,7 @@
     <t xml:space="preserve">5.09550523757935</t>
   </si>
   <si>
-    <t xml:space="preserve">5.122718334198</t>
+    <t xml:space="preserve">5.12271785736084</t>
   </si>
   <si>
     <t xml:space="preserve">5.17033910751343</t>
@@ -1166,13 +1166,13 @@
     <t xml:space="preserve">5.25877904891968</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28599119186401</t>
+    <t xml:space="preserve">5.28599214553833</t>
   </si>
   <si>
     <t xml:space="preserve">5.3029990196228</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29619598388672</t>
+    <t xml:space="preserve">5.29619646072388</t>
   </si>
   <si>
     <t xml:space="preserve">5.33701467514038</t>
@@ -1181,169 +1181,169 @@
     <t xml:space="preserve">5.38803768157959</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39143991470337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33021020889282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37443161010742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40844631195068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27238607406616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16353607177734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24857521057129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17714262008667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07509613037109</t>
+    <t xml:space="preserve">5.39143896102905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33021116256714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37443208694458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40844678878784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.272385597229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16353702545166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24857473373413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17714166641235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07509660720825</t>
   </si>
   <si>
     <t xml:space="preserve">4.7621545791626</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80977535247803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92882966995239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91522312164307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95944404602051</t>
+    <t xml:space="preserve">4.80977630615234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92883014678955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91522407531738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95944356918335</t>
   </si>
   <si>
     <t xml:space="preserve">4.9492392539978</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94583749771118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95604228973389</t>
+    <t xml:space="preserve">4.94583797454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95604181289673</t>
   </si>
   <si>
     <t xml:space="preserve">5.06148958206177</t>
   </si>
   <si>
-    <t xml:space="preserve">5.03767871856689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82678365707397</t>
+    <t xml:space="preserve">5.03767919540405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82678318023682</t>
   </si>
   <si>
     <t xml:space="preserve">4.78596448898315</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83358669281006</t>
+    <t xml:space="preserve">4.83358716964722</t>
   </si>
   <si>
     <t xml:space="preserve">4.90501880645752</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93903493881226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93223190307617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87440586090088</t>
+    <t xml:space="preserve">4.9390344619751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93223142623901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87440538406372</t>
   </si>
   <si>
     <t xml:space="preserve">4.84719228744507</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77576017379761</t>
+    <t xml:space="preserve">4.77576065063477</t>
   </si>
   <si>
     <t xml:space="preserve">4.80637454986572</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81657886505127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73834323883057</t>
+    <t xml:space="preserve">4.81657934188843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73834371566772</t>
   </si>
   <si>
     <t xml:space="preserve">4.79957151412964</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77235841751099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76895809173584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72813844680786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71793508529663</t>
+    <t xml:space="preserve">4.7723593711853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76895761489868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72813940048218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71793413162231</t>
   </si>
   <si>
     <t xml:space="preserve">4.79616975784302</t>
   </si>
   <si>
-    <t xml:space="preserve">4.836989402771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90708780288696</t>
+    <t xml:space="preserve">4.83698844909668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90708827972412</t>
   </si>
   <si>
     <t xml:space="preserve">4.84058713912964</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70408391952515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60258293151855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63758373260498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66208362579346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74958515167236</t>
+    <t xml:space="preserve">4.7040843963623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6025824546814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63758325576782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6620831489563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74958467483521</t>
   </si>
   <si>
     <t xml:space="preserve">4.73208522796631</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76008558273315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74608612060547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65508317947388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71458387374878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6760835647583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66558313369751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57458162307739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49758100509644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31207704544067</t>
+    <t xml:space="preserve">4.760085105896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74608469009399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65508365631104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7145848274231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67608451843262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66558408737183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57458257675171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49758052825928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31207752227783</t>
   </si>
   <si>
     <t xml:space="preserve">4.29107713699341</t>
@@ -1352,16 +1352,16 @@
     <t xml:space="preserve">4.27707719802856</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22457599639893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25957632064819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27007722854614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24907636642456</t>
+    <t xml:space="preserve">4.22457551956177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25957679748535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27007627487183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24907732009888</t>
   </si>
   <si>
     <t xml:space="preserve">4.18257474899292</t>
@@ -1370,79 +1370,79 @@
     <t xml:space="preserve">4.06707334518433</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18607521057129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23157644271851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28057670593262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09507369995117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16857528686523</t>
+    <t xml:space="preserve">4.18607473373413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23157596588135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28057622909546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09507322311401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16857481002808</t>
   </si>
   <si>
     <t xml:space="preserve">4.1895751953125</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07057332992554</t>
+    <t xml:space="preserve">4.07057285308838</t>
   </si>
   <si>
     <t xml:space="preserve">4.21757555007935</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15807485580444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15457534790039</t>
+    <t xml:space="preserve">4.15807437896729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15457487106323</t>
   </si>
   <si>
     <t xml:space="preserve">4.19307518005371</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1370735168457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11957406997681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16507434844971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09857368469238</t>
+    <t xml:space="preserve">4.13707399368286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11957454681396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16507387161255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09857320785522</t>
   </si>
   <si>
     <t xml:space="preserve">4.20707559585571</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07407283782959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02857303619385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00407123565674</t>
+    <t xml:space="preserve">4.07407331466675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02857255935669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00407218933105</t>
   </si>
   <si>
     <t xml:space="preserve">4.0635724067688</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12657356262207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11257410049438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14407444000244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98657155036926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0600733757019</t>
+    <t xml:space="preserve">4.12657451629639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11257362365723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1440749168396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.986572265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06007289886475</t>
   </si>
   <si>
     <t xml:space="preserve">4.10207414627075</t>
@@ -1451,10 +1451,10 @@
     <t xml:space="preserve">4.04957246780396</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05657291412354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3015775680542</t>
+    <t xml:space="preserve">4.05657243728638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30157709121704</t>
   </si>
   <si>
     <t xml:space="preserve">4.46958017349243</t>
@@ -1463,7 +1463,7 @@
     <t xml:space="preserve">4.34707832336426</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37507915496826</t>
+    <t xml:space="preserve">4.37507820129395</t>
   </si>
   <si>
     <t xml:space="preserve">4.32957792282104</t>
@@ -1472,73 +1472,73 @@
     <t xml:space="preserve">4.38907861709595</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34007740020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29807758331299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23507595062256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24557638168335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22107601165771</t>
+    <t xml:space="preserve">4.34007787704468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29807710647583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23507690429688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24557685852051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22107648849487</t>
   </si>
   <si>
     <t xml:space="preserve">4.14757442474365</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21407556533813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25607633590698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26307678222656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25257635116577</t>
+    <t xml:space="preserve">4.21407508850098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25607681274414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26307725906372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25257587432861</t>
   </si>
   <si>
     <t xml:space="preserve">4.20007514953613</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17557525634766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12307405471802</t>
+    <t xml:space="preserve">4.1755747795105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12307357788086</t>
   </si>
   <si>
     <t xml:space="preserve">4.27357625961304</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2035756111145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26657629013062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22807645797729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32257747650146</t>
+    <t xml:space="preserve">4.20357608795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26657581329346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22807598114014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32257795333862</t>
   </si>
   <si>
     <t xml:space="preserve">4.3330774307251</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35407876968384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4660792350769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44858074188232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46258068084717</t>
+    <t xml:space="preserve">4.35407829284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46608114242554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44858026504517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46258020401001</t>
   </si>
   <si>
     <t xml:space="preserve">4.47658014297485</t>
@@ -1547,109 +1547,109 @@
     <t xml:space="preserve">3.85356903076172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88506984710693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77306795120239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77656817436218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79756855964661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8605694770813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80106830596924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70306611061096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6820662021637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62956523895264</t>
+    <t xml:space="preserve">3.88507032394409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77306771278381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77656769752502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79756879806519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86056923866272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80106806755066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70306658744812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68206644058228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62956571578979</t>
   </si>
   <si>
     <t xml:space="preserve">3.60506463050842</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53856325149536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56306385993958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5070629119873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59106516838074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58756446838379</t>
+    <t xml:space="preserve">3.53856372833252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56306481361389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50706338882446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59106469154358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58756470680237</t>
   </si>
   <si>
     <t xml:space="preserve">3.65056562423706</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7100670337677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69956684112549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70656704902649</t>
+    <t xml:space="preserve">3.71006655693054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69956564903259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70656633377075</t>
   </si>
   <si>
     <t xml:space="preserve">3.67506623268127</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64006495475769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63656544685364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66754770278931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50365543365479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65297913551331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64569568634033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7221782207489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89699625968933</t>
+    <t xml:space="preserve">3.64006567001343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63656497001648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66754698753357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50365471839905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65297937393188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64569520950317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72217845916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89699649810791</t>
   </si>
   <si>
     <t xml:space="preserve">3.86057662963867</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8569347858429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84965038299561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83143997192383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8241560459137</t>
+    <t xml:space="preserve">3.85693407058716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84964966773987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83143949508667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82415628433228</t>
   </si>
   <si>
     <t xml:space="preserve">3.68211555480957</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66026329994202</t>
+    <t xml:space="preserve">3.6602635383606</t>
   </si>
   <si>
     <t xml:space="preserve">3.61728739738464</t>
@@ -1664,28 +1664,28 @@
     <t xml:space="preserve">3.81322979927063</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72946190834045</t>
+    <t xml:space="preserve">3.72946262359619</t>
   </si>
   <si>
     <t xml:space="preserve">3.70396757125854</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75131487846375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70032620429993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52987766265869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71489429473877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70761013031006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67483186721802</t>
+    <t xml:space="preserve">3.75131416320801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70032596588135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52987790107727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71489405632019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70761060714722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67483139038086</t>
   </si>
   <si>
     <t xml:space="preserve">3.82051372528076</t>
@@ -1697,124 +1697,124 @@
     <t xml:space="preserve">3.76588296890259</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8532919883728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87514472007751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9224910736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90063858032227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87150239944458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90792274475098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87878680229187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86786007881165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92613339424133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8824291229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00625896453857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15922355651855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22478246688843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1482982635498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28669691085815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28305435180664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33040142059326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38867378234863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33404302597046</t>
+    <t xml:space="preserve">3.85329246520996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87514448165894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92249178886414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90063953399658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87150287628174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90792226791382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87878608703613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86786031723022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92613291740417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88242888450623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00625848770142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15922451019287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22478151321411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14829921722412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.286696434021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2830548286438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3304009437561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38867425918579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3340425491333</t>
   </si>
   <si>
     <t xml:space="preserve">4.34132719039917</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34861135482788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4651575088501</t>
+    <t xml:space="preserve">4.34861183166504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46515703201294</t>
   </si>
   <si>
     <t xml:space="preserve">4.42873668670654</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48336791992188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47244167327881</t>
+    <t xml:space="preserve">4.48336744308472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47244119644165</t>
   </si>
   <si>
     <t xml:space="preserve">4.54528188705444</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44330501556396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49429321289062</t>
+    <t xml:space="preserve">4.44330453872681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49429273605347</t>
   </si>
   <si>
     <t xml:space="preserve">4.5489239692688</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55256652832031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56713390350342</t>
+    <t xml:space="preserve">4.55256605148315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56713438034058</t>
   </si>
   <si>
     <t xml:space="preserve">4.61083936691284</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57806015014648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60355567932129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61812448501587</t>
+    <t xml:space="preserve">4.57806062698364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60355520248413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61812400817871</t>
   </si>
   <si>
     <t xml:space="preserve">4.58534526824951</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63269186019897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57077693939209</t>
+    <t xml:space="preserve">4.63269138336182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57077646255493</t>
   </si>
   <si>
     <t xml:space="preserve">4.59991312026978</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65454387664795</t>
+    <t xml:space="preserve">4.65454339981079</t>
   </si>
   <si>
     <t xml:space="preserve">4.62176561355591</t>
@@ -1835,10 +1835,10 @@
     <t xml:space="preserve">4.73831081390381</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73466968536377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83664655685425</t>
+    <t xml:space="preserve">4.73466920852661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83664560317993</t>
   </si>
   <si>
     <t xml:space="preserve">4.90220355987549</t>
@@ -1847,10 +1847,10 @@
     <t xml:space="preserve">4.92769813537598</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89856100082397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89127779006958</t>
+    <t xml:space="preserve">4.89856147766113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89127731323242</t>
   </si>
   <si>
     <t xml:space="preserve">4.89503145217896</t>
@@ -1862,46 +1862,46 @@
     <t xml:space="preserve">4.84247732162476</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84623050689697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93632364273071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91380071640015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8800163269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72986173629761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74112319946289</t>
+    <t xml:space="preserve">4.84623098373413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93632316589355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91380023956299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88001585006714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72986221313477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74112367630005</t>
   </si>
   <si>
     <t xml:space="preserve">4.75613880157471</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63976812362671</t>
+    <t xml:space="preserve">4.63976907730103</t>
   </si>
   <si>
     <t xml:space="preserve">4.59096908569336</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65478420257568</t>
+    <t xml:space="preserve">4.65478372573853</t>
   </si>
   <si>
     <t xml:space="preserve">4.59472274780273</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65853786468506</t>
+    <t xml:space="preserve">4.65853834152222</t>
   </si>
   <si>
     <t xml:space="preserve">4.6172456741333</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61349153518677</t>
+    <t xml:space="preserve">4.61349201202393</t>
   </si>
   <si>
     <t xml:space="preserve">4.54967641830444</t>
@@ -1913,7 +1913,7 @@
     <t xml:space="preserve">4.56469202041626</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52715349197388</t>
+    <t xml:space="preserve">4.52715301513672</t>
   </si>
   <si>
     <t xml:space="preserve">4.50463008880615</t>
@@ -1928,13 +1928,13 @@
     <t xml:space="preserve">4.57595300674438</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63601446151733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62475299835205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66980028152466</t>
+    <t xml:space="preserve">4.63601541519165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62475395202637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66979932785034</t>
   </si>
   <si>
     <t xml:space="preserve">4.65103101730347</t>
@@ -1946,70 +1946,70 @@
     <t xml:space="preserve">4.62850713729858</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55718374252319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6960768699646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71859931945801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74863004684448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85749197006226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7899227142334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79367685317993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85373878479004</t>
+    <t xml:space="preserve">4.55718421936035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69607639312744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71859979629517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74863052368164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85749244689941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78992366790771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79367733001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85374021530151</t>
   </si>
   <si>
     <t xml:space="preserve">4.86124658584595</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86500024795532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00389289855957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04518461227417</t>
+    <t xml:space="preserve">4.86499977111816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00389337539673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04518604278564</t>
   </si>
   <si>
     <t xml:space="preserve">4.99263143539429</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98512411117554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94383192062378</t>
+    <t xml:space="preserve">4.98512315750122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94383144378662</t>
   </si>
   <si>
     <t xml:space="preserve">5.02266263961792</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01515436172485</t>
+    <t xml:space="preserve">5.01515483856201</t>
   </si>
   <si>
     <t xml:space="preserve">5.05269336700439</t>
   </si>
   <si>
-    <t xml:space="preserve">5.07521677017212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02641677856445</t>
+    <t xml:space="preserve">5.07521724700928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02641582489014</t>
   </si>
   <si>
     <t xml:space="preserve">4.97010850906372</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95133972167969</t>
+    <t xml:space="preserve">4.95133924484253</t>
   </si>
   <si>
     <t xml:space="preserve">4.94758558273315</t>
@@ -2021,22 +2021,22 @@
     <t xml:space="preserve">4.9550929069519</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04143238067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0001392364502</t>
+    <t xml:space="preserve">5.04143142700195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00013971328735</t>
   </si>
   <si>
     <t xml:space="preserve">4.93256998062134</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91755485534668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69983148574829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70358467102051</t>
+    <t xml:space="preserve">4.91755390167236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69983053207397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70358371734619</t>
   </si>
   <si>
     <t xml:space="preserve">4.71109247207642</t>
@@ -2048,10 +2048,10 @@
     <t xml:space="preserve">4.84998512268066</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9588475227356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90629243850708</t>
+    <t xml:space="preserve">4.95884704589844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90629291534424</t>
   </si>
   <si>
     <t xml:space="preserve">4.99638509750366</t>
@@ -2060,37 +2060,37 @@
     <t xml:space="preserve">4.94007778167725</t>
   </si>
   <si>
-    <t xml:space="preserve">5.03767776489258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06020069122314</t>
+    <t xml:space="preserve">5.03767728805542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06020164489746</t>
   </si>
   <si>
     <t xml:space="preserve">5.15404748916626</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1653094291687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14278602600098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26290941238403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21035480499268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23287868499756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28543281555176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29294061660767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25540161132812</t>
+    <t xml:space="preserve">5.16530895233154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14278650283813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26291036605835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21035575866699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2328782081604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2854323387146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29294109344482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25540113449097</t>
   </si>
   <si>
     <t xml:space="preserve">5.16155529022217</t>
@@ -2099,19 +2099,19 @@
     <t xml:space="preserve">5.1915864944458</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15029430389404</t>
+    <t xml:space="preserve">5.15029335021973</t>
   </si>
   <si>
     <t xml:space="preserve">5.17657089233398</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17281723022461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16906309127808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10149335861206</t>
+    <t xml:space="preserve">5.17281627655029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16906356811523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10149431228638</t>
   </si>
   <si>
     <t xml:space="preserve">5.22161722183228</t>
@@ -2120,22 +2120,22 @@
     <t xml:space="preserve">5.21786308288574</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21410942077637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23663187026978</t>
+    <t xml:space="preserve">5.21410894393921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23663282394409</t>
   </si>
   <si>
     <t xml:space="preserve">5.39804792404175</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4430947303772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48438692092896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52943325042725</t>
+    <t xml:space="preserve">5.44309520721436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48438739776611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5294337272644</t>
   </si>
   <si>
     <t xml:space="preserve">5.5744800567627</t>
@@ -2144,13 +2144,13 @@
     <t xml:space="preserve">5.64204883575439</t>
   </si>
   <si>
-    <t xml:space="preserve">5.6758337020874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69084882736206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7021107673645</t>
+    <t xml:space="preserve">5.67583417892456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69084930419922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70211124420166</t>
   </si>
   <si>
     <t xml:space="preserve">5.72463417053223</t>
@@ -2162,190 +2162,190 @@
     <t xml:space="preserve">5.77343416213989</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76968050003052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77718830108643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78844976425171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78094148635864</t>
+    <t xml:space="preserve">5.76968002319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77718782424927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78844928741455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7809419631958</t>
   </si>
   <si>
     <t xml:space="preserve">5.85601902008057</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20137453079224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30272769927979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47915983200073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59177541732788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45663642883301</t>
+    <t xml:space="preserve">6.20137405395508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3027286529541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47916030883789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59177446365356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45663547515869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47165155410767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56784152984619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74483156204224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90258312225342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91797351837158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01416301727295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95644903182983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07957124710083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10265684127808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16037130355835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09111499786377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02570629119873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00646686553955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08726692199707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14113235473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08341932296753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95260143280029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97183990478516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00262069702148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97568655014038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05263900756836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02955293655396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02185869216919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99107694625854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89873504638672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86410665512085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87564945220947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8140869140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8448691368103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.752525806427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.614013671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61785984039307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77176427841187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92566728591919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72174453735352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71789693832397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82947826385498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74867916107178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63325071334839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66403198242188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61016416549683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41009044647217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55245208740234</t>
   </si>
   <si>
     <t xml:space="preserve">6.47165203094482</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56784152984619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74483108520508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90258312225342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91797256469727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01416254043579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95644855499268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07957124710083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10265636444092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16037130355835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09111452102661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02570533752441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00646686553955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08726692199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14113283157349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08341884613037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95260095596313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97183990478516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00262069702148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97568607330322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0526385307312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02955341339111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02185821533203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9910774230957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89873456954956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86410665512085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87564897537231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8140869140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8448691368103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.752525806427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.614013671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61786079406738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77176380157471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92566871643066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72174549102783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71789836883545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82947731018066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74867868423462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63325071334839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6640305519104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6101655960083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41009092330933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55245161056519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47165250778198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27157640457153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28311967849731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.379310131073</t>
+    <t xml:space="preserve">6.27157592773438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28312063217163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37930965423584</t>
   </si>
   <si>
     <t xml:space="preserve">6.34083366394043</t>
   </si>
   <si>
-    <t xml:space="preserve">6.394700050354</t>
+    <t xml:space="preserve">6.39470052719116</t>
   </si>
   <si>
     <t xml:space="preserve">6.46395683288574</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50243186950684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49473762512207</t>
+    <t xml:space="preserve">6.50243282318115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49473667144775</t>
   </si>
   <si>
     <t xml:space="preserve">6.49858474731445</t>
@@ -2354,58 +2354,58 @@
     <t xml:space="preserve">6.57553720474243</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69096422195435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72944021224976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56399393081665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38315677642822</t>
+    <t xml:space="preserve">6.6909646987915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7294397354126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56399440765381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3831582069397</t>
   </si>
   <si>
     <t xml:space="preserve">6.04456901550293</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99070310592651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00994110107422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86758041381836</t>
+    <t xml:space="preserve">5.99070262908936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00994157791138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8675799369812</t>
   </si>
   <si>
     <t xml:space="preserve">5.66365766525269</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59824895858765</t>
+    <t xml:space="preserve">5.59824848175049</t>
   </si>
   <si>
     <t xml:space="preserve">5.57516241073608</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53668689727783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25581169128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13268947601318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77101564407349</t>
+    <t xml:space="preserve">5.53668737411499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2558126449585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13268995285034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77101516723633</t>
   </si>
   <si>
     <t xml:space="preserve">4.20157194137573</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15540027618408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76448559761047</t>
+    <t xml:space="preserve">4.1554012298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76448535919189</t>
   </si>
   <si>
     <t xml:space="preserve">3.7675633430481</t>
@@ -2414,97 +2414,97 @@
     <t xml:space="preserve">3.44898271560669</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1781120300293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13809728622437</t>
+    <t xml:space="preserve">3.17811179161072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13809752464294</t>
   </si>
   <si>
     <t xml:space="preserve">3.25660276412964</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24736881256104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63982319831848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74909520149231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95532608032227</t>
+    <t xml:space="preserve">3.24736833572388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6398229598999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74909496307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95532631874084</t>
   </si>
   <si>
     <t xml:space="preserve">3.82142996788025</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6336669921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5782618522644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56748843193054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57980060577393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51670026779175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64444041252136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84759330749512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0207347869873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20926713943481</t>
+    <t xml:space="preserve">3.63366723060608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57826209068298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56748867034912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57980108261108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51670050621033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64444017410278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8475935459137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02073526382446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20926666259766</t>
   </si>
   <si>
     <t xml:space="preserve">3.85913586616516</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90530776977539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02458333969116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94763135910034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75986862182617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89761257171631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98610639572144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96686887741089</t>
+    <t xml:space="preserve">3.90530729293823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.024582862854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94763088226318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75986838340759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89761233329773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98610687255859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96686911582947</t>
   </si>
   <si>
     <t xml:space="preserve">4.11692428588867</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31315279006958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48629379272461</t>
+    <t xml:space="preserve">4.31315183639526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48629426956177</t>
   </si>
   <si>
     <t xml:space="preserve">4.28621912002563</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09383916854858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03227710723877</t>
+    <t xml:space="preserve">4.09383964538574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03227758407593</t>
   </si>
   <si>
     <t xml:space="preserve">4.07844924926758</t>
@@ -2513,19 +2513,19 @@
     <t xml:space="preserve">4.12461996078491</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12846755981445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30545711517334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38240814208984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24004793167114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14385795593262</t>
+    <t xml:space="preserve">4.12846708297729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30545663833618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38240909576416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24004745483398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14385843276978</t>
   </si>
   <si>
     <t xml:space="preserve">4.25928544998169</t>
@@ -2537,7 +2537,7 @@
     <t xml:space="preserve">4.3862566947937</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42473173141479</t>
+    <t xml:space="preserve">4.42473220825195</t>
   </si>
   <si>
     <t xml:space="preserve">4.51322650909424</t>
@@ -2552,25 +2552,25 @@
     <t xml:space="preserve">4.60941648483276</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57094144821167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74023389816284</t>
+    <t xml:space="preserve">4.57094097137451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74023532867432</t>
   </si>
   <si>
     <t xml:space="preserve">4.79410123825073</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97493839263916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2057933807373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32506895065308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12114667892456</t>
+    <t xml:space="preserve">4.97493886947632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20579385757446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32506942749023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1211462020874</t>
   </si>
   <si>
     <t xml:space="preserve">4.84412002563477</t>
@@ -2579,169 +2579,169 @@
     <t xml:space="preserve">4.86335802078247</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02495718002319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97109079360962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94800424575806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99802398681641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98263311386108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02880382537842</t>
+    <t xml:space="preserve">5.02495670318604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97109031677246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94800472259521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99802350997925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98263359069824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02880477905273</t>
   </si>
   <si>
     <t xml:space="preserve">4.81333923339844</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80179595947266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85181522369385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89413928985596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91722393035889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83642482757568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06343269348145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94031047821045</t>
+    <t xml:space="preserve">4.80179643630981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85181474685669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8941388130188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91722440719604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83642435073853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0634331703186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94031000137329</t>
   </si>
   <si>
     <t xml:space="preserve">5.0595850944519</t>
   </si>
   <si>
-    <t xml:space="preserve">5.03649997711182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82488107681274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94415712356567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00187158584595</t>
+    <t xml:space="preserve">5.03649950027466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82488203048706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94415760040283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00187110900879</t>
   </si>
   <si>
     <t xml:space="preserve">5.07112789154053</t>
   </si>
   <si>
-    <t xml:space="preserve">5.07497596740723</t>
+    <t xml:space="preserve">5.07497549057007</t>
   </si>
   <si>
     <t xml:space="preserve">5.09806156158447</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2173376083374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15962266921997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11345100402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06728029251099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98648071289062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93261432647705</t>
+    <t xml:space="preserve">5.21733665466309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15962219238281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11345148086548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06728076934814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98648023605347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93261528015137</t>
   </si>
   <si>
     <t xml:space="preserve">4.9133768081665</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95185279846191</t>
+    <t xml:space="preserve">4.95185232162476</t>
   </si>
   <si>
     <t xml:space="preserve">4.7671685218811</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95570039749146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96339511871338</t>
+    <t xml:space="preserve">4.9556999206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96339559555054</t>
   </si>
   <si>
     <t xml:space="preserve">5.10190868377686</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1865553855896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24042272567749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15577554702759</t>
+    <t xml:space="preserve">5.18655633926392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24042224884033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15577507019043</t>
   </si>
   <si>
     <t xml:space="preserve">5.02110910415649</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10575675964355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97878551483154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14038419723511</t>
+    <t xml:space="preserve">5.1057562828064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97878503799438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14038467407227</t>
   </si>
   <si>
     <t xml:space="preserve">5.05188989639282</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08651828765869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92491912841797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78255796432495</t>
+    <t xml:space="preserve">5.08651876449585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92492008209229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78255844116211</t>
   </si>
   <si>
     <t xml:space="preserve">4.86720514297485</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87105321884155</t>
+    <t xml:space="preserve">4.87105274200439</t>
   </si>
   <si>
     <t xml:space="preserve">5.09036588668823</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84796762466431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73253917694092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84027242660522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70560646057129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78640651702881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04034757614136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95954751968384</t>
+    <t xml:space="preserve">4.84796810150146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73253965377808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84027290344238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70560693740845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78640556335449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04034662246704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.959547996521</t>
   </si>
   <si>
     <t xml:space="preserve">4.80949211120605</t>
@@ -2750,28 +2750,28 @@
     <t xml:space="preserve">4.83257722854614</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81718778610229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65558815002441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51707363128662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46320867538452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50937938690186</t>
+    <t xml:space="preserve">4.81718683242798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65558862686157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51707410812378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46320772171021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50937986373901</t>
   </si>
   <si>
     <t xml:space="preserve">4.75562524795532</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29428863525391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38278341293335</t>
+    <t xml:space="preserve">5.29428768157959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38278293609619</t>
   </si>
   <si>
     <t xml:space="preserve">5.51744890213013</t>
@@ -2780,13 +2780,13 @@
     <t xml:space="preserve">5.38663053512573</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55592441558838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81756114959717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80986595153809</t>
+    <t xml:space="preserve">5.55592489242554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81756067276001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80986547470093</t>
   </si>
   <si>
     <t xml:space="preserve">5.73291397094727</t>
@@ -2795,43 +2795,43 @@
     <t xml:space="preserve">5.84449434280396</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8637318611145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01763582229614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89066553115845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97531175613403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85218906402588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92529296875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76754236221313</t>
+    <t xml:space="preserve">5.86373138427734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01763677597046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89066600799561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97531270980835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85218954086304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92529392242432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76754188537598</t>
   </si>
   <si>
     <t xml:space="preserve">5.7175235748291</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70982837677002</t>
+    <t xml:space="preserve">5.70982885360718</t>
   </si>
   <si>
     <t xml:space="preserve">5.64441919326782</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60209560394287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59440040588379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50205850601196</t>
+    <t xml:space="preserve">5.60209608078003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59440088272095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5020580291748</t>
   </si>
   <si>
     <t xml:space="preserve">5.46743011474609</t>
@@ -2840,13 +2840,13 @@
     <t xml:space="preserve">5.47512531280518</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47897338867188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46358299255371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44434499740601</t>
+    <t xml:space="preserve">5.47897291183472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46358251571655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44434404373169</t>
   </si>
   <si>
     <t xml:space="preserve">5.33276414871216</t>
@@ -2855,7 +2855,7 @@
     <t xml:space="preserve">5.40971612930298</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42895412445068</t>
+    <t xml:space="preserve">5.42895364761353</t>
   </si>
   <si>
     <t xml:space="preserve">5.47127771377563</t>
@@ -2864,64 +2864,64 @@
     <t xml:space="preserve">5.49821090698242</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43664979934692</t>
+    <t xml:space="preserve">5.43664932250977</t>
   </si>
   <si>
     <t xml:space="preserve">5.44819211959839</t>
   </si>
   <si>
-    <t xml:space="preserve">5.6598105430603</t>
+    <t xml:space="preserve">5.65980958938599</t>
   </si>
   <si>
     <t xml:space="preserve">5.63672399520874</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62902927398682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2750506401062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14423179626465</t>
+    <t xml:space="preserve">5.62902975082397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27505016326904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14423227310181</t>
   </si>
   <si>
     <t xml:space="preserve">5.07882308959961</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16346979141235</t>
+    <t xml:space="preserve">5.16347026824951</t>
   </si>
   <si>
     <t xml:space="preserve">5.22503137588501</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62518167495728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73676109313965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94837951660156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87912273406982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89836072921753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88296985626221</t>
+    <t xml:space="preserve">5.62518072128296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73676156997681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9483790397644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87912225723267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89836025238037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88297033309937</t>
   </si>
   <si>
     <t xml:space="preserve">5.76369476318359</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67904758453369</t>
+    <t xml:space="preserve">5.67904806137085</t>
   </si>
   <si>
     <t xml:space="preserve">5.69443798065186</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75984668731689</t>
+    <t xml:space="preserve">5.75984764099121</t>
   </si>
   <si>
     <t xml:space="preserve">5.62133407592773</t>
@@ -2930,10 +2930,10 @@
     <t xml:space="preserve">5.65211391448975</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55977201461792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74445772171021</t>
+    <t xml:space="preserve">5.55977249145508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74445676803589</t>
   </si>
   <si>
     <t xml:space="preserve">5.77523756027222</t>
@@ -2942,16 +2942,16 @@
     <t xml:space="preserve">5.75215244293213</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85988473892212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92144632339478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95992183685303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97916030883789</t>
+    <t xml:space="preserve">5.85988426208496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92144584655762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95992231369019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97915983200073</t>
   </si>
   <si>
     <t xml:space="preserve">5.96376943588257</t>
@@ -2960,13 +2960,13 @@
     <t xml:space="preserve">5.97146511077881</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09843587875366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2523398399353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.159996509552</t>
+    <t xml:space="preserve">6.0984354019165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25233888626099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15999746322632</t>
   </si>
   <si>
     <t xml:space="preserve">6.18308210372925</t>
@@ -2975,13 +2975,13 @@
     <t xml:space="preserve">6.09074068069458</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13306427001953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14075899124146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22540616989136</t>
+    <t xml:space="preserve">6.13306331634521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14075946807861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22540664672852</t>
   </si>
   <si>
     <t xml:space="preserve">6.19462537765503</t>
@@ -2990,34 +2990,34 @@
     <t xml:space="preserve">6.17461776733398</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21001625061035</t>
+    <t xml:space="preserve">6.21001529693604</t>
   </si>
   <si>
     <t xml:space="preserve">6.12844657897949</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04379987716675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10690021514893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05457305908203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05765104293823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00224542617798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02225351333618</t>
+    <t xml:space="preserve">6.04379940032959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10689973831177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05457258224487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05765151977539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00224590301514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02225399017334</t>
   </si>
   <si>
     <t xml:space="preserve">6.08535385131836</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02994871139526</t>
+    <t xml:space="preserve">6.02994918823242</t>
   </si>
   <si>
     <t xml:space="preserve">5.95761346817017</t>
@@ -3026,25 +3026,25 @@
     <t xml:space="preserve">6.01455783843994</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04072189331055</t>
+    <t xml:space="preserve">6.04072141647339</t>
   </si>
   <si>
     <t xml:space="preserve">6.01301908493042</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98069858551025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10843944549561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01147985458374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08227491378784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16846132278442</t>
+    <t xml:space="preserve">5.98069906234741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10843896865845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01147937774658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.082275390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16846036911011</t>
   </si>
   <si>
     <t xml:space="preserve">6.23925733566284</t>
@@ -3053,16 +3053,16 @@
     <t xml:space="preserve">6.21463346481323</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06380748748779</t>
+    <t xml:space="preserve">6.06380653381348</t>
   </si>
   <si>
     <t xml:space="preserve">6.06688499450684</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08843231201172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03918266296387</t>
+    <t xml:space="preserve">6.0884313583374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03918170928955</t>
   </si>
   <si>
     <t xml:space="preserve">6.12463521957397</t>
@@ -3074,28 +3074,28 @@
     <t xml:space="preserve">6.07367372512817</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0891170501709</t>
+    <t xml:space="preserve">6.08911657333374</t>
   </si>
   <si>
     <t xml:space="preserve">6.25898790359497</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24354600906372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22810316085815</t>
+    <t xml:space="preserve">6.24354553222656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.228102684021</t>
   </si>
   <si>
     <t xml:space="preserve">6.24045658111572</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21729278564453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26516628265381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38561964035034</t>
+    <t xml:space="preserve">6.21729230880737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26516532897949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3856201171875</t>
   </si>
   <si>
     <t xml:space="preserve">6.4242262840271</t>
@@ -3110,13 +3110,13 @@
     <t xml:space="preserve">6.37172079086304</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34237957000732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44893550872803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46283340454102</t>
+    <t xml:space="preserve">6.34237909317017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44893598556519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46283292770386</t>
   </si>
   <si>
     <t xml:space="preserve">6.34855699539185</t>
@@ -3131,22 +3131,22 @@
     <t xml:space="preserve">6.35318899154663</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53232669830322</t>
+    <t xml:space="preserve">6.53232622146606</t>
   </si>
   <si>
     <t xml:space="preserve">6.33311319351196</t>
   </si>
   <si>
-    <t xml:space="preserve">6.479820728302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33465814590454</t>
+    <t xml:space="preserve">6.47982120513916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3346586227417</t>
   </si>
   <si>
     <t xml:space="preserve">6.33774709701538</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35936737060547</t>
+    <t xml:space="preserve">6.35936689376831</t>
   </si>
   <si>
     <t xml:space="preserve">6.35782241821289</t>
@@ -3155,7 +3155,7 @@
     <t xml:space="preserve">6.36091136932373</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32075881958008</t>
+    <t xml:space="preserve">6.32075929641724</t>
   </si>
   <si>
     <t xml:space="preserve">6.21265935897827</t>
@@ -3164,19 +3164,19 @@
     <t xml:space="preserve">6.30531740188599</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40723896026611</t>
+    <t xml:space="preserve">6.40723991394043</t>
   </si>
   <si>
     <t xml:space="preserve">6.34083557128906</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36245584487915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26979827880859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25744390487671</t>
+    <t xml:space="preserve">6.36245536804199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26979875564575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25744342803955</t>
   </si>
   <si>
     <t xml:space="preserve">5.99800395965576</t>
@@ -3185,37 +3185,37 @@
     <t xml:space="preserve">6.04587697982788</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24200010299683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29141807556152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34701251983643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50452947616577</t>
+    <t xml:space="preserve">6.24200057983398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29141855239868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34701299667358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50452995300293</t>
   </si>
   <si>
     <t xml:space="preserve">6.51070737838745</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48754358291626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48290872573853</t>
+    <t xml:space="preserve">6.48754262924194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48290920257568</t>
   </si>
   <si>
     <t xml:space="preserve">6.41187238693237</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42731618881226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39334106445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43812561035156</t>
+    <t xml:space="preserve">6.42731523513794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39334011077881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4381251335144</t>
   </si>
   <si>
     <t xml:space="preserve">6.49680709838867</t>
@@ -3224,28 +3224,28 @@
     <t xml:space="preserve">6.57865619659424</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66204738616943</t>
+    <t xml:space="preserve">6.66204786300659</t>
   </si>
   <si>
     <t xml:space="preserve">6.67131280899048</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76705837249756</t>
+    <t xml:space="preserve">6.7670578956604</t>
   </si>
   <si>
     <t xml:space="preserve">6.74698305130005</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79022216796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74852657318115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79948806762695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65278100967407</t>
+    <t xml:space="preserve">6.79022264480591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74852609634399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79948854446411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65278005599976</t>
   </si>
   <si>
     <t xml:space="preserve">6.62652826309204</t>
@@ -3254,13 +3254,13 @@
     <t xml:space="preserve">6.69293165206909</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6821231842041</t>
+    <t xml:space="preserve">6.68212270736694</t>
   </si>
   <si>
     <t xml:space="preserve">6.70991897583008</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69602108001709</t>
+    <t xml:space="preserve">6.69602060317993</t>
   </si>
   <si>
     <t xml:space="preserve">6.75315952301025</t>
@@ -3272,22 +3272,22 @@
     <t xml:space="preserve">6.78713369369507</t>
   </si>
   <si>
-    <t xml:space="preserve">6.78558969497681</t>
+    <t xml:space="preserve">6.78559017181396</t>
   </si>
   <si>
     <t xml:space="preserve">6.81029796600342</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81338691711426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77941131591797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75933647155762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75624752044678</t>
+    <t xml:space="preserve">6.8133864402771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77941179275513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75933694839478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75624799728394</t>
   </si>
   <si>
     <t xml:space="preserve">6.72381782531738</t>
@@ -3296,31 +3296,31 @@
     <t xml:space="preserve">6.88751268386841</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93229627609253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88133573532104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93847465515137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87515830993652</t>
+    <t xml:space="preserve">6.93229675292969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88133525848389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93847417831421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87515878677368</t>
   </si>
   <si>
     <t xml:space="preserve">6.66667938232422</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87824678421021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09907913208008</t>
+    <t xml:space="preserve">6.87824583053589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09908008575439</t>
   </si>
   <si>
     <t xml:space="preserve">7.04811763763428</t>
   </si>
   <si>
-    <t xml:space="preserve">7.07591438293457</t>
+    <t xml:space="preserve">7.07591390609741</t>
   </si>
   <si>
     <t xml:space="preserve">7.07282590866089</t>
@@ -3329,34 +3329,34 @@
     <t xml:space="preserve">7.15776300430298</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21953439712524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33535480499268</t>
+    <t xml:space="preserve">7.2195348739624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33535432815552</t>
   </si>
   <si>
     <t xml:space="preserve">7.35234212875366</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4990496635437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38940525054932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52530241012573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4573540687561</t>
+    <t xml:space="preserve">7.49904918670654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38940477371216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52530288696289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45735263824463</t>
   </si>
   <si>
     <t xml:space="preserve">7.51294708251953</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61178207397461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51758050918579</t>
+    <t xml:space="preserve">7.61178159713745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51758146286011</t>
   </si>
   <si>
     <t xml:space="preserve">7.57626390457153</t>
@@ -3365,70 +3365,70 @@
     <t xml:space="preserve">7.61487054824829</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63771915435791</t>
+    <t xml:space="preserve">7.63771867752075</t>
   </si>
   <si>
     <t xml:space="preserve">7.49894285202026</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5056300163269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41199779510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39862251281738</t>
+    <t xml:space="preserve">7.50563049316406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4119987487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39862203598022</t>
   </si>
   <si>
     <t xml:space="preserve">7.34177350997925</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45212554931641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39360523223877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34511804580688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27823829650879</t>
+    <t xml:space="preserve">7.45212602615356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39360570907593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34511852264404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27823781967163</t>
   </si>
   <si>
     <t xml:space="preserve">7.36350965499878</t>
   </si>
   <si>
-    <t xml:space="preserve">7.26820659637451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33174180984497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47553491592407</t>
+    <t xml:space="preserve">7.26820611953735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33174228668213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47553443908691</t>
   </si>
   <si>
     <t xml:space="preserve">7.44878196716309</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45547103881836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53739881515503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58087015151978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58923149108887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65778160095215</t>
+    <t xml:space="preserve">7.45547151565552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53739833831787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58087110519409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58923101425171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65778255462646</t>
   </si>
   <si>
     <t xml:space="preserve">7.64273452758789</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54408693313599</t>
+    <t xml:space="preserve">7.54408597946167</t>
   </si>
   <si>
     <t xml:space="preserve">7.45379829406738</t>
@@ -3437,7 +3437,7 @@
     <t xml:space="preserve">7.34344673156738</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50483989715576</t>
+    <t xml:space="preserve">7.50483894348145</t>
   </si>
   <si>
     <t xml:space="preserve">7.3657660484314</t>
@@ -3449,13 +3449,13 @@
     <t xml:space="preserve">7.48251914978027</t>
   </si>
   <si>
-    <t xml:space="preserve">7.14599561691284</t>
+    <t xml:space="preserve">7.14599609375</t>
   </si>
   <si>
     <t xml:space="preserve">7.20265579223633</t>
   </si>
   <si>
-    <t xml:space="preserve">7.08075141906738</t>
+    <t xml:space="preserve">7.08075094223022</t>
   </si>
   <si>
     <t xml:space="preserve">7.26446580886841</t>
@@ -3470,7 +3470,7 @@
     <t xml:space="preserve">7.3262767791748</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47736835479736</t>
+    <t xml:space="preserve">7.47736883163452</t>
   </si>
   <si>
     <t xml:space="preserve">7.40697383880615</t>
@@ -3479,7 +3479,7 @@
     <t xml:space="preserve">7.34001207351685</t>
   </si>
   <si>
-    <t xml:space="preserve">7.28850269317627</t>
+    <t xml:space="preserve">7.28850173950195</t>
   </si>
   <si>
     <t xml:space="preserve">7.27820110321045</t>
@@ -3494,112 +3494,112 @@
     <t xml:space="preserve">7.20952272415161</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98631763458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19235324859619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2524471282959</t>
+    <t xml:space="preserve">6.98631715774536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19235277175903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25244665145874</t>
   </si>
   <si>
     <t xml:space="preserve">7.37091732025146</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44302940368652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43444395065308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45161485671997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54433059692383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.600989818573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66623544692993</t>
+    <t xml:space="preserve">7.44302988052368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43444442749023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45161581039429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54433012008667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60098934173584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66623497009277</t>
   </si>
   <si>
     <t xml:space="preserve">7.45504808425903</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59240579605103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66280031204224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80359125137329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94953346252441</t>
+    <t xml:space="preserve">7.59240531921387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66280078887939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80359220504761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94953298568726</t>
   </si>
   <si>
     <t xml:space="preserve">7.97872161865234</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82247734069824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78813934326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60442447662354</t>
+    <t xml:space="preserve">7.82247877120972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78813791275024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60442352294922</t>
   </si>
   <si>
     <t xml:space="preserve">7.59755706787109</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50140571594238</t>
+    <t xml:space="preserve">7.5014066696167</t>
   </si>
   <si>
     <t xml:space="preserve">7.16831588745117</t>
   </si>
   <si>
-    <t xml:space="preserve">7.17861843109131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32799339294434</t>
+    <t xml:space="preserve">7.17861795425415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32799386978149</t>
   </si>
   <si>
     <t xml:space="preserve">7.29193735122681</t>
   </si>
   <si>
-    <t xml:space="preserve">7.23356008529663</t>
+    <t xml:space="preserve">7.23356056213379</t>
   </si>
   <si>
     <t xml:space="preserve">7.3520302772522</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46363353729248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56665182113647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49282026290894</t>
+    <t xml:space="preserve">7.46363401412964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56665134429932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49282121658325</t>
   </si>
   <si>
     <t xml:space="preserve">7.22497510910034</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32112503051758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49453783035278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60614061355591</t>
+    <t xml:space="preserve">7.32112455368042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49453830718994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60614013671875</t>
   </si>
   <si>
     <t xml:space="preserve">7.34859704971313</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09792041778564</t>
+    <t xml:space="preserve">7.09791994094849</t>
   </si>
   <si>
     <t xml:space="preserve">7.29708814620972</t>
@@ -3620,10 +3620,10 @@
     <t xml:space="preserve">6.97429895401001</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03095817565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43345642089844</t>
+    <t xml:space="preserve">7.03095865249634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43345594406128</t>
   </si>
   <si>
     <t xml:space="preserve">6.586266040802</t>
@@ -3635,31 +3635,31 @@
     <t xml:space="preserve">6.08491230010986</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11238384246826</t>
+    <t xml:space="preserve">6.11238431930542</t>
   </si>
   <si>
     <t xml:space="preserve">5.96987628936768</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58012580871582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51488161087036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67284154891968</t>
+    <t xml:space="preserve">5.58012628555298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5148811340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67284202575684</t>
   </si>
   <si>
     <t xml:space="preserve">6.29438209533691</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92866945266724</t>
+    <t xml:space="preserve">5.92866897583008</t>
   </si>
   <si>
     <t xml:space="preserve">6.06259250640869</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16389226913452</t>
+    <t xml:space="preserve">6.16389274597168</t>
   </si>
   <si>
     <t xml:space="preserve">6.29609966278076</t>
@@ -3671,7 +3671,7 @@
     <t xml:space="preserve">6.5793981552124</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56051206588745</t>
+    <t xml:space="preserve">6.56051158905029</t>
   </si>
   <si>
     <t xml:space="preserve">6.5124363899231</t>
@@ -3686,13 +3686,13 @@
     <t xml:space="preserve">6.56909608840942</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62918949127197</t>
+    <t xml:space="preserve">6.62918996810913</t>
   </si>
   <si>
     <t xml:space="preserve">6.66868019104004</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85239505767822</t>
+    <t xml:space="preserve">6.85239458084106</t>
   </si>
   <si>
     <t xml:space="preserve">6.78886747360229</t>
@@ -3707,16 +3707,16 @@
     <t xml:space="preserve">6.6995849609375</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63777446746826</t>
+    <t xml:space="preserve">6.6377739906311</t>
   </si>
   <si>
     <t xml:space="preserve">6.40770196914673</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39396619796753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.551926612854</t>
+    <t xml:space="preserve">6.39396572113037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55192613601685</t>
   </si>
   <si>
     <t xml:space="preserve">6.51415300369263</t>
@@ -3728,7 +3728,7 @@
     <t xml:space="preserve">6.50900268554688</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5587944984436</t>
+    <t xml:space="preserve">6.55879402160645</t>
   </si>
   <si>
     <t xml:space="preserve">6.28841829299927</t>
@@ -3737,25 +3737,25 @@
     <t xml:space="preserve">6.39482402801514</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36691474914551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26922988891602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13665866851807</t>
+    <t xml:space="preserve">6.36691522598267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26923036575317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13665914535522</t>
   </si>
   <si>
     <t xml:space="preserve">6.03548574447632</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07735109329224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01978635787964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08432769775391</t>
+    <t xml:space="preserve">6.07735061645508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0197868347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08432817459106</t>
   </si>
   <si>
     <t xml:space="preserve">6.03374195098877</t>
@@ -3764,10 +3764,10 @@
     <t xml:space="preserve">6.06514024734497</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02676439285278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09653854370117</t>
+    <t xml:space="preserve">6.02676391601562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09653902053833</t>
   </si>
   <si>
     <t xml:space="preserve">6.05990695953369</t>
@@ -3779,7 +3779,7 @@
     <t xml:space="preserve">6.0302529335022</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30237340927124</t>
+    <t xml:space="preserve">6.30237293243408</t>
   </si>
   <si>
     <t xml:space="preserve">6.1418924331665</t>
@@ -3788,16 +3788,16 @@
     <t xml:space="preserve">6.19073390960693</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22562122344971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25004196166992</t>
+    <t xml:space="preserve">6.22562170028687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25004243850708</t>
   </si>
   <si>
     <t xml:space="preserve">6.16980171203613</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20120048522949</t>
+    <t xml:space="preserve">6.20120000839233</t>
   </si>
   <si>
     <t xml:space="preserve">6.39307975769043</t>
@@ -3806,7 +3806,7 @@
     <t xml:space="preserve">6.24132061004639</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25527477264404</t>
+    <t xml:space="preserve">6.2552752494812</t>
   </si>
   <si>
     <t xml:space="preserve">6.45413255691528</t>
@@ -3815,22 +3815,22 @@
     <t xml:space="preserve">6.44366598129272</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41226768493652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34074926376343</t>
+    <t xml:space="preserve">6.41226816177368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34074878692627</t>
   </si>
   <si>
     <t xml:space="preserve">6.23608732223511</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38435840606689</t>
+    <t xml:space="preserve">6.38435888290405</t>
   </si>
   <si>
     <t xml:space="preserve">6.2953953742981</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20643377304077</t>
+    <t xml:space="preserve">6.20643329620361</t>
   </si>
   <si>
     <t xml:space="preserve">6.0215311050415</t>
@@ -3842,31 +3842,31 @@
     <t xml:space="preserve">5.34995269775391</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56450843811035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64823818206787</t>
+    <t xml:space="preserve">5.56450891494751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64823770523071</t>
   </si>
   <si>
     <t xml:space="preserve">5.43368196487427</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4790358543396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55055379867554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55229806900024</t>
+    <t xml:space="preserve">5.47903537750244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5505542755127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5522985458374</t>
   </si>
   <si>
     <t xml:space="preserve">5.58718538284302</t>
   </si>
   <si>
-    <t xml:space="preserve">5.74941062927246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60462951660156</t>
+    <t xml:space="preserve">5.74941110610962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6046290397644</t>
   </si>
   <si>
     <t xml:space="preserve">5.61683988571167</t>
@@ -3881,13 +3881,13 @@
     <t xml:space="preserve">5.49996757507324</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48077964782715</t>
+    <t xml:space="preserve">5.48077917098999</t>
   </si>
   <si>
     <t xml:space="preserve">5.20865917205811</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30111074447632</t>
+    <t xml:space="preserve">5.30111026763916</t>
   </si>
   <si>
     <t xml:space="preserve">5.45984792709351</t>
@@ -3899,13 +3899,13 @@
     <t xml:space="preserve">5.45810270309448</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54008769989014</t>
+    <t xml:space="preserve">5.54008817672729</t>
   </si>
   <si>
     <t xml:space="preserve">5.46333599090576</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2697114944458</t>
+    <t xml:space="preserve">5.26971197128296</t>
   </si>
   <si>
     <t xml:space="preserve">5.32727575302124</t>
@@ -3923,40 +3923,40 @@
     <t xml:space="preserve">5.44240379333496</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43891477584839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38309478759766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41449403762817</t>
+    <t xml:space="preserve">5.43891525268555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38309526443481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41449451446533</t>
   </si>
   <si>
     <t xml:space="preserve">5.62556123733521</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65172672271729</t>
+    <t xml:space="preserve">5.65172719955444</t>
   </si>
   <si>
     <t xml:space="preserve">5.594162940979</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91686916351318</t>
+    <t xml:space="preserve">5.91686964035034</t>
   </si>
   <si>
     <t xml:space="preserve">6.06688451766968</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97268962860107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95350170135498</t>
+    <t xml:space="preserve">5.97268915176392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95350122451782</t>
   </si>
   <si>
     <t xml:space="preserve">5.92384672164917</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96920013427734</t>
+    <t xml:space="preserve">5.9692006111145</t>
   </si>
   <si>
     <t xml:space="preserve">6.00408744812012</t>
@@ -3965,7 +3965,7 @@
     <t xml:space="preserve">6.03897476196289</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97617816925049</t>
+    <t xml:space="preserve">5.97617769241333</t>
   </si>
   <si>
     <t xml:space="preserve">5.85930585861206</t>
@@ -3974,7 +3974,7 @@
     <t xml:space="preserve">5.90291452407837</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78429841995239</t>
+    <t xml:space="preserve">5.78429794311523</t>
   </si>
   <si>
     <t xml:space="preserve">5.63079452514648</t>
@@ -3983,10 +3983,10 @@
     <t xml:space="preserve">5.73022317886353</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67091464996338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59939622879028</t>
+    <t xml:space="preserve">5.67091417312622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59939575195312</t>
   </si>
   <si>
     <t xml:space="preserve">5.46682500839233</t>
@@ -3995,7 +3995,7 @@
     <t xml:space="preserve">5.57846355438232</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56276416778564</t>
+    <t xml:space="preserve">5.5627646446228</t>
   </si>
   <si>
     <t xml:space="preserve">5.43193769454956</t>
@@ -4007,31 +4007,31 @@
     <t xml:space="preserve">5.51043367385864</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54880952835083</t>
+    <t xml:space="preserve">5.54880905151367</t>
   </si>
   <si>
     <t xml:space="preserve">5.62032794952393</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63777256011963</t>
+    <t xml:space="preserve">5.63777208328247</t>
   </si>
   <si>
     <t xml:space="preserve">5.76685476303101</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00757598876953</t>
+    <t xml:space="preserve">6.00757646560669</t>
   </si>
   <si>
     <t xml:space="preserve">5.87326097488403</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9587345123291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73545598983765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70056867599487</t>
+    <t xml:space="preserve">5.95873355865479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7354564666748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70056819915771</t>
   </si>
   <si>
     <t xml:space="preserve">5.78080940246582</t>
@@ -4046,10 +4046,10 @@
     <t xml:space="preserve">5.62730598449707</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41798305511475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59590721130371</t>
+    <t xml:space="preserve">5.41798257827759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59590673446655</t>
   </si>
   <si>
     <t xml:space="preserve">5.51566648483276</t>
@@ -4058,7 +4058,7 @@
     <t xml:space="preserve">5.56974220275879</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40926074981689</t>
+    <t xml:space="preserve">5.40926122665405</t>
   </si>
   <si>
     <t xml:space="preserve">5.64300489425659</t>
@@ -4067,28 +4067,28 @@
     <t xml:space="preserve">5.92035818099976</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85407257080078</t>
+    <t xml:space="preserve">5.85407304763794</t>
   </si>
   <si>
     <t xml:space="preserve">5.83314037322998</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77383184432983</t>
+    <t xml:space="preserve">5.77383136749268</t>
   </si>
   <si>
     <t xml:space="preserve">5.78778696060181</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73371171951294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58020734786987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75813245773315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80871963500977</t>
+    <t xml:space="preserve">5.73371124267578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58020782470703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75813293457031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80871915817261</t>
   </si>
   <si>
     <t xml:space="preserve">5.93605756759644</t>
@@ -4100,25 +4100,25 @@
     <t xml:space="preserve">6.08781671524048</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12270402908325</t>
+    <t xml:space="preserve">6.12270355224609</t>
   </si>
   <si>
     <t xml:space="preserve">6.15061378479004</t>
   </si>
   <si>
-    <t xml:space="preserve">6.223876953125</t>
+    <t xml:space="preserve">6.22387647628784</t>
   </si>
   <si>
     <t xml:space="preserve">6.40180206298828</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42447805404663</t>
+    <t xml:space="preserve">6.42447853088379</t>
   </si>
   <si>
     <t xml:space="preserve">6.55356073379517</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63380146026611</t>
+    <t xml:space="preserve">6.63380098342896</t>
   </si>
   <si>
     <t xml:space="preserve">6.61112451553345</t>
@@ -4130,7 +4130,7 @@
     <t xml:space="preserve">6.57798194885254</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60065889358521</t>
+    <t xml:space="preserve">6.60065841674805</t>
   </si>
   <si>
     <t xml:space="preserve">6.74020767211914</t>
@@ -4151,7 +4151,7 @@
     <t xml:space="preserve">6.89720010757446</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00535011291504</t>
+    <t xml:space="preserve">7.00534963607788</t>
   </si>
   <si>
     <t xml:space="preserve">7.04547071456909</t>
@@ -4160,10 +4160,10 @@
     <t xml:space="preserve">7.01058340072632</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00186109542847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05419254302979</t>
+    <t xml:space="preserve">7.00186157226562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05419301986694</t>
   </si>
   <si>
     <t xml:space="preserve">7.05958557128906</t>
@@ -4175,10 +4175,10 @@
     <t xml:space="preserve">7.11531448364258</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02542877197266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04160833358765</t>
+    <t xml:space="preserve">7.02542924880981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0416088104248</t>
   </si>
   <si>
     <t xml:space="preserve">7.08115768432617</t>
@@ -4187,10 +4187,10 @@
     <t xml:space="preserve">7.07576513290405</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24295091629028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08295583724976</t>
+    <t xml:space="preserve">7.24295043945312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0829553604126</t>
   </si>
   <si>
     <t xml:space="preserve">7.17284059524536</t>
@@ -4205,10 +4205,10 @@
     <t xml:space="preserve">7.0218334197998</t>
   </si>
   <si>
-    <t xml:space="preserve">7.07756280899048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0146427154541</t>
+    <t xml:space="preserve">7.07756233215332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01464319229126</t>
   </si>
   <si>
     <t xml:space="preserve">7.09913492202759</t>
@@ -4220,16 +4220,16 @@
     <t xml:space="preserve">6.98408174514771</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9319486618042</t>
+    <t xml:space="preserve">6.93194818496704</t>
   </si>
   <si>
     <t xml:space="preserve">7.11171913146973</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0649790763855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03981065750122</t>
+    <t xml:space="preserve">7.06497859954834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03981018066406</t>
   </si>
   <si>
     <t xml:space="preserve">7.00924968719482</t>
@@ -4253,22 +4253,22 @@
     <t xml:space="preserve">7.44609212875366</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46047353744507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59350395202637</t>
+    <t xml:space="preserve">7.46047401428223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59350347518921</t>
   </si>
   <si>
     <t xml:space="preserve">7.63485145568848</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71754503250122</t>
+    <t xml:space="preserve">7.71754550933838</t>
   </si>
   <si>
     <t xml:space="preserve">7.7193431854248</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70675945281982</t>
+    <t xml:space="preserve">7.70675992965698</t>
   </si>
   <si>
     <t xml:space="preserve">7.56114482879639</t>
@@ -4280,19 +4280,19 @@
     <t xml:space="preserve">7.67260265350342</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7373194694519</t>
+    <t xml:space="preserve">7.73731994628906</t>
   </si>
   <si>
     <t xml:space="preserve">7.79844093322754</t>
   </si>
   <si>
-    <t xml:space="preserve">7.81641912460327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88113641738892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87933874130249</t>
+    <t xml:space="preserve">7.81641960144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88113594055176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87933826446533</t>
   </si>
   <si>
     <t xml:space="preserve">7.96023559570312</t>
@@ -4301,16 +4301,16 @@
     <t xml:space="preserve">8.0267505645752</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03034591674805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08787250518799</t>
+    <t xml:space="preserve">8.03034496307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0878734588623</t>
   </si>
   <si>
     <t xml:space="preserve">8.13101673126221</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17775630950928</t>
+    <t xml:space="preserve">8.17775726318359</t>
   </si>
   <si>
     <t xml:space="preserve">8.17955493927002</t>
@@ -4319,16 +4319,16 @@
     <t xml:space="preserve">8.10584926605225</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22989082336426</t>
+    <t xml:space="preserve">8.22989177703857</t>
   </si>
   <si>
     <t xml:space="preserve">8.26404762268066</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28562068939209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32337188720703</t>
+    <t xml:space="preserve">8.28561973571777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32337093353271</t>
   </si>
   <si>
     <t xml:space="preserve">8.34314632415771</t>
@@ -4355,7 +4355,7 @@
     <t xml:space="preserve">8.24427223205566</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3143835067749</t>
+    <t xml:space="preserve">8.31438255310059</t>
   </si>
   <si>
     <t xml:space="preserve">8.3701114654541</t>
@@ -4391,7 +4391,7 @@
     <t xml:space="preserve">7.59170579910278</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44968795776367</t>
+    <t xml:space="preserve">7.44968748092651</t>
   </si>
   <si>
     <t xml:space="preserve">7.33822917938232</t>
@@ -4400,10 +4400,10 @@
     <t xml:space="preserve">7.33103895187378</t>
   </si>
   <si>
-    <t xml:space="preserve">7.23576068878174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41193580627441</t>
+    <t xml:space="preserve">7.23576021194458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41193628311157</t>
   </si>
   <si>
     <t xml:space="preserve">7.51979780197144</t>
@@ -4412,7 +4412,7 @@
     <t xml:space="preserve">7.51260662078857</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60608768463135</t>
+    <t xml:space="preserve">7.60608720779419</t>
   </si>
   <si>
     <t xml:space="preserve">7.55754899978638</t>
@@ -4430,22 +4430,22 @@
     <t xml:space="preserve">7.67799520492554</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76428461074829</t>
+    <t xml:space="preserve">7.76428508758545</t>
   </si>
   <si>
     <t xml:space="preserve">7.76788091659546</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78945398330688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6851863861084</t>
+    <t xml:space="preserve">7.78945446014404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68518590927124</t>
   </si>
   <si>
     <t xml:space="preserve">7.74630832672119</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76855230331421</t>
+    <t xml:space="preserve">7.76855182647705</t>
   </si>
   <si>
     <t xml:space="preserve">7.65548133850098</t>
@@ -4466,19 +4466,19 @@
     <t xml:space="preserve">7.43304634094238</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29031610488892</t>
+    <t xml:space="preserve">7.29031658172607</t>
   </si>
   <si>
     <t xml:space="preserve">7.5090446472168</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51089811325073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50533628463745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34221744537354</t>
+    <t xml:space="preserve">7.51089763641357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50533676147461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34221792221069</t>
   </si>
   <si>
     <t xml:space="preserve">7.22173166275024</t>
@@ -4490,16 +4490,16 @@
     <t xml:space="preserve">7.27734136581421</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27919483184814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37372970581055</t>
+    <t xml:space="preserve">7.27919435501099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37372922897339</t>
   </si>
   <si>
     <t xml:space="preserve">7.35890054702759</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54240894317627</t>
+    <t xml:space="preserve">7.54240942001343</t>
   </si>
   <si>
     <t xml:space="preserve">7.57762813568115</t>
@@ -4514,7 +4514,7 @@
     <t xml:space="preserve">7.44787502288818</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44231367111206</t>
+    <t xml:space="preserve">7.4423131942749</t>
   </si>
   <si>
     <t xml:space="preserve">7.36446142196655</t>
@@ -4529,13 +4529,13 @@
     <t xml:space="preserve">7.62396907806396</t>
   </si>
   <si>
-    <t xml:space="preserve">7.55723857879639</t>
+    <t xml:space="preserve">7.55723905563354</t>
   </si>
   <si>
     <t xml:space="preserve">7.57392120361328</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59801864624023</t>
+    <t xml:space="preserve">7.59801816940308</t>
   </si>
   <si>
     <t xml:space="preserve">7.58504295349121</t>
@@ -4544,31 +4544,31 @@
     <t xml:space="preserve">7.58689641952515</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61655473709106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65918779373169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69626045227051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72777223587036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75001621246338</t>
+    <t xml:space="preserve">7.61655521392822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65918827056885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69626092910767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72777271270752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75001668930054</t>
   </si>
   <si>
     <t xml:space="preserve">7.76113700866699</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71108913421631</t>
+    <t xml:space="preserve">7.71108961105347</t>
   </si>
   <si>
     <t xml:space="preserve">7.72962617874146</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63694429397583</t>
+    <t xml:space="preserve">7.63694477081299</t>
   </si>
   <si>
     <t xml:space="preserve">7.57206773757935</t>
@@ -4589,16 +4589,16 @@
     <t xml:space="preserve">7.6907000541687</t>
   </si>
   <si>
-    <t xml:space="preserve">7.55167770385742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48865413665771</t>
+    <t xml:space="preserve">7.55167722702026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48865461349487</t>
   </si>
   <si>
     <t xml:space="preserve">7.29402351379395</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41821670532227</t>
+    <t xml:space="preserve">7.41821622848511</t>
   </si>
   <si>
     <t xml:space="preserve">7.47011852264404</t>
@@ -4610,19 +4610,19 @@
     <t xml:space="preserve">7.65733480453491</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73333311080933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73147964477539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75372362136841</t>
+    <t xml:space="preserve">7.73333358764648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73147916793823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75372314453125</t>
   </si>
   <si>
     <t xml:space="preserve">7.92240333557129</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96318292617798</t>
+    <t xml:space="preserve">7.96318340301514</t>
   </si>
   <si>
     <t xml:space="preserve">7.9705982208252</t>
@@ -4652,19 +4652,19 @@
     <t xml:space="preserve">7.88533163070679</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82786798477173</t>
+    <t xml:space="preserve">7.82786846160889</t>
   </si>
   <si>
     <t xml:space="preserve">7.81303930282593</t>
   </si>
   <si>
-    <t xml:space="preserve">7.8167462348938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80006456375122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33480310440063</t>
+    <t xml:space="preserve">7.81674671173096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80006408691406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33480358123779</t>
   </si>
   <si>
     <t xml:space="preserve">7.53128814697266</t>
@@ -4673,7 +4673,7 @@
     <t xml:space="preserve">7.6258225440979</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73889493942261</t>
+    <t xml:space="preserve">7.73889446258545</t>
   </si>
   <si>
     <t xml:space="preserve">7.56094598770142</t>
@@ -4688,10 +4688,10 @@
     <t xml:space="preserve">7.56279945373535</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54426383972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53684902191162</t>
+    <t xml:space="preserve">7.54426336288452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53684854507446</t>
   </si>
   <si>
     <t xml:space="preserve">7.61470079421997</t>
@@ -4715,7 +4715,7 @@
     <t xml:space="preserve">7.78523397445679</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79450225830078</t>
+    <t xml:space="preserve">7.7945032119751</t>
   </si>
   <si>
     <t xml:space="preserve">7.77411270141602</t>
@@ -4724,10 +4724,10 @@
     <t xml:space="preserve">7.83528327941895</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67957830429077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71665096282959</t>
+    <t xml:space="preserve">7.67957782745361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71665048599243</t>
   </si>
   <si>
     <t xml:space="preserve">7.8074779510498</t>
@@ -4751,10 +4751,10 @@
     <t xml:space="preserve">7.37743663787842</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47382545471191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34036445617676</t>
+    <t xml:space="preserve">7.47382593154907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3403639793396</t>
   </si>
   <si>
     <t xml:space="preserve">7.44046020507812</t>
@@ -4763,7 +4763,7 @@
     <t xml:space="preserve">7.46455717086792</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33665704727173</t>
+    <t xml:space="preserve">7.33665657043457</t>
   </si>
   <si>
     <t xml:space="preserve">7.36075401306152</t>
@@ -4790,7 +4790,7 @@
     <t xml:space="preserve">7.0382227897644</t>
   </si>
   <si>
-    <t xml:space="preserve">7.04749155044556</t>
+    <t xml:space="preserve">7.0474910736084</t>
   </si>
   <si>
     <t xml:space="preserve">7.04193019866943</t>
@@ -4802,7 +4802,7 @@
     <t xml:space="preserve">7.1420259475708</t>
   </si>
   <si>
-    <t xml:space="preserve">7.17724514007568</t>
+    <t xml:space="preserve">7.17724466323853</t>
   </si>
   <si>
     <t xml:space="preserve">7.31997394561768</t>
@@ -4811,7 +4811,7 @@
     <t xml:space="preserve">7.46641063690186</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37929010391235</t>
+    <t xml:space="preserve">7.37929058074951</t>
   </si>
   <si>
     <t xml:space="preserve">7.40524101257324</t>
@@ -4820,25 +4820,25 @@
     <t xml:space="preserve">7.42377758026123</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59987163543701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5813364982605</t>
+    <t xml:space="preserve">7.59987211227417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58133602142334</t>
   </si>
   <si>
     <t xml:space="preserve">7.77225923538208</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91498899459839</t>
+    <t xml:space="preserve">7.91498804092407</t>
   </si>
   <si>
     <t xml:space="preserve">7.89645290374756</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7778205871582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.801917552948</t>
+    <t xml:space="preserve">7.77782011032104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80191802978516</t>
   </si>
   <si>
     <t xml:space="preserve">7.91312694549561</t>
@@ -5280,6 +5280,9 @@
   </si>
   <si>
     <t xml:space="preserve">9.75500011444092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72500038146973</t>
   </si>
 </sst>
 </file>
@@ -62483,7 +62486,7 @@
     </row>
     <row r="2188">
       <c r="A2188" s="1" t="n">
-        <v>45509.6509490741</v>
+        <v>45509.2916666667</v>
       </c>
       <c r="B2188" t="n">
         <v>2486939</v>
@@ -62504,6 +62507,58 @@
         <v>1755</v>
       </c>
       <c r="H2188" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2189">
+      <c r="A2189" s="1" t="n">
+        <v>45510.2916666667</v>
+      </c>
+      <c r="B2189" t="n">
+        <v>1362017</v>
+      </c>
+      <c r="C2189" t="n">
+        <v>9.875</v>
+      </c>
+      <c r="D2189" t="n">
+        <v>9.59000015258789</v>
+      </c>
+      <c r="E2189" t="n">
+        <v>9.875</v>
+      </c>
+      <c r="F2189" t="n">
+        <v>9.72500038146973</v>
+      </c>
+      <c r="G2189" t="s">
+        <v>1756</v>
+      </c>
+      <c r="H2189" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2190">
+      <c r="A2190" s="1" t="n">
+        <v>45511.6493055556</v>
+      </c>
+      <c r="B2190" t="n">
+        <v>1810512</v>
+      </c>
+      <c r="C2190" t="n">
+        <v>10.0799999237061</v>
+      </c>
+      <c r="D2190" t="n">
+        <v>9.77499961853027</v>
+      </c>
+      <c r="E2190" t="n">
+        <v>9.85000038146973</v>
+      </c>
+      <c r="F2190" t="n">
+        <v>10.0299997329712</v>
+      </c>
+      <c r="G2190" t="s">
+        <v>1708</v>
+      </c>
+      <c r="H2190" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BMED.MI.xlsx
+++ b/data/BMED.MI.xlsx
@@ -44,61 +44,61 @@
     <t xml:space="preserve">BMED.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26425075531006</t>
+    <t xml:space="preserve">4.26425123214722</t>
   </si>
   <si>
     <t xml:space="preserve">3.99385023117065</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90060877799988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89439225196838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92236495018005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03425550460815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04047155380249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75453042984009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72344923019409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76074647903442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54318284988403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66750502586365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90682458877563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91614961624146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91925692558289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82912349700928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84155583381653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68615245819092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58669519424438</t>
+    <t xml:space="preserve">3.90060925483704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8943920135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92236518859863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03425598144531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04047012329102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75453019142151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72344946861267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76074624061584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54318308830261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66750431060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90682506561279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9161479473114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91925716400146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82912302017212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84155535697937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68615293502808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58669495582581</t>
   </si>
   <si>
     <t xml:space="preserve">3.64264011383057</t>
@@ -107,43 +107,43 @@
     <t xml:space="preserve">3.77628660202026</t>
   </si>
   <si>
-    <t xml:space="preserve">3.46237349510193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30386233329773</t>
+    <t xml:space="preserve">3.46237301826477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30386209487915</t>
   </si>
   <si>
     <t xml:space="preserve">3.60534405708313</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71723341941833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78561067581177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88817691802979</t>
+    <t xml:space="preserve">3.71723318099976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78561043739319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88817596435547</t>
   </si>
   <si>
     <t xml:space="preserve">3.84466409683228</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84777235984802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95966172218323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92547273635864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83844709396362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98763418197632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07465934753418</t>
+    <t xml:space="preserve">3.84777164459229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95966219902039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9254744052887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83844804763794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98763489723206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07465982437134</t>
   </si>
   <si>
     <t xml:space="preserve">4.07155132293701</t>
@@ -152,7 +152,7 @@
     <t xml:space="preserve">4.21762990951538</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23938703536987</t>
+    <t xml:space="preserve">4.23938751220703</t>
   </si>
   <si>
     <t xml:space="preserve">4.13371276855469</t>
@@ -161,76 +161,76 @@
     <t xml:space="preserve">4.2114143371582</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20830631256104</t>
+    <t xml:space="preserve">4.20830678939819</t>
   </si>
   <si>
     <t xml:space="preserve">4.27357530593872</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34816884994507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33262872695923</t>
+    <t xml:space="preserve">4.34816837310791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33262825012207</t>
   </si>
   <si>
     <t xml:space="preserve">4.30154800415039</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23006296157837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28600788116455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25181913375854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22073841094971</t>
+    <t xml:space="preserve">4.23006200790405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28600740432739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25181818008423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22073793411255</t>
   </si>
   <si>
     <t xml:space="preserve">4.17411804199219</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35749244689941</t>
+    <t xml:space="preserve">4.35749197006226</t>
   </si>
   <si>
     <t xml:space="preserve">4.39168119430542</t>
   </si>
   <si>
-    <t xml:space="preserve">4.41654443740845</t>
+    <t xml:space="preserve">4.41654586791992</t>
   </si>
   <si>
     <t xml:space="preserve">4.24249505996704</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15236043930054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04668807983398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27979183197021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31398057937622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27046728134155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43208599090576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47559881210327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40100574493408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50563955307007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43905448913574</t>
+    <t xml:space="preserve">4.15236139297485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04668712615967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27979135513306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31398010253906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27046632766724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43208646774292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47559976577759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40100479125977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50564098358154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4390549659729</t>
   </si>
   <si>
     <t xml:space="preserve">4.51198196411133</t>
@@ -239,13 +239,13 @@
     <t xml:space="preserve">4.54051876068115</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53100728988647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43271255493164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4834451675415</t>
+    <t xml:space="preserve">4.53100681304932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43271350860596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48344612121582</t>
   </si>
   <si>
     <t xml:space="preserve">4.44222497940063</t>
@@ -254,25 +254,25 @@
     <t xml:space="preserve">4.57222652435303</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55637264251709</t>
+    <t xml:space="preserve">4.55637216567993</t>
   </si>
   <si>
     <t xml:space="preserve">4.61661624908447</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48978710174561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65783643722534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56588506698608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53417778015137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63881158828735</t>
+    <t xml:space="preserve">4.48978662490845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65783596038818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56588554382324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53417682647705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63881254196167</t>
   </si>
   <si>
     <t xml:space="preserve">4.4866156578064</t>
@@ -281,13 +281,13 @@
     <t xml:space="preserve">4.49612855911255</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48027420043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51515293121338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47710418701172</t>
+    <t xml:space="preserve">4.48027467727661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51515245437622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47710371017456</t>
   </si>
   <si>
     <t xml:space="preserve">4.50246953964233</t>
@@ -299,25 +299,25 @@
     <t xml:space="preserve">4.90198469161987</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83856964111328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75613069534302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78466701507568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8163743019104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7783260345459</t>
+    <t xml:space="preserve">4.83857107162476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75613021850586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78466653823853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81637382507324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77832508087158</t>
   </si>
   <si>
     <t xml:space="preserve">4.72442197799683</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74661779403687</t>
+    <t xml:space="preserve">4.74661827087402</t>
   </si>
   <si>
     <t xml:space="preserve">4.60710430145264</t>
@@ -326,13 +326,13 @@
     <t xml:space="preserve">4.62930011749268</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68003177642822</t>
+    <t xml:space="preserve">4.68003273010254</t>
   </si>
   <si>
     <t xml:space="preserve">4.64198303222656</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22027349472046</t>
+    <t xml:space="preserve">4.2202730178833</t>
   </si>
   <si>
     <t xml:space="preserve">4.03319835662842</t>
@@ -341,139 +341,139 @@
     <t xml:space="preserve">4.05856418609619</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98563647270203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11563777923584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3249077796936</t>
+    <t xml:space="preserve">3.98563718795776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.115638256073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32490825653076</t>
   </si>
   <si>
     <t xml:space="preserve">4.36929845809937</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34710264205933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50881147384644</t>
+    <t xml:space="preserve">4.3471040725708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50881099700928</t>
   </si>
   <si>
     <t xml:space="preserve">3.83027029037476</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58612203598022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73514747619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69709825515747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8905143737793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90002584457397</t>
+    <t xml:space="preserve">3.58612179756165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73514676094055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69709849357605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89051485061646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90002751350403</t>
   </si>
   <si>
     <t xml:space="preserve">3.75734305381775</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70661044120789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64636635780334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67173266410828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87466096878052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97295355796814</t>
+    <t xml:space="preserve">3.70661020278931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64636659622192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67173290252686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87466144561768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97295379638672</t>
   </si>
   <si>
     <t xml:space="preserve">4.10929584503174</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99514985084534</t>
+    <t xml:space="preserve">3.99514937400818</t>
   </si>
   <si>
     <t xml:space="preserve">4.02051544189453</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04271030426025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06490612030029</t>
+    <t xml:space="preserve">4.04271078109741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06490468978882</t>
   </si>
   <si>
     <t xml:space="preserve">4.0458812713623</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01417350769043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15368700027466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09027147293091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16002893447876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87783145904541</t>
+    <t xml:space="preserve">4.01417398452759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15368747711182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09027194976807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1600284576416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87783074378967</t>
   </si>
   <si>
     <t xml:space="preserve">3.82075786590576</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90636777877808</t>
+    <t xml:space="preserve">3.90636730194092</t>
   </si>
   <si>
     <t xml:space="preserve">4.05222272872925</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07758903503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96344184875488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89685606956482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94441771507263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85246539115906</t>
+    <t xml:space="preserve">4.07758855819702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9634416103363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8968563079834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94441723823547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85246562957764</t>
   </si>
   <si>
     <t xml:space="preserve">3.97612404823303</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01734495162964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94124674797058</t>
+    <t xml:space="preserve">4.01734447479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94124555587769</t>
   </si>
   <si>
     <t xml:space="preserve">3.96978330612183</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0110034942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07441806793213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09344244003296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0553936958313</t>
+    <t xml:space="preserve">4.01100301742554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07441759109497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0934419631958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05539417266846</t>
   </si>
   <si>
     <t xml:space="preserve">4.08075952529907</t>
@@ -482,49 +482,49 @@
     <t xml:space="preserve">4.17271089553833</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11246776580811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98880863189697</t>
+    <t xml:space="preserve">4.11246633529663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98880743980408</t>
   </si>
   <si>
     <t xml:space="preserve">4.02368593215942</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00783157348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78587985038757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85880661010742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77953839302063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83978199958801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87148952484131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76685476303101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65270829200745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69075679779053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76051306724548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7319769859314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74148917198181</t>
+    <t xml:space="preserve">4.00783205032349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7858784198761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.858806848526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77953791618347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83978295326233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87149024009705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76685523986816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65270805358887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69075655937195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7605140209198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73197746276855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74148941040039</t>
   </si>
   <si>
     <t xml:space="preserve">3.92222213745117</t>
@@ -533,34 +533,34 @@
     <t xml:space="preserve">3.8810019493103</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95710062980652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89368486404419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95392966270447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79539251327515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.868319272995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91905117034912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92539310455322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00149011611938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07124710083008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84295296669006</t>
+    <t xml:space="preserve">3.95710039138794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89368462562561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95392990112305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79539155960083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86831951141357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91905093193054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92539262771606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00149059295654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07124757766724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84295320510864</t>
   </si>
   <si>
     <t xml:space="preserve">3.81441640853882</t>
@@ -572,7 +572,7 @@
     <t xml:space="preserve">4.0490517616272</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90953850746155</t>
+    <t xml:space="preserve">3.90953874588013</t>
   </si>
   <si>
     <t xml:space="preserve">3.86514806747437</t>
@@ -581,22 +581,22 @@
     <t xml:space="preserve">3.77002573013306</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75047540664673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.851487159729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87429571151733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85800313949585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9003643989563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94924020767212</t>
+    <t xml:space="preserve">3.75047445297241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85148739814758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87429618835449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85800385475159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90036368370056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94924092292786</t>
   </si>
   <si>
     <t xml:space="preserve">3.98182535171509</t>
@@ -605,13 +605,13 @@
     <t xml:space="preserve">4.03396034240723</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06980276107788</t>
+    <t xml:space="preserve">4.06980323791504</t>
   </si>
   <si>
     <t xml:space="preserve">4.26531028747559</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34025478363037</t>
+    <t xml:space="preserve">4.34025430679321</t>
   </si>
   <si>
     <t xml:space="preserve">4.67587518692017</t>
@@ -620,31 +620,31 @@
     <t xml:space="preserve">4.51295232772827</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44778299331665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51620960235596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49991846084595</t>
+    <t xml:space="preserve">4.44778251647949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51621007919312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49991798400879</t>
   </si>
   <si>
     <t xml:space="preserve">4.49014329910278</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40542316436768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4836254119873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46081638336182</t>
+    <t xml:space="preserve">4.40542364120483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48362588882446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46081686019897</t>
   </si>
   <si>
     <t xml:space="preserve">4.49666023254395</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50317668914795</t>
+    <t xml:space="preserve">4.50317716598511</t>
   </si>
   <si>
     <t xml:space="preserve">4.48036766052246</t>
@@ -653,118 +653,118 @@
     <t xml:space="preserve">4.45104122161865</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50643491744995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52924394607544</t>
+    <t xml:space="preserve">4.50643444061279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5292444229126</t>
   </si>
   <si>
     <t xml:space="preserve">4.69216680526733</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71171808242798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61722278594971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65958261489868</t>
+    <t xml:space="preserve">4.71171712875366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61722230911255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65958213806152</t>
   </si>
   <si>
     <t xml:space="preserve">4.84857273101807</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74104309082031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91374111175537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81598806381226</t>
+    <t xml:space="preserve">4.74104356765747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91374063491821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81598711013794</t>
   </si>
   <si>
     <t xml:space="preserve">4.80295372009277</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8746395111084</t>
+    <t xml:space="preserve">4.87463998794556</t>
   </si>
   <si>
     <t xml:space="preserve">4.81272983551025</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80621242523193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68239164352417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83879709243774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77688550949097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7638521194458</t>
+    <t xml:space="preserve">4.80621290206909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68239116668701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8387975692749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7768874168396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76385307312012</t>
   </si>
   <si>
     <t xml:space="preserve">4.77036952972412</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60744667053223</t>
+    <t xml:space="preserve">4.60744762420654</t>
   </si>
   <si>
     <t xml:space="preserve">4.61396408081055</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66609859466553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64980745315552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53576183319092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56182861328125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54879426956177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63677263259888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69868326187134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6400318145752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62373924255371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60093069076538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29137706756592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15452289581299</t>
+    <t xml:space="preserve">4.66609954833984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6498064994812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5357608795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56182909011841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54879570007324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63677406311035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69868421554565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64003086090088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62373876571655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60092973709106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29137754440308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15452241897583</t>
   </si>
   <si>
     <t xml:space="preserve">4.12519693374634</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0209264755249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04047632217407</t>
+    <t xml:space="preserve">4.02092599868774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04047679901123</t>
   </si>
   <si>
     <t xml:space="preserve">4.01766729354858</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15126371383667</t>
+    <t xml:space="preserve">4.15126419067383</t>
   </si>
   <si>
     <t xml:space="preserve">4.20665740966797</t>
@@ -776,22 +776,22 @@
     <t xml:space="preserve">4.17081451416016</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21643257141113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2490177154541</t>
+    <t xml:space="preserve">4.21643352508545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24901676177979</t>
   </si>
   <si>
     <t xml:space="preserve">4.26205158233643</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3598051071167</t>
+    <t xml:space="preserve">4.35980415344238</t>
   </si>
   <si>
     <t xml:space="preserve">4.32722043991089</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35328722000122</t>
+    <t xml:space="preserve">4.35328769683838</t>
   </si>
   <si>
     <t xml:space="preserve">4.39564752578735</t>
@@ -803,31 +803,31 @@
     <t xml:space="preserve">4.32070350646973</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3435115814209</t>
+    <t xml:space="preserve">4.34351253509521</t>
   </si>
   <si>
     <t xml:space="preserve">4.37935543060303</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39890623092651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46407508850098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4738507270813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50969362258911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54227828979492</t>
+    <t xml:space="preserve">4.39890670776367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46407556533813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47385120391846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50969314575195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54227781295776</t>
   </si>
   <si>
     <t xml:space="preserve">4.48688459396362</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44452524185181</t>
+    <t xml:space="preserve">4.44452476501465</t>
   </si>
   <si>
     <t xml:space="preserve">4.40216493606567</t>
@@ -836,76 +836,76 @@
     <t xml:space="preserve">4.36632108688354</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42497396469116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58973121643066</t>
+    <t xml:space="preserve">4.424973487854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58973026275635</t>
   </si>
   <si>
     <t xml:space="preserve">4.59634399414062</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66578531265259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6029577255249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64594554901123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6194920539856</t>
+    <t xml:space="preserve">4.66578578948975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60295677185059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64594459533691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61949110031128</t>
   </si>
   <si>
     <t xml:space="preserve">4.59303760528564</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65917205810547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73853349685669</t>
+    <t xml:space="preserve">4.65917253494263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73853302001953</t>
   </si>
   <si>
     <t xml:space="preserve">4.74184036254883</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70877313613892</t>
+    <t xml:space="preserve">4.70877265930176</t>
   </si>
   <si>
     <t xml:space="preserve">4.86088180541992</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86749601364136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8807225227356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8774151802063</t>
+    <t xml:space="preserve">4.8674955368042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88072299957275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87741613388062</t>
   </si>
   <si>
     <t xml:space="preserve">4.92040300369263</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79805517196655</t>
+    <t xml:space="preserve">4.79805421829224</t>
   </si>
   <si>
     <t xml:space="preserve">4.81128120422363</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89064264297485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99315166473389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05597829818726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99976348876953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00637817382812</t>
+    <t xml:space="preserve">4.8906421661377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99315118789673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05597877502441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99976396560669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00637769699097</t>
   </si>
   <si>
     <t xml:space="preserve">4.98323059082031</t>
@@ -914,70 +914,70 @@
     <t xml:space="preserve">4.88733530044556</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84765434265137</t>
+    <t xml:space="preserve">4.84765577316284</t>
   </si>
   <si>
     <t xml:space="preserve">4.93693685531616</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81789445877075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94354963302612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96008348464966</t>
+    <t xml:space="preserve">4.81789493560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94355010986328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96008396148682</t>
   </si>
   <si>
     <t xml:space="preserve">4.90717649459839</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82120132446289</t>
+    <t xml:space="preserve">4.82120084762573</t>
   </si>
   <si>
     <t xml:space="preserve">4.7947473526001</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83112049102783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91378879547119</t>
+    <t xml:space="preserve">4.83112096786499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91378927230835</t>
   </si>
   <si>
     <t xml:space="preserve">4.80466747283936</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85096216201782</t>
+    <t xml:space="preserve">4.85096168518066</t>
   </si>
   <si>
     <t xml:space="preserve">4.75837373733521</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83773517608643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89394950866699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84104251861572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85426902770996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90056228637695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02621746063232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89725637435913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93032360076904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91048336029053</t>
+    <t xml:space="preserve">4.83773469924927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89394903182983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84104156494141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8542685508728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90056276321411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02621841430664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89725589752197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93032264709473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91048383712769</t>
   </si>
   <si>
     <t xml:space="preserve">4.82781505584717</t>
@@ -989,49 +989,49 @@
     <t xml:space="preserve">4.71538639068604</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85757493972778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83442831039429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76168060302734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79144048690796</t>
+    <t xml:space="preserve">4.85757446289062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83442878723145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76168012619019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79144096374512</t>
   </si>
   <si>
     <t xml:space="preserve">4.75506687164307</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73522663116455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.721999168396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65586519241333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69554615020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74514627456665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.675705909729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72530651092529</t>
+    <t xml:space="preserve">4.73522710800171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72199964523315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65586423873901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69554567337036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74514722824097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67570638656616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72530603408813</t>
   </si>
   <si>
     <t xml:space="preserve">4.77490711212158</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80136013031006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87080192565918</t>
+    <t xml:space="preserve">4.80136108398438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87080240249634</t>
   </si>
   <si>
     <t xml:space="preserve">4.9633903503418</t>
@@ -1046,109 +1046,109 @@
     <t xml:space="preserve">4.6856255531311</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66909122467041</t>
+    <t xml:space="preserve">4.66909170150757</t>
   </si>
   <si>
     <t xml:space="preserve">4.66247844696045</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75176048278809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71869277954102</t>
+    <t xml:space="preserve">4.75176000595093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71869230270386</t>
   </si>
   <si>
     <t xml:space="preserve">4.78813409805298</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7417459487915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62609386444092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62949419021606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6635103225708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66010808944702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7553505897522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76555585861206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7791633605957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88461017608643</t>
+    <t xml:space="preserve">4.74174499511719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62609338760376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62949466705322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66351079940796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66010856628418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75535154342651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76555633544922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77916193008423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88460969924927</t>
   </si>
   <si>
     <t xml:space="preserve">4.88801145553589</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86079931259155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86760234832764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84379196166992</t>
+    <t xml:space="preserve">4.86079883575439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86760282516479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84379148483276</t>
   </si>
   <si>
     <t xml:space="preserve">4.90161752700806</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85059452056885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91862535476685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97305011749268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03427839279175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0853009223938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96624660491943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02067136764526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0478835105896</t>
+    <t xml:space="preserve">4.85059499740601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91862487792969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97305059432983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03427791595459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08530044555664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96624708175659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02067184448242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04788398742676</t>
   </si>
   <si>
     <t xml:space="preserve">4.97645139694214</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99345970153809</t>
+    <t xml:space="preserve">4.99345922470093</t>
   </si>
   <si>
     <t xml:space="preserve">4.9084210395813</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81998062133789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8029727935791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89141321182251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99005794525146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98665571212769</t>
+    <t xml:space="preserve">4.81998109817505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80297327041626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89141273498535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99005746841431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.986656665802</t>
   </si>
   <si>
     <t xml:space="preserve">4.95264053344727</t>
@@ -1160,52 +1160,52 @@
     <t xml:space="preserve">5.12271785736084</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17033910751343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25877904891968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28599214553833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3029990196228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29619646072388</t>
+    <t xml:space="preserve">5.17033958435059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25877952575684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28599166870117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30299949645996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29619598388672</t>
   </si>
   <si>
     <t xml:space="preserve">5.33701467514038</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38803768157959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39143896102905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33021116256714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37443208694458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40844678878784</t>
+    <t xml:space="preserve">5.38803720474243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39143991470337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3302116394043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37443161010742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40844631195068</t>
   </si>
   <si>
     <t xml:space="preserve">5.272385597229</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16353702545166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24857473373413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17714166641235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07509660720825</t>
+    <t xml:space="preserve">5.1635365486145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24857425689697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17714214324951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07509613037109</t>
   </si>
   <si>
     <t xml:space="preserve">4.7621545791626</t>
@@ -1214,46 +1214,46 @@
     <t xml:space="preserve">4.80977630615234</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92883014678955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91522407531738</t>
+    <t xml:space="preserve">4.92882966995239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91522312164307</t>
   </si>
   <si>
     <t xml:space="preserve">4.95944356918335</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9492392539978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94583797454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95604181289673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06148958206177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03767919540405</t>
+    <t xml:space="preserve">4.94923973083496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94583749771118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95604276657104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06149053573608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03767871856689</t>
   </si>
   <si>
     <t xml:space="preserve">4.82678318023682</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78596448898315</t>
+    <t xml:space="preserve">4.78596544265747</t>
   </si>
   <si>
     <t xml:space="preserve">4.83358716964722</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90501880645752</t>
+    <t xml:space="preserve">4.90502023696899</t>
   </si>
   <si>
     <t xml:space="preserve">4.9390344619751</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93223142623901</t>
+    <t xml:space="preserve">4.93223094940186</t>
   </si>
   <si>
     <t xml:space="preserve">4.87440538406372</t>
@@ -1271,16 +1271,16 @@
     <t xml:space="preserve">4.81657934188843</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73834371566772</t>
+    <t xml:space="preserve">4.73834419250488</t>
   </si>
   <si>
     <t xml:space="preserve">4.79957151412964</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7723593711853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76895761489868</t>
+    <t xml:space="preserve">4.77235889434814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76895809173584</t>
   </si>
   <si>
     <t xml:space="preserve">4.72813940048218</t>
@@ -1289,25 +1289,25 @@
     <t xml:space="preserve">4.71793413162231</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79616975784302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83698844909668</t>
+    <t xml:space="preserve">4.79617023468018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83698797225952</t>
   </si>
   <si>
     <t xml:space="preserve">4.90708827972412</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84058713912964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7040843963623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6025824546814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63758325576782</t>
+    <t xml:space="preserve">4.84058618545532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70408487319946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60258293151855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63758420944214</t>
   </si>
   <si>
     <t xml:space="preserve">4.6620831489563</t>
@@ -1316,136 +1316,136 @@
     <t xml:space="preserve">4.74958467483521</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73208522796631</t>
+    <t xml:space="preserve">4.73208570480347</t>
   </si>
   <si>
     <t xml:space="preserve">4.760085105896</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74608469009399</t>
+    <t xml:space="preserve">4.74608564376831</t>
   </si>
   <si>
     <t xml:space="preserve">4.65508365631104</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7145848274231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67608451843262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66558408737183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57458257675171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49758052825928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31207752227783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29107713699341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27707719802856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22457551956177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25957679748535</t>
+    <t xml:space="preserve">4.71458530426025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67608404159546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66558361053467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57458162307739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49758100509644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31207704544067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29107761383057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27707672119141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22457599639893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25957632064819</t>
   </si>
   <si>
     <t xml:space="preserve">4.27007627487183</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24907732009888</t>
+    <t xml:space="preserve">4.2490758895874</t>
   </si>
   <si>
     <t xml:space="preserve">4.18257474899292</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06707334518433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18607473373413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23157596588135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28057622909546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09507322311401</t>
+    <t xml:space="preserve">4.06707286834717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18607521057129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23157548904419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28057670593262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09507369995117</t>
   </si>
   <si>
     <t xml:space="preserve">4.16857481002808</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1895751953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07057285308838</t>
+    <t xml:space="preserve">4.18957471847534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0705738067627</t>
   </si>
   <si>
     <t xml:space="preserve">4.21757555007935</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15807437896729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15457487106323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19307518005371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13707399368286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11957454681396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16507387161255</t>
+    <t xml:space="preserve">4.1580753326416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15457439422607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19307565689087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13707447052002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11957406997681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16507482528687</t>
   </si>
   <si>
     <t xml:space="preserve">4.09857320785522</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20707559585571</t>
+    <t xml:space="preserve">4.20707607269287</t>
   </si>
   <si>
     <t xml:space="preserve">4.07407331466675</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02857255935669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00407218933105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0635724067688</t>
+    <t xml:space="preserve">4.02857303619385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00407123565674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06357288360596</t>
   </si>
   <si>
     <t xml:space="preserve">4.12657451629639</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11257362365723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1440749168396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.986572265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06007289886475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10207414627075</t>
+    <t xml:space="preserve">4.11257410049438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14407444000244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98657155036926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06007385253906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10207366943359</t>
   </si>
   <si>
     <t xml:space="preserve">4.04957246780396</t>
@@ -1454,16 +1454,16 @@
     <t xml:space="preserve">4.05657243728638</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30157709121704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46958017349243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34707832336426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37507820129395</t>
+    <t xml:space="preserve">4.3015775680542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46958065032959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3470778465271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37507772445679</t>
   </si>
   <si>
     <t xml:space="preserve">4.32957792282104</t>
@@ -1472,52 +1472,52 @@
     <t xml:space="preserve">4.38907861709595</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34007787704468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29807710647583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23507690429688</t>
+    <t xml:space="preserve">4.34007740020752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29807758331299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23507642745972</t>
   </si>
   <si>
     <t xml:space="preserve">4.24557685852051</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22107648849487</t>
+    <t xml:space="preserve">4.22107601165771</t>
   </si>
   <si>
     <t xml:space="preserve">4.14757442474365</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21407508850098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25607681274414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26307725906372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25257587432861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20007514953613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1755747795105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12307357788086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27357625961304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20357608795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26657581329346</t>
+    <t xml:space="preserve">4.21407556533813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25607633590698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26307678222656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25257635116577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20007562637329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17557621002197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12307405471802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2735767364502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2035756111145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26657676696777</t>
   </si>
   <si>
     <t xml:space="preserve">4.22807598114014</t>
@@ -1526,184 +1526,184 @@
     <t xml:space="preserve">4.32257795333862</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3330774307251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35407829284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46608114242554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44858026504517</t>
+    <t xml:space="preserve">4.33307838439941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35407781600952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46608066558838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44857978820801</t>
   </si>
   <si>
     <t xml:space="preserve">4.46258020401001</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47658014297485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85356903076172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88507032394409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77306771278381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77656769752502</t>
+    <t xml:space="preserve">4.47658109664917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85356974601746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88507080078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77306795120239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77656745910645</t>
   </si>
   <si>
     <t xml:space="preserve">3.79756879806519</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86056923866272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80106806755066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70306658744812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68206644058228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62956571578979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60506463050842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53856372833252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56306481361389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50706338882446</t>
+    <t xml:space="preserve">3.86056971549988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80106830596924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7030668258667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6820662021637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62956523895264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.605064868927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53856325149536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56306385993958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50706243515015</t>
   </si>
   <si>
     <t xml:space="preserve">3.59106469154358</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58756470680237</t>
+    <t xml:space="preserve">3.58756422996521</t>
   </si>
   <si>
     <t xml:space="preserve">3.65056562423706</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71006655693054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69956564903259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70656633377075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67506623268127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64006567001343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63656497001648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66754698753357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50365471839905</t>
+    <t xml:space="preserve">3.71006679534912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69956588745117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70656704902649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67506575584412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64006543159485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63656520843506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66754770278931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50365519523621</t>
   </si>
   <si>
     <t xml:space="preserve">3.65297937393188</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64569520950317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72217845916748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89699649810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86057662963867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85693407058716</t>
+    <t xml:space="preserve">3.64569497108459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7221782207489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89699673652649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86057686805725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85693430900574</t>
   </si>
   <si>
     <t xml:space="preserve">3.84964966773987</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83143949508667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82415628433228</t>
+    <t xml:space="preserve">3.83143973350525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8241560459137</t>
   </si>
   <si>
     <t xml:space="preserve">3.68211555480957</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6602635383606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61728739738464</t>
+    <t xml:space="preserve">3.66026329994202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61728668212891</t>
   </si>
   <si>
     <t xml:space="preserve">3.67847394943237</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74403071403503</t>
+    <t xml:space="preserve">3.74403047561646</t>
   </si>
   <si>
     <t xml:space="preserve">3.81322979927063</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72946262359619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70396757125854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75131416320801</t>
+    <t xml:space="preserve">3.72946238517761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7039680480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75131464004517</t>
   </si>
   <si>
     <t xml:space="preserve">3.70032596588135</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52987790107727</t>
+    <t xml:space="preserve">3.52987813949585</t>
   </si>
   <si>
     <t xml:space="preserve">3.71489405632019</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70761060714722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67483139038086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82051372528076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80594539642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76588296890259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85329246520996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87514448165894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92249178886414</t>
+    <t xml:space="preserve">3.70761013031006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6748321056366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82051420211792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80594611167908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76588344573975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85329222679138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87514424324036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92249131202698</t>
   </si>
   <si>
     <t xml:space="preserve">3.90063953399658</t>
@@ -1715,61 +1715,61 @@
     <t xml:space="preserve">3.90792226791382</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87878608703613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86786031723022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92613291740417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88242888450623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00625848770142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15922451019287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22478151321411</t>
+    <t xml:space="preserve">3.87878680229187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8678605556488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92613339424133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88242840766907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0062575340271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15922498703003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22478199005127</t>
   </si>
   <si>
     <t xml:space="preserve">4.14829921722412</t>
   </si>
   <si>
-    <t xml:space="preserve">4.286696434021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2830548286438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3304009437561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38867425918579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3340425491333</t>
+    <t xml:space="preserve">4.28669691085815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28305387496948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33040046691895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38867378234863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33404302597046</t>
   </si>
   <si>
     <t xml:space="preserve">4.34132719039917</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34861183166504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46515703201294</t>
+    <t xml:space="preserve">4.34861135482788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46515798568726</t>
   </si>
   <si>
     <t xml:space="preserve">4.42873668670654</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48336744308472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47244119644165</t>
+    <t xml:space="preserve">4.48336696624756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47244167327881</t>
   </si>
   <si>
     <t xml:space="preserve">4.54528188705444</t>
@@ -1778,13 +1778,13 @@
     <t xml:space="preserve">4.44330453872681</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49429273605347</t>
+    <t xml:space="preserve">4.49429321289062</t>
   </si>
   <si>
     <t xml:space="preserve">4.5489239692688</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55256605148315</t>
+    <t xml:space="preserve">4.55256652832031</t>
   </si>
   <si>
     <t xml:space="preserve">4.56713438034058</t>
@@ -1796,55 +1796,55 @@
     <t xml:space="preserve">4.57806062698364</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60355520248413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61812400817871</t>
+    <t xml:space="preserve">4.60355615615845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61812353134155</t>
   </si>
   <si>
     <t xml:space="preserve">4.58534526824951</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63269138336182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57077646255493</t>
+    <t xml:space="preserve">4.63269186019897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57077789306641</t>
   </si>
   <si>
     <t xml:space="preserve">4.59991312026978</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65454339981079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62176561355591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76744747161865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75287914276123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74923753738403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74559545516968</t>
+    <t xml:space="preserve">4.65454387664795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62176465988159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76744794845581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75288009643555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74923706054688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74559497833252</t>
   </si>
   <si>
     <t xml:space="preserve">4.73831081390381</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73466920852661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83664560317993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90220355987549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92769813537598</t>
+    <t xml:space="preserve">4.73466873168945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83664608001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90220308303833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92769861221313</t>
   </si>
   <si>
     <t xml:space="preserve">4.89856147766113</t>
@@ -1853,40 +1853,43 @@
     <t xml:space="preserve">4.89127731323242</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89503145217896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79743099212646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84247732162476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84623098373413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93632316589355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91380023956299</t>
+    <t xml:space="preserve">4.8950309753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79743051528931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84247779846191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84623193740845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93632364273071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9138011932373</t>
   </si>
   <si>
     <t xml:space="preserve">4.88001585006714</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72986221313477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74112367630005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75613880157471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63976907730103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59096908569336</t>
+    <t xml:space="preserve">4.89127779006958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72986125946045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74112319946289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75613832473755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63976860046387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59096813201904</t>
   </si>
   <si>
     <t xml:space="preserve">4.65478372573853</t>
@@ -1898,10 +1901,10 @@
     <t xml:space="preserve">4.65853834152222</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6172456741333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61349201202393</t>
+    <t xml:space="preserve">4.61724615097046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61349153518677</t>
   </si>
   <si>
     <t xml:space="preserve">4.54967641830444</t>
@@ -1913,28 +1916,28 @@
     <t xml:space="preserve">4.56469202041626</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52715301513672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50463008880615</t>
+    <t xml:space="preserve">4.52715349197388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50463056564331</t>
   </si>
   <si>
     <t xml:space="preserve">4.48210668563843</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51213788986206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57595300674438</t>
+    <t xml:space="preserve">4.51213884353638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57595348358154</t>
   </si>
   <si>
     <t xml:space="preserve">4.63601541519165</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62475395202637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66979932785034</t>
+    <t xml:space="preserve">4.62475252151489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6697998046875</t>
   </si>
   <si>
     <t xml:space="preserve">4.65103101730347</t>
@@ -1943,37 +1946,37 @@
     <t xml:space="preserve">4.59847640991211</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62850713729858</t>
+    <t xml:space="preserve">4.62850761413574</t>
   </si>
   <si>
     <t xml:space="preserve">4.55718421936035</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69607639312744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71859979629517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74863052368164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85749244689941</t>
+    <t xml:space="preserve">4.6960768699646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71860027313232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74863004684448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85749292373657</t>
   </si>
   <si>
     <t xml:space="preserve">4.78992366790771</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79367733001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85374021530151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86124658584595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86499977111816</t>
+    <t xml:space="preserve">4.79367780685425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85373878479004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86124610900879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86500024795532</t>
   </si>
   <si>
     <t xml:space="preserve">5.00389337539673</t>
@@ -1985,31 +1988,31 @@
     <t xml:space="preserve">4.99263143539429</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98512315750122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94383144378662</t>
+    <t xml:space="preserve">4.98512363433838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94383192062378</t>
   </si>
   <si>
     <t xml:space="preserve">5.02266263961792</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01515483856201</t>
+    <t xml:space="preserve">5.01515436172485</t>
   </si>
   <si>
     <t xml:space="preserve">5.05269336700439</t>
   </si>
   <si>
-    <t xml:space="preserve">5.07521724700928</t>
+    <t xml:space="preserve">5.07521677017212</t>
   </si>
   <si>
     <t xml:space="preserve">5.02641582489014</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97010850906372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95133924484253</t>
+    <t xml:space="preserve">4.97010803222656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95133972167969</t>
   </si>
   <si>
     <t xml:space="preserve">4.94758558273315</t>
@@ -2021,25 +2024,25 @@
     <t xml:space="preserve">4.9550929069519</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04143142700195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00013971328735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93256998062134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91755390167236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69983053207397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70358371734619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71109247207642</t>
+    <t xml:space="preserve">5.04143190383911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0001392364502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93256950378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91755437850952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69983100891113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70358467102051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71109342575073</t>
   </si>
   <si>
     <t xml:space="preserve">4.63226079940796</t>
@@ -2048,22 +2051,22 @@
     <t xml:space="preserve">4.84998512268066</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95884704589844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90629291534424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99638509750366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94007778167725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03767728805542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06020164489746</t>
+    <t xml:space="preserve">4.95884656906128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90629243850708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99638605117798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94007730484009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03767824172974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06020021438599</t>
   </si>
   <si>
     <t xml:space="preserve">5.15404748916626</t>
@@ -2072,31 +2075,31 @@
     <t xml:space="preserve">5.16530895233154</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14278650283813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26291036605835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21035575866699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2328782081604</t>
+    <t xml:space="preserve">5.14278554916382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26290941238403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21035528182983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23287868499756</t>
   </si>
   <si>
     <t xml:space="preserve">5.2854323387146</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29294109344482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25540113449097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16155529022217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1915864944458</t>
+    <t xml:space="preserve">5.29294013977051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25540208816528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16155481338501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19158601760864</t>
   </si>
   <si>
     <t xml:space="preserve">5.15029335021973</t>
@@ -2105,40 +2108,40 @@
     <t xml:space="preserve">5.17657089233398</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17281627655029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16906356811523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10149431228638</t>
+    <t xml:space="preserve">5.17281675338745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16906309127808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10149383544922</t>
   </si>
   <si>
     <t xml:space="preserve">5.22161722183228</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21786308288574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21410894393921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23663282394409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39804792404175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44309520721436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48438739776611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5294337272644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5744800567627</t>
+    <t xml:space="preserve">5.21786212921143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21410989761353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23663330078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39804840087891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4430947303772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48438692092896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52943277359009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57447957992554</t>
   </si>
   <si>
     <t xml:space="preserve">5.64204883575439</t>
@@ -2147,25 +2150,25 @@
     <t xml:space="preserve">5.67583417892456</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69084930419922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70211124420166</t>
+    <t xml:space="preserve">5.69084882736206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7021107673645</t>
   </si>
   <si>
     <t xml:space="preserve">5.72463417053223</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76217269897461</t>
+    <t xml:space="preserve">5.76217222213745</t>
   </si>
   <si>
     <t xml:space="preserve">5.77343416213989</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76968002319336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77718782424927</t>
+    <t xml:space="preserve">5.76968050003052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77718925476074</t>
   </si>
   <si>
     <t xml:space="preserve">5.78844928741455</t>
@@ -2174,7 +2177,7 @@
     <t xml:space="preserve">5.7809419631958</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85601902008057</t>
+    <t xml:space="preserve">5.85601949691772</t>
   </si>
   <si>
     <t xml:space="preserve">6.20137405395508</t>
@@ -2186,82 +2189,82 @@
     <t xml:space="preserve">6.47916030883789</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59177446365356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45663547515869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47165155410767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56784152984619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74483156204224</t>
+    <t xml:space="preserve">6.59177589416504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45663642883301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47165107727051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56784200668335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74483108520508</t>
   </si>
   <si>
     <t xml:space="preserve">6.90258312225342</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91797351837158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01416301727295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95644903182983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07957124710083</t>
+    <t xml:space="preserve">6.91797304153442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01416254043579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95644855499268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07957220077515</t>
   </si>
   <si>
     <t xml:space="preserve">7.10265684127808</t>
   </si>
   <si>
-    <t xml:space="preserve">7.16037130355835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09111499786377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02570629119873</t>
+    <t xml:space="preserve">7.16037082672119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09111452102661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02570533752441</t>
   </si>
   <si>
     <t xml:space="preserve">7.00646686553955</t>
   </si>
   <si>
-    <t xml:space="preserve">7.08726692199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14113235473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08341932296753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95260143280029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97183990478516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00262069702148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97568655014038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05263900756836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02955293655396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02185869216919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99107694625854</t>
+    <t xml:space="preserve">7.08726644515991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14113283157349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08341884613037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95260047912598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97183895111084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00262022018433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97568607330322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05263805389404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02955341339111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02185821533203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99107789993286</t>
   </si>
   <si>
     <t xml:space="preserve">6.89873504638672</t>
@@ -2273,61 +2276,58 @@
     <t xml:space="preserve">6.87564945220947</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8140869140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8448691368103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.752525806427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.614013671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61785984039307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77176427841187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92566728591919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72174453735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71789693832397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82947826385498</t>
+    <t xml:space="preserve">6.81408786773682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84486865997314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75252532958984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61401319503784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61786079406738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77176475524902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92566823959351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72174549102783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71789789199829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82947778701782</t>
   </si>
   <si>
     <t xml:space="preserve">6.74867916107178</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63325071334839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66403198242188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61016416549683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41009044647217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55245208740234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47165203094482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27157592773438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28312063217163</t>
+    <t xml:space="preserve">6.63325119018555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66403102874756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61016607284546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41008996963501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55245161056519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27157735824585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28311920166016</t>
   </si>
   <si>
     <t xml:space="preserve">6.37930965423584</t>
@@ -2336,7 +2336,7 @@
     <t xml:space="preserve">6.34083366394043</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39470052719116</t>
+    <t xml:space="preserve">6.39470100402832</t>
   </si>
   <si>
     <t xml:space="preserve">6.46395683288574</t>
@@ -2351,28 +2351,28 @@
     <t xml:space="preserve">6.49858474731445</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57553720474243</t>
+    <t xml:space="preserve">6.57553625106812</t>
   </si>
   <si>
     <t xml:space="preserve">6.6909646987915</t>
   </si>
   <si>
-    <t xml:space="preserve">6.7294397354126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56399440765381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3831582069397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04456901550293</t>
+    <t xml:space="preserve">6.72944021224976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56399393081665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38315773010254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04456949234009</t>
   </si>
   <si>
     <t xml:space="preserve">5.99070262908936</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00994157791138</t>
+    <t xml:space="preserve">6.00994110107422</t>
   </si>
   <si>
     <t xml:space="preserve">5.8675799369812</t>
@@ -2384,118 +2384,118 @@
     <t xml:space="preserve">5.59824848175049</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57516241073608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53668737411499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2558126449585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13268995285034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77101516723633</t>
+    <t xml:space="preserve">5.57516288757324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53668642044067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25581169128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13268899917603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77101564407349</t>
   </si>
   <si>
     <t xml:space="preserve">4.20157194137573</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1554012298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76448535919189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7675633430481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44898271560669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17811179161072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13809752464294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25660276412964</t>
+    <t xml:space="preserve">4.15540075302124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76448583602905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76756358146667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44898223876953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17811226844788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13809704780579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25660300254822</t>
   </si>
   <si>
     <t xml:space="preserve">3.24736833572388</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6398229598999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74909496307373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95532631874084</t>
+    <t xml:space="preserve">3.63982272148132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74909520149231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95532560348511</t>
   </si>
   <si>
     <t xml:space="preserve">3.82142996788025</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63366723060608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57826209068298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56748867034912</t>
+    <t xml:space="preserve">3.63366675376892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57826161384583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56748819351196</t>
   </si>
   <si>
     <t xml:space="preserve">3.57980108261108</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51670050621033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64444017410278</t>
+    <t xml:space="preserve">3.51670026779175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64444088935852</t>
   </si>
   <si>
     <t xml:space="preserve">3.8475935459137</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02073526382446</t>
+    <t xml:space="preserve">4.0207347869873</t>
   </si>
   <si>
     <t xml:space="preserve">4.20926666259766</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85913586616516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90530729293823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.024582862854</t>
+    <t xml:space="preserve">3.85913610458374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90530610084534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02458238601685</t>
   </si>
   <si>
     <t xml:space="preserve">3.94763088226318</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75986838340759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89761233329773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98610687255859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96686911582947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11692428588867</t>
+    <t xml:space="preserve">3.75986814498901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89761185646057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98610615730286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96686959266663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11692476272583</t>
   </si>
   <si>
     <t xml:space="preserve">4.31315183639526</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48629426956177</t>
+    <t xml:space="preserve">4.48629379272461</t>
   </si>
   <si>
     <t xml:space="preserve">4.28621912002563</t>
@@ -2504,13 +2504,13 @@
     <t xml:space="preserve">4.09383964538574</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03227758407593</t>
+    <t xml:space="preserve">4.03227806091309</t>
   </si>
   <si>
     <t xml:space="preserve">4.07844924926758</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12461996078491</t>
+    <t xml:space="preserve">4.12461948394775</t>
   </si>
   <si>
     <t xml:space="preserve">4.12846708297729</t>
@@ -2522,34 +2522,34 @@
     <t xml:space="preserve">4.38240909576416</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24004745483398</t>
+    <t xml:space="preserve">4.24004793167114</t>
   </si>
   <si>
     <t xml:space="preserve">4.14385843276978</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25928544998169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26698112487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3862566947937</t>
+    <t xml:space="preserve">4.25928592681885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26698160171509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38625621795654</t>
   </si>
   <si>
     <t xml:space="preserve">4.42473220825195</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51322650909424</t>
+    <t xml:space="preserve">4.5132269859314</t>
   </si>
   <si>
     <t xml:space="preserve">4.55555057525635</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6632833480835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60941648483276</t>
+    <t xml:space="preserve">4.66328287124634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60941696166992</t>
   </si>
   <si>
     <t xml:space="preserve">4.57094097137451</t>
@@ -2561,25 +2561,25 @@
     <t xml:space="preserve">4.79410123825073</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97493886947632</t>
+    <t xml:space="preserve">4.97493743896484</t>
   </si>
   <si>
     <t xml:space="preserve">5.20579385757446</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32506942749023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1211462020874</t>
+    <t xml:space="preserve">5.32506990432739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12114763259888</t>
   </si>
   <si>
     <t xml:space="preserve">4.84412002563477</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86335802078247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02495670318604</t>
+    <t xml:space="preserve">4.86335849761963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02495718002319</t>
   </si>
   <si>
     <t xml:space="preserve">4.97109031677246</t>
@@ -2588,34 +2588,34 @@
     <t xml:space="preserve">4.94800472259521</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99802350997925</t>
+    <t xml:space="preserve">4.99802303314209</t>
   </si>
   <si>
     <t xml:space="preserve">4.98263359069824</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02880477905273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81333923339844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80179643630981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85181474685669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8941388130188</t>
+    <t xml:space="preserve">5.02880382537842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8133397102356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80179595947266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85181522369385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89413833618164</t>
   </si>
   <si>
     <t xml:space="preserve">4.91722440719604</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83642435073853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0634331703186</t>
+    <t xml:space="preserve">4.83642530441284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06343269348145</t>
   </si>
   <si>
     <t xml:space="preserve">4.94031000137329</t>
@@ -2624,142 +2624,142 @@
     <t xml:space="preserve">5.0595850944519</t>
   </si>
   <si>
-    <t xml:space="preserve">5.03649950027466</t>
+    <t xml:space="preserve">5.03649997711182</t>
   </si>
   <si>
     <t xml:space="preserve">4.82488203048706</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94415760040283</t>
+    <t xml:space="preserve">4.94415807723999</t>
   </si>
   <si>
     <t xml:space="preserve">5.00187110900879</t>
   </si>
   <si>
-    <t xml:space="preserve">5.07112789154053</t>
+    <t xml:space="preserve">5.07112884521484</t>
   </si>
   <si>
     <t xml:space="preserve">5.07497549057007</t>
   </si>
   <si>
-    <t xml:space="preserve">5.09806156158447</t>
+    <t xml:space="preserve">5.09806108474731</t>
   </si>
   <si>
     <t xml:space="preserve">5.21733665466309</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15962219238281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11345148086548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06728076934814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98648023605347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93261528015137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9133768081665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95185232162476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7671685218811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9556999206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96339559555054</t>
+    <t xml:space="preserve">5.15962266921997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11345195770264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06728029251099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98648071289062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93261432647705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91337633132935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95185279846191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76716804504395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95570039749146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96339511871338</t>
   </si>
   <si>
     <t xml:space="preserve">5.10190868377686</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18655633926392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24042224884033</t>
+    <t xml:space="preserve">5.1865553855896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24042177200317</t>
   </si>
   <si>
     <t xml:space="preserve">5.15577507019043</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02110910415649</t>
+    <t xml:space="preserve">5.02111005783081</t>
   </si>
   <si>
     <t xml:space="preserve">5.1057562828064</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97878503799438</t>
+    <t xml:space="preserve">4.97878551483154</t>
   </si>
   <si>
     <t xml:space="preserve">5.14038467407227</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05188989639282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08651876449585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92492008209229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78255844116211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86720514297485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87105274200439</t>
+    <t xml:space="preserve">5.05188941955566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08651828765869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92491960525513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78255891799927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86720561981201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87105321884155</t>
   </si>
   <si>
     <t xml:space="preserve">5.09036588668823</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84796810150146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73253965377808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84027290344238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70560693740845</t>
+    <t xml:space="preserve">4.84796762466431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73254013061523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84027194976807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70560598373413</t>
   </si>
   <si>
     <t xml:space="preserve">4.78640556335449</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04034662246704</t>
+    <t xml:space="preserve">5.04034757614136</t>
   </si>
   <si>
     <t xml:space="preserve">4.959547996521</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80949211120605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83257722854614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81718683242798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65558862686157</t>
+    <t xml:space="preserve">4.80949115753174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8325777053833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81718730926514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65558815002441</t>
   </si>
   <si>
     <t xml:space="preserve">4.51707410812378</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46320772171021</t>
+    <t xml:space="preserve">4.46320867538452</t>
   </si>
   <si>
     <t xml:space="preserve">4.50937986373901</t>
@@ -2768,10 +2768,10 @@
     <t xml:space="preserve">4.75562524795532</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29428768157959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38278293609619</t>
+    <t xml:space="preserve">5.29428863525391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38278245925903</t>
   </si>
   <si>
     <t xml:space="preserve">5.51744890213013</t>
@@ -2780,34 +2780,34 @@
     <t xml:space="preserve">5.38663053512573</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55592489242554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81756067276001</t>
+    <t xml:space="preserve">5.55592441558838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81756114959717</t>
   </si>
   <si>
     <t xml:space="preserve">5.80986547470093</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73291397094727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84449434280396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86373138427734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01763677597046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89066600799561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97531270980835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85218954086304</t>
+    <t xml:space="preserve">5.73291349411011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8444938659668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86373281478882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01763582229614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89066553115845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97531223297119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85218906402588</t>
   </si>
   <si>
     <t xml:space="preserve">5.92529392242432</t>
@@ -2816,7 +2816,7 @@
     <t xml:space="preserve">5.76754188537598</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7175235748291</t>
+    <t xml:space="preserve">5.71752405166626</t>
   </si>
   <si>
     <t xml:space="preserve">5.70982885360718</t>
@@ -2831,13 +2831,13 @@
     <t xml:space="preserve">5.59440088272095</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5020580291748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46743011474609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47512531280518</t>
+    <t xml:space="preserve">5.50205850601196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46742916107178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47512483596802</t>
   </si>
   <si>
     <t xml:space="preserve">5.47897291183472</t>
@@ -2846,40 +2846,40 @@
     <t xml:space="preserve">5.46358251571655</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44434404373169</t>
+    <t xml:space="preserve">5.44434452056885</t>
   </si>
   <si>
     <t xml:space="preserve">5.33276414871216</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40971612930298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42895364761353</t>
+    <t xml:space="preserve">5.40971660614014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42895412445068</t>
   </si>
   <si>
     <t xml:space="preserve">5.47127771377563</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49821090698242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43664932250977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44819211959839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65980958938599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63672399520874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62902975082397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27505016326904</t>
+    <t xml:space="preserve">5.49821186065674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43664884567261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44819259643555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65981006622314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6367244720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62902879714966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2750506401062</t>
   </si>
   <si>
     <t xml:space="preserve">5.14423227310181</t>
@@ -2888,13 +2888,13 @@
     <t xml:space="preserve">5.07882308959961</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16347026824951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22503137588501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62518072128296</t>
+    <t xml:space="preserve">5.16347074508667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22503232955933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62518119812012</t>
   </si>
   <si>
     <t xml:space="preserve">5.73676156997681</t>
@@ -2903,7 +2903,7 @@
     <t xml:space="preserve">5.9483790397644</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87912225723267</t>
+    <t xml:space="preserve">5.87912273406982</t>
   </si>
   <si>
     <t xml:space="preserve">5.89836025238037</t>
@@ -2915,58 +2915,58 @@
     <t xml:space="preserve">5.76369476318359</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67904806137085</t>
+    <t xml:space="preserve">5.67904758453369</t>
   </si>
   <si>
     <t xml:space="preserve">5.69443798065186</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75984764099121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62133407592773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65211391448975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55977249145508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74445676803589</t>
+    <t xml:space="preserve">5.75984716415405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62133359909058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65211486816406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55977201461792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74445629119873</t>
   </si>
   <si>
     <t xml:space="preserve">5.77523756027222</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75215244293213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85988426208496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92144584655762</t>
+    <t xml:space="preserve">5.75215196609497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85988473892212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92144632339478</t>
   </si>
   <si>
     <t xml:space="preserve">5.95992231369019</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97915983200073</t>
+    <t xml:space="preserve">5.97915935516357</t>
   </si>
   <si>
     <t xml:space="preserve">5.96376943588257</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97146511077881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0984354019165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25233888626099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15999746322632</t>
+    <t xml:space="preserve">5.97146558761597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09843587875366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25233936309814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15999698638916</t>
   </si>
   <si>
     <t xml:space="preserve">6.18308210372925</t>
@@ -2981,7 +2981,7 @@
     <t xml:space="preserve">6.14075946807861</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22540664672852</t>
+    <t xml:space="preserve">6.22540616989136</t>
   </si>
   <si>
     <t xml:space="preserve">6.19462537765503</t>
@@ -2993,7 +2993,7 @@
     <t xml:space="preserve">6.21001529693604</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12844657897949</t>
+    <t xml:space="preserve">6.12844705581665</t>
   </si>
   <si>
     <t xml:space="preserve">6.04379940032959</t>
@@ -3002,7 +3002,7 @@
     <t xml:space="preserve">6.10689973831177</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05457258224487</t>
+    <t xml:space="preserve">6.05457305908203</t>
   </si>
   <si>
     <t xml:space="preserve">6.05765151977539</t>
@@ -3011,16 +3011,16 @@
     <t xml:space="preserve">6.00224590301514</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02225399017334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08535385131836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02994918823242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95761346817017</t>
+    <t xml:space="preserve">6.02225303649902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0853533744812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02994871139526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95761394500732</t>
   </si>
   <si>
     <t xml:space="preserve">6.01455783843994</t>
@@ -3044,910 +3044,910 @@
     <t xml:space="preserve">6.082275390625</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16846036911011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23925733566284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21463346481323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06380653381348</t>
+    <t xml:space="preserve">6.16846084594727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23925685882568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21463298797607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06380701065063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06688451766968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08843183517456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03918218612671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12463521957397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07521820068359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07367372512817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08911657333374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25898838043213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24354600906372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22810220718384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24045658111572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21729278564453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26516580581665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38561916351318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4242262840271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30686140060425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34546804428101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37172174453735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34237957000732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44893550872803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46283388137817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34855699539185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32384777069092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27906370162964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35318899154663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53232622146606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33311414718628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47982120513916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33465814590454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33774709701538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35936737060547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35782289505005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36091089248657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32075977325439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21265888214111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30531740188599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40723943710327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34083557128906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36245489120483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26979827880859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25744438171387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99800395965576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04587697982788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24200057983398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29141759872437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34701251983643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50452899932861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51070642471313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48754215240479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48290967941284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41187191009521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4273157119751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39334106445312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43812561035156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49680852890015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57865524291992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66204690933228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67131280899048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7670578956604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74698257446289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79022169113159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74852705001831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79948854446411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65278100967407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62652826309204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69293260574341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68212223052979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70991945266724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69602060317993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75315952301025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76860189437866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78713417053223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78558921813965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81029796600342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8133864402771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77941179275513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75933647155762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75624752044678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72381782531738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88751220703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93229675292969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88133525848389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93847322463989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87515878677368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66667938232422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87824678421021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09907960891724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04811811447144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07591438293457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07282686233521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15776300430298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21953296661377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33535528182983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35234212875366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49904918670654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38940525054932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52530288696289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4573540687561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51294708251953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61178207397461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51758003234863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57626390457153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61487150192261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63771915435791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49894332885742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5056300163269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4119987487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39862298965454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34177350997925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45212650299072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39360666275024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34511804580688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27823781967163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36350917816162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26820611953735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33174324035645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47553443908691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44878196716309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45547103881836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53739833831787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58087015151978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58923101425171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65778255462646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64273452758789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54408597946167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45379877090454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34344673156738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50483989715576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36576652526855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58038663864136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48252058029175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14599561691284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20265579223633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08075094223022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26446580886841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20780611038208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24557828903198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3262767791748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47736978530884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40697383880615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34001207351685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28850269317627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27820110321045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28335237503052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29880475997925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20952272415161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98631763458252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19235324859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2524471282959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37091732025146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44303035736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43444442749023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45161581039429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54433107376099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.600989818573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66623544692993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45504856109619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59240579605103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66280126571655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80359220504761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94953346252441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97872161865234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82247829437256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78813934326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60442495346069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59755706787109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50140714645386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16831541061401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17861795425415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32799339294434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29193735122681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23356008529663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35202980041504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46363353729248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56665134429932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49282073974609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2249755859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32112503051758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4945387840271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60614061355591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34859704971313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09791946411133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29708814620972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24042844772339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1425609588623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11852359771729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04297780990601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97429895401001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03095865249634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43345642089844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.586266040802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32013607025146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08491277694702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11238431930542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96987628936768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58012580871582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5148811340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67284202575684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29438209533691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92866897583008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06259250640869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16389274597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2960991859436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62403917312622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5793981552124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56051206588745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51243686676025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68069839477539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61030292510986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56909561157227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62918996810913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66868019104004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85239505767822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78886699676514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65837812423706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77169752120972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69958543777466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63777446746826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40770149230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39396572113037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55192613601685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51415348052979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45577716827393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50900268554688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55879402160645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28841829299927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39482402801514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36691474914551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26923036575317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13665819168091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03548574447632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07735109329224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0197868347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08432817459106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03374195098877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06514024734497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02676439285278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09653854370117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05990695953369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96745634078979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0302529335022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30237293243408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14189195632935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19073390960693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22562122344971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25004243850708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16980171203613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20120000839233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39308023452759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24132061004639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25527477264404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45413255691528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44366598129272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41226768493652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34074926376343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23608732223511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38435840606689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2953953742981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20643377304077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0215311050415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61160707473755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34995269775391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56450891494751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64823818206787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43368196487427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47903537750244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55055379867554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5522985458374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58718585968018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74941110610962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6046290397644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61683988571167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5836968421936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47554636001587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49996757507324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48077964782715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20865964889526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30111074447632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45984745025635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6133508682251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45810270309448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54008817672729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46333599090576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2697114944458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3272762298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40751647949219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55404233932495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35169744491577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4424033164978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43891429901123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38309526443481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41449451446533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62556123733521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65172672271729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.594162940979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91686916351318</t>
   </si>
   <si>
     <t xml:space="preserve">6.06688499450684</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0884313583374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03918170928955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12463521957397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07521820068359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07367372512817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08911657333374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25898790359497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24354553222656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.228102684021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24045658111572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21729230880737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26516532897949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3856201171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4242262840271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30686140060425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34546899795532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37172079086304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34237909317017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44893598556519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46283292770386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34855699539185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32384777069092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27906370162964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35318899154663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53232622146606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33311319351196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47982120513916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3346586227417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33774709701538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35936689376831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35782241821289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36091136932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32075929641724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21265935897827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30531740188599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40723991394043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34083557128906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36245536804199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26979875564575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25744342803955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99800395965576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04587697982788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24200057983398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29141855239868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34701299667358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50452995300293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51070737838745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48754262924194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48290920257568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41187238693237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42731523513794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39334011077881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4381251335144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49680709838867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57865619659424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66204786300659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67131280899048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7670578956604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74698305130005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79022264480591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74852609634399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79948854446411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65278005599976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62652826309204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69293165206909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68212270736694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70991897583008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69602060317993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75315952301025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76860237121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78713369369507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78559017181396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81029796600342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8133864402771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77941179275513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75933694839478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75624799728394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72381782531738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88751268386841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93229675292969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88133525848389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93847417831421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87515878677368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66667938232422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87824583053589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09908008575439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04811763763428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07591390609741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07282590866089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15776300430298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2195348739624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33535432815552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35234212875366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49904918670654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38940477371216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52530288696289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45735263824463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51294708251953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61178159713745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51758146286011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57626390457153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61487054824829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63771867752075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49894285202026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50563049316406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4119987487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39862203598022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34177350997925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45212602615356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39360570907593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34511852264404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27823781967163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36350965499878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26820611953735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33174228668213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47553443908691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44878196716309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45547151565552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53739833831787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58087110519409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58923101425171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65778255462646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64273452758789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54408597946167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45379829406738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34344673156738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50483894348145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3657660484314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58038711547852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48251914978027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14599609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20265579223633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08075094223022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26446580886841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20780563354492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24557876586914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3262767791748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47736883163452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40697383880615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34001207351685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28850173950195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27820110321045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28335237503052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29880523681641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20952272415161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98631715774536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19235277175903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25244665145874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37091732025146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44302988052368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43444442749023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45161581039429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54433012008667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60098934173584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66623497009277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45504808425903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59240531921387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66280078887939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80359220504761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94953298568726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97872161865234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82247877120972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78813791275024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60442352294922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59755706787109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5014066696167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16831588745117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17861795425415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32799386978149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29193735122681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23356056213379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3520302772522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46363401412964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56665134429932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49282121658325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22497510910034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32112455368042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49453830718994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60614013671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34859704971313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09791994094849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29708814620972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24042797088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1425609588623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11852359771729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04297780990601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97429895401001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03095865249634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43345594406128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.586266040802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32013654708862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08491230010986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11238431930542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96987628936768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58012628555298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5148811340332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67284202575684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29438209533691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92866897583008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06259250640869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16389274597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29609966278076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62403917312622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5793981552124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56051158905029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5124363899231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68069887161255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61030292510986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56909608840942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62918996810913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66868019104004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85239458084106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78886747360229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65837812423706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77169752120972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6995849609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6377739906311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40770196914673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39396572113037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55192613601685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51415300369263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45577669143677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50900268554688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55879402160645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28841829299927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39482402801514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36691522598267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26923036575317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13665914535522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03548574447632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07735061645508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0197868347168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08432817459106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03374195098877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06514024734497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02676391601562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09653902053833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05990695953369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96745634078979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0302529335022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30237293243408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1418924331665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19073390960693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22562170028687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25004243850708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16980171203613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20120000839233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39307975769043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24132061004639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2552752494812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45413255691528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44366598129272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41226816177368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34074878692627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23608732223511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38435888290405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2953953742981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20643329620361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0215311050415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61160707473755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34995269775391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56450891494751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64823770523071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43368196487427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47903537750244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5505542755127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5522985458374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58718538284302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74941110610962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6046290397644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61683988571167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5836968421936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47554636001587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49996757507324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48077917098999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20865917205811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30111026763916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45984792709351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6133508682251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45810270309448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54008817672729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46333599090576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26971197128296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32727575302124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40751600265503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55404233932495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35169696807861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44240379333496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43891525268555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38309526443481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41449451446533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62556123733521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65172719955444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.594162940979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91686964035034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06688451766968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97268915176392</t>
+    <t xml:space="preserve">5.97268962860107</t>
   </si>
   <si>
     <t xml:space="preserve">5.95350122451782</t>
@@ -3956,7 +3956,7 @@
     <t xml:space="preserve">5.92384672164917</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9692006111145</t>
+    <t xml:space="preserve">5.96920013427734</t>
   </si>
   <si>
     <t xml:space="preserve">6.00408744812012</t>
@@ -3965,7 +3965,7 @@
     <t xml:space="preserve">6.03897476196289</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97617769241333</t>
+    <t xml:space="preserve">5.97617816925049</t>
   </si>
   <si>
     <t xml:space="preserve">5.85930585861206</t>
@@ -3980,25 +3980,25 @@
     <t xml:space="preserve">5.63079452514648</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73022317886353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67091417312622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59939575195312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46682500839233</t>
+    <t xml:space="preserve">5.73022365570068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67091464996338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59939622879028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46682453155518</t>
   </si>
   <si>
     <t xml:space="preserve">5.57846355438232</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5627646446228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43193769454956</t>
+    <t xml:space="preserve">5.56276416778564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4319372177124</t>
   </si>
   <si>
     <t xml:space="preserve">5.69010305404663</t>
@@ -4007,13 +4007,13 @@
     <t xml:space="preserve">5.51043367385864</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54880905151367</t>
+    <t xml:space="preserve">5.54880952835083</t>
   </si>
   <si>
     <t xml:space="preserve">5.62032794952393</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63777208328247</t>
+    <t xml:space="preserve">5.63777256011963</t>
   </si>
   <si>
     <t xml:space="preserve">5.76685476303101</t>
@@ -4025,16 +4025,16 @@
     <t xml:space="preserve">5.87326097488403</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95873355865479</t>
+    <t xml:space="preserve">5.95873403549194</t>
   </si>
   <si>
     <t xml:space="preserve">5.7354564666748</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70056819915771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78080940246582</t>
+    <t xml:space="preserve">5.70056915283203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78080892562866</t>
   </si>
   <si>
     <t xml:space="preserve">5.51915550231934</t>
@@ -4046,28 +4046,28 @@
     <t xml:space="preserve">5.62730598449707</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41798257827759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59590673446655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51566648483276</t>
+    <t xml:space="preserve">5.41798305511475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59590721130371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51566600799561</t>
   </si>
   <si>
     <t xml:space="preserve">5.56974220275879</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40926122665405</t>
+    <t xml:space="preserve">5.40926074981689</t>
   </si>
   <si>
     <t xml:space="preserve">5.64300489425659</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92035818099976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85407304763794</t>
+    <t xml:space="preserve">5.92035865783691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85407257080078</t>
   </si>
   <si>
     <t xml:space="preserve">5.83314037322998</t>
@@ -4076,13 +4076,13 @@
     <t xml:space="preserve">5.77383136749268</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78778696060181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73371124267578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58020782470703</t>
+    <t xml:space="preserve">5.78778648376465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73371171951294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58020734786987</t>
   </si>
   <si>
     <t xml:space="preserve">5.75813293457031</t>
@@ -4106,22 +4106,22 @@
     <t xml:space="preserve">6.15061378479004</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22387647628784</t>
+    <t xml:space="preserve">6.223876953125</t>
   </si>
   <si>
     <t xml:space="preserve">6.40180206298828</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42447853088379</t>
+    <t xml:space="preserve">6.42447805404663</t>
   </si>
   <si>
     <t xml:space="preserve">6.55356073379517</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63380098342896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61112451553345</t>
+    <t xml:space="preserve">6.63380146026611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61112499237061</t>
   </si>
   <si>
     <t xml:space="preserve">6.53437328338623</t>
@@ -4130,7 +4130,7 @@
     <t xml:space="preserve">6.57798194885254</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60065841674805</t>
+    <t xml:space="preserve">6.60065889358521</t>
   </si>
   <si>
     <t xml:space="preserve">6.74020767211914</t>
@@ -4157,7 +4157,7 @@
     <t xml:space="preserve">7.04547071456909</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01058340072632</t>
+    <t xml:space="preserve">7.01058387756348</t>
   </si>
   <si>
     <t xml:space="preserve">7.00186157226562</t>
@@ -4175,10 +4175,10 @@
     <t xml:space="preserve">7.11531448364258</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02542924880981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0416088104248</t>
+    <t xml:space="preserve">7.02542877197266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04160833358765</t>
   </si>
   <si>
     <t xml:space="preserve">7.08115768432617</t>
@@ -4187,10 +4187,10 @@
     <t xml:space="preserve">7.07576513290405</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24295043945312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0829553604126</t>
+    <t xml:space="preserve">7.24295091629028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08295583724976</t>
   </si>
   <si>
     <t xml:space="preserve">7.17284059524536</t>
@@ -4205,10 +4205,10 @@
     <t xml:space="preserve">7.0218334197998</t>
   </si>
   <si>
-    <t xml:space="preserve">7.07756233215332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01464319229126</t>
+    <t xml:space="preserve">7.07756280899048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0146427154541</t>
   </si>
   <si>
     <t xml:space="preserve">7.09913492202759</t>
@@ -4220,16 +4220,16 @@
     <t xml:space="preserve">6.98408174514771</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93194818496704</t>
+    <t xml:space="preserve">6.9319486618042</t>
   </si>
   <si>
     <t xml:space="preserve">7.11171913146973</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06497859954834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03981018066406</t>
+    <t xml:space="preserve">7.0649790763855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03981065750122</t>
   </si>
   <si>
     <t xml:space="preserve">7.00924968719482</t>
@@ -4253,22 +4253,22 @@
     <t xml:space="preserve">7.44609212875366</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46047401428223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59350347518921</t>
+    <t xml:space="preserve">7.46047353744507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59350395202637</t>
   </si>
   <si>
     <t xml:space="preserve">7.63485145568848</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71754550933838</t>
+    <t xml:space="preserve">7.71754503250122</t>
   </si>
   <si>
     <t xml:space="preserve">7.7193431854248</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70675992965698</t>
+    <t xml:space="preserve">7.70675945281982</t>
   </si>
   <si>
     <t xml:space="preserve">7.56114482879639</t>
@@ -4280,19 +4280,19 @@
     <t xml:space="preserve">7.67260265350342</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73731994628906</t>
+    <t xml:space="preserve">7.7373194694519</t>
   </si>
   <si>
     <t xml:space="preserve">7.79844093322754</t>
   </si>
   <si>
-    <t xml:space="preserve">7.81641960144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88113594055176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87933826446533</t>
+    <t xml:space="preserve">7.81641912460327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88113641738892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87933874130249</t>
   </si>
   <si>
     <t xml:space="preserve">7.96023559570312</t>
@@ -4301,16 +4301,16 @@
     <t xml:space="preserve">8.0267505645752</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03034496307373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0878734588623</t>
+    <t xml:space="preserve">8.03034591674805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08787250518799</t>
   </si>
   <si>
     <t xml:space="preserve">8.13101673126221</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17775726318359</t>
+    <t xml:space="preserve">8.17775630950928</t>
   </si>
   <si>
     <t xml:space="preserve">8.17955493927002</t>
@@ -4319,16 +4319,16 @@
     <t xml:space="preserve">8.10584926605225</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22989177703857</t>
+    <t xml:space="preserve">8.22989082336426</t>
   </si>
   <si>
     <t xml:space="preserve">8.26404762268066</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28561973571777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32337093353271</t>
+    <t xml:space="preserve">8.28562068939209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32337188720703</t>
   </si>
   <si>
     <t xml:space="preserve">8.34314632415771</t>
@@ -4355,7 +4355,7 @@
     <t xml:space="preserve">8.24427223205566</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31438255310059</t>
+    <t xml:space="preserve">8.3143835067749</t>
   </si>
   <si>
     <t xml:space="preserve">8.3701114654541</t>
@@ -4391,7 +4391,7 @@
     <t xml:space="preserve">7.59170579910278</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44968748092651</t>
+    <t xml:space="preserve">7.44968795776367</t>
   </si>
   <si>
     <t xml:space="preserve">7.33822917938232</t>
@@ -4400,10 +4400,10 @@
     <t xml:space="preserve">7.33103895187378</t>
   </si>
   <si>
-    <t xml:space="preserve">7.23576021194458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41193628311157</t>
+    <t xml:space="preserve">7.23576068878174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41193580627441</t>
   </si>
   <si>
     <t xml:space="preserve">7.51979780197144</t>
@@ -4412,7 +4412,7 @@
     <t xml:space="preserve">7.51260662078857</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60608720779419</t>
+    <t xml:space="preserve">7.60608768463135</t>
   </si>
   <si>
     <t xml:space="preserve">7.55754899978638</t>
@@ -4430,22 +4430,22 @@
     <t xml:space="preserve">7.67799520492554</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76428508758545</t>
+    <t xml:space="preserve">7.76428461074829</t>
   </si>
   <si>
     <t xml:space="preserve">7.76788091659546</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78945446014404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68518590927124</t>
+    <t xml:space="preserve">7.78945398330688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6851863861084</t>
   </si>
   <si>
     <t xml:space="preserve">7.74630832672119</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76855182647705</t>
+    <t xml:space="preserve">7.76855230331421</t>
   </si>
   <si>
     <t xml:space="preserve">7.65548133850098</t>
@@ -4466,19 +4466,19 @@
     <t xml:space="preserve">7.43304634094238</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29031658172607</t>
+    <t xml:space="preserve">7.29031610488892</t>
   </si>
   <si>
     <t xml:space="preserve">7.5090446472168</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51089763641357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50533676147461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34221792221069</t>
+    <t xml:space="preserve">7.51089811325073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50533628463745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34221744537354</t>
   </si>
   <si>
     <t xml:space="preserve">7.22173166275024</t>
@@ -4490,16 +4490,16 @@
     <t xml:space="preserve">7.27734136581421</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27919435501099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37372922897339</t>
+    <t xml:space="preserve">7.27919483184814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37372970581055</t>
   </si>
   <si>
     <t xml:space="preserve">7.35890054702759</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54240942001343</t>
+    <t xml:space="preserve">7.54240894317627</t>
   </si>
   <si>
     <t xml:space="preserve">7.57762813568115</t>
@@ -4514,7 +4514,7 @@
     <t xml:space="preserve">7.44787502288818</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4423131942749</t>
+    <t xml:space="preserve">7.44231367111206</t>
   </si>
   <si>
     <t xml:space="preserve">7.36446142196655</t>
@@ -4529,13 +4529,13 @@
     <t xml:space="preserve">7.62396907806396</t>
   </si>
   <si>
-    <t xml:space="preserve">7.55723905563354</t>
+    <t xml:space="preserve">7.55723857879639</t>
   </si>
   <si>
     <t xml:space="preserve">7.57392120361328</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59801816940308</t>
+    <t xml:space="preserve">7.59801864624023</t>
   </si>
   <si>
     <t xml:space="preserve">7.58504295349121</t>
@@ -4544,31 +4544,31 @@
     <t xml:space="preserve">7.58689641952515</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61655521392822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65918827056885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69626092910767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72777271270752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75001668930054</t>
+    <t xml:space="preserve">7.61655473709106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65918779373169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69626045227051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72777223587036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75001621246338</t>
   </si>
   <si>
     <t xml:space="preserve">7.76113700866699</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71108961105347</t>
+    <t xml:space="preserve">7.71108913421631</t>
   </si>
   <si>
     <t xml:space="preserve">7.72962617874146</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63694477081299</t>
+    <t xml:space="preserve">7.63694429397583</t>
   </si>
   <si>
     <t xml:space="preserve">7.57206773757935</t>
@@ -4589,16 +4589,16 @@
     <t xml:space="preserve">7.6907000541687</t>
   </si>
   <si>
-    <t xml:space="preserve">7.55167722702026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48865461349487</t>
+    <t xml:space="preserve">7.55167770385742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48865413665771</t>
   </si>
   <si>
     <t xml:space="preserve">7.29402351379395</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41821622848511</t>
+    <t xml:space="preserve">7.41821670532227</t>
   </si>
   <si>
     <t xml:space="preserve">7.47011852264404</t>
@@ -4610,19 +4610,19 @@
     <t xml:space="preserve">7.65733480453491</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73333358764648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73147916793823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75372314453125</t>
+    <t xml:space="preserve">7.73333311080933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73147964477539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75372362136841</t>
   </si>
   <si>
     <t xml:space="preserve">7.92240333557129</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96318340301514</t>
+    <t xml:space="preserve">7.96318292617798</t>
   </si>
   <si>
     <t xml:space="preserve">7.9705982208252</t>
@@ -4652,19 +4652,19 @@
     <t xml:space="preserve">7.88533163070679</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82786846160889</t>
+    <t xml:space="preserve">7.82786798477173</t>
   </si>
   <si>
     <t xml:space="preserve">7.81303930282593</t>
   </si>
   <si>
-    <t xml:space="preserve">7.81674671173096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80006408691406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33480358123779</t>
+    <t xml:space="preserve">7.8167462348938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80006456375122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33480310440063</t>
   </si>
   <si>
     <t xml:space="preserve">7.53128814697266</t>
@@ -4673,7 +4673,7 @@
     <t xml:space="preserve">7.6258225440979</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73889446258545</t>
+    <t xml:space="preserve">7.73889493942261</t>
   </si>
   <si>
     <t xml:space="preserve">7.56094598770142</t>
@@ -4688,10 +4688,10 @@
     <t xml:space="preserve">7.56279945373535</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54426336288452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53684854507446</t>
+    <t xml:space="preserve">7.54426383972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53684902191162</t>
   </si>
   <si>
     <t xml:space="preserve">7.61470079421997</t>
@@ -4715,7 +4715,7 @@
     <t xml:space="preserve">7.78523397445679</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7945032119751</t>
+    <t xml:space="preserve">7.79450225830078</t>
   </si>
   <si>
     <t xml:space="preserve">7.77411270141602</t>
@@ -4724,10 +4724,10 @@
     <t xml:space="preserve">7.83528327941895</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67957782745361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71665048599243</t>
+    <t xml:space="preserve">7.67957830429077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71665096282959</t>
   </si>
   <si>
     <t xml:space="preserve">7.8074779510498</t>
@@ -4751,10 +4751,10 @@
     <t xml:space="preserve">7.37743663787842</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47382593154907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3403639793396</t>
+    <t xml:space="preserve">7.47382545471191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34036445617676</t>
   </si>
   <si>
     <t xml:space="preserve">7.44046020507812</t>
@@ -4763,7 +4763,7 @@
     <t xml:space="preserve">7.46455717086792</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33665657043457</t>
+    <t xml:space="preserve">7.33665704727173</t>
   </si>
   <si>
     <t xml:space="preserve">7.36075401306152</t>
@@ -4790,7 +4790,7 @@
     <t xml:space="preserve">7.0382227897644</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0474910736084</t>
+    <t xml:space="preserve">7.04749155044556</t>
   </si>
   <si>
     <t xml:space="preserve">7.04193019866943</t>
@@ -4802,7 +4802,7 @@
     <t xml:space="preserve">7.1420259475708</t>
   </si>
   <si>
-    <t xml:space="preserve">7.17724466323853</t>
+    <t xml:space="preserve">7.17724514007568</t>
   </si>
   <si>
     <t xml:space="preserve">7.31997394561768</t>
@@ -4811,7 +4811,7 @@
     <t xml:space="preserve">7.46641063690186</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37929058074951</t>
+    <t xml:space="preserve">7.37929010391235</t>
   </si>
   <si>
     <t xml:space="preserve">7.40524101257324</t>
@@ -4820,25 +4820,25 @@
     <t xml:space="preserve">7.42377758026123</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59987211227417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58133602142334</t>
+    <t xml:space="preserve">7.59987163543701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5813364982605</t>
   </si>
   <si>
     <t xml:space="preserve">7.77225923538208</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91498804092407</t>
+    <t xml:space="preserve">7.91498899459839</t>
   </si>
   <si>
     <t xml:space="preserve">7.89645290374756</t>
   </si>
   <si>
-    <t xml:space="preserve">7.77782011032104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80191802978516</t>
+    <t xml:space="preserve">7.7778205871582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.801917552948</t>
   </si>
   <si>
     <t xml:space="preserve">7.91312694549561</t>
@@ -27664,7 +27664,7 @@
         <v>6.5149998664856</v>
       </c>
       <c r="G848" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -27690,7 +27690,7 @@
         <v>6.30000019073486</v>
       </c>
       <c r="G849" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -27716,7 +27716,7 @@
         <v>6.31500005722046</v>
       </c>
       <c r="G850" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -27742,7 +27742,7 @@
         <v>6.33500003814697</v>
       </c>
       <c r="G851" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -27768,7 +27768,7 @@
         <v>6.17999982833862</v>
       </c>
       <c r="G852" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -27794,7 +27794,7 @@
         <v>6.17999982833862</v>
       </c>
       <c r="G853" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -27820,7 +27820,7 @@
         <v>6.11499977111816</v>
       </c>
       <c r="G854" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -27846,7 +27846,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G855" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -27872,7 +27872,7 @@
         <v>6.11999988555908</v>
       </c>
       <c r="G856" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -27898,7 +27898,7 @@
         <v>6.20499992370605</v>
       </c>
       <c r="G857" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -27924,7 +27924,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G858" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -27950,7 +27950,7 @@
         <v>6.17999982833862</v>
       </c>
       <c r="G859" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -27976,7 +27976,7 @@
         <v>6.15000009536743</v>
       </c>
       <c r="G860" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -28002,7 +28002,7 @@
         <v>6.14499998092651</v>
       </c>
       <c r="G861" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -28028,7 +28028,7 @@
         <v>6.05999994277954</v>
       </c>
       <c r="G862" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -28054,7 +28054,7 @@
         <v>6.07499980926514</v>
       </c>
       <c r="G863" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -28080,7 +28080,7 @@
         <v>6.07999992370605</v>
       </c>
       <c r="G864" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -28106,7 +28106,7 @@
         <v>6.03000020980835</v>
       </c>
       <c r="G865" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -28132,7 +28132,7 @@
         <v>6</v>
       </c>
       <c r="G866" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -28158,7 +28158,7 @@
         <v>6.03000020980835</v>
       </c>
       <c r="G867" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -28184,7 +28184,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G868" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -28210,7 +28210,7 @@
         <v>6.01000022888184</v>
       </c>
       <c r="G869" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -28236,7 +28236,7 @@
         <v>6.09499979019165</v>
       </c>
       <c r="G870" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -28262,7 +28262,7 @@
         <v>6.17500019073486</v>
       </c>
       <c r="G871" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -28288,7 +28288,7 @@
         <v>6.15999984741211</v>
       </c>
       <c r="G872" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -28314,7 +28314,7 @@
         <v>6.21999979019165</v>
       </c>
       <c r="G873" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -28340,7 +28340,7 @@
         <v>6.19500017166138</v>
       </c>
       <c r="G874" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -28366,7 +28366,7 @@
         <v>6.20499992370605</v>
       </c>
       <c r="G875" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -28392,7 +28392,7 @@
         <v>6.125</v>
       </c>
       <c r="G876" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -28418,7 +28418,7 @@
         <v>6.16499996185303</v>
       </c>
       <c r="G877" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -28444,7 +28444,7 @@
         <v>6.07000017166138</v>
       </c>
       <c r="G878" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -28470,7 +28470,7 @@
         <v>6.07499980926514</v>
       </c>
       <c r="G879" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -28496,7 +28496,7 @@
         <v>6.20499992370605</v>
       </c>
       <c r="G880" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -28522,7 +28522,7 @@
         <v>6.25500011444092</v>
       </c>
       <c r="G881" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -28548,7 +28548,7 @@
         <v>6.28499984741211</v>
       </c>
       <c r="G882" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -28574,7 +28574,7 @@
         <v>6.32499980926514</v>
       </c>
       <c r="G883" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -28600,7 +28600,7 @@
         <v>6.46999979019165</v>
       </c>
       <c r="G884" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -28626,7 +28626,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G885" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -28652,7 +28652,7 @@
         <v>6.38500022888184</v>
       </c>
       <c r="G886" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -28678,7 +28678,7 @@
         <v>6.46500015258789</v>
       </c>
       <c r="G887" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -28704,7 +28704,7 @@
         <v>6.47499990463257</v>
       </c>
       <c r="G888" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -28730,7 +28730,7 @@
         <v>6.48000001907349</v>
       </c>
       <c r="G889" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -28756,7 +28756,7 @@
         <v>6.5149998664856</v>
       </c>
       <c r="G890" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -28782,7 +28782,7 @@
         <v>6.66499996185303</v>
       </c>
       <c r="G891" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -28808,7 +28808,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G892" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -28834,7 +28834,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G893" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -28860,7 +28860,7 @@
         <v>6.6399998664856</v>
       </c>
       <c r="G894" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -28886,7 +28886,7 @@
         <v>6.58500003814697</v>
       </c>
       <c r="G895" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -28912,7 +28912,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G896" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -28938,7 +28938,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G897" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -28964,7 +28964,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G898" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -28990,7 +28990,7 @@
         <v>6.73000001907349</v>
       </c>
       <c r="G899" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -29016,7 +29016,7 @@
         <v>6.76000022888184</v>
       </c>
       <c r="G900" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -29042,7 +29042,7 @@
         <v>6.69500017166138</v>
       </c>
       <c r="G901" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -29068,7 +29068,7 @@
         <v>6.69500017166138</v>
       </c>
       <c r="G902" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -29094,7 +29094,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G903" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -29120,7 +29120,7 @@
         <v>6.59499979019165</v>
       </c>
       <c r="G904" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -29146,7 +29146,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G905" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -29172,7 +29172,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G906" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -29198,7 +29198,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G907" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -29224,7 +29224,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G908" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -29250,7 +29250,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G909" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -29302,7 +29302,7 @@
         <v>6.46500015258789</v>
       </c>
       <c r="G911" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -29328,7 +29328,7 @@
         <v>6.71500015258789</v>
       </c>
       <c r="G912" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -29354,7 +29354,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G913" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -29380,7 +29380,7 @@
         <v>6.57000017166138</v>
       </c>
       <c r="G914" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -29406,7 +29406,7 @@
         <v>6.55000019073486</v>
       </c>
       <c r="G915" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -29432,7 +29432,7 @@
         <v>6.57000017166138</v>
       </c>
       <c r="G916" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -29458,7 +29458,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G917" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -29484,7 +29484,7 @@
         <v>6.26000022888184</v>
       </c>
       <c r="G918" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -29510,7 +29510,7 @@
         <v>6.2649998664856</v>
       </c>
       <c r="G919" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -29536,7 +29536,7 @@
         <v>6.27500009536743</v>
       </c>
       <c r="G920" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -29562,7 +29562,7 @@
         <v>6.17000007629395</v>
       </c>
       <c r="G921" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -29588,7 +29588,7 @@
         <v>6.30000019073486</v>
       </c>
       <c r="G922" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -29640,7 +29640,7 @@
         <v>6.46000003814697</v>
       </c>
       <c r="G924" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -29666,7 +29666,7 @@
         <v>6.60500001907349</v>
       </c>
       <c r="G925" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -29692,7 +29692,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G926" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -29718,7 +29718,7 @@
         <v>6.48000001907349</v>
       </c>
       <c r="G927" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -29744,7 +29744,7 @@
         <v>6.53499984741211</v>
       </c>
       <c r="G928" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -29770,7 +29770,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G929" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -29796,7 +29796,7 @@
         <v>6.59499979019165</v>
       </c>
       <c r="G930" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -29822,7 +29822,7 @@
         <v>6.65500020980835</v>
       </c>
       <c r="G931" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -29848,7 +29848,7 @@
         <v>6.57999992370605</v>
       </c>
       <c r="G932" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -29874,7 +29874,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G933" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -29900,7 +29900,7 @@
         <v>6.60500001907349</v>
       </c>
       <c r="G934" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -29926,7 +29926,7 @@
         <v>6.71000003814697</v>
       </c>
       <c r="G935" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -29952,7 +29952,7 @@
         <v>6.73999977111816</v>
       </c>
       <c r="G936" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -29978,7 +29978,7 @@
         <v>6.73999977111816</v>
       </c>
       <c r="G937" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -30004,7 +30004,7 @@
         <v>6.86499977111816</v>
       </c>
       <c r="G938" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -30030,7 +30030,7 @@
         <v>6.88000011444092</v>
       </c>
       <c r="G939" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -30056,7 +30056,7 @@
         <v>6.84999990463257</v>
       </c>
       <c r="G940" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -30082,7 +30082,7 @@
         <v>6.84999990463257</v>
       </c>
       <c r="G941" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -30108,7 +30108,7 @@
         <v>7.01000022888184</v>
       </c>
       <c r="G942" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -30134,7 +30134,7 @@
         <v>6.94000005722046</v>
       </c>
       <c r="G943" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -30160,7 +30160,7 @@
         <v>6.96999979019165</v>
       </c>
       <c r="G944" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -30186,7 +30186,7 @@
         <v>7.03999996185303</v>
       </c>
       <c r="G945" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -30212,7 +30212,7 @@
         <v>7.05000019073486</v>
       </c>
       <c r="G946" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -30238,7 +30238,7 @@
         <v>7</v>
       </c>
       <c r="G947" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -30264,7 +30264,7 @@
         <v>6.875</v>
       </c>
       <c r="G948" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -30290,7 +30290,7 @@
         <v>6.91499996185303</v>
       </c>
       <c r="G949" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -30316,7 +30316,7 @@
         <v>6.84999990463257</v>
       </c>
       <c r="G950" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -30342,7 +30342,7 @@
         <v>6.8600001335144</v>
       </c>
       <c r="G951" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -30368,7 +30368,7 @@
         <v>6.89499998092651</v>
       </c>
       <c r="G952" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -30394,7 +30394,7 @@
         <v>6.8899998664856</v>
       </c>
       <c r="G953" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -30420,7 +30420,7 @@
         <v>6.88500022888184</v>
       </c>
       <c r="G954" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -30446,7 +30446,7 @@
         <v>6.79500007629395</v>
       </c>
       <c r="G955" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -30472,7 +30472,7 @@
         <v>6.79500007629395</v>
       </c>
       <c r="G956" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -30498,7 +30498,7 @@
         <v>6.94000005722046</v>
       </c>
       <c r="G957" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -30524,7 +30524,7 @@
         <v>6.95499992370605</v>
       </c>
       <c r="G958" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -30550,7 +30550,7 @@
         <v>6.94999980926514</v>
       </c>
       <c r="G959" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -30576,7 +30576,7 @@
         <v>6.94500017166138</v>
       </c>
       <c r="G960" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -30602,7 +30602,7 @@
         <v>6.97499990463257</v>
       </c>
       <c r="G961" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -30628,7 +30628,7 @@
         <v>7.19000005722046</v>
       </c>
       <c r="G962" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -30654,7 +30654,7 @@
         <v>7.25</v>
       </c>
       <c r="G963" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -30680,7 +30680,7 @@
         <v>7.30499982833862</v>
       </c>
       <c r="G964" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -30706,7 +30706,7 @@
         <v>7.36499977111816</v>
       </c>
       <c r="G965" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -30732,7 +30732,7 @@
         <v>7.42500019073486</v>
       </c>
       <c r="G966" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -30758,7 +30758,7 @@
         <v>7.5149998664856</v>
       </c>
       <c r="G967" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -30784,7 +30784,7 @@
         <v>7.55999994277954</v>
       </c>
       <c r="G968" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -30810,7 +30810,7 @@
         <v>7.57999992370605</v>
       </c>
       <c r="G969" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -30836,7 +30836,7 @@
         <v>7.59499979019165</v>
       </c>
       <c r="G970" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -30862,7 +30862,7 @@
         <v>7.625</v>
       </c>
       <c r="G971" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -30888,7 +30888,7 @@
         <v>7.67500019073486</v>
       </c>
       <c r="G972" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -30914,7 +30914,7 @@
         <v>7.69000005722046</v>
       </c>
       <c r="G973" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -30940,7 +30940,7 @@
         <v>7.68499994277954</v>
       </c>
       <c r="G974" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -30966,7 +30966,7 @@
         <v>7.69500017166138</v>
       </c>
       <c r="G975" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -30992,7 +30992,7 @@
         <v>7.68499994277954</v>
       </c>
       <c r="G976" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -31018,7 +31018,7 @@
         <v>7.71000003814697</v>
       </c>
       <c r="G977" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -31044,7 +31044,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G978" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -31070,7 +31070,7 @@
         <v>7.71000003814697</v>
       </c>
       <c r="G979" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -31096,7 +31096,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G980" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -31122,7 +31122,7 @@
         <v>8.26000022888184</v>
       </c>
       <c r="G981" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -31148,7 +31148,7 @@
         <v>8.39500045776367</v>
       </c>
       <c r="G982" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -31174,7 +31174,7 @@
         <v>8.63000011444092</v>
       </c>
       <c r="G983" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -31200,7 +31200,7 @@
         <v>8.77999973297119</v>
       </c>
       <c r="G984" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -31226,7 +31226,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G985" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -31252,7 +31252,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G986" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -31278,7 +31278,7 @@
         <v>8.61999988555908</v>
       </c>
       <c r="G987" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -31304,7 +31304,7 @@
         <v>8.53499984741211</v>
       </c>
       <c r="G988" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -31330,7 +31330,7 @@
         <v>8.76500034332275</v>
       </c>
       <c r="G989" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -31356,7 +31356,7 @@
         <v>8.97000026702881</v>
       </c>
       <c r="G990" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -31382,7 +31382,7 @@
         <v>8.98999977111816</v>
       </c>
       <c r="G991" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -31408,7 +31408,7 @@
         <v>9.11499977111816</v>
       </c>
       <c r="G992" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -31434,7 +31434,7 @@
         <v>9.03999996185303</v>
       </c>
       <c r="G993" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -31460,7 +31460,7 @@
         <v>9.19999980926514</v>
       </c>
       <c r="G994" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -31486,7 +31486,7 @@
         <v>9.22999954223633</v>
       </c>
       <c r="G995" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -31512,7 +31512,7 @@
         <v>9.30500030517578</v>
       </c>
       <c r="G996" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -31538,7 +31538,7 @@
         <v>9.21500015258789</v>
       </c>
       <c r="G997" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -31564,7 +31564,7 @@
         <v>9.13000011444092</v>
       </c>
       <c r="G998" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -31590,7 +31590,7 @@
         <v>9.10499954223633</v>
       </c>
       <c r="G999" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -31616,7 +31616,7 @@
         <v>9.21000003814697</v>
       </c>
       <c r="G1000" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -31642,7 +31642,7 @@
         <v>9.27999973297119</v>
       </c>
       <c r="G1001" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -31668,7 +31668,7 @@
         <v>9.20499992370605</v>
       </c>
       <c r="G1002" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -31694,7 +31694,7 @@
         <v>9.03499984741211</v>
       </c>
       <c r="G1003" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -31720,7 +31720,7 @@
         <v>9.0600004196167</v>
       </c>
       <c r="G1004" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -31746,7 +31746,7 @@
         <v>9.10000038146973</v>
       </c>
       <c r="G1005" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -31772,7 +31772,7 @@
         <v>9.10499954223633</v>
       </c>
       <c r="G1006" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -31798,7 +31798,7 @@
         <v>9.0649995803833</v>
       </c>
       <c r="G1007" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -31824,7 +31824,7 @@
         <v>9.16499996185303</v>
       </c>
       <c r="G1008" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -31850,7 +31850,7 @@
         <v>9.13500022888184</v>
       </c>
       <c r="G1009" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -31876,7 +31876,7 @@
         <v>9.125</v>
       </c>
       <c r="G1010" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -31902,7 +31902,7 @@
         <v>9.08500003814697</v>
       </c>
       <c r="G1011" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -31928,7 +31928,7 @@
         <v>8.96500015258789</v>
       </c>
       <c r="G1012" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -31954,7 +31954,7 @@
         <v>8.92000007629395</v>
       </c>
       <c r="G1013" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -31980,7 +31980,7 @@
         <v>8.9350004196167</v>
       </c>
       <c r="G1014" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -32006,7 +32006,7 @@
         <v>8.85499954223633</v>
       </c>
       <c r="G1015" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -32032,7 +32032,7 @@
         <v>8.89500045776367</v>
       </c>
       <c r="G1016" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -32058,7 +32058,7 @@
         <v>8.77499961853027</v>
       </c>
       <c r="G1017" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -32084,7 +32084,7 @@
         <v>8.59500026702881</v>
       </c>
       <c r="G1018" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -32110,7 +32110,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G1019" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -32136,7 +32136,7 @@
         <v>8.80000019073486</v>
       </c>
       <c r="G1020" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -32162,7 +32162,7 @@
         <v>9.11499977111816</v>
       </c>
       <c r="G1021" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -32188,7 +32188,7 @@
         <v>9</v>
       </c>
       <c r="G1022" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -32214,7 +32214,7 @@
         <v>8.9350004196167</v>
       </c>
       <c r="G1023" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -32240,7 +32240,7 @@
         <v>8.85499954223633</v>
       </c>
       <c r="G1024" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -32266,7 +32266,7 @@
         <v>8.73499965667725</v>
       </c>
       <c r="G1025" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -32292,7 +32292,7 @@
         <v>8.72999954223633</v>
       </c>
       <c r="G1026" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -32318,7 +32318,7 @@
         <v>8.875</v>
       </c>
       <c r="G1027" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -32344,7 +32344,7 @@
         <v>8.77000045776367</v>
       </c>
       <c r="G1028" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -32370,7 +32370,7 @@
         <v>8.61999988555908</v>
       </c>
       <c r="G1029" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -32396,7 +32396,7 @@
         <v>8.65999984741211</v>
       </c>
       <c r="G1030" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -32422,7 +32422,7 @@
         <v>8.65999984741211</v>
       </c>
       <c r="G1031" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -32448,7 +32448,7 @@
         <v>8.59000015258789</v>
       </c>
       <c r="G1032" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -32474,7 +32474,7 @@
         <v>8.32999992370605</v>
       </c>
       <c r="G1033" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -32500,7 +32500,7 @@
         <v>8.51500034332275</v>
       </c>
       <c r="G1034" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -32526,7 +32526,7 @@
         <v>8.61999988555908</v>
       </c>
       <c r="G1035" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -32552,7 +32552,7 @@
         <v>8.40999984741211</v>
       </c>
       <c r="G1036" t="s">
-        <v>769</v>
+        <v>727</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -32656,7 +32656,7 @@
         <v>8.32999992370605</v>
       </c>
       <c r="G1040" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -32812,7 +32812,7 @@
         <v>8.40999984741211</v>
       </c>
       <c r="G1046" t="s">
-        <v>769</v>
+        <v>727</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -62538,7 +62538,7 @@
     </row>
     <row r="2190">
       <c r="A2190" s="1" t="n">
-        <v>45511.6493055556</v>
+        <v>45511.2916666667</v>
       </c>
       <c r="B2190" t="n">
         <v>1810512</v>
@@ -62559,6 +62559,32 @@
         <v>1708</v>
       </c>
       <c r="H2190" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2191">
+      <c r="A2191" s="1" t="n">
+        <v>45512.6495717593</v>
+      </c>
+      <c r="B2191" t="n">
+        <v>1111363</v>
+      </c>
+      <c r="C2191" t="n">
+        <v>9.98999977111816</v>
+      </c>
+      <c r="D2191" t="n">
+        <v>9.79500007629395</v>
+      </c>
+      <c r="E2191" t="n">
+        <v>9.96500015258789</v>
+      </c>
+      <c r="F2191" t="n">
+        <v>9.89999961853027</v>
+      </c>
+      <c r="G2191" t="s">
+        <v>1707</v>
+      </c>
+      <c r="H2191" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BMED.MI.xlsx
+++ b/data/BMED.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="1757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1758" uniqueCount="1758">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,58 +38,58 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32330417633057</t>
+    <t xml:space="preserve">4.32330465316772</t>
   </si>
   <si>
     <t xml:space="preserve">BMED.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26425123214722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99385023117065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90060925483704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8943920135498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92236518859863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03425598144531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04047012329102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75453019142151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72344946861267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76074624061584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54318308830261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66750431060791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90682506561279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9161479473114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91925716400146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82912302017212</t>
+    <t xml:space="preserve">4.26425218582153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99385142326355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9006085395813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89439249038696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92236471176147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03425455093384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04047107696533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75452995300293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72345042228699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.760746717453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5431821346283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66750407218933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90682482719421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9161491394043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91925764083862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82912373542786</t>
   </si>
   <si>
     <t xml:space="preserve">3.84155535697937</t>
@@ -104,55 +104,55 @@
     <t xml:space="preserve">3.64264011383057</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77628660202026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.46237301826477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30386209487915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60534405708313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71723318099976</t>
+    <t xml:space="preserve">3.77628636360168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.46237325668335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30386233329773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60534334182739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71723365783691</t>
   </si>
   <si>
     <t xml:space="preserve">3.78561043739319</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88817596435547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84466409683228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84777164459229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95966219902039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9254744052887</t>
+    <t xml:space="preserve">3.88817691802979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84466290473938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84777188301086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95966124534607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92547273635864</t>
   </si>
   <si>
     <t xml:space="preserve">3.83844804763794</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98763489723206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07465982437134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07155132293701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21762990951538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23938751220703</t>
+    <t xml:space="preserve">3.98763394355774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0746603012085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07155084609985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21763038635254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23938703536987</t>
   </si>
   <si>
     <t xml:space="preserve">4.13371276855469</t>
@@ -161,40 +161,40 @@
     <t xml:space="preserve">4.2114143371582</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20830678939819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27357530593872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34816837310791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33262825012207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30154800415039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23006200790405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28600740432739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25181818008423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22073793411255</t>
+    <t xml:space="preserve">4.20830583572388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27357578277588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34816884994507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33262777328491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30154848098755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23006248474121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28600788116455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25181913375854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22073841094971</t>
   </si>
   <si>
     <t xml:space="preserve">4.17411804199219</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35749197006226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39168119430542</t>
+    <t xml:space="preserve">4.35749292373657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39168214797974</t>
   </si>
   <si>
     <t xml:space="preserve">4.41654586791992</t>
@@ -206,31 +206,31 @@
     <t xml:space="preserve">4.15236139297485</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04668712615967</t>
+    <t xml:space="preserve">4.04668760299683</t>
   </si>
   <si>
     <t xml:space="preserve">4.27979135513306</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31398010253906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27046632766724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43208646774292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47559976577759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40100479125977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50564098358154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4390549659729</t>
+    <t xml:space="preserve">4.3139796257019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27046728134155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43208694458008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47559881210327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40100526809692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50564002990723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43905401229858</t>
   </si>
   <si>
     <t xml:space="preserve">4.51198196411133</t>
@@ -239,73 +239,73 @@
     <t xml:space="preserve">4.54051876068115</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53100681304932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43271350860596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48344612121582</t>
+    <t xml:space="preserve">4.531005859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43271255493164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4834451675415</t>
   </si>
   <si>
     <t xml:space="preserve">4.44222497940063</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57222652435303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55637216567993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61661624908447</t>
+    <t xml:space="preserve">4.57222700119019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55637264251709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61661672592163</t>
   </si>
   <si>
     <t xml:space="preserve">4.48978662490845</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65783596038818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56588554382324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53417682647705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63881254196167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4866156578064</t>
+    <t xml:space="preserve">4.6578369140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56588459014893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53417730331421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63881206512451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48661613464355</t>
   </si>
   <si>
     <t xml:space="preserve">4.49612855911255</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48027467727661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51515245437622</t>
+    <t xml:space="preserve">4.48027515411377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51515197753906</t>
   </si>
   <si>
     <t xml:space="preserve">4.47710371017456</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50246953964233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66100740432739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90198469161987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83857107162476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75613021850586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78466653823853</t>
+    <t xml:space="preserve">4.50247049331665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66100692749023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90198516845703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83857011795044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7561297416687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78466749191284</t>
   </si>
   <si>
     <t xml:space="preserve">4.81637382507324</t>
@@ -317,19 +317,19 @@
     <t xml:space="preserve">4.72442197799683</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74661827087402</t>
+    <t xml:space="preserve">4.74661779403687</t>
   </si>
   <si>
     <t xml:space="preserve">4.60710430145264</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62930011749268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68003273010254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64198303222656</t>
+    <t xml:space="preserve">4.62929964065552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68003177642822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64198350906372</t>
   </si>
   <si>
     <t xml:space="preserve">4.2202730178833</t>
@@ -341,28 +341,28 @@
     <t xml:space="preserve">4.05856418609619</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98563718795776</t>
+    <t xml:space="preserve">3.98563599586487</t>
   </si>
   <si>
     <t xml:space="preserve">4.115638256073</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32490825653076</t>
+    <t xml:space="preserve">4.3249077796936</t>
   </si>
   <si>
     <t xml:space="preserve">4.36929845809937</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3471040725708</t>
+    <t xml:space="preserve">4.34710264205933</t>
   </si>
   <si>
     <t xml:space="preserve">4.50881099700928</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83027029037476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58612179756165</t>
+    <t xml:space="preserve">3.83027005195618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58612275123596</t>
   </si>
   <si>
     <t xml:space="preserve">3.73514676094055</t>
@@ -371,286 +371,286 @@
     <t xml:space="preserve">3.69709849357605</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89051485061646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90002751350403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75734305381775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70661020278931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64636659622192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67173290252686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87466144561768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97295379638672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10929584503174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99514937400818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02051544189453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04271078109741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06490468978882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0458812713623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01417398452759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15368747711182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09027194976807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1600284576416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87783074378967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82075786590576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90636730194092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05222272872925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07758855819702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9634416103363</t>
+    <t xml:space="preserve">3.89051532745361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90002632141113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75734281539917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70660972595215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64636588096619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67173266410828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87466096878052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97295355796814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10929679870605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9951491355896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02051591873169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04270935058594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06490564346313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04588174819946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01417446136475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1536865234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09027242660522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16002798080444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87783145904541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82075762748718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90636825561523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05222368240356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07758903503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96344089508057</t>
   </si>
   <si>
     <t xml:space="preserve">3.8968563079834</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94441723823547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85246562957764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97612404823303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01734447479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94124555587769</t>
+    <t xml:space="preserve">3.94441699981689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85246515274048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97612524032593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01734399795532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94124627113342</t>
   </si>
   <si>
     <t xml:space="preserve">3.96978330612183</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01100301742554</t>
+    <t xml:space="preserve">4.01100206375122</t>
   </si>
   <si>
     <t xml:space="preserve">4.07441759109497</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0934419631958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05539417266846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08075952529907</t>
+    <t xml:space="preserve">4.09344244003296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0553936958313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08075904846191</t>
   </si>
   <si>
     <t xml:space="preserve">4.17271089553833</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11246633529663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98880743980408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02368593215942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00783205032349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7858784198761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.858806848526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77953791618347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83978295326233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87149024009705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76685523986816</t>
+    <t xml:space="preserve">4.11246728897095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98880815505981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02368497848511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00783252716064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78587913513184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85880756378174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77953815460205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83978176116943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87148904800415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76685547828674</t>
   </si>
   <si>
     <t xml:space="preserve">3.65270805358887</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69075655937195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7605140209198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73197746276855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74148941040039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92222213745117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8810019493103</t>
+    <t xml:space="preserve">3.69075679779053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76051354408264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73197674751282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74148964881897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92222142219543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88100242614746</t>
   </si>
   <si>
     <t xml:space="preserve">3.95710039138794</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89368462562561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95392990112305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79539155960083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86831951141357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91905093193054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92539262771606</t>
+    <t xml:space="preserve">3.89368486404419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95392966270447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79539227485657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86831903457642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91905117034912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92539167404175</t>
   </si>
   <si>
     <t xml:space="preserve">4.00149059295654</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07124757766724</t>
+    <t xml:space="preserve">4.07124710083008</t>
   </si>
   <si>
     <t xml:space="preserve">3.84295320510864</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81441640853882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95075845718384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0490517616272</t>
+    <t xml:space="preserve">3.81441617012024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.950758934021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04905223846436</t>
   </si>
   <si>
     <t xml:space="preserve">3.90953874588013</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86514806747437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77002573013306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75047445297241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85148739814758</t>
+    <t xml:space="preserve">3.86514854431152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77002620697021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75047492980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85148620605469</t>
   </si>
   <si>
     <t xml:space="preserve">3.87429618835449</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85800385475159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90036368370056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94924092292786</t>
+    <t xml:space="preserve">3.85800409317017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90036392211914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94923996925354</t>
   </si>
   <si>
     <t xml:space="preserve">3.98182535171509</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03396034240723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06980323791504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26531028747559</t>
+    <t xml:space="preserve">4.03395938873291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06980180740356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26530981063843</t>
   </si>
   <si>
     <t xml:space="preserve">4.34025430679321</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67587518692017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51295232772827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44778251647949</t>
+    <t xml:space="preserve">4.67587471008301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51295137405396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44778299331665</t>
   </si>
   <si>
     <t xml:space="preserve">4.51621007919312</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49991798400879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49014329910278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40542364120483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48362588882446</t>
+    <t xml:space="preserve">4.49991846084595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49014234542847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40542316436768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48362636566162</t>
   </si>
   <si>
     <t xml:space="preserve">4.46081686019897</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49666023254395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50317716598511</t>
+    <t xml:space="preserve">4.49665975570679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50317668914795</t>
   </si>
   <si>
     <t xml:space="preserve">4.48036766052246</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45104122161865</t>
+    <t xml:space="preserve">4.45104217529297</t>
   </si>
   <si>
     <t xml:space="preserve">4.50643444061279</t>
@@ -659,13 +659,13 @@
     <t xml:space="preserve">4.5292444229126</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69216680526733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71171712875366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61722230911255</t>
+    <t xml:space="preserve">4.69216585159302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71171760559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61722278594971</t>
   </si>
   <si>
     <t xml:space="preserve">4.65958213806152</t>
@@ -674,13 +674,13 @@
     <t xml:space="preserve">4.84857273101807</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74104356765747</t>
+    <t xml:space="preserve">4.74104404449463</t>
   </si>
   <si>
     <t xml:space="preserve">4.91374063491821</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81598711013794</t>
+    <t xml:space="preserve">4.81598806381226</t>
   </si>
   <si>
     <t xml:space="preserve">4.80295372009277</t>
@@ -689,10 +689,10 @@
     <t xml:space="preserve">4.87463998794556</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81272983551025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80621290206909</t>
+    <t xml:space="preserve">4.8127293586731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80621242523193</t>
   </si>
   <si>
     <t xml:space="preserve">4.68239116668701</t>
@@ -701,22 +701,22 @@
     <t xml:space="preserve">4.8387975692749</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7768874168396</t>
+    <t xml:space="preserve">4.77688550949097</t>
   </si>
   <si>
     <t xml:space="preserve">4.76385307312012</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77036952972412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60744762420654</t>
+    <t xml:space="preserve">4.77037000656128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60744667053223</t>
   </si>
   <si>
     <t xml:space="preserve">4.61396408081055</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66609954833984</t>
+    <t xml:space="preserve">4.66609907150269</t>
   </si>
   <si>
     <t xml:space="preserve">4.6498064994812</t>
@@ -728,109 +728,109 @@
     <t xml:space="preserve">4.56182909011841</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54879570007324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63677406311035</t>
+    <t xml:space="preserve">4.54879426956177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63677263259888</t>
   </si>
   <si>
     <t xml:space="preserve">4.69868421554565</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64003086090088</t>
+    <t xml:space="preserve">4.64003133773804</t>
   </si>
   <si>
     <t xml:space="preserve">4.62373876571655</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60092973709106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29137754440308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15452241897583</t>
+    <t xml:space="preserve">4.60093021392822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29137802124023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15452146530151</t>
   </si>
   <si>
     <t xml:space="preserve">4.12519693374634</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02092599868774</t>
+    <t xml:space="preserve">4.0209264755249</t>
   </si>
   <si>
     <t xml:space="preserve">4.04047679901123</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01766729354858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15126419067383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20665740966797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16103935241699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17081451416016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21643352508545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24901676177979</t>
+    <t xml:space="preserve">4.01766777038574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15126466751099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20665836334229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16104030609131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.170814037323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21643257141113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2490177154541</t>
   </si>
   <si>
     <t xml:space="preserve">4.26205158233643</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35980415344238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32722043991089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35328769683838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39564752578735</t>
+    <t xml:space="preserve">4.35980463027954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32721996307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35328817367554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39564895629883</t>
   </si>
   <si>
     <t xml:space="preserve">4.3044114112854</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32070350646973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34351253509521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37935543060303</t>
+    <t xml:space="preserve">4.32070398330688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34351301193237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37935590744019</t>
   </si>
   <si>
     <t xml:space="preserve">4.39890670776367</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46407556533813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47385120391846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50969314575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54227781295776</t>
+    <t xml:space="preserve">4.46407508850098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47385025024414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50969409942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54227876663208</t>
   </si>
   <si>
     <t xml:space="preserve">4.48688459396362</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44452476501465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40216493606567</t>
+    <t xml:space="preserve">4.44452428817749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40216398239136</t>
   </si>
   <si>
     <t xml:space="preserve">4.36632108688354</t>
@@ -839,16 +839,16 @@
     <t xml:space="preserve">4.424973487854</t>
   </si>
   <si>
-    <t xml:space="preserve">4.58973026275635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59634399414062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66578578948975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60295677185059</t>
+    <t xml:space="preserve">4.58973073959351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59634447097778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66578531265259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60295724868774</t>
   </si>
   <si>
     <t xml:space="preserve">4.64594459533691</t>
@@ -857,43 +857,43 @@
     <t xml:space="preserve">4.61949110031128</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59303760528564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65917253494263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73853302001953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74184036254883</t>
+    <t xml:space="preserve">4.59303712844849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65917110443115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73853397369385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74183988571167</t>
   </si>
   <si>
     <t xml:space="preserve">4.70877265930176</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86088180541992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8674955368042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88072299957275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87741613388062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92040300369263</t>
+    <t xml:space="preserve">4.86088132858276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86749601364136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88072156906128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87741565704346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92040348052979</t>
   </si>
   <si>
     <t xml:space="preserve">4.79805421829224</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81128120422363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8906421661377</t>
+    <t xml:space="preserve">4.81128168106079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89064264297485</t>
   </si>
   <si>
     <t xml:space="preserve">4.99315118789673</t>
@@ -902,19 +902,19 @@
     <t xml:space="preserve">5.05597877502441</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99976396560669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00637769699097</t>
+    <t xml:space="preserve">4.99976444244385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00637865066528</t>
   </si>
   <si>
     <t xml:space="preserve">4.98323059082031</t>
   </si>
   <si>
-    <t xml:space="preserve">4.88733530044556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84765577316284</t>
+    <t xml:space="preserve">4.88733625411987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84765434265137</t>
   </si>
   <si>
     <t xml:space="preserve">4.93693685531616</t>
@@ -926,16 +926,16 @@
     <t xml:space="preserve">4.94355010986328</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96008396148682</t>
+    <t xml:space="preserve">4.96008348464966</t>
   </si>
   <si>
     <t xml:space="preserve">4.90717649459839</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82120084762573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7947473526001</t>
+    <t xml:space="preserve">4.82120180130005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79474687576294</t>
   </si>
   <si>
     <t xml:space="preserve">4.83112096786499</t>
@@ -944,28 +944,28 @@
     <t xml:space="preserve">4.91378927230835</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80466747283936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85096168518066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75837373733521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83773469924927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89394903182983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84104156494141</t>
+    <t xml:space="preserve">4.8046669960022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85096216201782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75837469100952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83773517608643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89394950866699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84104204177856</t>
   </si>
   <si>
     <t xml:space="preserve">4.8542685508728</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90056276321411</t>
+    <t xml:space="preserve">4.90056228637695</t>
   </si>
   <si>
     <t xml:space="preserve">5.02621841430664</t>
@@ -974,64 +974,64 @@
     <t xml:space="preserve">4.89725589752197</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93032264709473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91048383712769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82781505584717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77821397781372</t>
+    <t xml:space="preserve">4.93032312393188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91048336029053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82781457901001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77821350097656</t>
   </si>
   <si>
     <t xml:space="preserve">4.71538639068604</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85757446289062</t>
+    <t xml:space="preserve">4.85757493972778</t>
   </si>
   <si>
     <t xml:space="preserve">4.83442878723145</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76168012619019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79144096374512</t>
+    <t xml:space="preserve">4.76167964935303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79144048690796</t>
   </si>
   <si>
     <t xml:space="preserve">4.75506687164307</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73522710800171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72199964523315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65586423873901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69554567337036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74514722824097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67570638656616</t>
+    <t xml:space="preserve">4.73522663116455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.721999168396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65586519241333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69554615020752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74514675140381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67570495605469</t>
   </si>
   <si>
     <t xml:space="preserve">4.72530603408813</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77490711212158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80136108398438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87080240249634</t>
+    <t xml:space="preserve">4.77490663528442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80136203765869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87080192565918</t>
   </si>
   <si>
     <t xml:space="preserve">4.9633903503418</t>
@@ -1040,46 +1040,46 @@
     <t xml:space="preserve">4.94685697555542</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7716007232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6856255531311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66909170150757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66247844696045</t>
+    <t xml:space="preserve">4.77160024642944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68562602996826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66909217834473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66247892379761</t>
   </si>
   <si>
     <t xml:space="preserve">4.75176000595093</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71869230270386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78813409805298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74174499511719</t>
+    <t xml:space="preserve">4.71869277954102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78813362121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7417459487915</t>
   </si>
   <si>
     <t xml:space="preserve">4.62609338760376</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62949466705322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66351079940796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66010856628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75535154342651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76555633544922</t>
+    <t xml:space="preserve">4.62949419021606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6635103225708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66010808944702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75535106658936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76555585861206</t>
   </si>
   <si>
     <t xml:space="preserve">4.77916193008423</t>
@@ -1094,19 +1094,19 @@
     <t xml:space="preserve">4.86079883575439</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86760282516479</t>
+    <t xml:space="preserve">4.86760234832764</t>
   </si>
   <si>
     <t xml:space="preserve">4.84379148483276</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90161752700806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85059499740601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91862487792969</t>
+    <t xml:space="preserve">4.90161800384521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85059452056885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91862535476685</t>
   </si>
   <si>
     <t xml:space="preserve">4.97305059432983</t>
@@ -1115,25 +1115,25 @@
     <t xml:space="preserve">5.03427791595459</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08530044555664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96624708175659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02067184448242</t>
+    <t xml:space="preserve">5.0853009223938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96624660491943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02067089080811</t>
   </si>
   <si>
     <t xml:space="preserve">5.04788398742676</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97645139694214</t>
+    <t xml:space="preserve">4.9764518737793</t>
   </si>
   <si>
     <t xml:space="preserve">4.99345922470093</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9084210395813</t>
+    <t xml:space="preserve">4.90842056274414</t>
   </si>
   <si>
     <t xml:space="preserve">4.81998109817505</t>
@@ -1142,22 +1142,22 @@
     <t xml:space="preserve">4.80297327041626</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89141273498535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99005746841431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.986656665802</t>
+    <t xml:space="preserve">4.89141321182251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99005794525146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98665523529053</t>
   </si>
   <si>
     <t xml:space="preserve">4.95264053344727</t>
   </si>
   <si>
-    <t xml:space="preserve">5.09550523757935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12271785736084</t>
+    <t xml:space="preserve">5.0955057144165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.122718334198</t>
   </si>
   <si>
     <t xml:space="preserve">5.17033958435059</t>
@@ -1169,40 +1169,40 @@
     <t xml:space="preserve">5.28599166870117</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30299949645996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29619598388672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33701467514038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38803720474243</t>
+    <t xml:space="preserve">5.3029990196228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2961950302124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33701419830322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38803768157959</t>
   </si>
   <si>
     <t xml:space="preserve">5.39143991470337</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3302116394043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37443161010742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40844631195068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.272385597229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1635365486145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24857425689697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17714214324951</t>
+    <t xml:space="preserve">5.33021116256714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37443113327026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40844678878784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27238512039185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16353559494019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24857473373413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17714262008667</t>
   </si>
   <si>
     <t xml:space="preserve">5.07509613037109</t>
@@ -1211,7 +1211,7 @@
     <t xml:space="preserve">4.7621545791626</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80977630615234</t>
+    <t xml:space="preserve">4.80977535247803</t>
   </si>
   <si>
     <t xml:space="preserve">4.92882966995239</t>
@@ -1220,7 +1220,7 @@
     <t xml:space="preserve">4.91522312164307</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95944356918335</t>
+    <t xml:space="preserve">4.95944404602051</t>
   </si>
   <si>
     <t xml:space="preserve">4.94923973083496</t>
@@ -1235,43 +1235,43 @@
     <t xml:space="preserve">5.06149053573608</t>
   </si>
   <si>
-    <t xml:space="preserve">5.03767871856689</t>
+    <t xml:space="preserve">5.03767919540405</t>
   </si>
   <si>
     <t xml:space="preserve">4.82678318023682</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78596544265747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83358716964722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90502023696899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9390344619751</t>
+    <t xml:space="preserve">4.78596591949463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8335862159729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90501976013184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93903541564941</t>
   </si>
   <si>
     <t xml:space="preserve">4.93223094940186</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87440538406372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84719228744507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77576065063477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80637454986572</t>
+    <t xml:space="preserve">4.87440586090088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84719324111938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77576017379761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80637502670288</t>
   </si>
   <si>
     <t xml:space="preserve">4.81657934188843</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73834419250488</t>
+    <t xml:space="preserve">4.73834466934204</t>
   </si>
   <si>
     <t xml:space="preserve">4.79957151412964</t>
@@ -1280,52 +1280,52 @@
     <t xml:space="preserve">4.77235889434814</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76895809173584</t>
+    <t xml:space="preserve">4.76895761489868</t>
   </si>
   <si>
     <t xml:space="preserve">4.72813940048218</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71793413162231</t>
+    <t xml:space="preserve">4.71793460845947</t>
   </si>
   <si>
     <t xml:space="preserve">4.79617023468018</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83698797225952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90708827972412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84058618545532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70408487319946</t>
+    <t xml:space="preserve">4.83698844909668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90708780288696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84058666229248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7040843963623</t>
   </si>
   <si>
     <t xml:space="preserve">4.60258293151855</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63758420944214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6620831489563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74958467483521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73208570480347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.760085105896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74608564376831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65508365631104</t>
+    <t xml:space="preserve">4.63758373260498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66208410263062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74958515167236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73208522796631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76008558273315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74608516693115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65508317947388</t>
   </si>
   <si>
     <t xml:space="preserve">4.71458530426025</t>
@@ -1340,25 +1340,25 @@
     <t xml:space="preserve">4.57458162307739</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49758100509644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31207704544067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29107761383057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27707672119141</t>
+    <t xml:space="preserve">4.49758005142212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31207752227783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29107713699341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27707719802856</t>
   </si>
   <si>
     <t xml:space="preserve">4.22457599639893</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25957632064819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27007627487183</t>
+    <t xml:space="preserve">4.25957679748535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27007675170898</t>
   </si>
   <si>
     <t xml:space="preserve">4.2490758895874</t>
@@ -1367,13 +1367,13 @@
     <t xml:space="preserve">4.18257474899292</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06707286834717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18607521057129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23157548904419</t>
+    <t xml:space="preserve">4.06707334518433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18607616424561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23157596588135</t>
   </si>
   <si>
     <t xml:space="preserve">4.28057670593262</t>
@@ -1385,55 +1385,55 @@
     <t xml:space="preserve">4.16857481002808</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18957471847534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0705738067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21757555007935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1580753326416</t>
+    <t xml:space="preserve">4.1895751953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07057332992554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21757507324219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15807437896729</t>
   </si>
   <si>
     <t xml:space="preserve">4.15457439422607</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19307565689087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13707447052002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11957406997681</t>
+    <t xml:space="preserve">4.19307518005371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13707399368286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11957454681396</t>
   </si>
   <si>
     <t xml:space="preserve">4.16507482528687</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09857320785522</t>
+    <t xml:space="preserve">4.09857368469238</t>
   </si>
   <si>
     <t xml:space="preserve">4.20707607269287</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07407331466675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02857303619385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00407123565674</t>
+    <t xml:space="preserve">4.07407283782959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02857255935669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0040717124939</t>
   </si>
   <si>
     <t xml:space="preserve">4.06357288360596</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12657451629639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11257410049438</t>
+    <t xml:space="preserve">4.12657403945923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11257457733154</t>
   </si>
   <si>
     <t xml:space="preserve">4.14407444000244</t>
@@ -1442,16 +1442,16 @@
     <t xml:space="preserve">3.98657155036926</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06007385253906</t>
+    <t xml:space="preserve">4.0600733757019</t>
   </si>
   <si>
     <t xml:space="preserve">4.10207366943359</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04957246780396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05657243728638</t>
+    <t xml:space="preserve">4.04957294464111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05657291412354</t>
   </si>
   <si>
     <t xml:space="preserve">4.3015775680542</t>
@@ -1460,22 +1460,22 @@
     <t xml:space="preserve">4.46958065032959</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3470778465271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37507772445679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32957792282104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38907861709595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34007740020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29807758331299</t>
+    <t xml:space="preserve">4.34707880020142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37507820129395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32957744598389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38907909393311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34007787704468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29807710647583</t>
   </si>
   <si>
     <t xml:space="preserve">4.23507642745972</t>
@@ -1484,10 +1484,10 @@
     <t xml:space="preserve">4.24557685852051</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22107601165771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14757442474365</t>
+    <t xml:space="preserve">4.22107648849487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14757490158081</t>
   </si>
   <si>
     <t xml:space="preserve">4.21407556533813</t>
@@ -1496,19 +1496,19 @@
     <t xml:space="preserve">4.25607633590698</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26307678222656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25257635116577</t>
+    <t xml:space="preserve">4.2630763053894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25257587432861</t>
   </si>
   <si>
     <t xml:space="preserve">4.20007562637329</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17557621002197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12307405471802</t>
+    <t xml:space="preserve">4.17557525634766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12307357788086</t>
   </si>
   <si>
     <t xml:space="preserve">4.2735767364502</t>
@@ -1526,7 +1526,7 @@
     <t xml:space="preserve">4.32257795333862</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33307838439941</t>
+    <t xml:space="preserve">4.3330774307251</t>
   </si>
   <si>
     <t xml:space="preserve">4.35407781600952</t>
@@ -1535,199 +1535,199 @@
     <t xml:space="preserve">4.46608066558838</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44857978820801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46258020401001</t>
+    <t xml:space="preserve">4.44858026504517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46257972717285</t>
   </si>
   <si>
     <t xml:space="preserve">4.47658109664917</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85356974601746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88507080078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77306795120239</t>
+    <t xml:space="preserve">3.85356903076172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88507008552551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77306723594666</t>
   </si>
   <si>
     <t xml:space="preserve">3.77656745910645</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79756879806519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86056971549988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80106830596924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7030668258667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6820662021637</t>
+    <t xml:space="preserve">3.79756855964661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86056876182556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80106806755066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70306634902954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68206596374512</t>
   </si>
   <si>
     <t xml:space="preserve">3.62956523895264</t>
   </si>
   <si>
-    <t xml:space="preserve">3.605064868927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53856325149536</t>
+    <t xml:space="preserve">3.60506463050842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53856372833252</t>
   </si>
   <si>
     <t xml:space="preserve">3.56306385993958</t>
   </si>
   <si>
-    <t xml:space="preserve">3.50706243515015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59106469154358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58756422996521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65056562423706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71006679534912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69956588745117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70656704902649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67506575584412</t>
+    <t xml:space="preserve">3.50706315040588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59106492996216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58756470680237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65056610107422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71006727218628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69956660270691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70656609535217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67506647109985</t>
   </si>
   <si>
     <t xml:space="preserve">3.64006543159485</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63656520843506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66754770278931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50365519523621</t>
+    <t xml:space="preserve">3.63656544685364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66754746437073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50365543365479</t>
   </si>
   <si>
     <t xml:space="preserve">3.65297937393188</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64569497108459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7221782207489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89699673652649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86057686805725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85693430900574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84964966773987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83143973350525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8241560459137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68211555480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66026329994202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61728668212891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67847394943237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74403047561646</t>
+    <t xml:space="preserve">3.64569544792175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72217845916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89699721336365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86057639122009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85693454742432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84965014457703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83144021034241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82415580749512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68211603164673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66026377677917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61728715896606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67847418785095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74403071403503</t>
   </si>
   <si>
     <t xml:space="preserve">3.81322979927063</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72946238517761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7039680480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75131464004517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70032596588135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52987813949585</t>
+    <t xml:space="preserve">3.72946214675903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70396828651428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75131416320801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70032620429993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52987837791443</t>
   </si>
   <si>
     <t xml:space="preserve">3.71489405632019</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70761013031006</t>
+    <t xml:space="preserve">3.70761036872864</t>
   </si>
   <si>
     <t xml:space="preserve">3.6748321056366</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82051420211792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80594611167908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76588344573975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85329222679138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87514424324036</t>
+    <t xml:space="preserve">3.82051348686218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80594539642334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76588320732117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8532919883728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87514495849609</t>
   </si>
   <si>
     <t xml:space="preserve">3.92249131202698</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90063953399658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87150287628174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90792226791382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87878680229187</t>
+    <t xml:space="preserve">3.90063905715942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87150263786316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90792274475098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87878632545471</t>
   </si>
   <si>
     <t xml:space="preserve">3.8678605556488</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92613339424133</t>
+    <t xml:space="preserve">3.92613291740417</t>
   </si>
   <si>
     <t xml:space="preserve">3.88242840766907</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0062575340271</t>
+    <t xml:space="preserve">4.00625896453857</t>
   </si>
   <si>
     <t xml:space="preserve">4.15922498703003</t>
@@ -1736,19 +1736,19 @@
     <t xml:space="preserve">4.22478199005127</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14829921722412</t>
+    <t xml:space="preserve">4.1482982635498</t>
   </si>
   <si>
     <t xml:space="preserve">4.28669691085815</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28305387496948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33040046691895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38867378234863</t>
+    <t xml:space="preserve">4.2830548286438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33040142059326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38867425918579</t>
   </si>
   <si>
     <t xml:space="preserve">4.33404302597046</t>
@@ -1757,22 +1757,22 @@
     <t xml:space="preserve">4.34132719039917</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34861135482788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46515798568726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42873668670654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48336696624756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47244167327881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54528188705444</t>
+    <t xml:space="preserve">4.34861183166504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4651575088501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42873573303223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48336744308472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47244119644165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54528331756592</t>
   </si>
   <si>
     <t xml:space="preserve">4.44330453872681</t>
@@ -1781,52 +1781,52 @@
     <t xml:space="preserve">4.49429321289062</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5489239692688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55256652832031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56713438034058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61083936691284</t>
+    <t xml:space="preserve">4.54892444610596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55256700515747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56713485717773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61083889007568</t>
   </si>
   <si>
     <t xml:space="preserve">4.57806062698364</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60355615615845</t>
+    <t xml:space="preserve">4.60355520248413</t>
   </si>
   <si>
     <t xml:space="preserve">4.61812353134155</t>
   </si>
   <si>
-    <t xml:space="preserve">4.58534526824951</t>
+    <t xml:space="preserve">4.58534574508667</t>
   </si>
   <si>
     <t xml:space="preserve">4.63269186019897</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57077789306641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59991312026978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65454387664795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62176465988159</t>
+    <t xml:space="preserve">4.57077693939209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59991359710693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65454483032227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62176561355591</t>
   </si>
   <si>
     <t xml:space="preserve">4.76744794845581</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75288009643555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74923706054688</t>
+    <t xml:space="preserve">4.75287914276123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74923753738403</t>
   </si>
   <si>
     <t xml:space="preserve">4.74559497833252</t>
@@ -1835,34 +1835,34 @@
     <t xml:space="preserve">4.73831081390381</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73466873168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83664608001709</t>
+    <t xml:space="preserve">4.73466920852661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83664655685425</t>
   </si>
   <si>
     <t xml:space="preserve">4.90220308303833</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92769861221313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89856147766113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89127731323242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8950309753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79743051528931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84247779846191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84623193740845</t>
+    <t xml:space="preserve">4.92769813537598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89856195449829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89127779006958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89503145217896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79743146896362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84247732162476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84623146057129</t>
   </si>
   <si>
     <t xml:space="preserve">4.93632364273071</t>
@@ -1871,22 +1871,19 @@
     <t xml:space="preserve">4.9138011932373</t>
   </si>
   <si>
-    <t xml:space="preserve">4.88001585006714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89127779006958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72986125946045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74112319946289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75613832473755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63976860046387</t>
+    <t xml:space="preserve">4.8800163269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72986221313477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74112367630005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75613880157471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63976955413818</t>
   </si>
   <si>
     <t xml:space="preserve">4.59096813201904</t>
@@ -1898,7 +1895,7 @@
     <t xml:space="preserve">4.59472274780273</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65853834152222</t>
+    <t xml:space="preserve">4.6585373878479</t>
   </si>
   <si>
     <t xml:space="preserve">4.61724615097046</t>
@@ -1907,49 +1904,49 @@
     <t xml:space="preserve">4.61349153518677</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54967641830444</t>
+    <t xml:space="preserve">4.54967594146729</t>
   </si>
   <si>
     <t xml:space="preserve">4.56093788146973</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56469202041626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52715349197388</t>
+    <t xml:space="preserve">4.56469106674194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52715396881104</t>
   </si>
   <si>
     <t xml:space="preserve">4.50463056564331</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48210668563843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51213884353638</t>
+    <t xml:space="preserve">4.48210716247559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51213788986206</t>
   </si>
   <si>
     <t xml:space="preserve">4.57595348358154</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63601541519165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62475252151489</t>
+    <t xml:space="preserve">4.63601493835449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62475299835205</t>
   </si>
   <si>
     <t xml:space="preserve">4.6697998046875</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65103101730347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59847640991211</t>
+    <t xml:space="preserve">4.65103054046631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59847688674927</t>
   </si>
   <si>
     <t xml:space="preserve">4.62850761413574</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55718421936035</t>
+    <t xml:space="preserve">4.55718374252319</t>
   </si>
   <si>
     <t xml:space="preserve">4.6960768699646</t>
@@ -1958,40 +1955,40 @@
     <t xml:space="preserve">4.71860027313232</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74863004684448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85749292373657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78992366790771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79367780685425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85373878479004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86124610900879</t>
+    <t xml:space="preserve">4.74863052368164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85749197006226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78992319107056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79367685317993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85373830795288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86124563217163</t>
   </si>
   <si>
     <t xml:space="preserve">4.86500024795532</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00389337539673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04518604278564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99263143539429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98512363433838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94383192062378</t>
+    <t xml:space="preserve">5.00389289855957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04518556594849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99263191223145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9851245880127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94383144378662</t>
   </si>
   <si>
     <t xml:space="preserve">5.02266263961792</t>
@@ -2003,73 +2000,73 @@
     <t xml:space="preserve">5.05269336700439</t>
   </si>
   <si>
-    <t xml:space="preserve">5.07521677017212</t>
+    <t xml:space="preserve">5.07521724700928</t>
   </si>
   <si>
     <t xml:space="preserve">5.02641582489014</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97010803222656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95133972167969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94758558273315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97761631011963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9550929069519</t>
+    <t xml:space="preserve">4.97010850906372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95133924484253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.947585105896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97761678695679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95509243011475</t>
   </si>
   <si>
     <t xml:space="preserve">5.04143190383911</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0001392364502</t>
+    <t xml:space="preserve">5.00013971328735</t>
   </si>
   <si>
     <t xml:space="preserve">4.93256950378418</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91755437850952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69983100891113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70358467102051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71109342575073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63226079940796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84998512268066</t>
+    <t xml:space="preserve">4.91755485534668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69983053207397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70358419418335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71109247207642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63226127624512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84998464584351</t>
   </si>
   <si>
     <t xml:space="preserve">4.95884656906128</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90629243850708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99638605117798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94007730484009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03767824172974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06020021438599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15404748916626</t>
+    <t xml:space="preserve">4.90629291534424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99638557434082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94007682800293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03767776489258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06020069122314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1540470123291</t>
   </si>
   <si>
     <t xml:space="preserve">5.16530895233154</t>
@@ -2078,22 +2075,22 @@
     <t xml:space="preserve">5.14278554916382</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26290941238403</t>
+    <t xml:space="preserve">5.26290988922119</t>
   </si>
   <si>
     <t xml:space="preserve">5.21035528182983</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23287868499756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2854323387146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29294013977051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25540208816528</t>
+    <t xml:space="preserve">5.23287773132324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28543281555176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29294061660767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25540161132812</t>
   </si>
   <si>
     <t xml:space="preserve">5.16155481338501</t>
@@ -2102,10 +2099,10 @@
     <t xml:space="preserve">5.19158601760864</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15029335021973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17657089233398</t>
+    <t xml:space="preserve">5.15029430389404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17656993865967</t>
   </si>
   <si>
     <t xml:space="preserve">5.17281675338745</t>
@@ -2114,31 +2111,31 @@
     <t xml:space="preserve">5.16906309127808</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10149383544922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22161722183228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21786212921143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21410989761353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23663330078125</t>
+    <t xml:space="preserve">5.10149335861206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22161626815796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21786260604858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21410942077637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23663234710693</t>
   </si>
   <si>
     <t xml:space="preserve">5.39804840087891</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4430947303772</t>
+    <t xml:space="preserve">5.44309425354004</t>
   </si>
   <si>
     <t xml:space="preserve">5.48438692092896</t>
   </si>
   <si>
-    <t xml:space="preserve">5.52943277359009</t>
+    <t xml:space="preserve">5.52943325042725</t>
   </si>
   <si>
     <t xml:space="preserve">5.57447957992554</t>
@@ -2162,64 +2159,64 @@
     <t xml:space="preserve">5.76217222213745</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77343416213989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76968050003052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77718925476074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78844928741455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7809419631958</t>
+    <t xml:space="preserve">5.77343368530273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76968002319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77718782424927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78844976425171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78094148635864</t>
   </si>
   <si>
     <t xml:space="preserve">5.85601949691772</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20137405395508</t>
+    <t xml:space="preserve">6.20137453079224</t>
   </si>
   <si>
     <t xml:space="preserve">6.3027286529541</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47916030883789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59177589416504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45663642883301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47165107727051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56784200668335</t>
+    <t xml:space="preserve">6.47915935516357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59177494049072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45663738250732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47165250778198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56784152984619</t>
   </si>
   <si>
     <t xml:space="preserve">6.74483108520508</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90258312225342</t>
+    <t xml:space="preserve">6.90258264541626</t>
   </si>
   <si>
     <t xml:space="preserve">6.91797304153442</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01416254043579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95644855499268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07957220077515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10265684127808</t>
+    <t xml:space="preserve">7.01416301727295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95644760131836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07957077026367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10265731811523</t>
   </si>
   <si>
     <t xml:space="preserve">7.16037082672119</t>
@@ -2228,19 +2225,19 @@
     <t xml:space="preserve">7.09111452102661</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02570533752441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00646686553955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08726644515991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14113283157349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08341884613037</t>
+    <t xml:space="preserve">7.02570581436157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00646734237671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08726692199707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14113235473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08341979980469</t>
   </si>
   <si>
     <t xml:space="preserve">6.95260047912598</t>
@@ -2258,109 +2255,112 @@
     <t xml:space="preserve">7.05263805389404</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02955341339111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02185821533203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99107789993286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89873504638672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86410665512085</t>
+    <t xml:space="preserve">7.02955389022827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02185726165771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9910774230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89873456954956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86410617828369</t>
   </si>
   <si>
     <t xml:space="preserve">6.87564945220947</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81408786773682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84486865997314</t>
+    <t xml:space="preserve">6.8140869140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84487009048462</t>
   </si>
   <si>
     <t xml:space="preserve">6.75252532958984</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61401319503784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61786079406738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77176475524902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92566823959351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72174549102783</t>
+    <t xml:space="preserve">6.614013671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61786127090454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77176523208618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92566871643066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72174596786499</t>
   </si>
   <si>
     <t xml:space="preserve">6.71789789199829</t>
   </si>
   <si>
-    <t xml:space="preserve">6.82947778701782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74867916107178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63325119018555</t>
+    <t xml:space="preserve">6.82947826385498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74867868423462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63325166702271</t>
   </si>
   <si>
     <t xml:space="preserve">6.66403102874756</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61016607284546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41008996963501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55245161056519</t>
+    <t xml:space="preserve">6.6101655960083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41009044647217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55245208740234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47165155410767</t>
   </si>
   <si>
     <t xml:space="preserve">6.27157735824585</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28311920166016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37930965423584</t>
+    <t xml:space="preserve">6.28312015533447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.379310131073</t>
   </si>
   <si>
     <t xml:space="preserve">6.34083366394043</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39470100402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46395683288574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50243282318115</t>
+    <t xml:space="preserve">6.394700050354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46395587921143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50243234634399</t>
   </si>
   <si>
     <t xml:space="preserve">6.49473667144775</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49858474731445</t>
+    <t xml:space="preserve">6.49858522415161</t>
   </si>
   <si>
     <t xml:space="preserve">6.57553625106812</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6909646987915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72944021224976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56399393081665</t>
+    <t xml:space="preserve">6.69096517562866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72944116592407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56399440765381</t>
   </si>
   <si>
     <t xml:space="preserve">6.38315773010254</t>
@@ -2369,7 +2369,7 @@
     <t xml:space="preserve">6.04456949234009</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99070262908936</t>
+    <t xml:space="preserve">5.99070310592651</t>
   </si>
   <si>
     <t xml:space="preserve">6.00994110107422</t>
@@ -2378,22 +2378,22 @@
     <t xml:space="preserve">5.8675799369812</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66365766525269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59824848175049</t>
+    <t xml:space="preserve">5.66365671157837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59824895858765</t>
   </si>
   <si>
     <t xml:space="preserve">5.57516288757324</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53668642044067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25581169128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13268899917603</t>
+    <t xml:space="preserve">5.53668689727783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25581216812134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1326904296875</t>
   </si>
   <si>
     <t xml:space="preserve">4.77101564407349</t>
@@ -2408,7 +2408,7 @@
     <t xml:space="preserve">3.76448583602905</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76756358146667</t>
+    <t xml:space="preserve">3.76756286621094</t>
   </si>
   <si>
     <t xml:space="preserve">3.44898223876953</t>
@@ -2417,7 +2417,7 @@
     <t xml:space="preserve">3.17811226844788</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13809704780579</t>
+    <t xml:space="preserve">3.13809728622437</t>
   </si>
   <si>
     <t xml:space="preserve">3.25660300254822</t>
@@ -2426,7 +2426,7 @@
     <t xml:space="preserve">3.24736833572388</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63982272148132</t>
+    <t xml:space="preserve">3.63982319831848</t>
   </si>
   <si>
     <t xml:space="preserve">3.74909520149231</t>
@@ -2441,34 +2441,34 @@
     <t xml:space="preserve">3.63366675376892</t>
   </si>
   <si>
-    <t xml:space="preserve">3.57826161384583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56748819351196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57980108261108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51670026779175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64444088935852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8475935459137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0207347869873</t>
+    <t xml:space="preserve">3.5782618522644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56748843193054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57980132102966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51670002937317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64444065093994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84759306907654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02073526382446</t>
   </si>
   <si>
     <t xml:space="preserve">4.20926666259766</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85913610458374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90530610084534</t>
+    <t xml:space="preserve">3.85913562774658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90530705451965</t>
   </si>
   <si>
     <t xml:space="preserve">4.02458238601685</t>
@@ -2477,49 +2477,49 @@
     <t xml:space="preserve">3.94763088226318</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75986814498901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89761185646057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98610615730286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96686959266663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11692476272583</t>
+    <t xml:space="preserve">3.75986790657043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89761137962341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98610663414001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96686911582947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11692428588867</t>
   </si>
   <si>
     <t xml:space="preserve">4.31315183639526</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48629379272461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28621912002563</t>
+    <t xml:space="preserve">4.48629331588745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28621959686279</t>
   </si>
   <si>
     <t xml:space="preserve">4.09383964538574</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03227806091309</t>
+    <t xml:space="preserve">4.03227758407593</t>
   </si>
   <si>
     <t xml:space="preserve">4.07844924926758</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12461948394775</t>
+    <t xml:space="preserve">4.12462043762207</t>
   </si>
   <si>
     <t xml:space="preserve">4.12846708297729</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30545663833618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38240909576416</t>
+    <t xml:space="preserve">4.30545711517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38240957260132</t>
   </si>
   <si>
     <t xml:space="preserve">4.24004793167114</t>
@@ -2528,7 +2528,7 @@
     <t xml:space="preserve">4.14385843276978</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25928592681885</t>
+    <t xml:space="preserve">4.25928544998169</t>
   </si>
   <si>
     <t xml:space="preserve">4.26698160171509</t>
@@ -2546,61 +2546,61 @@
     <t xml:space="preserve">4.55555057525635</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66328287124634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60941696166992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57094097137451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74023532867432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79410123825073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97493743896484</t>
+    <t xml:space="preserve">4.6632833480835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60941648483276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57094144821167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74023485183716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79410171508789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97493839263916</t>
   </si>
   <si>
     <t xml:space="preserve">5.20579385757446</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32506990432739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12114763259888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84412002563477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86335849761963</t>
+    <t xml:space="preserve">5.32506942749023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12114715576172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84412097930908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86335802078247</t>
   </si>
   <si>
     <t xml:space="preserve">5.02495718002319</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97109031677246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94800472259521</t>
+    <t xml:space="preserve">4.97109079360962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94800519943237</t>
   </si>
   <si>
     <t xml:space="preserve">4.99802303314209</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98263359069824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02880382537842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8133397102356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80179595947266</t>
+    <t xml:space="preserve">4.98263311386108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02880430221558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81333923339844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80179643630981</t>
   </si>
   <si>
     <t xml:space="preserve">4.85181522369385</t>
@@ -2609,19 +2609,19 @@
     <t xml:space="preserve">4.89413833618164</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91722440719604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83642530441284</t>
+    <t xml:space="preserve">4.91722393035889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83642482757568</t>
   </si>
   <si>
     <t xml:space="preserve">5.06343269348145</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94031000137329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0595850944519</t>
+    <t xml:space="preserve">4.94031095504761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05958461761475</t>
   </si>
   <si>
     <t xml:space="preserve">5.03649997711182</t>
@@ -2636,19 +2636,19 @@
     <t xml:space="preserve">5.00187110900879</t>
   </si>
   <si>
-    <t xml:space="preserve">5.07112884521484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07497549057007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09806108474731</t>
+    <t xml:space="preserve">5.07112836837769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07497501373291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09806060791016</t>
   </si>
   <si>
     <t xml:space="preserve">5.21733665466309</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15962266921997</t>
+    <t xml:space="preserve">5.15962314605713</t>
   </si>
   <si>
     <t xml:space="preserve">5.11345195770264</t>
@@ -2660,37 +2660,37 @@
     <t xml:space="preserve">4.98648071289062</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93261432647705</t>
+    <t xml:space="preserve">4.93261480331421</t>
   </si>
   <si>
     <t xml:space="preserve">4.91337633132935</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95185279846191</t>
+    <t xml:space="preserve">4.95185327529907</t>
   </si>
   <si>
     <t xml:space="preserve">4.76716804504395</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95570039749146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96339511871338</t>
+    <t xml:space="preserve">4.9556999206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96339464187622</t>
   </si>
   <si>
     <t xml:space="preserve">5.10190868377686</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1865553855896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24042177200317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15577507019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02111005783081</t>
+    <t xml:space="preserve">5.18655490875244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24042272567749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15577459335327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02110958099365</t>
   </si>
   <si>
     <t xml:space="preserve">5.1057562828064</t>
@@ -2702,34 +2702,34 @@
     <t xml:space="preserve">5.14038467407227</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05188941955566</t>
+    <t xml:space="preserve">5.05189037322998</t>
   </si>
   <si>
     <t xml:space="preserve">5.08651828765869</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92491960525513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78255891799927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86720561981201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87105321884155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09036588668823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84796762466431</t>
+    <t xml:space="preserve">4.92491912841797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78255844116211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86720514297485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87105274200439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09036540985107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84796810150146</t>
   </si>
   <si>
     <t xml:space="preserve">4.73254013061523</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84027194976807</t>
+    <t xml:space="preserve">4.84027290344238</t>
   </si>
   <si>
     <t xml:space="preserve">4.70560598373413</t>
@@ -2738,7 +2738,7 @@
     <t xml:space="preserve">4.78640556335449</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04034757614136</t>
+    <t xml:space="preserve">5.04034805297852</t>
   </si>
   <si>
     <t xml:space="preserve">4.959547996521</t>
@@ -2750,10 +2750,10 @@
     <t xml:space="preserve">4.8325777053833</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81718730926514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65558815002441</t>
+    <t xml:space="preserve">4.81718635559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65558862686157</t>
   </si>
   <si>
     <t xml:space="preserve">4.51707410812378</t>
@@ -2762,16 +2762,16 @@
     <t xml:space="preserve">4.46320867538452</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50937986373901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75562524795532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29428863525391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38278245925903</t>
+    <t xml:space="preserve">4.50937938690186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75562572479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29428815841675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38278293609619</t>
   </si>
   <si>
     <t xml:space="preserve">5.51744890213013</t>
@@ -2780,40 +2780,40 @@
     <t xml:space="preserve">5.38663053512573</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55592441558838</t>
+    <t xml:space="preserve">5.55592346191406</t>
   </si>
   <si>
     <t xml:space="preserve">5.81756114959717</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80986547470093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73291349411011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8444938659668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86373281478882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01763582229614</t>
+    <t xml:space="preserve">5.80986642837524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73291397094727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84449338912964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86373233795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01763534545898</t>
   </si>
   <si>
     <t xml:space="preserve">5.89066553115845</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97531223297119</t>
+    <t xml:space="preserve">5.97531270980835</t>
   </si>
   <si>
     <t xml:space="preserve">5.85218906402588</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92529392242432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76754188537598</t>
+    <t xml:space="preserve">5.92529296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76754236221313</t>
   </si>
   <si>
     <t xml:space="preserve">5.71752405166626</t>
@@ -2825,19 +2825,19 @@
     <t xml:space="preserve">5.64441919326782</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60209608078003</t>
+    <t xml:space="preserve">5.60209655761719</t>
   </si>
   <si>
     <t xml:space="preserve">5.59440088272095</t>
   </si>
   <si>
-    <t xml:space="preserve">5.50205850601196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46742916107178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47512483596802</t>
+    <t xml:space="preserve">5.50205898284912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46742963790894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47512435913086</t>
   </si>
   <si>
     <t xml:space="preserve">5.47897291183472</t>
@@ -2846,7 +2846,7 @@
     <t xml:space="preserve">5.46358251571655</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44434452056885</t>
+    <t xml:space="preserve">5.44434404373169</t>
   </si>
   <si>
     <t xml:space="preserve">5.33276414871216</t>
@@ -2855,34 +2855,34 @@
     <t xml:space="preserve">5.40971660614014</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42895412445068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47127771377563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49821186065674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43664884567261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44819259643555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65981006622314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6367244720459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62902879714966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2750506401062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14423227310181</t>
+    <t xml:space="preserve">5.42895364761353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47127723693848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49821138381958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43664932250977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44819211959839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65980958938599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63672399520874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62902927398682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27505016326904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14423274993896</t>
   </si>
   <si>
     <t xml:space="preserve">5.07882308959961</t>
@@ -2891,22 +2891,22 @@
     <t xml:space="preserve">5.16347074508667</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22503232955933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62518119812012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73676156997681</t>
+    <t xml:space="preserve">5.22503185272217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62518167495728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73676109313965</t>
   </si>
   <si>
     <t xml:space="preserve">5.9483790397644</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87912273406982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89836025238037</t>
+    <t xml:space="preserve">5.87912321090698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89836072921753</t>
   </si>
   <si>
     <t xml:space="preserve">5.88297033309937</t>
@@ -2915,61 +2915,61 @@
     <t xml:space="preserve">5.76369476318359</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67904758453369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69443798065186</t>
+    <t xml:space="preserve">5.67904806137085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69443845748901</t>
   </si>
   <si>
     <t xml:space="preserve">5.75984716415405</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62133359909058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65211486816406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55977201461792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74445629119873</t>
+    <t xml:space="preserve">5.62133407592773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65211391448975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55977249145508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74445676803589</t>
   </si>
   <si>
     <t xml:space="preserve">5.77523756027222</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75215196609497</t>
+    <t xml:space="preserve">5.75215148925781</t>
   </si>
   <si>
     <t xml:space="preserve">5.85988473892212</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92144632339478</t>
+    <t xml:space="preserve">5.92144584655762</t>
   </si>
   <si>
     <t xml:space="preserve">5.95992231369019</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97915935516357</t>
+    <t xml:space="preserve">5.97916030883789</t>
   </si>
   <si>
     <t xml:space="preserve">5.96376943588257</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97146558761597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09843587875366</t>
+    <t xml:space="preserve">5.97146511077881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0984354019165</t>
   </si>
   <si>
     <t xml:space="preserve">6.25233936309814</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15999698638916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18308210372925</t>
+    <t xml:space="preserve">6.15999746322632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18308258056641</t>
   </si>
   <si>
     <t xml:space="preserve">6.09074068069458</t>
@@ -2978,10 +2978,10 @@
     <t xml:space="preserve">6.13306331634521</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14075946807861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22540616989136</t>
+    <t xml:space="preserve">6.14075899124146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2254056930542</t>
   </si>
   <si>
     <t xml:space="preserve">6.19462537765503</t>
@@ -2990,19 +2990,19 @@
     <t xml:space="preserve">6.17461776733398</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21001529693604</t>
+    <t xml:space="preserve">6.21001482009888</t>
   </si>
   <si>
     <t xml:space="preserve">6.12844705581665</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04379940032959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10689973831177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05457305908203</t>
+    <t xml:space="preserve">6.04379987716675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10690021514893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05457258224487</t>
   </si>
   <si>
     <t xml:space="preserve">6.05765151977539</t>
@@ -3014,13 +3014,13 @@
     <t xml:space="preserve">6.02225303649902</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0853533744812</t>
+    <t xml:space="preserve">6.08535385131836</t>
   </si>
   <si>
     <t xml:space="preserve">6.02994871139526</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95761394500732</t>
+    <t xml:space="preserve">5.95761346817017</t>
   </si>
   <si>
     <t xml:space="preserve">6.01455783843994</t>
@@ -3035,7 +3035,7 @@
     <t xml:space="preserve">5.98069906234741</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10843896865845</t>
+    <t xml:space="preserve">6.10843944549561</t>
   </si>
   <si>
     <t xml:space="preserve">6.01147937774658</t>
@@ -3053,910 +3053,910 @@
     <t xml:space="preserve">6.21463298797607</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06380701065063</t>
+    <t xml:space="preserve">6.06380748748779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06688499450684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08843183517456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03918218612671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12463521957397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07521820068359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07367372512817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08911752700806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25898885726929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24354600906372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22810220718384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24045610427856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21729278564453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26516580581665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38561964035034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42422580718994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30686140060425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34546804428101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37172079086304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34237957000732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44893550872803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46283435821533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34855651855469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32384824752808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2790641784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35318946838379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53232669830322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33311367034912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47982168197632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33465814590454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33774662017822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35936737060547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35782337188721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36091136932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32075929641724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21265888214111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30531692504883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40723991394043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34083557128906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36245536804199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26979780197144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25744390487671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99800395965576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04587650299072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24200105667114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29141759872437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34701204299927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50452899932861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51070690155029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4875431060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48290967941284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41187286376953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42731523513794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39334058761597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43812561035156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49680805206299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57865571975708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66204643249512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67131280899048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76705837249756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74698257446289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79022169113159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74852657318115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79948806762695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65278148651123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62652778625488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69293260574341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68212223052979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70991945266724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69602108001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7531590461731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76860237121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78713512420654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78558921813965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81029796600342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81338596343994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77941179275513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75933694839478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75624799728394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72381830215454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88751220703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93229627609253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88133478164673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93847370147705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87515830993652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66667985916138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87824630737305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09908056259155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04811763763428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07591438293457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07282590866089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15776300430298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21953392028809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33535480499268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35234260559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4990496635437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38940572738647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52530241012573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45735359191895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51294708251953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61178159713745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51758146286011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57626390457153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61487102508545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63771867752075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49894237518311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50563049316406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41199922561646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39862298965454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34177303314209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45212650299072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39360570907593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34511804580688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27823781967163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36350870132446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26820611953735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33174228668213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47553539276123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44878149032593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45546960830688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53739833831787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58087015151978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58923053741455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65778207778931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64273548126221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54408693313599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4537992477417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34344625473022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5048394203186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36576652526855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58038663864136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48251914978027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14599561691284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20265483856201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08075046539307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26446580886841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20780611038208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24557828903198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32627725601196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47736930847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40697288513184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.340012550354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28850221633911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27820158004761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28335237503052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29880428314209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20952272415161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98631763458252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19235372543335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25244665145874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37091875076294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44302892684937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43444395065308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45161437988281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54432964324951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60098934173584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66623497009277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45504808425903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59240484237671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66280031204224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80359220504761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94953346252441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97872161865234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82247877120972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78813886642456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60442399978638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59755706787109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5014066696167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16831636428833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17861843109131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32799339294434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29193735122681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23356008529663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35203170776367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46363353729248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56665182113647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49282217025757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22497606277466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32112455368042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49453830718994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60614061355591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34859704971313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09791994094849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29708862304688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24042797088623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14256048202515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11852359771729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04297780990601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97429895401001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0309591293335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43345642089844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58626556396484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32013654708862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08491325378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11238431930542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96987628936768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58012580871582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5148811340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67284202575684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29438209533691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92866897583008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06259155273438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16389322280884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2960991859436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62403917312622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57939767837524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56051158905029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5124363899231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68069887161255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61030292510986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56909608840942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62918949127197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66867971420288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85239458084106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78886699676514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65837812423706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77169799804688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6995849609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63777446746826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40770196914673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39396572113037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.551926612854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51415300369263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45577669143677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50900173187256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5587944984436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28841829299927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39482402801514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36691522598267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26923036575317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13665866851807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03548669815063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07735013961792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0197868347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08432817459106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03374195098877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06514024734497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02676439285278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09653854370117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05990695953369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96745634078979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0302529335022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30237340927124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14189195632935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19073390960693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22562122344971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25004196166992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16980171203613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20120048522949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39307975769043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24132061004639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2552752494812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45413303375244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44366645812988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41226768493652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34074926376343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23608779907227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38435840606689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29539585113525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20643329620361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02153062820435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61160659790039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34995222091675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56450891494751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64823818206787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43368196487427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47903537750244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5505542755127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55229806900024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58718585968018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74941110610962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60462951660156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61683940887451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58369636535645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47554636001587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4999680519104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48077917098999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20865917205811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30111074447632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45984745025635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6133508682251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45810317993164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54008769989014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46333599090576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2697114944458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32727575302124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40751600265503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55404281616211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35169696807861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4424033164978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43891525268555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38309478759766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41449451446533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62556123733521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65172672271729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59416341781616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91686916351318</t>
   </si>
   <si>
     <t xml:space="preserve">6.06688451766968</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08843183517456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03918218612671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12463521957397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07521820068359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07367372512817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08911657333374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25898838043213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24354600906372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22810220718384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24045658111572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21729278564453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26516580581665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38561916351318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4242262840271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30686140060425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34546804428101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37172174453735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34237957000732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44893550872803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46283388137817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34855699539185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32384777069092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27906370162964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35318899154663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53232622146606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33311414718628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47982120513916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33465814590454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33774709701538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35936737060547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35782289505005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36091089248657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32075977325439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21265888214111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30531740188599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40723943710327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34083557128906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36245489120483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26979827880859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25744438171387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99800395965576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04587697982788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24200057983398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29141759872437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34701251983643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50452899932861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51070642471313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48754215240479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48290967941284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41187191009521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4273157119751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39334106445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43812561035156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49680852890015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57865524291992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66204690933228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67131280899048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7670578956604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74698257446289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79022169113159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74852705001831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79948854446411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65278100967407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62652826309204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69293260574341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68212223052979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70991945266724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69602060317993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75315952301025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76860189437866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78713417053223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78558921813965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81029796600342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8133864402771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77941179275513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75933647155762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75624752044678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72381782531738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88751220703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93229675292969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88133525848389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93847322463989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87515878677368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66667938232422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87824678421021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09907960891724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04811811447144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07591438293457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07282686233521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15776300430298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21953296661377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33535528182983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35234212875366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49904918670654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38940525054932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52530288696289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4573540687561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51294708251953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61178207397461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51758003234863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57626390457153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61487150192261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63771915435791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49894332885742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5056300163269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4119987487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39862298965454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34177350997925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45212650299072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39360666275024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34511804580688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27823781967163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36350917816162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26820611953735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33174324035645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47553443908691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44878196716309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45547103881836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53739833831787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58087015151978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58923101425171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65778255462646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64273452758789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54408597946167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45379877090454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34344673156738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50483989715576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36576652526855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58038663864136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48252058029175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14599561691284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20265579223633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08075094223022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26446580886841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20780611038208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24557828903198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3262767791748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47736978530884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40697383880615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34001207351685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28850269317627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27820110321045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28335237503052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29880475997925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20952272415161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98631763458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19235324859619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2524471282959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37091732025146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44303035736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43444442749023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45161581039429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54433107376099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.600989818573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66623544692993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45504856109619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59240579605103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66280126571655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80359220504761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94953346252441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97872161865234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82247829437256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78813934326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60442495346069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59755706787109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50140714645386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16831541061401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17861795425415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32799339294434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29193735122681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23356008529663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35202980041504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46363353729248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56665134429932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49282073974609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2249755859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32112503051758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4945387840271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60614061355591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34859704971313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09791946411133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29708814620972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24042844772339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1425609588623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11852359771729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04297780990601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97429895401001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03095865249634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43345642089844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.586266040802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32013607025146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08491277694702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11238431930542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96987628936768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58012580871582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5148811340332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67284202575684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29438209533691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92866897583008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06259250640869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16389274597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2960991859436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62403917312622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5793981552124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56051206588745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51243686676025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68069839477539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61030292510986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56909561157227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62918996810913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66868019104004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85239505767822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78886699676514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65837812423706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77169752120972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69958543777466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63777446746826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40770149230957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39396572113037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55192613601685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51415348052979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45577716827393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50900268554688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55879402160645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28841829299927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39482402801514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36691474914551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26923036575317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13665819168091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03548574447632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07735109329224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0197868347168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08432817459106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03374195098877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06514024734497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02676439285278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09653854370117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05990695953369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96745634078979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0302529335022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30237293243408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14189195632935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19073390960693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22562122344971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25004243850708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16980171203613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20120000839233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39308023452759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24132061004639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25527477264404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45413255691528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44366598129272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41226768493652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34074926376343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23608732223511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38435840606689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2953953742981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20643377304077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0215311050415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61160707473755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34995269775391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56450891494751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64823818206787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43368196487427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47903537750244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55055379867554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5522985458374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58718585968018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74941110610962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6046290397644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61683988571167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5836968421936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47554636001587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49996757507324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48077964782715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20865964889526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30111074447632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45984745025635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6133508682251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45810270309448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54008817672729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46333599090576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2697114944458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3272762298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40751647949219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55404233932495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35169744491577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4424033164978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43891429901123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38309526443481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41449451446533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62556123733521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65172672271729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.594162940979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91686916351318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06688499450684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97268962860107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95350122451782</t>
+    <t xml:space="preserve">5.97268867492676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95350170135498</t>
   </si>
   <si>
     <t xml:space="preserve">5.92384672164917</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96920013427734</t>
+    <t xml:space="preserve">5.9692006111145</t>
   </si>
   <si>
     <t xml:space="preserve">6.00408744812012</t>
@@ -3968,28 +3968,28 @@
     <t xml:space="preserve">5.97617816925049</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85930585861206</t>
+    <t xml:space="preserve">5.8593053817749</t>
   </si>
   <si>
     <t xml:space="preserve">5.90291452407837</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78429794311523</t>
+    <t xml:space="preserve">5.78429889678955</t>
   </si>
   <si>
     <t xml:space="preserve">5.63079452514648</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73022365570068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67091464996338</t>
+    <t xml:space="preserve">5.73022317886353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67091417312622</t>
   </si>
   <si>
     <t xml:space="preserve">5.59939622879028</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46682453155518</t>
+    <t xml:space="preserve">5.46682500839233</t>
   </si>
   <si>
     <t xml:space="preserve">5.57846355438232</t>
@@ -4010,7 +4010,7 @@
     <t xml:space="preserve">5.54880952835083</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62032794952393</t>
+    <t xml:space="preserve">5.62032842636108</t>
   </si>
   <si>
     <t xml:space="preserve">5.63777256011963</t>
@@ -4031,7 +4031,7 @@
     <t xml:space="preserve">5.7354564666748</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70056915283203</t>
+    <t xml:space="preserve">5.70056867599487</t>
   </si>
   <si>
     <t xml:space="preserve">5.78080892562866</t>
@@ -4043,22 +4043,22 @@
     <t xml:space="preserve">5.58544111251831</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62730598449707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41798305511475</t>
+    <t xml:space="preserve">5.62730550765991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41798257827759</t>
   </si>
   <si>
     <t xml:space="preserve">5.59590721130371</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51566600799561</t>
+    <t xml:space="preserve">5.51566696166992</t>
   </si>
   <si>
     <t xml:space="preserve">5.56974220275879</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40926074981689</t>
+    <t xml:space="preserve">5.40926027297974</t>
   </si>
   <si>
     <t xml:space="preserve">5.64300489425659</t>
@@ -4070,19 +4070,19 @@
     <t xml:space="preserve">5.85407257080078</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83314037322998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77383136749268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78778648376465</t>
+    <t xml:space="preserve">5.83314085006714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77383184432983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78778696060181</t>
   </si>
   <si>
     <t xml:space="preserve">5.73371171951294</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58020734786987</t>
+    <t xml:space="preserve">5.58020782470703</t>
   </si>
   <si>
     <t xml:space="preserve">5.75813293457031</t>
@@ -4091,16 +4091,16 @@
     <t xml:space="preserve">5.80871915817261</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93605756759644</t>
+    <t xml:space="preserve">5.93605804443359</t>
   </si>
   <si>
     <t xml:space="preserve">6.01106548309326</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08781671524048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12270355224609</t>
+    <t xml:space="preserve">6.08781719207764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12270450592041</t>
   </si>
   <si>
     <t xml:space="preserve">6.15061378479004</t>
@@ -4109,7 +4109,7 @@
     <t xml:space="preserve">6.223876953125</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40180206298828</t>
+    <t xml:space="preserve">6.40180158615112</t>
   </si>
   <si>
     <t xml:space="preserve">6.42447805404663</t>
@@ -4118,16 +4118,16 @@
     <t xml:space="preserve">6.55356073379517</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63380146026611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61112499237061</t>
+    <t xml:space="preserve">6.63380193710327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61112451553345</t>
   </si>
   <si>
     <t xml:space="preserve">6.53437328338623</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57798194885254</t>
+    <t xml:space="preserve">6.57798147201538</t>
   </si>
   <si>
     <t xml:space="preserve">6.60065889358521</t>
@@ -4145,13 +4145,13 @@
     <t xml:space="preserve">6.78904962539673</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98092889785767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89720010757446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00534963607788</t>
+    <t xml:space="preserve">6.98092937469482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8971996307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00535011291504</t>
   </si>
   <si>
     <t xml:space="preserve">7.04547071456909</t>
@@ -4163,19 +4163,19 @@
     <t xml:space="preserve">7.00186157226562</t>
   </si>
   <si>
-    <t xml:space="preserve">7.05419301986694</t>
+    <t xml:space="preserve">7.05419254302979</t>
   </si>
   <si>
     <t xml:space="preserve">7.05958557128906</t>
   </si>
   <si>
-    <t xml:space="preserve">7.08475351333618</t>
+    <t xml:space="preserve">7.08475303649902</t>
   </si>
   <si>
     <t xml:space="preserve">7.11531448364258</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02542877197266</t>
+    <t xml:space="preserve">7.02542924880981</t>
   </si>
   <si>
     <t xml:space="preserve">7.04160833358765</t>
@@ -4193,7 +4193,7 @@
     <t xml:space="preserve">7.08295583724976</t>
   </si>
   <si>
-    <t xml:space="preserve">7.17284059524536</t>
+    <t xml:space="preserve">7.17284107208252</t>
   </si>
   <si>
     <t xml:space="preserve">7.12969589233398</t>
@@ -4205,70 +4205,70 @@
     <t xml:space="preserve">7.0218334197998</t>
   </si>
   <si>
-    <t xml:space="preserve">7.07756280899048</t>
+    <t xml:space="preserve">7.07756233215332</t>
   </si>
   <si>
     <t xml:space="preserve">7.0146427154541</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09913492202759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10273027420044</t>
+    <t xml:space="preserve">7.09913444519043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1027307510376</t>
   </si>
   <si>
     <t xml:space="preserve">6.98408174514771</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9319486618042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11171913146973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0649790763855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03981065750122</t>
+    <t xml:space="preserve">6.93194818496704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11171865463257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06497859954834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03981018066406</t>
   </si>
   <si>
     <t xml:space="preserve">7.00924968719482</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09733724594116</t>
+    <t xml:space="preserve">7.097336769104</t>
   </si>
   <si>
     <t xml:space="preserve">7.117112159729</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24654722213745</t>
+    <t xml:space="preserve">7.24654674530029</t>
   </si>
   <si>
     <t xml:space="preserve">7.20879554748535</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30407381057739</t>
+    <t xml:space="preserve">7.30407333374023</t>
   </si>
   <si>
     <t xml:space="preserve">7.44609212875366</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46047353744507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59350395202637</t>
+    <t xml:space="preserve">7.46047401428223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59350347518921</t>
   </si>
   <si>
     <t xml:space="preserve">7.63485145568848</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71754503250122</t>
+    <t xml:space="preserve">7.71754550933838</t>
   </si>
   <si>
     <t xml:space="preserve">7.7193431854248</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70675945281982</t>
+    <t xml:space="preserve">7.70675897598267</t>
   </si>
   <si>
     <t xml:space="preserve">7.56114482879639</t>
@@ -4283,16 +4283,16 @@
     <t xml:space="preserve">7.7373194694519</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79844093322754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81641912460327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88113641738892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87933874130249</t>
+    <t xml:space="preserve">7.79844236373901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81641864776611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88113689422607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87933778762817</t>
   </si>
   <si>
     <t xml:space="preserve">7.96023559570312</t>
@@ -4313,13 +4313,13 @@
     <t xml:space="preserve">8.17775630950928</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17955493927002</t>
+    <t xml:space="preserve">8.17955589294434</t>
   </si>
   <si>
     <t xml:space="preserve">8.10584926605225</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22989082336426</t>
+    <t xml:space="preserve">8.22989177703857</t>
   </si>
   <si>
     <t xml:space="preserve">8.26404762268066</t>
@@ -4343,7 +4343,7 @@
     <t xml:space="preserve">8.12742137908936</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19753170013428</t>
+    <t xml:space="preserve">8.19753265380859</t>
   </si>
   <si>
     <t xml:space="preserve">8.24786853790283</t>
@@ -4352,25 +4352,25 @@
     <t xml:space="preserve">8.2388801574707</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24427223205566</t>
+    <t xml:space="preserve">8.24427318572998</t>
   </si>
   <si>
     <t xml:space="preserve">8.3143835067749</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3701114654541</t>
+    <t xml:space="preserve">8.37011241912842</t>
   </si>
   <si>
     <t xml:space="preserve">8.37909984588623</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43482971191406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08427715301514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45687818527222</t>
+    <t xml:space="preserve">8.43482875823975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08427810668945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45687770843506</t>
   </si>
   <si>
     <t xml:space="preserve">7.62945795059204</t>
@@ -4379,19 +4379,19 @@
     <t xml:space="preserve">7.23216485977173</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30227518081665</t>
+    <t xml:space="preserve">7.30227565765381</t>
   </si>
   <si>
     <t xml:space="preserve">7.06138324737549</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33283615112305</t>
+    <t xml:space="preserve">7.33283662796021</t>
   </si>
   <si>
     <t xml:space="preserve">7.59170579910278</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44968795776367</t>
+    <t xml:space="preserve">7.44968748092651</t>
   </si>
   <si>
     <t xml:space="preserve">7.33822917938232</t>
@@ -4406,16 +4406,16 @@
     <t xml:space="preserve">7.41193580627441</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51979780197144</t>
+    <t xml:space="preserve">7.51979827880859</t>
   </si>
   <si>
     <t xml:space="preserve">7.51260662078857</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60608768463135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55754899978638</t>
+    <t xml:space="preserve">7.60608816146851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55754947662354</t>
   </si>
   <si>
     <t xml:space="preserve">7.47485542297363</t>
@@ -4433,13 +4433,13 @@
     <t xml:space="preserve">7.76428461074829</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76788091659546</t>
+    <t xml:space="preserve">7.76788139343262</t>
   </si>
   <si>
     <t xml:space="preserve">7.78945398330688</t>
   </si>
   <si>
-    <t xml:space="preserve">7.6851863861084</t>
+    <t xml:space="preserve">7.68518686294556</t>
   </si>
   <si>
     <t xml:space="preserve">7.74630832672119</t>
@@ -5283,6 +5283,9 @@
   </si>
   <si>
     <t xml:space="preserve">9.72500038146973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1000003814697</t>
   </si>
 </sst>
 </file>
@@ -27664,7 +27667,7 @@
         <v>6.5149998664856</v>
       </c>
       <c r="G848" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -27690,7 +27693,7 @@
         <v>6.30000019073486</v>
       </c>
       <c r="G849" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -27716,7 +27719,7 @@
         <v>6.31500005722046</v>
       </c>
       <c r="G850" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -27742,7 +27745,7 @@
         <v>6.33500003814697</v>
       </c>
       <c r="G851" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -27768,7 +27771,7 @@
         <v>6.17999982833862</v>
       </c>
       <c r="G852" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -27794,7 +27797,7 @@
         <v>6.17999982833862</v>
       </c>
       <c r="G853" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -27820,7 +27823,7 @@
         <v>6.11499977111816</v>
       </c>
       <c r="G854" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -27846,7 +27849,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G855" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -27872,7 +27875,7 @@
         <v>6.11999988555908</v>
       </c>
       <c r="G856" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -27898,7 +27901,7 @@
         <v>6.20499992370605</v>
       </c>
       <c r="G857" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -27924,7 +27927,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G858" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -27950,7 +27953,7 @@
         <v>6.17999982833862</v>
       </c>
       <c r="G859" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -27976,7 +27979,7 @@
         <v>6.15000009536743</v>
       </c>
       <c r="G860" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -28002,7 +28005,7 @@
         <v>6.14499998092651</v>
       </c>
       <c r="G861" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -28028,7 +28031,7 @@
         <v>6.05999994277954</v>
       </c>
       <c r="G862" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -28054,7 +28057,7 @@
         <v>6.07499980926514</v>
       </c>
       <c r="G863" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -28080,7 +28083,7 @@
         <v>6.07999992370605</v>
       </c>
       <c r="G864" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -28106,7 +28109,7 @@
         <v>6.03000020980835</v>
       </c>
       <c r="G865" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -28132,7 +28135,7 @@
         <v>6</v>
       </c>
       <c r="G866" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -28158,7 +28161,7 @@
         <v>6.03000020980835</v>
       </c>
       <c r="G867" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -28184,7 +28187,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G868" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -28210,7 +28213,7 @@
         <v>6.01000022888184</v>
       </c>
       <c r="G869" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -28236,7 +28239,7 @@
         <v>6.09499979019165</v>
       </c>
       <c r="G870" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -28262,7 +28265,7 @@
         <v>6.17500019073486</v>
       </c>
       <c r="G871" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -28288,7 +28291,7 @@
         <v>6.15999984741211</v>
       </c>
       <c r="G872" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -28314,7 +28317,7 @@
         <v>6.21999979019165</v>
       </c>
       <c r="G873" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -28340,7 +28343,7 @@
         <v>6.19500017166138</v>
       </c>
       <c r="G874" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -28366,7 +28369,7 @@
         <v>6.20499992370605</v>
       </c>
       <c r="G875" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -28392,7 +28395,7 @@
         <v>6.125</v>
       </c>
       <c r="G876" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -28418,7 +28421,7 @@
         <v>6.16499996185303</v>
       </c>
       <c r="G877" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -28444,7 +28447,7 @@
         <v>6.07000017166138</v>
       </c>
       <c r="G878" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -28470,7 +28473,7 @@
         <v>6.07499980926514</v>
       </c>
       <c r="G879" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -28496,7 +28499,7 @@
         <v>6.20499992370605</v>
       </c>
       <c r="G880" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -28522,7 +28525,7 @@
         <v>6.25500011444092</v>
       </c>
       <c r="G881" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -28548,7 +28551,7 @@
         <v>6.28499984741211</v>
       </c>
       <c r="G882" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -28574,7 +28577,7 @@
         <v>6.32499980926514</v>
       </c>
       <c r="G883" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -28600,7 +28603,7 @@
         <v>6.46999979019165</v>
       </c>
       <c r="G884" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -28626,7 +28629,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G885" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -28652,7 +28655,7 @@
         <v>6.38500022888184</v>
       </c>
       <c r="G886" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -28678,7 +28681,7 @@
         <v>6.46500015258789</v>
       </c>
       <c r="G887" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -28704,7 +28707,7 @@
         <v>6.47499990463257</v>
       </c>
       <c r="G888" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -28730,7 +28733,7 @@
         <v>6.48000001907349</v>
       </c>
       <c r="G889" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -28756,7 +28759,7 @@
         <v>6.5149998664856</v>
       </c>
       <c r="G890" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -28782,7 +28785,7 @@
         <v>6.66499996185303</v>
       </c>
       <c r="G891" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -28808,7 +28811,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G892" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -28834,7 +28837,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G893" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -28860,7 +28863,7 @@
         <v>6.6399998664856</v>
       </c>
       <c r="G894" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -28886,7 +28889,7 @@
         <v>6.58500003814697</v>
       </c>
       <c r="G895" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -28912,7 +28915,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G896" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -28938,7 +28941,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G897" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -28964,7 +28967,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G898" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -28990,7 +28993,7 @@
         <v>6.73000001907349</v>
       </c>
       <c r="G899" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -29016,7 +29019,7 @@
         <v>6.76000022888184</v>
       </c>
       <c r="G900" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -29042,7 +29045,7 @@
         <v>6.69500017166138</v>
       </c>
       <c r="G901" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -29068,7 +29071,7 @@
         <v>6.69500017166138</v>
       </c>
       <c r="G902" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -29094,7 +29097,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G903" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -29120,7 +29123,7 @@
         <v>6.59499979019165</v>
       </c>
       <c r="G904" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -29146,7 +29149,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G905" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -29172,7 +29175,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G906" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -29198,7 +29201,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G907" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -29224,7 +29227,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G908" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -29250,7 +29253,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G909" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -29302,7 +29305,7 @@
         <v>6.46500015258789</v>
       </c>
       <c r="G911" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -29328,7 +29331,7 @@
         <v>6.71500015258789</v>
       </c>
       <c r="G912" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -29354,7 +29357,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G913" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -29380,7 +29383,7 @@
         <v>6.57000017166138</v>
       </c>
       <c r="G914" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -29406,7 +29409,7 @@
         <v>6.55000019073486</v>
       </c>
       <c r="G915" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -29432,7 +29435,7 @@
         <v>6.57000017166138</v>
       </c>
       <c r="G916" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -29458,7 +29461,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G917" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -29484,7 +29487,7 @@
         <v>6.26000022888184</v>
       </c>
       <c r="G918" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -29510,7 +29513,7 @@
         <v>6.2649998664856</v>
       </c>
       <c r="G919" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -29536,7 +29539,7 @@
         <v>6.27500009536743</v>
       </c>
       <c r="G920" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -29562,7 +29565,7 @@
         <v>6.17000007629395</v>
       </c>
       <c r="G921" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -29588,7 +29591,7 @@
         <v>6.30000019073486</v>
       </c>
       <c r="G922" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -29640,7 +29643,7 @@
         <v>6.46000003814697</v>
       </c>
       <c r="G924" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -29666,7 +29669,7 @@
         <v>6.60500001907349</v>
       </c>
       <c r="G925" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -29692,7 +29695,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G926" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -29718,7 +29721,7 @@
         <v>6.48000001907349</v>
       </c>
       <c r="G927" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -29744,7 +29747,7 @@
         <v>6.53499984741211</v>
       </c>
       <c r="G928" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -29770,7 +29773,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G929" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -29796,7 +29799,7 @@
         <v>6.59499979019165</v>
       </c>
       <c r="G930" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -29822,7 +29825,7 @@
         <v>6.65500020980835</v>
       </c>
       <c r="G931" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -29848,7 +29851,7 @@
         <v>6.57999992370605</v>
       </c>
       <c r="G932" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -29874,7 +29877,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G933" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -29900,7 +29903,7 @@
         <v>6.60500001907349</v>
       </c>
       <c r="G934" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -29926,7 +29929,7 @@
         <v>6.71000003814697</v>
       </c>
       <c r="G935" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -29952,7 +29955,7 @@
         <v>6.73999977111816</v>
       </c>
       <c r="G936" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -29978,7 +29981,7 @@
         <v>6.73999977111816</v>
       </c>
       <c r="G937" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -30004,7 +30007,7 @@
         <v>6.86499977111816</v>
       </c>
       <c r="G938" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -30030,7 +30033,7 @@
         <v>6.88000011444092</v>
       </c>
       <c r="G939" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -30056,7 +30059,7 @@
         <v>6.84999990463257</v>
       </c>
       <c r="G940" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -30082,7 +30085,7 @@
         <v>6.84999990463257</v>
       </c>
       <c r="G941" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -30108,7 +30111,7 @@
         <v>7.01000022888184</v>
       </c>
       <c r="G942" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -30134,7 +30137,7 @@
         <v>6.94000005722046</v>
       </c>
       <c r="G943" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -30160,7 +30163,7 @@
         <v>6.96999979019165</v>
       </c>
       <c r="G944" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -30186,7 +30189,7 @@
         <v>7.03999996185303</v>
       </c>
       <c r="G945" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -30212,7 +30215,7 @@
         <v>7.05000019073486</v>
       </c>
       <c r="G946" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -30238,7 +30241,7 @@
         <v>7</v>
       </c>
       <c r="G947" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -30264,7 +30267,7 @@
         <v>6.875</v>
       </c>
       <c r="G948" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -30290,7 +30293,7 @@
         <v>6.91499996185303</v>
       </c>
       <c r="G949" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -30316,7 +30319,7 @@
         <v>6.84999990463257</v>
       </c>
       <c r="G950" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -30342,7 +30345,7 @@
         <v>6.8600001335144</v>
       </c>
       <c r="G951" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -30368,7 +30371,7 @@
         <v>6.89499998092651</v>
       </c>
       <c r="G952" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -30394,7 +30397,7 @@
         <v>6.8899998664856</v>
       </c>
       <c r="G953" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -30420,7 +30423,7 @@
         <v>6.88500022888184</v>
       </c>
       <c r="G954" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -30446,7 +30449,7 @@
         <v>6.79500007629395</v>
       </c>
       <c r="G955" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -30472,7 +30475,7 @@
         <v>6.79500007629395</v>
       </c>
       <c r="G956" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -30498,7 +30501,7 @@
         <v>6.94000005722046</v>
       </c>
       <c r="G957" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -30524,7 +30527,7 @@
         <v>6.95499992370605</v>
       </c>
       <c r="G958" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -30550,7 +30553,7 @@
         <v>6.94999980926514</v>
       </c>
       <c r="G959" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -30576,7 +30579,7 @@
         <v>6.94500017166138</v>
       </c>
       <c r="G960" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -30602,7 +30605,7 @@
         <v>6.97499990463257</v>
       </c>
       <c r="G961" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -30628,7 +30631,7 @@
         <v>7.19000005722046</v>
       </c>
       <c r="G962" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -30654,7 +30657,7 @@
         <v>7.25</v>
       </c>
       <c r="G963" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -30680,7 +30683,7 @@
         <v>7.30499982833862</v>
       </c>
       <c r="G964" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -30706,7 +30709,7 @@
         <v>7.36499977111816</v>
       </c>
       <c r="G965" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -30732,7 +30735,7 @@
         <v>7.42500019073486</v>
       </c>
       <c r="G966" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -30758,7 +30761,7 @@
         <v>7.5149998664856</v>
       </c>
       <c r="G967" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -30784,7 +30787,7 @@
         <v>7.55999994277954</v>
       </c>
       <c r="G968" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -30810,7 +30813,7 @@
         <v>7.57999992370605</v>
       </c>
       <c r="G969" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -30836,7 +30839,7 @@
         <v>7.59499979019165</v>
       </c>
       <c r="G970" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -30862,7 +30865,7 @@
         <v>7.625</v>
       </c>
       <c r="G971" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -30888,7 +30891,7 @@
         <v>7.67500019073486</v>
       </c>
       <c r="G972" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -30914,7 +30917,7 @@
         <v>7.69000005722046</v>
       </c>
       <c r="G973" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -30940,7 +30943,7 @@
         <v>7.68499994277954</v>
       </c>
       <c r="G974" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -30966,7 +30969,7 @@
         <v>7.69500017166138</v>
       </c>
       <c r="G975" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -30992,7 +30995,7 @@
         <v>7.68499994277954</v>
       </c>
       <c r="G976" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -31018,7 +31021,7 @@
         <v>7.71000003814697</v>
       </c>
       <c r="G977" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -31044,7 +31047,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G978" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -31070,7 +31073,7 @@
         <v>7.71000003814697</v>
       </c>
       <c r="G979" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -31096,7 +31099,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G980" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -31122,7 +31125,7 @@
         <v>8.26000022888184</v>
       </c>
       <c r="G981" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -31148,7 +31151,7 @@
         <v>8.39500045776367</v>
       </c>
       <c r="G982" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -31174,7 +31177,7 @@
         <v>8.63000011444092</v>
       </c>
       <c r="G983" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -31200,7 +31203,7 @@
         <v>8.77999973297119</v>
       </c>
       <c r="G984" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -31226,7 +31229,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G985" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -31252,7 +31255,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G986" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -31278,7 +31281,7 @@
         <v>8.61999988555908</v>
       </c>
       <c r="G987" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -31304,7 +31307,7 @@
         <v>8.53499984741211</v>
       </c>
       <c r="G988" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -31330,7 +31333,7 @@
         <v>8.76500034332275</v>
       </c>
       <c r="G989" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -31356,7 +31359,7 @@
         <v>8.97000026702881</v>
       </c>
       <c r="G990" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -31382,7 +31385,7 @@
         <v>8.98999977111816</v>
       </c>
       <c r="G991" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -31408,7 +31411,7 @@
         <v>9.11499977111816</v>
       </c>
       <c r="G992" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -31434,7 +31437,7 @@
         <v>9.03999996185303</v>
       </c>
       <c r="G993" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -31460,7 +31463,7 @@
         <v>9.19999980926514</v>
       </c>
       <c r="G994" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -31486,7 +31489,7 @@
         <v>9.22999954223633</v>
       </c>
       <c r="G995" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -31512,7 +31515,7 @@
         <v>9.30500030517578</v>
       </c>
       <c r="G996" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -31538,7 +31541,7 @@
         <v>9.21500015258789</v>
       </c>
       <c r="G997" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -31564,7 +31567,7 @@
         <v>9.13000011444092</v>
       </c>
       <c r="G998" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -31590,7 +31593,7 @@
         <v>9.10499954223633</v>
       </c>
       <c r="G999" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -31616,7 +31619,7 @@
         <v>9.21000003814697</v>
       </c>
       <c r="G1000" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -31642,7 +31645,7 @@
         <v>9.27999973297119</v>
       </c>
       <c r="G1001" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -31668,7 +31671,7 @@
         <v>9.20499992370605</v>
       </c>
       <c r="G1002" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -31694,7 +31697,7 @@
         <v>9.03499984741211</v>
       </c>
       <c r="G1003" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -31720,7 +31723,7 @@
         <v>9.0600004196167</v>
       </c>
       <c r="G1004" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -31746,7 +31749,7 @@
         <v>9.10000038146973</v>
       </c>
       <c r="G1005" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -31772,7 +31775,7 @@
         <v>9.10499954223633</v>
       </c>
       <c r="G1006" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -31798,7 +31801,7 @@
         <v>9.0649995803833</v>
       </c>
       <c r="G1007" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -31824,7 +31827,7 @@
         <v>9.16499996185303</v>
       </c>
       <c r="G1008" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -31850,7 +31853,7 @@
         <v>9.13500022888184</v>
       </c>
       <c r="G1009" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -31876,7 +31879,7 @@
         <v>9.125</v>
       </c>
       <c r="G1010" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -31902,7 +31905,7 @@
         <v>9.08500003814697</v>
       </c>
       <c r="G1011" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -31928,7 +31931,7 @@
         <v>8.96500015258789</v>
       </c>
       <c r="G1012" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -31954,7 +31957,7 @@
         <v>8.92000007629395</v>
       </c>
       <c r="G1013" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -31980,7 +31983,7 @@
         <v>8.9350004196167</v>
       </c>
       <c r="G1014" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -32006,7 +32009,7 @@
         <v>8.85499954223633</v>
       </c>
       <c r="G1015" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -32032,7 +32035,7 @@
         <v>8.89500045776367</v>
       </c>
       <c r="G1016" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -32058,7 +32061,7 @@
         <v>8.77499961853027</v>
       </c>
       <c r="G1017" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -32084,7 +32087,7 @@
         <v>8.59500026702881</v>
       </c>
       <c r="G1018" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -32110,7 +32113,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G1019" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -32136,7 +32139,7 @@
         <v>8.80000019073486</v>
       </c>
       <c r="G1020" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -32162,7 +32165,7 @@
         <v>9.11499977111816</v>
       </c>
       <c r="G1021" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -32188,7 +32191,7 @@
         <v>9</v>
       </c>
       <c r="G1022" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -32214,7 +32217,7 @@
         <v>8.9350004196167</v>
       </c>
       <c r="G1023" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -32240,7 +32243,7 @@
         <v>8.85499954223633</v>
       </c>
       <c r="G1024" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -32266,7 +32269,7 @@
         <v>8.73499965667725</v>
       </c>
       <c r="G1025" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -32292,7 +32295,7 @@
         <v>8.72999954223633</v>
       </c>
       <c r="G1026" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -32318,7 +32321,7 @@
         <v>8.875</v>
       </c>
       <c r="G1027" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -32344,7 +32347,7 @@
         <v>8.77000045776367</v>
       </c>
       <c r="G1028" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -32370,7 +32373,7 @@
         <v>8.61999988555908</v>
       </c>
       <c r="G1029" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -32396,7 +32399,7 @@
         <v>8.65999984741211</v>
       </c>
       <c r="G1030" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -32422,7 +32425,7 @@
         <v>8.65999984741211</v>
       </c>
       <c r="G1031" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -32448,7 +32451,7 @@
         <v>8.59000015258789</v>
       </c>
       <c r="G1032" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -32474,7 +32477,7 @@
         <v>8.32999992370605</v>
       </c>
       <c r="G1033" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -32500,7 +32503,7 @@
         <v>8.51500034332275</v>
       </c>
       <c r="G1034" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -32526,7 +32529,7 @@
         <v>8.61999988555908</v>
       </c>
       <c r="G1035" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -32552,7 +32555,7 @@
         <v>8.40999984741211</v>
       </c>
       <c r="G1036" t="s">
-        <v>727</v>
+        <v>769</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -32656,7 +32659,7 @@
         <v>8.32999992370605</v>
       </c>
       <c r="G1040" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -32812,7 +32815,7 @@
         <v>8.40999984741211</v>
       </c>
       <c r="G1046" t="s">
-        <v>727</v>
+        <v>769</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -62564,7 +62567,7 @@
     </row>
     <row r="2191">
       <c r="A2191" s="1" t="n">
-        <v>45512.6495717593</v>
+        <v>45512.2916666667</v>
       </c>
       <c r="B2191" t="n">
         <v>1111363</v>
@@ -62585,6 +62588,32 @@
         <v>1707</v>
       </c>
       <c r="H2191" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2192">
+      <c r="A2192" s="1" t="n">
+        <v>45513.6496180556</v>
+      </c>
+      <c r="B2192" t="n">
+        <v>1246460</v>
+      </c>
+      <c r="C2192" t="n">
+        <v>10.1999998092651</v>
+      </c>
+      <c r="D2192" t="n">
+        <v>9.89500045776367</v>
+      </c>
+      <c r="E2192" t="n">
+        <v>9.94999980926514</v>
+      </c>
+      <c r="F2192" t="n">
+        <v>10.1000003814697</v>
+      </c>
+      <c r="G2192" t="s">
+        <v>1757</v>
+      </c>
+      <c r="H2192" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BMED.MI.xlsx
+++ b/data/BMED.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1758" uniqueCount="1758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1759" uniqueCount="1759">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,19 +44,19 @@
     <t xml:space="preserve">BMED.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26425218582153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99385142326355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9006085395813</t>
+    <t xml:space="preserve">4.26425075531006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9938497543335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90060830116272</t>
   </si>
   <si>
     <t xml:space="preserve">3.89439249038696</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92236471176147</t>
+    <t xml:space="preserve">3.92236518859863</t>
   </si>
   <si>
     <t xml:space="preserve">4.03425455093384</t>
@@ -65,46 +65,46 @@
     <t xml:space="preserve">4.04047107696533</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75452995300293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72345042228699</t>
+    <t xml:space="preserve">3.75452971458435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72344946861267</t>
   </si>
   <si>
     <t xml:space="preserve">3.760746717453</t>
   </si>
   <si>
-    <t xml:space="preserve">3.5431821346283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66750407218933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90682482719421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9161491394043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91925764083862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82912373542786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84155535697937</t>
+    <t xml:space="preserve">3.54318189620972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66750454902649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90682506561279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91614890098572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91925740242004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82912302017212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84155583381653</t>
   </si>
   <si>
     <t xml:space="preserve">3.68615293502808</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58669495582581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64264011383057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77628636360168</t>
+    <t xml:space="preserve">3.58669590950012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64264035224915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77628660202026</t>
   </si>
   <si>
     <t xml:space="preserve">3.46237325668335</t>
@@ -113,133 +113,133 @@
     <t xml:space="preserve">3.30386233329773</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60534334182739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71723365783691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78561043739319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88817691802979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84466290473938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84777188301086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95966124534607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92547273635864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83844804763794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98763394355774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0746603012085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07155084609985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21763038635254</t>
+    <t xml:space="preserve">3.60534381866455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71723341941833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7856113910675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88817572593689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8446638584137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84777212142944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95966148376465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9254732131958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83844828605652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98763465881348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07465982437134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07155179977417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2176308631897</t>
   </si>
   <si>
     <t xml:space="preserve">4.23938703536987</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13371276855469</t>
+    <t xml:space="preserve">4.13371324539185</t>
   </si>
   <si>
     <t xml:space="preserve">4.2114143371582</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20830583572388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27357578277588</t>
+    <t xml:space="preserve">4.20830488204956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27357482910156</t>
   </si>
   <si>
     <t xml:space="preserve">4.34816884994507</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33262777328491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30154848098755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23006248474121</t>
+    <t xml:space="preserve">4.33262825012207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30154800415039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23006296157837</t>
   </si>
   <si>
     <t xml:space="preserve">4.28600788116455</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25181913375854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22073841094971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17411804199219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35749292373657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39168214797974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41654586791992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24249505996704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15236139297485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04668760299683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27979135513306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3139796257019</t>
+    <t xml:space="preserve">4.25182008743286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22073888778687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17411708831787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35749244689941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39168167114258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41654682159424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24249458312988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1523609161377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04668807983398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27979183197021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31398057937622</t>
   </si>
   <si>
     <t xml:space="preserve">4.27046728134155</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43208694458008</t>
+    <t xml:space="preserve">4.43208599090576</t>
   </si>
   <si>
     <t xml:space="preserve">4.47559881210327</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40100526809692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50564002990723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43905401229858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51198196411133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54051876068115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.531005859375</t>
+    <t xml:space="preserve">4.40100574493408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50564098358154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43905448913574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51198148727417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54051923751831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53100633621216</t>
   </si>
   <si>
     <t xml:space="preserve">4.43271255493164</t>
@@ -248,16 +248,16 @@
     <t xml:space="preserve">4.4834451675415</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44222497940063</t>
+    <t xml:space="preserve">4.44222545623779</t>
   </si>
   <si>
     <t xml:space="preserve">4.57222700119019</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55637264251709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61661672592163</t>
+    <t xml:space="preserve">4.55637311935425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61661624908447</t>
   </si>
   <si>
     <t xml:space="preserve">4.48978662490845</t>
@@ -269,208 +269,208 @@
     <t xml:space="preserve">4.56588459014893</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53417730331421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63881206512451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48661613464355</t>
+    <t xml:space="preserve">4.53417682647705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63881301879883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4866156578064</t>
   </si>
   <si>
     <t xml:space="preserve">4.49612855911255</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48027515411377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51515197753906</t>
+    <t xml:space="preserve">4.48027467727661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51515293121338</t>
   </si>
   <si>
     <t xml:space="preserve">4.47710371017456</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50247049331665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66100692749023</t>
+    <t xml:space="preserve">4.50247001647949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66100740432739</t>
   </si>
   <si>
     <t xml:space="preserve">4.90198516845703</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83857011795044</t>
+    <t xml:space="preserve">4.83856964111328</t>
   </si>
   <si>
     <t xml:space="preserve">4.7561297416687</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78466749191284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81637382507324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77832508087158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72442197799683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74661779403687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60710430145264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62929964065552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68003177642822</t>
+    <t xml:space="preserve">4.78466653823853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8163743019104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77832460403442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72442293167114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74661827087402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60710382461548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62930059432983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68003225326538</t>
   </si>
   <si>
     <t xml:space="preserve">4.64198350906372</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2202730178833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03319835662842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05856418609619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98563599586487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.115638256073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3249077796936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36929845809937</t>
+    <t xml:space="preserve">4.22027349472046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03319787979126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05856466293335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98563742637634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11563682556152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32490730285645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36929750442505</t>
   </si>
   <si>
     <t xml:space="preserve">4.34710264205933</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50881099700928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83027005195618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58612275123596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73514676094055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69709849357605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89051532745361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90002632141113</t>
+    <t xml:space="preserve">4.50881147384644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83026957511902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58612203598022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73514771461487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69709897041321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89051508903503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90002703666687</t>
   </si>
   <si>
     <t xml:space="preserve">3.75734281539917</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70660972595215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64636588096619</t>
+    <t xml:space="preserve">3.70661067962646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64636707305908</t>
   </si>
   <si>
     <t xml:space="preserve">3.67173266410828</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87466096878052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97295355796814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10929679870605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9951491355896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02051591873169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04270935058594</t>
+    <t xml:space="preserve">3.87466025352478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9729540348053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1092963218689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99514842033386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02051544189453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0427098274231</t>
   </si>
   <si>
     <t xml:space="preserve">4.06490564346313</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04588174819946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01417446136475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1536865234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09027242660522</t>
+    <t xml:space="preserve">4.0458812713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01417350769043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15368700027466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09027147293091</t>
   </si>
   <si>
     <t xml:space="preserve">4.16002798080444</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87783145904541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82075762748718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90636825561523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05222368240356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07758903503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96344089508057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8968563079834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94441699981689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85246515274048</t>
+    <t xml:space="preserve">3.87783074378967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82075715065002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90636801719666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05222320556641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07758808135986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96344137191772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89685606956482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94441747665405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85246539115906</t>
   </si>
   <si>
     <t xml:space="preserve">3.97612524032593</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01734399795532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94124627113342</t>
+    <t xml:space="preserve">4.01734447479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94124603271484</t>
   </si>
   <si>
     <t xml:space="preserve">3.96978330612183</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01100206375122</t>
+    <t xml:space="preserve">4.01100301742554</t>
   </si>
   <si>
     <t xml:space="preserve">4.07441759109497</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09344244003296</t>
+    <t xml:space="preserve">4.09344291687012</t>
   </si>
   <si>
     <t xml:space="preserve">4.0553936958313</t>
@@ -479,7 +479,7 @@
     <t xml:space="preserve">4.08075904846191</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17271089553833</t>
+    <t xml:space="preserve">4.1727123260498</t>
   </si>
   <si>
     <t xml:space="preserve">4.11246728897095</t>
@@ -494,70 +494,70 @@
     <t xml:space="preserve">4.00783252716064</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78587913513184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85880756378174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77953815460205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83978176116943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87148904800415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76685547828674</t>
+    <t xml:space="preserve">3.78587889671326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85880661010742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77953767776489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83978271484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87148928642273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76685452461243</t>
   </si>
   <si>
     <t xml:space="preserve">3.65270805358887</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69075679779053</t>
+    <t xml:space="preserve">3.69075655937195</t>
   </si>
   <si>
     <t xml:space="preserve">3.76051354408264</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73197674751282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74148964881897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92222142219543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88100242614746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95710039138794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89368486404419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95392966270447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79539227485657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86831903457642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91905117034912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92539167404175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00149059295654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07124710083008</t>
+    <t xml:space="preserve">3.73197722434998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74148869514465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92222189903259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88100171089172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9570996761322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89368557929993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95392918586731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79539155960083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.868319272995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91905093193054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92539310455322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00149011611938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07124662399292</t>
   </si>
   <si>
     <t xml:space="preserve">3.84295320510864</t>
@@ -566,103 +566,103 @@
     <t xml:space="preserve">3.81441617012024</t>
   </si>
   <si>
-    <t xml:space="preserve">3.950758934021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04905223846436</t>
+    <t xml:space="preserve">3.95075869560242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0490517616272</t>
   </si>
